--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.170668</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.164843</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.165379</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.150997</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.152331</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.149768</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.152588</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.154628</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.221009</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.212625</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.195441</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.194947</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.186434</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.178351</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.173591</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.168205</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.16688</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.159624</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.158982</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.157925</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157835</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.235187</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.234979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.222812</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.212721</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.204469</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.19605</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.192526</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.179359</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.173725</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.172037</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.170274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.163399</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.165498</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.243844</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.23535</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.226636</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217798</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.210594</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.203038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.200194</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.194085</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.189659</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.184056</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.179376</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.176819</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.175946</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.176716</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.179499</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.246194</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.236625</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.228535</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.220311</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.212764</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205025</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.198959</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.193449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.188205</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.182403</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.179269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177012</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177729</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.180358</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.244029</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236519</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228133</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.220467</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.212274</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.205977</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.199758</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.19413</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.188413</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.184215</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181004</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.178894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.17897</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.180581</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.256846</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.250364</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.24198</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.233548</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.227319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.219364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.207721</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.201258</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.19653</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.192528</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.189688</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.188619</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.189627</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.270145</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.264648</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.257315</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.250563</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.24473</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.238846</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.232631</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.227556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.222112</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.213903</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.21037</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.208235</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.208631</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.210884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.284085</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.277325</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.271154</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.265253</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.259777</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.254644</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.250128</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.245359</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.241561</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.23764</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.234284</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.231834</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.231043</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.232245</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.315814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.310851</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306028</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.299753</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.294531</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.289946</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.285871</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.28194</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.278146</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275044</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.27231</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270276</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.26913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.270188</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.360478</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.354977</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.350567</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.345151</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.34072</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.335998</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.136461</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.143885</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.138416</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.131866</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.128733</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.125371</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.119173</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.119054</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.199755</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.194893</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.186611</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.180929</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.171719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.164359</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.159604</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.156142</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.148751</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.145812</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.141893</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.140321</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.138166</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.138866</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.22216</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.214043</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.202789</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.194749</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.188153</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.180718</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.174444</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.168821</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.162937</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.157914</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.153826</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.150082</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.147894</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.146972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.223466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.214588</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.206551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.198601</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.191216</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.18396</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.180497</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.174746</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.168726</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.16349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.159218</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.155587</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.151411</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.223567</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.215128</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.206602</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.199106</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.191861</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.184943</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.178332</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.172886</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.167693</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.160526</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.156473</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.15361</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.151918</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.152658</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.228151</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.219456</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.21135</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.203187</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.195914</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.188766</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.182265</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.176143</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.170713</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.165631</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.161469</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.158217</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.156204</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.156222</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.230333</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.222566</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.214771</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.207566</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.200837</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.19364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.188096</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.181911</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.176008</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.171451</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.166593</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.163878</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.160923</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.160238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.248401</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.240463</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.232944</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.225805</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.22678</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.212444</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.206497</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.201607</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.195129</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.189518</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.186515</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.18283</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.18042</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.179433</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.181014</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.260856</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.252951</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.245756</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.239063</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.232542</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.226357</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.221257</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.217762</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.212853</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.208819</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.20483</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.201751</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.200686</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.200643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.284238</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.278287</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.268032</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.262246</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.2563</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.25157</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.247088</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.242605</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.238676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.235063</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.231818</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.229352</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.227891</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.22831</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.321523</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.315351</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.309742</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.304011</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.29869</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.29374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.134178</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131948</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.136503</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.127659</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.126491</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.127377</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.120481</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.189804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.193076</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.185771</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.175595</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.170808</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.163676</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.15658</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.15111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.147927</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.144277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.141029</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.138444</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.136899</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138731</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.22524</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217581</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.205227</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.196362</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.189144</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.18136</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.175284</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.170321</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162701</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.159519</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.153345</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.150314</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149603</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148604</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.230138</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.221941</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.212902</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.202745</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.197872</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.189578</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.181192</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.178348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.172191</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.16614</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.161458</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.158505</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.156259</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.155863</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.240125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.228307</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.222098</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.213257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204699</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.197271</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189954</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182964</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.176915</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.172102</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.167281</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.161153</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158454</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.157323</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158629</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235154</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.225864</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.218407</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209007</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201152</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.19372</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.186741</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.180491</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.174783</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.169469</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.165683</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.162247</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.160468</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.161441</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.238856</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.22991</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.220936</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.205347</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.198292</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.191445</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.184661</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.17408</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.16936</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.166191</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.164353</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.254673</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.247489</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.238121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.230923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.223773</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.215514</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.211001</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.20299</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.197244</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.191961</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.18761</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.184086</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.180878</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.180431</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27151</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.265086</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.257155</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.249492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.241637</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.233598</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.228107</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.221879</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.218226</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.213206</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.207735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.203661</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.200217</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.199303</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.199921</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.28659</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.280042</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.274273</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.264434</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.258887</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.253968</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.248195</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.244422</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.240173</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.236482</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.23349</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.230364</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.229418</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.229508</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.325813</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.320407</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.314921</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.309403</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.304799</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.300275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.29509</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247562</v>
+        <v>0.245307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251969</v>
+        <v>0.244751</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22043</v>
+        <v>0.215738</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241256</v>
+        <v>0.239085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243828</v>
+        <v>0.239291</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214424</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.235373</v>
+        <v>0.233416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236807</v>
+        <v>0.233383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209685</v>
+        <v>0.204697</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230088</v>
+        <v>0.227936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.231773</v>
+        <v>0.229109</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206063</v>
+        <v>0.200495</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225571</v>
+        <v>0.223485</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226358</v>
+        <v>0.225958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202025</v>
+        <v>0.196771</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221802</v>
+        <v>0.219703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223044</v>
+        <v>0.224583</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200455</v>
+        <v>0.194156</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220113</v>
+        <v>0.216868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220671</v>
+        <v>0.225682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20119</v>
+        <v>0.196146</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220483</v>
+        <v>0.21646</v>
       </c>
       <c r="C9" t="n">
-        <v>0.222052</v>
+        <v>0.315352</v>
       </c>
       <c r="D9" t="n">
-        <v>0.294041</v>
+        <v>0.287672</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309788</v>
+        <v>0.305655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.328536</v>
+        <v>0.306139</v>
       </c>
       <c r="D10" t="n">
-        <v>0.283314</v>
+        <v>0.277221</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300062</v>
+        <v>0.29604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.317841</v>
+        <v>0.29493</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273825</v>
+        <v>0.268183</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290866</v>
+        <v>0.287067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.306865</v>
+        <v>0.28638</v>
       </c>
       <c r="D12" t="n">
-        <v>0.265246</v>
+        <v>0.260006</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.281577</v>
+        <v>0.278071</v>
       </c>
       <c r="C13" t="n">
-        <v>0.296429</v>
+        <v>0.27844</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25652</v>
+        <v>0.251805</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273417</v>
+        <v>0.269988</v>
       </c>
       <c r="C14" t="n">
-        <v>0.287263</v>
+        <v>0.27083</v>
       </c>
       <c r="D14" t="n">
-        <v>0.248912</v>
+        <v>0.244447</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265586</v>
+        <v>0.262454</v>
       </c>
       <c r="C15" t="n">
-        <v>0.278168</v>
+        <v>0.264034</v>
       </c>
       <c r="D15" t="n">
-        <v>0.242378</v>
+        <v>0.237443</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.258288</v>
+        <v>0.25483</v>
       </c>
       <c r="C16" t="n">
-        <v>0.269673</v>
+        <v>0.257607</v>
       </c>
       <c r="D16" t="n">
-        <v>0.235597</v>
+        <v>0.230838</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251298</v>
+        <v>0.24822</v>
       </c>
       <c r="C17" t="n">
-        <v>0.26223</v>
+        <v>0.251881</v>
       </c>
       <c r="D17" t="n">
-        <v>0.229974</v>
+        <v>0.225226</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.24478</v>
+        <v>0.241638</v>
       </c>
       <c r="C18" t="n">
-        <v>0.255203</v>
+        <v>0.246759</v>
       </c>
       <c r="D18" t="n">
-        <v>0.223827</v>
+        <v>0.219941</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.239023</v>
+        <v>0.235915</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248873</v>
+        <v>0.242432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219488</v>
+        <v>0.215663</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233968</v>
+        <v>0.231109</v>
       </c>
       <c r="C20" t="n">
-        <v>0.243521</v>
+        <v>0.239431</v>
       </c>
       <c r="D20" t="n">
-        <v>0.216724</v>
+        <v>0.212107</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230567</v>
+        <v>0.227187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.239917</v>
+        <v>0.238195</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214882</v>
+        <v>0.210075</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227218</v>
+        <v>0.224257</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23691</v>
+        <v>0.239089</v>
       </c>
       <c r="D22" t="n">
-        <v>0.214727</v>
+        <v>0.210435</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226269</v>
+        <v>0.223104</v>
       </c>
       <c r="C23" t="n">
-        <v>0.236427</v>
+        <v>0.328682</v>
       </c>
       <c r="D23" t="n">
-        <v>0.308033</v>
+        <v>0.302404</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314612</v>
+        <v>0.31047</v>
       </c>
       <c r="C24" t="n">
-        <v>0.346169</v>
+        <v>0.31761</v>
       </c>
       <c r="D24" t="n">
-        <v>0.298038</v>
+        <v>0.29077</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.304546</v>
+        <v>0.300927</v>
       </c>
       <c r="C25" t="n">
-        <v>0.335694</v>
+        <v>0.308591</v>
       </c>
       <c r="D25" t="n">
-        <v>0.288423</v>
+        <v>0.281426</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.295803</v>
+        <v>0.291804</v>
       </c>
       <c r="C26" t="n">
-        <v>0.323649</v>
+        <v>0.299906</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279095</v>
+        <v>0.27264</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28653</v>
+        <v>0.282934</v>
       </c>
       <c r="C27" t="n">
-        <v>0.31257</v>
+        <v>0.291619</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270597</v>
+        <v>0.264237</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278316</v>
+        <v>0.274743</v>
       </c>
       <c r="C28" t="n">
-        <v>0.30267</v>
+        <v>0.283769</v>
       </c>
       <c r="D28" t="n">
-        <v>0.260814</v>
+        <v>0.256533</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270013</v>
+        <v>0.26681</v>
       </c>
       <c r="C29" t="n">
-        <v>0.294111</v>
+        <v>0.276421</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255052</v>
+        <v>0.249122</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262484</v>
+        <v>0.259245</v>
       </c>
       <c r="C30" t="n">
-        <v>0.28492</v>
+        <v>0.269529</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247087</v>
+        <v>0.242419</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255535</v>
+        <v>0.252341</v>
       </c>
       <c r="C31" t="n">
-        <v>0.275895</v>
+        <v>0.263668</v>
       </c>
       <c r="D31" t="n">
-        <v>0.239876</v>
+        <v>0.235929</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249012</v>
+        <v>0.245998</v>
       </c>
       <c r="C32" t="n">
-        <v>0.268271</v>
+        <v>0.25811</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234094</v>
+        <v>0.230314</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243663</v>
+        <v>0.24022</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261546</v>
+        <v>0.253263</v>
       </c>
       <c r="D33" t="n">
-        <v>0.230269</v>
+        <v>0.225517</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237908</v>
+        <v>0.235028</v>
       </c>
       <c r="C34" t="n">
-        <v>0.255107</v>
+        <v>0.249686</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22487</v>
+        <v>0.221862</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23354</v>
+        <v>0.230829</v>
       </c>
       <c r="C35" t="n">
-        <v>0.24911</v>
+        <v>0.247199</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222186</v>
+        <v>0.219392</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231073</v>
+        <v>0.22769</v>
       </c>
       <c r="C36" t="n">
-        <v>0.245208</v>
+        <v>0.247096</v>
       </c>
       <c r="D36" t="n">
-        <v>0.221079</v>
+        <v>0.218821</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229051</v>
+        <v>0.226496</v>
       </c>
       <c r="C37" t="n">
-        <v>0.244787</v>
+        <v>0.341678</v>
       </c>
       <c r="D37" t="n">
-        <v>0.316609</v>
+        <v>0.312769</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315965</v>
+        <v>0.315086</v>
       </c>
       <c r="C38" t="n">
-        <v>0.356933</v>
+        <v>0.332336</v>
       </c>
       <c r="D38" t="n">
-        <v>0.306813</v>
+        <v>0.300982</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.307206</v>
+        <v>0.305311</v>
       </c>
       <c r="C39" t="n">
-        <v>0.345118</v>
+        <v>0.320501</v>
       </c>
       <c r="D39" t="n">
-        <v>0.297215</v>
+        <v>0.291535</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297783</v>
+        <v>0.296379</v>
       </c>
       <c r="C40" t="n">
-        <v>0.334556</v>
+        <v>0.311844</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288214</v>
+        <v>0.282446</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.289064</v>
+        <v>0.287756</v>
       </c>
       <c r="C41" t="n">
-        <v>0.323623</v>
+        <v>0.303649</v>
       </c>
       <c r="D41" t="n">
-        <v>0.279546</v>
+        <v>0.273996</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.281304</v>
+        <v>0.279767</v>
       </c>
       <c r="C42" t="n">
-        <v>0.313231</v>
+        <v>0.295841</v>
       </c>
       <c r="D42" t="n">
-        <v>0.271387</v>
+        <v>0.265929</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273029</v>
+        <v>0.272107</v>
       </c>
       <c r="C43" t="n">
-        <v>0.303454</v>
+        <v>0.288616</v>
       </c>
       <c r="D43" t="n">
-        <v>0.263692</v>
+        <v>0.25834</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265595</v>
+        <v>0.264886</v>
       </c>
       <c r="C44" t="n">
-        <v>0.294072</v>
+        <v>0.281822</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256326</v>
+        <v>0.251279</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258847</v>
+        <v>0.258167</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285638</v>
+        <v>0.275461</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249648</v>
+        <v>0.244686</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25253</v>
+        <v>0.251922</v>
       </c>
       <c r="C46" t="n">
-        <v>0.277983</v>
+        <v>0.269813</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244</v>
+        <v>0.23885</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.247416</v>
+        <v>0.246131</v>
       </c>
       <c r="C47" t="n">
-        <v>0.271616</v>
+        <v>0.264663</v>
       </c>
       <c r="D47" t="n">
-        <v>0.23885</v>
+        <v>0.233571</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.242247</v>
+        <v>0.240961</v>
       </c>
       <c r="C48" t="n">
-        <v>0.265319</v>
+        <v>0.260683</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234338</v>
+        <v>0.229153</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237193</v>
+        <v>0.236631</v>
       </c>
       <c r="C49" t="n">
-        <v>0.259415</v>
+        <v>0.257862</v>
       </c>
       <c r="D49" t="n">
-        <v>0.23108</v>
+        <v>0.225853</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234107</v>
+        <v>0.233437</v>
       </c>
       <c r="C50" t="n">
-        <v>0.255155</v>
+        <v>0.256452</v>
       </c>
       <c r="D50" t="n">
-        <v>0.229607</v>
+        <v>0.22439</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.23242</v>
+        <v>0.231574</v>
       </c>
       <c r="C51" t="n">
-        <v>0.252877</v>
+        <v>0.357337</v>
       </c>
       <c r="D51" t="n">
-        <v>0.328799</v>
+        <v>0.321818</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.234502</v>
+        <v>0.232712</v>
       </c>
       <c r="C52" t="n">
-        <v>0.253249</v>
+        <v>0.348215</v>
       </c>
       <c r="D52" t="n">
-        <v>0.318609</v>
+        <v>0.312105</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.321128</v>
+        <v>0.318637</v>
       </c>
       <c r="C53" t="n">
-        <v>0.359622</v>
+        <v>0.338932</v>
       </c>
       <c r="D53" t="n">
-        <v>0.308975</v>
+        <v>0.302667</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311518</v>
+        <v>0.30955</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348328</v>
+        <v>0.330344</v>
       </c>
       <c r="D54" t="n">
-        <v>0.300044</v>
+        <v>0.293519</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.302976</v>
+        <v>0.300831</v>
       </c>
       <c r="C55" t="n">
-        <v>0.337508</v>
+        <v>0.322461</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291204</v>
+        <v>0.284997</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.294774</v>
+        <v>0.292518</v>
       </c>
       <c r="C56" t="n">
-        <v>0.327427</v>
+        <v>0.31421</v>
       </c>
       <c r="D56" t="n">
-        <v>0.283135</v>
+        <v>0.276994</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287594</v>
+        <v>0.284669</v>
       </c>
       <c r="C57" t="n">
-        <v>0.317872</v>
+        <v>0.30668</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275388</v>
+        <v>0.269206</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.280536</v>
+        <v>0.277552</v>
       </c>
       <c r="C58" t="n">
-        <v>0.308735</v>
+        <v>0.300245</v>
       </c>
       <c r="D58" t="n">
-        <v>0.267915</v>
+        <v>0.262133</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273548</v>
+        <v>0.270199</v>
       </c>
       <c r="C59" t="n">
-        <v>0.300156</v>
+        <v>0.293743</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261236</v>
+        <v>0.255479</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267039</v>
+        <v>0.263809</v>
       </c>
       <c r="C60" t="n">
-        <v>0.292331</v>
+        <v>0.287837</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25508</v>
+        <v>0.249397</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260841</v>
+        <v>0.257788</v>
       </c>
       <c r="C61" t="n">
-        <v>0.285089</v>
+        <v>0.282644</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249745</v>
+        <v>0.244226</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.25539</v>
+        <v>0.252894</v>
       </c>
       <c r="C62" t="n">
-        <v>0.27851</v>
+        <v>0.278736</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245237</v>
+        <v>0.239555</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251203</v>
+        <v>0.248289</v>
       </c>
       <c r="C63" t="n">
-        <v>0.272749</v>
+        <v>0.275683</v>
       </c>
       <c r="D63" t="n">
-        <v>0.241551</v>
+        <v>0.236084</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247901</v>
+        <v>0.244593</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267991</v>
+        <v>0.274133</v>
       </c>
       <c r="D64" t="n">
-        <v>0.239712</v>
+        <v>0.234143</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.245115</v>
+        <v>0.242361</v>
       </c>
       <c r="C65" t="n">
-        <v>0.264708</v>
+        <v>0.275025</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24047</v>
+        <v>0.234703</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.245145</v>
+        <v>0.242404</v>
       </c>
       <c r="C66" t="n">
-        <v>0.264104</v>
+        <v>0.386223</v>
       </c>
       <c r="D66" t="n">
-        <v>0.351332</v>
+        <v>0.352602</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.380471</v>
+        <v>0.382896</v>
       </c>
       <c r="C67" t="n">
-        <v>0.39658</v>
+        <v>0.374216</v>
       </c>
       <c r="D67" t="n">
-        <v>0.340818</v>
+        <v>0.341842</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.372136</v>
+        <v>0.374637</v>
       </c>
       <c r="C68" t="n">
-        <v>0.384741</v>
+        <v>0.365924</v>
       </c>
       <c r="D68" t="n">
-        <v>0.331407</v>
+        <v>0.33228</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.364624</v>
+        <v>0.367313</v>
       </c>
       <c r="C69" t="n">
-        <v>0.373586</v>
+        <v>0.357873</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322628</v>
+        <v>0.322869</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.357729</v>
+        <v>0.360463</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362616</v>
+        <v>0.350333</v>
       </c>
       <c r="D70" t="n">
-        <v>0.314077</v>
+        <v>0.314037</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350896</v>
+        <v>0.353754</v>
       </c>
       <c r="C71" t="n">
-        <v>0.352477</v>
+        <v>0.342709</v>
       </c>
       <c r="D71" t="n">
-        <v>0.305819</v>
+        <v>0.305861</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.344249</v>
+        <v>0.347328</v>
       </c>
       <c r="C72" t="n">
-        <v>0.34277</v>
+        <v>0.335713</v>
       </c>
       <c r="D72" t="n">
-        <v>0.298056</v>
+        <v>0.298104</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.337457</v>
+        <v>0.341072</v>
       </c>
       <c r="C73" t="n">
-        <v>0.333519</v>
+        <v>0.329015</v>
       </c>
       <c r="D73" t="n">
-        <v>0.290892</v>
+        <v>0.29089</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.331346</v>
+        <v>0.334741</v>
       </c>
       <c r="C74" t="n">
-        <v>0.325013</v>
+        <v>0.323218</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284248</v>
+        <v>0.284169</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.325417</v>
+        <v>0.32858</v>
       </c>
       <c r="C75" t="n">
-        <v>0.31705</v>
+        <v>0.317725</v>
       </c>
       <c r="D75" t="n">
-        <v>0.278168</v>
+        <v>0.277954</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.31952</v>
+        <v>0.322502</v>
       </c>
       <c r="C76" t="n">
-        <v>0.309706</v>
+        <v>0.312969</v>
       </c>
       <c r="D76" t="n">
-        <v>0.273039</v>
+        <v>0.272775</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.313904</v>
+        <v>0.316519</v>
       </c>
       <c r="C77" t="n">
-        <v>0.303031</v>
+        <v>0.309074</v>
       </c>
       <c r="D77" t="n">
-        <v>0.268669</v>
+        <v>0.268365</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308884</v>
+        <v>0.311609</v>
       </c>
       <c r="C78" t="n">
-        <v>0.297645</v>
+        <v>0.306935</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265961</v>
+        <v>0.265737</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.305118</v>
+        <v>0.307321</v>
       </c>
       <c r="C79" t="n">
-        <v>0.293779</v>
+        <v>0.30648</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265331</v>
+        <v>0.26488</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302936</v>
+        <v>0.305292</v>
       </c>
       <c r="C80" t="n">
-        <v>0.291374</v>
+        <v>0.568263</v>
       </c>
       <c r="D80" t="n">
-        <v>0.403073</v>
+        <v>0.437005</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.53355</v>
+        <v>0.527436</v>
       </c>
       <c r="C81" t="n">
-        <v>0.459239</v>
+        <v>0.435714</v>
       </c>
       <c r="D81" t="n">
-        <v>0.393925</v>
+        <v>0.427996</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.523904</v>
+        <v>0.520292</v>
       </c>
       <c r="C82" t="n">
-        <v>0.450957</v>
+        <v>0.43068</v>
       </c>
       <c r="D82" t="n">
-        <v>0.38612</v>
+        <v>0.414864</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.51336</v>
+        <v>0.510819</v>
       </c>
       <c r="C83" t="n">
-        <v>0.441116</v>
+        <v>0.428689</v>
       </c>
       <c r="D83" t="n">
-        <v>0.378359</v>
+        <v>0.407007</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.503111</v>
+        <v>0.501294</v>
       </c>
       <c r="C84" t="n">
-        <v>0.428326</v>
+        <v>0.421926</v>
       </c>
       <c r="D84" t="n">
-        <v>0.368699</v>
+        <v>0.397103</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.492569</v>
+        <v>0.491448</v>
       </c>
       <c r="C85" t="n">
-        <v>0.418415</v>
+        <v>0.415626</v>
       </c>
       <c r="D85" t="n">
-        <v>0.360799</v>
+        <v>0.385608</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.482405</v>
+        <v>0.481651</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408554</v>
+        <v>0.405461</v>
       </c>
       <c r="D86" t="n">
-        <v>0.353535</v>
+        <v>0.373681</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.472589</v>
+        <v>0.471646</v>
       </c>
       <c r="C87" t="n">
-        <v>0.398404</v>
+        <v>0.403545</v>
       </c>
       <c r="D87" t="n">
-        <v>0.345109</v>
+        <v>0.367368</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.462498</v>
+        <v>0.462072</v>
       </c>
       <c r="C88" t="n">
-        <v>0.388527</v>
+        <v>0.393329</v>
       </c>
       <c r="D88" t="n">
-        <v>0.337336</v>
+        <v>0.360065</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.453</v>
+        <v>0.453423</v>
       </c>
       <c r="C89" t="n">
-        <v>0.38028</v>
+        <v>0.388723</v>
       </c>
       <c r="D89" t="n">
-        <v>0.331164</v>
+        <v>0.351912</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.443982</v>
+        <v>0.444418</v>
       </c>
       <c r="C90" t="n">
-        <v>0.371363</v>
+        <v>0.374185</v>
       </c>
       <c r="D90" t="n">
-        <v>0.324589</v>
+        <v>0.338432</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.435696</v>
+        <v>0.435623</v>
       </c>
       <c r="C91" t="n">
-        <v>0.364254</v>
+        <v>0.369267</v>
       </c>
       <c r="D91" t="n">
-        <v>0.319615</v>
+        <v>0.331802</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.427645</v>
+        <v>0.427525</v>
       </c>
       <c r="C92" t="n">
-        <v>0.357796</v>
+        <v>0.373543</v>
       </c>
       <c r="D92" t="n">
-        <v>0.31631</v>
+        <v>0.333392</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.420961</v>
+        <v>0.421165</v>
       </c>
       <c r="C93" t="n">
-        <v>0.353289</v>
+        <v>0.362238</v>
       </c>
       <c r="D93" t="n">
-        <v>0.313974</v>
+        <v>0.323343</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.415252</v>
+        <v>0.415477</v>
       </c>
       <c r="C94" t="n">
-        <v>0.349393</v>
+        <v>0.563107</v>
       </c>
       <c r="D94" t="n">
-        <v>0.581372</v>
+        <v>0.5897520000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5495409999999999</v>
+        <v>0.555339</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5994080000000001</v>
+        <v>0.562241</v>
       </c>
       <c r="D95" t="n">
-        <v>0.56951</v>
+        <v>0.568407</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.546088</v>
+        <v>0.551004</v>
       </c>
       <c r="C96" t="n">
-        <v>0.592206</v>
+        <v>0.557456</v>
       </c>
       <c r="D96" t="n">
-        <v>0.553824</v>
+        <v>0.564472</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.535877</v>
+        <v>0.541557</v>
       </c>
       <c r="C97" t="n">
-        <v>0.575798</v>
+        <v>0.548903</v>
       </c>
       <c r="D97" t="n">
-        <v>0.541247</v>
+        <v>0.549423</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.527404</v>
+        <v>0.532675</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5617799999999999</v>
+        <v>0.54153</v>
       </c>
       <c r="D98" t="n">
-        <v>0.526846</v>
+        <v>0.53649</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.515784</v>
+        <v>0.5228969999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.546378</v>
+        <v>0.535987</v>
       </c>
       <c r="D99" t="n">
-        <v>0.511371</v>
+        <v>0.510981</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.508525</v>
+        <v>0.515351</v>
       </c>
       <c r="C100" t="n">
-        <v>0.532215</v>
+        <v>0.528427</v>
       </c>
       <c r="D100" t="n">
-        <v>0.499376</v>
+        <v>0.508444</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.498617</v>
+        <v>0.5059900000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.517877</v>
+        <v>0.52117</v>
       </c>
       <c r="D101" t="n">
-        <v>0.484894</v>
+        <v>0.493673</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.491505</v>
+        <v>0.498273</v>
       </c>
       <c r="C102" t="n">
-        <v>0.505896</v>
+        <v>0.517066</v>
       </c>
       <c r="D102" t="n">
-        <v>0.475189</v>
+        <v>0.471978</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.483172</v>
+        <v>0.490397</v>
       </c>
       <c r="C103" t="n">
-        <v>0.49324</v>
+        <v>0.511347</v>
       </c>
       <c r="D103" t="n">
-        <v>0.463845</v>
+        <v>0.463271</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.477632</v>
+        <v>0.483456</v>
       </c>
       <c r="C104" t="n">
-        <v>0.483189</v>
+        <v>0.505642</v>
       </c>
       <c r="D104" t="n">
-        <v>0.453253</v>
+        <v>0.460714</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.471138</v>
+        <v>0.477634</v>
       </c>
       <c r="C105" t="n">
-        <v>0.474097</v>
+        <v>0.502282</v>
       </c>
       <c r="D105" t="n">
-        <v>0.446488</v>
+        <v>0.451561</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.464816</v>
+        <v>0.46995</v>
       </c>
       <c r="C106" t="n">
-        <v>0.465461</v>
+        <v>0.498735</v>
       </c>
       <c r="D106" t="n">
-        <v>0.439914</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.459879</v>
+        <v>0.465431</v>
       </c>
       <c r="C107" t="n">
-        <v>0.456159</v>
+        <v>0.495268</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433609</v>
+        <v>0.439164</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.457243</v>
+        <v>0.461673</v>
       </c>
       <c r="C108" t="n">
-        <v>0.453602</v>
+        <v>0.687465</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6284</v>
+        <v>0.636228</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.453905</v>
+        <v>0.460058</v>
       </c>
       <c r="C109" t="n">
-        <v>0.450303</v>
+        <v>0.685366</v>
       </c>
       <c r="D109" t="n">
-        <v>0.622191</v>
+        <v>0.628464</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.650498</v>
+        <v>0.653424</v>
       </c>
       <c r="C110" t="n">
-        <v>0.70552</v>
+        <v>0.6797609999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.609161</v>
+        <v>0.598912</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.638337</v>
+        <v>0.640968</v>
       </c>
       <c r="C111" t="n">
-        <v>0.689814</v>
+        <v>0.670791</v>
       </c>
       <c r="D111" t="n">
-        <v>0.594217</v>
+        <v>0.601509</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.626982</v>
+        <v>0.629003</v>
       </c>
       <c r="C112" t="n">
-        <v>0.672021</v>
+        <v>0.6654640000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.580464</v>
+        <v>0.583075</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.615144</v>
+        <v>0.61686</v>
       </c>
       <c r="C113" t="n">
-        <v>0.65435</v>
+        <v>0.657766</v>
       </c>
       <c r="D113" t="n">
-        <v>0.567737</v>
+        <v>0.571845</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.602992</v>
+        <v>0.605969</v>
       </c>
       <c r="C114" t="n">
-        <v>0.639786</v>
+        <v>0.648726</v>
       </c>
       <c r="D114" t="n">
-        <v>0.556009</v>
+        <v>0.559331</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.594737</v>
+        <v>0.597093</v>
       </c>
       <c r="C115" t="n">
-        <v>0.625962</v>
+        <v>0.6433410000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.545374</v>
+        <v>0.551489</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.582947</v>
+        <v>0.587473</v>
       </c>
       <c r="C116" t="n">
-        <v>0.611536</v>
+        <v>0.640054</v>
       </c>
       <c r="D116" t="n">
-        <v>0.533577</v>
+        <v>0.535643</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.574039</v>
+        <v>0.575748</v>
       </c>
       <c r="C117" t="n">
-        <v>0.598506</v>
+        <v>0.635344</v>
       </c>
       <c r="D117" t="n">
-        <v>0.523268</v>
+        <v>0.526802</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.567225</v>
+        <v>0.569453</v>
       </c>
       <c r="C118" t="n">
-        <v>0.588431</v>
+        <v>0.626694</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5148239999999999</v>
+        <v>0.514126</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.559121</v>
+        <v>0.559351</v>
       </c>
       <c r="C119" t="n">
-        <v>0.575506</v>
+        <v>0.6252180000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.506039</v>
+        <v>0.512753</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.552061</v>
+        <v>0.5544289999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.565159</v>
+        <v>0.618999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.498201</v>
+        <v>0.500414</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.544577</v>
+        <v>0.548771</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5584750000000001</v>
+        <v>0.617715</v>
       </c>
       <c r="D121" t="n">
-        <v>0.491724</v>
+        <v>0.498108</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5400779999999999</v>
+        <v>0.545591</v>
       </c>
       <c r="C122" t="n">
-        <v>0.549589</v>
+        <v>0.616303</v>
       </c>
       <c r="D122" t="n">
-        <v>0.487548</v>
+        <v>0.486312</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.536946</v>
+        <v>0.539086</v>
       </c>
       <c r="C123" t="n">
-        <v>0.546616</v>
+        <v>0.811267</v>
       </c>
       <c r="D123" t="n">
-        <v>0.686792</v>
+        <v>0.693076</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.728005</v>
+        <v>0.73459</v>
       </c>
       <c r="C124" t="n">
-        <v>0.797944</v>
+        <v>0.803169</v>
       </c>
       <c r="D124" t="n">
-        <v>0.679668</v>
+        <v>0.683152</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.71823</v>
+        <v>0.725349</v>
       </c>
       <c r="C125" t="n">
-        <v>0.782013</v>
+        <v>0.795235</v>
       </c>
       <c r="D125" t="n">
-        <v>0.670233</v>
+        <v>0.6658269999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.707901</v>
+        <v>0.717031</v>
       </c>
       <c r="C126" t="n">
-        <v>0.767024</v>
+        <v>0.787889</v>
       </c>
       <c r="D126" t="n">
-        <v>0.657311</v>
+        <v>0.664034</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6993279999999999</v>
+        <v>0.7052040000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.755864</v>
+        <v>0.783169</v>
       </c>
       <c r="D127" t="n">
-        <v>0.649535</v>
+        <v>0.648415</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.687815</v>
+        <v>0.696439</v>
       </c>
       <c r="C128" t="n">
-        <v>0.741611</v>
+        <v>0.780682</v>
       </c>
       <c r="D128" t="n">
-        <v>0.642432</v>
+        <v>0.643425</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.682442</v>
+        <v>0.689311</v>
       </c>
       <c r="C129" t="n">
-        <v>0.729088</v>
+        <v>0.775446</v>
       </c>
       <c r="D129" t="n">
-        <v>0.635578</v>
+        <v>0.63327</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.672378</v>
+        <v>0.68167</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7181149999999999</v>
+        <v>0.773308</v>
       </c>
       <c r="D130" t="n">
-        <v>0.628493</v>
+        <v>0.623959</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.666382</v>
+        <v>0.673292</v>
       </c>
       <c r="C131" t="n">
-        <v>0.707352</v>
+        <v>0.765111</v>
       </c>
       <c r="D131" t="n">
-        <v>0.621241</v>
+        <v>0.618117</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.658612</v>
+        <v>0.667687</v>
       </c>
       <c r="C132" t="n">
-        <v>0.698995</v>
+        <v>0.761921</v>
       </c>
       <c r="D132" t="n">
-        <v>0.616292</v>
+        <v>0.6074929999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.653803</v>
+        <v>0.662042</v>
       </c>
       <c r="C133" t="n">
-        <v>0.691075</v>
+        <v>0.759924</v>
       </c>
       <c r="D133" t="n">
-        <v>0.610872</v>
+        <v>0.601594</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.648235</v>
+        <v>0.654581</v>
       </c>
       <c r="C134" t="n">
-        <v>0.681721</v>
+        <v>0.759002</v>
       </c>
       <c r="D134" t="n">
-        <v>0.60626</v>
+        <v>0.5977440000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.642003</v>
+        <v>0.650749</v>
       </c>
       <c r="C135" t="n">
-        <v>0.675973</v>
+        <v>0.756818</v>
       </c>
       <c r="D135" t="n">
-        <v>0.601343</v>
+        <v>0.595697</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6384880000000001</v>
+        <v>0.643172</v>
       </c>
       <c r="C136" t="n">
-        <v>0.669398</v>
+        <v>0.756819</v>
       </c>
       <c r="D136" t="n">
-        <v>0.595124</v>
+        <v>0.590323</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.634118</v>
+        <v>0.641336</v>
       </c>
       <c r="C137" t="n">
-        <v>0.665645</v>
+        <v>0.942654</v>
       </c>
       <c r="D137" t="n">
-        <v>0.799694</v>
+        <v>0.794222</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.823168</v>
+        <v>0.829651</v>
       </c>
       <c r="C138" t="n">
-        <v>0.921571</v>
+        <v>0.9369150000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.79127</v>
+        <v>0.7796149999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.814678</v>
+        <v>0.819706</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9076419999999999</v>
+        <v>0.932435</v>
       </c>
       <c r="D139" t="n">
-        <v>0.78389</v>
+        <v>0.768872</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.807083</v>
+        <v>0.810862</v>
       </c>
       <c r="C140" t="n">
-        <v>0.89472</v>
+        <v>0.926685</v>
       </c>
       <c r="D140" t="n">
-        <v>0.774681</v>
+        <v>0.7604</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.798329</v>
+        <v>0.803243</v>
       </c>
       <c r="C141" t="n">
-        <v>0.881607</v>
+        <v>0.919933</v>
       </c>
       <c r="D141" t="n">
-        <v>0.76907</v>
+        <v>0.751328</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.790116</v>
+        <v>0.796936</v>
       </c>
       <c r="C142" t="n">
-        <v>0.868142</v>
+        <v>0.915566</v>
       </c>
       <c r="D142" t="n">
-        <v>0.762031</v>
+        <v>0.742379</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.784036</v>
+        <v>0.788643</v>
       </c>
       <c r="C143" t="n">
-        <v>0.856156</v>
+        <v>0.91176</v>
       </c>
       <c r="D143" t="n">
-        <v>0.754347</v>
+        <v>0.736789</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245307</v>
+        <v>0.2449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.244751</v>
+        <v>0.215044</v>
       </c>
       <c r="D2" t="n">
-        <v>0.215738</v>
+        <v>0.215123</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239085</v>
+        <v>0.239157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239291</v>
+        <v>0.2087</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2099</v>
+        <v>0.209942</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233416</v>
+        <v>0.233222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.233383</v>
+        <v>0.203674</v>
       </c>
       <c r="D4" t="n">
-        <v>0.204697</v>
+        <v>0.205157</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227936</v>
+        <v>0.227575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229109</v>
+        <v>0.199618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200495</v>
+        <v>0.20107</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223485</v>
+        <v>0.222748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225958</v>
+        <v>0.196347</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196771</v>
+        <v>0.197189</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219703</v>
+        <v>0.219706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224583</v>
+        <v>0.194138</v>
       </c>
       <c r="D7" t="n">
-        <v>0.194156</v>
+        <v>0.196098</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216868</v>
+        <v>0.216768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225682</v>
+        <v>0.196227</v>
       </c>
       <c r="D8" t="n">
-        <v>0.196146</v>
+        <v>0.196084</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21646</v>
+        <v>0.216143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.315352</v>
+        <v>0.285157</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287672</v>
+        <v>0.287097</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.305655</v>
+        <v>0.304985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.306139</v>
+        <v>0.275</v>
       </c>
       <c r="D10" t="n">
-        <v>0.277221</v>
+        <v>0.277423</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.29604</v>
+        <v>0.29543</v>
       </c>
       <c r="C11" t="n">
-        <v>0.29493</v>
+        <v>0.265212</v>
       </c>
       <c r="D11" t="n">
-        <v>0.268183</v>
+        <v>0.268378</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287067</v>
+        <v>0.286174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.28638</v>
+        <v>0.256916</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260006</v>
+        <v>0.259986</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278071</v>
+        <v>0.278008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.27844</v>
+        <v>0.249084</v>
       </c>
       <c r="D13" t="n">
-        <v>0.251805</v>
+        <v>0.251763</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269988</v>
+        <v>0.269505</v>
       </c>
       <c r="C14" t="n">
-        <v>0.27083</v>
+        <v>0.241793</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244447</v>
+        <v>0.244474</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262454</v>
+        <v>0.2617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.264034</v>
+        <v>0.235338</v>
       </c>
       <c r="D15" t="n">
-        <v>0.237443</v>
+        <v>0.237445</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25483</v>
+        <v>0.254533</v>
       </c>
       <c r="C16" t="n">
-        <v>0.257607</v>
+        <v>0.229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230838</v>
+        <v>0.231167</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.24822</v>
+        <v>0.247634</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251881</v>
+        <v>0.223131</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225226</v>
+        <v>0.225354</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.241638</v>
+        <v>0.241208</v>
       </c>
       <c r="C18" t="n">
-        <v>0.246759</v>
+        <v>0.218229</v>
       </c>
       <c r="D18" t="n">
-        <v>0.219941</v>
+        <v>0.219927</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235915</v>
+        <v>0.235926</v>
       </c>
       <c r="C19" t="n">
-        <v>0.242432</v>
+        <v>0.21402</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215663</v>
+        <v>0.215587</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231109</v>
+        <v>0.230856</v>
       </c>
       <c r="C20" t="n">
-        <v>0.239431</v>
+        <v>0.211155</v>
       </c>
       <c r="D20" t="n">
-        <v>0.212107</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227187</v>
+        <v>0.226946</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238195</v>
+        <v>0.209628</v>
       </c>
       <c r="D21" t="n">
-        <v>0.210075</v>
+        <v>0.20968</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224257</v>
+        <v>0.224128</v>
       </c>
       <c r="C22" t="n">
-        <v>0.239089</v>
+        <v>0.210019</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210435</v>
+        <v>0.210018</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.223104</v>
+        <v>0.222774</v>
       </c>
       <c r="C23" t="n">
-        <v>0.328682</v>
+        <v>0.300897</v>
       </c>
       <c r="D23" t="n">
-        <v>0.302404</v>
+        <v>0.301605</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.31047</v>
+        <v>0.310633</v>
       </c>
       <c r="C24" t="n">
-        <v>0.31761</v>
+        <v>0.291368</v>
       </c>
       <c r="D24" t="n">
-        <v>0.29077</v>
+        <v>0.290842</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.300927</v>
+        <v>0.30081</v>
       </c>
       <c r="C25" t="n">
-        <v>0.308591</v>
+        <v>0.279391</v>
       </c>
       <c r="D25" t="n">
-        <v>0.281426</v>
+        <v>0.280894</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.291804</v>
+        <v>0.291989</v>
       </c>
       <c r="C26" t="n">
-        <v>0.299906</v>
+        <v>0.271605</v>
       </c>
       <c r="D26" t="n">
-        <v>0.27264</v>
+        <v>0.271935</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282934</v>
+        <v>0.282799</v>
       </c>
       <c r="C27" t="n">
-        <v>0.291619</v>
+        <v>0.262533</v>
       </c>
       <c r="D27" t="n">
-        <v>0.264237</v>
+        <v>0.263546</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274743</v>
+        <v>0.274375</v>
       </c>
       <c r="C28" t="n">
-        <v>0.283769</v>
+        <v>0.254835</v>
       </c>
       <c r="D28" t="n">
-        <v>0.256533</v>
+        <v>0.255699</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.26681</v>
+        <v>0.266491</v>
       </c>
       <c r="C29" t="n">
-        <v>0.276421</v>
+        <v>0.247548</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249122</v>
+        <v>0.248258</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.259245</v>
+        <v>0.259042</v>
       </c>
       <c r="C30" t="n">
-        <v>0.269529</v>
+        <v>0.240561</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242419</v>
+        <v>0.241471</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.252341</v>
+        <v>0.252006</v>
       </c>
       <c r="C31" t="n">
-        <v>0.263668</v>
+        <v>0.234604</v>
       </c>
       <c r="D31" t="n">
-        <v>0.235929</v>
+        <v>0.235158</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.245998</v>
+        <v>0.245618</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25811</v>
+        <v>0.228905</v>
       </c>
       <c r="D32" t="n">
-        <v>0.230314</v>
+        <v>0.229571</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.24022</v>
+        <v>0.239881</v>
       </c>
       <c r="C33" t="n">
-        <v>0.253263</v>
+        <v>0.22404</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225517</v>
+        <v>0.224806</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235028</v>
+        <v>0.234708</v>
       </c>
       <c r="C34" t="n">
-        <v>0.249686</v>
+        <v>0.220254</v>
       </c>
       <c r="D34" t="n">
-        <v>0.221862</v>
+        <v>0.221118</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.230829</v>
+        <v>0.230361</v>
       </c>
       <c r="C35" t="n">
-        <v>0.247199</v>
+        <v>0.217562</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219392</v>
+        <v>0.218629</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.22769</v>
+        <v>0.227168</v>
       </c>
       <c r="C36" t="n">
-        <v>0.247096</v>
+        <v>0.217053</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218821</v>
+        <v>0.218041</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.226496</v>
+        <v>0.225898</v>
       </c>
       <c r="C37" t="n">
-        <v>0.341678</v>
+        <v>0.313515</v>
       </c>
       <c r="D37" t="n">
-        <v>0.312769</v>
+        <v>0.312479</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315086</v>
+        <v>0.314413</v>
       </c>
       <c r="C38" t="n">
-        <v>0.332336</v>
+        <v>0.30186</v>
       </c>
       <c r="D38" t="n">
-        <v>0.300982</v>
+        <v>0.300378</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305311</v>
+        <v>0.304683</v>
       </c>
       <c r="C39" t="n">
-        <v>0.320501</v>
+        <v>0.290019</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291535</v>
+        <v>0.290403</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296379</v>
+        <v>0.295562</v>
       </c>
       <c r="C40" t="n">
-        <v>0.311844</v>
+        <v>0.281163</v>
       </c>
       <c r="D40" t="n">
-        <v>0.282446</v>
+        <v>0.281421</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.287756</v>
+        <v>0.286862</v>
       </c>
       <c r="C41" t="n">
-        <v>0.303649</v>
+        <v>0.272731</v>
       </c>
       <c r="D41" t="n">
-        <v>0.273996</v>
+        <v>0.273017</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279767</v>
+        <v>0.278789</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295841</v>
+        <v>0.264836</v>
       </c>
       <c r="D42" t="n">
-        <v>0.265929</v>
+        <v>0.264975</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272107</v>
+        <v>0.271048</v>
       </c>
       <c r="C43" t="n">
-        <v>0.288616</v>
+        <v>0.25744</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25834</v>
+        <v>0.257501</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264886</v>
+        <v>0.263621</v>
       </c>
       <c r="C44" t="n">
-        <v>0.281822</v>
+        <v>0.25047</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251279</v>
+        <v>0.250492</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258167</v>
+        <v>0.25692</v>
       </c>
       <c r="C45" t="n">
-        <v>0.275461</v>
+        <v>0.243941</v>
       </c>
       <c r="D45" t="n">
-        <v>0.244686</v>
+        <v>0.244077</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.251922</v>
+        <v>0.250479</v>
       </c>
       <c r="C46" t="n">
-        <v>0.269813</v>
+        <v>0.238075</v>
       </c>
       <c r="D46" t="n">
-        <v>0.23885</v>
+        <v>0.238227</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246131</v>
+        <v>0.2447</v>
       </c>
       <c r="C47" t="n">
-        <v>0.264663</v>
+        <v>0.232803</v>
       </c>
       <c r="D47" t="n">
-        <v>0.233571</v>
+        <v>0.233063</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240961</v>
+        <v>0.239298</v>
       </c>
       <c r="C48" t="n">
-        <v>0.260683</v>
+        <v>0.228422</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229153</v>
+        <v>0.228574</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236631</v>
+        <v>0.235009</v>
       </c>
       <c r="C49" t="n">
-        <v>0.257862</v>
+        <v>0.225228</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225853</v>
+        <v>0.225261</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233437</v>
+        <v>0.231753</v>
       </c>
       <c r="C50" t="n">
-        <v>0.256452</v>
+        <v>0.223383</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22439</v>
+        <v>0.223774</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231574</v>
+        <v>0.229748</v>
       </c>
       <c r="C51" t="n">
-        <v>0.357337</v>
+        <v>0.322699</v>
       </c>
       <c r="D51" t="n">
-        <v>0.321818</v>
+        <v>0.321553</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.232712</v>
+        <v>0.23091</v>
       </c>
       <c r="C52" t="n">
-        <v>0.348215</v>
+        <v>0.313203</v>
       </c>
       <c r="D52" t="n">
-        <v>0.312105</v>
+        <v>0.311861</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.318637</v>
+        <v>0.317847</v>
       </c>
       <c r="C53" t="n">
-        <v>0.338932</v>
+        <v>0.304151</v>
       </c>
       <c r="D53" t="n">
-        <v>0.302667</v>
+        <v>0.302436</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.30955</v>
+        <v>0.308548</v>
       </c>
       <c r="C54" t="n">
-        <v>0.330344</v>
+        <v>0.295392</v>
       </c>
       <c r="D54" t="n">
-        <v>0.293519</v>
+        <v>0.293351</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300831</v>
+        <v>0.300215</v>
       </c>
       <c r="C55" t="n">
-        <v>0.322461</v>
+        <v>0.287146</v>
       </c>
       <c r="D55" t="n">
-        <v>0.284997</v>
+        <v>0.28486</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292518</v>
+        <v>0.292712</v>
       </c>
       <c r="C56" t="n">
-        <v>0.31421</v>
+        <v>0.27986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.276994</v>
+        <v>0.276856</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284669</v>
+        <v>0.284903</v>
       </c>
       <c r="C57" t="n">
-        <v>0.30668</v>
+        <v>0.27239</v>
       </c>
       <c r="D57" t="n">
-        <v>0.269206</v>
+        <v>0.269171</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277552</v>
+        <v>0.277675</v>
       </c>
       <c r="C58" t="n">
-        <v>0.300245</v>
+        <v>0.26553</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262133</v>
+        <v>0.261996</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.270199</v>
+        <v>0.270735</v>
       </c>
       <c r="C59" t="n">
-        <v>0.293743</v>
+        <v>0.259062</v>
       </c>
       <c r="D59" t="n">
-        <v>0.255479</v>
+        <v>0.255446</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.263809</v>
+        <v>0.26434</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287837</v>
+        <v>0.253285</v>
       </c>
       <c r="D60" t="n">
-        <v>0.249397</v>
+        <v>0.24942</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257788</v>
+        <v>0.258387</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282644</v>
+        <v>0.24803</v>
       </c>
       <c r="D61" t="n">
-        <v>0.244226</v>
+        <v>0.244044</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.252894</v>
+        <v>0.253049</v>
       </c>
       <c r="C62" t="n">
-        <v>0.278736</v>
+        <v>0.243547</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239555</v>
+        <v>0.239519</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.248289</v>
+        <v>0.248519</v>
       </c>
       <c r="C63" t="n">
-        <v>0.275683</v>
+        <v>0.240317</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236084</v>
+        <v>0.236004</v>
       </c>
     </row>
     <row r="64">
@@ -4114,10 +4114,10 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244593</v>
+        <v>0.245005</v>
       </c>
       <c r="C64" t="n">
-        <v>0.274133</v>
+        <v>0.238547</v>
       </c>
       <c r="D64" t="n">
         <v>0.234143</v>
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242361</v>
+        <v>0.242824</v>
       </c>
       <c r="C65" t="n">
-        <v>0.275025</v>
+        <v>0.238777</v>
       </c>
       <c r="D65" t="n">
-        <v>0.234703</v>
+        <v>0.234609</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.242404</v>
+        <v>0.242786</v>
       </c>
       <c r="C66" t="n">
-        <v>0.386223</v>
+        <v>0.344442</v>
       </c>
       <c r="D66" t="n">
-        <v>0.352602</v>
+        <v>0.353579</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.382896</v>
+        <v>0.380189</v>
       </c>
       <c r="C67" t="n">
-        <v>0.374216</v>
+        <v>0.334322</v>
       </c>
       <c r="D67" t="n">
-        <v>0.341842</v>
+        <v>0.34274</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.374637</v>
+        <v>0.372249</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365924</v>
+        <v>0.325948</v>
       </c>
       <c r="D68" t="n">
-        <v>0.33228</v>
+        <v>0.333116</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.367313</v>
+        <v>0.36557</v>
       </c>
       <c r="C69" t="n">
-        <v>0.357873</v>
+        <v>0.31806</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322869</v>
+        <v>0.32372</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.360463</v>
+        <v>0.359821</v>
       </c>
       <c r="C70" t="n">
-        <v>0.350333</v>
+        <v>0.310668</v>
       </c>
       <c r="D70" t="n">
-        <v>0.314037</v>
+        <v>0.314985</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.353754</v>
+        <v>0.353576</v>
       </c>
       <c r="C71" t="n">
-        <v>0.342709</v>
+        <v>0.303491</v>
       </c>
       <c r="D71" t="n">
-        <v>0.305861</v>
+        <v>0.306793</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.347328</v>
+        <v>0.347348</v>
       </c>
       <c r="C72" t="n">
-        <v>0.335713</v>
+        <v>0.296504</v>
       </c>
       <c r="D72" t="n">
-        <v>0.298104</v>
+        <v>0.299349</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.341072</v>
+        <v>0.340773</v>
       </c>
       <c r="C73" t="n">
-        <v>0.329015</v>
+        <v>0.290067</v>
       </c>
       <c r="D73" t="n">
-        <v>0.29089</v>
+        <v>0.292115</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.334741</v>
+        <v>0.334624</v>
       </c>
       <c r="C74" t="n">
-        <v>0.323218</v>
+        <v>0.28405</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284169</v>
+        <v>0.285771</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.32858</v>
+        <v>0.328594</v>
       </c>
       <c r="C75" t="n">
-        <v>0.317725</v>
+        <v>0.278734</v>
       </c>
       <c r="D75" t="n">
-        <v>0.277954</v>
+        <v>0.279883</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.322502</v>
+        <v>0.322593</v>
       </c>
       <c r="C76" t="n">
-        <v>0.312969</v>
+        <v>0.273863</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272775</v>
+        <v>0.274692</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.316519</v>
+        <v>0.316783</v>
       </c>
       <c r="C77" t="n">
-        <v>0.309074</v>
+        <v>0.269853</v>
       </c>
       <c r="D77" t="n">
-        <v>0.268365</v>
+        <v>0.270513</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.311609</v>
+        <v>0.311738</v>
       </c>
       <c r="C78" t="n">
-        <v>0.306935</v>
+        <v>0.267549</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265737</v>
+        <v>0.267624</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.307321</v>
+        <v>0.307784</v>
       </c>
       <c r="C79" t="n">
-        <v>0.30648</v>
+        <v>0.266769</v>
       </c>
       <c r="D79" t="n">
-        <v>0.26488</v>
+        <v>0.266934</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.305292</v>
+        <v>0.305371</v>
       </c>
       <c r="C80" t="n">
-        <v>0.568263</v>
+        <v>0.5283099999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.437005</v>
+        <v>0.431866</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.527436</v>
+        <v>0.530851</v>
       </c>
       <c r="C81" t="n">
-        <v>0.435714</v>
+        <v>0.389217</v>
       </c>
       <c r="D81" t="n">
-        <v>0.427996</v>
+        <v>0.424261</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.520292</v>
+        <v>0.523296</v>
       </c>
       <c r="C82" t="n">
-        <v>0.43068</v>
+        <v>0.380499</v>
       </c>
       <c r="D82" t="n">
-        <v>0.414864</v>
+        <v>0.413361</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.510819</v>
+        <v>0.513726</v>
       </c>
       <c r="C83" t="n">
-        <v>0.428689</v>
+        <v>0.373749</v>
       </c>
       <c r="D83" t="n">
-        <v>0.407007</v>
+        <v>0.399723</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.501294</v>
+        <v>0.5037779999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.421926</v>
+        <v>0.36425</v>
       </c>
       <c r="D84" t="n">
-        <v>0.397103</v>
+        <v>0.389204</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.491448</v>
+        <v>0.493353</v>
       </c>
       <c r="C85" t="n">
-        <v>0.415626</v>
+        <v>0.356411</v>
       </c>
       <c r="D85" t="n">
-        <v>0.385608</v>
+        <v>0.380976</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.481651</v>
+        <v>0.483254</v>
       </c>
       <c r="C86" t="n">
-        <v>0.405461</v>
+        <v>0.350211</v>
       </c>
       <c r="D86" t="n">
-        <v>0.373681</v>
+        <v>0.373678</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.471646</v>
+        <v>0.474172</v>
       </c>
       <c r="C87" t="n">
-        <v>0.403545</v>
+        <v>0.339954</v>
       </c>
       <c r="D87" t="n">
-        <v>0.367368</v>
+        <v>0.361055</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.462072</v>
+        <v>0.463797</v>
       </c>
       <c r="C88" t="n">
-        <v>0.393329</v>
+        <v>0.337367</v>
       </c>
       <c r="D88" t="n">
-        <v>0.360065</v>
+        <v>0.357238</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.453423</v>
+        <v>0.454663</v>
       </c>
       <c r="C89" t="n">
-        <v>0.388723</v>
+        <v>0.330836</v>
       </c>
       <c r="D89" t="n">
-        <v>0.351912</v>
+        <v>0.349792</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.444418</v>
+        <v>0.445509</v>
       </c>
       <c r="C90" t="n">
-        <v>0.374185</v>
+        <v>0.324667</v>
       </c>
       <c r="D90" t="n">
-        <v>0.338432</v>
+        <v>0.341043</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.435623</v>
+        <v>0.437272</v>
       </c>
       <c r="C91" t="n">
-        <v>0.369267</v>
+        <v>0.313286</v>
       </c>
       <c r="D91" t="n">
-        <v>0.331802</v>
+        <v>0.329714</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.427525</v>
+        <v>0.42935</v>
       </c>
       <c r="C92" t="n">
-        <v>0.373543</v>
+        <v>0.309958</v>
       </c>
       <c r="D92" t="n">
-        <v>0.333392</v>
+        <v>0.324427</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.421165</v>
+        <v>0.421901</v>
       </c>
       <c r="C93" t="n">
-        <v>0.362238</v>
+        <v>0.315225</v>
       </c>
       <c r="D93" t="n">
-        <v>0.323343</v>
+        <v>0.329027</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.415477</v>
+        <v>0.416739</v>
       </c>
       <c r="C94" t="n">
-        <v>0.563107</v>
+        <v>0.503883</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5897520000000001</v>
+        <v>0.576989</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.555339</v>
+        <v>0.558554</v>
       </c>
       <c r="C95" t="n">
-        <v>0.562241</v>
+        <v>0.498666</v>
       </c>
       <c r="D95" t="n">
-        <v>0.568407</v>
+        <v>0.566667</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.551004</v>
+        <v>0.5540350000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.557456</v>
+        <v>0.488751</v>
       </c>
       <c r="D96" t="n">
-        <v>0.564472</v>
+        <v>0.551329</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.541557</v>
+        <v>0.544415</v>
       </c>
       <c r="C97" t="n">
-        <v>0.548903</v>
+        <v>0.477371</v>
       </c>
       <c r="D97" t="n">
-        <v>0.549423</v>
+        <v>0.5484250000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.532675</v>
+        <v>0.534693</v>
       </c>
       <c r="C98" t="n">
-        <v>0.54153</v>
+        <v>0.467207</v>
       </c>
       <c r="D98" t="n">
-        <v>0.53649</v>
+        <v>0.534374</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5228969999999999</v>
+        <v>0.526015</v>
       </c>
       <c r="C99" t="n">
-        <v>0.535987</v>
+        <v>0.4553</v>
       </c>
       <c r="D99" t="n">
-        <v>0.510981</v>
+        <v>0.520043</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.515351</v>
+        <v>0.516945</v>
       </c>
       <c r="C100" t="n">
-        <v>0.528427</v>
+        <v>0.447876</v>
       </c>
       <c r="D100" t="n">
-        <v>0.508444</v>
+        <v>0.503343</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5059900000000001</v>
+        <v>0.507374</v>
       </c>
       <c r="C101" t="n">
-        <v>0.52117</v>
+        <v>0.43814</v>
       </c>
       <c r="D101" t="n">
-        <v>0.493673</v>
+        <v>0.48122</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.498273</v>
+        <v>0.498295</v>
       </c>
       <c r="C102" t="n">
-        <v>0.517066</v>
+        <v>0.430165</v>
       </c>
       <c r="D102" t="n">
-        <v>0.471978</v>
+        <v>0.472677</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.490397</v>
+        <v>0.490341</v>
       </c>
       <c r="C103" t="n">
-        <v>0.511347</v>
+        <v>0.419306</v>
       </c>
       <c r="D103" t="n">
-        <v>0.463271</v>
+        <v>0.471041</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483456</v>
+        <v>0.483058</v>
       </c>
       <c r="C104" t="n">
-        <v>0.505642</v>
+        <v>0.411665</v>
       </c>
       <c r="D104" t="n">
-        <v>0.460714</v>
+        <v>0.460761</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.477634</v>
+        <v>0.477535</v>
       </c>
       <c r="C105" t="n">
-        <v>0.502282</v>
+        <v>0.404845</v>
       </c>
       <c r="D105" t="n">
-        <v>0.451561</v>
+        <v>0.451517</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.46995</v>
+        <v>0.470962</v>
       </c>
       <c r="C106" t="n">
-        <v>0.498735</v>
+        <v>0.399427</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4455</v>
+        <v>0.443915</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.465431</v>
+        <v>0.465929</v>
       </c>
       <c r="C107" t="n">
-        <v>0.495268</v>
+        <v>0.398197</v>
       </c>
       <c r="D107" t="n">
-        <v>0.439164</v>
+        <v>0.438086</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.461673</v>
+        <v>0.462396</v>
       </c>
       <c r="C108" t="n">
-        <v>0.687465</v>
+        <v>0.5895319999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.636228</v>
+        <v>0.632782</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.460058</v>
+        <v>0.461137</v>
       </c>
       <c r="C109" t="n">
-        <v>0.685366</v>
+        <v>0.587124</v>
       </c>
       <c r="D109" t="n">
-        <v>0.628464</v>
+        <v>0.610118</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.653424</v>
+        <v>0.656348</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6797609999999999</v>
+        <v>0.575874</v>
       </c>
       <c r="D110" t="n">
-        <v>0.598912</v>
+        <v>0.606307</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.640968</v>
+        <v>0.645371</v>
       </c>
       <c r="C111" t="n">
-        <v>0.670791</v>
+        <v>0.56208</v>
       </c>
       <c r="D111" t="n">
-        <v>0.601509</v>
+        <v>0.597844</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.629003</v>
+        <v>0.6326889999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6654640000000001</v>
+        <v>0.550463</v>
       </c>
       <c r="D112" t="n">
-        <v>0.583075</v>
+        <v>0.584907</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.61686</v>
+        <v>0.622289</v>
       </c>
       <c r="C113" t="n">
-        <v>0.657766</v>
+        <v>0.539648</v>
       </c>
       <c r="D113" t="n">
-        <v>0.571845</v>
+        <v>0.569621</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.605969</v>
+        <v>0.610039</v>
       </c>
       <c r="C114" t="n">
-        <v>0.648726</v>
+        <v>0.532945</v>
       </c>
       <c r="D114" t="n">
-        <v>0.559331</v>
+        <v>0.556443</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.597093</v>
+        <v>0.5969719999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6433410000000001</v>
+        <v>0.52325</v>
       </c>
       <c r="D115" t="n">
-        <v>0.551489</v>
+        <v>0.546296</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.587473</v>
+        <v>0.587305</v>
       </c>
       <c r="C116" t="n">
-        <v>0.640054</v>
+        <v>0.514734</v>
       </c>
       <c r="D116" t="n">
-        <v>0.535643</v>
+        <v>0.534162</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.575748</v>
+        <v>0.578299</v>
       </c>
       <c r="C117" t="n">
-        <v>0.635344</v>
+        <v>0.5055809999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.526802</v>
+        <v>0.529788</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.569453</v>
+        <v>0.571899</v>
       </c>
       <c r="C118" t="n">
-        <v>0.626694</v>
+        <v>0.495755</v>
       </c>
       <c r="D118" t="n">
-        <v>0.514126</v>
+        <v>0.5197310000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.559351</v>
+        <v>0.5632779999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6252180000000001</v>
+        <v>0.489803</v>
       </c>
       <c r="D119" t="n">
-        <v>0.512753</v>
+        <v>0.507107</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5544289999999999</v>
+        <v>0.551929</v>
       </c>
       <c r="C120" t="n">
-        <v>0.618999</v>
+        <v>0.484908</v>
       </c>
       <c r="D120" t="n">
-        <v>0.500414</v>
+        <v>0.498732</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.548771</v>
+        <v>0.547199</v>
       </c>
       <c r="C121" t="n">
-        <v>0.617715</v>
+        <v>0.479478</v>
       </c>
       <c r="D121" t="n">
-        <v>0.498108</v>
+        <v>0.49143</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.545591</v>
+        <v>0.5463980000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.616303</v>
+        <v>0.475985</v>
       </c>
       <c r="D122" t="n">
-        <v>0.486312</v>
+        <v>0.493448</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.539086</v>
+        <v>0.541665</v>
       </c>
       <c r="C123" t="n">
-        <v>0.811267</v>
+        <v>0.670903</v>
       </c>
       <c r="D123" t="n">
-        <v>0.693076</v>
+        <v>0.689936</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.73459</v>
+        <v>0.735355</v>
       </c>
       <c r="C124" t="n">
-        <v>0.803169</v>
+        <v>0.655733</v>
       </c>
       <c r="D124" t="n">
-        <v>0.683152</v>
+        <v>0.67449</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.725349</v>
+        <v>0.72699</v>
       </c>
       <c r="C125" t="n">
-        <v>0.795235</v>
+        <v>0.647048</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6658269999999999</v>
+        <v>0.663677</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.717031</v>
+        <v>0.717217</v>
       </c>
       <c r="C126" t="n">
-        <v>0.787889</v>
+        <v>0.64274</v>
       </c>
       <c r="D126" t="n">
-        <v>0.664034</v>
+        <v>0.659433</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7052040000000001</v>
+        <v>0.7058489999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.783169</v>
+        <v>0.63437</v>
       </c>
       <c r="D127" t="n">
-        <v>0.648415</v>
+        <v>0.649238</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.696439</v>
+        <v>0.700307</v>
       </c>
       <c r="C128" t="n">
-        <v>0.780682</v>
+        <v>0.626503</v>
       </c>
       <c r="D128" t="n">
-        <v>0.643425</v>
+        <v>0.640663</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.689311</v>
+        <v>0.690341</v>
       </c>
       <c r="C129" t="n">
-        <v>0.775446</v>
+        <v>0.623302</v>
       </c>
       <c r="D129" t="n">
-        <v>0.63327</v>
+        <v>0.630982</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.68167</v>
+        <v>0.682373</v>
       </c>
       <c r="C130" t="n">
-        <v>0.773308</v>
+        <v>0.613675</v>
       </c>
       <c r="D130" t="n">
-        <v>0.623959</v>
+        <v>0.625831</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.673292</v>
+        <v>0.675244</v>
       </c>
       <c r="C131" t="n">
-        <v>0.765111</v>
+        <v>0.611417</v>
       </c>
       <c r="D131" t="n">
-        <v>0.618117</v>
+        <v>0.618102</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.667687</v>
+        <v>0.66491</v>
       </c>
       <c r="C132" t="n">
-        <v>0.761921</v>
+        <v>0.604185</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6074929999999999</v>
+        <v>0.607192</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.662042</v>
+        <v>0.660599</v>
       </c>
       <c r="C133" t="n">
-        <v>0.759924</v>
+        <v>0.60432</v>
       </c>
       <c r="D133" t="n">
-        <v>0.601594</v>
+        <v>0.6008289999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.654581</v>
+        <v>0.6565569999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.759002</v>
+        <v>0.599785</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5977440000000001</v>
+        <v>0.595051</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.650749</v>
+        <v>0.650292</v>
       </c>
       <c r="C135" t="n">
-        <v>0.756818</v>
+        <v>0.59039</v>
       </c>
       <c r="D135" t="n">
-        <v>0.595697</v>
+        <v>0.594365</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.643172</v>
+        <v>0.644923</v>
       </c>
       <c r="C136" t="n">
-        <v>0.756819</v>
+        <v>0.588904</v>
       </c>
       <c r="D136" t="n">
-        <v>0.590323</v>
+        <v>0.590498</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.641336</v>
+        <v>0.642184</v>
       </c>
       <c r="C137" t="n">
-        <v>0.942654</v>
+        <v>0.778206</v>
       </c>
       <c r="D137" t="n">
-        <v>0.794222</v>
+        <v>0.788023</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.829651</v>
+        <v>0.8285940000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9369150000000001</v>
+        <v>0.766504</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7796149999999999</v>
+        <v>0.778671</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.819706</v>
+        <v>0.823381</v>
       </c>
       <c r="C139" t="n">
-        <v>0.932435</v>
+        <v>0.7613180000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.768872</v>
+        <v>0.767601</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.810862</v>
+        <v>0.812181</v>
       </c>
       <c r="C140" t="n">
-        <v>0.926685</v>
+        <v>0.7589590000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7604</v>
+        <v>0.758273</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.803243</v>
+        <v>0.804602</v>
       </c>
       <c r="C141" t="n">
-        <v>0.919933</v>
+        <v>0.756016</v>
       </c>
       <c r="D141" t="n">
-        <v>0.751328</v>
+        <v>0.750895</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.796936</v>
+        <v>0.798713</v>
       </c>
       <c r="C142" t="n">
-        <v>0.915566</v>
+        <v>0.751656</v>
       </c>
       <c r="D142" t="n">
-        <v>0.742379</v>
+        <v>0.7403110000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.788643</v>
+        <v>0.7919310000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.91176</v>
+        <v>0.742591</v>
       </c>
       <c r="D143" t="n">
-        <v>0.736789</v>
+        <v>0.735836</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2449</v>
+        <v>0.244757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215044</v>
+        <v>0.214719</v>
       </c>
       <c r="D2" t="n">
-        <v>0.215123</v>
+        <v>0.21541</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239157</v>
+        <v>0.238703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2087</v>
+        <v>0.209594</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209942</v>
+        <v>0.210014</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233222</v>
+        <v>0.232745</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203674</v>
+        <v>0.20499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.205157</v>
+        <v>0.205866</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227575</v>
+        <v>0.227276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.199618</v>
+        <v>0.200216</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20107</v>
+        <v>0.201139</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222748</v>
+        <v>0.222866</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196347</v>
+        <v>0.197105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.197189</v>
+        <v>0.197317</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219706</v>
+        <v>0.219377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194138</v>
+        <v>0.195164</v>
       </c>
       <c r="D7" t="n">
-        <v>0.196098</v>
+        <v>0.195632</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216768</v>
+        <v>0.216551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196227</v>
+        <v>0.196683</v>
       </c>
       <c r="D8" t="n">
-        <v>0.196084</v>
+        <v>0.196683</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216143</v>
+        <v>0.21653</v>
       </c>
       <c r="C9" t="n">
-        <v>0.285157</v>
+        <v>0.284846</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287097</v>
+        <v>0.287701</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.304985</v>
+        <v>0.305931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275</v>
+        <v>0.275843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.277423</v>
+        <v>0.278057</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.29543</v>
+        <v>0.295781</v>
       </c>
       <c r="C11" t="n">
-        <v>0.265212</v>
+        <v>0.265836</v>
       </c>
       <c r="D11" t="n">
-        <v>0.268378</v>
+        <v>0.269379</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286174</v>
+        <v>0.286736</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256916</v>
+        <v>0.256553</v>
       </c>
       <c r="D12" t="n">
-        <v>0.259986</v>
+        <v>0.260752</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278008</v>
+        <v>0.277909</v>
       </c>
       <c r="C13" t="n">
-        <v>0.249084</v>
+        <v>0.249542</v>
       </c>
       <c r="D13" t="n">
-        <v>0.251763</v>
+        <v>0.252663</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269505</v>
+        <v>0.269803</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241793</v>
+        <v>0.242108</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244474</v>
+        <v>0.245372</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2617</v>
+        <v>0.26192</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235338</v>
+        <v>0.236523</v>
       </c>
       <c r="D15" t="n">
-        <v>0.237445</v>
+        <v>0.238362</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.254533</v>
+        <v>0.254731</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229</v>
+        <v>0.229634</v>
       </c>
       <c r="D16" t="n">
-        <v>0.231167</v>
+        <v>0.232044</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247634</v>
+        <v>0.247986</v>
       </c>
       <c r="C17" t="n">
-        <v>0.223131</v>
+        <v>0.224595</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225354</v>
+        <v>0.226331</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.241208</v>
+        <v>0.241814</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218229</v>
+        <v>0.219347</v>
       </c>
       <c r="D18" t="n">
-        <v>0.219927</v>
+        <v>0.220797</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235926</v>
+        <v>0.236003</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21402</v>
+        <v>0.214234</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215587</v>
+        <v>0.216412</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.230856</v>
+        <v>0.23112</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211155</v>
+        <v>0.211514</v>
       </c>
       <c r="D20" t="n">
-        <v>0.212</v>
+        <v>0.212769</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.226946</v>
+        <v>0.227188</v>
       </c>
       <c r="C21" t="n">
-        <v>0.209628</v>
+        <v>0.209415</v>
       </c>
       <c r="D21" t="n">
-        <v>0.20968</v>
+        <v>0.210593</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224128</v>
+        <v>0.224191</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210019</v>
+        <v>0.210833</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210018</v>
+        <v>0.211092</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.222774</v>
+        <v>0.222962</v>
       </c>
       <c r="C23" t="n">
-        <v>0.300897</v>
+        <v>0.300367</v>
       </c>
       <c r="D23" t="n">
-        <v>0.301605</v>
+        <v>0.301203</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310633</v>
+        <v>0.310381</v>
       </c>
       <c r="C24" t="n">
-        <v>0.291368</v>
+        <v>0.289438</v>
       </c>
       <c r="D24" t="n">
-        <v>0.290842</v>
+        <v>0.291851</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.30081</v>
+        <v>0.300917</v>
       </c>
       <c r="C25" t="n">
-        <v>0.279391</v>
+        <v>0.281912</v>
       </c>
       <c r="D25" t="n">
-        <v>0.280894</v>
+        <v>0.282794</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.291989</v>
+        <v>0.291975</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271605</v>
+        <v>0.27242</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271935</v>
+        <v>0.273832</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282799</v>
+        <v>0.283298</v>
       </c>
       <c r="C27" t="n">
-        <v>0.262533</v>
+        <v>0.263653</v>
       </c>
       <c r="D27" t="n">
-        <v>0.263546</v>
+        <v>0.265346</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274375</v>
+        <v>0.27496</v>
       </c>
       <c r="C28" t="n">
-        <v>0.254835</v>
+        <v>0.257594</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255699</v>
+        <v>0.257877</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.266491</v>
+        <v>0.266991</v>
       </c>
       <c r="C29" t="n">
-        <v>0.247548</v>
+        <v>0.248641</v>
       </c>
       <c r="D29" t="n">
-        <v>0.248258</v>
+        <v>0.250446</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.259042</v>
+        <v>0.25976</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240561</v>
+        <v>0.242052</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241471</v>
+        <v>0.243512</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.252006</v>
+        <v>0.252777</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234604</v>
+        <v>0.235699</v>
       </c>
       <c r="D31" t="n">
-        <v>0.235158</v>
+        <v>0.237067</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.245618</v>
+        <v>0.246437</v>
       </c>
       <c r="C32" t="n">
-        <v>0.228905</v>
+        <v>0.231016</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229571</v>
+        <v>0.231565</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.239881</v>
+        <v>0.240637</v>
       </c>
       <c r="C33" t="n">
-        <v>0.22404</v>
+        <v>0.225995</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224806</v>
+        <v>0.226724</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.234708</v>
+        <v>0.23575</v>
       </c>
       <c r="C34" t="n">
-        <v>0.220254</v>
+        <v>0.222638</v>
       </c>
       <c r="D34" t="n">
-        <v>0.221118</v>
+        <v>0.223001</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.230361</v>
+        <v>0.231236</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217562</v>
+        <v>0.218981</v>
       </c>
       <c r="D35" t="n">
-        <v>0.218629</v>
+        <v>0.220459</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227168</v>
+        <v>0.228343</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217053</v>
+        <v>0.218593</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218041</v>
+        <v>0.219908</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.225898</v>
+        <v>0.226889</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313515</v>
+        <v>0.312256</v>
       </c>
       <c r="D37" t="n">
-        <v>0.312479</v>
+        <v>0.312317</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.314413</v>
+        <v>0.314986</v>
       </c>
       <c r="C38" t="n">
-        <v>0.30186</v>
+        <v>0.301223</v>
       </c>
       <c r="D38" t="n">
-        <v>0.300378</v>
+        <v>0.302677</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.304683</v>
+        <v>0.305514</v>
       </c>
       <c r="C39" t="n">
-        <v>0.290019</v>
+        <v>0.291978</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290403</v>
+        <v>0.293298</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.295562</v>
+        <v>0.296684</v>
       </c>
       <c r="C40" t="n">
-        <v>0.281163</v>
+        <v>0.28381</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281421</v>
+        <v>0.28422</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.286862</v>
+        <v>0.287949</v>
       </c>
       <c r="C41" t="n">
-        <v>0.272731</v>
+        <v>0.275809</v>
       </c>
       <c r="D41" t="n">
-        <v>0.273017</v>
+        <v>0.275817</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.278789</v>
+        <v>0.27991</v>
       </c>
       <c r="C42" t="n">
-        <v>0.264836</v>
+        <v>0.268441</v>
       </c>
       <c r="D42" t="n">
-        <v>0.264975</v>
+        <v>0.267725</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.271048</v>
+        <v>0.272516</v>
       </c>
       <c r="C43" t="n">
-        <v>0.25744</v>
+        <v>0.259757</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257501</v>
+        <v>0.260169</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.263621</v>
+        <v>0.264616</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25047</v>
+        <v>0.254344</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250492</v>
+        <v>0.253041</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.25692</v>
+        <v>0.258327</v>
       </c>
       <c r="C45" t="n">
-        <v>0.243941</v>
+        <v>0.246475</v>
       </c>
       <c r="D45" t="n">
-        <v>0.244077</v>
+        <v>0.246624</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.250479</v>
+        <v>0.25152</v>
       </c>
       <c r="C46" t="n">
-        <v>0.238075</v>
+        <v>0.240814</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238227</v>
+        <v>0.240837</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2447</v>
+        <v>0.245948</v>
       </c>
       <c r="C47" t="n">
-        <v>0.232803</v>
+        <v>0.235454</v>
       </c>
       <c r="D47" t="n">
-        <v>0.233063</v>
+        <v>0.235566</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.239298</v>
+        <v>0.24108</v>
       </c>
       <c r="C48" t="n">
-        <v>0.228422</v>
+        <v>0.231433</v>
       </c>
       <c r="D48" t="n">
-        <v>0.228574</v>
+        <v>0.231135</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235009</v>
+        <v>0.236419</v>
       </c>
       <c r="C49" t="n">
-        <v>0.225228</v>
+        <v>0.228893</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225261</v>
+        <v>0.227864</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.231753</v>
+        <v>0.23327</v>
       </c>
       <c r="C50" t="n">
-        <v>0.223383</v>
+        <v>0.227837</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223774</v>
+        <v>0.226353</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.229748</v>
+        <v>0.231108</v>
       </c>
       <c r="C51" t="n">
-        <v>0.322699</v>
+        <v>0.320817</v>
       </c>
       <c r="D51" t="n">
-        <v>0.321553</v>
+        <v>0.320506</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23091</v>
+        <v>0.231216</v>
       </c>
       <c r="C52" t="n">
-        <v>0.313203</v>
+        <v>0.311564</v>
       </c>
       <c r="D52" t="n">
-        <v>0.311861</v>
+        <v>0.31088</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.317847</v>
+        <v>0.318159</v>
       </c>
       <c r="C53" t="n">
-        <v>0.304151</v>
+        <v>0.302799</v>
       </c>
       <c r="D53" t="n">
-        <v>0.302436</v>
+        <v>0.301538</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308548</v>
+        <v>0.308884</v>
       </c>
       <c r="C54" t="n">
-        <v>0.295392</v>
+        <v>0.294709</v>
       </c>
       <c r="D54" t="n">
-        <v>0.293351</v>
+        <v>0.292606</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300215</v>
+        <v>0.300193</v>
       </c>
       <c r="C55" t="n">
-        <v>0.287146</v>
+        <v>0.287661</v>
       </c>
       <c r="D55" t="n">
-        <v>0.28486</v>
+        <v>0.28398</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292712</v>
+        <v>0.292071</v>
       </c>
       <c r="C56" t="n">
-        <v>0.27986</v>
+        <v>0.28005</v>
       </c>
       <c r="D56" t="n">
-        <v>0.276856</v>
+        <v>0.276229</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284903</v>
+        <v>0.284191</v>
       </c>
       <c r="C57" t="n">
-        <v>0.27239</v>
+        <v>0.272974</v>
       </c>
       <c r="D57" t="n">
-        <v>0.269171</v>
+        <v>0.268378</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277675</v>
+        <v>0.276865</v>
       </c>
       <c r="C58" t="n">
-        <v>0.26553</v>
+        <v>0.26643</v>
       </c>
       <c r="D58" t="n">
-        <v>0.261996</v>
+        <v>0.261642</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.270735</v>
+        <v>0.270047</v>
       </c>
       <c r="C59" t="n">
-        <v>0.259062</v>
+        <v>0.260044</v>
       </c>
       <c r="D59" t="n">
-        <v>0.255446</v>
+        <v>0.254863</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26434</v>
+        <v>0.263753</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253285</v>
+        <v>0.254327</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24942</v>
+        <v>0.249308</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258387</v>
+        <v>0.257867</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24803</v>
+        <v>0.249264</v>
       </c>
       <c r="D61" t="n">
-        <v>0.244044</v>
+        <v>0.244021</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253049</v>
+        <v>0.252668</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243547</v>
+        <v>0.244889</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239519</v>
+        <v>0.239499</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.248519</v>
+        <v>0.248164</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240317</v>
+        <v>0.241751</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236004</v>
+        <v>0.236183</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245005</v>
+        <v>0.244433</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238547</v>
+        <v>0.239842</v>
       </c>
       <c r="D64" t="n">
-        <v>0.234143</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242824</v>
+        <v>0.242353</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238777</v>
+        <v>0.239931</v>
       </c>
       <c r="D65" t="n">
-        <v>0.234609</v>
+        <v>0.234859</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.242786</v>
+        <v>0.241908</v>
       </c>
       <c r="C66" t="n">
-        <v>0.344442</v>
+        <v>0.343887</v>
       </c>
       <c r="D66" t="n">
-        <v>0.353579</v>
+        <v>0.350057</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.380189</v>
+        <v>0.377376</v>
       </c>
       <c r="C67" t="n">
-        <v>0.334322</v>
+        <v>0.335323</v>
       </c>
       <c r="D67" t="n">
-        <v>0.34274</v>
+        <v>0.339909</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.372249</v>
+        <v>0.369795</v>
       </c>
       <c r="C68" t="n">
-        <v>0.325948</v>
+        <v>0.326716</v>
       </c>
       <c r="D68" t="n">
-        <v>0.333116</v>
+        <v>0.330586</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.36557</v>
+        <v>0.362452</v>
       </c>
       <c r="C69" t="n">
-        <v>0.31806</v>
+        <v>0.318719</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32372</v>
+        <v>0.321522</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.359821</v>
+        <v>0.355597</v>
       </c>
       <c r="C70" t="n">
-        <v>0.310668</v>
+        <v>0.310993</v>
       </c>
       <c r="D70" t="n">
-        <v>0.314985</v>
+        <v>0.312727</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.353576</v>
+        <v>0.349082</v>
       </c>
       <c r="C71" t="n">
-        <v>0.303491</v>
+        <v>0.303445</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306793</v>
+        <v>0.304378</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.347348</v>
+        <v>0.342428</v>
       </c>
       <c r="C72" t="n">
-        <v>0.296504</v>
+        <v>0.296602</v>
       </c>
       <c r="D72" t="n">
-        <v>0.299349</v>
+        <v>0.296824</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.340773</v>
+        <v>0.335872</v>
       </c>
       <c r="C73" t="n">
-        <v>0.290067</v>
+        <v>0.289796</v>
       </c>
       <c r="D73" t="n">
-        <v>0.292115</v>
+        <v>0.290156</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.334624</v>
+        <v>0.329025</v>
       </c>
       <c r="C74" t="n">
-        <v>0.28405</v>
+        <v>0.283816</v>
       </c>
       <c r="D74" t="n">
-        <v>0.285771</v>
+        <v>0.283296</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.328594</v>
+        <v>0.32293</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278734</v>
+        <v>0.27839</v>
       </c>
       <c r="D75" t="n">
-        <v>0.279883</v>
+        <v>0.277387</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.322593</v>
+        <v>0.316812</v>
       </c>
       <c r="C76" t="n">
-        <v>0.273863</v>
+        <v>0.273222</v>
       </c>
       <c r="D76" t="n">
-        <v>0.274692</v>
+        <v>0.272221</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.316783</v>
+        <v>0.311373</v>
       </c>
       <c r="C77" t="n">
-        <v>0.269853</v>
+        <v>0.269223</v>
       </c>
       <c r="D77" t="n">
-        <v>0.270513</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.311738</v>
+        <v>0.306537</v>
       </c>
       <c r="C78" t="n">
-        <v>0.267549</v>
+        <v>0.266738</v>
       </c>
       <c r="D78" t="n">
-        <v>0.267624</v>
+        <v>0.265305</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.307784</v>
+        <v>0.302642</v>
       </c>
       <c r="C79" t="n">
-        <v>0.266769</v>
+        <v>0.265907</v>
       </c>
       <c r="D79" t="n">
-        <v>0.266934</v>
+        <v>0.26453</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.305371</v>
+        <v>0.300716</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5283099999999999</v>
+        <v>0.530215</v>
       </c>
       <c r="D80" t="n">
-        <v>0.431866</v>
+        <v>0.434453</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.530851</v>
+        <v>0.533067</v>
       </c>
       <c r="C81" t="n">
-        <v>0.389217</v>
+        <v>0.388146</v>
       </c>
       <c r="D81" t="n">
-        <v>0.424261</v>
+        <v>0.424084</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.523296</v>
+        <v>0.526124</v>
       </c>
       <c r="C82" t="n">
-        <v>0.380499</v>
+        <v>0.38176</v>
       </c>
       <c r="D82" t="n">
-        <v>0.413361</v>
+        <v>0.413392</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.513726</v>
+        <v>0.515876</v>
       </c>
       <c r="C83" t="n">
-        <v>0.373749</v>
+        <v>0.373216</v>
       </c>
       <c r="D83" t="n">
-        <v>0.399723</v>
+        <v>0.403654</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5037779999999999</v>
+        <v>0.506332</v>
       </c>
       <c r="C84" t="n">
-        <v>0.36425</v>
+        <v>0.364688</v>
       </c>
       <c r="D84" t="n">
-        <v>0.389204</v>
+        <v>0.393565</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.493353</v>
+        <v>0.495484</v>
       </c>
       <c r="C85" t="n">
-        <v>0.356411</v>
+        <v>0.35826</v>
       </c>
       <c r="D85" t="n">
-        <v>0.380976</v>
+        <v>0.383592</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.483254</v>
+        <v>0.48496</v>
       </c>
       <c r="C86" t="n">
-        <v>0.350211</v>
+        <v>0.350327</v>
       </c>
       <c r="D86" t="n">
-        <v>0.373678</v>
+        <v>0.373774</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.474172</v>
+        <v>0.475823</v>
       </c>
       <c r="C87" t="n">
-        <v>0.339954</v>
+        <v>0.343747</v>
       </c>
       <c r="D87" t="n">
-        <v>0.361055</v>
+        <v>0.367385</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.463797</v>
+        <v>0.465973</v>
       </c>
       <c r="C88" t="n">
-        <v>0.337367</v>
+        <v>0.338392</v>
       </c>
       <c r="D88" t="n">
-        <v>0.357238</v>
+        <v>0.359392</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.454663</v>
+        <v>0.456428</v>
       </c>
       <c r="C89" t="n">
-        <v>0.330836</v>
+        <v>0.331531</v>
       </c>
       <c r="D89" t="n">
-        <v>0.349792</v>
+        <v>0.351159</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.445509</v>
+        <v>0.446588</v>
       </c>
       <c r="C90" t="n">
-        <v>0.324667</v>
+        <v>0.324241</v>
       </c>
       <c r="D90" t="n">
-        <v>0.341043</v>
+        <v>0.343749</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.437272</v>
+        <v>0.437754</v>
       </c>
       <c r="C91" t="n">
-        <v>0.313286</v>
+        <v>0.319696</v>
       </c>
       <c r="D91" t="n">
-        <v>0.329714</v>
+        <v>0.337303</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.42935</v>
+        <v>0.429809</v>
       </c>
       <c r="C92" t="n">
-        <v>0.309958</v>
+        <v>0.314637</v>
       </c>
       <c r="D92" t="n">
-        <v>0.324427</v>
+        <v>0.332528</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.421901</v>
+        <v>0.423496</v>
       </c>
       <c r="C93" t="n">
-        <v>0.315225</v>
+        <v>0.314398</v>
       </c>
       <c r="D93" t="n">
-        <v>0.329027</v>
+        <v>0.328717</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.416739</v>
+        <v>0.417423</v>
       </c>
       <c r="C94" t="n">
-        <v>0.503883</v>
+        <v>0.504258</v>
       </c>
       <c r="D94" t="n">
-        <v>0.576989</v>
+        <v>0.580004</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.558554</v>
+        <v>0.558832</v>
       </c>
       <c r="C95" t="n">
-        <v>0.498666</v>
+        <v>0.500212</v>
       </c>
       <c r="D95" t="n">
-        <v>0.566667</v>
+        <v>0.578199</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5540350000000001</v>
+        <v>0.554321</v>
       </c>
       <c r="C96" t="n">
-        <v>0.488751</v>
+        <v>0.489273</v>
       </c>
       <c r="D96" t="n">
-        <v>0.551329</v>
+        <v>0.563196</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.544415</v>
+        <v>0.543353</v>
       </c>
       <c r="C97" t="n">
-        <v>0.477371</v>
+        <v>0.478622</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5484250000000001</v>
+        <v>0.545932</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.534693</v>
+        <v>0.533797</v>
       </c>
       <c r="C98" t="n">
-        <v>0.467207</v>
+        <v>0.467328</v>
       </c>
       <c r="D98" t="n">
-        <v>0.534374</v>
+        <v>0.525027</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.526015</v>
+        <v>0.524597</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4553</v>
+        <v>0.45775</v>
       </c>
       <c r="D99" t="n">
-        <v>0.520043</v>
+        <v>0.510615</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.516945</v>
+        <v>0.515933</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447876</v>
+        <v>0.446456</v>
       </c>
       <c r="D100" t="n">
-        <v>0.503343</v>
+        <v>0.508273</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.507374</v>
+        <v>0.507074</v>
       </c>
       <c r="C101" t="n">
-        <v>0.43814</v>
+        <v>0.437517</v>
       </c>
       <c r="D101" t="n">
-        <v>0.48122</v>
+        <v>0.495237</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.498295</v>
+        <v>0.499183</v>
       </c>
       <c r="C102" t="n">
-        <v>0.430165</v>
+        <v>0.429772</v>
       </c>
       <c r="D102" t="n">
-        <v>0.472677</v>
+        <v>0.481784</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.490341</v>
+        <v>0.490912</v>
       </c>
       <c r="C103" t="n">
-        <v>0.419306</v>
+        <v>0.422747</v>
       </c>
       <c r="D103" t="n">
-        <v>0.471041</v>
+        <v>0.470075</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483058</v>
+        <v>0.483532</v>
       </c>
       <c r="C104" t="n">
-        <v>0.411665</v>
+        <v>0.41492</v>
       </c>
       <c r="D104" t="n">
-        <v>0.460761</v>
+        <v>0.461051</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.477535</v>
+        <v>0.476917</v>
       </c>
       <c r="C105" t="n">
-        <v>0.404845</v>
+        <v>0.40895</v>
       </c>
       <c r="D105" t="n">
-        <v>0.451517</v>
+        <v>0.441918</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.470962</v>
+        <v>0.47186</v>
       </c>
       <c r="C106" t="n">
-        <v>0.399427</v>
+        <v>0.404772</v>
       </c>
       <c r="D106" t="n">
-        <v>0.443915</v>
+        <v>0.444681</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.465929</v>
+        <v>0.466269</v>
       </c>
       <c r="C107" t="n">
-        <v>0.398197</v>
+        <v>0.399519</v>
       </c>
       <c r="D107" t="n">
-        <v>0.438086</v>
+        <v>0.440221</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.462396</v>
+        <v>0.462681</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5895319999999999</v>
+        <v>0.591947</v>
       </c>
       <c r="D108" t="n">
-        <v>0.632782</v>
+        <v>0.633431</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.461137</v>
+        <v>0.461796</v>
       </c>
       <c r="C109" t="n">
-        <v>0.587124</v>
+        <v>0.585121</v>
       </c>
       <c r="D109" t="n">
-        <v>0.610118</v>
+        <v>0.623274</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.656348</v>
+        <v>0.655343</v>
       </c>
       <c r="C110" t="n">
-        <v>0.575874</v>
+        <v>0.573664</v>
       </c>
       <c r="D110" t="n">
-        <v>0.606307</v>
+        <v>0.612692</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.645371</v>
+        <v>0.643285</v>
       </c>
       <c r="C111" t="n">
-        <v>0.56208</v>
+        <v>0.562371</v>
       </c>
       <c r="D111" t="n">
-        <v>0.597844</v>
+        <v>0.597033</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6326889999999999</v>
+        <v>0.63254</v>
       </c>
       <c r="C112" t="n">
-        <v>0.550463</v>
+        <v>0.551892</v>
       </c>
       <c r="D112" t="n">
-        <v>0.584907</v>
+        <v>0.574257</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.622289</v>
+        <v>0.620421</v>
       </c>
       <c r="C113" t="n">
-        <v>0.539648</v>
+        <v>0.5402</v>
       </c>
       <c r="D113" t="n">
-        <v>0.569621</v>
+        <v>0.568309</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.610039</v>
+        <v>0.608853</v>
       </c>
       <c r="C114" t="n">
-        <v>0.532945</v>
+        <v>0.5299700000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.556443</v>
+        <v>0.560747</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5969719999999999</v>
+        <v>0.598522</v>
       </c>
       <c r="C115" t="n">
-        <v>0.52325</v>
+        <v>0.520691</v>
       </c>
       <c r="D115" t="n">
-        <v>0.546296</v>
+        <v>0.543172</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.587305</v>
+        <v>0.590927</v>
       </c>
       <c r="C116" t="n">
-        <v>0.514734</v>
+        <v>0.5112989999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.534162</v>
+        <v>0.534511</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.578299</v>
+        <v>0.581067</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5055809999999999</v>
+        <v>0.504109</v>
       </c>
       <c r="D117" t="n">
-        <v>0.529788</v>
+        <v>0.526388</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.571899</v>
+        <v>0.5703819999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.495755</v>
+        <v>0.498316</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5197310000000001</v>
+        <v>0.516308</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5632779999999999</v>
+        <v>0.561022</v>
       </c>
       <c r="C119" t="n">
-        <v>0.489803</v>
+        <v>0.491255</v>
       </c>
       <c r="D119" t="n">
-        <v>0.507107</v>
+        <v>0.507643</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.551929</v>
+        <v>0.5539770000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.484908</v>
+        <v>0.482135</v>
       </c>
       <c r="D120" t="n">
-        <v>0.498732</v>
+        <v>0.501332</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.547199</v>
+        <v>0.549306</v>
       </c>
       <c r="C121" t="n">
-        <v>0.479478</v>
+        <v>0.475395</v>
       </c>
       <c r="D121" t="n">
-        <v>0.49143</v>
+        <v>0.493376</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5463980000000001</v>
+        <v>0.545817</v>
       </c>
       <c r="C122" t="n">
-        <v>0.475985</v>
+        <v>0.47571</v>
       </c>
       <c r="D122" t="n">
-        <v>0.493448</v>
+        <v>0.492718</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.541665</v>
+        <v>0.542605</v>
       </c>
       <c r="C123" t="n">
-        <v>0.670903</v>
+        <v>0.662681</v>
       </c>
       <c r="D123" t="n">
-        <v>0.689936</v>
+        <v>0.688061</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.735355</v>
+        <v>0.7335390000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.655733</v>
+        <v>0.658779</v>
       </c>
       <c r="D124" t="n">
-        <v>0.67449</v>
+        <v>0.675563</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.72699</v>
+        <v>0.723213</v>
       </c>
       <c r="C125" t="n">
-        <v>0.647048</v>
+        <v>0.6517539999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.663677</v>
+        <v>0.668502</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.717217</v>
+        <v>0.715426</v>
       </c>
       <c r="C126" t="n">
-        <v>0.64274</v>
+        <v>0.640641</v>
       </c>
       <c r="D126" t="n">
-        <v>0.659433</v>
+        <v>0.65833</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7058489999999999</v>
+        <v>0.7037639999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.63437</v>
+        <v>0.636862</v>
       </c>
       <c r="D127" t="n">
-        <v>0.649238</v>
+        <v>0.6509160000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.700307</v>
+        <v>0.697736</v>
       </c>
       <c r="C128" t="n">
-        <v>0.626503</v>
+        <v>0.6286350000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.640663</v>
+        <v>0.639303</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.690341</v>
+        <v>0.688743</v>
       </c>
       <c r="C129" t="n">
-        <v>0.623302</v>
+        <v>0.623537</v>
       </c>
       <c r="D129" t="n">
-        <v>0.630982</v>
+        <v>0.632374</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.682373</v>
+        <v>0.68005</v>
       </c>
       <c r="C130" t="n">
-        <v>0.613675</v>
+        <v>0.6165389999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.625831</v>
+        <v>0.6215580000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.675244</v>
+        <v>0.6727880000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.611417</v>
+        <v>0.612366</v>
       </c>
       <c r="D131" t="n">
-        <v>0.618102</v>
+        <v>0.619696</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.66491</v>
+        <v>0.666632</v>
       </c>
       <c r="C132" t="n">
-        <v>0.604185</v>
+        <v>0.607952</v>
       </c>
       <c r="D132" t="n">
-        <v>0.607192</v>
+        <v>0.607644</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.660599</v>
+        <v>0.660351</v>
       </c>
       <c r="C133" t="n">
-        <v>0.60432</v>
+        <v>0.60361</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6008289999999999</v>
+        <v>0.605673</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6565569999999999</v>
+        <v>0.655598</v>
       </c>
       <c r="C134" t="n">
-        <v>0.599785</v>
+        <v>0.595371</v>
       </c>
       <c r="D134" t="n">
-        <v>0.595051</v>
+        <v>0.601905</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.650292</v>
+        <v>0.651709</v>
       </c>
       <c r="C135" t="n">
-        <v>0.59039</v>
+        <v>0.59251</v>
       </c>
       <c r="D135" t="n">
-        <v>0.594365</v>
+        <v>0.595428</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.644923</v>
+        <v>0.647106</v>
       </c>
       <c r="C136" t="n">
-        <v>0.588904</v>
+        <v>0.584844</v>
       </c>
       <c r="D136" t="n">
-        <v>0.590498</v>
+        <v>0.590347</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.642184</v>
+        <v>0.643079</v>
       </c>
       <c r="C137" t="n">
-        <v>0.778206</v>
+        <v>0.778749</v>
       </c>
       <c r="D137" t="n">
-        <v>0.788023</v>
+        <v>0.789331</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8285940000000001</v>
+        <v>0.830624</v>
       </c>
       <c r="C138" t="n">
-        <v>0.766504</v>
+        <v>0.773221</v>
       </c>
       <c r="D138" t="n">
-        <v>0.778671</v>
+        <v>0.7795299999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.823381</v>
+        <v>0.823346</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7613180000000001</v>
+        <v>0.769142</v>
       </c>
       <c r="D139" t="n">
-        <v>0.767601</v>
+        <v>0.770335</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.812181</v>
+        <v>0.814507</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7589590000000001</v>
+        <v>0.7580710000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.758273</v>
+        <v>0.763926</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.804602</v>
+        <v>0.803438</v>
       </c>
       <c r="C141" t="n">
-        <v>0.756016</v>
+        <v>0.752992</v>
       </c>
       <c r="D141" t="n">
-        <v>0.750895</v>
+        <v>0.752862</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.798713</v>
+        <v>0.799553</v>
       </c>
       <c r="C142" t="n">
-        <v>0.751656</v>
+        <v>0.750456</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7403110000000001</v>
+        <v>0.743449</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7919310000000001</v>
+        <v>0.793077</v>
       </c>
       <c r="C143" t="n">
-        <v>0.742591</v>
+        <v>0.746201</v>
       </c>
       <c r="D143" t="n">
-        <v>0.735836</v>
+        <v>0.73753</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244757</v>
+        <v>0.241939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214719</v>
+        <v>0.214442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21541</v>
+        <v>0.547651</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238703</v>
+        <v>0.23565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.209594</v>
+        <v>0.210423</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210014</v>
+        <v>0.539135</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232745</v>
+        <v>0.228863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.20499</v>
+        <v>0.205839</v>
       </c>
       <c r="D4" t="n">
-        <v>0.205866</v>
+        <v>0.536907</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227276</v>
+        <v>0.222512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200216</v>
+        <v>0.201191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201139</v>
+        <v>0.533845</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222866</v>
+        <v>0.216083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197105</v>
+        <v>0.197277</v>
       </c>
       <c r="D6" t="n">
-        <v>0.197317</v>
+        <v>0.529917</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219377</v>
+        <v>0.215584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195164</v>
+        <v>0.195751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.195632</v>
+        <v>0.680175</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216551</v>
+        <v>0.21493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196683</v>
+        <v>0.196482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.196683</v>
+        <v>0.6658539999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21653</v>
+        <v>0.212592</v>
       </c>
       <c r="C9" t="n">
-        <v>0.284846</v>
+        <v>0.284549</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287701</v>
+        <v>0.654048</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.305931</v>
+        <v>0.302704</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275843</v>
+        <v>0.274508</v>
       </c>
       <c r="D10" t="n">
-        <v>0.278057</v>
+        <v>0.6413990000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.295781</v>
+        <v>0.293136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.265836</v>
+        <v>0.266669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.269379</v>
+        <v>0.631602</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286736</v>
+        <v>0.284273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256553</v>
+        <v>0.257925</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260752</v>
+        <v>0.62117</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277909</v>
+        <v>0.277923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.249542</v>
+        <v>0.250101</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252663</v>
+        <v>0.612894</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269803</v>
+        <v>0.269702</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242108</v>
+        <v>0.24257</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245372</v>
+        <v>0.605588</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26192</v>
+        <v>0.26328</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236523</v>
+        <v>0.235647</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238362</v>
+        <v>0.597853</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.254731</v>
+        <v>0.251698</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229634</v>
+        <v>0.229753</v>
       </c>
       <c r="D16" t="n">
-        <v>0.232044</v>
+        <v>0.593576</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247986</v>
+        <v>0.250817</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224595</v>
+        <v>0.223976</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226331</v>
+        <v>0.588232</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.241814</v>
+        <v>0.239027</v>
       </c>
       <c r="C18" t="n">
-        <v>0.219347</v>
+        <v>0.219536</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220797</v>
+        <v>0.581414</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236003</v>
+        <v>0.235209</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214234</v>
+        <v>0.215547</v>
       </c>
       <c r="D19" t="n">
-        <v>0.216412</v>
+        <v>0.576923</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23112</v>
+        <v>0.236687</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211514</v>
+        <v>0.212098</v>
       </c>
       <c r="D20" t="n">
-        <v>0.212769</v>
+        <v>0.571518</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227188</v>
+        <v>0.225189</v>
       </c>
       <c r="C21" t="n">
-        <v>0.209415</v>
+        <v>0.211347</v>
       </c>
       <c r="D21" t="n">
-        <v>0.210593</v>
+        <v>0.747598</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224191</v>
+        <v>0.223978</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210833</v>
+        <v>0.210565</v>
       </c>
       <c r="D22" t="n">
-        <v>0.211092</v>
+        <v>0.734107</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.222962</v>
+        <v>0.227605</v>
       </c>
       <c r="C23" t="n">
-        <v>0.300367</v>
+        <v>0.301783</v>
       </c>
       <c r="D23" t="n">
-        <v>0.301203</v>
+        <v>0.721302</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310381</v>
+        <v>0.31397</v>
       </c>
       <c r="C24" t="n">
-        <v>0.289438</v>
+        <v>0.292455</v>
       </c>
       <c r="D24" t="n">
-        <v>0.291851</v>
+        <v>0.706992</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.300917</v>
+        <v>0.303627</v>
       </c>
       <c r="C25" t="n">
-        <v>0.281912</v>
+        <v>0.282738</v>
       </c>
       <c r="D25" t="n">
-        <v>0.282794</v>
+        <v>0.696092</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.291975</v>
+        <v>0.296264</v>
       </c>
       <c r="C26" t="n">
-        <v>0.27242</v>
+        <v>0.271474</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273832</v>
+        <v>0.680064</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.283298</v>
+        <v>0.286313</v>
       </c>
       <c r="C27" t="n">
-        <v>0.263653</v>
+        <v>0.263445</v>
       </c>
       <c r="D27" t="n">
-        <v>0.265346</v>
+        <v>0.670511</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.27496</v>
+        <v>0.277921</v>
       </c>
       <c r="C28" t="n">
-        <v>0.257594</v>
+        <v>0.255514</v>
       </c>
       <c r="D28" t="n">
-        <v>0.257877</v>
+        <v>0.6626030000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.266991</v>
+        <v>0.268222</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248641</v>
+        <v>0.247968</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250446</v>
+        <v>0.655729</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.25976</v>
+        <v>0.26197</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242052</v>
+        <v>0.243949</v>
       </c>
       <c r="D30" t="n">
-        <v>0.243512</v>
+        <v>0.647482</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.252777</v>
+        <v>0.26323</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235699</v>
+        <v>0.235601</v>
       </c>
       <c r="D31" t="n">
-        <v>0.237067</v>
+        <v>0.641493</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.246437</v>
+        <v>0.250404</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231016</v>
+        <v>0.229798</v>
       </c>
       <c r="D32" t="n">
-        <v>0.231565</v>
+        <v>0.636647</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.240637</v>
+        <v>0.244955</v>
       </c>
       <c r="C33" t="n">
-        <v>0.225995</v>
+        <v>0.225103</v>
       </c>
       <c r="D33" t="n">
-        <v>0.226724</v>
+        <v>0.631269</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.23575</v>
+        <v>0.235475</v>
       </c>
       <c r="C34" t="n">
-        <v>0.222638</v>
+        <v>0.225608</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223001</v>
+        <v>0.626685</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.231236</v>
+        <v>0.231426</v>
       </c>
       <c r="C35" t="n">
-        <v>0.218981</v>
+        <v>0.218567</v>
       </c>
       <c r="D35" t="n">
-        <v>0.220459</v>
+        <v>0.809968</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228343</v>
+        <v>0.233446</v>
       </c>
       <c r="C36" t="n">
-        <v>0.218593</v>
+        <v>0.218601</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219908</v>
+        <v>0.792925</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.226889</v>
+        <v>0.229473</v>
       </c>
       <c r="C37" t="n">
-        <v>0.312256</v>
+        <v>0.312787</v>
       </c>
       <c r="D37" t="n">
-        <v>0.312317</v>
+        <v>0.778517</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.314986</v>
+        <v>0.319246</v>
       </c>
       <c r="C38" t="n">
-        <v>0.301223</v>
+        <v>0.302189</v>
       </c>
       <c r="D38" t="n">
-        <v>0.302677</v>
+        <v>0.762835</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305514</v>
+        <v>0.304768</v>
       </c>
       <c r="C39" t="n">
-        <v>0.291978</v>
+        <v>0.294139</v>
       </c>
       <c r="D39" t="n">
-        <v>0.293298</v>
+        <v>0.748993</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296684</v>
+        <v>0.300203</v>
       </c>
       <c r="C40" t="n">
-        <v>0.28381</v>
+        <v>0.283603</v>
       </c>
       <c r="D40" t="n">
-        <v>0.28422</v>
+        <v>0.735718</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.287949</v>
+        <v>0.28942</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275809</v>
+        <v>0.279612</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275817</v>
+        <v>0.724496</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.27991</v>
+        <v>0.278538</v>
       </c>
       <c r="C42" t="n">
-        <v>0.268441</v>
+        <v>0.266095</v>
       </c>
       <c r="D42" t="n">
-        <v>0.267725</v>
+        <v>0.71415</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272516</v>
+        <v>0.285451</v>
       </c>
       <c r="C43" t="n">
-        <v>0.259757</v>
+        <v>0.259081</v>
       </c>
       <c r="D43" t="n">
-        <v>0.260169</v>
+        <v>0.704053</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264616</v>
+        <v>0.277704</v>
       </c>
       <c r="C44" t="n">
-        <v>0.254344</v>
+        <v>0.252212</v>
       </c>
       <c r="D44" t="n">
-        <v>0.253041</v>
+        <v>0.69624</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258327</v>
+        <v>0.259931</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246475</v>
+        <v>0.247749</v>
       </c>
       <c r="D45" t="n">
-        <v>0.246624</v>
+        <v>0.689233</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25152</v>
+        <v>0.258224</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240814</v>
+        <v>0.242211</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240837</v>
+        <v>0.682545</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.245948</v>
+        <v>0.252652</v>
       </c>
       <c r="C47" t="n">
-        <v>0.235454</v>
+        <v>0.235029</v>
       </c>
       <c r="D47" t="n">
-        <v>0.235566</v>
+        <v>0.676252</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.24108</v>
+        <v>0.242791</v>
       </c>
       <c r="C48" t="n">
-        <v>0.231433</v>
+        <v>0.229517</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231135</v>
+        <v>0.671191</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236419</v>
+        <v>0.237804</v>
       </c>
       <c r="C49" t="n">
-        <v>0.228893</v>
+        <v>0.230017</v>
       </c>
       <c r="D49" t="n">
-        <v>0.227864</v>
+        <v>0.667317</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23327</v>
+        <v>0.242138</v>
       </c>
       <c r="C50" t="n">
-        <v>0.227837</v>
+        <v>0.225073</v>
       </c>
       <c r="D50" t="n">
-        <v>0.226353</v>
+        <v>0.843013</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231108</v>
+        <v>0.238348</v>
       </c>
       <c r="C51" t="n">
-        <v>0.320817</v>
+        <v>0.324629</v>
       </c>
       <c r="D51" t="n">
-        <v>0.320506</v>
+        <v>0.826322</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.231216</v>
+        <v>0.235755</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311564</v>
+        <v>0.315618</v>
       </c>
       <c r="D52" t="n">
-        <v>0.31088</v>
+        <v>0.809943</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.318159</v>
+        <v>0.323161</v>
       </c>
       <c r="C53" t="n">
-        <v>0.302799</v>
+        <v>0.306575</v>
       </c>
       <c r="D53" t="n">
-        <v>0.301538</v>
+        <v>0.794179</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308884</v>
+        <v>0.312572</v>
       </c>
       <c r="C54" t="n">
-        <v>0.294709</v>
+        <v>0.29754</v>
       </c>
       <c r="D54" t="n">
-        <v>0.292606</v>
+        <v>0.780603</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300193</v>
+        <v>0.306365</v>
       </c>
       <c r="C55" t="n">
-        <v>0.287661</v>
+        <v>0.289592</v>
       </c>
       <c r="D55" t="n">
-        <v>0.28398</v>
+        <v>0.768073</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292071</v>
+        <v>0.29705</v>
       </c>
       <c r="C56" t="n">
-        <v>0.28005</v>
+        <v>0.283233</v>
       </c>
       <c r="D56" t="n">
-        <v>0.276229</v>
+        <v>0.756762</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284191</v>
+        <v>0.287716</v>
       </c>
       <c r="C57" t="n">
-        <v>0.272974</v>
+        <v>0.276142</v>
       </c>
       <c r="D57" t="n">
-        <v>0.268378</v>
+        <v>0.745408</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.276865</v>
+        <v>0.285441</v>
       </c>
       <c r="C58" t="n">
-        <v>0.26643</v>
+        <v>0.268372</v>
       </c>
       <c r="D58" t="n">
-        <v>0.261642</v>
+        <v>0.736565</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.270047</v>
+        <v>0.272899</v>
       </c>
       <c r="C59" t="n">
-        <v>0.260044</v>
+        <v>0.26106</v>
       </c>
       <c r="D59" t="n">
-        <v>0.254863</v>
+        <v>0.727702</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.263753</v>
+        <v>0.271113</v>
       </c>
       <c r="C60" t="n">
-        <v>0.254327</v>
+        <v>0.256693</v>
       </c>
       <c r="D60" t="n">
-        <v>0.249308</v>
+        <v>0.720216</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257867</v>
+        <v>0.265343</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249264</v>
+        <v>0.251772</v>
       </c>
       <c r="D61" t="n">
-        <v>0.244021</v>
+        <v>0.712882</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.252668</v>
+        <v>0.257264</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244889</v>
+        <v>0.247151</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239499</v>
+        <v>0.70718</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.248164</v>
+        <v>0.253766</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241751</v>
+        <v>0.243322</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236183</v>
+        <v>0.702124</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244433</v>
+        <v>0.251342</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239842</v>
+        <v>0.241154</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2342</v>
+        <v>0.910762</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242353</v>
+        <v>0.247293</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239931</v>
+        <v>0.241673</v>
       </c>
       <c r="D65" t="n">
-        <v>0.234859</v>
+        <v>0.890302</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.241908</v>
+        <v>0.244959</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343887</v>
+        <v>0.346324</v>
       </c>
       <c r="D66" t="n">
-        <v>0.350057</v>
+        <v>0.871353</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.377376</v>
+        <v>0.40795</v>
       </c>
       <c r="C67" t="n">
-        <v>0.335323</v>
+        <v>0.330609</v>
       </c>
       <c r="D67" t="n">
-        <v>0.339909</v>
+        <v>0.854832</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.369795</v>
+        <v>0.388702</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326716</v>
+        <v>0.326192</v>
       </c>
       <c r="D68" t="n">
-        <v>0.330586</v>
+        <v>0.838378</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.362452</v>
+        <v>0.360988</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318719</v>
+        <v>0.317198</v>
       </c>
       <c r="D69" t="n">
-        <v>0.321522</v>
+        <v>0.8266829999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.355597</v>
+        <v>0.362226</v>
       </c>
       <c r="C70" t="n">
-        <v>0.310993</v>
+        <v>0.305282</v>
       </c>
       <c r="D70" t="n">
-        <v>0.312727</v>
+        <v>0.8146870000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349082</v>
+        <v>0.375535</v>
       </c>
       <c r="C71" t="n">
-        <v>0.303445</v>
+        <v>0.303882</v>
       </c>
       <c r="D71" t="n">
-        <v>0.304378</v>
+        <v>0.804402</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.342428</v>
+        <v>0.340978</v>
       </c>
       <c r="C72" t="n">
-        <v>0.296602</v>
+        <v>0.297151</v>
       </c>
       <c r="D72" t="n">
-        <v>0.296824</v>
+        <v>0.7967919999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.335872</v>
+        <v>0.35524</v>
       </c>
       <c r="C73" t="n">
-        <v>0.289796</v>
+        <v>0.288453</v>
       </c>
       <c r="D73" t="n">
-        <v>0.290156</v>
+        <v>0.790758</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.329025</v>
+        <v>0.34645</v>
       </c>
       <c r="C74" t="n">
-        <v>0.283816</v>
+        <v>0.283568</v>
       </c>
       <c r="D74" t="n">
-        <v>0.283296</v>
+        <v>0.785463</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.32293</v>
+        <v>0.315752</v>
       </c>
       <c r="C75" t="n">
-        <v>0.27839</v>
+        <v>0.27796</v>
       </c>
       <c r="D75" t="n">
-        <v>0.277387</v>
+        <v>0.780814</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.316812</v>
+        <v>0.366946</v>
       </c>
       <c r="C76" t="n">
-        <v>0.273222</v>
+        <v>0.271711</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272221</v>
+        <v>0.780138</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.311373</v>
+        <v>0.341961</v>
       </c>
       <c r="C77" t="n">
-        <v>0.269223</v>
+        <v>0.266891</v>
       </c>
       <c r="D77" t="n">
-        <v>0.26807</v>
+        <v>0.782265</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.306537</v>
+        <v>0.30804</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266738</v>
+        <v>0.262508</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265305</v>
+        <v>1.25394</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.302642</v>
+        <v>0.30073</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265907</v>
+        <v>0.26257</v>
       </c>
       <c r="D79" t="n">
-        <v>0.26453</v>
+        <v>1.22941</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.300716</v>
+        <v>0.322849</v>
       </c>
       <c r="C80" t="n">
-        <v>0.530215</v>
+        <v>0.393525</v>
       </c>
       <c r="D80" t="n">
-        <v>0.434453</v>
+        <v>1.20932</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.533067</v>
+        <v>0.464631</v>
       </c>
       <c r="C81" t="n">
-        <v>0.388146</v>
+        <v>0.389467</v>
       </c>
       <c r="D81" t="n">
-        <v>0.424084</v>
+        <v>1.19158</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.526124</v>
+        <v>0.420398</v>
       </c>
       <c r="C82" t="n">
-        <v>0.38176</v>
+        <v>0.380218</v>
       </c>
       <c r="D82" t="n">
-        <v>0.413392</v>
+        <v>1.18406</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.515876</v>
+        <v>0.457567</v>
       </c>
       <c r="C83" t="n">
-        <v>0.373216</v>
+        <v>0.372041</v>
       </c>
       <c r="D83" t="n">
-        <v>0.403654</v>
+        <v>1.17557</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.506332</v>
+        <v>0.427742</v>
       </c>
       <c r="C84" t="n">
-        <v>0.364688</v>
+        <v>0.364114</v>
       </c>
       <c r="D84" t="n">
-        <v>0.393565</v>
+        <v>1.16716</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.495484</v>
+        <v>0.41672</v>
       </c>
       <c r="C85" t="n">
-        <v>0.35826</v>
+        <v>0.357717</v>
       </c>
       <c r="D85" t="n">
-        <v>0.383592</v>
+        <v>1.16129</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.48496</v>
+        <v>0.398126</v>
       </c>
       <c r="C86" t="n">
-        <v>0.350327</v>
+        <v>0.35365</v>
       </c>
       <c r="D86" t="n">
-        <v>0.373774</v>
+        <v>1.16063</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.475823</v>
+        <v>0.413046</v>
       </c>
       <c r="C87" t="n">
-        <v>0.343747</v>
+        <v>0.342642</v>
       </c>
       <c r="D87" t="n">
-        <v>0.367385</v>
+        <v>1.16246</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.465973</v>
+        <v>0.408865</v>
       </c>
       <c r="C88" t="n">
-        <v>0.338392</v>
+        <v>0.335133</v>
       </c>
       <c r="D88" t="n">
-        <v>0.359392</v>
+        <v>1.16357</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.456428</v>
+        <v>0.377912</v>
       </c>
       <c r="C89" t="n">
-        <v>0.331531</v>
+        <v>0.329166</v>
       </c>
       <c r="D89" t="n">
-        <v>0.351159</v>
+        <v>1.17418</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.446588</v>
+        <v>0.418111</v>
       </c>
       <c r="C90" t="n">
-        <v>0.324241</v>
+        <v>0.32681</v>
       </c>
       <c r="D90" t="n">
-        <v>0.343749</v>
+        <v>1.18366</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.437754</v>
+        <v>0.422285</v>
       </c>
       <c r="C91" t="n">
-        <v>0.319696</v>
+        <v>0.316804</v>
       </c>
       <c r="D91" t="n">
-        <v>0.337303</v>
+        <v>1.19607</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.429809</v>
+        <v>0.400223</v>
       </c>
       <c r="C92" t="n">
-        <v>0.314637</v>
+        <v>0.317993</v>
       </c>
       <c r="D92" t="n">
-        <v>0.332528</v>
+        <v>1.77874</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.423496</v>
+        <v>0.443919</v>
       </c>
       <c r="C93" t="n">
-        <v>0.314398</v>
+        <v>0.309221</v>
       </c>
       <c r="D93" t="n">
-        <v>0.328717</v>
+        <v>1.76657</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.417423</v>
+        <v>0.386501</v>
       </c>
       <c r="C94" t="n">
-        <v>0.504258</v>
+        <v>0.501337</v>
       </c>
       <c r="D94" t="n">
-        <v>0.580004</v>
+        <v>1.75448</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.558832</v>
+        <v>0.556568</v>
       </c>
       <c r="C95" t="n">
-        <v>0.500212</v>
+        <v>0.496423</v>
       </c>
       <c r="D95" t="n">
-        <v>0.578199</v>
+        <v>1.73893</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.554321</v>
+        <v>0.562118</v>
       </c>
       <c r="C96" t="n">
-        <v>0.489273</v>
+        <v>0.4887</v>
       </c>
       <c r="D96" t="n">
-        <v>0.563196</v>
+        <v>1.72803</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.543353</v>
+        <v>0.557346</v>
       </c>
       <c r="C97" t="n">
-        <v>0.478622</v>
+        <v>0.477194</v>
       </c>
       <c r="D97" t="n">
-        <v>0.545932</v>
+        <v>1.72067</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.533797</v>
+        <v>0.53692</v>
       </c>
       <c r="C98" t="n">
-        <v>0.467328</v>
+        <v>0.462671</v>
       </c>
       <c r="D98" t="n">
-        <v>0.525027</v>
+        <v>1.71364</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.524597</v>
+        <v>0.54993</v>
       </c>
       <c r="C99" t="n">
-        <v>0.45775</v>
+        <v>0.454862</v>
       </c>
       <c r="D99" t="n">
-        <v>0.510615</v>
+        <v>1.71055</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.515933</v>
+        <v>0.558619</v>
       </c>
       <c r="C100" t="n">
-        <v>0.446456</v>
+        <v>0.449856</v>
       </c>
       <c r="D100" t="n">
-        <v>0.508273</v>
+        <v>1.7127</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.507074</v>
+        <v>0.5283679999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.437517</v>
+        <v>0.436556</v>
       </c>
       <c r="D101" t="n">
-        <v>0.495237</v>
+        <v>1.71913</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.499183</v>
+        <v>0.533995</v>
       </c>
       <c r="C102" t="n">
-        <v>0.429772</v>
+        <v>0.427725</v>
       </c>
       <c r="D102" t="n">
-        <v>0.481784</v>
+        <v>1.72481</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.490912</v>
+        <v>0.491926</v>
       </c>
       <c r="C103" t="n">
-        <v>0.422747</v>
+        <v>0.420274</v>
       </c>
       <c r="D103" t="n">
-        <v>0.470075</v>
+        <v>1.73196</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483532</v>
+        <v>0.486868</v>
       </c>
       <c r="C104" t="n">
-        <v>0.41492</v>
+        <v>0.413438</v>
       </c>
       <c r="D104" t="n">
-        <v>0.461051</v>
+        <v>1.74643</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.476917</v>
+        <v>0.480685</v>
       </c>
       <c r="C105" t="n">
-        <v>0.40895</v>
+        <v>0.404729</v>
       </c>
       <c r="D105" t="n">
-        <v>0.441918</v>
+        <v>1.76079</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.47186</v>
+        <v>0.486026</v>
       </c>
       <c r="C106" t="n">
-        <v>0.404772</v>
+        <v>0.398796</v>
       </c>
       <c r="D106" t="n">
-        <v>0.444681</v>
+        <v>1.77368</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.466269</v>
+        <v>0.481128</v>
       </c>
       <c r="C107" t="n">
-        <v>0.399519</v>
+        <v>0.399655</v>
       </c>
       <c r="D107" t="n">
-        <v>0.440221</v>
+        <v>2.39995</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.462681</v>
+        <v>0.484413</v>
       </c>
       <c r="C108" t="n">
-        <v>0.591947</v>
+        <v>0.5906670000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.633431</v>
+        <v>2.36997</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.461796</v>
+        <v>0.476451</v>
       </c>
       <c r="C109" t="n">
-        <v>0.585121</v>
+        <v>0.5833739999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623274</v>
+        <v>2.34772</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.655343</v>
+        <v>0.67052</v>
       </c>
       <c r="C110" t="n">
-        <v>0.573664</v>
+        <v>0.574935</v>
       </c>
       <c r="D110" t="n">
-        <v>0.612692</v>
+        <v>2.32124</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.643285</v>
+        <v>0.6391019999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.562371</v>
+        <v>0.562262</v>
       </c>
       <c r="D111" t="n">
-        <v>0.597033</v>
+        <v>2.30124</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.63254</v>
+        <v>0.6380169999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.551892</v>
+        <v>0.521595</v>
       </c>
       <c r="D112" t="n">
-        <v>0.574257</v>
+        <v>2.28531</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.620421</v>
+        <v>0.610876</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5402</v>
+        <v>0.511585</v>
       </c>
       <c r="D113" t="n">
-        <v>0.568309</v>
+        <v>2.27099</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608853</v>
+        <v>0.622695</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5299700000000001</v>
+        <v>0.503296</v>
       </c>
       <c r="D114" t="n">
-        <v>0.560747</v>
+        <v>2.28345</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.598522</v>
+        <v>0.600249</v>
       </c>
       <c r="C115" t="n">
-        <v>0.520691</v>
+        <v>0.5222869999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.543172</v>
+        <v>2.29827</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.590927</v>
+        <v>0.606575</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5112989999999999</v>
+        <v>0.513417</v>
       </c>
       <c r="D116" t="n">
-        <v>0.534511</v>
+        <v>2.2974</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.581067</v>
+        <v>0.594341</v>
       </c>
       <c r="C117" t="n">
-        <v>0.504109</v>
+        <v>0.50315</v>
       </c>
       <c r="D117" t="n">
-        <v>0.526388</v>
+        <v>2.29654</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5703819999999999</v>
+        <v>0.572395</v>
       </c>
       <c r="C118" t="n">
-        <v>0.498316</v>
+        <v>0.498506</v>
       </c>
       <c r="D118" t="n">
-        <v>0.516308</v>
+        <v>2.24497</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.561022</v>
+        <v>0.538863</v>
       </c>
       <c r="C119" t="n">
-        <v>0.491255</v>
+        <v>0.467297</v>
       </c>
       <c r="D119" t="n">
-        <v>0.507643</v>
+        <v>2.25518</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5539770000000001</v>
+        <v>0.527353</v>
       </c>
       <c r="C120" t="n">
-        <v>0.482135</v>
+        <v>0.459673</v>
       </c>
       <c r="D120" t="n">
-        <v>0.501332</v>
+        <v>2.26968</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.549306</v>
+        <v>0.543685</v>
       </c>
       <c r="C121" t="n">
-        <v>0.475395</v>
+        <v>0.45668</v>
       </c>
       <c r="D121" t="n">
-        <v>0.493376</v>
+        <v>2.95529</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.545817</v>
+        <v>0.542292</v>
       </c>
       <c r="C122" t="n">
-        <v>0.47571</v>
+        <v>0.453449</v>
       </c>
       <c r="D122" t="n">
-        <v>0.492718</v>
+        <v>2.90522</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.542605</v>
+        <v>0.525324</v>
       </c>
       <c r="C123" t="n">
-        <v>0.662681</v>
+        <v>0.644151</v>
       </c>
       <c r="D123" t="n">
-        <v>0.688061</v>
+        <v>2.87182</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7335390000000001</v>
+        <v>0.709466</v>
       </c>
       <c r="C124" t="n">
-        <v>0.658779</v>
+        <v>0.638554</v>
       </c>
       <c r="D124" t="n">
-        <v>0.675563</v>
+        <v>2.83582</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.723213</v>
+        <v>0.730789</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6517539999999999</v>
+        <v>0.632983</v>
       </c>
       <c r="D125" t="n">
-        <v>0.668502</v>
+        <v>2.80505</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.715426</v>
+        <v>0.705207</v>
       </c>
       <c r="C126" t="n">
-        <v>0.640641</v>
+        <v>0.626758</v>
       </c>
       <c r="D126" t="n">
-        <v>0.65833</v>
+        <v>2.77241</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7037639999999999</v>
+        <v>0.711133</v>
       </c>
       <c r="C127" t="n">
-        <v>0.636862</v>
+        <v>0.617804</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6509160000000001</v>
+        <v>2.75189</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.697736</v>
+        <v>0.709736</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6286350000000001</v>
+        <v>0.612725</v>
       </c>
       <c r="D128" t="n">
-        <v>0.639303</v>
+        <v>2.73111</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.688743</v>
+        <v>0.695827</v>
       </c>
       <c r="C129" t="n">
-        <v>0.623537</v>
+        <v>0.610059</v>
       </c>
       <c r="D129" t="n">
-        <v>0.632374</v>
+        <v>2.71848</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.68005</v>
+        <v>0.6744560000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6165389999999999</v>
+        <v>0.604043</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6215580000000001</v>
+        <v>2.70135</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6727880000000001</v>
+        <v>0.670432</v>
       </c>
       <c r="C131" t="n">
-        <v>0.612366</v>
+        <v>0.598326</v>
       </c>
       <c r="D131" t="n">
-        <v>0.619696</v>
+        <v>2.68729</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.666632</v>
+        <v>0.6581090000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.607952</v>
+        <v>0.594094</v>
       </c>
       <c r="D132" t="n">
-        <v>0.607644</v>
+        <v>2.68327</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.660351</v>
+        <v>0.663035</v>
       </c>
       <c r="C133" t="n">
-        <v>0.60361</v>
+        <v>0.600845</v>
       </c>
       <c r="D133" t="n">
-        <v>0.605673</v>
+        <v>2.68223</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.655598</v>
+        <v>0.644311</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595371</v>
+        <v>0.589239</v>
       </c>
       <c r="D134" t="n">
-        <v>0.601905</v>
+        <v>2.66495</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.651709</v>
+        <v>0.63892</v>
       </c>
       <c r="C135" t="n">
-        <v>0.59251</v>
+        <v>0.56362</v>
       </c>
       <c r="D135" t="n">
-        <v>0.595428</v>
+        <v>3.37935</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.647106</v>
+        <v>0.637435</v>
       </c>
       <c r="C136" t="n">
-        <v>0.584844</v>
+        <v>0.559021</v>
       </c>
       <c r="D136" t="n">
-        <v>0.590347</v>
+        <v>3.3262</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.643079</v>
+        <v>0.645809</v>
       </c>
       <c r="C137" t="n">
-        <v>0.778749</v>
+        <v>0.7549979999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.789331</v>
+        <v>3.27557</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.830624</v>
+        <v>0.796019</v>
       </c>
       <c r="C138" t="n">
-        <v>0.773221</v>
+        <v>0.74189</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7795299999999999</v>
+        <v>3.22023</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.823346</v>
+        <v>0.796223</v>
       </c>
       <c r="C139" t="n">
-        <v>0.769142</v>
+        <v>0.742688</v>
       </c>
       <c r="D139" t="n">
-        <v>0.770335</v>
+        <v>3.17846</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.814507</v>
+        <v>0.789867</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7580710000000001</v>
+        <v>0.737057</v>
       </c>
       <c r="D140" t="n">
-        <v>0.763926</v>
+        <v>3.13958</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.803438</v>
+        <v>0.793146</v>
       </c>
       <c r="C141" t="n">
-        <v>0.752992</v>
+        <v>0.73405</v>
       </c>
       <c r="D141" t="n">
-        <v>0.752862</v>
+        <v>3.10603</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.799553</v>
+        <v>0.792431</v>
       </c>
       <c r="C142" t="n">
-        <v>0.750456</v>
+        <v>0.747067</v>
       </c>
       <c r="D142" t="n">
-        <v>0.743449</v>
+        <v>3.08453</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.793077</v>
+        <v>0.7914870000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.746201</v>
+        <v>0.743911</v>
       </c>
       <c r="D143" t="n">
-        <v>0.73753</v>
+        <v>3.05967</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.170668</v>
+                  <v>0.15495</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.164843</v>
+                  <v>0.153545</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.165379</v>
+                  <v>0.156261</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.150997</v>
+                  <v>0.154468</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.152331</v>
+                  <v>0.159997</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149768</v>
+                  <v>0.148057</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.152588</v>
+                  <v>0.149778</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154628</v>
+                  <v>0.154311</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221009</v>
+                  <v>0.223686</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.212625</v>
+                  <v>0.205186</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.211566</v>
+                  <v>0.205051</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.195441</v>
+                  <v>0.191499</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194947</v>
+                  <v>0.185229</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186434</v>
+                  <v>0.180374</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.178351</v>
+                  <v>0.173777</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.173591</v>
+                  <v>0.174067</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.168205</v>
+                  <v>0.166807</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.16688</v>
+                  <v>0.160047</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.159624</v>
+                  <v>0.157303</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.158982</v>
+                  <v>0.156402</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.157925</v>
+                  <v>0.163726</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157835</v>
+                  <v>0.160119</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235187</v>
+                  <v>0.240097</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234979</v>
+                  <v>0.231232</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.222812</v>
+                  <v>0.227764</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.212721</v>
+                  <v>0.219773</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.204469</v>
+                  <v>0.21386</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.19605</v>
+                  <v>0.200835</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.192526</v>
+                  <v>0.197722</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.179359</v>
+                  <v>0.185452</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182408</v>
+                  <v>0.185902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173725</v>
+                  <v>0.179391</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.172037</v>
+                  <v>0.174647</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.170274</v>
+                  <v>0.167433</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.163399</v>
+                  <v>0.173431</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.165498</v>
+                  <v>0.169377</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243844</v>
+                  <v>0.245427</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.23535</v>
+                  <v>0.236324</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226636</v>
+                  <v>0.228014</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.217798</v>
+                  <v>0.220475</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210594</v>
+                  <v>0.211363</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203038</v>
+                  <v>0.205815</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.200194</v>
+                  <v>0.198957</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.194085</v>
+                  <v>0.192026</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.189659</v>
+                  <v>0.186259</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.184056</v>
+                  <v>0.182829</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.179376</v>
+                  <v>0.178498</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.176819</v>
+                  <v>0.174932</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.175946</v>
+                  <v>0.173529</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.176716</v>
+                  <v>0.174603</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.179499</v>
+                  <v>0.178568</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.246194</v>
+                  <v>0.242911</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.236625</v>
+                  <v>0.233062</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.228535</v>
+                  <v>0.225756</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.220311</v>
+                  <v>0.219169</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.212764</v>
+                  <v>0.211266</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.205025</v>
+                  <v>0.204869</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198959</v>
+                  <v>0.198465</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.193449</v>
+                  <v>0.192641</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.188205</v>
+                  <v>0.187453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182403</v>
+                  <v>0.183317</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.179269</v>
+                  <v>0.180442</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177012</v>
+                  <v>0.178772</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177729</v>
+                  <v>0.178868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180358</v>
+                  <v>0.182404</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244029</v>
+                  <v>0.246499</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.236519</v>
+                  <v>0.24057</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228133</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220467</v>
+                  <v>0.222631</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212274</v>
+                  <v>0.214224</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205977</v>
+                  <v>0.208225</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199758</v>
+                  <v>0.200051</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19413</v>
+                  <v>0.196592</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188413</v>
+                  <v>0.191699</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184215</v>
+                  <v>0.187385</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181004</v>
+                  <v>0.184281</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178894</v>
+                  <v>0.181944</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17897</v>
+                  <v>0.181193</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180581</v>
+                  <v>0.183598</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.256846</v>
+                  <v>0.259901</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.250364</v>
+                  <v>0.251809</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.24198</v>
+                  <v>0.245416</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233548</v>
+                  <v>0.236506</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.227319</v>
+                  <v>0.228865</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219364</v>
+                  <v>0.222002</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213434</v>
+                  <v>0.215267</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207721</v>
+                  <v>0.208708</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201258</v>
+                  <v>0.203164</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19653</v>
+                  <v>0.198265</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192528</v>
+                  <v>0.194029</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189688</v>
+                  <v>0.191051</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188619</v>
+                  <v>0.190331</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189627</v>
+                  <v>0.190609</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270145</v>
+                  <v>0.271708</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.264648</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.257315</v>
+                  <v>0.258822</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.250563</v>
+                  <v>0.251693</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24473</v>
+                  <v>0.245207</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238846</v>
+                  <v>0.238911</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232631</v>
+                  <v>0.233314</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227556</v>
+                  <v>0.227926</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222112</v>
+                  <v>0.223038</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217608</v>
+                  <v>0.218392</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213903</v>
+                  <v>0.214392</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.21037</v>
+                  <v>0.211043</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208235</v>
+                  <v>0.208798</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208631</v>
+                  <v>0.208902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210884</v>
+                  <v>0.210912</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.284085</v>
+                  <v>0.282122</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277325</v>
+                  <v>0.277332</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271154</v>
+                  <v>0.271849</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265253</v>
+                  <v>0.265643</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259777</v>
+                  <v>0.259825</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254644</v>
+                  <v>0.254755</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250128</v>
+                  <v>0.249822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245359</v>
+                  <v>0.24522</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241561</v>
+                  <v>0.241839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23764</v>
+                  <v>0.23729</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234284</v>
+                  <v>0.234272</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231834</v>
+                  <v>0.232088</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231043</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232245</v>
+                  <v>0.232239</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.315814</v>
+                  <v>0.317627</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.310851</v>
+                  <v>0.312009</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.306028</v>
+                  <v>0.30586</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299753</v>
+                  <v>0.300592</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294531</v>
+                  <v>0.295357</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.289946</v>
+                  <v>0.291282</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285871</v>
+                  <v>0.290024</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28194</v>
+                  <v>0.292332</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278146</v>
+                  <v>0.316529</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275044</v>
+                  <v>0.313286</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.27231</v>
+                  <v>0.269433</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270276</v>
+                  <v>0.267928</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.26913</v>
+                  <v>0.267051</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270188</v>
+                  <v>0.267636</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.360478</v>
+                  <v>0.350842</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.354977</v>
+                  <v>0.345442</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.350567</v>
+                  <v>0.341276</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.345151</v>
+                  <v>0.336592</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34072</v>
+                  <v>0.332195</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.335998</v>
+                  <v>0.328062</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.136461</v>
+                  <v>0.133487</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.143885</v>
+                  <v>0.128996</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.138416</v>
+                  <v>0.128778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.131866</v>
+                  <v>0.123893</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.128733</v>
+                  <v>0.115629</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.125371</v>
+                  <v>0.117525</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.119173</v>
+                  <v>0.110211</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119054</v>
+                  <v>0.176215</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.199755</v>
+                  <v>0.169618</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.194893</v>
+                  <v>0.167522</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.186611</v>
+                  <v>0.164985</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.180929</v>
+                  <v>0.157948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.171719</v>
+                  <v>0.154722</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.164359</v>
+                  <v>0.145283</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.159604</v>
+                  <v>0.14847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.156142</v>
+                  <v>0.137933</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.148751</v>
+                  <v>0.132223</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.145812</v>
+                  <v>0.130486</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.141893</v>
+                  <v>0.124625</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.140321</v>
+                  <v>0.122399</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138166</v>
+                  <v>0.122231</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.138866</v>
+                  <v>0.215673</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.22216</v>
+                  <v>0.209008</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.214043</v>
+                  <v>0.196812</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.202789</v>
+                  <v>0.193513</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.194749</v>
+                  <v>0.186064</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.188153</v>
+                  <v>0.182841</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.180718</v>
+                  <v>0.175024</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.174444</v>
+                  <v>0.170131</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168821</v>
+                  <v>0.161414</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.162937</v>
+                  <v>0.156848</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.157914</v>
+                  <v>0.155946</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.153826</v>
+                  <v>0.14656</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150082</v>
+                  <v>0.150628</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.147894</v>
+                  <v>0.146053</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.146972</v>
+                  <v>0.230175</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.223466</v>
+                  <v>0.222468</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214588</v>
+                  <v>0.212657</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.206551</v>
+                  <v>0.20674</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198601</v>
+                  <v>0.198642</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191216</v>
+                  <v>0.191772</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.18396</v>
+                  <v>0.188281</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.180497</v>
+                  <v>0.177377</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174746</v>
+                  <v>0.171985</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.168726</v>
+                  <v>0.166429</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.16349</v>
+                  <v>0.166079</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159218</v>
+                  <v>0.159028</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.155587</v>
+                  <v>0.15706</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.153056</v>
+                  <v>0.156108</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.151411</v>
+                  <v>0.244006</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.152255</v>
+                  <v>0.234167</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.223567</v>
+                  <v>0.224348</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.215128</v>
+                  <v>0.216183</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206602</v>
+                  <v>0.208516</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.199106</v>
+                  <v>0.200898</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191861</v>
+                  <v>0.193874</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184943</v>
+                  <v>0.186857</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.178332</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172886</v>
+                  <v>0.175261</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167693</v>
+                  <v>0.170349</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.160526</v>
+                  <v>0.166078</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.156473</v>
+                  <v>0.163411</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.15361</v>
+                  <v>0.161494</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.151918</v>
+                  <v>0.16251</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.152658</v>
+                  <v>0.243741</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.228151</v>
+                  <v>0.233795</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.219456</v>
+                  <v>0.226048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.21135</v>
+                  <v>0.218522</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.203187</v>
+                  <v>0.208423</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.195914</v>
+                  <v>0.20239</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.188766</v>
+                  <v>0.195978</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.182265</v>
+                  <v>0.190244</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.176143</v>
+                  <v>0.183549</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.170713</v>
+                  <v>0.17921</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165631</v>
+                  <v>0.174505</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.161469</v>
+                  <v>0.17026</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.158217</v>
+                  <v>0.168555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.156204</v>
+                  <v>0.167771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.156222</v>
+                  <v>0.243049</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.230333</v>
+                  <v>0.233663</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222566</v>
+                  <v>0.225806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.214771</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207566</v>
+                  <v>0.210345</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200837</v>
+                  <v>0.202909</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.19364</v>
+                  <v>0.196278</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.188096</v>
+                  <v>0.190457</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.181911</v>
+                  <v>0.184578</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176008</v>
+                  <v>0.179115</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.171451</v>
+                  <v>0.174858</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166593</v>
+                  <v>0.171276</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.163878</v>
+                  <v>0.168786</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.160923</v>
+                  <v>0.169004</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.160238</v>
+                  <v>0.254981</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248401</v>
+                  <v>0.247215</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.240463</v>
+                  <v>0.239115</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.232944</v>
+                  <v>0.230624</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.225805</v>
+                  <v>0.222856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.22678</v>
+                  <v>0.21591</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.212444</v>
+                  <v>0.209102</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.206497</v>
+                  <v>0.202675</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.201607</v>
+                  <v>0.196973</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.195129</v>
+                  <v>0.19177</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.189518</v>
+                  <v>0.187172</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.186515</v>
+                  <v>0.183301</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18283</v>
+                  <v>0.18078</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.18042</v>
+                  <v>0.179522</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.179433</v>
+                  <v>0.269489</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.181014</v>
+                  <v>0.262897</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.260856</v>
+                  <v>0.256726</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.252951</v>
+                  <v>0.247451</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.245756</v>
+                  <v>0.24043</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.239063</v>
+                  <v>0.233607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.232542</v>
+                  <v>0.227423</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.226357</v>
+                  <v>0.221229</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.221257</v>
+                  <v>0.215868</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.217762</v>
+                  <v>0.210591</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.212853</v>
+                  <v>0.206479</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.208819</v>
+                  <v>0.202559</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.20483</v>
+                  <v>0.199773</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.201751</v>
+                  <v>0.198176</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200686</v>
+                  <v>0.198841</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.200643</v>
+                  <v>0.285232</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.284238</v>
+                  <v>0.276811</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.278287</v>
+                  <v>0.270839</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.268032</v>
+                  <v>0.265608</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.262246</v>
+                  <v>0.260523</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.2563</v>
+                  <v>0.255044</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.25157</v>
+                  <v>0.251807</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.247088</v>
+                  <v>0.249694</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.242605</v>
+                  <v>0.266801</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.238676</v>
+                  <v>0.263743</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.235063</v>
+                  <v>0.282668</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.231818</v>
+                  <v>0.233059</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229352</v>
+                  <v>0.231579</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.227891</v>
+                  <v>0.231913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.22831</v>
+                  <v>0.326305</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.321523</v>
+                  <v>0.320686</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315351</v>
+                  <v>0.315677</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309742</v>
+                  <v>0.310855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304011</v>
+                  <v>0.306001</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.29869</v>
+                  <v>0.30133</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29374</v>
+                  <v>0.297474</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.134178</v>
+                  <v>0.344005</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.131948</v>
+                  <v>0.340023</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.136503</v>
+                  <v>0.339171</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.127659</v>
+                  <v>0.337006</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.126491</v>
+                  <v>0.334346</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.127377</v>
+                  <v>0.44346</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.120481</v>
+                  <v>0.42934</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.189804</v>
+                  <v>0.422947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.193076</v>
+                  <v>0.414834</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.185771</v>
+                  <v>0.412844</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.175595</v>
+                  <v>0.410981</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.170808</v>
+                  <v>0.402817</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.163676</v>
+                  <v>0.395902</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.15658</v>
+                  <v>0.389522</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.15111</v>
+                  <v>0.38781</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.147927</v>
+                  <v>0.384793</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.144277</v>
+                  <v>0.379955</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.141029</v>
+                  <v>0.378853</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.138444</v>
+                  <v>0.373582</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.136899</v>
+                  <v>0.476217</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138731</v>
+                  <v>0.46546</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.22524</v>
+                  <v>0.464787</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.217581</v>
+                  <v>0.45141</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.205227</v>
+                  <v>0.445799</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.196362</v>
+                  <v>0.434497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.189144</v>
+                  <v>0.427631</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.18136</v>
+                  <v>0.419558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175284</v>
+                  <v>0.411806</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170321</v>
+                  <v>0.406268</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.162701</v>
+                  <v>0.401866</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.159519</v>
+                  <v>0.397333</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153345</v>
+                  <v>0.393844</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.150314</v>
+                  <v>0.389286</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.149603</v>
+                  <v>0.493518</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.148604</v>
+                  <v>0.484731</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230138</v>
+                  <v>0.475688</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.221941</v>
+                  <v>0.463878</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212902</v>
+                  <v>0.455129</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.202745</v>
+                  <v>0.446551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.197872</v>
+                  <v>0.438381</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.189578</v>
+                  <v>0.43272</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.181192</v>
+                  <v>0.425374</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178348</v>
+                  <v>0.420618</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.172191</v>
+                  <v>0.41841</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.16614</v>
+                  <v>0.414417</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.161458</v>
+                  <v>0.412106</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.158505</v>
+                  <v>0.406774</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.156259</v>
+                  <v>0.402662</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155863</v>
+                  <v>0.505211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.240125</v>
+                  <v>0.498063</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.228307</v>
+                  <v>0.485203</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222098</v>
+                  <v>0.477573</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.213257</v>
+                  <v>0.46772</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.204699</v>
+                  <v>0.463373</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.197271</v>
+                  <v>0.4539</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.189954</v>
+                  <v>0.446932</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.182964</v>
+                  <v>0.440617</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.176915</v>
+                  <v>0.437856</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172102</v>
+                  <v>0.432426</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167281</v>
+                  <v>0.428781</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.161153</v>
+                  <v>0.423174</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.158454</v>
+                  <v>0.422691</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.157323</v>
+                  <v>0.5450739999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.158629</v>
+                  <v>0.540152</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.235154</v>
+                  <v>0.524844</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.225864</v>
+                  <v>0.515304</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.218407</v>
+                  <v>0.507802</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.209007</v>
+                  <v>0.498374</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.201152</v>
+                  <v>0.494679</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.19372</v>
+                  <v>0.495527</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.186741</v>
+                  <v>0.483948</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.180491</v>
+                  <v>0.481365</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174783</v>
+                  <v>0.496964</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.169469</v>
+                  <v>0.492901</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165683</v>
+                  <v>0.489043</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.162247</v>
+                  <v>0.486233</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.160468</v>
+                  <v>0.664263</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.161441</v>
+                  <v>0.653161</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238856</v>
+                  <v>0.643571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.22991</v>
+                  <v>0.63595</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.220936</v>
+                  <v>0.629796</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.213054</v>
+                  <v>0.622012</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.205347</v>
+                  <v>0.619332</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.198292</v>
+                  <v>0.615398</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.191445</v>
+                  <v>0.615523</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.184661</v>
+                  <v>0.615955</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.179135</v>
+                  <v>0.622347</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.17408</v>
+                  <v>0.631071</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16936</v>
+                  <v>0.635074</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166191</v>
+                  <v>0.639845</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.164353</v>
+                  <v>0.852201</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.164271</v>
+                  <v>0.847971</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254673</v>
+                  <v>0.845392</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247489</v>
+                  <v>0.8368139999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.238121</v>
+                  <v>0.834033</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230923</v>
+                  <v>0.841704</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.223773</v>
+                  <v>0.83904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.215514</v>
+                  <v>0.838568</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.211001</v>
+                  <v>0.839709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20299</v>
+                  <v>0.842832</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.197244</v>
+                  <v>0.8481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.191961</v>
+                  <v>0.858892</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.18761</v>
+                  <v>0.865506</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.184086</v>
+                  <v>0.870801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180878</v>
+                  <v>0.883047</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.180431</v>
+                  <v>1.1251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.27151</v>
+                  <v>1.11268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265086</v>
+                  <v>1.10474</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.257155</v>
+                  <v>1.09904</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.249492</v>
+                  <v>1.09986</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241637</v>
+                  <v>1.09551</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233598</v>
+                  <v>1.09076</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.228107</v>
+                  <v>1.09524</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221879</v>
+                  <v>1.09316</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.218226</v>
+                  <v>1.09388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213206</v>
+                  <v>1.0979</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207735</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.203661</v>
+                  <v>1.11072</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.200217</v>
+                  <v>1.11523</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199303</v>
+                  <v>1.38026</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.199921</v>
+                  <v>1.36735</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.28659</v>
+                  <v>1.35413</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.280042</v>
+                  <v>1.34011</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.274273</v>
+                  <v>1.33068</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.264434</v>
+                  <v>1.32008</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.258887</v>
+                  <v>1.3181</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253968</v>
+                  <v>1.31133</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.248195</v>
+                  <v>1.2952</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.244422</v>
+                  <v>1.30043</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.240173</v>
+                  <v>1.45637</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.236482</v>
+                  <v>1.43621</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.23349</v>
+                  <v>1.30867</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.230364</v>
+                  <v>1.30653</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229418</v>
+                  <v>1.581</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.229508</v>
+                  <v>1.56049</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.325813</v>
+                  <v>1.53923</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320407</v>
+                  <v>1.52452</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.314921</v>
+                  <v>1.50727</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309403</v>
+                  <v>1.4928</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304799</v>
+                  <v>1.4814</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300275</v>
+                  <v>1.46927</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29509</v>
+                  <v>1.46123</v>
                 </pt>
               </numCache>
             </numRef>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244757</v>
+        <v>0.249659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214719</v>
+        <v>0.215344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21541</v>
+        <v>0.251052</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238703</v>
+        <v>0.24304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.209594</v>
+        <v>0.210114</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210014</v>
+        <v>0.244077</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232745</v>
+        <v>0.237159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.20499</v>
+        <v>0.205647</v>
       </c>
       <c r="D4" t="n">
-        <v>0.205866</v>
+        <v>0.237361</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227276</v>
+        <v>0.231045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200216</v>
+        <v>0.201648</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201139</v>
+        <v>0.231537</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222866</v>
+        <v>0.226778</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197105</v>
+        <v>0.197674</v>
       </c>
       <c r="D6" t="n">
-        <v>0.197317</v>
+        <v>0.226963</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219377</v>
+        <v>0.223125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195164</v>
+        <v>0.196296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.195632</v>
+        <v>0.222999</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216551</v>
+        <v>0.220418</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196683</v>
+        <v>0.197348</v>
       </c>
       <c r="D8" t="n">
-        <v>0.196683</v>
+        <v>0.223233</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21653</v>
+        <v>0.22027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.284846</v>
+        <v>0.285803</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287701</v>
+        <v>0.340785</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.305931</v>
+        <v>0.308706</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275843</v>
+        <v>0.276688</v>
       </c>
       <c r="D10" t="n">
-        <v>0.278057</v>
+        <v>0.328871</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.295781</v>
+        <v>0.299009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.265836</v>
+        <v>0.266091</v>
       </c>
       <c r="D11" t="n">
-        <v>0.269379</v>
+        <v>0.317395</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286736</v>
+        <v>0.289551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256553</v>
+        <v>0.257615</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260752</v>
+        <v>0.30655</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277909</v>
+        <v>0.280777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.249542</v>
+        <v>0.250268</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252663</v>
+        <v>0.296601</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269803</v>
+        <v>0.272452</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242108</v>
+        <v>0.244218</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245372</v>
+        <v>0.286774</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26192</v>
+        <v>0.264422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236523</v>
+        <v>0.236726</v>
       </c>
       <c r="D15" t="n">
-        <v>0.238362</v>
+        <v>0.278155</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.254731</v>
+        <v>0.257143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229634</v>
+        <v>0.230596</v>
       </c>
       <c r="D16" t="n">
-        <v>0.232044</v>
+        <v>0.269372</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247986</v>
+        <v>0.250488</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224595</v>
+        <v>0.224456</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226331</v>
+        <v>0.261242</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.241814</v>
+        <v>0.24384</v>
       </c>
       <c r="C18" t="n">
-        <v>0.219347</v>
+        <v>0.21881</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220797</v>
+        <v>0.254466</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236003</v>
+        <v>0.238176</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214234</v>
+        <v>0.216033</v>
       </c>
       <c r="D19" t="n">
-        <v>0.216412</v>
+        <v>0.2485</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23112</v>
+        <v>0.233128</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211514</v>
+        <v>0.212291</v>
       </c>
       <c r="D20" t="n">
-        <v>0.212769</v>
+        <v>0.243615</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227188</v>
+        <v>0.229258</v>
       </c>
       <c r="C21" t="n">
-        <v>0.209415</v>
+        <v>0.21176</v>
       </c>
       <c r="D21" t="n">
-        <v>0.210593</v>
+        <v>0.240373</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224191</v>
+        <v>0.226047</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210833</v>
+        <v>0.211402</v>
       </c>
       <c r="D22" t="n">
-        <v>0.211092</v>
+        <v>0.239446</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.222962</v>
+        <v>0.224864</v>
       </c>
       <c r="C23" t="n">
-        <v>0.300367</v>
+        <v>0.301184</v>
       </c>
       <c r="D23" t="n">
-        <v>0.301203</v>
+        <v>0.354158</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310381</v>
+        <v>0.312282</v>
       </c>
       <c r="C24" t="n">
-        <v>0.289438</v>
+        <v>0.289071</v>
       </c>
       <c r="D24" t="n">
-        <v>0.291851</v>
+        <v>0.341677</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.300917</v>
+        <v>0.302634</v>
       </c>
       <c r="C25" t="n">
-        <v>0.281912</v>
+        <v>0.283081</v>
       </c>
       <c r="D25" t="n">
-        <v>0.282794</v>
+        <v>0.328829</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.291975</v>
+        <v>0.293093</v>
       </c>
       <c r="C26" t="n">
-        <v>0.27242</v>
+        <v>0.271393</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273832</v>
+        <v>0.317741</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.283298</v>
+        <v>0.284329</v>
       </c>
       <c r="C27" t="n">
-        <v>0.263653</v>
+        <v>0.263129</v>
       </c>
       <c r="D27" t="n">
-        <v>0.265346</v>
+        <v>0.307406</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.27496</v>
+        <v>0.275973</v>
       </c>
       <c r="C28" t="n">
-        <v>0.257594</v>
+        <v>0.255262</v>
       </c>
       <c r="D28" t="n">
-        <v>0.257877</v>
+        <v>0.297544</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.266991</v>
+        <v>0.268015</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248641</v>
+        <v>0.248126</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250446</v>
+        <v>0.288103</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.25976</v>
+        <v>0.260546</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242052</v>
+        <v>0.241354</v>
       </c>
       <c r="D30" t="n">
-        <v>0.243512</v>
+        <v>0.279189</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.252777</v>
+        <v>0.253546</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235699</v>
+        <v>0.235259</v>
       </c>
       <c r="D31" t="n">
-        <v>0.237067</v>
+        <v>0.271084</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.246437</v>
+        <v>0.247045</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231016</v>
+        <v>0.229702</v>
       </c>
       <c r="D32" t="n">
-        <v>0.231565</v>
+        <v>0.263773</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.240637</v>
+        <v>0.241334</v>
       </c>
       <c r="C33" t="n">
-        <v>0.225995</v>
+        <v>0.224865</v>
       </c>
       <c r="D33" t="n">
-        <v>0.226724</v>
+        <v>0.257217</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.23575</v>
+        <v>0.236114</v>
       </c>
       <c r="C34" t="n">
-        <v>0.222638</v>
+        <v>0.221073</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223001</v>
+        <v>0.252033</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.231236</v>
+        <v>0.231764</v>
       </c>
       <c r="C35" t="n">
-        <v>0.218981</v>
+        <v>0.218454</v>
       </c>
       <c r="D35" t="n">
-        <v>0.220459</v>
+        <v>0.247627</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228343</v>
+        <v>0.228554</v>
       </c>
       <c r="C36" t="n">
-        <v>0.218593</v>
+        <v>0.217745</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219908</v>
+        <v>0.245683</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.226889</v>
+        <v>0.227327</v>
       </c>
       <c r="C37" t="n">
-        <v>0.312256</v>
+        <v>0.313877</v>
       </c>
       <c r="D37" t="n">
-        <v>0.312317</v>
+        <v>0.364359</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.314986</v>
+        <v>0.315843</v>
       </c>
       <c r="C38" t="n">
-        <v>0.301223</v>
+        <v>0.302511</v>
       </c>
       <c r="D38" t="n">
-        <v>0.302677</v>
+        <v>0.351971</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305514</v>
+        <v>0.306018</v>
       </c>
       <c r="C39" t="n">
-        <v>0.291978</v>
+        <v>0.29059</v>
       </c>
       <c r="D39" t="n">
-        <v>0.293298</v>
+        <v>0.339039</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296684</v>
+        <v>0.296913</v>
       </c>
       <c r="C40" t="n">
-        <v>0.28381</v>
+        <v>0.28176</v>
       </c>
       <c r="D40" t="n">
-        <v>0.28422</v>
+        <v>0.327697</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.287949</v>
+        <v>0.288272</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275809</v>
+        <v>0.273554</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275817</v>
+        <v>0.317229</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.27991</v>
+        <v>0.280164</v>
       </c>
       <c r="C42" t="n">
-        <v>0.268441</v>
+        <v>0.265781</v>
       </c>
       <c r="D42" t="n">
-        <v>0.267725</v>
+        <v>0.30703</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272516</v>
+        <v>0.273406</v>
       </c>
       <c r="C43" t="n">
-        <v>0.259757</v>
+        <v>0.258923</v>
       </c>
       <c r="D43" t="n">
-        <v>0.260169</v>
+        <v>0.297713</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264616</v>
+        <v>0.264978</v>
       </c>
       <c r="C44" t="n">
-        <v>0.254344</v>
+        <v>0.25165</v>
       </c>
       <c r="D44" t="n">
-        <v>0.253041</v>
+        <v>0.288344</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258327</v>
+        <v>0.258939</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246475</v>
+        <v>0.248023</v>
       </c>
       <c r="D45" t="n">
-        <v>0.246624</v>
+        <v>0.280492</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25152</v>
+        <v>0.252883</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240814</v>
+        <v>0.240483</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240837</v>
+        <v>0.272807</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.245948</v>
+        <v>0.246114</v>
       </c>
       <c r="C47" t="n">
-        <v>0.235454</v>
+        <v>0.23434</v>
       </c>
       <c r="D47" t="n">
-        <v>0.235566</v>
+        <v>0.265742</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.24108</v>
+        <v>0.240761</v>
       </c>
       <c r="C48" t="n">
-        <v>0.231433</v>
+        <v>0.230086</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231135</v>
+        <v>0.259837</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236419</v>
+        <v>0.236413</v>
       </c>
       <c r="C49" t="n">
-        <v>0.228893</v>
+        <v>0.226885</v>
       </c>
       <c r="D49" t="n">
-        <v>0.227864</v>
+        <v>0.255318</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23327</v>
+        <v>0.233123</v>
       </c>
       <c r="C50" t="n">
-        <v>0.227837</v>
+        <v>0.225104</v>
       </c>
       <c r="D50" t="n">
-        <v>0.226353</v>
+        <v>0.2521</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231108</v>
+        <v>0.231132</v>
       </c>
       <c r="C51" t="n">
-        <v>0.320817</v>
+        <v>0.32578</v>
       </c>
       <c r="D51" t="n">
-        <v>0.320506</v>
+        <v>0.374759</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.231216</v>
+        <v>0.233083</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311564</v>
+        <v>0.316258</v>
       </c>
       <c r="D52" t="n">
-        <v>0.31088</v>
+        <v>0.36239</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.318159</v>
+        <v>0.318685</v>
       </c>
       <c r="C53" t="n">
-        <v>0.302799</v>
+        <v>0.307052</v>
       </c>
       <c r="D53" t="n">
-        <v>0.301538</v>
+        <v>0.350479</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308884</v>
+        <v>0.309796</v>
       </c>
       <c r="C54" t="n">
-        <v>0.294709</v>
+        <v>0.298143</v>
       </c>
       <c r="D54" t="n">
-        <v>0.292606</v>
+        <v>0.339371</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300193</v>
+        <v>0.301389</v>
       </c>
       <c r="C55" t="n">
-        <v>0.287661</v>
+        <v>0.289902</v>
       </c>
       <c r="D55" t="n">
-        <v>0.28398</v>
+        <v>0.328613</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292071</v>
+        <v>0.293182</v>
       </c>
       <c r="C56" t="n">
-        <v>0.28005</v>
+        <v>0.282184</v>
       </c>
       <c r="D56" t="n">
-        <v>0.276229</v>
+        <v>0.318721</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284191</v>
+        <v>0.285463</v>
       </c>
       <c r="C57" t="n">
-        <v>0.272974</v>
+        <v>0.274631</v>
       </c>
       <c r="D57" t="n">
-        <v>0.268378</v>
+        <v>0.309076</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.276865</v>
+        <v>0.278516</v>
       </c>
       <c r="C58" t="n">
-        <v>0.26643</v>
+        <v>0.267905</v>
       </c>
       <c r="D58" t="n">
-        <v>0.261642</v>
+        <v>0.299987</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.270047</v>
+        <v>0.271691</v>
       </c>
       <c r="C59" t="n">
-        <v>0.260044</v>
+        <v>0.261347</v>
       </c>
       <c r="D59" t="n">
-        <v>0.254863</v>
+        <v>0.291934</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.263753</v>
+        <v>0.26552</v>
       </c>
       <c r="C60" t="n">
-        <v>0.254327</v>
+        <v>0.255941</v>
       </c>
       <c r="D60" t="n">
-        <v>0.249308</v>
+        <v>0.284202</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257867</v>
+        <v>0.259749</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249264</v>
+        <v>0.250717</v>
       </c>
       <c r="D61" t="n">
-        <v>0.244021</v>
+        <v>0.277254</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.252668</v>
+        <v>0.254607</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244889</v>
+        <v>0.246727</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239499</v>
+        <v>0.271664</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.248164</v>
+        <v>0.249625</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241751</v>
+        <v>0.243601</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236183</v>
+        <v>0.267262</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244433</v>
+        <v>0.246361</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239842</v>
+        <v>0.241846</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2342</v>
+        <v>0.264115</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242353</v>
+        <v>0.243936</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239931</v>
+        <v>0.241748</v>
       </c>
       <c r="D65" t="n">
-        <v>0.234859</v>
+        <v>0.263284</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.241908</v>
+        <v>0.243706</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343887</v>
+        <v>0.344451</v>
       </c>
       <c r="D66" t="n">
-        <v>0.350057</v>
+        <v>0.40112</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.377376</v>
+        <v>0.382376</v>
       </c>
       <c r="C67" t="n">
-        <v>0.335323</v>
+        <v>0.334721</v>
       </c>
       <c r="D67" t="n">
-        <v>0.339909</v>
+        <v>0.388444</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.369795</v>
+        <v>0.374795</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326716</v>
+        <v>0.326433</v>
       </c>
       <c r="D68" t="n">
-        <v>0.330586</v>
+        <v>0.376186</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.362452</v>
+        <v>0.367585</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318719</v>
+        <v>0.318431</v>
       </c>
       <c r="D69" t="n">
-        <v>0.321522</v>
+        <v>0.365508</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.355597</v>
+        <v>0.360822</v>
       </c>
       <c r="C70" t="n">
-        <v>0.310993</v>
+        <v>0.311046</v>
       </c>
       <c r="D70" t="n">
-        <v>0.312727</v>
+        <v>0.354786</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349082</v>
+        <v>0.353984</v>
       </c>
       <c r="C71" t="n">
-        <v>0.303445</v>
+        <v>0.303503</v>
       </c>
       <c r="D71" t="n">
-        <v>0.304378</v>
+        <v>0.344553</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.342428</v>
+        <v>0.347749</v>
       </c>
       <c r="C72" t="n">
-        <v>0.296602</v>
+        <v>0.29658</v>
       </c>
       <c r="D72" t="n">
-        <v>0.296824</v>
+        <v>0.335028</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.335872</v>
+        <v>0.340852</v>
       </c>
       <c r="C73" t="n">
-        <v>0.289796</v>
+        <v>0.289593</v>
       </c>
       <c r="D73" t="n">
-        <v>0.290156</v>
+        <v>0.326096</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.329025</v>
+        <v>0.334374</v>
       </c>
       <c r="C74" t="n">
-        <v>0.283816</v>
+        <v>0.283641</v>
       </c>
       <c r="D74" t="n">
-        <v>0.283296</v>
+        <v>0.317678</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.32293</v>
+        <v>0.328081</v>
       </c>
       <c r="C75" t="n">
-        <v>0.27839</v>
+        <v>0.278052</v>
       </c>
       <c r="D75" t="n">
-        <v>0.277387</v>
+        <v>0.310176</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.316812</v>
+        <v>0.32166</v>
       </c>
       <c r="C76" t="n">
-        <v>0.273222</v>
+        <v>0.273057</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272221</v>
+        <v>0.303331</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.311373</v>
+        <v>0.315821</v>
       </c>
       <c r="C77" t="n">
-        <v>0.269223</v>
+        <v>0.269121</v>
       </c>
       <c r="D77" t="n">
-        <v>0.26807</v>
+        <v>0.29782</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.306537</v>
+        <v>0.310476</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266738</v>
+        <v>0.266455</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265305</v>
+        <v>0.293494</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.302642</v>
+        <v>0.306544</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265907</v>
+        <v>0.265625</v>
       </c>
       <c r="D79" t="n">
-        <v>0.26453</v>
+        <v>0.291305</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.300716</v>
+        <v>0.304065</v>
       </c>
       <c r="C80" t="n">
-        <v>0.530215</v>
+        <v>0.531174</v>
       </c>
       <c r="D80" t="n">
-        <v>0.434453</v>
+        <v>0.472758</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.533067</v>
+        <v>0.534266</v>
       </c>
       <c r="C81" t="n">
-        <v>0.388146</v>
+        <v>0.386872</v>
       </c>
       <c r="D81" t="n">
-        <v>0.424084</v>
+        <v>0.462219</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.526124</v>
+        <v>0.526596</v>
       </c>
       <c r="C82" t="n">
-        <v>0.38176</v>
+        <v>0.379096</v>
       </c>
       <c r="D82" t="n">
-        <v>0.413392</v>
+        <v>0.448711</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.515876</v>
+        <v>0.516825</v>
       </c>
       <c r="C83" t="n">
-        <v>0.373216</v>
+        <v>0.37205</v>
       </c>
       <c r="D83" t="n">
-        <v>0.403654</v>
+        <v>0.436348</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.506332</v>
+        <v>0.506885</v>
       </c>
       <c r="C84" t="n">
-        <v>0.364688</v>
+        <v>0.365699</v>
       </c>
       <c r="D84" t="n">
-        <v>0.393565</v>
+        <v>0.426845</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.495484</v>
+        <v>0.496678</v>
       </c>
       <c r="C85" t="n">
-        <v>0.35826</v>
+        <v>0.355761</v>
       </c>
       <c r="D85" t="n">
-        <v>0.383592</v>
+        <v>0.411976</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.48496</v>
+        <v>0.486133</v>
       </c>
       <c r="C86" t="n">
-        <v>0.350327</v>
+        <v>0.352008</v>
       </c>
       <c r="D86" t="n">
-        <v>0.373774</v>
+        <v>0.405419</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.475823</v>
+        <v>0.475781</v>
       </c>
       <c r="C87" t="n">
-        <v>0.343747</v>
+        <v>0.345305</v>
       </c>
       <c r="D87" t="n">
-        <v>0.367385</v>
+        <v>0.394316</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.465973</v>
+        <v>0.465951</v>
       </c>
       <c r="C88" t="n">
-        <v>0.338392</v>
+        <v>0.33751</v>
       </c>
       <c r="D88" t="n">
-        <v>0.359392</v>
+        <v>0.384688</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.456428</v>
+        <v>0.455732</v>
       </c>
       <c r="C89" t="n">
-        <v>0.331531</v>
+        <v>0.3294</v>
       </c>
       <c r="D89" t="n">
-        <v>0.351159</v>
+        <v>0.375455</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.446588</v>
+        <v>0.446646</v>
       </c>
       <c r="C90" t="n">
-        <v>0.324241</v>
+        <v>0.319375</v>
       </c>
       <c r="D90" t="n">
-        <v>0.343749</v>
+        <v>0.361845</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.437754</v>
+        <v>0.437105</v>
       </c>
       <c r="C91" t="n">
-        <v>0.319696</v>
+        <v>0.31825</v>
       </c>
       <c r="D91" t="n">
-        <v>0.337303</v>
+        <v>0.3593</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.429809</v>
+        <v>0.430476</v>
       </c>
       <c r="C92" t="n">
-        <v>0.314637</v>
+        <v>0.316138</v>
       </c>
       <c r="D92" t="n">
-        <v>0.332528</v>
+        <v>0.354761</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.423496</v>
+        <v>0.423231</v>
       </c>
       <c r="C93" t="n">
-        <v>0.314398</v>
+        <v>0.315262</v>
       </c>
       <c r="D93" t="n">
-        <v>0.328717</v>
+        <v>0.350861</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.417423</v>
+        <v>0.418307</v>
       </c>
       <c r="C94" t="n">
-        <v>0.504258</v>
+        <v>0.505013</v>
       </c>
       <c r="D94" t="n">
-        <v>0.580004</v>
+        <v>0.628215</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.558832</v>
+        <v>0.559845</v>
       </c>
       <c r="C95" t="n">
-        <v>0.500212</v>
+        <v>0.498976</v>
       </c>
       <c r="D95" t="n">
-        <v>0.578199</v>
+        <v>0.607052</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.554321</v>
+        <v>0.554763</v>
       </c>
       <c r="C96" t="n">
-        <v>0.489273</v>
+        <v>0.489464</v>
       </c>
       <c r="D96" t="n">
-        <v>0.563196</v>
+        <v>0.586999</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.543353</v>
+        <v>0.546759</v>
       </c>
       <c r="C97" t="n">
-        <v>0.478622</v>
+        <v>0.478993</v>
       </c>
       <c r="D97" t="n">
-        <v>0.545932</v>
+        <v>0.5708220000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.533797</v>
+        <v>0.535346</v>
       </c>
       <c r="C98" t="n">
-        <v>0.467328</v>
+        <v>0.467908</v>
       </c>
       <c r="D98" t="n">
-        <v>0.525027</v>
+        <v>0.553823</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.524597</v>
+        <v>0.525417</v>
       </c>
       <c r="C99" t="n">
-        <v>0.45775</v>
+        <v>0.458138</v>
       </c>
       <c r="D99" t="n">
-        <v>0.510615</v>
+        <v>0.538077</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.515933</v>
+        <v>0.5171790000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.446456</v>
+        <v>0.449091</v>
       </c>
       <c r="D100" t="n">
-        <v>0.508273</v>
+        <v>0.534009</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.507074</v>
+        <v>0.507436</v>
       </c>
       <c r="C101" t="n">
-        <v>0.437517</v>
+        <v>0.438289</v>
       </c>
       <c r="D101" t="n">
-        <v>0.495237</v>
+        <v>0.517933</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.499183</v>
+        <v>0.5003919999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.429772</v>
+        <v>0.428607</v>
       </c>
       <c r="D102" t="n">
-        <v>0.481784</v>
+        <v>0.507334</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.490912</v>
+        <v>0.49185</v>
       </c>
       <c r="C103" t="n">
-        <v>0.422747</v>
+        <v>0.42213</v>
       </c>
       <c r="D103" t="n">
-        <v>0.470075</v>
+        <v>0.493142</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483532</v>
+        <v>0.485237</v>
       </c>
       <c r="C104" t="n">
-        <v>0.41492</v>
+        <v>0.414584</v>
       </c>
       <c r="D104" t="n">
-        <v>0.461051</v>
+        <v>0.485338</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.476917</v>
+        <v>0.478054</v>
       </c>
       <c r="C105" t="n">
-        <v>0.40895</v>
+        <v>0.409125</v>
       </c>
       <c r="D105" t="n">
-        <v>0.441918</v>
+        <v>0.474424</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.47186</v>
+        <v>0.472135</v>
       </c>
       <c r="C106" t="n">
-        <v>0.404772</v>
+        <v>0.402693</v>
       </c>
       <c r="D106" t="n">
-        <v>0.444681</v>
+        <v>0.46656</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.466269</v>
+        <v>0.466797</v>
       </c>
       <c r="C107" t="n">
-        <v>0.399519</v>
+        <v>0.398208</v>
       </c>
       <c r="D107" t="n">
-        <v>0.440221</v>
+        <v>0.445954</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.462681</v>
+        <v>0.463023</v>
       </c>
       <c r="C108" t="n">
-        <v>0.591947</v>
+        <v>0.593409</v>
       </c>
       <c r="D108" t="n">
-        <v>0.633431</v>
+        <v>0.681429</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.461796</v>
+        <v>0.462089</v>
       </c>
       <c r="C109" t="n">
-        <v>0.585121</v>
+        <v>0.585196</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623274</v>
+        <v>0.674139</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.655343</v>
+        <v>0.657758</v>
       </c>
       <c r="C110" t="n">
-        <v>0.573664</v>
+        <v>0.574985</v>
       </c>
       <c r="D110" t="n">
-        <v>0.612692</v>
+        <v>0.648636</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.643285</v>
+        <v>0.646502</v>
       </c>
       <c r="C111" t="n">
-        <v>0.562371</v>
+        <v>0.563953</v>
       </c>
       <c r="D111" t="n">
-        <v>0.597033</v>
+        <v>0.632565</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.63254</v>
+        <v>0.632727</v>
       </c>
       <c r="C112" t="n">
-        <v>0.551892</v>
+        <v>0.553789</v>
       </c>
       <c r="D112" t="n">
-        <v>0.574257</v>
+        <v>0.622588</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.620421</v>
+        <v>0.622945</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5402</v>
+        <v>0.541351</v>
       </c>
       <c r="D113" t="n">
-        <v>0.568309</v>
+        <v>0.606326</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608853</v>
+        <v>0.611343</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5299700000000001</v>
+        <v>0.533257</v>
       </c>
       <c r="D114" t="n">
-        <v>0.560747</v>
+        <v>0.5938639999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.598522</v>
+        <v>0.602346</v>
       </c>
       <c r="C115" t="n">
-        <v>0.520691</v>
+        <v>0.524682</v>
       </c>
       <c r="D115" t="n">
-        <v>0.543172</v>
+        <v>0.5820340000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.590927</v>
+        <v>0.592453</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5112989999999999</v>
+        <v>0.513897</v>
       </c>
       <c r="D116" t="n">
-        <v>0.534511</v>
+        <v>0.568148</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.581067</v>
+        <v>0.582843</v>
       </c>
       <c r="C117" t="n">
-        <v>0.504109</v>
+        <v>0.503783</v>
       </c>
       <c r="D117" t="n">
-        <v>0.526388</v>
+        <v>0.559492</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5703819999999999</v>
+        <v>0.572277</v>
       </c>
       <c r="C118" t="n">
-        <v>0.498316</v>
+        <v>0.496369</v>
       </c>
       <c r="D118" t="n">
-        <v>0.516308</v>
+        <v>0.545404</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.561022</v>
+        <v>0.563148</v>
       </c>
       <c r="C119" t="n">
-        <v>0.491255</v>
+        <v>0.490799</v>
       </c>
       <c r="D119" t="n">
-        <v>0.507643</v>
+        <v>0.538118</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5539770000000001</v>
+        <v>0.558039</v>
       </c>
       <c r="C120" t="n">
-        <v>0.482135</v>
+        <v>0.483012</v>
       </c>
       <c r="D120" t="n">
-        <v>0.501332</v>
+        <v>0.529222</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.549306</v>
+        <v>0.552113</v>
       </c>
       <c r="C121" t="n">
-        <v>0.475395</v>
+        <v>0.477808</v>
       </c>
       <c r="D121" t="n">
-        <v>0.493376</v>
+        <v>0.517485</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.545817</v>
+        <v>0.546584</v>
       </c>
       <c r="C122" t="n">
-        <v>0.47571</v>
+        <v>0.470883</v>
       </c>
       <c r="D122" t="n">
-        <v>0.492718</v>
+        <v>0.5161829999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.542605</v>
+        <v>0.542616</v>
       </c>
       <c r="C123" t="n">
-        <v>0.662681</v>
+        <v>0.663913</v>
       </c>
       <c r="D123" t="n">
-        <v>0.688061</v>
+        <v>0.735935</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7335390000000001</v>
+        <v>0.73531</v>
       </c>
       <c r="C124" t="n">
-        <v>0.658779</v>
+        <v>0.656613</v>
       </c>
       <c r="D124" t="n">
-        <v>0.675563</v>
+        <v>0.722728</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.723213</v>
+        <v>0.724805</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6517539999999999</v>
+        <v>0.649196</v>
       </c>
       <c r="D125" t="n">
-        <v>0.668502</v>
+        <v>0.709778</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.715426</v>
+        <v>0.715598</v>
       </c>
       <c r="C126" t="n">
-        <v>0.640641</v>
+        <v>0.643984</v>
       </c>
       <c r="D126" t="n">
-        <v>0.65833</v>
+        <v>0.691941</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7037639999999999</v>
+        <v>0.704005</v>
       </c>
       <c r="C127" t="n">
-        <v>0.636862</v>
+        <v>0.634831</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6509160000000001</v>
+        <v>0.6822780000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.697736</v>
+        <v>0.698414</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6286350000000001</v>
+        <v>0.626116</v>
       </c>
       <c r="D128" t="n">
-        <v>0.639303</v>
+        <v>0.671129</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.688743</v>
+        <v>0.688623</v>
       </c>
       <c r="C129" t="n">
-        <v>0.623537</v>
+        <v>0.620895</v>
       </c>
       <c r="D129" t="n">
-        <v>0.632374</v>
+        <v>0.666426</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.68005</v>
+        <v>0.681196</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6165389999999999</v>
+        <v>0.617213</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6215580000000001</v>
+        <v>0.655897</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6727880000000001</v>
+        <v>0.676229</v>
       </c>
       <c r="C131" t="n">
-        <v>0.612366</v>
+        <v>0.612962</v>
       </c>
       <c r="D131" t="n">
-        <v>0.619696</v>
+        <v>0.645003</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.666632</v>
+        <v>0.668803</v>
       </c>
       <c r="C132" t="n">
-        <v>0.607952</v>
+        <v>0.603902</v>
       </c>
       <c r="D132" t="n">
-        <v>0.607644</v>
+        <v>0.6399860000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.660351</v>
+        <v>0.660834</v>
       </c>
       <c r="C133" t="n">
-        <v>0.60361</v>
+        <v>0.601326</v>
       </c>
       <c r="D133" t="n">
-        <v>0.605673</v>
+        <v>0.633736</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.655598</v>
+        <v>0.655285</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595371</v>
+        <v>0.599463</v>
       </c>
       <c r="D134" t="n">
-        <v>0.601905</v>
+        <v>0.622514</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.651709</v>
+        <v>0.649222</v>
       </c>
       <c r="C135" t="n">
-        <v>0.59251</v>
+        <v>0.591385</v>
       </c>
       <c r="D135" t="n">
-        <v>0.595428</v>
+        <v>0.62039</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.647106</v>
+        <v>0.645688</v>
       </c>
       <c r="C136" t="n">
-        <v>0.584844</v>
+        <v>0.5875</v>
       </c>
       <c r="D136" t="n">
-        <v>0.590347</v>
+        <v>0.614347</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.643079</v>
+        <v>0.640703</v>
       </c>
       <c r="C137" t="n">
-        <v>0.778749</v>
+        <v>0.780295</v>
       </c>
       <c r="D137" t="n">
-        <v>0.789331</v>
+        <v>0.8362540000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.830624</v>
+        <v>0.833602</v>
       </c>
       <c r="C138" t="n">
-        <v>0.773221</v>
+        <v>0.765571</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7795299999999999</v>
+        <v>0.823857</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.823346</v>
+        <v>0.82308</v>
       </c>
       <c r="C139" t="n">
-        <v>0.769142</v>
+        <v>0.766402</v>
       </c>
       <c r="D139" t="n">
-        <v>0.770335</v>
+        <v>0.808603</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.814507</v>
+        <v>0.813253</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7580710000000001</v>
+        <v>0.760417</v>
       </c>
       <c r="D140" t="n">
-        <v>0.763926</v>
+        <v>0.79943</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.803438</v>
+        <v>0.8094170000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.752992</v>
+        <v>0.750001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.752862</v>
+        <v>0.788749</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.799553</v>
+        <v>0.798494</v>
       </c>
       <c r="C142" t="n">
-        <v>0.750456</v>
+        <v>0.745515</v>
       </c>
       <c r="D142" t="n">
-        <v>0.743449</v>
+        <v>0.778508</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.793077</v>
+        <v>0.793346</v>
       </c>
       <c r="C143" t="n">
-        <v>0.746201</v>
+        <v>0.742972</v>
       </c>
       <c r="D143" t="n">
-        <v>0.73753</v>
+        <v>0.768436</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249659</v>
+        <v>0.248184</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215344</v>
+        <v>0.215711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251052</v>
+        <v>0.250194</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24304</v>
+        <v>0.242293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.210114</v>
+        <v>0.20989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244077</v>
+        <v>0.242939</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.237159</v>
+        <v>0.236171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205647</v>
+        <v>0.205154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237361</v>
+        <v>0.236347</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231045</v>
+        <v>0.230964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201648</v>
+        <v>0.200891</v>
       </c>
       <c r="D5" t="n">
-        <v>0.231537</v>
+        <v>0.230631</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.226778</v>
+        <v>0.225671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197674</v>
+        <v>0.197827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.226963</v>
+        <v>0.226611</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223125</v>
+        <v>0.221982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196296</v>
+        <v>0.196294</v>
       </c>
       <c r="D7" t="n">
-        <v>0.222999</v>
+        <v>0.223165</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220418</v>
+        <v>0.219209</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197348</v>
+        <v>0.19648</v>
       </c>
       <c r="D8" t="n">
-        <v>0.223233</v>
+        <v>0.223281</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22027</v>
+        <v>0.219602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.285803</v>
+        <v>0.284797</v>
       </c>
       <c r="D9" t="n">
-        <v>0.340785</v>
+        <v>0.339728</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308706</v>
+        <v>0.308739</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276688</v>
+        <v>0.275117</v>
       </c>
       <c r="D10" t="n">
-        <v>0.328871</v>
+        <v>0.327609</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.299009</v>
+        <v>0.298956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.266091</v>
+        <v>0.26738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317395</v>
+        <v>0.316345</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.289551</v>
+        <v>0.289163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.257615</v>
+        <v>0.258942</v>
       </c>
       <c r="D12" t="n">
-        <v>0.30655</v>
+        <v>0.305824</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280777</v>
+        <v>0.280335</v>
       </c>
       <c r="C13" t="n">
-        <v>0.250268</v>
+        <v>0.25084</v>
       </c>
       <c r="D13" t="n">
-        <v>0.296601</v>
+        <v>0.295366</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272452</v>
+        <v>0.272414</v>
       </c>
       <c r="C14" t="n">
-        <v>0.244218</v>
+        <v>0.242656</v>
       </c>
       <c r="D14" t="n">
-        <v>0.286774</v>
+        <v>0.285517</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264422</v>
+        <v>0.264399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236726</v>
+        <v>0.235227</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278155</v>
+        <v>0.276387</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257143</v>
+        <v>0.256832</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230596</v>
+        <v>0.230764</v>
       </c>
       <c r="D16" t="n">
-        <v>0.269372</v>
+        <v>0.268487</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250488</v>
+        <v>0.250225</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224456</v>
+        <v>0.223807</v>
       </c>
       <c r="D17" t="n">
-        <v>0.261242</v>
+        <v>0.260762</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.24384</v>
+        <v>0.243502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21881</v>
+        <v>0.218749</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254466</v>
+        <v>0.25403</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238176</v>
+        <v>0.237932</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216033</v>
+        <v>0.214518</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2485</v>
+        <v>0.247827</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233128</v>
+        <v>0.232802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212291</v>
+        <v>0.211972</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243615</v>
+        <v>0.243079</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229258</v>
+        <v>0.22884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21176</v>
+        <v>0.209905</v>
       </c>
       <c r="D21" t="n">
-        <v>0.240373</v>
+        <v>0.239984</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226047</v>
+        <v>0.225824</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211402</v>
+        <v>0.211004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239446</v>
+        <v>0.239016</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224864</v>
+        <v>0.22466</v>
       </c>
       <c r="C23" t="n">
-        <v>0.301184</v>
+        <v>0.305052</v>
       </c>
       <c r="D23" t="n">
-        <v>0.354158</v>
+        <v>0.353635</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.312282</v>
+        <v>0.312384</v>
       </c>
       <c r="C24" t="n">
-        <v>0.289071</v>
+        <v>0.295124</v>
       </c>
       <c r="D24" t="n">
-        <v>0.341677</v>
+        <v>0.341652</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302634</v>
+        <v>0.302927</v>
       </c>
       <c r="C25" t="n">
-        <v>0.283081</v>
+        <v>0.284181</v>
       </c>
       <c r="D25" t="n">
-        <v>0.328829</v>
+        <v>0.330165</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293093</v>
+        <v>0.29348</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271393</v>
+        <v>0.27555</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317741</v>
+        <v>0.319038</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284329</v>
+        <v>0.284979</v>
       </c>
       <c r="C27" t="n">
-        <v>0.263129</v>
+        <v>0.267061</v>
       </c>
       <c r="D27" t="n">
-        <v>0.307406</v>
+        <v>0.308494</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.275973</v>
+        <v>0.276456</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255262</v>
+        <v>0.259204</v>
       </c>
       <c r="D28" t="n">
-        <v>0.297544</v>
+        <v>0.298384</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268015</v>
+        <v>0.26839</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248126</v>
+        <v>0.251391</v>
       </c>
       <c r="D29" t="n">
-        <v>0.288103</v>
+        <v>0.289152</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.260546</v>
+        <v>0.261079</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241354</v>
+        <v>0.244889</v>
       </c>
       <c r="D30" t="n">
-        <v>0.279189</v>
+        <v>0.280162</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253546</v>
+        <v>0.253764</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235259</v>
+        <v>0.238637</v>
       </c>
       <c r="D31" t="n">
-        <v>0.271084</v>
+        <v>0.272096</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247045</v>
+        <v>0.247433</v>
       </c>
       <c r="C32" t="n">
-        <v>0.229702</v>
+        <v>0.232215</v>
       </c>
       <c r="D32" t="n">
-        <v>0.263773</v>
+        <v>0.264624</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.241334</v>
+        <v>0.24179</v>
       </c>
       <c r="C33" t="n">
-        <v>0.224865</v>
+        <v>0.228012</v>
       </c>
       <c r="D33" t="n">
-        <v>0.257217</v>
+        <v>0.258103</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236114</v>
+        <v>0.2363</v>
       </c>
       <c r="C34" t="n">
-        <v>0.221073</v>
+        <v>0.223537</v>
       </c>
       <c r="D34" t="n">
-        <v>0.252033</v>
+        <v>0.252767</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.231764</v>
+        <v>0.231982</v>
       </c>
       <c r="C35" t="n">
-        <v>0.218454</v>
+        <v>0.221305</v>
       </c>
       <c r="D35" t="n">
-        <v>0.247627</v>
+        <v>0.248564</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228554</v>
+        <v>0.228728</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217745</v>
+        <v>0.220319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245683</v>
+        <v>0.246772</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227327</v>
+        <v>0.227489</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313877</v>
+        <v>0.312373</v>
       </c>
       <c r="D37" t="n">
-        <v>0.364359</v>
+        <v>0.364631</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315843</v>
+        <v>0.315289</v>
       </c>
       <c r="C38" t="n">
-        <v>0.302511</v>
+        <v>0.302431</v>
       </c>
       <c r="D38" t="n">
-        <v>0.351971</v>
+        <v>0.352413</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306018</v>
+        <v>0.306469</v>
       </c>
       <c r="C39" t="n">
-        <v>0.29059</v>
+        <v>0.294891</v>
       </c>
       <c r="D39" t="n">
-        <v>0.339039</v>
+        <v>0.340646</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296913</v>
+        <v>0.297187</v>
       </c>
       <c r="C40" t="n">
-        <v>0.28176</v>
+        <v>0.284346</v>
       </c>
       <c r="D40" t="n">
-        <v>0.327697</v>
+        <v>0.329655</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288272</v>
+        <v>0.288444</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273554</v>
+        <v>0.27758</v>
       </c>
       <c r="D41" t="n">
-        <v>0.317229</v>
+        <v>0.319137</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280164</v>
+        <v>0.280698</v>
       </c>
       <c r="C42" t="n">
-        <v>0.265781</v>
+        <v>0.268749</v>
       </c>
       <c r="D42" t="n">
-        <v>0.30703</v>
+        <v>0.308858</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273406</v>
+        <v>0.272825</v>
       </c>
       <c r="C43" t="n">
-        <v>0.258923</v>
+        <v>0.261515</v>
       </c>
       <c r="D43" t="n">
-        <v>0.297713</v>
+        <v>0.299542</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264978</v>
+        <v>0.265202</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25165</v>
+        <v>0.25379</v>
       </c>
       <c r="D44" t="n">
-        <v>0.288344</v>
+        <v>0.290501</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258939</v>
+        <v>0.258434</v>
       </c>
       <c r="C45" t="n">
-        <v>0.248023</v>
+        <v>0.248837</v>
       </c>
       <c r="D45" t="n">
-        <v>0.280492</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.252883</v>
+        <v>0.2524</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240483</v>
+        <v>0.241815</v>
       </c>
       <c r="D46" t="n">
-        <v>0.272807</v>
+        <v>0.274646</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246114</v>
+        <v>0.246178</v>
       </c>
       <c r="C47" t="n">
-        <v>0.23434</v>
+        <v>0.23755</v>
       </c>
       <c r="D47" t="n">
-        <v>0.265742</v>
+        <v>0.267718</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240761</v>
+        <v>0.241514</v>
       </c>
       <c r="C48" t="n">
-        <v>0.230086</v>
+        <v>0.2321</v>
       </c>
       <c r="D48" t="n">
-        <v>0.259837</v>
+        <v>0.262041</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236413</v>
+        <v>0.237082</v>
       </c>
       <c r="C49" t="n">
-        <v>0.226885</v>
+        <v>0.228575</v>
       </c>
       <c r="D49" t="n">
-        <v>0.255318</v>
+        <v>0.257463</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233123</v>
+        <v>0.2332</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225104</v>
+        <v>0.22729</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2521</v>
+        <v>0.254222</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231132</v>
+        <v>0.231265</v>
       </c>
       <c r="C51" t="n">
-        <v>0.32578</v>
+        <v>0.321084</v>
       </c>
       <c r="D51" t="n">
-        <v>0.374759</v>
+        <v>0.375908</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.233083</v>
+        <v>0.232097</v>
       </c>
       <c r="C52" t="n">
-        <v>0.316258</v>
+        <v>0.312169</v>
       </c>
       <c r="D52" t="n">
-        <v>0.36239</v>
+        <v>0.363575</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.318685</v>
+        <v>0.31742</v>
       </c>
       <c r="C53" t="n">
-        <v>0.307052</v>
+        <v>0.303309</v>
       </c>
       <c r="D53" t="n">
-        <v>0.350479</v>
+        <v>0.352017</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309796</v>
+        <v>0.308384</v>
       </c>
       <c r="C54" t="n">
-        <v>0.298143</v>
+        <v>0.294724</v>
       </c>
       <c r="D54" t="n">
-        <v>0.339371</v>
+        <v>0.340609</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.301389</v>
+        <v>0.300059</v>
       </c>
       <c r="C55" t="n">
-        <v>0.289902</v>
+        <v>0.286588</v>
       </c>
       <c r="D55" t="n">
-        <v>0.328613</v>
+        <v>0.3302</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.293182</v>
+        <v>0.292008</v>
       </c>
       <c r="C56" t="n">
-        <v>0.282184</v>
+        <v>0.278855</v>
       </c>
       <c r="D56" t="n">
-        <v>0.318721</v>
+        <v>0.320163</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285463</v>
+        <v>0.284222</v>
       </c>
       <c r="C57" t="n">
-        <v>0.274631</v>
+        <v>0.271707</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309076</v>
+        <v>0.310571</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.278516</v>
+        <v>0.277241</v>
       </c>
       <c r="C58" t="n">
-        <v>0.267905</v>
+        <v>0.264735</v>
       </c>
       <c r="D58" t="n">
-        <v>0.299987</v>
+        <v>0.301517</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271691</v>
+        <v>0.270542</v>
       </c>
       <c r="C59" t="n">
-        <v>0.261347</v>
+        <v>0.258756</v>
       </c>
       <c r="D59" t="n">
-        <v>0.291934</v>
+        <v>0.293468</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26552</v>
+        <v>0.26462</v>
       </c>
       <c r="C60" t="n">
-        <v>0.255941</v>
+        <v>0.253022</v>
       </c>
       <c r="D60" t="n">
-        <v>0.284202</v>
+        <v>0.285641</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259749</v>
+        <v>0.258864</v>
       </c>
       <c r="C61" t="n">
-        <v>0.250717</v>
+        <v>0.247689</v>
       </c>
       <c r="D61" t="n">
-        <v>0.277254</v>
+        <v>0.278683</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.254607</v>
+        <v>0.253619</v>
       </c>
       <c r="C62" t="n">
-        <v>0.246727</v>
+        <v>0.243498</v>
       </c>
       <c r="D62" t="n">
-        <v>0.271664</v>
+        <v>0.272888</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249625</v>
+        <v>0.24909</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243601</v>
+        <v>0.240229</v>
       </c>
       <c r="D63" t="n">
-        <v>0.267262</v>
+        <v>0.268017</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246361</v>
+        <v>0.245715</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241846</v>
+        <v>0.238453</v>
       </c>
       <c r="D64" t="n">
-        <v>0.264115</v>
+        <v>0.264528</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.243936</v>
+        <v>0.243455</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241748</v>
+        <v>0.238683</v>
       </c>
       <c r="D65" t="n">
-        <v>0.263284</v>
+        <v>0.263932</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.243706</v>
+        <v>0.243091</v>
       </c>
       <c r="C66" t="n">
-        <v>0.344451</v>
+        <v>0.345796</v>
       </c>
       <c r="D66" t="n">
-        <v>0.40112</v>
+        <v>0.402077</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.382376</v>
+        <v>0.379711</v>
       </c>
       <c r="C67" t="n">
-        <v>0.334721</v>
+        <v>0.336867</v>
       </c>
       <c r="D67" t="n">
-        <v>0.388444</v>
+        <v>0.389676</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.374795</v>
+        <v>0.372258</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326433</v>
+        <v>0.328275</v>
       </c>
       <c r="D68" t="n">
-        <v>0.376186</v>
+        <v>0.377708</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.367585</v>
+        <v>0.364564</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318431</v>
+        <v>0.319754</v>
       </c>
       <c r="D69" t="n">
-        <v>0.365508</v>
+        <v>0.366202</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.360822</v>
+        <v>0.35791</v>
       </c>
       <c r="C70" t="n">
-        <v>0.311046</v>
+        <v>0.312208</v>
       </c>
       <c r="D70" t="n">
-        <v>0.354786</v>
+        <v>0.355149</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.353984</v>
+        <v>0.351488</v>
       </c>
       <c r="C71" t="n">
-        <v>0.303503</v>
+        <v>0.30477</v>
       </c>
       <c r="D71" t="n">
-        <v>0.344553</v>
+        <v>0.34521</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.347749</v>
+        <v>0.344944</v>
       </c>
       <c r="C72" t="n">
-        <v>0.29658</v>
+        <v>0.297693</v>
       </c>
       <c r="D72" t="n">
-        <v>0.335028</v>
+        <v>0.335345</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.340852</v>
+        <v>0.338644</v>
       </c>
       <c r="C73" t="n">
-        <v>0.289593</v>
+        <v>0.291005</v>
       </c>
       <c r="D73" t="n">
-        <v>0.326096</v>
+        <v>0.326305</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.334374</v>
+        <v>0.332136</v>
       </c>
       <c r="C74" t="n">
-        <v>0.283641</v>
+        <v>0.284756</v>
       </c>
       <c r="D74" t="n">
-        <v>0.317678</v>
+        <v>0.317882</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.328081</v>
+        <v>0.32568</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278052</v>
+        <v>0.279188</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310176</v>
+        <v>0.310213</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.32166</v>
+        <v>0.319518</v>
       </c>
       <c r="C76" t="n">
-        <v>0.273057</v>
+        <v>0.274116</v>
       </c>
       <c r="D76" t="n">
-        <v>0.303331</v>
+        <v>0.303136</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.315821</v>
+        <v>0.313931</v>
       </c>
       <c r="C77" t="n">
-        <v>0.269121</v>
+        <v>0.270188</v>
       </c>
       <c r="D77" t="n">
-        <v>0.29782</v>
+        <v>0.297469</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.310476</v>
+        <v>0.308809</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266455</v>
+        <v>0.267458</v>
       </c>
       <c r="D78" t="n">
-        <v>0.293494</v>
+        <v>0.29335</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.306544</v>
+        <v>0.304859</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265625</v>
+        <v>0.266635</v>
       </c>
       <c r="D79" t="n">
-        <v>0.291305</v>
+        <v>0.290976</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.304065</v>
+        <v>0.302975</v>
       </c>
       <c r="C80" t="n">
-        <v>0.531174</v>
+        <v>0.532325</v>
       </c>
       <c r="D80" t="n">
-        <v>0.472758</v>
+        <v>0.474653</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.534266</v>
+        <v>0.535865</v>
       </c>
       <c r="C81" t="n">
-        <v>0.386872</v>
+        <v>0.386105</v>
       </c>
       <c r="D81" t="n">
-        <v>0.462219</v>
+        <v>0.461409</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.526596</v>
+        <v>0.52786</v>
       </c>
       <c r="C82" t="n">
-        <v>0.379096</v>
+        <v>0.379971</v>
       </c>
       <c r="D82" t="n">
-        <v>0.448711</v>
+        <v>0.448709</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.516825</v>
+        <v>0.518585</v>
       </c>
       <c r="C83" t="n">
-        <v>0.37205</v>
+        <v>0.371702</v>
       </c>
       <c r="D83" t="n">
-        <v>0.436348</v>
+        <v>0.436979</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.506885</v>
+        <v>0.508202</v>
       </c>
       <c r="C84" t="n">
-        <v>0.365699</v>
+        <v>0.364955</v>
       </c>
       <c r="D84" t="n">
-        <v>0.426845</v>
+        <v>0.428024</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.496678</v>
+        <v>0.497745</v>
       </c>
       <c r="C85" t="n">
-        <v>0.355761</v>
+        <v>0.358442</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411976</v>
+        <v>0.416213</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.486133</v>
+        <v>0.487655</v>
       </c>
       <c r="C86" t="n">
-        <v>0.352008</v>
+        <v>0.350164</v>
       </c>
       <c r="D86" t="n">
-        <v>0.405419</v>
+        <v>0.405539</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.475781</v>
+        <v>0.477644</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345305</v>
+        <v>0.343704</v>
       </c>
       <c r="D87" t="n">
-        <v>0.394316</v>
+        <v>0.395938</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.465951</v>
+        <v>0.467466</v>
       </c>
       <c r="C88" t="n">
-        <v>0.33751</v>
+        <v>0.33747</v>
       </c>
       <c r="D88" t="n">
-        <v>0.384688</v>
+        <v>0.385419</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.455732</v>
+        <v>0.457977</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3294</v>
+        <v>0.330983</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375455</v>
+        <v>0.376432</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.446646</v>
+        <v>0.448377</v>
       </c>
       <c r="C90" t="n">
-        <v>0.319375</v>
+        <v>0.32586</v>
       </c>
       <c r="D90" t="n">
-        <v>0.361845</v>
+        <v>0.368032</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.437105</v>
+        <v>0.440107</v>
       </c>
       <c r="C91" t="n">
-        <v>0.31825</v>
+        <v>0.314729</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3593</v>
+        <v>0.354106</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.430476</v>
+        <v>0.432323</v>
       </c>
       <c r="C92" t="n">
-        <v>0.316138</v>
+        <v>0.316091</v>
       </c>
       <c r="D92" t="n">
-        <v>0.354761</v>
+        <v>0.355325</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.423231</v>
+        <v>0.425384</v>
       </c>
       <c r="C93" t="n">
-        <v>0.315262</v>
+        <v>0.314237</v>
       </c>
       <c r="D93" t="n">
-        <v>0.350861</v>
+        <v>0.350575</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.418307</v>
+        <v>0.419236</v>
       </c>
       <c r="C94" t="n">
-        <v>0.505013</v>
+        <v>0.506034</v>
       </c>
       <c r="D94" t="n">
-        <v>0.628215</v>
+        <v>0.626368</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.559845</v>
+        <v>0.558795</v>
       </c>
       <c r="C95" t="n">
-        <v>0.498976</v>
+        <v>0.500037</v>
       </c>
       <c r="D95" t="n">
-        <v>0.607052</v>
+        <v>0.615436</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.554763</v>
+        <v>0.554998</v>
       </c>
       <c r="C96" t="n">
-        <v>0.489464</v>
+        <v>0.489066</v>
       </c>
       <c r="D96" t="n">
-        <v>0.586999</v>
+        <v>0.599302</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.546759</v>
+        <v>0.546363</v>
       </c>
       <c r="C97" t="n">
-        <v>0.478993</v>
+        <v>0.479598</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5708220000000001</v>
+        <v>0.583413</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.535346</v>
+        <v>0.536327</v>
       </c>
       <c r="C98" t="n">
-        <v>0.467908</v>
+        <v>0.466736</v>
       </c>
       <c r="D98" t="n">
-        <v>0.553823</v>
+        <v>0.566808</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.525417</v>
+        <v>0.526581</v>
       </c>
       <c r="C99" t="n">
-        <v>0.458138</v>
+        <v>0.457517</v>
       </c>
       <c r="D99" t="n">
-        <v>0.538077</v>
+        <v>0.550978</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5171790000000001</v>
+        <v>0.517348</v>
       </c>
       <c r="C100" t="n">
-        <v>0.449091</v>
+        <v>0.448997</v>
       </c>
       <c r="D100" t="n">
-        <v>0.534009</v>
+        <v>0.535205</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.507436</v>
+        <v>0.508643</v>
       </c>
       <c r="C101" t="n">
-        <v>0.438289</v>
+        <v>0.438254</v>
       </c>
       <c r="D101" t="n">
-        <v>0.517933</v>
+        <v>0.522021</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5003919999999999</v>
+        <v>0.500579</v>
       </c>
       <c r="C102" t="n">
-        <v>0.428607</v>
+        <v>0.43035</v>
       </c>
       <c r="D102" t="n">
-        <v>0.507334</v>
+        <v>0.509844</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.49185</v>
+        <v>0.49273</v>
       </c>
       <c r="C103" t="n">
-        <v>0.42213</v>
+        <v>0.423195</v>
       </c>
       <c r="D103" t="n">
-        <v>0.493142</v>
+        <v>0.496711</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.485237</v>
+        <v>0.485504</v>
       </c>
       <c r="C104" t="n">
-        <v>0.414584</v>
+        <v>0.416166</v>
       </c>
       <c r="D104" t="n">
-        <v>0.485338</v>
+        <v>0.485801</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.478054</v>
+        <v>0.478483</v>
       </c>
       <c r="C105" t="n">
-        <v>0.409125</v>
+        <v>0.406664</v>
       </c>
       <c r="D105" t="n">
-        <v>0.474424</v>
+        <v>0.463251</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.472135</v>
+        <v>0.472557</v>
       </c>
       <c r="C106" t="n">
-        <v>0.402693</v>
+        <v>0.404495</v>
       </c>
       <c r="D106" t="n">
-        <v>0.46656</v>
+        <v>0.465387</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.466797</v>
+        <v>0.466527</v>
       </c>
       <c r="C107" t="n">
-        <v>0.398208</v>
+        <v>0.400222</v>
       </c>
       <c r="D107" t="n">
-        <v>0.445954</v>
+        <v>0.44695</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.463023</v>
+        <v>0.463295</v>
       </c>
       <c r="C108" t="n">
-        <v>0.593409</v>
+        <v>0.595338</v>
       </c>
       <c r="D108" t="n">
-        <v>0.681429</v>
+        <v>0.682661</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.462089</v>
+        <v>0.461207</v>
       </c>
       <c r="C109" t="n">
-        <v>0.585196</v>
+        <v>0.589881</v>
       </c>
       <c r="D109" t="n">
-        <v>0.674139</v>
+        <v>0.663515</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.657758</v>
+        <v>0.658659</v>
       </c>
       <c r="C110" t="n">
-        <v>0.574985</v>
+        <v>0.576697</v>
       </c>
       <c r="D110" t="n">
-        <v>0.648636</v>
+        <v>0.6579700000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.646502</v>
+        <v>0.647338</v>
       </c>
       <c r="C111" t="n">
-        <v>0.563953</v>
+        <v>0.5650770000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.632565</v>
+        <v>0.640759</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.632727</v>
+        <v>0.634914</v>
       </c>
       <c r="C112" t="n">
-        <v>0.553789</v>
+        <v>0.5528690000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.622588</v>
+        <v>0.626468</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.622945</v>
+        <v>0.623509</v>
       </c>
       <c r="C113" t="n">
-        <v>0.541351</v>
+        <v>0.542527</v>
       </c>
       <c r="D113" t="n">
-        <v>0.606326</v>
+        <v>0.610899</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.611343</v>
+        <v>0.612596</v>
       </c>
       <c r="C114" t="n">
-        <v>0.533257</v>
+        <v>0.531552</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5938639999999999</v>
+        <v>0.58749</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.602346</v>
+        <v>0.6018520000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.524682</v>
+        <v>0.522134</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5820340000000001</v>
+        <v>0.573905</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.592453</v>
+        <v>0.592149</v>
       </c>
       <c r="C116" t="n">
-        <v>0.513897</v>
+        <v>0.513481</v>
       </c>
       <c r="D116" t="n">
-        <v>0.568148</v>
+        <v>0.565671</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.582843</v>
+        <v>0.582176</v>
       </c>
       <c r="C117" t="n">
-        <v>0.503783</v>
+        <v>0.5049979999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.559492</v>
+        <v>0.558213</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.572277</v>
+        <v>0.574322</v>
       </c>
       <c r="C118" t="n">
-        <v>0.496369</v>
+        <v>0.49522</v>
       </c>
       <c r="D118" t="n">
-        <v>0.545404</v>
+        <v>0.540671</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.563148</v>
+        <v>0.56635</v>
       </c>
       <c r="C119" t="n">
-        <v>0.490799</v>
+        <v>0.488746</v>
       </c>
       <c r="D119" t="n">
-        <v>0.538118</v>
+        <v>0.532996</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.558039</v>
+        <v>0.559049</v>
       </c>
       <c r="C120" t="n">
-        <v>0.483012</v>
+        <v>0.48301</v>
       </c>
       <c r="D120" t="n">
-        <v>0.529222</v>
+        <v>0.528379</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.552113</v>
+        <v>0.55181</v>
       </c>
       <c r="C121" t="n">
-        <v>0.477808</v>
+        <v>0.477971</v>
       </c>
       <c r="D121" t="n">
-        <v>0.517485</v>
+        <v>0.5213449999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.546584</v>
+        <v>0.547037</v>
       </c>
       <c r="C122" t="n">
-        <v>0.470883</v>
+        <v>0.473187</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5161829999999999</v>
+        <v>0.515499</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.542616</v>
+        <v>0.542871</v>
       </c>
       <c r="C123" t="n">
-        <v>0.663913</v>
+        <v>0.666185</v>
       </c>
       <c r="D123" t="n">
-        <v>0.735935</v>
+        <v>0.730874</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.73531</v>
+        <v>0.737275</v>
       </c>
       <c r="C124" t="n">
-        <v>0.656613</v>
+        <v>0.657961</v>
       </c>
       <c r="D124" t="n">
-        <v>0.722728</v>
+        <v>0.720957</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.724805</v>
+        <v>0.726845</v>
       </c>
       <c r="C125" t="n">
-        <v>0.649196</v>
+        <v>0.650136</v>
       </c>
       <c r="D125" t="n">
-        <v>0.709778</v>
+        <v>0.706333</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.715598</v>
+        <v>0.71723</v>
       </c>
       <c r="C126" t="n">
-        <v>0.643984</v>
+        <v>0.640776</v>
       </c>
       <c r="D126" t="n">
-        <v>0.691941</v>
+        <v>0.693098</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.704005</v>
+        <v>0.7086440000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.634831</v>
+        <v>0.637871</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6822780000000001</v>
+        <v>0.681235</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.698414</v>
+        <v>0.695693</v>
       </c>
       <c r="C128" t="n">
-        <v>0.626116</v>
+        <v>0.630455</v>
       </c>
       <c r="D128" t="n">
-        <v>0.671129</v>
+        <v>0.671218</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.688623</v>
+        <v>0.688379</v>
       </c>
       <c r="C129" t="n">
-        <v>0.620895</v>
+        <v>0.621994</v>
       </c>
       <c r="D129" t="n">
-        <v>0.666426</v>
+        <v>0.662931</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.681196</v>
+        <v>0.683565</v>
       </c>
       <c r="C130" t="n">
-        <v>0.617213</v>
+        <v>0.616247</v>
       </c>
       <c r="D130" t="n">
-        <v>0.655897</v>
+        <v>0.653582</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.676229</v>
+        <v>0.6763</v>
       </c>
       <c r="C131" t="n">
-        <v>0.612962</v>
+        <v>0.610639</v>
       </c>
       <c r="D131" t="n">
-        <v>0.645003</v>
+        <v>0.644868</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.668803</v>
+        <v>0.669907</v>
       </c>
       <c r="C132" t="n">
-        <v>0.603902</v>
+        <v>0.605565</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6399860000000001</v>
+        <v>0.640828</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.660834</v>
+        <v>0.6624719999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.601326</v>
+        <v>0.601987</v>
       </c>
       <c r="D133" t="n">
-        <v>0.633736</v>
+        <v>0.629084</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.655285</v>
+        <v>0.6557460000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.599463</v>
+        <v>0.599844</v>
       </c>
       <c r="D134" t="n">
-        <v>0.622514</v>
+        <v>0.62732</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.649222</v>
+        <v>0.653269</v>
       </c>
       <c r="C135" t="n">
-        <v>0.591385</v>
+        <v>0.589316</v>
       </c>
       <c r="D135" t="n">
-        <v>0.62039</v>
+        <v>0.621331</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.645688</v>
+        <v>0.648473</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5875</v>
+        <v>0.589989</v>
       </c>
       <c r="D136" t="n">
-        <v>0.614347</v>
+        <v>0.612183</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.640703</v>
+        <v>0.644408</v>
       </c>
       <c r="C137" t="n">
-        <v>0.780295</v>
+        <v>0.780458</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8362540000000001</v>
+        <v>0.835844</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.833602</v>
+        <v>0.831941</v>
       </c>
       <c r="C138" t="n">
-        <v>0.765571</v>
+        <v>0.776356</v>
       </c>
       <c r="D138" t="n">
-        <v>0.823857</v>
+        <v>0.822675</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.82308</v>
+        <v>0.824873</v>
       </c>
       <c r="C139" t="n">
-        <v>0.766402</v>
+        <v>0.770906</v>
       </c>
       <c r="D139" t="n">
-        <v>0.808603</v>
+        <v>0.813163</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.813253</v>
+        <v>0.814144</v>
       </c>
       <c r="C140" t="n">
-        <v>0.760417</v>
+        <v>0.763415</v>
       </c>
       <c r="D140" t="n">
-        <v>0.79943</v>
+        <v>0.799629</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8094170000000001</v>
+        <v>0.80963</v>
       </c>
       <c r="C141" t="n">
-        <v>0.750001</v>
+        <v>0.754144</v>
       </c>
       <c r="D141" t="n">
-        <v>0.788749</v>
+        <v>0.788369</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.798494</v>
+        <v>0.800834</v>
       </c>
       <c r="C142" t="n">
-        <v>0.745515</v>
+        <v>0.748147</v>
       </c>
       <c r="D142" t="n">
-        <v>0.778508</v>
+        <v>0.7806</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.793346</v>
+        <v>0.790777</v>
       </c>
       <c r="C143" t="n">
-        <v>0.742972</v>
+        <v>0.741652</v>
       </c>
       <c r="D143" t="n">
-        <v>0.768436</v>
+        <v>0.76975</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248184</v>
+        <v>0.245163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215711</v>
+        <v>0.215579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.250194</v>
+        <v>0.249444</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242293</v>
+        <v>0.238524</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20989</v>
+        <v>0.209896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.242939</v>
+        <v>0.242827</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.236171</v>
+        <v>0.232729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205154</v>
+        <v>0.203862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236347</v>
+        <v>0.236662</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230964</v>
+        <v>0.227615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200891</v>
+        <v>0.19973</v>
       </c>
       <c r="D5" t="n">
-        <v>0.230631</v>
+        <v>0.230843</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225671</v>
+        <v>0.223281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197827</v>
+        <v>0.196065</v>
       </c>
       <c r="D6" t="n">
-        <v>0.226611</v>
+        <v>0.226488</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221982</v>
+        <v>0.219469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196294</v>
+        <v>0.194806</v>
       </c>
       <c r="D7" t="n">
-        <v>0.223165</v>
+        <v>0.222676</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.219209</v>
+        <v>0.216744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19648</v>
+        <v>0.195248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.223281</v>
+        <v>0.222745</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219602</v>
+        <v>0.216328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.284797</v>
+        <v>0.285636</v>
       </c>
       <c r="D9" t="n">
-        <v>0.339728</v>
+        <v>0.339012</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308739</v>
+        <v>0.305248</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275117</v>
+        <v>0.274334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.327609</v>
+        <v>0.326442</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298956</v>
+        <v>0.295623</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26738</v>
+        <v>0.265522</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316345</v>
+        <v>0.314906</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.289163</v>
+        <v>0.286292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.258942</v>
+        <v>0.25703</v>
       </c>
       <c r="D12" t="n">
-        <v>0.305824</v>
+        <v>0.304321</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280335</v>
+        <v>0.277485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.25084</v>
+        <v>0.249204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.295366</v>
+        <v>0.2942</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272414</v>
+        <v>0.269368</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242656</v>
+        <v>0.241717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.285517</v>
+        <v>0.284436</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264399</v>
+        <v>0.26159</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235227</v>
+        <v>0.235184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276387</v>
+        <v>0.27549</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256832</v>
+        <v>0.254267</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230764</v>
+        <v>0.229055</v>
       </c>
       <c r="D16" t="n">
-        <v>0.268487</v>
+        <v>0.267231</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250225</v>
+        <v>0.247728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.223807</v>
+        <v>0.223528</v>
       </c>
       <c r="D17" t="n">
-        <v>0.260762</v>
+        <v>0.259906</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.243502</v>
+        <v>0.241109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218749</v>
+        <v>0.218148</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25403</v>
+        <v>0.252719</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.237932</v>
+        <v>0.235558</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214518</v>
+        <v>0.21424</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247827</v>
+        <v>0.246647</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.232802</v>
+        <v>0.2307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211972</v>
+        <v>0.211057</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243079</v>
+        <v>0.24206</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22884</v>
+        <v>0.226902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.209905</v>
+        <v>0.209621</v>
       </c>
       <c r="D21" t="n">
-        <v>0.239984</v>
+        <v>0.238769</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225824</v>
+        <v>0.22388</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211004</v>
+        <v>0.21011</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239016</v>
+        <v>0.237798</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22466</v>
+        <v>0.22283</v>
       </c>
       <c r="C23" t="n">
-        <v>0.305052</v>
+        <v>0.300965</v>
       </c>
       <c r="D23" t="n">
-        <v>0.353635</v>
+        <v>0.353407</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.312384</v>
+        <v>0.310527</v>
       </c>
       <c r="C24" t="n">
-        <v>0.295124</v>
+        <v>0.291452</v>
       </c>
       <c r="D24" t="n">
-        <v>0.341652</v>
+        <v>0.341303</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302927</v>
+        <v>0.300775</v>
       </c>
       <c r="C25" t="n">
-        <v>0.284181</v>
+        <v>0.279662</v>
       </c>
       <c r="D25" t="n">
-        <v>0.330165</v>
+        <v>0.328276</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29348</v>
+        <v>0.291525</v>
       </c>
       <c r="C26" t="n">
-        <v>0.27555</v>
+        <v>0.27105</v>
       </c>
       <c r="D26" t="n">
-        <v>0.319038</v>
+        <v>0.31712</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284979</v>
+        <v>0.282984</v>
       </c>
       <c r="C27" t="n">
-        <v>0.267061</v>
+        <v>0.262829</v>
       </c>
       <c r="D27" t="n">
-        <v>0.308494</v>
+        <v>0.306564</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276456</v>
+        <v>0.274619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.259204</v>
+        <v>0.254996</v>
       </c>
       <c r="D28" t="n">
-        <v>0.298384</v>
+        <v>0.296712</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.26839</v>
+        <v>0.266811</v>
       </c>
       <c r="C29" t="n">
-        <v>0.251391</v>
+        <v>0.247745</v>
       </c>
       <c r="D29" t="n">
-        <v>0.289152</v>
+        <v>0.287386</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261079</v>
+        <v>0.25938</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244889</v>
+        <v>0.241016</v>
       </c>
       <c r="D30" t="n">
-        <v>0.280162</v>
+        <v>0.278786</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253764</v>
+        <v>0.252363</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238637</v>
+        <v>0.234995</v>
       </c>
       <c r="D31" t="n">
-        <v>0.272096</v>
+        <v>0.271002</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247433</v>
+        <v>0.246103</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232215</v>
+        <v>0.229284</v>
       </c>
       <c r="D32" t="n">
-        <v>0.264624</v>
+        <v>0.263528</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.24179</v>
+        <v>0.240269</v>
       </c>
       <c r="C33" t="n">
-        <v>0.228012</v>
+        <v>0.224447</v>
       </c>
       <c r="D33" t="n">
-        <v>0.258103</v>
+        <v>0.25701</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2363</v>
+        <v>0.23523</v>
       </c>
       <c r="C34" t="n">
-        <v>0.223537</v>
+        <v>0.220574</v>
       </c>
       <c r="D34" t="n">
-        <v>0.252767</v>
+        <v>0.251744</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.231982</v>
+        <v>0.230923</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221305</v>
+        <v>0.217832</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248564</v>
+        <v>0.247721</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228728</v>
+        <v>0.227785</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220319</v>
+        <v>0.217347</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246772</v>
+        <v>0.245698</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227489</v>
+        <v>0.226597</v>
       </c>
       <c r="C37" t="n">
-        <v>0.312373</v>
+        <v>0.311176</v>
       </c>
       <c r="D37" t="n">
-        <v>0.364631</v>
+        <v>0.365644</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315289</v>
+        <v>0.315651</v>
       </c>
       <c r="C38" t="n">
-        <v>0.302431</v>
+        <v>0.301807</v>
       </c>
       <c r="D38" t="n">
-        <v>0.352413</v>
+        <v>0.352604</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306469</v>
+        <v>0.306091</v>
       </c>
       <c r="C39" t="n">
-        <v>0.294891</v>
+        <v>0.290121</v>
       </c>
       <c r="D39" t="n">
-        <v>0.340646</v>
+        <v>0.339322</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297187</v>
+        <v>0.296328</v>
       </c>
       <c r="C40" t="n">
-        <v>0.284346</v>
+        <v>0.281389</v>
       </c>
       <c r="D40" t="n">
-        <v>0.329655</v>
+        <v>0.328328</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288444</v>
+        <v>0.287616</v>
       </c>
       <c r="C41" t="n">
-        <v>0.27758</v>
+        <v>0.273238</v>
       </c>
       <c r="D41" t="n">
-        <v>0.319137</v>
+        <v>0.317862</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280698</v>
+        <v>0.27952</v>
       </c>
       <c r="C42" t="n">
-        <v>0.268749</v>
+        <v>0.26548</v>
       </c>
       <c r="D42" t="n">
-        <v>0.308858</v>
+        <v>0.307803</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272825</v>
+        <v>0.271664</v>
       </c>
       <c r="C43" t="n">
-        <v>0.261515</v>
+        <v>0.25829</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299542</v>
+        <v>0.298657</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265202</v>
+        <v>0.264325</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25379</v>
+        <v>0.251478</v>
       </c>
       <c r="D44" t="n">
-        <v>0.290501</v>
+        <v>0.289705</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258434</v>
+        <v>0.257604</v>
       </c>
       <c r="C45" t="n">
-        <v>0.248837</v>
+        <v>0.245058</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28215</v>
+        <v>0.28123</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2524</v>
+        <v>0.251045</v>
       </c>
       <c r="C46" t="n">
-        <v>0.241815</v>
+        <v>0.239281</v>
       </c>
       <c r="D46" t="n">
-        <v>0.274646</v>
+        <v>0.273743</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246178</v>
+        <v>0.245325</v>
       </c>
       <c r="C47" t="n">
-        <v>0.23755</v>
+        <v>0.234105</v>
       </c>
       <c r="D47" t="n">
-        <v>0.267718</v>
+        <v>0.266729</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241514</v>
+        <v>0.240019</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2321</v>
+        <v>0.229881</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262041</v>
+        <v>0.260718</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237082</v>
+        <v>0.235707</v>
       </c>
       <c r="C49" t="n">
-        <v>0.228575</v>
+        <v>0.226722</v>
       </c>
       <c r="D49" t="n">
-        <v>0.257463</v>
+        <v>0.256078</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2332</v>
+        <v>0.232308</v>
       </c>
       <c r="C50" t="n">
-        <v>0.22729</v>
+        <v>0.22486</v>
       </c>
       <c r="D50" t="n">
-        <v>0.254222</v>
+        <v>0.252828</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231265</v>
+        <v>0.230405</v>
       </c>
       <c r="C51" t="n">
-        <v>0.321084</v>
+        <v>0.322846</v>
       </c>
       <c r="D51" t="n">
-        <v>0.375908</v>
+        <v>0.375263</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.232097</v>
+        <v>0.232382</v>
       </c>
       <c r="C52" t="n">
-        <v>0.312169</v>
+        <v>0.312963</v>
       </c>
       <c r="D52" t="n">
-        <v>0.363575</v>
+        <v>0.362975</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.31742</v>
+        <v>0.314361</v>
       </c>
       <c r="C53" t="n">
-        <v>0.303309</v>
+        <v>0.30454</v>
       </c>
       <c r="D53" t="n">
-        <v>0.352017</v>
+        <v>0.351317</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308384</v>
+        <v>0.305874</v>
       </c>
       <c r="C54" t="n">
-        <v>0.294724</v>
+        <v>0.296823</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340609</v>
+        <v>0.339703</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300059</v>
+        <v>0.297349</v>
       </c>
       <c r="C55" t="n">
-        <v>0.286588</v>
+        <v>0.288583</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3302</v>
+        <v>0.329039</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292008</v>
+        <v>0.289256</v>
       </c>
       <c r="C56" t="n">
-        <v>0.278855</v>
+        <v>0.280733</v>
       </c>
       <c r="D56" t="n">
-        <v>0.320163</v>
+        <v>0.319059</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284222</v>
+        <v>0.281505</v>
       </c>
       <c r="C57" t="n">
-        <v>0.271707</v>
+        <v>0.273315</v>
       </c>
       <c r="D57" t="n">
-        <v>0.310571</v>
+        <v>0.309198</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277241</v>
+        <v>0.274411</v>
       </c>
       <c r="C58" t="n">
-        <v>0.264735</v>
+        <v>0.266454</v>
       </c>
       <c r="D58" t="n">
-        <v>0.301517</v>
+        <v>0.300074</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.270542</v>
+        <v>0.267968</v>
       </c>
       <c r="C59" t="n">
-        <v>0.258756</v>
+        <v>0.260048</v>
       </c>
       <c r="D59" t="n">
-        <v>0.293468</v>
+        <v>0.29173</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26462</v>
+        <v>0.261626</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253022</v>
+        <v>0.254187</v>
       </c>
       <c r="D60" t="n">
-        <v>0.285641</v>
+        <v>0.284048</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258864</v>
+        <v>0.25564</v>
       </c>
       <c r="C61" t="n">
-        <v>0.247689</v>
+        <v>0.249005</v>
       </c>
       <c r="D61" t="n">
-        <v>0.278683</v>
+        <v>0.276929</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253619</v>
+        <v>0.250834</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243498</v>
+        <v>0.24495</v>
       </c>
       <c r="D62" t="n">
-        <v>0.272888</v>
+        <v>0.271045</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.24909</v>
+        <v>0.246289</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240229</v>
+        <v>0.241532</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268017</v>
+        <v>0.266056</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245715</v>
+        <v>0.243469</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238453</v>
+        <v>0.240314</v>
       </c>
       <c r="D64" t="n">
-        <v>0.264528</v>
+        <v>0.262996</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.243455</v>
+        <v>0.241164</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238683</v>
+        <v>0.240615</v>
       </c>
       <c r="D65" t="n">
-        <v>0.263932</v>
+        <v>0.261999</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.243091</v>
+        <v>0.241024</v>
       </c>
       <c r="C66" t="n">
-        <v>0.345796</v>
+        <v>0.346214</v>
       </c>
       <c r="D66" t="n">
-        <v>0.402077</v>
+        <v>0.401013</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.379711</v>
+        <v>0.379168</v>
       </c>
       <c r="C67" t="n">
-        <v>0.336867</v>
+        <v>0.335167</v>
       </c>
       <c r="D67" t="n">
-        <v>0.389676</v>
+        <v>0.388085</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.372258</v>
+        <v>0.371518</v>
       </c>
       <c r="C68" t="n">
-        <v>0.328275</v>
+        <v>0.326236</v>
       </c>
       <c r="D68" t="n">
-        <v>0.377708</v>
+        <v>0.376107</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.364564</v>
+        <v>0.364665</v>
       </c>
       <c r="C69" t="n">
-        <v>0.319754</v>
+        <v>0.318282</v>
       </c>
       <c r="D69" t="n">
-        <v>0.366202</v>
+        <v>0.365099</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.35791</v>
+        <v>0.358042</v>
       </c>
       <c r="C70" t="n">
-        <v>0.312208</v>
+        <v>0.310375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.355149</v>
+        <v>0.354375</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.351488</v>
+        <v>0.35182</v>
       </c>
       <c r="C71" t="n">
-        <v>0.30477</v>
+        <v>0.302954</v>
       </c>
       <c r="D71" t="n">
-        <v>0.34521</v>
+        <v>0.343905</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.344944</v>
+        <v>0.345712</v>
       </c>
       <c r="C72" t="n">
-        <v>0.297693</v>
+        <v>0.295936</v>
       </c>
       <c r="D72" t="n">
-        <v>0.335345</v>
+        <v>0.334177</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.338644</v>
+        <v>0.339401</v>
       </c>
       <c r="C73" t="n">
-        <v>0.291005</v>
+        <v>0.28946</v>
       </c>
       <c r="D73" t="n">
-        <v>0.326305</v>
+        <v>0.325262</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.332136</v>
+        <v>0.333126</v>
       </c>
       <c r="C74" t="n">
-        <v>0.284756</v>
+        <v>0.283464</v>
       </c>
       <c r="D74" t="n">
-        <v>0.317882</v>
+        <v>0.316788</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.32568</v>
+        <v>0.327291</v>
       </c>
       <c r="C75" t="n">
-        <v>0.279188</v>
+        <v>0.27788</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310213</v>
+        <v>0.308835</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.319518</v>
+        <v>0.321139</v>
       </c>
       <c r="C76" t="n">
-        <v>0.274116</v>
+        <v>0.272846</v>
       </c>
       <c r="D76" t="n">
-        <v>0.303136</v>
+        <v>0.301964</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.313931</v>
+        <v>0.315443</v>
       </c>
       <c r="C77" t="n">
-        <v>0.270188</v>
+        <v>0.268869</v>
       </c>
       <c r="D77" t="n">
-        <v>0.297469</v>
+        <v>0.296323</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308809</v>
+        <v>0.310365</v>
       </c>
       <c r="C78" t="n">
-        <v>0.267458</v>
+        <v>0.266202</v>
       </c>
       <c r="D78" t="n">
-        <v>0.29335</v>
+        <v>0.291928</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304859</v>
+        <v>0.306445</v>
       </c>
       <c r="C79" t="n">
-        <v>0.266635</v>
+        <v>0.265584</v>
       </c>
       <c r="D79" t="n">
-        <v>0.290976</v>
+        <v>0.290047</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302975</v>
+        <v>0.304219</v>
       </c>
       <c r="C80" t="n">
-        <v>0.532325</v>
+        <v>0.5250050000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.474653</v>
+        <v>0.469958</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.535865</v>
+        <v>0.532324</v>
       </c>
       <c r="C81" t="n">
-        <v>0.386105</v>
+        <v>0.385087</v>
       </c>
       <c r="D81" t="n">
-        <v>0.461409</v>
+        <v>0.461235</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.52786</v>
+        <v>0.525344</v>
       </c>
       <c r="C82" t="n">
-        <v>0.379971</v>
+        <v>0.37734</v>
       </c>
       <c r="D82" t="n">
-        <v>0.448709</v>
+        <v>0.450076</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.518585</v>
+        <v>0.515576</v>
       </c>
       <c r="C83" t="n">
-        <v>0.371702</v>
+        <v>0.370324</v>
       </c>
       <c r="D83" t="n">
-        <v>0.436979</v>
+        <v>0.436833</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.508202</v>
+        <v>0.505615</v>
       </c>
       <c r="C84" t="n">
-        <v>0.364955</v>
+        <v>0.365161</v>
       </c>
       <c r="D84" t="n">
-        <v>0.428024</v>
+        <v>0.427179</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.497745</v>
+        <v>0.494644</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358442</v>
+        <v>0.357864</v>
       </c>
       <c r="D85" t="n">
-        <v>0.416213</v>
+        <v>0.416171</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.487655</v>
+        <v>0.485371</v>
       </c>
       <c r="C86" t="n">
-        <v>0.350164</v>
+        <v>0.351365</v>
       </c>
       <c r="D86" t="n">
-        <v>0.405539</v>
+        <v>0.405661</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.477644</v>
+        <v>0.474993</v>
       </c>
       <c r="C87" t="n">
-        <v>0.343704</v>
+        <v>0.339719</v>
       </c>
       <c r="D87" t="n">
-        <v>0.395938</v>
+        <v>0.389943</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.467466</v>
+        <v>0.465487</v>
       </c>
       <c r="C88" t="n">
-        <v>0.33747</v>
+        <v>0.336748</v>
       </c>
       <c r="D88" t="n">
-        <v>0.385419</v>
+        <v>0.384672</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.457977</v>
+        <v>0.456324</v>
       </c>
       <c r="C89" t="n">
-        <v>0.330983</v>
+        <v>0.32969</v>
       </c>
       <c r="D89" t="n">
-        <v>0.376432</v>
+        <v>0.376854</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.448377</v>
+        <v>0.446977</v>
       </c>
       <c r="C90" t="n">
-        <v>0.32586</v>
+        <v>0.320641</v>
       </c>
       <c r="D90" t="n">
-        <v>0.368032</v>
+        <v>0.362114</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.440107</v>
+        <v>0.43938</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314729</v>
+        <v>0.320169</v>
       </c>
       <c r="D91" t="n">
-        <v>0.354106</v>
+        <v>0.359893</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.432323</v>
+        <v>0.43155</v>
       </c>
       <c r="C92" t="n">
-        <v>0.316091</v>
+        <v>0.30913</v>
       </c>
       <c r="D92" t="n">
-        <v>0.355325</v>
+        <v>0.34803</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.425384</v>
+        <v>0.424343</v>
       </c>
       <c r="C93" t="n">
-        <v>0.314237</v>
+        <v>0.308049</v>
       </c>
       <c r="D93" t="n">
-        <v>0.350575</v>
+        <v>0.342988</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.419236</v>
+        <v>0.419283</v>
       </c>
       <c r="C94" t="n">
-        <v>0.506034</v>
+        <v>0.506714</v>
       </c>
       <c r="D94" t="n">
-        <v>0.626368</v>
+        <v>0.615296</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.558795</v>
+        <v>0.559395</v>
       </c>
       <c r="C95" t="n">
-        <v>0.500037</v>
+        <v>0.501189</v>
       </c>
       <c r="D95" t="n">
-        <v>0.615436</v>
+        <v>0.613158</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.554998</v>
+        <v>0.554326</v>
       </c>
       <c r="C96" t="n">
-        <v>0.489066</v>
+        <v>0.489348</v>
       </c>
       <c r="D96" t="n">
-        <v>0.599302</v>
+        <v>0.591707</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.546363</v>
+        <v>0.546179</v>
       </c>
       <c r="C97" t="n">
-        <v>0.479598</v>
+        <v>0.478435</v>
       </c>
       <c r="D97" t="n">
-        <v>0.583413</v>
+        <v>0.582083</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.536327</v>
+        <v>0.53618</v>
       </c>
       <c r="C98" t="n">
-        <v>0.466736</v>
+        <v>0.469702</v>
       </c>
       <c r="D98" t="n">
-        <v>0.566808</v>
+        <v>0.559968</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.526581</v>
+        <v>0.5256459999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.457517</v>
+        <v>0.456414</v>
       </c>
       <c r="D99" t="n">
-        <v>0.550978</v>
+        <v>0.550335</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.517348</v>
+        <v>0.5169550000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.448997</v>
+        <v>0.448487</v>
       </c>
       <c r="D100" t="n">
-        <v>0.535205</v>
+        <v>0.533538</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.508643</v>
+        <v>0.507205</v>
       </c>
       <c r="C101" t="n">
-        <v>0.438254</v>
+        <v>0.439543</v>
       </c>
       <c r="D101" t="n">
-        <v>0.522021</v>
+        <v>0.517361</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.500579</v>
+        <v>0.500257</v>
       </c>
       <c r="C102" t="n">
-        <v>0.43035</v>
+        <v>0.431753</v>
       </c>
       <c r="D102" t="n">
-        <v>0.509844</v>
+        <v>0.506871</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.49273</v>
+        <v>0.491958</v>
       </c>
       <c r="C103" t="n">
-        <v>0.423195</v>
+        <v>0.420385</v>
       </c>
       <c r="D103" t="n">
-        <v>0.496711</v>
+        <v>0.496295</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.485504</v>
+        <v>0.485076</v>
       </c>
       <c r="C104" t="n">
-        <v>0.416166</v>
+        <v>0.413326</v>
       </c>
       <c r="D104" t="n">
-        <v>0.485801</v>
+        <v>0.484914</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.478483</v>
+        <v>0.477883</v>
       </c>
       <c r="C105" t="n">
-        <v>0.406664</v>
+        <v>0.407235</v>
       </c>
       <c r="D105" t="n">
-        <v>0.463251</v>
+        <v>0.474839</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.472557</v>
+        <v>0.472047</v>
       </c>
       <c r="C106" t="n">
-        <v>0.404495</v>
+        <v>0.401031</v>
       </c>
       <c r="D106" t="n">
-        <v>0.465387</v>
+        <v>0.452757</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.466527</v>
+        <v>0.467281</v>
       </c>
       <c r="C107" t="n">
-        <v>0.400222</v>
+        <v>0.400956</v>
       </c>
       <c r="D107" t="n">
-        <v>0.44695</v>
+        <v>0.445199</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.463295</v>
+        <v>0.462409</v>
       </c>
       <c r="C108" t="n">
-        <v>0.595338</v>
+        <v>0.591606</v>
       </c>
       <c r="D108" t="n">
-        <v>0.682661</v>
+        <v>0.6846989999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.461207</v>
+        <v>0.461343</v>
       </c>
       <c r="C109" t="n">
-        <v>0.589881</v>
+        <v>0.589584</v>
       </c>
       <c r="D109" t="n">
-        <v>0.663515</v>
+        <v>0.6713249999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.658659</v>
+        <v>0.657982</v>
       </c>
       <c r="C110" t="n">
-        <v>0.576697</v>
+        <v>0.5787910000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6579700000000001</v>
+        <v>0.646154</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.647338</v>
+        <v>0.646752</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5650770000000001</v>
+        <v>0.56558</v>
       </c>
       <c r="D111" t="n">
-        <v>0.640759</v>
+        <v>0.629905</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.634914</v>
+        <v>0.634153</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5528690000000001</v>
+        <v>0.552759</v>
       </c>
       <c r="D112" t="n">
-        <v>0.626468</v>
+        <v>0.6259130000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.623509</v>
+        <v>0.6231409999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.542527</v>
+        <v>0.542123</v>
       </c>
       <c r="D113" t="n">
-        <v>0.610899</v>
+        <v>0.611434</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.612596</v>
+        <v>0.612231</v>
       </c>
       <c r="C114" t="n">
-        <v>0.531552</v>
+        <v>0.532308</v>
       </c>
       <c r="D114" t="n">
-        <v>0.58749</v>
+        <v>0.597046</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6018520000000001</v>
+        <v>0.601859</v>
       </c>
       <c r="C115" t="n">
-        <v>0.522134</v>
+        <v>0.521925</v>
       </c>
       <c r="D115" t="n">
-        <v>0.573905</v>
+        <v>0.581132</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.592149</v>
+        <v>0.591992</v>
       </c>
       <c r="C116" t="n">
-        <v>0.513481</v>
+        <v>0.5139899999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.565671</v>
+        <v>0.5708569999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.582176</v>
+        <v>0.5824319999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5049979999999999</v>
+        <v>0.506355</v>
       </c>
       <c r="D117" t="n">
-        <v>0.558213</v>
+        <v>0.559114</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.574322</v>
+        <v>0.5739919999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.49522</v>
+        <v>0.497887</v>
       </c>
       <c r="D118" t="n">
-        <v>0.540671</v>
+        <v>0.548366</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.56635</v>
+        <v>0.566175</v>
       </c>
       <c r="C119" t="n">
-        <v>0.488746</v>
+        <v>0.490636</v>
       </c>
       <c r="D119" t="n">
-        <v>0.532996</v>
+        <v>0.537859</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.559049</v>
+        <v>0.559652</v>
       </c>
       <c r="C120" t="n">
-        <v>0.48301</v>
+        <v>0.483915</v>
       </c>
       <c r="D120" t="n">
-        <v>0.528379</v>
+        <v>0.52851</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.55181</v>
+        <v>0.550169</v>
       </c>
       <c r="C121" t="n">
-        <v>0.477971</v>
+        <v>0.478388</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5213449999999999</v>
+        <v>0.516607</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.547037</v>
+        <v>0.547193</v>
       </c>
       <c r="C122" t="n">
-        <v>0.473187</v>
+        <v>0.475556</v>
       </c>
       <c r="D122" t="n">
-        <v>0.515499</v>
+        <v>0.515562</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.542871</v>
+        <v>0.543818</v>
       </c>
       <c r="C123" t="n">
-        <v>0.666185</v>
+        <v>0.667347</v>
       </c>
       <c r="D123" t="n">
-        <v>0.730874</v>
+        <v>0.7381490000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.737275</v>
+        <v>0.739093</v>
       </c>
       <c r="C124" t="n">
-        <v>0.657961</v>
+        <v>0.656388</v>
       </c>
       <c r="D124" t="n">
-        <v>0.720957</v>
+        <v>0.724715</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.726845</v>
+        <v>0.7287940000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.650136</v>
+        <v>0.651431</v>
       </c>
       <c r="D125" t="n">
-        <v>0.706333</v>
+        <v>0.707164</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.71723</v>
+        <v>0.7185859999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.640776</v>
+        <v>0.642045</v>
       </c>
       <c r="D126" t="n">
-        <v>0.693098</v>
+        <v>0.693299</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7086440000000001</v>
+        <v>0.709082</v>
       </c>
       <c r="C127" t="n">
-        <v>0.637871</v>
+        <v>0.634501</v>
       </c>
       <c r="D127" t="n">
-        <v>0.681235</v>
+        <v>0.68698</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.695693</v>
+        <v>0.69975</v>
       </c>
       <c r="C128" t="n">
-        <v>0.630455</v>
+        <v>0.628561</v>
       </c>
       <c r="D128" t="n">
-        <v>0.671218</v>
+        <v>0.672534</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.688379</v>
+        <v>0.69247</v>
       </c>
       <c r="C129" t="n">
-        <v>0.621994</v>
+        <v>0.623086</v>
       </c>
       <c r="D129" t="n">
-        <v>0.662931</v>
+        <v>0.662894</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.683565</v>
+        <v>0.684682</v>
       </c>
       <c r="C130" t="n">
-        <v>0.616247</v>
+        <v>0.614812</v>
       </c>
       <c r="D130" t="n">
-        <v>0.653582</v>
+        <v>0.6578619999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6763</v>
+        <v>0.676639</v>
       </c>
       <c r="C131" t="n">
-        <v>0.610639</v>
+        <v>0.613148</v>
       </c>
       <c r="D131" t="n">
-        <v>0.644868</v>
+        <v>0.645325</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.669907</v>
+        <v>0.667651</v>
       </c>
       <c r="C132" t="n">
-        <v>0.605565</v>
+        <v>0.6094619999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.640828</v>
+        <v>0.639077</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6624719999999999</v>
+        <v>0.661645</v>
       </c>
       <c r="C133" t="n">
-        <v>0.601987</v>
+        <v>0.605634</v>
       </c>
       <c r="D133" t="n">
-        <v>0.629084</v>
+        <v>0.629808</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6557460000000001</v>
+        <v>0.659198</v>
       </c>
       <c r="C134" t="n">
-        <v>0.599844</v>
+        <v>0.594624</v>
       </c>
       <c r="D134" t="n">
-        <v>0.62732</v>
+        <v>0.62715</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.653269</v>
+        <v>0.652957</v>
       </c>
       <c r="C135" t="n">
-        <v>0.589316</v>
+        <v>0.59728</v>
       </c>
       <c r="D135" t="n">
-        <v>0.621331</v>
+        <v>0.619861</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.648473</v>
+        <v>0.644964</v>
       </c>
       <c r="C136" t="n">
-        <v>0.589989</v>
+        <v>0.584102</v>
       </c>
       <c r="D136" t="n">
-        <v>0.612183</v>
+        <v>0.613812</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.644408</v>
+        <v>0.644975</v>
       </c>
       <c r="C137" t="n">
-        <v>0.780458</v>
+        <v>0.77877</v>
       </c>
       <c r="D137" t="n">
-        <v>0.835844</v>
+        <v>0.835028</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.831941</v>
+        <v>0.83247</v>
       </c>
       <c r="C138" t="n">
-        <v>0.776356</v>
+        <v>0.777192</v>
       </c>
       <c r="D138" t="n">
-        <v>0.822675</v>
+        <v>0.821238</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.824873</v>
+        <v>0.825947</v>
       </c>
       <c r="C139" t="n">
-        <v>0.770906</v>
+        <v>0.768678</v>
       </c>
       <c r="D139" t="n">
-        <v>0.813163</v>
+        <v>0.812648</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.814144</v>
+        <v>0.813856</v>
       </c>
       <c r="C140" t="n">
-        <v>0.763415</v>
+        <v>0.764987</v>
       </c>
       <c r="D140" t="n">
-        <v>0.799629</v>
+        <v>0.800331</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.80963</v>
+        <v>0.809684</v>
       </c>
       <c r="C141" t="n">
-        <v>0.754144</v>
+        <v>0.75849</v>
       </c>
       <c r="D141" t="n">
-        <v>0.788369</v>
+        <v>0.788142</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.800834</v>
+        <v>0.801566</v>
       </c>
       <c r="C142" t="n">
-        <v>0.748147</v>
+        <v>0.753963</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7806</v>
+        <v>0.778156</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.790777</v>
+        <v>0.795356</v>
       </c>
       <c r="C143" t="n">
-        <v>0.741652</v>
+        <v>0.746517</v>
       </c>
       <c r="D143" t="n">
-        <v>0.76975</v>
+        <v>0.7710360000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.241939</v>
+        <v>0.239999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214442</v>
+        <v>0.216258</v>
       </c>
       <c r="D2" t="n">
-        <v>0.547651</v>
+        <v>0.556905</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.23565</v>
+        <v>0.242536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.210423</v>
+        <v>0.211155</v>
       </c>
       <c r="D3" t="n">
-        <v>0.539135</v>
+        <v>0.549783</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.228863</v>
+        <v>0.228816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205839</v>
+        <v>0.205428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.536907</v>
+        <v>0.543459</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.222512</v>
+        <v>0.219658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201191</v>
+        <v>0.200678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.533845</v>
+        <v>0.53859</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.216083</v>
+        <v>0.217234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197277</v>
+        <v>0.197966</v>
       </c>
       <c r="D6" t="n">
-        <v>0.529917</v>
+        <v>0.535657</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.215584</v>
+        <v>0.213446</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195751</v>
+        <v>0.196031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.680175</v>
+        <v>0.682629</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21493</v>
+        <v>0.216115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196482</v>
+        <v>0.197008</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6658539999999999</v>
+        <v>0.667784</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.212592</v>
+        <v>0.21658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.284549</v>
+        <v>0.287113</v>
       </c>
       <c r="D9" t="n">
-        <v>0.654048</v>
+        <v>0.655641</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.302704</v>
+        <v>0.30538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.274508</v>
+        <v>0.278661</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6413990000000001</v>
+        <v>0.641656</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.293136</v>
+        <v>0.298957</v>
       </c>
       <c r="C11" t="n">
-        <v>0.266669</v>
+        <v>0.267084</v>
       </c>
       <c r="D11" t="n">
-        <v>0.631602</v>
+        <v>0.630356</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.284273</v>
+        <v>0.286209</v>
       </c>
       <c r="C12" t="n">
-        <v>0.257925</v>
+        <v>0.25862</v>
       </c>
       <c r="D12" t="n">
-        <v>0.62117</v>
+        <v>0.620888</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277923</v>
+        <v>0.28672</v>
       </c>
       <c r="C13" t="n">
-        <v>0.250101</v>
+        <v>0.251172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.612894</v>
+        <v>0.6113690000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269702</v>
+        <v>0.267543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24257</v>
+        <v>0.245766</v>
       </c>
       <c r="D14" t="n">
-        <v>0.605588</v>
+        <v>0.604858</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26328</v>
+        <v>0.265191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235647</v>
+        <v>0.236696</v>
       </c>
       <c r="D15" t="n">
-        <v>0.597853</v>
+        <v>0.596688</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.251698</v>
+        <v>0.264026</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229753</v>
+        <v>0.230371</v>
       </c>
       <c r="D16" t="n">
-        <v>0.593576</v>
+        <v>0.590619</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250817</v>
+        <v>0.246163</v>
       </c>
       <c r="C17" t="n">
-        <v>0.223976</v>
+        <v>0.225625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588232</v>
+        <v>0.584758</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.239027</v>
+        <v>0.241608</v>
       </c>
       <c r="C18" t="n">
-        <v>0.219536</v>
+        <v>0.220217</v>
       </c>
       <c r="D18" t="n">
-        <v>0.581414</v>
+        <v>0.5797369999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235209</v>
+        <v>0.232954</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215547</v>
+        <v>0.215441</v>
       </c>
       <c r="D19" t="n">
-        <v>0.576923</v>
+        <v>0.573596</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236687</v>
+        <v>0.235731</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212098</v>
+        <v>0.212934</v>
       </c>
       <c r="D20" t="n">
-        <v>0.571518</v>
+        <v>0.569881</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.225189</v>
+        <v>0.230463</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211347</v>
+        <v>0.210695</v>
       </c>
       <c r="D21" t="n">
-        <v>0.747598</v>
+        <v>0.7459440000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.223978</v>
+        <v>0.221832</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210565</v>
+        <v>0.211321</v>
       </c>
       <c r="D22" t="n">
-        <v>0.734107</v>
+        <v>0.7290759999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227605</v>
+        <v>0.22861</v>
       </c>
       <c r="C23" t="n">
-        <v>0.301783</v>
+        <v>0.303514</v>
       </c>
       <c r="D23" t="n">
-        <v>0.721302</v>
+        <v>0.717263</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.31397</v>
+        <v>0.311608</v>
       </c>
       <c r="C24" t="n">
-        <v>0.292455</v>
+        <v>0.293529</v>
       </c>
       <c r="D24" t="n">
-        <v>0.706992</v>
+        <v>0.7029029999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303627</v>
+        <v>0.306267</v>
       </c>
       <c r="C25" t="n">
-        <v>0.282738</v>
+        <v>0.281683</v>
       </c>
       <c r="D25" t="n">
-        <v>0.696092</v>
+        <v>0.690512</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296264</v>
+        <v>0.29673</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271474</v>
+        <v>0.272994</v>
       </c>
       <c r="D26" t="n">
-        <v>0.680064</v>
+        <v>0.679155</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.286313</v>
+        <v>0.285626</v>
       </c>
       <c r="C27" t="n">
-        <v>0.263445</v>
+        <v>0.267554</v>
       </c>
       <c r="D27" t="n">
-        <v>0.670511</v>
+        <v>0.6707880000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277921</v>
+        <v>0.281206</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255514</v>
+        <v>0.259042</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6626030000000001</v>
+        <v>0.659211</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268222</v>
+        <v>0.280108</v>
       </c>
       <c r="C29" t="n">
-        <v>0.247968</v>
+        <v>0.249162</v>
       </c>
       <c r="D29" t="n">
-        <v>0.655729</v>
+        <v>0.651433</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.26197</v>
+        <v>0.261291</v>
       </c>
       <c r="C30" t="n">
-        <v>0.243949</v>
+        <v>0.242755</v>
       </c>
       <c r="D30" t="n">
-        <v>0.647482</v>
+        <v>0.643875</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26323</v>
+        <v>0.261793</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235601</v>
+        <v>0.237032</v>
       </c>
       <c r="D31" t="n">
-        <v>0.641493</v>
+        <v>0.637926</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250404</v>
+        <v>0.250087</v>
       </c>
       <c r="C32" t="n">
-        <v>0.229798</v>
+        <v>0.233222</v>
       </c>
       <c r="D32" t="n">
-        <v>0.636647</v>
+        <v>0.632356</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.244955</v>
+        <v>0.240899</v>
       </c>
       <c r="C33" t="n">
-        <v>0.225103</v>
+        <v>0.226098</v>
       </c>
       <c r="D33" t="n">
-        <v>0.631269</v>
+        <v>0.627379</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235475</v>
+        <v>0.235917</v>
       </c>
       <c r="C34" t="n">
-        <v>0.225608</v>
+        <v>0.221983</v>
       </c>
       <c r="D34" t="n">
-        <v>0.626685</v>
+        <v>0.623524</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.231426</v>
+        <v>0.237374</v>
       </c>
       <c r="C35" t="n">
-        <v>0.218567</v>
+        <v>0.219252</v>
       </c>
       <c r="D35" t="n">
-        <v>0.809968</v>
+        <v>0.807987</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233446</v>
+        <v>0.228584</v>
       </c>
       <c r="C36" t="n">
-        <v>0.218601</v>
+        <v>0.220746</v>
       </c>
       <c r="D36" t="n">
-        <v>0.792925</v>
+        <v>0.79056</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229473</v>
+        <v>0.231736</v>
       </c>
       <c r="C37" t="n">
-        <v>0.312787</v>
+        <v>0.313559</v>
       </c>
       <c r="D37" t="n">
-        <v>0.778517</v>
+        <v>0.776363</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319246</v>
+        <v>0.320533</v>
       </c>
       <c r="C38" t="n">
-        <v>0.302189</v>
+        <v>0.304074</v>
       </c>
       <c r="D38" t="n">
-        <v>0.762835</v>
+        <v>0.760579</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.304768</v>
+        <v>0.308846</v>
       </c>
       <c r="C39" t="n">
-        <v>0.294139</v>
+        <v>0.29324</v>
       </c>
       <c r="D39" t="n">
-        <v>0.748993</v>
+        <v>0.746816</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.300203</v>
+        <v>0.298507</v>
       </c>
       <c r="C40" t="n">
-        <v>0.283603</v>
+        <v>0.285253</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735718</v>
+        <v>0.734172</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.28942</v>
+        <v>0.291809</v>
       </c>
       <c r="C41" t="n">
-        <v>0.279612</v>
+        <v>0.276467</v>
       </c>
       <c r="D41" t="n">
-        <v>0.724496</v>
+        <v>0.72297</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.278538</v>
+        <v>0.280129</v>
       </c>
       <c r="C42" t="n">
-        <v>0.266095</v>
+        <v>0.270512</v>
       </c>
       <c r="D42" t="n">
-        <v>0.71415</v>
+        <v>0.7132309999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285451</v>
+        <v>0.272389</v>
       </c>
       <c r="C43" t="n">
-        <v>0.259081</v>
+        <v>0.259746</v>
       </c>
       <c r="D43" t="n">
-        <v>0.704053</v>
+        <v>0.702747</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.277704</v>
+        <v>0.272147</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252212</v>
+        <v>0.25392</v>
       </c>
       <c r="D44" t="n">
-        <v>0.69624</v>
+        <v>0.694717</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.259931</v>
+        <v>0.261737</v>
       </c>
       <c r="C45" t="n">
-        <v>0.247749</v>
+        <v>0.249739</v>
       </c>
       <c r="D45" t="n">
-        <v>0.689233</v>
+        <v>0.687435</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.258224</v>
+        <v>0.264249</v>
       </c>
       <c r="C46" t="n">
-        <v>0.242211</v>
+        <v>0.241009</v>
       </c>
       <c r="D46" t="n">
-        <v>0.682545</v>
+        <v>0.680606</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.252652</v>
+        <v>0.250438</v>
       </c>
       <c r="C47" t="n">
-        <v>0.235029</v>
+        <v>0.234189</v>
       </c>
       <c r="D47" t="n">
-        <v>0.676252</v>
+        <v>0.6751200000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.242791</v>
+        <v>0.245265</v>
       </c>
       <c r="C48" t="n">
-        <v>0.229517</v>
+        <v>0.22982</v>
       </c>
       <c r="D48" t="n">
-        <v>0.671191</v>
+        <v>0.669948</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237804</v>
+        <v>0.2419</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230017</v>
+        <v>0.225818</v>
       </c>
       <c r="D49" t="n">
-        <v>0.667317</v>
+        <v>0.6653790000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242138</v>
+        <v>0.239574</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225073</v>
+        <v>0.22742</v>
       </c>
       <c r="D50" t="n">
-        <v>0.843013</v>
+        <v>0.841813</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.238348</v>
+        <v>0.242397</v>
       </c>
       <c r="C51" t="n">
-        <v>0.324629</v>
+        <v>0.326075</v>
       </c>
       <c r="D51" t="n">
-        <v>0.826322</v>
+        <v>0.825098</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.235755</v>
+        <v>0.236253</v>
       </c>
       <c r="C52" t="n">
-        <v>0.315618</v>
+        <v>0.318694</v>
       </c>
       <c r="D52" t="n">
-        <v>0.809943</v>
+        <v>0.80841</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.323161</v>
+        <v>0.323716</v>
       </c>
       <c r="C53" t="n">
-        <v>0.306575</v>
+        <v>0.310105</v>
       </c>
       <c r="D53" t="n">
-        <v>0.794179</v>
+        <v>0.793315</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.312572</v>
+        <v>0.31696</v>
       </c>
       <c r="C54" t="n">
-        <v>0.29754</v>
+        <v>0.302636</v>
       </c>
       <c r="D54" t="n">
-        <v>0.780603</v>
+        <v>0.778752</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.306365</v>
+        <v>0.301443</v>
       </c>
       <c r="C55" t="n">
-        <v>0.289592</v>
+        <v>0.291833</v>
       </c>
       <c r="D55" t="n">
-        <v>0.768073</v>
+        <v>0.7665729999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29705</v>
+        <v>0.295251</v>
       </c>
       <c r="C56" t="n">
-        <v>0.283233</v>
+        <v>0.285721</v>
       </c>
       <c r="D56" t="n">
-        <v>0.756762</v>
+        <v>0.7548240000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287716</v>
+        <v>0.288986</v>
       </c>
       <c r="C57" t="n">
-        <v>0.276142</v>
+        <v>0.277131</v>
       </c>
       <c r="D57" t="n">
-        <v>0.745408</v>
+        <v>0.743816</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.285441</v>
+        <v>0.291204</v>
       </c>
       <c r="C58" t="n">
-        <v>0.268372</v>
+        <v>0.270099</v>
       </c>
       <c r="D58" t="n">
-        <v>0.736565</v>
+        <v>0.734669</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272899</v>
+        <v>0.284296</v>
       </c>
       <c r="C59" t="n">
-        <v>0.26106</v>
+        <v>0.262732</v>
       </c>
       <c r="D59" t="n">
-        <v>0.727702</v>
+        <v>0.725696</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.271113</v>
+        <v>0.267868</v>
       </c>
       <c r="C60" t="n">
-        <v>0.256693</v>
+        <v>0.257993</v>
       </c>
       <c r="D60" t="n">
-        <v>0.720216</v>
+        <v>0.718225</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.265343</v>
+        <v>0.257707</v>
       </c>
       <c r="C61" t="n">
-        <v>0.251772</v>
+        <v>0.249692</v>
       </c>
       <c r="D61" t="n">
-        <v>0.712882</v>
+        <v>0.710799</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257264</v>
+        <v>0.26381</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247151</v>
+        <v>0.244297</v>
       </c>
       <c r="D62" t="n">
-        <v>0.70718</v>
+        <v>0.704902</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.253766</v>
+        <v>0.256827</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243322</v>
+        <v>0.240269</v>
       </c>
       <c r="D63" t="n">
-        <v>0.702124</v>
+        <v>0.700129</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251342</v>
+        <v>0.249746</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241154</v>
+        <v>0.239317</v>
       </c>
       <c r="D64" t="n">
-        <v>0.910762</v>
+        <v>0.903896</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247293</v>
+        <v>0.246958</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241673</v>
+        <v>0.240447</v>
       </c>
       <c r="D65" t="n">
-        <v>0.890302</v>
+        <v>0.884315</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244959</v>
+        <v>0.245442</v>
       </c>
       <c r="C66" t="n">
-        <v>0.346324</v>
+        <v>0.339275</v>
       </c>
       <c r="D66" t="n">
-        <v>0.871353</v>
+        <v>0.866202</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.40795</v>
+        <v>0.37982</v>
       </c>
       <c r="C67" t="n">
-        <v>0.330609</v>
+        <v>0.335784</v>
       </c>
       <c r="D67" t="n">
-        <v>0.854832</v>
+        <v>0.849569</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388702</v>
+        <v>0.387863</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326192</v>
+        <v>0.327356</v>
       </c>
       <c r="D68" t="n">
-        <v>0.838378</v>
+        <v>0.83503</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360988</v>
+        <v>0.369431</v>
       </c>
       <c r="C69" t="n">
-        <v>0.317198</v>
+        <v>0.315154</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8266829999999999</v>
+        <v>0.823804</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.362226</v>
+        <v>0.361553</v>
       </c>
       <c r="C70" t="n">
-        <v>0.305282</v>
+        <v>0.307238</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8146870000000001</v>
+        <v>0.813016</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.375535</v>
+        <v>0.354288</v>
       </c>
       <c r="C71" t="n">
-        <v>0.303882</v>
+        <v>0.30177</v>
       </c>
       <c r="D71" t="n">
-        <v>0.804402</v>
+        <v>0.803224</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.340978</v>
+        <v>0.361933</v>
       </c>
       <c r="C72" t="n">
-        <v>0.297151</v>
+        <v>0.29376</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7967919999999999</v>
+        <v>0.795619</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.35524</v>
+        <v>0.350985</v>
       </c>
       <c r="C73" t="n">
-        <v>0.288453</v>
+        <v>0.28742</v>
       </c>
       <c r="D73" t="n">
-        <v>0.790758</v>
+        <v>0.78916</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.34645</v>
+        <v>0.324547</v>
       </c>
       <c r="C74" t="n">
-        <v>0.283568</v>
+        <v>0.284519</v>
       </c>
       <c r="D74" t="n">
-        <v>0.785463</v>
+        <v>0.784784</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.315752</v>
+        <v>0.328261</v>
       </c>
       <c r="C75" t="n">
-        <v>0.27796</v>
+        <v>0.277397</v>
       </c>
       <c r="D75" t="n">
-        <v>0.780814</v>
+        <v>0.783718</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.366946</v>
+        <v>0.37654</v>
       </c>
       <c r="C76" t="n">
-        <v>0.271711</v>
+        <v>0.272885</v>
       </c>
       <c r="D76" t="n">
-        <v>0.780138</v>
+        <v>0.782311</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.341961</v>
+        <v>0.333836</v>
       </c>
       <c r="C77" t="n">
-        <v>0.266891</v>
+        <v>0.270432</v>
       </c>
       <c r="D77" t="n">
-        <v>0.782265</v>
+        <v>0.78274</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.30804</v>
+        <v>0.342433</v>
       </c>
       <c r="C78" t="n">
-        <v>0.262508</v>
+        <v>0.265384</v>
       </c>
       <c r="D78" t="n">
-        <v>1.25394</v>
+        <v>1.26305</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.30073</v>
+        <v>0.315235</v>
       </c>
       <c r="C79" t="n">
-        <v>0.26257</v>
+        <v>0.262698</v>
       </c>
       <c r="D79" t="n">
-        <v>1.22941</v>
+        <v>1.2398</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322849</v>
+        <v>0.321887</v>
       </c>
       <c r="C80" t="n">
-        <v>0.393525</v>
+        <v>0.395391</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20932</v>
+        <v>1.22266</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.464631</v>
+        <v>0.44721</v>
       </c>
       <c r="C81" t="n">
-        <v>0.389467</v>
+        <v>0.388352</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19158</v>
+        <v>1.2041</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.420398</v>
+        <v>0.430584</v>
       </c>
       <c r="C82" t="n">
-        <v>0.380218</v>
+        <v>0.381507</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18406</v>
+        <v>1.19061</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.457567</v>
+        <v>0.410522</v>
       </c>
       <c r="C83" t="n">
-        <v>0.372041</v>
+        <v>0.372319</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17557</v>
+        <v>1.17862</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.427742</v>
+        <v>0.456135</v>
       </c>
       <c r="C84" t="n">
-        <v>0.364114</v>
+        <v>0.361844</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16716</v>
+        <v>1.16851</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.41672</v>
+        <v>0.410143</v>
       </c>
       <c r="C85" t="n">
-        <v>0.357717</v>
+        <v>0.358143</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16129</v>
+        <v>1.16527</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.398126</v>
+        <v>0.411616</v>
       </c>
       <c r="C86" t="n">
-        <v>0.35365</v>
+        <v>0.351883</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16063</v>
+        <v>1.16245</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.413046</v>
+        <v>0.398413</v>
       </c>
       <c r="C87" t="n">
-        <v>0.342642</v>
+        <v>0.345979</v>
       </c>
       <c r="D87" t="n">
-        <v>1.16246</v>
+        <v>1.16387</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.408865</v>
+        <v>0.405829</v>
       </c>
       <c r="C88" t="n">
-        <v>0.335133</v>
+        <v>0.335334</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16357</v>
+        <v>1.16524</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.377912</v>
+        <v>0.406288</v>
       </c>
       <c r="C89" t="n">
-        <v>0.329166</v>
+        <v>0.331717</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17418</v>
+        <v>1.17555</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.418111</v>
+        <v>0.458615</v>
       </c>
       <c r="C90" t="n">
-        <v>0.32681</v>
+        <v>0.324783</v>
       </c>
       <c r="D90" t="n">
-        <v>1.18366</v>
+        <v>1.18504</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.422285</v>
+        <v>0.432183</v>
       </c>
       <c r="C91" t="n">
-        <v>0.316804</v>
+        <v>0.320673</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19607</v>
+        <v>1.19833</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.400223</v>
+        <v>0.387887</v>
       </c>
       <c r="C92" t="n">
-        <v>0.317993</v>
+        <v>0.319164</v>
       </c>
       <c r="D92" t="n">
-        <v>1.77874</v>
+        <v>1.78466</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.443919</v>
+        <v>0.387909</v>
       </c>
       <c r="C93" t="n">
-        <v>0.309221</v>
+        <v>0.314451</v>
       </c>
       <c r="D93" t="n">
-        <v>1.76657</v>
+        <v>1.76909</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386501</v>
+        <v>0.355964</v>
       </c>
       <c r="C94" t="n">
-        <v>0.501337</v>
+        <v>0.505362</v>
       </c>
       <c r="D94" t="n">
-        <v>1.75448</v>
+        <v>1.75061</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.556568</v>
+        <v>0.576175</v>
       </c>
       <c r="C95" t="n">
-        <v>0.496423</v>
+        <v>0.498791</v>
       </c>
       <c r="D95" t="n">
-        <v>1.73893</v>
+        <v>1.73807</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.562118</v>
+        <v>0.572183</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4887</v>
+        <v>0.490526</v>
       </c>
       <c r="D96" t="n">
-        <v>1.72803</v>
+        <v>1.72362</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.557346</v>
+        <v>0.57142</v>
       </c>
       <c r="C97" t="n">
-        <v>0.477194</v>
+        <v>0.475019</v>
       </c>
       <c r="D97" t="n">
-        <v>1.72067</v>
+        <v>1.71764</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.53692</v>
+        <v>0.519381</v>
       </c>
       <c r="C98" t="n">
-        <v>0.462671</v>
+        <v>0.467625</v>
       </c>
       <c r="D98" t="n">
-        <v>1.71364</v>
+        <v>1.71152</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.54993</v>
+        <v>0.517466</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454862</v>
+        <v>0.456028</v>
       </c>
       <c r="D99" t="n">
-        <v>1.71055</v>
+        <v>1.7097</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.558619</v>
+        <v>0.521257</v>
       </c>
       <c r="C100" t="n">
-        <v>0.449856</v>
+        <v>0.447909</v>
       </c>
       <c r="D100" t="n">
-        <v>1.7127</v>
+        <v>1.71223</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5283679999999999</v>
+        <v>0.497473</v>
       </c>
       <c r="C101" t="n">
-        <v>0.436556</v>
+        <v>0.440481</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71913</v>
+        <v>1.71862</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.533995</v>
+        <v>0.501478</v>
       </c>
       <c r="C102" t="n">
-        <v>0.427725</v>
+        <v>0.428646</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72481</v>
+        <v>1.72723</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.491926</v>
+        <v>0.482405</v>
       </c>
       <c r="C103" t="n">
-        <v>0.420274</v>
+        <v>0.420963</v>
       </c>
       <c r="D103" t="n">
-        <v>1.73196</v>
+        <v>1.73257</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.486868</v>
+        <v>0.487894</v>
       </c>
       <c r="C104" t="n">
-        <v>0.413438</v>
+        <v>0.413135</v>
       </c>
       <c r="D104" t="n">
-        <v>1.74643</v>
+        <v>1.74156</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.480685</v>
+        <v>0.494793</v>
       </c>
       <c r="C105" t="n">
-        <v>0.404729</v>
+        <v>0.408265</v>
       </c>
       <c r="D105" t="n">
-        <v>1.76079</v>
+        <v>1.75703</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.486026</v>
+        <v>0.487421</v>
       </c>
       <c r="C106" t="n">
-        <v>0.398796</v>
+        <v>0.403888</v>
       </c>
       <c r="D106" t="n">
-        <v>1.77368</v>
+        <v>1.77184</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.481128</v>
+        <v>0.487799</v>
       </c>
       <c r="C107" t="n">
-        <v>0.399655</v>
+        <v>0.402691</v>
       </c>
       <c r="D107" t="n">
-        <v>2.39995</v>
+        <v>2.39516</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.484413</v>
+        <v>0.467974</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5906670000000001</v>
+        <v>0.595067</v>
       </c>
       <c r="D108" t="n">
-        <v>2.36997</v>
+        <v>2.3656</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.476451</v>
+        <v>0.483532</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5833739999999999</v>
+        <v>0.587241</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34772</v>
+        <v>2.33828</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.67052</v>
+        <v>0.670188</v>
       </c>
       <c r="C110" t="n">
-        <v>0.574935</v>
+        <v>0.578699</v>
       </c>
       <c r="D110" t="n">
-        <v>2.32124</v>
+        <v>2.31886</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6391019999999999</v>
+        <v>0.659662</v>
       </c>
       <c r="C111" t="n">
-        <v>0.562262</v>
+        <v>0.5661119999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>2.30124</v>
+        <v>2.29869</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6380169999999999</v>
+        <v>0.659596</v>
       </c>
       <c r="C112" t="n">
-        <v>0.521595</v>
+        <v>0.555689</v>
       </c>
       <c r="D112" t="n">
-        <v>2.28531</v>
+        <v>2.28559</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.610876</v>
+        <v>0.6340249999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.511585</v>
+        <v>0.543691</v>
       </c>
       <c r="D113" t="n">
-        <v>2.27099</v>
+        <v>2.26678</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.622695</v>
+        <v>0.630808</v>
       </c>
       <c r="C114" t="n">
-        <v>0.503296</v>
+        <v>0.499064</v>
       </c>
       <c r="D114" t="n">
-        <v>2.28345</v>
+        <v>2.29517</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.600249</v>
+        <v>0.6048</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5222869999999999</v>
+        <v>0.497367</v>
       </c>
       <c r="D115" t="n">
-        <v>2.29827</v>
+        <v>2.29546</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.606575</v>
+        <v>0.571367</v>
       </c>
       <c r="C116" t="n">
-        <v>0.513417</v>
+        <v>0.488198</v>
       </c>
       <c r="D116" t="n">
-        <v>2.2974</v>
+        <v>2.29199</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.594341</v>
+        <v>0.596173</v>
       </c>
       <c r="C117" t="n">
-        <v>0.50315</v>
+        <v>0.5075539999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>2.29654</v>
+        <v>2.29251</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.572395</v>
+        <v>0.5916090000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.498506</v>
+        <v>0.496857</v>
       </c>
       <c r="D118" t="n">
-        <v>2.24497</v>
+        <v>2.2528</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.538863</v>
+        <v>0.554144</v>
       </c>
       <c r="C119" t="n">
-        <v>0.467297</v>
+        <v>0.469243</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25518</v>
+        <v>2.25903</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.527353</v>
+        <v>0.533649</v>
       </c>
       <c r="C120" t="n">
-        <v>0.459673</v>
+        <v>0.463613</v>
       </c>
       <c r="D120" t="n">
-        <v>2.26968</v>
+        <v>2.27006</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.543685</v>
+        <v>0.559901</v>
       </c>
       <c r="C121" t="n">
-        <v>0.45668</v>
+        <v>0.456107</v>
       </c>
       <c r="D121" t="n">
-        <v>2.95529</v>
+        <v>2.96258</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.542292</v>
+        <v>0.529605</v>
       </c>
       <c r="C122" t="n">
-        <v>0.453449</v>
+        <v>0.449372</v>
       </c>
       <c r="D122" t="n">
-        <v>2.90522</v>
+        <v>2.89019</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.525324</v>
+        <v>0.522165</v>
       </c>
       <c r="C123" t="n">
-        <v>0.644151</v>
+        <v>0.644382</v>
       </c>
       <c r="D123" t="n">
-        <v>2.87182</v>
+        <v>2.84554</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.709466</v>
+        <v>0.713435</v>
       </c>
       <c r="C124" t="n">
-        <v>0.638554</v>
+        <v>0.636728</v>
       </c>
       <c r="D124" t="n">
-        <v>2.83582</v>
+        <v>2.80982</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.730789</v>
+        <v>0.711541</v>
       </c>
       <c r="C125" t="n">
-        <v>0.632983</v>
+        <v>0.629507</v>
       </c>
       <c r="D125" t="n">
-        <v>2.80505</v>
+        <v>2.7798</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.705207</v>
+        <v>0.715808</v>
       </c>
       <c r="C126" t="n">
-        <v>0.626758</v>
+        <v>0.6235579999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>2.77241</v>
+        <v>2.75445</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.711133</v>
+        <v>0.699898</v>
       </c>
       <c r="C127" t="n">
-        <v>0.617804</v>
+        <v>0.618949</v>
       </c>
       <c r="D127" t="n">
-        <v>2.75189</v>
+        <v>2.72974</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.709736</v>
+        <v>0.688095</v>
       </c>
       <c r="C128" t="n">
-        <v>0.612725</v>
+        <v>0.616223</v>
       </c>
       <c r="D128" t="n">
-        <v>2.73111</v>
+        <v>2.7066</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.695827</v>
+        <v>0.678418</v>
       </c>
       <c r="C129" t="n">
-        <v>0.610059</v>
+        <v>0.609345</v>
       </c>
       <c r="D129" t="n">
-        <v>2.71848</v>
+        <v>2.69415</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6744560000000001</v>
+        <v>0.672123</v>
       </c>
       <c r="C130" t="n">
-        <v>0.604043</v>
+        <v>0.59507</v>
       </c>
       <c r="D130" t="n">
-        <v>2.70135</v>
+        <v>2.68277</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.670432</v>
+        <v>0.66232</v>
       </c>
       <c r="C131" t="n">
-        <v>0.598326</v>
+        <v>0.598485</v>
       </c>
       <c r="D131" t="n">
-        <v>2.68729</v>
+        <v>2.67359</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6581090000000001</v>
+        <v>0.663693</v>
       </c>
       <c r="C132" t="n">
-        <v>0.594094</v>
+        <v>0.584718</v>
       </c>
       <c r="D132" t="n">
-        <v>2.68327</v>
+        <v>2.65756</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.663035</v>
+        <v>0.667703</v>
       </c>
       <c r="C133" t="n">
-        <v>0.600845</v>
+        <v>0.591795</v>
       </c>
       <c r="D133" t="n">
-        <v>2.68223</v>
+        <v>2.64845</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.644311</v>
+        <v>0.647443</v>
       </c>
       <c r="C134" t="n">
-        <v>0.589239</v>
+        <v>0.58936</v>
       </c>
       <c r="D134" t="n">
-        <v>2.66495</v>
+        <v>2.63659</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.63892</v>
+        <v>0.648381</v>
       </c>
       <c r="C135" t="n">
-        <v>0.56362</v>
+        <v>0.561832</v>
       </c>
       <c r="D135" t="n">
-        <v>3.37935</v>
+        <v>3.34512</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.637435</v>
+        <v>0.627628</v>
       </c>
       <c r="C136" t="n">
-        <v>0.559021</v>
+        <v>0.547835</v>
       </c>
       <c r="D136" t="n">
-        <v>3.3262</v>
+        <v>3.29111</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.645809</v>
+        <v>0.640635</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7549979999999999</v>
+        <v>0.747735</v>
       </c>
       <c r="D137" t="n">
-        <v>3.27557</v>
+        <v>3.24017</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.796019</v>
+        <v>0.795396</v>
       </c>
       <c r="C138" t="n">
-        <v>0.74189</v>
+        <v>0.741689</v>
       </c>
       <c r="D138" t="n">
-        <v>3.22023</v>
+        <v>3.19481</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.796223</v>
+        <v>0.789481</v>
       </c>
       <c r="C139" t="n">
-        <v>0.742688</v>
+        <v>0.735256</v>
       </c>
       <c r="D139" t="n">
-        <v>3.17846</v>
+        <v>3.14818</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.789867</v>
+        <v>0.796745</v>
       </c>
       <c r="C140" t="n">
-        <v>0.737057</v>
+        <v>0.730617</v>
       </c>
       <c r="D140" t="n">
-        <v>3.13958</v>
+        <v>3.10668</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.793146</v>
+        <v>0.795923</v>
       </c>
       <c r="C141" t="n">
-        <v>0.73405</v>
+        <v>0.745235</v>
       </c>
       <c r="D141" t="n">
-        <v>3.10603</v>
+        <v>3.07863</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.792431</v>
+        <v>0.795314</v>
       </c>
       <c r="C142" t="n">
-        <v>0.747067</v>
+        <v>0.723868</v>
       </c>
       <c r="D142" t="n">
-        <v>3.08453</v>
+        <v>3.05476</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7914870000000001</v>
+        <v>0.787612</v>
       </c>
       <c r="C143" t="n">
-        <v>0.743911</v>
+        <v>0.722929</v>
       </c>
       <c r="D143" t="n">
-        <v>3.05967</v>
+        <v>3.02878</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.239999</v>
+        <v>0.24086</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216258</v>
+        <v>0.208007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.556905</v>
+        <v>0.555809</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242536</v>
+        <v>0.233204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211155</v>
+        <v>0.202952</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549783</v>
+        <v>0.546405</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.228816</v>
+        <v>0.225565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205428</v>
+        <v>0.198451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.543459</v>
+        <v>0.540531</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.219658</v>
+        <v>0.22549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200678</v>
+        <v>0.19413</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53859</v>
+        <v>0.534471</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.217234</v>
+        <v>0.217539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197966</v>
+        <v>0.191854</v>
       </c>
       <c r="D6" t="n">
-        <v>0.535657</v>
+        <v>0.5304450000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213446</v>
+        <v>0.216737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196031</v>
+        <v>0.191181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.682629</v>
+        <v>0.682051</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216115</v>
+        <v>0.213643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197008</v>
+        <v>0.192551</v>
       </c>
       <c r="D8" t="n">
-        <v>0.667784</v>
+        <v>0.6681280000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21658</v>
+        <v>0.21712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.287113</v>
+        <v>0.256868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.655641</v>
+        <v>0.655204</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30538</v>
+        <v>0.309769</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278661</v>
+        <v>0.247885</v>
       </c>
       <c r="D10" t="n">
-        <v>0.641656</v>
+        <v>0.643207</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298957</v>
+        <v>0.298308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.267084</v>
+        <v>0.239712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.630356</v>
+        <v>0.631339</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286209</v>
+        <v>0.284273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25862</v>
+        <v>0.234009</v>
       </c>
       <c r="D12" t="n">
-        <v>0.620888</v>
+        <v>0.62164</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.28672</v>
+        <v>0.273691</v>
       </c>
       <c r="C13" t="n">
-        <v>0.251172</v>
+        <v>0.226971</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6113690000000001</v>
+        <v>0.613143</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.267543</v>
+        <v>0.266944</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245766</v>
+        <v>0.221354</v>
       </c>
       <c r="D14" t="n">
-        <v>0.604858</v>
+        <v>0.603658</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265191</v>
+        <v>0.265317</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236696</v>
+        <v>0.214838</v>
       </c>
       <c r="D15" t="n">
-        <v>0.596688</v>
+        <v>0.597166</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.264026</v>
+        <v>0.255079</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230371</v>
+        <v>0.209859</v>
       </c>
       <c r="D16" t="n">
-        <v>0.590619</v>
+        <v>0.591244</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.246163</v>
+        <v>0.257318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225625</v>
+        <v>0.205054</v>
       </c>
       <c r="D17" t="n">
-        <v>0.584758</v>
+        <v>0.58545</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.241608</v>
+        <v>0.250657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220217</v>
+        <v>0.201229</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5797369999999999</v>
+        <v>0.579596</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.232954</v>
+        <v>0.23619</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215441</v>
+        <v>0.198041</v>
       </c>
       <c r="D19" t="n">
-        <v>0.573596</v>
+        <v>0.5768</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.235731</v>
+        <v>0.23568</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212934</v>
+        <v>0.195586</v>
       </c>
       <c r="D20" t="n">
-        <v>0.569881</v>
+        <v>0.572964</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230463</v>
+        <v>0.227691</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210695</v>
+        <v>0.19535</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7459440000000001</v>
+        <v>0.745664</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221832</v>
+        <v>0.222091</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211321</v>
+        <v>0.197001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7290759999999999</v>
+        <v>0.72832</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22861</v>
+        <v>0.224111</v>
       </c>
       <c r="C23" t="n">
-        <v>0.303514</v>
+        <v>0.286332</v>
       </c>
       <c r="D23" t="n">
-        <v>0.717263</v>
+        <v>0.713811</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311608</v>
+        <v>0.318099</v>
       </c>
       <c r="C24" t="n">
-        <v>0.293529</v>
+        <v>0.276374</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7029029999999999</v>
+        <v>0.702414</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306267</v>
+        <v>0.302471</v>
       </c>
       <c r="C25" t="n">
-        <v>0.281683</v>
+        <v>0.267858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.690512</v>
+        <v>0.690407</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29673</v>
+        <v>0.293097</v>
       </c>
       <c r="C26" t="n">
-        <v>0.272994</v>
+        <v>0.260334</v>
       </c>
       <c r="D26" t="n">
-        <v>0.679155</v>
+        <v>0.680605</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285626</v>
+        <v>0.283121</v>
       </c>
       <c r="C27" t="n">
-        <v>0.267554</v>
+        <v>0.252933</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6707880000000001</v>
+        <v>0.66915</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.281206</v>
+        <v>0.274709</v>
       </c>
       <c r="C28" t="n">
-        <v>0.259042</v>
+        <v>0.245828</v>
       </c>
       <c r="D28" t="n">
-        <v>0.659211</v>
+        <v>0.659789</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280108</v>
+        <v>0.269784</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249162</v>
+        <v>0.238754</v>
       </c>
       <c r="D29" t="n">
-        <v>0.651433</v>
+        <v>0.652851</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261291</v>
+        <v>0.262458</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242755</v>
+        <v>0.23363</v>
       </c>
       <c r="D30" t="n">
-        <v>0.643875</v>
+        <v>0.646925</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.261793</v>
+        <v>0.257283</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237032</v>
+        <v>0.226644</v>
       </c>
       <c r="D31" t="n">
-        <v>0.637926</v>
+        <v>0.6388470000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250087</v>
+        <v>0.250247</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233222</v>
+        <v>0.222173</v>
       </c>
       <c r="D32" t="n">
-        <v>0.632356</v>
+        <v>0.633074</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.240899</v>
+        <v>0.246111</v>
       </c>
       <c r="C33" t="n">
-        <v>0.226098</v>
+        <v>0.216387</v>
       </c>
       <c r="D33" t="n">
-        <v>0.627379</v>
+        <v>0.627869</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235917</v>
+        <v>0.237319</v>
       </c>
       <c r="C34" t="n">
-        <v>0.221983</v>
+        <v>0.21403</v>
       </c>
       <c r="D34" t="n">
-        <v>0.623524</v>
+        <v>0.624034</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.237374</v>
+        <v>0.231911</v>
       </c>
       <c r="C35" t="n">
-        <v>0.219252</v>
+        <v>0.213106</v>
       </c>
       <c r="D35" t="n">
-        <v>0.807987</v>
+        <v>0.80767</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228584</v>
+        <v>0.232458</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220746</v>
+        <v>0.211027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.79056</v>
+        <v>0.790164</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231736</v>
+        <v>0.232797</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313559</v>
+        <v>0.302141</v>
       </c>
       <c r="D37" t="n">
-        <v>0.776363</v>
+        <v>0.774199</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320533</v>
+        <v>0.316962</v>
       </c>
       <c r="C38" t="n">
-        <v>0.304074</v>
+        <v>0.292491</v>
       </c>
       <c r="D38" t="n">
-        <v>0.760579</v>
+        <v>0.760657</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308846</v>
+        <v>0.309278</v>
       </c>
       <c r="C39" t="n">
-        <v>0.29324</v>
+        <v>0.283525</v>
       </c>
       <c r="D39" t="n">
-        <v>0.746816</v>
+        <v>0.74699</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.298507</v>
+        <v>0.302827</v>
       </c>
       <c r="C40" t="n">
-        <v>0.285253</v>
+        <v>0.276467</v>
       </c>
       <c r="D40" t="n">
-        <v>0.734172</v>
+        <v>0.733805</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291809</v>
+        <v>0.293082</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276467</v>
+        <v>0.267584</v>
       </c>
       <c r="D41" t="n">
-        <v>0.72297</v>
+        <v>0.721825</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280129</v>
+        <v>0.280266</v>
       </c>
       <c r="C42" t="n">
-        <v>0.270512</v>
+        <v>0.260241</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7132309999999999</v>
+        <v>0.711711</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272389</v>
+        <v>0.272476</v>
       </c>
       <c r="C43" t="n">
-        <v>0.259746</v>
+        <v>0.252892</v>
       </c>
       <c r="D43" t="n">
-        <v>0.702747</v>
+        <v>0.702525</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.272147</v>
+        <v>0.267074</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25392</v>
+        <v>0.246075</v>
       </c>
       <c r="D44" t="n">
-        <v>0.694717</v>
+        <v>0.694773</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261737</v>
+        <v>0.263052</v>
       </c>
       <c r="C45" t="n">
-        <v>0.249739</v>
+        <v>0.240559</v>
       </c>
       <c r="D45" t="n">
-        <v>0.687435</v>
+        <v>0.687931</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.264249</v>
+        <v>0.255347</v>
       </c>
       <c r="C46" t="n">
-        <v>0.241009</v>
+        <v>0.235052</v>
       </c>
       <c r="D46" t="n">
-        <v>0.680606</v>
+        <v>0.679885</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250438</v>
+        <v>0.255963</v>
       </c>
       <c r="C47" t="n">
-        <v>0.234189</v>
+        <v>0.230201</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6751200000000001</v>
+        <v>0.674643</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.245265</v>
+        <v>0.245138</v>
       </c>
       <c r="C48" t="n">
-        <v>0.22982</v>
+        <v>0.225791</v>
       </c>
       <c r="D48" t="n">
-        <v>0.669948</v>
+        <v>0.670416</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2419</v>
+        <v>0.246606</v>
       </c>
       <c r="C49" t="n">
-        <v>0.225818</v>
+        <v>0.222973</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6653790000000001</v>
+        <v>0.666327</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239574</v>
+        <v>0.237786</v>
       </c>
       <c r="C50" t="n">
-        <v>0.22742</v>
+        <v>0.221687</v>
       </c>
       <c r="D50" t="n">
-        <v>0.841813</v>
+        <v>0.84317</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242397</v>
+        <v>0.234595</v>
       </c>
       <c r="C51" t="n">
-        <v>0.326075</v>
+        <v>0.317131</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825098</v>
+        <v>0.825412</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.236253</v>
+        <v>0.234946</v>
       </c>
       <c r="C52" t="n">
-        <v>0.318694</v>
+        <v>0.307676</v>
       </c>
       <c r="D52" t="n">
-        <v>0.80841</v>
+        <v>0.808227</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.323716</v>
+        <v>0.31921</v>
       </c>
       <c r="C53" t="n">
-        <v>0.310105</v>
+        <v>0.298667</v>
       </c>
       <c r="D53" t="n">
-        <v>0.793315</v>
+        <v>0.793149</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.31696</v>
+        <v>0.313598</v>
       </c>
       <c r="C54" t="n">
-        <v>0.302636</v>
+        <v>0.290131</v>
       </c>
       <c r="D54" t="n">
-        <v>0.778752</v>
+        <v>0.779094</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.301443</v>
+        <v>0.3012</v>
       </c>
       <c r="C55" t="n">
-        <v>0.291833</v>
+        <v>0.282306</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7665729999999999</v>
+        <v>0.767197</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.295251</v>
+        <v>0.293573</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285721</v>
+        <v>0.274689</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7548240000000001</v>
+        <v>0.7555229999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.288986</v>
+        <v>0.289638</v>
       </c>
       <c r="C57" t="n">
-        <v>0.277131</v>
+        <v>0.267659</v>
       </c>
       <c r="D57" t="n">
-        <v>0.743816</v>
+        <v>0.744313</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.291204</v>
+        <v>0.276422</v>
       </c>
       <c r="C58" t="n">
-        <v>0.270099</v>
+        <v>0.260333</v>
       </c>
       <c r="D58" t="n">
-        <v>0.734669</v>
+        <v>0.73515</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.284296</v>
+        <v>0.271577</v>
       </c>
       <c r="C59" t="n">
-        <v>0.262732</v>
+        <v>0.254068</v>
       </c>
       <c r="D59" t="n">
-        <v>0.725696</v>
+        <v>0.726118</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267868</v>
+        <v>0.26765</v>
       </c>
       <c r="C60" t="n">
-        <v>0.257993</v>
+        <v>0.24977</v>
       </c>
       <c r="D60" t="n">
-        <v>0.718225</v>
+        <v>0.718925</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257707</v>
+        <v>0.263363</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249692</v>
+        <v>0.244016</v>
       </c>
       <c r="D61" t="n">
-        <v>0.710799</v>
+        <v>0.711944</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.26381</v>
+        <v>0.263418</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244297</v>
+        <v>0.239344</v>
       </c>
       <c r="D62" t="n">
-        <v>0.704902</v>
+        <v>0.706052</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.256827</v>
+        <v>0.257073</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240269</v>
+        <v>0.237966</v>
       </c>
       <c r="D63" t="n">
-        <v>0.700129</v>
+        <v>0.701174</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.249746</v>
+        <v>0.255814</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239317</v>
+        <v>0.234741</v>
       </c>
       <c r="D64" t="n">
-        <v>0.903896</v>
+        <v>0.901344</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246958</v>
+        <v>0.244829</v>
       </c>
       <c r="C65" t="n">
-        <v>0.240447</v>
+        <v>0.235366</v>
       </c>
       <c r="D65" t="n">
-        <v>0.884315</v>
+        <v>0.883016</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.245442</v>
+        <v>0.246526</v>
       </c>
       <c r="C66" t="n">
-        <v>0.339275</v>
+        <v>0.326553</v>
       </c>
       <c r="D66" t="n">
-        <v>0.866202</v>
+        <v>0.865219</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.37982</v>
+        <v>0.397982</v>
       </c>
       <c r="C67" t="n">
-        <v>0.335784</v>
+        <v>0.318026</v>
       </c>
       <c r="D67" t="n">
-        <v>0.849569</v>
+        <v>0.8487710000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.387863</v>
+        <v>0.368016</v>
       </c>
       <c r="C68" t="n">
-        <v>0.327356</v>
+        <v>0.310143</v>
       </c>
       <c r="D68" t="n">
-        <v>0.83503</v>
+        <v>0.834212</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.369431</v>
+        <v>0.374692</v>
       </c>
       <c r="C69" t="n">
-        <v>0.315154</v>
+        <v>0.302593</v>
       </c>
       <c r="D69" t="n">
-        <v>0.823804</v>
+        <v>0.821764</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.361553</v>
+        <v>0.351266</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307238</v>
+        <v>0.295912</v>
       </c>
       <c r="D70" t="n">
-        <v>0.813016</v>
+        <v>0.81164</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.354288</v>
+        <v>0.351073</v>
       </c>
       <c r="C71" t="n">
-        <v>0.30177</v>
+        <v>0.288511</v>
       </c>
       <c r="D71" t="n">
-        <v>0.803224</v>
+        <v>0.800146</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.361933</v>
+        <v>0.38314</v>
       </c>
       <c r="C72" t="n">
-        <v>0.29376</v>
+        <v>0.281688</v>
       </c>
       <c r="D72" t="n">
-        <v>0.795619</v>
+        <v>0.794616</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350985</v>
+        <v>0.328155</v>
       </c>
       <c r="C73" t="n">
-        <v>0.28742</v>
+        <v>0.275778</v>
       </c>
       <c r="D73" t="n">
-        <v>0.78916</v>
+        <v>0.7882710000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.324547</v>
+        <v>0.332682</v>
       </c>
       <c r="C74" t="n">
-        <v>0.284519</v>
+        <v>0.270253</v>
       </c>
       <c r="D74" t="n">
-        <v>0.784784</v>
+        <v>0.781257</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.328261</v>
+        <v>0.337181</v>
       </c>
       <c r="C75" t="n">
-        <v>0.277397</v>
+        <v>0.26444</v>
       </c>
       <c r="D75" t="n">
-        <v>0.783718</v>
+        <v>0.780775</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.37654</v>
+        <v>0.357795</v>
       </c>
       <c r="C76" t="n">
-        <v>0.272885</v>
+        <v>0.260343</v>
       </c>
       <c r="D76" t="n">
-        <v>0.782311</v>
+        <v>0.778876</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.333836</v>
+        <v>0.34485</v>
       </c>
       <c r="C77" t="n">
-        <v>0.270432</v>
+        <v>0.256341</v>
       </c>
       <c r="D77" t="n">
-        <v>0.78274</v>
+        <v>0.77845</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.342433</v>
+        <v>0.352076</v>
       </c>
       <c r="C78" t="n">
-        <v>0.265384</v>
+        <v>0.254325</v>
       </c>
       <c r="D78" t="n">
-        <v>1.26305</v>
+        <v>1.25753</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315235</v>
+        <v>0.316843</v>
       </c>
       <c r="C79" t="n">
-        <v>0.262698</v>
+        <v>0.254482</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2398</v>
+        <v>1.23515</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321887</v>
+        <v>0.308162</v>
       </c>
       <c r="C80" t="n">
-        <v>0.395391</v>
+        <v>0.361356</v>
       </c>
       <c r="D80" t="n">
-        <v>1.22266</v>
+        <v>1.21562</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.44721</v>
+        <v>0.427774</v>
       </c>
       <c r="C81" t="n">
-        <v>0.388352</v>
+        <v>0.355792</v>
       </c>
       <c r="D81" t="n">
-        <v>1.2041</v>
+        <v>1.19861</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.430584</v>
+        <v>0.428275</v>
       </c>
       <c r="C82" t="n">
-        <v>0.381507</v>
+        <v>0.349576</v>
       </c>
       <c r="D82" t="n">
-        <v>1.19061</v>
+        <v>1.18422</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.410522</v>
+        <v>0.419154</v>
       </c>
       <c r="C83" t="n">
-        <v>0.372319</v>
+        <v>0.345334</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17862</v>
+        <v>1.17906</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.456135</v>
+        <v>0.410098</v>
       </c>
       <c r="C84" t="n">
-        <v>0.361844</v>
+        <v>0.339237</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16851</v>
+        <v>1.17147</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.410143</v>
+        <v>0.425371</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358143</v>
+        <v>0.330355</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16527</v>
+        <v>1.16616</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.411616</v>
+        <v>0.395087</v>
       </c>
       <c r="C86" t="n">
-        <v>0.351883</v>
+        <v>0.324978</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16245</v>
+        <v>1.16108</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.398413</v>
+        <v>0.434282</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345979</v>
+        <v>0.31768</v>
       </c>
       <c r="D87" t="n">
-        <v>1.16387</v>
+        <v>1.16272</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.405829</v>
+        <v>0.413386</v>
       </c>
       <c r="C88" t="n">
-        <v>0.335334</v>
+        <v>0.31279</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16524</v>
+        <v>1.16805</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.406288</v>
+        <v>0.41403</v>
       </c>
       <c r="C89" t="n">
-        <v>0.331717</v>
+        <v>0.305853</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17555</v>
+        <v>1.17669</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.458615</v>
+        <v>0.450398</v>
       </c>
       <c r="C90" t="n">
-        <v>0.324783</v>
+        <v>0.303629</v>
       </c>
       <c r="D90" t="n">
-        <v>1.18504</v>
+        <v>1.18596</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.432183</v>
+        <v>0.417345</v>
       </c>
       <c r="C91" t="n">
-        <v>0.320673</v>
+        <v>0.299903</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19833</v>
+        <v>1.19644</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.387887</v>
+        <v>0.436406</v>
       </c>
       <c r="C92" t="n">
-        <v>0.319164</v>
+        <v>0.296333</v>
       </c>
       <c r="D92" t="n">
-        <v>1.78466</v>
+        <v>1.78665</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.387909</v>
+        <v>0.397649</v>
       </c>
       <c r="C93" t="n">
-        <v>0.314451</v>
+        <v>0.294098</v>
       </c>
       <c r="D93" t="n">
-        <v>1.76909</v>
+        <v>1.78112</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.355964</v>
+        <v>0.366657</v>
       </c>
       <c r="C94" t="n">
-        <v>0.505362</v>
+        <v>0.556109</v>
       </c>
       <c r="D94" t="n">
-        <v>1.75061</v>
+        <v>1.76744</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.576175</v>
+        <v>0.585225</v>
       </c>
       <c r="C95" t="n">
-        <v>0.498791</v>
+        <v>0.542162</v>
       </c>
       <c r="D95" t="n">
-        <v>1.73807</v>
+        <v>1.75498</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.572183</v>
+        <v>0.5724590000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.490526</v>
+        <v>0.526996</v>
       </c>
       <c r="D96" t="n">
-        <v>1.72362</v>
+        <v>1.74518</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.57142</v>
+        <v>0.5958830000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.475019</v>
+        <v>0.513805</v>
       </c>
       <c r="D97" t="n">
-        <v>1.71764</v>
+        <v>1.73742</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.519381</v>
+        <v>0.550365</v>
       </c>
       <c r="C98" t="n">
-        <v>0.467625</v>
+        <v>0.499903</v>
       </c>
       <c r="D98" t="n">
-        <v>1.71152</v>
+        <v>1.72905</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.517466</v>
+        <v>0.546658</v>
       </c>
       <c r="C99" t="n">
-        <v>0.456028</v>
+        <v>0.487358</v>
       </c>
       <c r="D99" t="n">
-        <v>1.7097</v>
+        <v>1.72638</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.521257</v>
+        <v>0.551687</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447909</v>
+        <v>0.475298</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71223</v>
+        <v>1.72583</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.497473</v>
+        <v>0.509935</v>
       </c>
       <c r="C101" t="n">
-        <v>0.440481</v>
+        <v>0.465598</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71862</v>
+        <v>1.73876</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.501478</v>
+        <v>0.5216</v>
       </c>
       <c r="C102" t="n">
-        <v>0.428646</v>
+        <v>0.454405</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72723</v>
+        <v>1.74198</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.482405</v>
+        <v>0.5081369999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.420963</v>
+        <v>0.444687</v>
       </c>
       <c r="D103" t="n">
-        <v>1.73257</v>
+        <v>1.74966</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.487894</v>
+        <v>0.496658</v>
       </c>
       <c r="C104" t="n">
-        <v>0.413135</v>
+        <v>0.436292</v>
       </c>
       <c r="D104" t="n">
-        <v>1.74156</v>
+        <v>1.76173</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.494793</v>
+        <v>0.485159</v>
       </c>
       <c r="C105" t="n">
-        <v>0.408265</v>
+        <v>0.427654</v>
       </c>
       <c r="D105" t="n">
-        <v>1.75703</v>
+        <v>1.77591</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.487421</v>
+        <v>0.491418</v>
       </c>
       <c r="C106" t="n">
-        <v>0.403888</v>
+        <v>0.421634</v>
       </c>
       <c r="D106" t="n">
-        <v>1.77184</v>
+        <v>1.79218</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.487799</v>
+        <v>0.505231</v>
       </c>
       <c r="C107" t="n">
-        <v>0.402691</v>
+        <v>0.420866</v>
       </c>
       <c r="D107" t="n">
-        <v>2.39516</v>
+        <v>2.41642</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.467974</v>
+        <v>0.475944</v>
       </c>
       <c r="C108" t="n">
-        <v>0.595067</v>
+        <v>0.615247</v>
       </c>
       <c r="D108" t="n">
-        <v>2.3656</v>
+        <v>2.39012</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.483532</v>
+        <v>0.485727</v>
       </c>
       <c r="C109" t="n">
-        <v>0.587241</v>
+        <v>0.608971</v>
       </c>
       <c r="D109" t="n">
-        <v>2.33828</v>
+        <v>2.36082</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.670188</v>
+        <v>0.688586</v>
       </c>
       <c r="C110" t="n">
-        <v>0.578699</v>
+        <v>0.596445</v>
       </c>
       <c r="D110" t="n">
-        <v>2.31886</v>
+        <v>2.34055</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.659662</v>
+        <v>0.676326</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5661119999999999</v>
+        <v>0.58311</v>
       </c>
       <c r="D111" t="n">
-        <v>2.29869</v>
+        <v>2.32111</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.659596</v>
+        <v>0.639405</v>
       </c>
       <c r="C112" t="n">
-        <v>0.555689</v>
+        <v>0.521825</v>
       </c>
       <c r="D112" t="n">
-        <v>2.28559</v>
+        <v>2.30376</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6340249999999999</v>
+        <v>0.65264</v>
       </c>
       <c r="C113" t="n">
-        <v>0.543691</v>
+        <v>0.555724</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26678</v>
+        <v>2.29854</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.630808</v>
+        <v>0.615778</v>
       </c>
       <c r="C114" t="n">
-        <v>0.499064</v>
+        <v>0.500536</v>
       </c>
       <c r="D114" t="n">
-        <v>2.29517</v>
+        <v>2.31309</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6048</v>
+        <v>0.6134269999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.497367</v>
+        <v>0.537483</v>
       </c>
       <c r="D115" t="n">
-        <v>2.29546</v>
+        <v>2.32076</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.571367</v>
+        <v>0.608133</v>
       </c>
       <c r="C116" t="n">
-        <v>0.488198</v>
+        <v>0.527952</v>
       </c>
       <c r="D116" t="n">
-        <v>2.29199</v>
+        <v>2.32212</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.596173</v>
+        <v>0.598649</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5075539999999999</v>
+        <v>0.516765</v>
       </c>
       <c r="D117" t="n">
-        <v>2.29251</v>
+        <v>2.31692</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5916090000000001</v>
+        <v>0.58904</v>
       </c>
       <c r="C118" t="n">
-        <v>0.496857</v>
+        <v>0.508756</v>
       </c>
       <c r="D118" t="n">
-        <v>2.2528</v>
+        <v>2.27994</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.554144</v>
+        <v>0.560815</v>
       </c>
       <c r="C119" t="n">
-        <v>0.469243</v>
+        <v>0.463563</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25903</v>
+        <v>2.28282</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.533649</v>
+        <v>0.542071</v>
       </c>
       <c r="C120" t="n">
-        <v>0.463613</v>
+        <v>0.458222</v>
       </c>
       <c r="D120" t="n">
-        <v>2.27006</v>
+        <v>2.29228</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.559901</v>
+        <v>0.554417</v>
       </c>
       <c r="C121" t="n">
-        <v>0.456107</v>
+        <v>0.454163</v>
       </c>
       <c r="D121" t="n">
-        <v>2.96258</v>
+        <v>2.99025</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.529605</v>
+        <v>0.554293</v>
       </c>
       <c r="C122" t="n">
-        <v>0.449372</v>
+        <v>0.452294</v>
       </c>
       <c r="D122" t="n">
-        <v>2.89019</v>
+        <v>2.94567</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.522165</v>
+        <v>0.546473</v>
       </c>
       <c r="C123" t="n">
-        <v>0.644382</v>
+        <v>0.641168</v>
       </c>
       <c r="D123" t="n">
-        <v>2.84554</v>
+        <v>2.90523</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.713435</v>
+        <v>0.740227</v>
       </c>
       <c r="C124" t="n">
-        <v>0.636728</v>
+        <v>0.636135</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80982</v>
+        <v>2.86588</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.711541</v>
+        <v>0.729444</v>
       </c>
       <c r="C125" t="n">
-        <v>0.629507</v>
+        <v>0.628075</v>
       </c>
       <c r="D125" t="n">
-        <v>2.7798</v>
+        <v>2.83699</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.715808</v>
+        <v>0.7102889999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6235579999999999</v>
+        <v>0.623412</v>
       </c>
       <c r="D126" t="n">
-        <v>2.75445</v>
+        <v>2.80662</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.699898</v>
+        <v>0.713583</v>
       </c>
       <c r="C127" t="n">
-        <v>0.618949</v>
+        <v>0.617328</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72974</v>
+        <v>2.77863</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.688095</v>
+        <v>0.6986599999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.616223</v>
+        <v>0.610426</v>
       </c>
       <c r="D128" t="n">
-        <v>2.7066</v>
+        <v>2.75345</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.678418</v>
+        <v>0.698172</v>
       </c>
       <c r="C129" t="n">
-        <v>0.609345</v>
+        <v>0.606071</v>
       </c>
       <c r="D129" t="n">
-        <v>2.69415</v>
+        <v>2.74158</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.672123</v>
+        <v>0.691245</v>
       </c>
       <c r="C130" t="n">
-        <v>0.59507</v>
+        <v>0.5948290000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>2.68277</v>
+        <v>2.72918</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.66232</v>
+        <v>0.675376</v>
       </c>
       <c r="C131" t="n">
-        <v>0.598485</v>
+        <v>0.594727</v>
       </c>
       <c r="D131" t="n">
-        <v>2.67359</v>
+        <v>2.71602</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.663693</v>
+        <v>0.669853</v>
       </c>
       <c r="C132" t="n">
-        <v>0.584718</v>
+        <v>0.5845630000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>2.65756</v>
+        <v>2.70858</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.667703</v>
+        <v>0.660613</v>
       </c>
       <c r="C133" t="n">
-        <v>0.591795</v>
+        <v>0.588314</v>
       </c>
       <c r="D133" t="n">
-        <v>2.64845</v>
+        <v>2.70585</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.647443</v>
+        <v>0.659834</v>
       </c>
       <c r="C134" t="n">
-        <v>0.58936</v>
+        <v>0.582365</v>
       </c>
       <c r="D134" t="n">
-        <v>2.63659</v>
+        <v>2.69214</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.648381</v>
+        <v>0.65121</v>
       </c>
       <c r="C135" t="n">
-        <v>0.561832</v>
+        <v>0.550431</v>
       </c>
       <c r="D135" t="n">
-        <v>3.34512</v>
+        <v>3.4123</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.627628</v>
+        <v>0.637621</v>
       </c>
       <c r="C136" t="n">
-        <v>0.547835</v>
+        <v>0.554267</v>
       </c>
       <c r="D136" t="n">
-        <v>3.29111</v>
+        <v>3.34649</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.640635</v>
+        <v>0.636663</v>
       </c>
       <c r="C137" t="n">
-        <v>0.747735</v>
+        <v>0.734805</v>
       </c>
       <c r="D137" t="n">
-        <v>3.24017</v>
+        <v>3.28743</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.795396</v>
+        <v>0.7965140000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.741689</v>
+        <v>0.729919</v>
       </c>
       <c r="D138" t="n">
-        <v>3.19481</v>
+        <v>3.24398</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.789481</v>
+        <v>0.79353</v>
       </c>
       <c r="C139" t="n">
-        <v>0.735256</v>
+        <v>0.729787</v>
       </c>
       <c r="D139" t="n">
-        <v>3.14818</v>
+        <v>3.20337</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.796745</v>
+        <v>0.789031</v>
       </c>
       <c r="C140" t="n">
-        <v>0.730617</v>
+        <v>0.728624</v>
       </c>
       <c r="D140" t="n">
-        <v>3.10668</v>
+        <v>3.16427</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.795923</v>
+        <v>0.801177</v>
       </c>
       <c r="C141" t="n">
-        <v>0.745235</v>
+        <v>0.720242</v>
       </c>
       <c r="D141" t="n">
-        <v>3.07863</v>
+        <v>3.12696</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.795314</v>
+        <v>0.792283</v>
       </c>
       <c r="C142" t="n">
-        <v>0.723868</v>
+        <v>0.744471</v>
       </c>
       <c r="D142" t="n">
-        <v>3.05476</v>
+        <v>3.10938</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.787612</v>
+        <v>0.788934</v>
       </c>
       <c r="C143" t="n">
-        <v>0.722929</v>
+        <v>0.7385389999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>3.02878</v>
+        <v>3.08521</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.239999</v>
+        <v>0.243347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216258</v>
+        <v>0.210173</v>
       </c>
       <c r="D2" t="n">
-        <v>0.556905</v>
+        <v>0.551065</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242536</v>
+        <v>0.230933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211155</v>
+        <v>0.205515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549783</v>
+        <v>0.542399</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.228816</v>
+        <v>0.227087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205428</v>
+        <v>0.200768</v>
       </c>
       <c r="D4" t="n">
-        <v>0.543459</v>
+        <v>0.536944</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.219658</v>
+        <v>0.222285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200678</v>
+        <v>0.196342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53859</v>
+        <v>0.532768</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.217234</v>
+        <v>0.219949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197966</v>
+        <v>0.193157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.535657</v>
+        <v>0.527108</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213446</v>
+        <v>0.214728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196031</v>
+        <v>0.190912</v>
       </c>
       <c r="D7" t="n">
-        <v>0.682629</v>
+        <v>0.682333</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216115</v>
+        <v>0.218285</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197008</v>
+        <v>0.191559</v>
       </c>
       <c r="D8" t="n">
-        <v>0.667784</v>
+        <v>0.667415</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21658</v>
+        <v>0.212438</v>
       </c>
       <c r="C9" t="n">
-        <v>0.287113</v>
+        <v>0.279949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.655641</v>
+        <v>0.654851</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30538</v>
+        <v>0.305782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278661</v>
+        <v>0.27159</v>
       </c>
       <c r="D10" t="n">
-        <v>0.641656</v>
+        <v>0.642764</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298957</v>
+        <v>0.293631</v>
       </c>
       <c r="C11" t="n">
-        <v>0.267084</v>
+        <v>0.262544</v>
       </c>
       <c r="D11" t="n">
-        <v>0.630356</v>
+        <v>0.630358</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286209</v>
+        <v>0.286897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25862</v>
+        <v>0.253906</v>
       </c>
       <c r="D12" t="n">
-        <v>0.620888</v>
+        <v>0.624297</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.28672</v>
+        <v>0.280362</v>
       </c>
       <c r="C13" t="n">
-        <v>0.251172</v>
+        <v>0.244572</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6113690000000001</v>
+        <v>0.613722</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.267543</v>
+        <v>0.268306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245766</v>
+        <v>0.238236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.604858</v>
+        <v>0.605531</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265191</v>
+        <v>0.255874</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236696</v>
+        <v>0.230265</v>
       </c>
       <c r="D15" t="n">
-        <v>0.596688</v>
+        <v>0.59818</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.264026</v>
+        <v>0.255596</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230371</v>
+        <v>0.224089</v>
       </c>
       <c r="D16" t="n">
-        <v>0.590619</v>
+        <v>0.593678</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.246163</v>
+        <v>0.246183</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225625</v>
+        <v>0.218371</v>
       </c>
       <c r="D17" t="n">
-        <v>0.584758</v>
+        <v>0.58806</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.241608</v>
+        <v>0.245945</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220217</v>
+        <v>0.21827</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5797369999999999</v>
+        <v>0.5794859999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.232954</v>
+        <v>0.23439</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215441</v>
+        <v>0.209659</v>
       </c>
       <c r="D19" t="n">
-        <v>0.573596</v>
+        <v>0.577397</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.235731</v>
+        <v>0.23481</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212934</v>
+        <v>0.206759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.569881</v>
+        <v>0.573424</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230463</v>
+        <v>0.227437</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210695</v>
+        <v>0.206558</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7459440000000001</v>
+        <v>0.747383</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221832</v>
+        <v>0.223641</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211321</v>
+        <v>0.206336</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7290759999999999</v>
+        <v>0.734152</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22861</v>
+        <v>0.222182</v>
       </c>
       <c r="C23" t="n">
-        <v>0.303514</v>
+        <v>0.296675</v>
       </c>
       <c r="D23" t="n">
-        <v>0.717263</v>
+        <v>0.719082</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311608</v>
+        <v>0.311709</v>
       </c>
       <c r="C24" t="n">
-        <v>0.293529</v>
+        <v>0.28454</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7029029999999999</v>
+        <v>0.703488</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306267</v>
+        <v>0.306287</v>
       </c>
       <c r="C25" t="n">
-        <v>0.281683</v>
+        <v>0.275821</v>
       </c>
       <c r="D25" t="n">
-        <v>0.690512</v>
+        <v>0.690956</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29673</v>
+        <v>0.296843</v>
       </c>
       <c r="C26" t="n">
-        <v>0.272994</v>
+        <v>0.267078</v>
       </c>
       <c r="D26" t="n">
-        <v>0.679155</v>
+        <v>0.682691</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285626</v>
+        <v>0.286271</v>
       </c>
       <c r="C27" t="n">
-        <v>0.267554</v>
+        <v>0.259235</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6707880000000001</v>
+        <v>0.671369</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.281206</v>
+        <v>0.277262</v>
       </c>
       <c r="C28" t="n">
-        <v>0.259042</v>
+        <v>0.251261</v>
       </c>
       <c r="D28" t="n">
-        <v>0.659211</v>
+        <v>0.662548</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280108</v>
+        <v>0.268874</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249162</v>
+        <v>0.243253</v>
       </c>
       <c r="D29" t="n">
-        <v>0.651433</v>
+        <v>0.654142</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261291</v>
+        <v>0.259822</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242755</v>
+        <v>0.237308</v>
       </c>
       <c r="D30" t="n">
-        <v>0.643875</v>
+        <v>0.647103</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.261793</v>
+        <v>0.258754</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237032</v>
+        <v>0.231632</v>
       </c>
       <c r="D31" t="n">
-        <v>0.637926</v>
+        <v>0.641135</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250087</v>
+        <v>0.250862</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233222</v>
+        <v>0.224974</v>
       </c>
       <c r="D32" t="n">
-        <v>0.632356</v>
+        <v>0.635679</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.240899</v>
+        <v>0.245243</v>
       </c>
       <c r="C33" t="n">
-        <v>0.226098</v>
+        <v>0.220084</v>
       </c>
       <c r="D33" t="n">
-        <v>0.627379</v>
+        <v>0.629445</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235917</v>
+        <v>0.23708</v>
       </c>
       <c r="C34" t="n">
-        <v>0.221983</v>
+        <v>0.217644</v>
       </c>
       <c r="D34" t="n">
-        <v>0.623524</v>
+        <v>0.625263</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.237374</v>
+        <v>0.232303</v>
       </c>
       <c r="C35" t="n">
-        <v>0.219252</v>
+        <v>0.213575</v>
       </c>
       <c r="D35" t="n">
-        <v>0.807987</v>
+        <v>0.812035</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228584</v>
+        <v>0.235519</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220746</v>
+        <v>0.213396</v>
       </c>
       <c r="D36" t="n">
-        <v>0.79056</v>
+        <v>0.794602</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231736</v>
+        <v>0.227492</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313559</v>
+        <v>0.306902</v>
       </c>
       <c r="D37" t="n">
-        <v>0.776363</v>
+        <v>0.778592</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320533</v>
+        <v>0.319093</v>
       </c>
       <c r="C38" t="n">
-        <v>0.304074</v>
+        <v>0.296146</v>
       </c>
       <c r="D38" t="n">
-        <v>0.760579</v>
+        <v>0.764203</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308846</v>
+        <v>0.30591</v>
       </c>
       <c r="C39" t="n">
-        <v>0.29324</v>
+        <v>0.286117</v>
       </c>
       <c r="D39" t="n">
-        <v>0.746816</v>
+        <v>0.748277</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.298507</v>
+        <v>0.302417</v>
       </c>
       <c r="C40" t="n">
-        <v>0.285253</v>
+        <v>0.277575</v>
       </c>
       <c r="D40" t="n">
-        <v>0.734172</v>
+        <v>0.7372610000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291809</v>
+        <v>0.293824</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276467</v>
+        <v>0.269244</v>
       </c>
       <c r="D41" t="n">
-        <v>0.72297</v>
+        <v>0.724347</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280129</v>
+        <v>0.288532</v>
       </c>
       <c r="C42" t="n">
-        <v>0.270512</v>
+        <v>0.263016</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7132309999999999</v>
+        <v>0.7152269999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272389</v>
+        <v>0.277912</v>
       </c>
       <c r="C43" t="n">
-        <v>0.259746</v>
+        <v>0.253755</v>
       </c>
       <c r="D43" t="n">
-        <v>0.702747</v>
+        <v>0.704723</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.272147</v>
+        <v>0.273692</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25392</v>
+        <v>0.247393</v>
       </c>
       <c r="D44" t="n">
-        <v>0.694717</v>
+        <v>0.696761</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261737</v>
+        <v>0.259413</v>
       </c>
       <c r="C45" t="n">
-        <v>0.249739</v>
+        <v>0.240482</v>
       </c>
       <c r="D45" t="n">
-        <v>0.687435</v>
+        <v>0.6894439999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.264249</v>
+        <v>0.259975</v>
       </c>
       <c r="C46" t="n">
-        <v>0.241009</v>
+        <v>0.235368</v>
       </c>
       <c r="D46" t="n">
-        <v>0.680606</v>
+        <v>0.682315</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250438</v>
+        <v>0.250547</v>
       </c>
       <c r="C47" t="n">
-        <v>0.234189</v>
+        <v>0.230239</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6751200000000001</v>
+        <v>0.675311</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.245265</v>
+        <v>0.24291</v>
       </c>
       <c r="C48" t="n">
-        <v>0.22982</v>
+        <v>0.226349</v>
       </c>
       <c r="D48" t="n">
-        <v>0.669948</v>
+        <v>0.671725</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2419</v>
+        <v>0.246087</v>
       </c>
       <c r="C49" t="n">
-        <v>0.225818</v>
+        <v>0.222592</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6653790000000001</v>
+        <v>0.66738</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239574</v>
+        <v>0.237776</v>
       </c>
       <c r="C50" t="n">
-        <v>0.22742</v>
+        <v>0.22022</v>
       </c>
       <c r="D50" t="n">
-        <v>0.841813</v>
+        <v>0.844182</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242397</v>
+        <v>0.23734</v>
       </c>
       <c r="C51" t="n">
-        <v>0.326075</v>
+        <v>0.314816</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825098</v>
+        <v>0.8268720000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.236253</v>
+        <v>0.241124</v>
       </c>
       <c r="C52" t="n">
-        <v>0.318694</v>
+        <v>0.30587</v>
       </c>
       <c r="D52" t="n">
-        <v>0.80841</v>
+        <v>0.809869</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.323716</v>
+        <v>0.319614</v>
       </c>
       <c r="C53" t="n">
-        <v>0.310105</v>
+        <v>0.297838</v>
       </c>
       <c r="D53" t="n">
-        <v>0.793315</v>
+        <v>0.7943249999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.31696</v>
+        <v>0.309458</v>
       </c>
       <c r="C54" t="n">
-        <v>0.302636</v>
+        <v>0.289097</v>
       </c>
       <c r="D54" t="n">
-        <v>0.778752</v>
+        <v>0.7809430000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.301443</v>
+        <v>0.305994</v>
       </c>
       <c r="C55" t="n">
-        <v>0.291833</v>
+        <v>0.279753</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7665729999999999</v>
+        <v>0.768588</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.295251</v>
+        <v>0.292812</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285721</v>
+        <v>0.273023</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7548240000000001</v>
+        <v>0.756786</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.288986</v>
+        <v>0.283966</v>
       </c>
       <c r="C57" t="n">
-        <v>0.277131</v>
+        <v>0.266101</v>
       </c>
       <c r="D57" t="n">
-        <v>0.743816</v>
+        <v>0.745591</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.291204</v>
+        <v>0.280191</v>
       </c>
       <c r="C58" t="n">
-        <v>0.270099</v>
+        <v>0.258334</v>
       </c>
       <c r="D58" t="n">
-        <v>0.734669</v>
+        <v>0.736296</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.284296</v>
+        <v>0.274822</v>
       </c>
       <c r="C59" t="n">
-        <v>0.262732</v>
+        <v>0.252125</v>
       </c>
       <c r="D59" t="n">
-        <v>0.725696</v>
+        <v>0.727483</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267868</v>
+        <v>0.265183</v>
       </c>
       <c r="C60" t="n">
-        <v>0.257993</v>
+        <v>0.247149</v>
       </c>
       <c r="D60" t="n">
-        <v>0.718225</v>
+        <v>0.719666</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257707</v>
+        <v>0.263218</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249692</v>
+        <v>0.243637</v>
       </c>
       <c r="D61" t="n">
-        <v>0.710799</v>
+        <v>0.712533</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.26381</v>
+        <v>0.262975</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244297</v>
+        <v>0.239132</v>
       </c>
       <c r="D62" t="n">
-        <v>0.704902</v>
+        <v>0.705505</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.256827</v>
+        <v>0.256508</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240269</v>
+        <v>0.234727</v>
       </c>
       <c r="D63" t="n">
-        <v>0.700129</v>
+        <v>0.700698</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.249746</v>
+        <v>0.248207</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239317</v>
+        <v>0.231946</v>
       </c>
       <c r="D64" t="n">
-        <v>0.903896</v>
+        <v>0.908346</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246958</v>
+        <v>0.246442</v>
       </c>
       <c r="C65" t="n">
-        <v>0.240447</v>
+        <v>0.2332</v>
       </c>
       <c r="D65" t="n">
-        <v>0.884315</v>
+        <v>0.890143</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.245442</v>
+        <v>0.248077</v>
       </c>
       <c r="C66" t="n">
-        <v>0.339275</v>
+        <v>0.343712</v>
       </c>
       <c r="D66" t="n">
-        <v>0.866202</v>
+        <v>0.87209</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.37982</v>
+        <v>0.385429</v>
       </c>
       <c r="C67" t="n">
-        <v>0.335784</v>
+        <v>0.334329</v>
       </c>
       <c r="D67" t="n">
-        <v>0.849569</v>
+        <v>0.855656</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.387863</v>
+        <v>0.377977</v>
       </c>
       <c r="C68" t="n">
-        <v>0.327356</v>
+        <v>0.328598</v>
       </c>
       <c r="D68" t="n">
-        <v>0.83503</v>
+        <v>0.840404</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.369431</v>
+        <v>0.38375</v>
       </c>
       <c r="C69" t="n">
-        <v>0.315154</v>
+        <v>0.31477</v>
       </c>
       <c r="D69" t="n">
-        <v>0.823804</v>
+        <v>0.82795</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.361553</v>
+        <v>0.35647</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307238</v>
+        <v>0.308011</v>
       </c>
       <c r="D70" t="n">
-        <v>0.813016</v>
+        <v>0.816553</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.354288</v>
+        <v>0.372042</v>
       </c>
       <c r="C71" t="n">
-        <v>0.30177</v>
+        <v>0.299509</v>
       </c>
       <c r="D71" t="n">
-        <v>0.803224</v>
+        <v>0.807017</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.361933</v>
+        <v>0.350617</v>
       </c>
       <c r="C72" t="n">
-        <v>0.29376</v>
+        <v>0.297754</v>
       </c>
       <c r="D72" t="n">
-        <v>0.795619</v>
+        <v>0.799428</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350985</v>
+        <v>0.340708</v>
       </c>
       <c r="C73" t="n">
-        <v>0.28742</v>
+        <v>0.290115</v>
       </c>
       <c r="D73" t="n">
-        <v>0.78916</v>
+        <v>0.793777</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.324547</v>
+        <v>0.329008</v>
       </c>
       <c r="C74" t="n">
-        <v>0.284519</v>
+        <v>0.279743</v>
       </c>
       <c r="D74" t="n">
-        <v>0.784784</v>
+        <v>0.788978</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.328261</v>
+        <v>0.340912</v>
       </c>
       <c r="C75" t="n">
-        <v>0.277397</v>
+        <v>0.276934</v>
       </c>
       <c r="D75" t="n">
-        <v>0.783718</v>
+        <v>0.786496</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.37654</v>
+        <v>0.369431</v>
       </c>
       <c r="C76" t="n">
-        <v>0.272885</v>
+        <v>0.271074</v>
       </c>
       <c r="D76" t="n">
-        <v>0.782311</v>
+        <v>0.786631</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.333836</v>
+        <v>0.327068</v>
       </c>
       <c r="C77" t="n">
-        <v>0.270432</v>
+        <v>0.268779</v>
       </c>
       <c r="D77" t="n">
-        <v>0.78274</v>
+        <v>0.785904</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.342433</v>
+        <v>0.337948</v>
       </c>
       <c r="C78" t="n">
-        <v>0.265384</v>
+        <v>0.267174</v>
       </c>
       <c r="D78" t="n">
-        <v>1.26305</v>
+        <v>1.2704</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315235</v>
+        <v>0.310918</v>
       </c>
       <c r="C79" t="n">
-        <v>0.262698</v>
+        <v>0.26577</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2398</v>
+        <v>1.2501</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321887</v>
+        <v>0.329803</v>
       </c>
       <c r="C80" t="n">
-        <v>0.395391</v>
+        <v>0.406989</v>
       </c>
       <c r="D80" t="n">
-        <v>1.22266</v>
+        <v>1.23238</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.44721</v>
+        <v>0.448597</v>
       </c>
       <c r="C81" t="n">
-        <v>0.388352</v>
+        <v>0.398703</v>
       </c>
       <c r="D81" t="n">
-        <v>1.2041</v>
+        <v>1.2125</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.430584</v>
+        <v>0.436596</v>
       </c>
       <c r="C82" t="n">
-        <v>0.381507</v>
+        <v>0.393052</v>
       </c>
       <c r="D82" t="n">
-        <v>1.19061</v>
+        <v>1.19835</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.410522</v>
+        <v>0.46192</v>
       </c>
       <c r="C83" t="n">
-        <v>0.372319</v>
+        <v>0.381716</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17862</v>
+        <v>1.18581</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.456135</v>
+        <v>0.43607</v>
       </c>
       <c r="C84" t="n">
-        <v>0.361844</v>
+        <v>0.37494</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16851</v>
+        <v>1.1786</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.410143</v>
+        <v>0.442012</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358143</v>
+        <v>0.364079</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16527</v>
+        <v>1.17287</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.411616</v>
+        <v>0.403178</v>
       </c>
       <c r="C86" t="n">
-        <v>0.351883</v>
+        <v>0.357302</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16245</v>
+        <v>1.16968</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.398413</v>
+        <v>0.413328</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345979</v>
+        <v>0.350156</v>
       </c>
       <c r="D87" t="n">
-        <v>1.16387</v>
+        <v>1.16831</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.405829</v>
+        <v>0.383545</v>
       </c>
       <c r="C88" t="n">
-        <v>0.335334</v>
+        <v>0.342492</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16524</v>
+        <v>1.17384</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.406288</v>
+        <v>0.40226</v>
       </c>
       <c r="C89" t="n">
-        <v>0.331717</v>
+        <v>0.336764</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17555</v>
+        <v>1.18924</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.458615</v>
+        <v>0.466007</v>
       </c>
       <c r="C90" t="n">
-        <v>0.324783</v>
+        <v>0.327845</v>
       </c>
       <c r="D90" t="n">
-        <v>1.18504</v>
+        <v>1.19702</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.432183</v>
+        <v>0.451786</v>
       </c>
       <c r="C91" t="n">
-        <v>0.320673</v>
+        <v>0.323854</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19833</v>
+        <v>1.21358</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.387887</v>
+        <v>0.380466</v>
       </c>
       <c r="C92" t="n">
-        <v>0.319164</v>
+        <v>0.318168</v>
       </c>
       <c r="D92" t="n">
-        <v>1.78466</v>
+        <v>1.81341</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.387909</v>
+        <v>0.39107</v>
       </c>
       <c r="C93" t="n">
-        <v>0.314451</v>
+        <v>0.320697</v>
       </c>
       <c r="D93" t="n">
-        <v>1.76909</v>
+        <v>1.80223</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.355964</v>
+        <v>0.379921</v>
       </c>
       <c r="C94" t="n">
-        <v>0.505362</v>
+        <v>0.519131</v>
       </c>
       <c r="D94" t="n">
-        <v>1.75061</v>
+        <v>1.78881</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.576175</v>
+        <v>0.579923</v>
       </c>
       <c r="C95" t="n">
-        <v>0.498791</v>
+        <v>0.513366</v>
       </c>
       <c r="D95" t="n">
-        <v>1.73807</v>
+        <v>1.77306</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.572183</v>
+        <v>0.568341</v>
       </c>
       <c r="C96" t="n">
-        <v>0.490526</v>
+        <v>0.502678</v>
       </c>
       <c r="D96" t="n">
-        <v>1.72362</v>
+        <v>1.7625</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.57142</v>
+        <v>0.582248</v>
       </c>
       <c r="C97" t="n">
-        <v>0.475019</v>
+        <v>0.490889</v>
       </c>
       <c r="D97" t="n">
-        <v>1.71764</v>
+        <v>1.75151</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.519381</v>
+        <v>0.56041</v>
       </c>
       <c r="C98" t="n">
-        <v>0.467625</v>
+        <v>0.479616</v>
       </c>
       <c r="D98" t="n">
-        <v>1.71152</v>
+        <v>1.74118</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.517466</v>
+        <v>0.546964</v>
       </c>
       <c r="C99" t="n">
-        <v>0.456028</v>
+        <v>0.469494</v>
       </c>
       <c r="D99" t="n">
-        <v>1.7097</v>
+        <v>1.73758</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.521257</v>
+        <v>0.54699</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447909</v>
+        <v>0.459282</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71223</v>
+        <v>1.73359</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.497473</v>
+        <v>0.530264</v>
       </c>
       <c r="C101" t="n">
-        <v>0.440481</v>
+        <v>0.447978</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71862</v>
+        <v>1.74235</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.501478</v>
+        <v>0.543061</v>
       </c>
       <c r="C102" t="n">
-        <v>0.428646</v>
+        <v>0.441456</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72723</v>
+        <v>1.74648</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.482405</v>
+        <v>0.546485</v>
       </c>
       <c r="C103" t="n">
-        <v>0.420963</v>
+        <v>0.431019</v>
       </c>
       <c r="D103" t="n">
-        <v>1.73257</v>
+        <v>1.75192</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.487894</v>
+        <v>0.526399</v>
       </c>
       <c r="C104" t="n">
-        <v>0.413135</v>
+        <v>0.42515</v>
       </c>
       <c r="D104" t="n">
-        <v>1.74156</v>
+        <v>1.76043</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.494793</v>
+        <v>0.52568</v>
       </c>
       <c r="C105" t="n">
-        <v>0.408265</v>
+        <v>0.417166</v>
       </c>
       <c r="D105" t="n">
-        <v>1.75703</v>
+        <v>1.77289</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.487421</v>
+        <v>0.517673</v>
       </c>
       <c r="C106" t="n">
-        <v>0.403888</v>
+        <v>0.411595</v>
       </c>
       <c r="D106" t="n">
-        <v>1.77184</v>
+        <v>1.78887</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.487799</v>
+        <v>0.519512</v>
       </c>
       <c r="C107" t="n">
-        <v>0.402691</v>
+        <v>0.406295</v>
       </c>
       <c r="D107" t="n">
-        <v>2.39516</v>
+        <v>2.42735</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.467974</v>
+        <v>0.495929</v>
       </c>
       <c r="C108" t="n">
-        <v>0.595067</v>
+        <v>0.56979</v>
       </c>
       <c r="D108" t="n">
-        <v>2.3656</v>
+        <v>2.39954</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.483532</v>
+        <v>0.429853</v>
       </c>
       <c r="C109" t="n">
-        <v>0.587241</v>
+        <v>0.569763</v>
       </c>
       <c r="D109" t="n">
-        <v>2.33828</v>
+        <v>2.3731</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.670188</v>
+        <v>0.70282</v>
       </c>
       <c r="C110" t="n">
-        <v>0.578699</v>
+        <v>0.597433</v>
       </c>
       <c r="D110" t="n">
-        <v>2.31886</v>
+        <v>2.35185</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.659662</v>
+        <v>0.68776</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5661119999999999</v>
+        <v>0.584134</v>
       </c>
       <c r="D111" t="n">
-        <v>2.29869</v>
+        <v>2.33215</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.659596</v>
+        <v>0.667821</v>
       </c>
       <c r="C112" t="n">
-        <v>0.555689</v>
+        <v>0.535713</v>
       </c>
       <c r="D112" t="n">
-        <v>2.28559</v>
+        <v>2.3164</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6340249999999999</v>
+        <v>0.69054</v>
       </c>
       <c r="C113" t="n">
-        <v>0.543691</v>
+        <v>0.561441</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26678</v>
+        <v>2.3047</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.630808</v>
+        <v>0.626905</v>
       </c>
       <c r="C114" t="n">
-        <v>0.499064</v>
+        <v>0.518396</v>
       </c>
       <c r="D114" t="n">
-        <v>2.29517</v>
+        <v>2.33908</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6048</v>
+        <v>0.636956</v>
       </c>
       <c r="C115" t="n">
-        <v>0.497367</v>
+        <v>0.539729</v>
       </c>
       <c r="D115" t="n">
-        <v>2.29546</v>
+        <v>2.3475</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.571367</v>
+        <v>0.630586</v>
       </c>
       <c r="C116" t="n">
-        <v>0.488198</v>
+        <v>0.5302789999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>2.29199</v>
+        <v>2.33616</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.596173</v>
+        <v>0.626257</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5075539999999999</v>
+        <v>0.521271</v>
       </c>
       <c r="D117" t="n">
-        <v>2.29251</v>
+        <v>2.34406</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5916090000000001</v>
+        <v>0.622286</v>
       </c>
       <c r="C118" t="n">
-        <v>0.496857</v>
+        <v>0.5128</v>
       </c>
       <c r="D118" t="n">
-        <v>2.2528</v>
+        <v>2.29065</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.554144</v>
+        <v>0.589346</v>
       </c>
       <c r="C119" t="n">
-        <v>0.469243</v>
+        <v>0.480021</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25903</v>
+        <v>2.2957</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.533649</v>
+        <v>0.587862</v>
       </c>
       <c r="C120" t="n">
-        <v>0.463613</v>
+        <v>0.471167</v>
       </c>
       <c r="D120" t="n">
-        <v>2.27006</v>
+        <v>2.30118</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.559901</v>
+        <v>0.564536</v>
       </c>
       <c r="C121" t="n">
-        <v>0.456107</v>
+        <v>0.465941</v>
       </c>
       <c r="D121" t="n">
-        <v>2.96258</v>
+        <v>3.01949</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.529605</v>
+        <v>0.559792</v>
       </c>
       <c r="C122" t="n">
-        <v>0.449372</v>
+        <v>0.464566</v>
       </c>
       <c r="D122" t="n">
-        <v>2.89019</v>
+        <v>2.97595</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.522165</v>
+        <v>0.580478</v>
       </c>
       <c r="C123" t="n">
-        <v>0.644382</v>
+        <v>0.67205</v>
       </c>
       <c r="D123" t="n">
-        <v>2.84554</v>
+        <v>2.93345</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.713435</v>
+        <v>0.768091</v>
       </c>
       <c r="C124" t="n">
-        <v>0.636728</v>
+        <v>0.66455</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80982</v>
+        <v>2.8867</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.711541</v>
+        <v>0.777392</v>
       </c>
       <c r="C125" t="n">
-        <v>0.629507</v>
+        <v>0.65776</v>
       </c>
       <c r="D125" t="n">
-        <v>2.7798</v>
+        <v>2.85916</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.715808</v>
+        <v>0.754346</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6235579999999999</v>
+        <v>0.651221</v>
       </c>
       <c r="D126" t="n">
-        <v>2.75445</v>
+        <v>2.83242</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.699898</v>
+        <v>0.757355</v>
       </c>
       <c r="C127" t="n">
-        <v>0.618949</v>
+        <v>0.645348</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72974</v>
+        <v>2.80571</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.688095</v>
+        <v>0.735635</v>
       </c>
       <c r="C128" t="n">
-        <v>0.616223</v>
+        <v>0.639507</v>
       </c>
       <c r="D128" t="n">
-        <v>2.7066</v>
+        <v>2.78223</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.678418</v>
+        <v>0.738171</v>
       </c>
       <c r="C129" t="n">
-        <v>0.609345</v>
+        <v>0.633866</v>
       </c>
       <c r="D129" t="n">
-        <v>2.69415</v>
+        <v>2.76759</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.672123</v>
+        <v>0.7264930000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.59507</v>
+        <v>0.626011</v>
       </c>
       <c r="D130" t="n">
-        <v>2.68277</v>
+        <v>2.75339</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.66232</v>
+        <v>0.719852</v>
       </c>
       <c r="C131" t="n">
-        <v>0.598485</v>
+        <v>0.6368780000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>2.67359</v>
+        <v>2.74442</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.663693</v>
+        <v>0.707857</v>
       </c>
       <c r="C132" t="n">
-        <v>0.584718</v>
+        <v>0.619209</v>
       </c>
       <c r="D132" t="n">
-        <v>2.65756</v>
+        <v>2.73334</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.667703</v>
+        <v>0.703712</v>
       </c>
       <c r="C133" t="n">
-        <v>0.591795</v>
+        <v>0.614249</v>
       </c>
       <c r="D133" t="n">
-        <v>2.64845</v>
+        <v>2.72759</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.647443</v>
+        <v>0.693964</v>
       </c>
       <c r="C134" t="n">
-        <v>0.58936</v>
+        <v>0.60999</v>
       </c>
       <c r="D134" t="n">
-        <v>2.63659</v>
+        <v>2.72234</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.648381</v>
+        <v>0.682962</v>
       </c>
       <c r="C135" t="n">
-        <v>0.561832</v>
+        <v>0.607138</v>
       </c>
       <c r="D135" t="n">
-        <v>3.34512</v>
+        <v>3.46956</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.627628</v>
+        <v>0.6487619999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.547835</v>
+        <v>0.581201</v>
       </c>
       <c r="D136" t="n">
-        <v>3.29111</v>
+        <v>3.40857</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.640635</v>
+        <v>0.650404</v>
       </c>
       <c r="C137" t="n">
-        <v>0.747735</v>
+        <v>0.78346</v>
       </c>
       <c r="D137" t="n">
-        <v>3.24017</v>
+        <v>3.35012</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.795396</v>
+        <v>0.860311</v>
       </c>
       <c r="C138" t="n">
-        <v>0.741689</v>
+        <v>0.777829</v>
       </c>
       <c r="D138" t="n">
-        <v>3.19481</v>
+        <v>3.30733</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.789481</v>
+        <v>0.841546</v>
       </c>
       <c r="C139" t="n">
-        <v>0.735256</v>
+        <v>0.772848</v>
       </c>
       <c r="D139" t="n">
-        <v>3.14818</v>
+        <v>3.25962</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.796745</v>
+        <v>0.864662</v>
       </c>
       <c r="C140" t="n">
-        <v>0.730617</v>
+        <v>0.7867690000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>3.10668</v>
+        <v>3.21862</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.795923</v>
+        <v>0.85988</v>
       </c>
       <c r="C141" t="n">
-        <v>0.745235</v>
+        <v>0.783419</v>
       </c>
       <c r="D141" t="n">
-        <v>3.07863</v>
+        <v>3.18112</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.795314</v>
+        <v>0.847444</v>
       </c>
       <c r="C142" t="n">
-        <v>0.723868</v>
+        <v>0.7792480000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>3.05476</v>
+        <v>3.16088</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.787612</v>
+        <v>0.839818</v>
       </c>
       <c r="C143" t="n">
-        <v>0.722929</v>
+        <v>0.775061</v>
       </c>
       <c r="D143" t="n">
-        <v>3.02878</v>
+        <v>3.13605</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.239999</v>
+        <v>0.240721</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216258</v>
+        <v>0.217429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.556905</v>
+        <v>0.548829</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242536</v>
+        <v>0.233485</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211155</v>
+        <v>0.211084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549783</v>
+        <v>0.541031</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.228816</v>
+        <v>0.226151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205428</v>
+        <v>0.206691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.543459</v>
+        <v>0.534948</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.219658</v>
+        <v>0.220733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200678</v>
+        <v>0.202368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53859</v>
+        <v>0.53035</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.217234</v>
+        <v>0.234146</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197966</v>
+        <v>0.197493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.535657</v>
+        <v>0.528599</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213446</v>
+        <v>0.215596</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196031</v>
+        <v>0.195406</v>
       </c>
       <c r="D7" t="n">
-        <v>0.682629</v>
+        <v>0.678704</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216115</v>
+        <v>0.213755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197008</v>
+        <v>0.196254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.667784</v>
+        <v>0.665998</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21658</v>
+        <v>0.214123</v>
       </c>
       <c r="C9" t="n">
-        <v>0.287113</v>
+        <v>0.285024</v>
       </c>
       <c r="D9" t="n">
-        <v>0.655641</v>
+        <v>0.65235</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30538</v>
+        <v>0.310761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278661</v>
+        <v>0.275554</v>
       </c>
       <c r="D10" t="n">
-        <v>0.641656</v>
+        <v>0.641189</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298957</v>
+        <v>0.296879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.267084</v>
+        <v>0.26565</v>
       </c>
       <c r="D11" t="n">
-        <v>0.630356</v>
+        <v>0.630501</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286209</v>
+        <v>0.299319</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25862</v>
+        <v>0.257291</v>
       </c>
       <c r="D12" t="n">
-        <v>0.620888</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.28672</v>
+        <v>0.282583</v>
       </c>
       <c r="C13" t="n">
-        <v>0.251172</v>
+        <v>0.250411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6113690000000001</v>
+        <v>0.613003</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.267543</v>
+        <v>0.264837</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245766</v>
+        <v>0.243242</v>
       </c>
       <c r="D14" t="n">
-        <v>0.604858</v>
+        <v>0.604068</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265191</v>
+        <v>0.265408</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236696</v>
+        <v>0.238123</v>
       </c>
       <c r="D15" t="n">
-        <v>0.596688</v>
+        <v>0.595919</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.264026</v>
+        <v>0.258126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230371</v>
+        <v>0.229835</v>
       </c>
       <c r="D16" t="n">
-        <v>0.590619</v>
+        <v>0.592209</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.246163</v>
+        <v>0.246799</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225625</v>
+        <v>0.224837</v>
       </c>
       <c r="D17" t="n">
-        <v>0.584758</v>
+        <v>0.5863429999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.241608</v>
+        <v>0.240265</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220217</v>
+        <v>0.220183</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5797369999999999</v>
+        <v>0.580035</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.232954</v>
+        <v>0.237134</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215441</v>
+        <v>0.214682</v>
       </c>
       <c r="D19" t="n">
-        <v>0.573596</v>
+        <v>0.577461</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.235731</v>
+        <v>0.23505</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212934</v>
+        <v>0.217166</v>
       </c>
       <c r="D20" t="n">
-        <v>0.569881</v>
+        <v>0.57131</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230463</v>
+        <v>0.229937</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210695</v>
+        <v>0.210985</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7459440000000001</v>
+        <v>0.745136</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221832</v>
+        <v>0.223811</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211321</v>
+        <v>0.212733</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7290759999999999</v>
+        <v>0.732217</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22861</v>
+        <v>0.229148</v>
       </c>
       <c r="C23" t="n">
-        <v>0.303514</v>
+        <v>0.304066</v>
       </c>
       <c r="D23" t="n">
-        <v>0.717263</v>
+        <v>0.718194</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311608</v>
+        <v>0.311011</v>
       </c>
       <c r="C24" t="n">
-        <v>0.293529</v>
+        <v>0.294331</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7029029999999999</v>
+        <v>0.7027409999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306267</v>
+        <v>0.307014</v>
       </c>
       <c r="C25" t="n">
-        <v>0.281683</v>
+        <v>0.282796</v>
       </c>
       <c r="D25" t="n">
-        <v>0.690512</v>
+        <v>0.692303</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29673</v>
+        <v>0.297431</v>
       </c>
       <c r="C26" t="n">
-        <v>0.272994</v>
+        <v>0.274469</v>
       </c>
       <c r="D26" t="n">
-        <v>0.679155</v>
+        <v>0.681712</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285626</v>
+        <v>0.286407</v>
       </c>
       <c r="C27" t="n">
-        <v>0.267554</v>
+        <v>0.265449</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6707880000000001</v>
+        <v>0.671802</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.281206</v>
+        <v>0.277386</v>
       </c>
       <c r="C28" t="n">
-        <v>0.259042</v>
+        <v>0.257359</v>
       </c>
       <c r="D28" t="n">
-        <v>0.659211</v>
+        <v>0.661775</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280108</v>
+        <v>0.270009</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249162</v>
+        <v>0.251012</v>
       </c>
       <c r="D29" t="n">
-        <v>0.651433</v>
+        <v>0.654174</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261291</v>
+        <v>0.260467</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242755</v>
+        <v>0.243807</v>
       </c>
       <c r="D30" t="n">
-        <v>0.643875</v>
+        <v>0.646109</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.261793</v>
+        <v>0.263585</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237032</v>
+        <v>0.23697</v>
       </c>
       <c r="D31" t="n">
-        <v>0.637926</v>
+        <v>0.640973</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250087</v>
+        <v>0.251285</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233222</v>
+        <v>0.232109</v>
       </c>
       <c r="D32" t="n">
-        <v>0.632356</v>
+        <v>0.634051</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.240899</v>
+        <v>0.245454</v>
       </c>
       <c r="C33" t="n">
-        <v>0.226098</v>
+        <v>0.2284</v>
       </c>
       <c r="D33" t="n">
-        <v>0.627379</v>
+        <v>0.628759</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235917</v>
+        <v>0.235783</v>
       </c>
       <c r="C34" t="n">
-        <v>0.221983</v>
+        <v>0.223194</v>
       </c>
       <c r="D34" t="n">
-        <v>0.623524</v>
+        <v>0.6254729999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.237374</v>
+        <v>0.232361</v>
       </c>
       <c r="C35" t="n">
-        <v>0.219252</v>
+        <v>0.2217</v>
       </c>
       <c r="D35" t="n">
-        <v>0.807987</v>
+        <v>0.810589</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228584</v>
+        <v>0.235432</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220746</v>
+        <v>0.219017</v>
       </c>
       <c r="D36" t="n">
-        <v>0.79056</v>
+        <v>0.793349</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231736</v>
+        <v>0.230485</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313559</v>
+        <v>0.31504</v>
       </c>
       <c r="D37" t="n">
-        <v>0.776363</v>
+        <v>0.776111</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320533</v>
+        <v>0.319012</v>
       </c>
       <c r="C38" t="n">
-        <v>0.304074</v>
+        <v>0.30523</v>
       </c>
       <c r="D38" t="n">
-        <v>0.760579</v>
+        <v>0.761574</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308846</v>
+        <v>0.310091</v>
       </c>
       <c r="C39" t="n">
-        <v>0.29324</v>
+        <v>0.296017</v>
       </c>
       <c r="D39" t="n">
-        <v>0.746816</v>
+        <v>0.748242</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.298507</v>
+        <v>0.304574</v>
       </c>
       <c r="C40" t="n">
-        <v>0.285253</v>
+        <v>0.285164</v>
       </c>
       <c r="D40" t="n">
-        <v>0.734172</v>
+        <v>0.735924</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291809</v>
+        <v>0.292706</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276467</v>
+        <v>0.277099</v>
       </c>
       <c r="D41" t="n">
-        <v>0.72297</v>
+        <v>0.724229</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280129</v>
+        <v>0.278926</v>
       </c>
       <c r="C42" t="n">
-        <v>0.270512</v>
+        <v>0.269971</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7132309999999999</v>
+        <v>0.714525</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272389</v>
+        <v>0.286546</v>
       </c>
       <c r="C43" t="n">
-        <v>0.259746</v>
+        <v>0.26274</v>
       </c>
       <c r="D43" t="n">
-        <v>0.702747</v>
+        <v>0.704016</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.272147</v>
+        <v>0.277163</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25392</v>
+        <v>0.25515</v>
       </c>
       <c r="D44" t="n">
-        <v>0.694717</v>
+        <v>0.695044</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261737</v>
+        <v>0.261159</v>
       </c>
       <c r="C45" t="n">
-        <v>0.249739</v>
+        <v>0.247465</v>
       </c>
       <c r="D45" t="n">
-        <v>0.687435</v>
+        <v>0.686554</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.264249</v>
+        <v>0.256578</v>
       </c>
       <c r="C46" t="n">
-        <v>0.241009</v>
+        <v>0.2413</v>
       </c>
       <c r="D46" t="n">
-        <v>0.680606</v>
+        <v>0.679589</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250438</v>
+        <v>0.24864</v>
       </c>
       <c r="C47" t="n">
-        <v>0.234189</v>
+        <v>0.238793</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6751200000000001</v>
+        <v>0.673453</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.245265</v>
+        <v>0.250138</v>
       </c>
       <c r="C48" t="n">
-        <v>0.22982</v>
+        <v>0.232371</v>
       </c>
       <c r="D48" t="n">
-        <v>0.669948</v>
+        <v>0.669412</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2419</v>
+        <v>0.238128</v>
       </c>
       <c r="C49" t="n">
-        <v>0.225818</v>
+        <v>0.228839</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6653790000000001</v>
+        <v>0.664253</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239574</v>
+        <v>0.235426</v>
       </c>
       <c r="C50" t="n">
-        <v>0.22742</v>
+        <v>0.227231</v>
       </c>
       <c r="D50" t="n">
-        <v>0.841813</v>
+        <v>0.843873</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242397</v>
+        <v>0.23506</v>
       </c>
       <c r="C51" t="n">
-        <v>0.326075</v>
+        <v>0.32819</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825098</v>
+        <v>0.826002</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.236253</v>
+        <v>0.23727</v>
       </c>
       <c r="C52" t="n">
-        <v>0.318694</v>
+        <v>0.318519</v>
       </c>
       <c r="D52" t="n">
-        <v>0.80841</v>
+        <v>0.809138</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.323716</v>
+        <v>0.3217</v>
       </c>
       <c r="C53" t="n">
-        <v>0.310105</v>
+        <v>0.309407</v>
       </c>
       <c r="D53" t="n">
-        <v>0.793315</v>
+        <v>0.794233</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.31696</v>
+        <v>0.310139</v>
       </c>
       <c r="C54" t="n">
-        <v>0.302636</v>
+        <v>0.300525</v>
       </c>
       <c r="D54" t="n">
-        <v>0.778752</v>
+        <v>0.77971</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.301443</v>
+        <v>0.309819</v>
       </c>
       <c r="C55" t="n">
-        <v>0.291833</v>
+        <v>0.292458</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7665729999999999</v>
+        <v>0.767219</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.295251</v>
+        <v>0.297857</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285721</v>
+        <v>0.285596</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7548240000000001</v>
+        <v>0.754922</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.288986</v>
+        <v>0.299803</v>
       </c>
       <c r="C57" t="n">
-        <v>0.277131</v>
+        <v>0.276854</v>
       </c>
       <c r="D57" t="n">
-        <v>0.743816</v>
+        <v>0.744739</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.291204</v>
+        <v>0.281901</v>
       </c>
       <c r="C58" t="n">
-        <v>0.270099</v>
+        <v>0.27004</v>
       </c>
       <c r="D58" t="n">
-        <v>0.734669</v>
+        <v>0.734316</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.284296</v>
+        <v>0.27277</v>
       </c>
       <c r="C59" t="n">
-        <v>0.262732</v>
+        <v>0.263183</v>
       </c>
       <c r="D59" t="n">
-        <v>0.725696</v>
+        <v>0.725519</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267868</v>
+        <v>0.27072</v>
       </c>
       <c r="C60" t="n">
-        <v>0.257993</v>
+        <v>0.261019</v>
       </c>
       <c r="D60" t="n">
-        <v>0.718225</v>
+        <v>0.717736</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257707</v>
+        <v>0.26873</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249692</v>
+        <v>0.252166</v>
       </c>
       <c r="D61" t="n">
-        <v>0.710799</v>
+        <v>0.710909</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.26381</v>
+        <v>0.266954</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244297</v>
+        <v>0.248102</v>
       </c>
       <c r="D62" t="n">
-        <v>0.704902</v>
+        <v>0.705281</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.256827</v>
+        <v>0.255859</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240269</v>
+        <v>0.245185</v>
       </c>
       <c r="D63" t="n">
-        <v>0.700129</v>
+        <v>0.699498</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.249746</v>
+        <v>0.255188</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239317</v>
+        <v>0.242863</v>
       </c>
       <c r="D64" t="n">
-        <v>0.903896</v>
+        <v>0.90933</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246958</v>
+        <v>0.24978</v>
       </c>
       <c r="C65" t="n">
-        <v>0.240447</v>
+        <v>0.242769</v>
       </c>
       <c r="D65" t="n">
-        <v>0.884315</v>
+        <v>0.891443</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.245442</v>
+        <v>0.249549</v>
       </c>
       <c r="C66" t="n">
-        <v>0.339275</v>
+        <v>0.337724</v>
       </c>
       <c r="D66" t="n">
-        <v>0.866202</v>
+        <v>0.8728900000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.37982</v>
+        <v>0.38841</v>
       </c>
       <c r="C67" t="n">
-        <v>0.335784</v>
+        <v>0.330041</v>
       </c>
       <c r="D67" t="n">
-        <v>0.849569</v>
+        <v>0.856341</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.387863</v>
+        <v>0.375226</v>
       </c>
       <c r="C68" t="n">
-        <v>0.327356</v>
+        <v>0.3264</v>
       </c>
       <c r="D68" t="n">
-        <v>0.83503</v>
+        <v>0.841642</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.369431</v>
+        <v>0.365729</v>
       </c>
       <c r="C69" t="n">
-        <v>0.315154</v>
+        <v>0.312857</v>
       </c>
       <c r="D69" t="n">
-        <v>0.823804</v>
+        <v>0.830326</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.361553</v>
+        <v>0.359254</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307238</v>
+        <v>0.305512</v>
       </c>
       <c r="D70" t="n">
-        <v>0.813016</v>
+        <v>0.818549</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.354288</v>
+        <v>0.35484</v>
       </c>
       <c r="C71" t="n">
-        <v>0.30177</v>
+        <v>0.302827</v>
       </c>
       <c r="D71" t="n">
-        <v>0.803224</v>
+        <v>0.808516</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.361933</v>
+        <v>0.33456</v>
       </c>
       <c r="C72" t="n">
-        <v>0.29376</v>
+        <v>0.292234</v>
       </c>
       <c r="D72" t="n">
-        <v>0.795619</v>
+        <v>0.800658</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350985</v>
+        <v>0.354528</v>
       </c>
       <c r="C73" t="n">
-        <v>0.28742</v>
+        <v>0.290392</v>
       </c>
       <c r="D73" t="n">
-        <v>0.78916</v>
+        <v>0.79419</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.324547</v>
+        <v>0.327873</v>
       </c>
       <c r="C74" t="n">
-        <v>0.284519</v>
+        <v>0.280772</v>
       </c>
       <c r="D74" t="n">
-        <v>0.784784</v>
+        <v>0.789968</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.328261</v>
+        <v>0.328076</v>
       </c>
       <c r="C75" t="n">
-        <v>0.277397</v>
+        <v>0.274729</v>
       </c>
       <c r="D75" t="n">
-        <v>0.783718</v>
+        <v>0.789307</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.37654</v>
+        <v>0.333094</v>
       </c>
       <c r="C76" t="n">
-        <v>0.272885</v>
+        <v>0.271263</v>
       </c>
       <c r="D76" t="n">
-        <v>0.782311</v>
+        <v>0.788486</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.333836</v>
+        <v>0.350084</v>
       </c>
       <c r="C77" t="n">
-        <v>0.270432</v>
+        <v>0.265949</v>
       </c>
       <c r="D77" t="n">
-        <v>0.78274</v>
+        <v>0.7890779999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.342433</v>
+        <v>0.321305</v>
       </c>
       <c r="C78" t="n">
-        <v>0.265384</v>
+        <v>0.266806</v>
       </c>
       <c r="D78" t="n">
-        <v>1.26305</v>
+        <v>1.25014</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315235</v>
+        <v>0.322029</v>
       </c>
       <c r="C79" t="n">
-        <v>0.262698</v>
+        <v>0.260421</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2398</v>
+        <v>1.22785</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321887</v>
+        <v>0.30438</v>
       </c>
       <c r="C80" t="n">
-        <v>0.395391</v>
+        <v>0.377399</v>
       </c>
       <c r="D80" t="n">
-        <v>1.22266</v>
+        <v>1.21073</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.44721</v>
+        <v>0.439031</v>
       </c>
       <c r="C81" t="n">
-        <v>0.388352</v>
+        <v>0.37194</v>
       </c>
       <c r="D81" t="n">
-        <v>1.2041</v>
+        <v>1.19456</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.430584</v>
+        <v>0.418829</v>
       </c>
       <c r="C82" t="n">
-        <v>0.381507</v>
+        <v>0.3669</v>
       </c>
       <c r="D82" t="n">
-        <v>1.19061</v>
+        <v>1.18139</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.410522</v>
+        <v>0.437153</v>
       </c>
       <c r="C83" t="n">
-        <v>0.372319</v>
+        <v>0.358818</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17862</v>
+        <v>1.17033</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.456135</v>
+        <v>0.42356</v>
       </c>
       <c r="C84" t="n">
-        <v>0.361844</v>
+        <v>0.35554</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16851</v>
+        <v>1.16328</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.410143</v>
+        <v>0.411306</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358143</v>
+        <v>0.34687</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16527</v>
+        <v>1.15691</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.411616</v>
+        <v>0.405815</v>
       </c>
       <c r="C86" t="n">
-        <v>0.351883</v>
+        <v>0.342583</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16245</v>
+        <v>1.15226</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.398413</v>
+        <v>0.402887</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345979</v>
+        <v>0.336195</v>
       </c>
       <c r="D87" t="n">
-        <v>1.16387</v>
+        <v>1.15309</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.405829</v>
+        <v>0.422242</v>
       </c>
       <c r="C88" t="n">
-        <v>0.335334</v>
+        <v>0.326237</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16524</v>
+        <v>1.15639</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.406288</v>
+        <v>0.399519</v>
       </c>
       <c r="C89" t="n">
-        <v>0.331717</v>
+        <v>0.325561</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17555</v>
+        <v>1.16606</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.458615</v>
+        <v>0.438221</v>
       </c>
       <c r="C90" t="n">
-        <v>0.324783</v>
+        <v>0.318153</v>
       </c>
       <c r="D90" t="n">
-        <v>1.18504</v>
+        <v>1.17358</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.432183</v>
+        <v>0.443363</v>
       </c>
       <c r="C91" t="n">
-        <v>0.320673</v>
+        <v>0.313305</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19833</v>
+        <v>1.18386</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.387887</v>
+        <v>0.367432</v>
       </c>
       <c r="C92" t="n">
-        <v>0.319164</v>
+        <v>0.30924</v>
       </c>
       <c r="D92" t="n">
-        <v>1.78466</v>
+        <v>1.75339</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.387909</v>
+        <v>0.42178</v>
       </c>
       <c r="C93" t="n">
-        <v>0.314451</v>
+        <v>0.304605</v>
       </c>
       <c r="D93" t="n">
-        <v>1.76909</v>
+        <v>1.74277</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.355964</v>
+        <v>0.366288</v>
       </c>
       <c r="C94" t="n">
-        <v>0.505362</v>
+        <v>0.504737</v>
       </c>
       <c r="D94" t="n">
-        <v>1.75061</v>
+        <v>1.73248</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.576175</v>
+        <v>0.603387</v>
       </c>
       <c r="C95" t="n">
-        <v>0.498791</v>
+        <v>0.497011</v>
       </c>
       <c r="D95" t="n">
-        <v>1.73807</v>
+        <v>1.71866</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.572183</v>
+        <v>0.543838</v>
       </c>
       <c r="C96" t="n">
-        <v>0.490526</v>
+        <v>0.488299</v>
       </c>
       <c r="D96" t="n">
-        <v>1.72362</v>
+        <v>1.70927</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.57142</v>
+        <v>0.544335</v>
       </c>
       <c r="C97" t="n">
-        <v>0.475019</v>
+        <v>0.477612</v>
       </c>
       <c r="D97" t="n">
-        <v>1.71764</v>
+        <v>1.70251</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.519381</v>
+        <v>0.534655</v>
       </c>
       <c r="C98" t="n">
-        <v>0.467625</v>
+        <v>0.465855</v>
       </c>
       <c r="D98" t="n">
-        <v>1.71152</v>
+        <v>1.69576</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.517466</v>
+        <v>0.538786</v>
       </c>
       <c r="C99" t="n">
-        <v>0.456028</v>
+        <v>0.455166</v>
       </c>
       <c r="D99" t="n">
-        <v>1.7097</v>
+        <v>1.69027</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.521257</v>
+        <v>0.52778</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447909</v>
+        <v>0.445814</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71223</v>
+        <v>1.69135</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.497473</v>
+        <v>0.518056</v>
       </c>
       <c r="C101" t="n">
-        <v>0.440481</v>
+        <v>0.435372</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71862</v>
+        <v>1.69737</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.501478</v>
+        <v>0.509355</v>
       </c>
       <c r="C102" t="n">
-        <v>0.428646</v>
+        <v>0.427815</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72723</v>
+        <v>1.70448</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.482405</v>
+        <v>0.483007</v>
       </c>
       <c r="C103" t="n">
-        <v>0.420963</v>
+        <v>0.419014</v>
       </c>
       <c r="D103" t="n">
-        <v>1.73257</v>
+        <v>1.71246</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.487894</v>
+        <v>0.508708</v>
       </c>
       <c r="C104" t="n">
-        <v>0.413135</v>
+        <v>0.413547</v>
       </c>
       <c r="D104" t="n">
-        <v>1.74156</v>
+        <v>1.72395</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.494793</v>
+        <v>0.505854</v>
       </c>
       <c r="C105" t="n">
-        <v>0.408265</v>
+        <v>0.405137</v>
       </c>
       <c r="D105" t="n">
-        <v>1.75703</v>
+        <v>1.73793</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.487421</v>
+        <v>0.477839</v>
       </c>
       <c r="C106" t="n">
-        <v>0.403888</v>
+        <v>0.401492</v>
       </c>
       <c r="D106" t="n">
-        <v>1.77184</v>
+        <v>1.75532</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.487799</v>
+        <v>0.48588</v>
       </c>
       <c r="C107" t="n">
-        <v>0.402691</v>
+        <v>0.394383</v>
       </c>
       <c r="D107" t="n">
-        <v>2.39516</v>
+        <v>2.35386</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.467974</v>
+        <v>0.463398</v>
       </c>
       <c r="C108" t="n">
-        <v>0.595067</v>
+        <v>0.601795</v>
       </c>
       <c r="D108" t="n">
-        <v>2.3656</v>
+        <v>2.32551</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.483532</v>
+        <v>0.458553</v>
       </c>
       <c r="C109" t="n">
-        <v>0.587241</v>
+        <v>0.596393</v>
       </c>
       <c r="D109" t="n">
-        <v>2.33828</v>
+        <v>2.30083</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.670188</v>
+        <v>0.688819</v>
       </c>
       <c r="C110" t="n">
-        <v>0.578699</v>
+        <v>0.534073</v>
       </c>
       <c r="D110" t="n">
-        <v>2.31886</v>
+        <v>2.27989</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.659662</v>
+        <v>0.619102</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5661119999999999</v>
+        <v>0.522387</v>
       </c>
       <c r="D111" t="n">
-        <v>2.29869</v>
+        <v>2.26551</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.659596</v>
+        <v>0.6316889999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.555689</v>
+        <v>0.517106</v>
       </c>
       <c r="D112" t="n">
-        <v>2.28559</v>
+        <v>2.24295</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6340249999999999</v>
+        <v>0.601365</v>
       </c>
       <c r="C113" t="n">
-        <v>0.543691</v>
+        <v>0.506943</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26678</v>
+        <v>2.24599</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.630808</v>
+        <v>0.632107</v>
       </c>
       <c r="C114" t="n">
-        <v>0.499064</v>
+        <v>0.535945</v>
       </c>
       <c r="D114" t="n">
-        <v>2.29517</v>
+        <v>2.25639</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6048</v>
+        <v>0.601379</v>
       </c>
       <c r="C115" t="n">
-        <v>0.497367</v>
+        <v>0.526682</v>
       </c>
       <c r="D115" t="n">
-        <v>2.29546</v>
+        <v>2.27227</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.571367</v>
+        <v>0.59926</v>
       </c>
       <c r="C116" t="n">
-        <v>0.488198</v>
+        <v>0.515005</v>
       </c>
       <c r="D116" t="n">
-        <v>2.29199</v>
+        <v>2.27013</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.596173</v>
+        <v>0.589291</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5075539999999999</v>
+        <v>0.507684</v>
       </c>
       <c r="D117" t="n">
-        <v>2.29251</v>
+        <v>2.26479</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5916090000000001</v>
+        <v>0.553382</v>
       </c>
       <c r="C118" t="n">
-        <v>0.496857</v>
+        <v>0.464834</v>
       </c>
       <c r="D118" t="n">
-        <v>2.2528</v>
+        <v>2.21333</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.554144</v>
+        <v>0.549946</v>
       </c>
       <c r="C119" t="n">
-        <v>0.469243</v>
+        <v>0.460515</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25903</v>
+        <v>2.2233</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.533649</v>
+        <v>0.5343560000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.463613</v>
+        <v>0.454637</v>
       </c>
       <c r="D120" t="n">
-        <v>2.27006</v>
+        <v>2.22959</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.559901</v>
+        <v>0.543546</v>
       </c>
       <c r="C121" t="n">
-        <v>0.456107</v>
+        <v>0.450478</v>
       </c>
       <c r="D121" t="n">
-        <v>2.96258</v>
+        <v>2.9062</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.529605</v>
+        <v>0.526868</v>
       </c>
       <c r="C122" t="n">
-        <v>0.449372</v>
+        <v>0.447732</v>
       </c>
       <c r="D122" t="n">
-        <v>2.89019</v>
+        <v>2.86294</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.522165</v>
+        <v>0.523777</v>
       </c>
       <c r="C123" t="n">
-        <v>0.644382</v>
+        <v>0.643548</v>
       </c>
       <c r="D123" t="n">
-        <v>2.84554</v>
+        <v>2.82281</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.713435</v>
+        <v>0.725089</v>
       </c>
       <c r="C124" t="n">
-        <v>0.636728</v>
+        <v>0.637702</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80982</v>
+        <v>2.78914</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.711541</v>
+        <v>0.724159</v>
       </c>
       <c r="C125" t="n">
-        <v>0.629507</v>
+        <v>0.63058</v>
       </c>
       <c r="D125" t="n">
-        <v>2.7798</v>
+        <v>2.75701</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.715808</v>
+        <v>0.693343</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6235579999999999</v>
+        <v>0.6256350000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>2.75445</v>
+        <v>2.72853</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.699898</v>
+        <v>0.70618</v>
       </c>
       <c r="C127" t="n">
-        <v>0.618949</v>
+        <v>0.61687</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72974</v>
+        <v>2.7104</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.688095</v>
+        <v>0.684091</v>
       </c>
       <c r="C128" t="n">
-        <v>0.616223</v>
+        <v>0.6122109999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>2.7066</v>
+        <v>2.67957</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.678418</v>
+        <v>0.685976</v>
       </c>
       <c r="C129" t="n">
-        <v>0.609345</v>
+        <v>0.605031</v>
       </c>
       <c r="D129" t="n">
-        <v>2.69415</v>
+        <v>2.66812</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.672123</v>
+        <v>0.667991</v>
       </c>
       <c r="C130" t="n">
-        <v>0.59507</v>
+        <v>0.601142</v>
       </c>
       <c r="D130" t="n">
-        <v>2.68277</v>
+        <v>2.65285</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.66232</v>
+        <v>0.660666</v>
       </c>
       <c r="C131" t="n">
-        <v>0.598485</v>
+        <v>0.596319</v>
       </c>
       <c r="D131" t="n">
-        <v>2.67359</v>
+        <v>2.64111</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.663693</v>
+        <v>0.657164</v>
       </c>
       <c r="C132" t="n">
-        <v>0.584718</v>
+        <v>0.591055</v>
       </c>
       <c r="D132" t="n">
-        <v>2.65756</v>
+        <v>2.63719</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.667703</v>
+        <v>0.652551</v>
       </c>
       <c r="C133" t="n">
-        <v>0.591795</v>
+        <v>0.587017</v>
       </c>
       <c r="D133" t="n">
-        <v>2.64845</v>
+        <v>2.63075</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.647443</v>
+        <v>0.654056</v>
       </c>
       <c r="C134" t="n">
-        <v>0.58936</v>
+        <v>0.582897</v>
       </c>
       <c r="D134" t="n">
-        <v>2.63659</v>
+        <v>2.61803</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.648381</v>
+        <v>0.618256</v>
       </c>
       <c r="C135" t="n">
-        <v>0.561832</v>
+        <v>0.550377</v>
       </c>
       <c r="D135" t="n">
-        <v>3.34512</v>
+        <v>3.30814</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.627628</v>
+        <v>0.604525</v>
       </c>
       <c r="C136" t="n">
-        <v>0.547835</v>
+        <v>0.550973</v>
       </c>
       <c r="D136" t="n">
-        <v>3.29111</v>
+        <v>3.25302</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.640635</v>
+        <v>0.600693</v>
       </c>
       <c r="C137" t="n">
-        <v>0.747735</v>
+        <v>0.742444</v>
       </c>
       <c r="D137" t="n">
-        <v>3.24017</v>
+        <v>3.19944</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.795396</v>
+        <v>0.826491</v>
       </c>
       <c r="C138" t="n">
-        <v>0.741689</v>
+        <v>0.7393960000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>3.19481</v>
+        <v>3.15695</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.789481</v>
+        <v>0.810654</v>
       </c>
       <c r="C139" t="n">
-        <v>0.735256</v>
+        <v>0.73722</v>
       </c>
       <c r="D139" t="n">
-        <v>3.14818</v>
+        <v>3.10903</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.796745</v>
+        <v>0.781366</v>
       </c>
       <c r="C140" t="n">
-        <v>0.730617</v>
+        <v>0.733561</v>
       </c>
       <c r="D140" t="n">
-        <v>3.10668</v>
+        <v>3.07102</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.795923</v>
+        <v>0.79001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.745235</v>
+        <v>0.730584</v>
       </c>
       <c r="D141" t="n">
-        <v>3.07863</v>
+        <v>3.04046</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.795314</v>
+        <v>0.783274</v>
       </c>
       <c r="C142" t="n">
-        <v>0.723868</v>
+        <v>0.729969</v>
       </c>
       <c r="D142" t="n">
-        <v>3.05476</v>
+        <v>3.02524</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.787612</v>
+        <v>0.772305</v>
       </c>
       <c r="C143" t="n">
-        <v>0.722929</v>
+        <v>0.727768</v>
       </c>
       <c r="D143" t="n">
-        <v>3.02878</v>
+        <v>2.9972</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.240721</v>
+        <v>0.240471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.217429</v>
+        <v>0.216615</v>
       </c>
       <c r="D2" t="n">
-        <v>0.548829</v>
+        <v>0.551762</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.233485</v>
+        <v>0.231491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211084</v>
+        <v>0.211498</v>
       </c>
       <c r="D3" t="n">
-        <v>0.541031</v>
+        <v>0.543615</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.226151</v>
+        <v>0.229252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206691</v>
+        <v>0.206704</v>
       </c>
       <c r="D4" t="n">
-        <v>0.534948</v>
+        <v>0.537978</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.220733</v>
+        <v>0.224424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202368</v>
+        <v>0.200777</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53035</v>
+        <v>0.532994</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234146</v>
+        <v>0.213466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197493</v>
+        <v>0.198021</v>
       </c>
       <c r="D6" t="n">
-        <v>0.528599</v>
+        <v>0.529234</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.215596</v>
+        <v>0.212538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195406</v>
+        <v>0.196084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.678704</v>
+        <v>0.681169</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.213755</v>
+        <v>0.211781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196254</v>
+        <v>0.195583</v>
       </c>
       <c r="D8" t="n">
-        <v>0.665998</v>
+        <v>0.666867</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.214123</v>
+        <v>0.216205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.285024</v>
+        <v>0.285784</v>
       </c>
       <c r="D9" t="n">
-        <v>0.65235</v>
+        <v>0.654628</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.310761</v>
+        <v>0.303365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275554</v>
+        <v>0.275771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.641189</v>
+        <v>0.64231</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296879</v>
+        <v>0.299545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26565</v>
+        <v>0.264697</v>
       </c>
       <c r="D11" t="n">
-        <v>0.630501</v>
+        <v>0.632151</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.299319</v>
+        <v>0.281942</v>
       </c>
       <c r="C12" t="n">
-        <v>0.257291</v>
+        <v>0.257296</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6216</v>
+        <v>0.623622</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.282583</v>
+        <v>0.277186</v>
       </c>
       <c r="C13" t="n">
-        <v>0.250411</v>
+        <v>0.2489</v>
       </c>
       <c r="D13" t="n">
-        <v>0.613003</v>
+        <v>0.613975</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.264837</v>
+        <v>0.270757</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243242</v>
+        <v>0.241974</v>
       </c>
       <c r="D14" t="n">
-        <v>0.604068</v>
+        <v>0.607428</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265408</v>
+        <v>0.264946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238123</v>
+        <v>0.234529</v>
       </c>
       <c r="D15" t="n">
-        <v>0.595919</v>
+        <v>0.599353</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.258126</v>
+        <v>0.260428</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229835</v>
+        <v>0.232394</v>
       </c>
       <c r="D16" t="n">
-        <v>0.592209</v>
+        <v>0.594046</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.246799</v>
+        <v>0.252997</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224837</v>
+        <v>0.225763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5863429999999999</v>
+        <v>0.588558</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.240265</v>
+        <v>0.246711</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220183</v>
+        <v>0.220551</v>
       </c>
       <c r="D18" t="n">
-        <v>0.580035</v>
+        <v>0.581242</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.237134</v>
+        <v>0.237783</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214682</v>
+        <v>0.214024</v>
       </c>
       <c r="D19" t="n">
-        <v>0.577461</v>
+        <v>0.577411</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23505</v>
+        <v>0.236059</v>
       </c>
       <c r="C20" t="n">
-        <v>0.217166</v>
+        <v>0.213839</v>
       </c>
       <c r="D20" t="n">
-        <v>0.57131</v>
+        <v>0.573418</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229937</v>
+        <v>0.227511</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210985</v>
+        <v>0.209656</v>
       </c>
       <c r="D21" t="n">
-        <v>0.745136</v>
+        <v>0.747275</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.223811</v>
+        <v>0.222226</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212733</v>
+        <v>0.209154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.732217</v>
+        <v>0.735501</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.229148</v>
+        <v>0.228908</v>
       </c>
       <c r="C23" t="n">
-        <v>0.304066</v>
+        <v>0.303271</v>
       </c>
       <c r="D23" t="n">
-        <v>0.718194</v>
+        <v>0.718396</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311011</v>
+        <v>0.318245</v>
       </c>
       <c r="C24" t="n">
-        <v>0.294331</v>
+        <v>0.289945</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7027409999999999</v>
+        <v>0.703997</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.307014</v>
+        <v>0.306242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.282796</v>
+        <v>0.281545</v>
       </c>
       <c r="D25" t="n">
-        <v>0.692303</v>
+        <v>0.693275</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297431</v>
+        <v>0.296578</v>
       </c>
       <c r="C26" t="n">
-        <v>0.274469</v>
+        <v>0.272243</v>
       </c>
       <c r="D26" t="n">
-        <v>0.681712</v>
+        <v>0.681818</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.286407</v>
+        <v>0.285885</v>
       </c>
       <c r="C27" t="n">
-        <v>0.265449</v>
+        <v>0.264164</v>
       </c>
       <c r="D27" t="n">
-        <v>0.671802</v>
+        <v>0.671655</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277386</v>
+        <v>0.276779</v>
       </c>
       <c r="C28" t="n">
-        <v>0.257359</v>
+        <v>0.256738</v>
       </c>
       <c r="D28" t="n">
-        <v>0.661775</v>
+        <v>0.6616610000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270009</v>
+        <v>0.269832</v>
       </c>
       <c r="C29" t="n">
-        <v>0.251012</v>
+        <v>0.249171</v>
       </c>
       <c r="D29" t="n">
-        <v>0.654174</v>
+        <v>0.653911</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.260467</v>
+        <v>0.260144</v>
       </c>
       <c r="C30" t="n">
-        <v>0.243807</v>
+        <v>0.243757</v>
       </c>
       <c r="D30" t="n">
-        <v>0.646109</v>
+        <v>0.645477</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.263585</v>
+        <v>0.26488</v>
       </c>
       <c r="C31" t="n">
-        <v>0.23697</v>
+        <v>0.2359</v>
       </c>
       <c r="D31" t="n">
-        <v>0.640973</v>
+        <v>0.638582</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251285</v>
+        <v>0.251268</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232109</v>
+        <v>0.231287</v>
       </c>
       <c r="D32" t="n">
-        <v>0.634051</v>
+        <v>0.632527</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245454</v>
+        <v>0.245295</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2284</v>
+        <v>0.225201</v>
       </c>
       <c r="D33" t="n">
-        <v>0.628759</v>
+        <v>0.6281679999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235783</v>
+        <v>0.235971</v>
       </c>
       <c r="C34" t="n">
-        <v>0.223194</v>
+        <v>0.220872</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6254729999999999</v>
+        <v>0.623215</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232361</v>
+        <v>0.232292</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2217</v>
+        <v>0.218485</v>
       </c>
       <c r="D35" t="n">
-        <v>0.810589</v>
+        <v>0.808221</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235432</v>
+        <v>0.23509</v>
       </c>
       <c r="C36" t="n">
-        <v>0.219017</v>
+        <v>0.217839</v>
       </c>
       <c r="D36" t="n">
-        <v>0.793349</v>
+        <v>0.791493</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230485</v>
+        <v>0.230229</v>
       </c>
       <c r="C37" t="n">
-        <v>0.31504</v>
+        <v>0.31234</v>
       </c>
       <c r="D37" t="n">
-        <v>0.776111</v>
+        <v>0.774607</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319012</v>
+        <v>0.319259</v>
       </c>
       <c r="C38" t="n">
-        <v>0.30523</v>
+        <v>0.301223</v>
       </c>
       <c r="D38" t="n">
-        <v>0.761574</v>
+        <v>0.7614379999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.310091</v>
+        <v>0.310172</v>
       </c>
       <c r="C39" t="n">
-        <v>0.296017</v>
+        <v>0.292251</v>
       </c>
       <c r="D39" t="n">
-        <v>0.748242</v>
+        <v>0.747159</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304574</v>
+        <v>0.304513</v>
       </c>
       <c r="C40" t="n">
-        <v>0.285164</v>
+        <v>0.282788</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735924</v>
+        <v>0.734888</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.292706</v>
+        <v>0.293585</v>
       </c>
       <c r="C41" t="n">
-        <v>0.277099</v>
+        <v>0.274812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.724229</v>
+        <v>0.722957</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.278926</v>
+        <v>0.282399</v>
       </c>
       <c r="C42" t="n">
-        <v>0.269971</v>
+        <v>0.266427</v>
       </c>
       <c r="D42" t="n">
-        <v>0.714525</v>
+        <v>0.712483</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286546</v>
+        <v>0.276806</v>
       </c>
       <c r="C43" t="n">
-        <v>0.26274</v>
+        <v>0.259346</v>
       </c>
       <c r="D43" t="n">
-        <v>0.704016</v>
+        <v>0.703408</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.277163</v>
+        <v>0.271141</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25515</v>
+        <v>0.252249</v>
       </c>
       <c r="D44" t="n">
-        <v>0.695044</v>
+        <v>0.6942390000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261159</v>
+        <v>0.260762</v>
       </c>
       <c r="C45" t="n">
-        <v>0.247465</v>
+        <v>0.246131</v>
       </c>
       <c r="D45" t="n">
-        <v>0.686554</v>
+        <v>0.686713</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.256578</v>
+        <v>0.263803</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2413</v>
+        <v>0.240659</v>
       </c>
       <c r="D46" t="n">
-        <v>0.679589</v>
+        <v>0.680071</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.24864</v>
+        <v>0.249643</v>
       </c>
       <c r="C47" t="n">
-        <v>0.238793</v>
+        <v>0.235573</v>
       </c>
       <c r="D47" t="n">
-        <v>0.673453</v>
+        <v>0.6749039999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.250138</v>
+        <v>0.248487</v>
       </c>
       <c r="C48" t="n">
-        <v>0.232371</v>
+        <v>0.231381</v>
       </c>
       <c r="D48" t="n">
-        <v>0.669412</v>
+        <v>0.669309</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.238128</v>
+        <v>0.241094</v>
       </c>
       <c r="C49" t="n">
-        <v>0.228839</v>
+        <v>0.230159</v>
       </c>
       <c r="D49" t="n">
-        <v>0.664253</v>
+        <v>0.665319</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.235426</v>
+        <v>0.234902</v>
       </c>
       <c r="C50" t="n">
-        <v>0.227231</v>
+        <v>0.227804</v>
       </c>
       <c r="D50" t="n">
-        <v>0.843873</v>
+        <v>0.843045</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.23506</v>
+        <v>0.238882</v>
       </c>
       <c r="C51" t="n">
-        <v>0.32819</v>
+        <v>0.329277</v>
       </c>
       <c r="D51" t="n">
-        <v>0.826002</v>
+        <v>0.825458</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23727</v>
+        <v>0.231218</v>
       </c>
       <c r="C52" t="n">
-        <v>0.318519</v>
+        <v>0.317073</v>
       </c>
       <c r="D52" t="n">
-        <v>0.809138</v>
+        <v>0.808954</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3217</v>
+        <v>0.326789</v>
       </c>
       <c r="C53" t="n">
-        <v>0.309407</v>
+        <v>0.308819</v>
       </c>
       <c r="D53" t="n">
-        <v>0.794233</v>
+        <v>0.7934</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310139</v>
+        <v>0.312157</v>
       </c>
       <c r="C54" t="n">
-        <v>0.300525</v>
+        <v>0.299714</v>
       </c>
       <c r="D54" t="n">
-        <v>0.77971</v>
+        <v>0.77937</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309819</v>
+        <v>0.308607</v>
       </c>
       <c r="C55" t="n">
-        <v>0.292458</v>
+        <v>0.290834</v>
       </c>
       <c r="D55" t="n">
-        <v>0.767219</v>
+        <v>0.766719</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.297857</v>
+        <v>0.297497</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285596</v>
+        <v>0.283145</v>
       </c>
       <c r="D56" t="n">
-        <v>0.754922</v>
+        <v>0.754849</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.299803</v>
+        <v>0.287972</v>
       </c>
       <c r="C57" t="n">
-        <v>0.276854</v>
+        <v>0.27606</v>
       </c>
       <c r="D57" t="n">
-        <v>0.744739</v>
+        <v>0.743935</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.281901</v>
+        <v>0.281721</v>
       </c>
       <c r="C58" t="n">
-        <v>0.27004</v>
+        <v>0.269297</v>
       </c>
       <c r="D58" t="n">
-        <v>0.734316</v>
+        <v>0.7345159999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27277</v>
+        <v>0.28367</v>
       </c>
       <c r="C59" t="n">
-        <v>0.263183</v>
+        <v>0.263765</v>
       </c>
       <c r="D59" t="n">
-        <v>0.725519</v>
+        <v>0.725259</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.27072</v>
+        <v>0.279611</v>
       </c>
       <c r="C60" t="n">
-        <v>0.261019</v>
+        <v>0.258454</v>
       </c>
       <c r="D60" t="n">
-        <v>0.717736</v>
+        <v>0.718741</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26873</v>
+        <v>0.268847</v>
       </c>
       <c r="C61" t="n">
-        <v>0.252166</v>
+        <v>0.251899</v>
       </c>
       <c r="D61" t="n">
-        <v>0.710909</v>
+        <v>0.711776</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.266954</v>
+        <v>0.261531</v>
       </c>
       <c r="C62" t="n">
-        <v>0.248102</v>
+        <v>0.247633</v>
       </c>
       <c r="D62" t="n">
-        <v>0.705281</v>
+        <v>0.705661</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255859</v>
+        <v>0.254764</v>
       </c>
       <c r="C63" t="n">
-        <v>0.245185</v>
+        <v>0.243978</v>
       </c>
       <c r="D63" t="n">
-        <v>0.699498</v>
+        <v>0.701008</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.255188</v>
+        <v>0.251031</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242863</v>
+        <v>0.241648</v>
       </c>
       <c r="D64" t="n">
-        <v>0.90933</v>
+        <v>0.910289</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.24978</v>
+        <v>0.255943</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242769</v>
+        <v>0.242419</v>
       </c>
       <c r="D65" t="n">
-        <v>0.891443</v>
+        <v>0.891149</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.249549</v>
+        <v>0.248274</v>
       </c>
       <c r="C66" t="n">
-        <v>0.337724</v>
+        <v>0.341124</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8728900000000001</v>
+        <v>0.872559</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.38841</v>
+        <v>0.384127</v>
       </c>
       <c r="C67" t="n">
-        <v>0.330041</v>
+        <v>0.329642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.856341</v>
+        <v>0.856417</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.375226</v>
+        <v>0.374419</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3264</v>
+        <v>0.321215</v>
       </c>
       <c r="D68" t="n">
-        <v>0.841642</v>
+        <v>0.841531</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.365729</v>
+        <v>0.371068</v>
       </c>
       <c r="C69" t="n">
-        <v>0.312857</v>
+        <v>0.317267</v>
       </c>
       <c r="D69" t="n">
-        <v>0.830326</v>
+        <v>0.828524</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.359254</v>
+        <v>0.358949</v>
       </c>
       <c r="C70" t="n">
-        <v>0.305512</v>
+        <v>0.306078</v>
       </c>
       <c r="D70" t="n">
-        <v>0.818549</v>
+        <v>0.817453</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.35484</v>
+        <v>0.344647</v>
       </c>
       <c r="C71" t="n">
-        <v>0.302827</v>
+        <v>0.302286</v>
       </c>
       <c r="D71" t="n">
-        <v>0.808516</v>
+        <v>0.80851</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.33456</v>
+        <v>0.362728</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292234</v>
+        <v>0.292137</v>
       </c>
       <c r="D72" t="n">
-        <v>0.800658</v>
+        <v>0.800573</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.354528</v>
+        <v>0.334079</v>
       </c>
       <c r="C73" t="n">
-        <v>0.290392</v>
+        <v>0.286193</v>
       </c>
       <c r="D73" t="n">
-        <v>0.79419</v>
+        <v>0.794295</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.327873</v>
+        <v>0.3337</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280772</v>
+        <v>0.278999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.789968</v>
+        <v>0.7894139999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.328076</v>
+        <v>0.309779</v>
       </c>
       <c r="C75" t="n">
-        <v>0.274729</v>
+        <v>0.278212</v>
       </c>
       <c r="D75" t="n">
-        <v>0.789307</v>
+        <v>0.783561</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.333094</v>
+        <v>0.337407</v>
       </c>
       <c r="C76" t="n">
-        <v>0.271263</v>
+        <v>0.27005</v>
       </c>
       <c r="D76" t="n">
-        <v>0.788486</v>
+        <v>0.781689</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.350084</v>
+        <v>0.332055</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265949</v>
+        <v>0.265089</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7890779999999999</v>
+        <v>0.78149</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.321305</v>
+        <v>0.33444</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266806</v>
+        <v>0.264065</v>
       </c>
       <c r="D78" t="n">
-        <v>1.25014</v>
+        <v>1.2449</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.322029</v>
+        <v>0.345735</v>
       </c>
       <c r="C79" t="n">
-        <v>0.260421</v>
+        <v>0.265819</v>
       </c>
       <c r="D79" t="n">
-        <v>1.22785</v>
+        <v>1.22422</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.30438</v>
+        <v>0.306585</v>
       </c>
       <c r="C80" t="n">
-        <v>0.377399</v>
+        <v>0.384859</v>
       </c>
       <c r="D80" t="n">
-        <v>1.21073</v>
+        <v>1.20543</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.439031</v>
+        <v>0.425951</v>
       </c>
       <c r="C81" t="n">
-        <v>0.37194</v>
+        <v>0.374035</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19456</v>
+        <v>1.19023</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.418829</v>
+        <v>0.463396</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3669</v>
+        <v>0.370428</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18139</v>
+        <v>1.17941</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.437153</v>
+        <v>0.428593</v>
       </c>
       <c r="C83" t="n">
-        <v>0.358818</v>
+        <v>0.358895</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17033</v>
+        <v>1.1678</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.42356</v>
+        <v>0.38913</v>
       </c>
       <c r="C84" t="n">
-        <v>0.35554</v>
+        <v>0.353949</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16328</v>
+        <v>1.15725</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.411306</v>
+        <v>0.424595</v>
       </c>
       <c r="C85" t="n">
-        <v>0.34687</v>
+        <v>0.347645</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15691</v>
+        <v>1.15325</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.405815</v>
+        <v>0.404293</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342583</v>
+        <v>0.342433</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15226</v>
+        <v>1.15085</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.402887</v>
+        <v>0.391946</v>
       </c>
       <c r="C87" t="n">
-        <v>0.336195</v>
+        <v>0.331714</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15309</v>
+        <v>1.15146</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.422242</v>
+        <v>0.405623</v>
       </c>
       <c r="C88" t="n">
-        <v>0.326237</v>
+        <v>0.331421</v>
       </c>
       <c r="D88" t="n">
-        <v>1.15639</v>
+        <v>1.15583</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.399519</v>
+        <v>0.407835</v>
       </c>
       <c r="C89" t="n">
-        <v>0.325561</v>
+        <v>0.322301</v>
       </c>
       <c r="D89" t="n">
-        <v>1.16606</v>
+        <v>1.1643</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.438221</v>
+        <v>0.384799</v>
       </c>
       <c r="C90" t="n">
-        <v>0.318153</v>
+        <v>0.31217</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17358</v>
+        <v>1.17195</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.443363</v>
+        <v>0.422905</v>
       </c>
       <c r="C91" t="n">
-        <v>0.313305</v>
+        <v>0.30765</v>
       </c>
       <c r="D91" t="n">
-        <v>1.18386</v>
+        <v>1.18516</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.367432</v>
+        <v>0.431712</v>
       </c>
       <c r="C92" t="n">
-        <v>0.30924</v>
+        <v>0.30512</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75339</v>
+        <v>1.75297</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.42178</v>
+        <v>0.366467</v>
       </c>
       <c r="C93" t="n">
-        <v>0.304605</v>
+        <v>0.302312</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74277</v>
+        <v>1.7404</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.366288</v>
+        <v>0.363372</v>
       </c>
       <c r="C94" t="n">
-        <v>0.504737</v>
+        <v>0.502112</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73248</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.603387</v>
+        <v>0.586085</v>
       </c>
       <c r="C95" t="n">
-        <v>0.497011</v>
+        <v>0.497038</v>
       </c>
       <c r="D95" t="n">
-        <v>1.71866</v>
+        <v>1.71811</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.543838</v>
+        <v>0.567692</v>
       </c>
       <c r="C96" t="n">
-        <v>0.488299</v>
+        <v>0.486791</v>
       </c>
       <c r="D96" t="n">
-        <v>1.70927</v>
+        <v>1.7086</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.544335</v>
+        <v>0.556839</v>
       </c>
       <c r="C97" t="n">
-        <v>0.477612</v>
+        <v>0.473055</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70251</v>
+        <v>1.70034</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.534655</v>
+        <v>0.532856</v>
       </c>
       <c r="C98" t="n">
-        <v>0.465855</v>
+        <v>0.465196</v>
       </c>
       <c r="D98" t="n">
-        <v>1.69576</v>
+        <v>1.69526</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.538786</v>
+        <v>0.528748</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455166</v>
+        <v>0.455576</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69027</v>
+        <v>1.69102</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.52778</v>
+        <v>0.526054</v>
       </c>
       <c r="C100" t="n">
-        <v>0.445814</v>
+        <v>0.444117</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69135</v>
+        <v>1.69237</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.518056</v>
+        <v>0.50663</v>
       </c>
       <c r="C101" t="n">
-        <v>0.435372</v>
+        <v>0.435455</v>
       </c>
       <c r="D101" t="n">
-        <v>1.69737</v>
+        <v>1.69907</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.509355</v>
+        <v>0.524594</v>
       </c>
       <c r="C102" t="n">
-        <v>0.427815</v>
+        <v>0.427132</v>
       </c>
       <c r="D102" t="n">
-        <v>1.70448</v>
+        <v>1.70615</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.483007</v>
+        <v>0.516131</v>
       </c>
       <c r="C103" t="n">
-        <v>0.419014</v>
+        <v>0.419709</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71246</v>
+        <v>1.71348</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.508708</v>
+        <v>0.515663</v>
       </c>
       <c r="C104" t="n">
-        <v>0.413547</v>
+        <v>0.41207</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72395</v>
+        <v>1.72564</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.505854</v>
+        <v>0.473794</v>
       </c>
       <c r="C105" t="n">
-        <v>0.405137</v>
+        <v>0.403911</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73793</v>
+        <v>1.73939</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477839</v>
+        <v>0.511832</v>
       </c>
       <c r="C106" t="n">
-        <v>0.401492</v>
+        <v>0.397724</v>
       </c>
       <c r="D106" t="n">
-        <v>1.75532</v>
+        <v>1.75618</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.48588</v>
+        <v>0.480203</v>
       </c>
       <c r="C107" t="n">
-        <v>0.394383</v>
+        <v>0.39389</v>
       </c>
       <c r="D107" t="n">
-        <v>2.35386</v>
+        <v>2.3572</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.463398</v>
+        <v>0.470095</v>
       </c>
       <c r="C108" t="n">
-        <v>0.601795</v>
+        <v>0.593678</v>
       </c>
       <c r="D108" t="n">
-        <v>2.32551</v>
+        <v>2.32933</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.458553</v>
+        <v>0.471494</v>
       </c>
       <c r="C109" t="n">
-        <v>0.596393</v>
+        <v>0.58725</v>
       </c>
       <c r="D109" t="n">
-        <v>2.30083</v>
+        <v>2.303</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.688819</v>
+        <v>0.662493</v>
       </c>
       <c r="C110" t="n">
-        <v>0.534073</v>
+        <v>0.577722</v>
       </c>
       <c r="D110" t="n">
-        <v>2.27989</v>
+        <v>2.28226</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.619102</v>
+        <v>0.660148</v>
       </c>
       <c r="C111" t="n">
-        <v>0.522387</v>
+        <v>0.523644</v>
       </c>
       <c r="D111" t="n">
-        <v>2.26551</v>
+        <v>2.26109</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6316889999999999</v>
+        <v>0.654776</v>
       </c>
       <c r="C112" t="n">
-        <v>0.517106</v>
+        <v>0.515118</v>
       </c>
       <c r="D112" t="n">
-        <v>2.24295</v>
+        <v>2.24602</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.601365</v>
+        <v>0.6201449999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.506943</v>
+        <v>0.505238</v>
       </c>
       <c r="D113" t="n">
-        <v>2.24599</v>
+        <v>2.23411</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.632107</v>
+        <v>0.594193</v>
       </c>
       <c r="C114" t="n">
-        <v>0.535945</v>
+        <v>0.491884</v>
       </c>
       <c r="D114" t="n">
-        <v>2.25639</v>
+        <v>2.26369</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.601379</v>
+        <v>0.5983270000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.526682</v>
+        <v>0.48648</v>
       </c>
       <c r="D115" t="n">
-        <v>2.27227</v>
+        <v>2.26712</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.59926</v>
+        <v>0.586243</v>
       </c>
       <c r="C116" t="n">
-        <v>0.515005</v>
+        <v>0.515058</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27013</v>
+        <v>2.27099</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.589291</v>
+        <v>0.601228</v>
       </c>
       <c r="C117" t="n">
-        <v>0.507684</v>
+        <v>0.5049400000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>2.26479</v>
+        <v>2.2742</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.553382</v>
+        <v>0.579462</v>
       </c>
       <c r="C118" t="n">
-        <v>0.464834</v>
+        <v>0.495882</v>
       </c>
       <c r="D118" t="n">
-        <v>2.21333</v>
+        <v>2.21799</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.549946</v>
+        <v>0.539755</v>
       </c>
       <c r="C119" t="n">
-        <v>0.460515</v>
+        <v>0.455672</v>
       </c>
       <c r="D119" t="n">
-        <v>2.2233</v>
+        <v>2.22449</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5343560000000001</v>
+        <v>0.512887</v>
       </c>
       <c r="C120" t="n">
-        <v>0.454637</v>
+        <v>0.453484</v>
       </c>
       <c r="D120" t="n">
-        <v>2.22959</v>
+        <v>2.23473</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.543546</v>
+        <v>0.543001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.450478</v>
+        <v>0.445588</v>
       </c>
       <c r="D121" t="n">
-        <v>2.9062</v>
+        <v>2.91312</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.526868</v>
+        <v>0.543299</v>
       </c>
       <c r="C122" t="n">
-        <v>0.447732</v>
+        <v>0.472795</v>
       </c>
       <c r="D122" t="n">
-        <v>2.86294</v>
+        <v>2.87269</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.523777</v>
+        <v>0.538182</v>
       </c>
       <c r="C123" t="n">
-        <v>0.643548</v>
+        <v>0.640948</v>
       </c>
       <c r="D123" t="n">
-        <v>2.82281</v>
+        <v>2.83265</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.725089</v>
+        <v>0.7321530000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.637702</v>
+        <v>0.632574</v>
       </c>
       <c r="D124" t="n">
-        <v>2.78914</v>
+        <v>2.79163</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.724159</v>
+        <v>0.699331</v>
       </c>
       <c r="C125" t="n">
-        <v>0.63058</v>
+        <v>0.627347</v>
       </c>
       <c r="D125" t="n">
-        <v>2.75701</v>
+        <v>2.763</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.693343</v>
+        <v>0.69742</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6256350000000001</v>
+        <v>0.618466</v>
       </c>
       <c r="D126" t="n">
-        <v>2.72853</v>
+        <v>2.73357</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70618</v>
+        <v>0.695506</v>
       </c>
       <c r="C127" t="n">
-        <v>0.61687</v>
+        <v>0.614345</v>
       </c>
       <c r="D127" t="n">
-        <v>2.7104</v>
+        <v>2.70882</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.684091</v>
+        <v>0.6905019999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6122109999999999</v>
+        <v>0.609505</v>
       </c>
       <c r="D128" t="n">
-        <v>2.67957</v>
+        <v>2.68381</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.685976</v>
+        <v>0.689095</v>
       </c>
       <c r="C129" t="n">
-        <v>0.605031</v>
+        <v>0.603488</v>
       </c>
       <c r="D129" t="n">
-        <v>2.66812</v>
+        <v>2.67029</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.667991</v>
+        <v>0.687016</v>
       </c>
       <c r="C130" t="n">
-        <v>0.601142</v>
+        <v>0.617592</v>
       </c>
       <c r="D130" t="n">
-        <v>2.65285</v>
+        <v>2.6632</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.660666</v>
+        <v>0.6702399999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.596319</v>
+        <v>0.592869</v>
       </c>
       <c r="D131" t="n">
-        <v>2.64111</v>
+        <v>2.64604</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.657164</v>
+        <v>0.6608309999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.591055</v>
+        <v>0.590279</v>
       </c>
       <c r="D132" t="n">
-        <v>2.63719</v>
+        <v>2.63764</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.652551</v>
+        <v>0.652332</v>
       </c>
       <c r="C133" t="n">
-        <v>0.587017</v>
+        <v>0.584928</v>
       </c>
       <c r="D133" t="n">
-        <v>2.63075</v>
+        <v>2.63181</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.654056</v>
+        <v>0.632695</v>
       </c>
       <c r="C134" t="n">
-        <v>0.582897</v>
+        <v>0.583862</v>
       </c>
       <c r="D134" t="n">
-        <v>2.61803</v>
+        <v>2.61158</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.618256</v>
+        <v>0.628698</v>
       </c>
       <c r="C135" t="n">
-        <v>0.550377</v>
+        <v>0.553288</v>
       </c>
       <c r="D135" t="n">
-        <v>3.30814</v>
+        <v>3.3114</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.604525</v>
+        <v>0.601122</v>
       </c>
       <c r="C136" t="n">
-        <v>0.550973</v>
+        <v>0.548346</v>
       </c>
       <c r="D136" t="n">
-        <v>3.25302</v>
+        <v>3.25388</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.600693</v>
+        <v>0.598803</v>
       </c>
       <c r="C137" t="n">
-        <v>0.742444</v>
+        <v>0.742761</v>
       </c>
       <c r="D137" t="n">
-        <v>3.19944</v>
+        <v>3.2024</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.826491</v>
+        <v>0.79722</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7393960000000001</v>
+        <v>0.74026</v>
       </c>
       <c r="D138" t="n">
-        <v>3.15695</v>
+        <v>3.15342</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.810654</v>
+        <v>0.80636</v>
       </c>
       <c r="C139" t="n">
-        <v>0.73722</v>
+        <v>0.736531</v>
       </c>
       <c r="D139" t="n">
-        <v>3.10903</v>
+        <v>3.11039</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.781366</v>
+        <v>0.784975</v>
       </c>
       <c r="C140" t="n">
-        <v>0.733561</v>
+        <v>0.733689</v>
       </c>
       <c r="D140" t="n">
-        <v>3.07102</v>
+        <v>3.07472</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.79001</v>
+        <v>0.791251</v>
       </c>
       <c r="C141" t="n">
-        <v>0.730584</v>
+        <v>0.733027</v>
       </c>
       <c r="D141" t="n">
-        <v>3.04046</v>
+        <v>3.0489</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.783274</v>
+        <v>0.777686</v>
       </c>
       <c r="C142" t="n">
-        <v>0.729969</v>
+        <v>0.729364</v>
       </c>
       <c r="D142" t="n">
-        <v>3.02524</v>
+        <v>3.02402</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.772305</v>
+        <v>0.771869</v>
       </c>
       <c r="C143" t="n">
-        <v>0.727768</v>
+        <v>0.726338</v>
       </c>
       <c r="D143" t="n">
-        <v>2.9972</v>
+        <v>3.00008</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.240471</v>
+        <v>0.242288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216615</v>
+        <v>0.551678</v>
       </c>
       <c r="D2" t="n">
-        <v>0.551762</v>
+        <v>0.214368</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.385861</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.231491</v>
+        <v>0.238144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211498</v>
+        <v>0.541991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.543615</v>
+        <v>0.219437</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.379963</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.229252</v>
+        <v>0.234495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206704</v>
+        <v>0.540165</v>
       </c>
       <c r="D4" t="n">
-        <v>0.537978</v>
+        <v>0.20385</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.378194</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.224424</v>
+        <v>0.226503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200777</v>
+        <v>0.537834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.532994</v>
+        <v>0.19943</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.373761</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.213466</v>
+        <v>0.225041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198021</v>
+        <v>0.533384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.529234</v>
+        <v>0.196235</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.370388</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.212538</v>
+        <v>0.224757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196084</v>
+        <v>0.67822</v>
       </c>
       <c r="D7" t="n">
-        <v>0.681169</v>
+        <v>0.193252</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.368268</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.211781</v>
+        <v>0.215458</v>
       </c>
       <c r="C8" t="n">
-        <v>0.195583</v>
+        <v>0.664214</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666867</v>
+        <v>0.194289</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.36888</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216205</v>
+        <v>0.216387</v>
       </c>
       <c r="C9" t="n">
-        <v>0.285784</v>
+        <v>0.650278</v>
       </c>
       <c r="D9" t="n">
-        <v>0.654628</v>
+        <v>0.284802</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.455396</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.303365</v>
+        <v>0.310303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275771</v>
+        <v>0.639454</v>
       </c>
       <c r="D10" t="n">
-        <v>0.64231</v>
+        <v>0.273463</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.443955</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.299545</v>
+        <v>0.30187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.264697</v>
+        <v>0.628346</v>
       </c>
       <c r="D11" t="n">
-        <v>0.632151</v>
+        <v>0.264686</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.434085</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.281942</v>
+        <v>0.286481</v>
       </c>
       <c r="C12" t="n">
-        <v>0.257296</v>
+        <v>0.618335</v>
       </c>
       <c r="D12" t="n">
-        <v>0.623622</v>
+        <v>0.256567</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.42478</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277186</v>
+        <v>0.280602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2489</v>
+        <v>0.609439</v>
       </c>
       <c r="D13" t="n">
-        <v>0.613975</v>
+        <v>0.24935</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.416051</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270757</v>
+        <v>0.271407</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241974</v>
+        <v>0.603206</v>
       </c>
       <c r="D14" t="n">
-        <v>0.607428</v>
+        <v>0.240913</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.407859</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264946</v>
+        <v>0.26196</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234529</v>
+        <v>0.595845</v>
       </c>
       <c r="D15" t="n">
-        <v>0.599353</v>
+        <v>0.234856</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.400378</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260428</v>
+        <v>0.25766</v>
       </c>
       <c r="C16" t="n">
-        <v>0.232394</v>
+        <v>0.590043</v>
       </c>
       <c r="D16" t="n">
-        <v>0.594046</v>
+        <v>0.230185</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.394396</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.252997</v>
+        <v>0.251438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225763</v>
+        <v>0.584653</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588558</v>
+        <v>0.223133</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.387943</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.246711</v>
+        <v>0.244078</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220551</v>
+        <v>0.5794049999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.581242</v>
+        <v>0.217521</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.381335</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.237783</v>
+        <v>0.24375</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214024</v>
+        <v>0.574319</v>
       </c>
       <c r="D19" t="n">
-        <v>0.577411</v>
+        <v>0.21497</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.37612</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236059</v>
+        <v>0.235001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213839</v>
+        <v>0.5728760000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.573418</v>
+        <v>0.211141</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.372463</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227511</v>
+        <v>0.233872</v>
       </c>
       <c r="C21" t="n">
-        <v>0.209656</v>
+        <v>0.742514</v>
       </c>
       <c r="D21" t="n">
-        <v>0.747275</v>
+        <v>0.21003</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.370586</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.222226</v>
+        <v>0.228196</v>
       </c>
       <c r="C22" t="n">
-        <v>0.209154</v>
+        <v>0.730316</v>
       </c>
       <c r="D22" t="n">
-        <v>0.735501</v>
+        <v>0.209944</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.370473</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228908</v>
+        <v>0.229932</v>
       </c>
       <c r="C23" t="n">
-        <v>0.303271</v>
+        <v>0.716433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.718396</v>
+        <v>0.301487</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.462966</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.318245</v>
+        <v>0.313896</v>
       </c>
       <c r="C24" t="n">
-        <v>0.289945</v>
+        <v>0.702671</v>
       </c>
       <c r="D24" t="n">
-        <v>0.703997</v>
+        <v>0.289349</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.451915</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306242</v>
+        <v>0.306615</v>
       </c>
       <c r="C25" t="n">
-        <v>0.281545</v>
+        <v>0.690763</v>
       </c>
       <c r="D25" t="n">
-        <v>0.693275</v>
+        <v>0.28156</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.442348</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296578</v>
+        <v>0.296233</v>
       </c>
       <c r="C26" t="n">
-        <v>0.272243</v>
+        <v>0.678562</v>
       </c>
       <c r="D26" t="n">
-        <v>0.681818</v>
+        <v>0.273661</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.432676</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285885</v>
+        <v>0.285236</v>
       </c>
       <c r="C27" t="n">
-        <v>0.264164</v>
+        <v>0.6700739999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.671655</v>
+        <v>0.263592</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.423741</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276779</v>
+        <v>0.280351</v>
       </c>
       <c r="C28" t="n">
-        <v>0.256738</v>
+        <v>0.661921</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6616610000000001</v>
+        <v>0.255837</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.415288</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.269832</v>
+        <v>0.268852</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249171</v>
+        <v>0.654345</v>
       </c>
       <c r="D29" t="n">
-        <v>0.653911</v>
+        <v>0.249422</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.407461</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.260144</v>
+        <v>0.263594</v>
       </c>
       <c r="C30" t="n">
-        <v>0.243757</v>
+        <v>0.646065</v>
       </c>
       <c r="D30" t="n">
-        <v>0.645477</v>
+        <v>0.242313</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.400123</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26488</v>
+        <v>0.255594</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2359</v>
+        <v>0.640907</v>
       </c>
       <c r="D31" t="n">
-        <v>0.638582</v>
+        <v>0.235632</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.393932</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251268</v>
+        <v>0.247047</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231287</v>
+        <v>0.635328</v>
       </c>
       <c r="D32" t="n">
-        <v>0.632527</v>
+        <v>0.230126</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.387809</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245295</v>
+        <v>0.243192</v>
       </c>
       <c r="C33" t="n">
-        <v>0.225201</v>
+        <v>0.630009</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6281679999999999</v>
+        <v>0.225212</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.382699</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235971</v>
+        <v>0.237626</v>
       </c>
       <c r="C34" t="n">
-        <v>0.220872</v>
+        <v>0.625572</v>
       </c>
       <c r="D34" t="n">
-        <v>0.623215</v>
+        <v>0.22342</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.378662</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232292</v>
+        <v>0.234661</v>
       </c>
       <c r="C35" t="n">
-        <v>0.218485</v>
+        <v>0.808002</v>
       </c>
       <c r="D35" t="n">
-        <v>0.808221</v>
+        <v>0.220039</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.37612</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23509</v>
+        <v>0.230542</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217839</v>
+        <v>0.790627</v>
       </c>
       <c r="D36" t="n">
-        <v>0.791493</v>
+        <v>0.219544</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.375633</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230229</v>
+        <v>0.227793</v>
       </c>
       <c r="C37" t="n">
-        <v>0.31234</v>
+        <v>0.776342</v>
       </c>
       <c r="D37" t="n">
-        <v>0.774607</v>
+        <v>0.31251</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.471814</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319259</v>
+        <v>0.317134</v>
       </c>
       <c r="C38" t="n">
-        <v>0.301223</v>
+        <v>0.762364</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7614379999999999</v>
+        <v>0.300695</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.46182</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.310172</v>
+        <v>0.30668</v>
       </c>
       <c r="C39" t="n">
-        <v>0.292251</v>
+        <v>0.746523</v>
       </c>
       <c r="D39" t="n">
-        <v>0.747159</v>
+        <v>0.294166</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.452151</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304513</v>
+        <v>0.299137</v>
       </c>
       <c r="C40" t="n">
-        <v>0.282788</v>
+        <v>0.735279</v>
       </c>
       <c r="D40" t="n">
-        <v>0.734888</v>
+        <v>0.283927</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.44375</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.293585</v>
+        <v>0.289133</v>
       </c>
       <c r="C41" t="n">
-        <v>0.274812</v>
+        <v>0.7237749999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.722957</v>
+        <v>0.277753</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.434764</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.282399</v>
+        <v>0.282302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.266427</v>
+        <v>0.71328</v>
       </c>
       <c r="D42" t="n">
-        <v>0.712483</v>
+        <v>0.267999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.426553</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276806</v>
+        <v>0.273282</v>
       </c>
       <c r="C43" t="n">
-        <v>0.259346</v>
+        <v>0.702983</v>
       </c>
       <c r="D43" t="n">
-        <v>0.703408</v>
+        <v>0.260554</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.419057</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.271141</v>
+        <v>0.266771</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252249</v>
+        <v>0.694616</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6942390000000001</v>
+        <v>0.252602</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.411267</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.260762</v>
+        <v>0.260852</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246131</v>
+        <v>0.687343</v>
       </c>
       <c r="D45" t="n">
-        <v>0.686713</v>
+        <v>0.248165</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.404858</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.263803</v>
+        <v>0.262638</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240659</v>
+        <v>0.680605</v>
       </c>
       <c r="D46" t="n">
-        <v>0.680071</v>
+        <v>0.240067</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.398631</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249643</v>
+        <v>0.249267</v>
       </c>
       <c r="C47" t="n">
-        <v>0.235573</v>
+        <v>0.674823</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6749039999999999</v>
+        <v>0.236387</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.393559</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.248487</v>
+        <v>0.253027</v>
       </c>
       <c r="C48" t="n">
-        <v>0.231381</v>
+        <v>0.670281</v>
       </c>
       <c r="D48" t="n">
-        <v>0.669309</v>
+        <v>0.231242</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.389329</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.241094</v>
+        <v>0.249484</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230159</v>
+        <v>0.665767</v>
       </c>
       <c r="D49" t="n">
-        <v>0.665319</v>
+        <v>0.228064</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.386761</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234902</v>
+        <v>0.242173</v>
       </c>
       <c r="C50" t="n">
-        <v>0.227804</v>
+        <v>0.842719</v>
       </c>
       <c r="D50" t="n">
-        <v>0.843045</v>
+        <v>0.227993</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.385524</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.238882</v>
+        <v>0.232248</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329277</v>
+        <v>0.824828</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825458</v>
+        <v>0.328736</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.48642</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.231218</v>
+        <v>0.238594</v>
       </c>
       <c r="C52" t="n">
-        <v>0.317073</v>
+        <v>0.808171</v>
       </c>
       <c r="D52" t="n">
-        <v>0.808954</v>
+        <v>0.317242</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.476066</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.326789</v>
+        <v>0.319441</v>
       </c>
       <c r="C53" t="n">
-        <v>0.308819</v>
+        <v>0.793434</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7934</v>
+        <v>0.310109</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.466535</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.312157</v>
+        <v>0.317161</v>
       </c>
       <c r="C54" t="n">
-        <v>0.299714</v>
+        <v>0.778957</v>
       </c>
       <c r="D54" t="n">
-        <v>0.77937</v>
+        <v>0.298265</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.457365</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.308607</v>
+        <v>0.311288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.290834</v>
+        <v>0.766749</v>
       </c>
       <c r="D55" t="n">
-        <v>0.766719</v>
+        <v>0.290642</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.451467</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.297497</v>
+        <v>0.292865</v>
       </c>
       <c r="C56" t="n">
-        <v>0.283145</v>
+        <v>0.755215</v>
       </c>
       <c r="D56" t="n">
-        <v>0.754849</v>
+        <v>0.28255</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.441015</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287972</v>
+        <v>0.290549</v>
       </c>
       <c r="C57" t="n">
-        <v>0.27606</v>
+        <v>0.744103</v>
       </c>
       <c r="D57" t="n">
-        <v>0.743935</v>
+        <v>0.275749</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.433564</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.281721</v>
+        <v>0.279138</v>
       </c>
       <c r="C58" t="n">
-        <v>0.269297</v>
+        <v>0.73497</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7345159999999999</v>
+        <v>0.268377</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.426429</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.28367</v>
+        <v>0.276386</v>
       </c>
       <c r="C59" t="n">
-        <v>0.263765</v>
+        <v>0.726183</v>
       </c>
       <c r="D59" t="n">
-        <v>0.725259</v>
+        <v>0.262146</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.422524</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.279611</v>
+        <v>0.266412</v>
       </c>
       <c r="C60" t="n">
-        <v>0.258454</v>
+        <v>0.718861</v>
       </c>
       <c r="D60" t="n">
-        <v>0.718741</v>
+        <v>0.257747</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.416385</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.268847</v>
+        <v>0.264233</v>
       </c>
       <c r="C61" t="n">
-        <v>0.251899</v>
+        <v>0.711963</v>
       </c>
       <c r="D61" t="n">
-        <v>0.711776</v>
+        <v>0.251944</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.411504</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.261531</v>
+        <v>0.256176</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247633</v>
+        <v>0.705602</v>
       </c>
       <c r="D62" t="n">
-        <v>0.705661</v>
+        <v>0.247576</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.407428</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.254764</v>
+        <v>0.250344</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243978</v>
+        <v>0.700754</v>
       </c>
       <c r="D63" t="n">
-        <v>0.701008</v>
+        <v>0.243468</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.404646</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251031</v>
+        <v>0.247636</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241648</v>
+        <v>0.910764</v>
       </c>
       <c r="D64" t="n">
-        <v>0.910289</v>
+        <v>0.241531</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.40257</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.255943</v>
+        <v>0.247168</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242419</v>
+        <v>0.8914069999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.891149</v>
+        <v>0.241438</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.403319</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.248274</v>
+        <v>0.249216</v>
       </c>
       <c r="C66" t="n">
-        <v>0.341124</v>
+        <v>0.872852</v>
       </c>
       <c r="D66" t="n">
-        <v>0.872559</v>
+        <v>0.34328</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.517176</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.384127</v>
+        <v>0.38748</v>
       </c>
       <c r="C67" t="n">
-        <v>0.329642</v>
+        <v>0.856978</v>
       </c>
       <c r="D67" t="n">
-        <v>0.856417</v>
+        <v>0.335261</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.509906</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.374419</v>
+        <v>0.382772</v>
       </c>
       <c r="C68" t="n">
-        <v>0.321215</v>
+        <v>0.841607</v>
       </c>
       <c r="D68" t="n">
-        <v>0.841531</v>
+        <v>0.322972</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.502428</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.371068</v>
+        <v>0.393056</v>
       </c>
       <c r="C69" t="n">
-        <v>0.317267</v>
+        <v>0.829643</v>
       </c>
       <c r="D69" t="n">
-        <v>0.828524</v>
+        <v>0.315115</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.494933</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.358949</v>
+        <v>0.371526</v>
       </c>
       <c r="C70" t="n">
-        <v>0.306078</v>
+        <v>0.819224</v>
       </c>
       <c r="D70" t="n">
-        <v>0.817453</v>
+        <v>0.310564</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.487069</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.344647</v>
+        <v>0.358373</v>
       </c>
       <c r="C71" t="n">
-        <v>0.302286</v>
+        <v>0.809685</v>
       </c>
       <c r="D71" t="n">
-        <v>0.80851</v>
+        <v>0.299827</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.479304</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.362728</v>
+        <v>0.332851</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292137</v>
+        <v>0.802829</v>
       </c>
       <c r="D72" t="n">
-        <v>0.800573</v>
+        <v>0.29464</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.473489</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.334079</v>
+        <v>0.354432</v>
       </c>
       <c r="C73" t="n">
-        <v>0.286193</v>
+        <v>0.796313</v>
       </c>
       <c r="D73" t="n">
-        <v>0.794295</v>
+        <v>0.290067</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.466843</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3337</v>
+        <v>0.337414</v>
       </c>
       <c r="C74" t="n">
-        <v>0.278999</v>
+        <v>0.791445</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7894139999999999</v>
+        <v>0.279501</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.461398</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.309779</v>
+        <v>0.341865</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278212</v>
+        <v>0.790745</v>
       </c>
       <c r="D75" t="n">
-        <v>0.783561</v>
+        <v>0.276977</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.456617</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.337407</v>
+        <v>0.328985</v>
       </c>
       <c r="C76" t="n">
-        <v>0.27005</v>
+        <v>0.788772</v>
       </c>
       <c r="D76" t="n">
-        <v>0.781689</v>
+        <v>0.27349</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.452535</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.332055</v>
+        <v>0.317131</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265089</v>
+        <v>0.7887999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.78149</v>
+        <v>0.267548</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.450079</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.33444</v>
+        <v>0.318508</v>
       </c>
       <c r="C78" t="n">
-        <v>0.264065</v>
+        <v>1.25365</v>
       </c>
       <c r="D78" t="n">
-        <v>1.2449</v>
+        <v>0.265305</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.448462</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.345735</v>
+        <v>0.296762</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265819</v>
+        <v>1.2301</v>
       </c>
       <c r="D79" t="n">
-        <v>1.22422</v>
+        <v>0.263441</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.448798</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.306585</v>
+        <v>0.315997</v>
       </c>
       <c r="C80" t="n">
-        <v>0.384859</v>
+        <v>1.21229</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20543</v>
+        <v>0.377498</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.735916</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.425951</v>
+        <v>0.420253</v>
       </c>
       <c r="C81" t="n">
-        <v>0.374035</v>
+        <v>1.19673</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19023</v>
+        <v>0.374786</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.738872</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.463396</v>
+        <v>0.42511</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370428</v>
+        <v>1.18236</v>
       </c>
       <c r="D82" t="n">
-        <v>1.17941</v>
+        <v>0.365844</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.734523</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.428593</v>
+        <v>0.433888</v>
       </c>
       <c r="C83" t="n">
-        <v>0.358895</v>
+        <v>1.16885</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1678</v>
+        <v>0.362474</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.727653</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.38913</v>
+        <v>0.45581</v>
       </c>
       <c r="C84" t="n">
-        <v>0.353949</v>
+        <v>1.16259</v>
       </c>
       <c r="D84" t="n">
-        <v>1.15725</v>
+        <v>0.357641</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.716735</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.424595</v>
+        <v>0.411766</v>
       </c>
       <c r="C85" t="n">
-        <v>0.347645</v>
+        <v>1.15772</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15325</v>
+        <v>0.347084</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.707879</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.404293</v>
+        <v>0.396592</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342433</v>
+        <v>1.16422</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15085</v>
+        <v>0.340022</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.695245</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.391946</v>
+        <v>0.417343</v>
       </c>
       <c r="C87" t="n">
-        <v>0.331714</v>
+        <v>1.15273</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15146</v>
+        <v>0.333589</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.679684</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.405623</v>
+        <v>0.37566</v>
       </c>
       <c r="C88" t="n">
-        <v>0.331421</v>
+        <v>1.16391</v>
       </c>
       <c r="D88" t="n">
-        <v>1.15583</v>
+        <v>0.329533</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.667842</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.407835</v>
+        <v>0.371891</v>
       </c>
       <c r="C89" t="n">
-        <v>0.322301</v>
+        <v>1.1737</v>
       </c>
       <c r="D89" t="n">
-        <v>1.1643</v>
+        <v>0.327056</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.655288</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.384799</v>
+        <v>0.370324</v>
       </c>
       <c r="C90" t="n">
-        <v>0.31217</v>
+        <v>1.17759</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17195</v>
+        <v>0.319663</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.645201</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.422905</v>
+        <v>0.372391</v>
       </c>
       <c r="C91" t="n">
-        <v>0.30765</v>
+        <v>1.19265</v>
       </c>
       <c r="D91" t="n">
-        <v>1.18516</v>
+        <v>0.312426</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.6355189999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.431712</v>
+        <v>0.365189</v>
       </c>
       <c r="C92" t="n">
-        <v>0.30512</v>
+        <v>1.75665</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75297</v>
+        <v>0.310369</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.628414</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.366467</v>
+        <v>0.375362</v>
       </c>
       <c r="C93" t="n">
-        <v>0.302312</v>
+        <v>1.749</v>
       </c>
       <c r="D93" t="n">
-        <v>1.7404</v>
+        <v>0.307166</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.622741</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363372</v>
+        <v>0.363592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.502112</v>
+        <v>1.7341</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73</v>
+        <v>0.508741</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.12373</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.586085</v>
+        <v>0.565922</v>
       </c>
       <c r="C95" t="n">
-        <v>0.497038</v>
+        <v>1.72364</v>
       </c>
       <c r="D95" t="n">
-        <v>1.71811</v>
+        <v>0.498456</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.11517</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.567692</v>
+        <v>0.559426</v>
       </c>
       <c r="C96" t="n">
-        <v>0.486791</v>
+        <v>1.7111</v>
       </c>
       <c r="D96" t="n">
-        <v>1.7086</v>
+        <v>0.487063</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.106</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.556839</v>
+        <v>0.5571159999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.473055</v>
+        <v>1.70361</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70034</v>
+        <v>0.479425</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.0876</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.532856</v>
+        <v>0.5551160000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.465196</v>
+        <v>1.69883</v>
       </c>
       <c r="D98" t="n">
-        <v>1.69526</v>
+        <v>0.46507</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.07101</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528748</v>
+        <v>0.52803</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455576</v>
+        <v>1.69457</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69102</v>
+        <v>0.455364</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.04392</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.526054</v>
+        <v>0.525116</v>
       </c>
       <c r="C100" t="n">
-        <v>0.444117</v>
+        <v>1.69432</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69237</v>
+        <v>0.445892</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.03611</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.50663</v>
+        <v>0.51281</v>
       </c>
       <c r="C101" t="n">
-        <v>0.435455</v>
+        <v>1.70433</v>
       </c>
       <c r="D101" t="n">
-        <v>1.69907</v>
+        <v>0.43751</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.01836</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.524594</v>
+        <v>0.505146</v>
       </c>
       <c r="C102" t="n">
-        <v>0.427132</v>
+        <v>1.70848</v>
       </c>
       <c r="D102" t="n">
-        <v>1.70615</v>
+        <v>0.42698</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.00246</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.516131</v>
+        <v>0.488172</v>
       </c>
       <c r="C103" t="n">
-        <v>0.419709</v>
+        <v>1.71707</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71348</v>
+        <v>0.419839</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.9881259999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.515663</v>
+        <v>0.475395</v>
       </c>
       <c r="C104" t="n">
-        <v>0.41207</v>
+        <v>1.72698</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72564</v>
+        <v>0.410401</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.955756</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.473794</v>
+        <v>0.480137</v>
       </c>
       <c r="C105" t="n">
-        <v>0.403911</v>
+        <v>1.74062</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73939</v>
+        <v>0.403976</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.944132</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511832</v>
+        <v>0.473886</v>
       </c>
       <c r="C106" t="n">
-        <v>0.397724</v>
+        <v>1.75791</v>
       </c>
       <c r="D106" t="n">
-        <v>1.75618</v>
+        <v>0.400551</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.939347</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.480203</v>
+        <v>0.474711</v>
       </c>
       <c r="C107" t="n">
-        <v>0.39389</v>
+        <v>2.36081</v>
       </c>
       <c r="D107" t="n">
-        <v>2.3572</v>
+        <v>0.394267</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.944062</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.470095</v>
+        <v>0.465288</v>
       </c>
       <c r="C108" t="n">
-        <v>0.593678</v>
+        <v>2.3318</v>
       </c>
       <c r="D108" t="n">
-        <v>2.32933</v>
+        <v>0.601285</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.38983</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.471494</v>
+        <v>0.476117</v>
       </c>
       <c r="C109" t="n">
-        <v>0.58725</v>
+        <v>2.30707</v>
       </c>
       <c r="D109" t="n">
-        <v>2.303</v>
+        <v>0.54212</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.40167</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.662493</v>
+        <v>0.666007</v>
       </c>
       <c r="C110" t="n">
-        <v>0.577722</v>
+        <v>2.28308</v>
       </c>
       <c r="D110" t="n">
-        <v>2.28226</v>
+        <v>0.584297</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.39881</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.660148</v>
+        <v>0.673196</v>
       </c>
       <c r="C111" t="n">
-        <v>0.523644</v>
+        <v>2.27356</v>
       </c>
       <c r="D111" t="n">
-        <v>2.26109</v>
+        <v>0.570959</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.40246</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.654776</v>
+        <v>0.61621</v>
       </c>
       <c r="C112" t="n">
-        <v>0.515118</v>
+        <v>2.24791</v>
       </c>
       <c r="D112" t="n">
-        <v>2.24602</v>
+        <v>0.513023</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.41346</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6201449999999999</v>
+        <v>0.642593</v>
       </c>
       <c r="C113" t="n">
-        <v>0.505238</v>
+        <v>2.23845</v>
       </c>
       <c r="D113" t="n">
-        <v>2.23411</v>
+        <v>0.547413</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.40591</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.594193</v>
+        <v>0.617134</v>
       </c>
       <c r="C114" t="n">
-        <v>0.491884</v>
+        <v>2.25095</v>
       </c>
       <c r="D114" t="n">
-        <v>2.26369</v>
+        <v>0.499325</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.41149</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5983270000000001</v>
+        <v>0.621883</v>
       </c>
       <c r="C115" t="n">
-        <v>0.48648</v>
+        <v>2.26209</v>
       </c>
       <c r="D115" t="n">
-        <v>2.26712</v>
+        <v>0.526997</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.39902</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.586243</v>
+        <v>0.599272</v>
       </c>
       <c r="C116" t="n">
-        <v>0.515058</v>
+        <v>2.26963</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27099</v>
+        <v>0.517001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.40766</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.601228</v>
+        <v>0.600155</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5049400000000001</v>
+        <v>2.24951</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2742</v>
+        <v>0.507757</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.41365</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.579462</v>
+        <v>0.581941</v>
       </c>
       <c r="C118" t="n">
-        <v>0.495882</v>
+        <v>2.21872</v>
       </c>
       <c r="D118" t="n">
-        <v>2.21799</v>
+        <v>0.465975</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.22804</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.539755</v>
+        <v>0.5379969999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.455672</v>
+        <v>2.22707</v>
       </c>
       <c r="D119" t="n">
-        <v>2.22449</v>
+        <v>0.461302</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.22863</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.512887</v>
+        <v>0.5649960000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.453484</v>
+        <v>2.23708</v>
       </c>
       <c r="D120" t="n">
-        <v>2.23473</v>
+        <v>0.45407</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.43598</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.543001</v>
+        <v>0.538647</v>
       </c>
       <c r="C121" t="n">
-        <v>0.445588</v>
+        <v>2.91675</v>
       </c>
       <c r="D121" t="n">
-        <v>2.91312</v>
+        <v>0.451855</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.00673</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.543299</v>
+        <v>0.544757</v>
       </c>
       <c r="C122" t="n">
-        <v>0.472795</v>
+        <v>2.87312</v>
       </c>
       <c r="D122" t="n">
-        <v>2.87269</v>
+        <v>0.451189</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.00889</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.538182</v>
+        <v>0.526637</v>
       </c>
       <c r="C123" t="n">
-        <v>0.640948</v>
+        <v>2.82899</v>
       </c>
       <c r="D123" t="n">
-        <v>2.83265</v>
+        <v>0.647332</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.9378</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7321530000000001</v>
+        <v>0.743348</v>
       </c>
       <c r="C124" t="n">
-        <v>0.632574</v>
+        <v>2.79159</v>
       </c>
       <c r="D124" t="n">
-        <v>2.79163</v>
+        <v>0.639825</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.92725</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.699331</v>
+        <v>0.718209</v>
       </c>
       <c r="C125" t="n">
-        <v>0.627347</v>
+        <v>2.76599</v>
       </c>
       <c r="D125" t="n">
-        <v>2.763</v>
+        <v>0.652953</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.91823</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.69742</v>
+        <v>0.7032350000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.618466</v>
+        <v>2.73573</v>
       </c>
       <c r="D126" t="n">
-        <v>2.73357</v>
+        <v>0.623981</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.90737</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.695506</v>
+        <v>0.706894</v>
       </c>
       <c r="C127" t="n">
-        <v>0.614345</v>
+        <v>2.70766</v>
       </c>
       <c r="D127" t="n">
-        <v>2.70882</v>
+        <v>0.618266</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.90192</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6905019999999999</v>
+        <v>0.684032</v>
       </c>
       <c r="C128" t="n">
-        <v>0.609505</v>
+        <v>2.68973</v>
       </c>
       <c r="D128" t="n">
-        <v>2.68381</v>
+        <v>0.6141180000000001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.898</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.689095</v>
+        <v>0.672601</v>
       </c>
       <c r="C129" t="n">
-        <v>0.603488</v>
+        <v>2.67435</v>
       </c>
       <c r="D129" t="n">
-        <v>2.67029</v>
+        <v>0.606584</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.89182</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.687016</v>
+        <v>0.68408</v>
       </c>
       <c r="C130" t="n">
-        <v>0.617592</v>
+        <v>2.65888</v>
       </c>
       <c r="D130" t="n">
-        <v>2.6632</v>
+        <v>0.600969</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.88611</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6702399999999999</v>
+        <v>0.6610009999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.592869</v>
+        <v>2.64792</v>
       </c>
       <c r="D131" t="n">
-        <v>2.64604</v>
+        <v>0.596521</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.87871</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6608309999999999</v>
+        <v>0.656222</v>
       </c>
       <c r="C132" t="n">
-        <v>0.590279</v>
+        <v>2.64095</v>
       </c>
       <c r="D132" t="n">
-        <v>2.63764</v>
+        <v>0.59161</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.88867</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.652332</v>
+        <v>0.649655</v>
       </c>
       <c r="C133" t="n">
-        <v>0.584928</v>
+        <v>2.63626</v>
       </c>
       <c r="D133" t="n">
-        <v>2.63181</v>
+        <v>0.589345</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.88601</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.632695</v>
+        <v>0.6433449999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.583862</v>
+        <v>2.62079</v>
       </c>
       <c r="D134" t="n">
-        <v>2.61158</v>
+        <v>0.556621</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.65119</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.628698</v>
+        <v>0.646099</v>
       </c>
       <c r="C135" t="n">
-        <v>0.553288</v>
+        <v>3.31454</v>
       </c>
       <c r="D135" t="n">
-        <v>3.3114</v>
+        <v>0.553752</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.41279</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.601122</v>
+        <v>0.602583</v>
       </c>
       <c r="C136" t="n">
-        <v>0.548346</v>
+        <v>3.25825</v>
       </c>
       <c r="D136" t="n">
-        <v>3.25388</v>
+        <v>0.552256</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.87948</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.598803</v>
+        <v>0.624117</v>
       </c>
       <c r="C137" t="n">
-        <v>0.742761</v>
+        <v>3.20479</v>
       </c>
       <c r="D137" t="n">
-        <v>3.2024</v>
+        <v>0.746314</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.37118</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.79722</v>
+        <v>0.830888</v>
       </c>
       <c r="C138" t="n">
-        <v>0.74026</v>
+        <v>3.16216</v>
       </c>
       <c r="D138" t="n">
-        <v>3.15342</v>
+        <v>0.741943</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.35955</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.80636</v>
+        <v>0.789757</v>
       </c>
       <c r="C139" t="n">
-        <v>0.736531</v>
+        <v>3.11076</v>
       </c>
       <c r="D139" t="n">
-        <v>3.11039</v>
+        <v>0.739832</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.34385</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.784975</v>
+        <v>0.796743</v>
       </c>
       <c r="C140" t="n">
-        <v>0.733689</v>
+        <v>3.08032</v>
       </c>
       <c r="D140" t="n">
-        <v>3.07472</v>
+        <v>0.736888</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.32027</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.791251</v>
+        <v>0.772798</v>
       </c>
       <c r="C141" t="n">
-        <v>0.733027</v>
+        <v>3.04803</v>
       </c>
       <c r="D141" t="n">
-        <v>3.0489</v>
+        <v>0.734541</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.30807</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.777686</v>
+        <v>0.7704220000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.729364</v>
+        <v>3.0256</v>
       </c>
       <c r="D142" t="n">
-        <v>3.02402</v>
+        <v>0.732003</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.28791</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.771869</v>
+        <v>0.787368</v>
       </c>
       <c r="C143" t="n">
-        <v>0.726338</v>
+        <v>2.9988</v>
       </c>
       <c r="D143" t="n">
-        <v>3.00008</v>
+        <v>0.727799</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.27182</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15495</v>
+                  <v>0.15337</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.153545</v>
+                  <v>0.155158</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.156261</v>
+                  <v>0.159661</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.154468</v>
+                  <v>0.151036</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.159997</v>
+                  <v>0.145481</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.148057</v>
+                  <v>0.143135</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.149778</v>
+                  <v>0.148369</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154311</v>
+                  <v>0.150446</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.223686</v>
+                  <v>0.207322</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.205186</v>
+                  <v>0.209592</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.205051</v>
+                  <v>0.195598</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.191499</v>
+                  <v>0.190781</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.185229</v>
+                  <v>0.190823</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.180374</v>
+                  <v>0.175134</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.173777</v>
+                  <v>0.168551</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174067</v>
+                  <v>0.159679</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.166807</v>
+                  <v>0.164206</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.160047</v>
+                  <v>0.167199</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.157303</v>
+                  <v>0.154037</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.156402</v>
+                  <v>0.157372</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163726</v>
+                  <v>0.151621</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.160119</v>
+                  <v>0.157259</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.240097</v>
+                  <v>0.238303</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231232</v>
+                  <v>0.224434</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227764</v>
+                  <v>0.224004</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.219773</v>
+                  <v>0.215688</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.21386</v>
+                  <v>0.20293</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.200835</v>
+                  <v>0.198964</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.197722</v>
+                  <v>0.187941</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185452</v>
+                  <v>0.185272</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.185902</v>
+                  <v>0.178074</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179391</v>
+                  <v>0.173278</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.174647</v>
+                  <v>0.170074</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167433</v>
+                  <v>0.168305</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.173431</v>
+                  <v>0.170652</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169377</v>
+                  <v>0.167843</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.245427</v>
+                  <v>0.243961</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236324</v>
+                  <v>0.235067</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.228014</v>
+                  <v>0.22627</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220475</v>
+                  <v>0.218024</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.211363</v>
+                  <v>0.210212</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.205815</v>
+                  <v>0.202858</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.198957</v>
+                  <v>0.196171</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.192026</v>
+                  <v>0.190461</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.186259</v>
+                  <v>0.185034</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.182829</v>
+                  <v>0.180206</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.178498</v>
+                  <v>0.176532</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174932</v>
+                  <v>0.173492</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173529</v>
+                  <v>0.171855</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.174603</v>
+                  <v>0.172451</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.178568</v>
+                  <v>0.174531</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.242911</v>
+                  <v>0.241212</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233062</v>
+                  <v>0.231315</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.225756</v>
+                  <v>0.222959</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219169</v>
+                  <v>0.216001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.211266</v>
+                  <v>0.208546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.204869</v>
+                  <v>0.20144</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198465</v>
+                  <v>0.195596</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.192641</v>
+                  <v>0.189667</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.187453</v>
+                  <v>0.184353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.183317</v>
+                  <v>0.180335</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.180442</v>
+                  <v>0.178093</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.178772</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.178868</v>
+                  <v>0.176322</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.182404</v>
+                  <v>0.178398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246499</v>
+                  <v>0.246205</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.24057</v>
+                  <v>0.235745</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.229261</v>
+                  <v>0.22844</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.222631</v>
+                  <v>0.219722</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.214224</v>
+                  <v>0.211882</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.208225</v>
+                  <v>0.205851</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200051</v>
+                  <v>0.199915</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.196592</v>
+                  <v>0.19416</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.191699</v>
+                  <v>0.188783</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.187385</v>
+                  <v>0.183925</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.184281</v>
+                  <v>0.182219</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.181944</v>
+                  <v>0.178711</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181193</v>
+                  <v>0.17904</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.183598</v>
+                  <v>0.180346</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.259901</v>
+                  <v>0.257797</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.251809</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245416</v>
+                  <v>0.242374</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236506</v>
+                  <v>0.233789</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.228865</v>
+                  <v>0.22662</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222002</v>
+                  <v>0.219911</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215267</v>
+                  <v>0.21385</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208708</v>
+                  <v>0.20712</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.203164</v>
+                  <v>0.2016</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.198265</v>
+                  <v>0.196505</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.194029</v>
+                  <v>0.193329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191051</v>
+                  <v>0.190124</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.190331</v>
+                  <v>0.188597</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.190609</v>
+                  <v>0.189371</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271708</v>
+                  <v>0.270674</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265444</v>
+                  <v>0.265072</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258822</v>
+                  <v>0.258834</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251693</v>
+                  <v>0.251641</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245207</v>
+                  <v>0.245263</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238911</v>
+                  <v>0.238488</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233314</v>
+                  <v>0.233411</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227926</v>
+                  <v>0.227946</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.223038</v>
+                  <v>0.222458</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218392</v>
+                  <v>0.218327</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214392</v>
+                  <v>0.214176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211043</v>
+                  <v>0.211275</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208798</v>
+                  <v>0.208723</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208902</v>
+                  <v>0.208655</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210912</v>
+                  <v>0.210629</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.282122</v>
+                  <v>0.285509</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277332</v>
+                  <v>0.278433</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271849</v>
+                  <v>0.271806</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265643</v>
+                  <v>0.266427</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259825</v>
+                  <v>0.260565</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254755</v>
+                  <v>0.255512</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.249822</v>
+                  <v>0.250615</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.24522</v>
+                  <v>0.245594</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241839</v>
+                  <v>0.244716</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23729</v>
+                  <v>0.237814</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234272</v>
+                  <v>0.234924</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232088</v>
+                  <v>0.232693</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231128</v>
+                  <v>0.231404</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232239</v>
+                  <v>0.232607</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.317627</v>
+                  <v>0.316721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.312009</v>
+                  <v>0.311521</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.30586</v>
+                  <v>0.304916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.300592</v>
+                  <v>0.299863</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.295357</v>
+                  <v>0.294634</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291282</v>
+                  <v>0.290007</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.290024</v>
+                  <v>0.285681</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.292332</v>
+                  <v>0.281672</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.316529</v>
+                  <v>0.278486</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.313286</v>
+                  <v>0.275255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.269433</v>
+                  <v>0.272149</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.267928</v>
+                  <v>0.270314</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.267051</v>
+                  <v>0.269997</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267636</v>
+                  <v>0.270583</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.350842</v>
+                  <v>0.369063</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.345442</v>
+                  <v>0.363506</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.341276</v>
+                  <v>0.358269</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.336592</v>
+                  <v>0.352863</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.332195</v>
+                  <v>0.34801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.328062</v>
+                  <v>0.34351</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.133487</v>
+                  <v>0.312145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.128996</v>
+                  <v>0.311864</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.128778</v>
+                  <v>0.311341</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.123893</v>
+                  <v>0.306772</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.115629</v>
+                  <v>0.308161</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.117525</v>
+                  <v>0.408994</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.110211</v>
+                  <v>0.405189</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.176215</v>
+                  <v>0.401577</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.169618</v>
+                  <v>0.391147</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167522</v>
+                  <v>0.391102</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.164985</v>
+                  <v>0.38111</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.157948</v>
+                  <v>0.379912</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.154722</v>
+                  <v>0.376405</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.145283</v>
+                  <v>0.370044</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.14847</v>
+                  <v>0.366509</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.137933</v>
+                  <v>0.362169</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.132223</v>
+                  <v>0.364199</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.130486</v>
+                  <v>0.36117</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.124625</v>
+                  <v>0.357351</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.122399</v>
+                  <v>0.478261</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.122231</v>
+                  <v>0.464696</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.215673</v>
+                  <v>0.456439</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209008</v>
+                  <v>0.448159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.196812</v>
+                  <v>0.440673</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.193513</v>
+                  <v>0.431649</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.186064</v>
+                  <v>0.425692</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.182841</v>
+                  <v>0.418998</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175024</v>
+                  <v>0.412593</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170131</v>
+                  <v>0.408417</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.161414</v>
+                  <v>0.40367</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.156848</v>
+                  <v>0.399719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.155946</v>
+                  <v>0.393748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14656</v>
+                  <v>0.390428</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150628</v>
+                  <v>0.499331</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.146053</v>
+                  <v>0.48684</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230175</v>
+                  <v>0.478061</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222468</v>
+                  <v>0.46875</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212657</v>
+                  <v>0.458947</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20674</v>
+                  <v>0.450864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198642</v>
+                  <v>0.443182</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191772</v>
+                  <v>0.437353</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.188281</v>
+                  <v>0.430382</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.177377</v>
+                  <v>0.424477</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171985</v>
+                  <v>0.419409</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166429</v>
+                  <v>0.414636</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.166079</v>
+                  <v>0.40978</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159028</v>
+                  <v>0.406225</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.15706</v>
+                  <v>0.403185</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.156108</v>
+                  <v>0.506923</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.244006</v>
+                  <v>0.49607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.234167</v>
+                  <v>0.485393</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.224348</v>
+                  <v>0.47704</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.216183</v>
+                  <v>0.467187</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.208516</v>
+                  <v>0.459395</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.200898</v>
+                  <v>0.452921</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.193874</v>
+                  <v>0.445497</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.186857</v>
+                  <v>0.440853</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.180909</v>
+                  <v>0.434352</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.175261</v>
+                  <v>0.430313</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.170349</v>
+                  <v>0.426534</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.166078</v>
+                  <v>0.422625</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.163411</v>
+                  <v>0.419713</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.161494</v>
+                  <v>0.544347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.16251</v>
+                  <v>0.53371</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.243741</v>
+                  <v>0.523499</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.233795</v>
+                  <v>0.516787</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.226048</v>
+                  <v>0.508951</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.218522</v>
+                  <v>0.500625</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.208423</v>
+                  <v>0.494779</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.20239</v>
+                  <v>0.489162</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.195978</v>
+                  <v>0.483936</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.190244</v>
+                  <v>0.481121</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.183549</v>
+                  <v>0.496074</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17921</v>
+                  <v>0.488899</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.174505</v>
+                  <v>0.486092</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.17026</v>
+                  <v>0.483301</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.168555</v>
+                  <v>0.6619080000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.167771</v>
+                  <v>0.651641</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.243049</v>
+                  <v>0.6414840000000001</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.233663</v>
+                  <v>0.634898</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225806</v>
+                  <v>0.626458</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.217961</v>
+                  <v>0.619111</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.210345</v>
+                  <v>0.618937</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.202909</v>
+                  <v>0.616578</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.196278</v>
+                  <v>0.616543</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.190457</v>
+                  <v>0.618468</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.184578</v>
+                  <v>0.618605</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.179115</v>
+                  <v>0.631288</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.174858</v>
+                  <v>0.634706</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171276</v>
+                  <v>0.640709</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.168786</v>
+                  <v>0.853437</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169004</v>
+                  <v>0.851041</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254981</v>
+                  <v>0.846677</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247215</v>
+                  <v>0.839566</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.239115</v>
+                  <v>0.837027</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230624</v>
+                  <v>0.84036</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222856</v>
+                  <v>0.840439</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21591</v>
+                  <v>0.841024</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.209102</v>
+                  <v>0.84118</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.202675</v>
+                  <v>0.845235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.196973</v>
+                  <v>0.849178</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.19177</v>
+                  <v>0.859448</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.187172</v>
+                  <v>0.866117</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.183301</v>
+                  <v>0.873801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18078</v>
+                  <v>0.882031</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179522</v>
+                  <v>1.12628</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.269489</v>
+                  <v>1.11366</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.262897</v>
+                  <v>1.10831</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.256726</v>
+                  <v>1.09924</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.247451</v>
+                  <v>1.10141</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24043</v>
+                  <v>1.09589</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233607</v>
+                  <v>1.09404</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227423</v>
+                  <v>1.09267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221229</v>
+                  <v>1.09583</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215868</v>
+                  <v>1.09592</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.210591</v>
+                  <v>1.09785</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.206479</v>
+                  <v>1.10406</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202559</v>
+                  <v>1.1105</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.199773</v>
+                  <v>1.1192</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198176</v>
+                  <v>1.38021</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.198841</v>
+                  <v>1.36711</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285232</v>
+                  <v>1.35208</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.276811</v>
+                  <v>1.33879</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.270839</v>
+                  <v>1.33025</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.265608</v>
+                  <v>1.32117</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.260523</v>
+                  <v>1.31379</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.255044</v>
+                  <v>1.30768</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.251807</v>
+                  <v>1.30326</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.249694</v>
+                  <v>1.30056</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.266801</v>
+                  <v>1.30008</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.263743</v>
+                  <v>1.30108</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.282668</v>
+                  <v>1.30141</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.233059</v>
+                  <v>1.30559</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.231579</v>
+                  <v>1.58034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.231913</v>
+                  <v>1.55781</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.326305</v>
+                  <v>1.53836</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320686</v>
+                  <v>1.5207</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315677</v>
+                  <v>1.50344</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.310855</v>
+                  <v>1.49007</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.306001</v>
+                  <v>1.47742</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.30133</v>
+                  <v>1.46587</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.297474</v>
+                  <v>1.45791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.344005</v>
+                  <v>0.142888</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.340023</v>
+                  <v>0.144159</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.339171</v>
+                  <v>0.139729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.337006</v>
+                  <v>0.130455</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.334346</v>
+                  <v>0.130001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.44346</v>
+                  <v>0.114646</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.42934</v>
+                  <v>0.121203</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.422947</v>
+                  <v>0.177485</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.414834</v>
+                  <v>0.178184</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.412844</v>
+                  <v>0.167977</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.410981</v>
+                  <v>0.158496</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.402817</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.395902</v>
+                  <v>0.15716</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.389522</v>
+                  <v>0.142005</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.38781</v>
+                  <v>0.136816</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.384793</v>
+                  <v>0.139587</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.379955</v>
+                  <v>0.131545</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.378853</v>
+                  <v>0.129135</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.373582</v>
+                  <v>0.123154</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.476217</v>
+                  <v>0.1263</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.46546</v>
+                  <v>0.129065</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.464787</v>
+                  <v>0.214336</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.45141</v>
+                  <v>0.21995</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.445799</v>
+                  <v>0.204141</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.434497</v>
+                  <v>0.187606</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.427631</v>
+                  <v>0.185954</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.419558</v>
+                  <v>0.178845</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.411806</v>
+                  <v>0.168237</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.406268</v>
+                  <v>0.165532</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.401866</v>
+                  <v>0.164239</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.397333</v>
+                  <v>0.154562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393844</v>
+                  <v>0.153521</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.389286</v>
+                  <v>0.14963</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.493518</v>
+                  <v>0.150836</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.484731</v>
+                  <v>0.14771</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.475688</v>
+                  <v>0.230768</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.463878</v>
+                  <v>0.222972</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.455129</v>
+                  <v>0.213998</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.446551</v>
+                  <v>0.205509</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.438381</v>
+                  <v>0.19903</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.43272</v>
+                  <v>0.191431</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.425374</v>
+                  <v>0.185004</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.420618</v>
+                  <v>0.178242</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.41841</v>
+                  <v>0.171721</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414417</v>
+                  <v>0.166785</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.412106</v>
+                  <v>0.163076</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406774</v>
+                  <v>0.159074</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.402662</v>
+                  <v>0.157048</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.505211</v>
+                  <v>0.155008</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.498063</v>
+                  <v>0.241177</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485203</v>
+                  <v>0.232474</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.477573</v>
+                  <v>0.222617</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.46772</v>
+                  <v>0.214052</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.463373</v>
+                  <v>0.206278</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.4539</v>
+                  <v>0.198674</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.446932</v>
+                  <v>0.191601</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440617</v>
+                  <v>0.184668</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.437856</v>
+                  <v>0.179357</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.432426</v>
+                  <v>0.1736</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.428781</v>
+                  <v>0.168138</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.423174</v>
+                  <v>0.164634</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.422691</v>
+                  <v>0.161852</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.5450739999999999</v>
+                  <v>0.159915</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.540152</v>
+                  <v>0.160633</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.524844</v>
+                  <v>0.241778</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.515304</v>
+                  <v>0.234316</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.507802</v>
+                  <v>0.223856</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.498374</v>
+                  <v>0.214878</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494679</v>
+                  <v>0.206553</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.495527</v>
+                  <v>0.200975</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483948</v>
+                  <v>0.194188</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481365</v>
+                  <v>0.188362</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496964</v>
+                  <v>0.182427</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.492901</v>
+                  <v>0.17682</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.489043</v>
+                  <v>0.171969</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.486233</v>
+                  <v>0.167466</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.664263</v>
+                  <v>0.166872</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.653161</v>
+                  <v>0.166623</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.643571</v>
+                  <v>0.2389</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.63595</v>
+                  <v>0.231233</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.629796</v>
+                  <v>0.222629</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.622012</v>
+                  <v>0.215057</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.619332</v>
+                  <v>0.207065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.615398</v>
+                  <v>0.200438</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.615523</v>
+                  <v>0.193262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.615955</v>
+                  <v>0.187335</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.622347</v>
+                  <v>0.182132</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631071</v>
+                  <v>0.176589</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.635074</v>
+                  <v>0.173081</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.639845</v>
+                  <v>0.169023</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.852201</v>
+                  <v>0.166908</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.847971</v>
+                  <v>0.166814</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.845392</v>
+                  <v>0.252534</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.8368139999999999</v>
+                  <v>0.244438</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.834033</v>
+                  <v>0.236967</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.841704</v>
+                  <v>0.229011</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.83904</v>
+                  <v>0.220682</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.838568</v>
+                  <v>0.213943</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.839709</v>
+                  <v>0.20784</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.842832</v>
+                  <v>0.20147</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.8481</v>
+                  <v>0.195865</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.858892</v>
+                  <v>0.190898</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.865506</v>
+                  <v>0.186294</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.870801</v>
+                  <v>0.182449</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.883047</v>
+                  <v>0.180164</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.1251</v>
+                  <v>0.179211</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11268</v>
+                  <v>0.268571</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10474</v>
+                  <v>0.263123</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09904</v>
+                  <v>0.255147</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.09986</v>
+                  <v>0.248045</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09551</v>
+                  <v>0.24044</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09076</v>
+                  <v>0.234071</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09524</v>
+                  <v>0.227632</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09316</v>
+                  <v>0.22211</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09388</v>
+                  <v>0.216672</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.0979</v>
+                  <v>0.211883</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10358</v>
+                  <v>0.2085</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.11072</v>
+                  <v>0.204125</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.11523</v>
+                  <v>0.201067</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38026</v>
+                  <v>0.199423</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36735</v>
+                  <v>0.200191</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35413</v>
+                  <v>0.285389</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.34011</v>
+                  <v>0.279535</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33068</v>
+                  <v>0.273237</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32008</v>
+                  <v>0.267652</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.3181</v>
+                  <v>0.26304</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.31133</v>
+                  <v>0.258886</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.2952</v>
+                  <v>0.254448</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30043</v>
+                  <v>0.250205</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.45637</v>
+                  <v>0.24612</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.43621</v>
+                  <v>0.243283</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30867</v>
+                  <v>0.240187</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30653</v>
+                  <v>0.238426</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.581</v>
+                  <v>0.236633</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.56049</v>
+                  <v>0.23708</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53923</v>
+                  <v>0.334836</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.52452</v>
+                  <v>0.329067</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50727</v>
+                  <v>0.323726</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.4928</v>
+                  <v>0.319833</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.4814</v>
+                  <v>0.314732</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46927</v>
+                  <v>0.310756</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.46123</v>
+                  <v>0.307162</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.271192</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.269766</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.261942</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.266898</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.264205</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.261823</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.260876</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.337755</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.32141</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.306307</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.303579</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.295531</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.290788</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.286236</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.27627</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.269827</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.269586</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.261332</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.262818</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.25938</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.25735</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.333717</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.338816</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.31587</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.308427</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.298987</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.294611</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.288183</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.281609</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.27668</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272235</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.267661</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.264742</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.262336</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263208</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347369</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.339619</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.332237</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323095</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315365</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.308467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.302061</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296349</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.290374</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.285623</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.281956</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.278551</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.276744</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.275847</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.35945</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.352226</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342043</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334021</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.329362</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.3219</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.31556</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.309051</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.303773</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298791</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.29423</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.29061</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.28855</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286849</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288573</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.368444</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.360264</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.351966</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.346137</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.338777</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.33184</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.324914</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.319398</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.313882</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.308808</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.305441</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301947</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.303099</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.303311</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.384061</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.377682</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.372194</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.364102</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360852</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.355225</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.34856</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.34299</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338553</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332812</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329783</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.326459</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.325092</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.32522</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.452238</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.451668</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.447145</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.442183</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.437287</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.432007</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.428233</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.423292</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.418646</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.41523</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.411758</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.409843</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.408188</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.407718</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.566439</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.564304</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.557965</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.551828</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.544925</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.5423289999999999</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.536821</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.533166</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.529174</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.526789</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.52432</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.523133</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.520985</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.520991</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.522709</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.694646</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.688746</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.685202</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.680929</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.678063</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.660381</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.669822</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.66858</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.666127</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.664091</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.662888</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.662808</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.663058</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.664988</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.847299</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.846291</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.845287</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.8449950000000001</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.844019</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.844831</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.844638</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242288</v>
+        <v>0.243948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.551678</v>
+        <v>0.417601</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214368</v>
+        <v>0.215565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.385861</v>
+        <v>0.389176</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238144</v>
+        <v>0.236305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.541991</v>
+        <v>0.411473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219437</v>
+        <v>0.216124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.379963</v>
+        <v>0.38231</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234495</v>
+        <v>0.23332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.540165</v>
+        <v>0.405785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20385</v>
+        <v>0.205403</v>
       </c>
       <c r="E4" t="n">
-        <v>0.378194</v>
+        <v>0.376977</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.226503</v>
+        <v>0.233268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.537834</v>
+        <v>0.401577</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19943</v>
+        <v>0.20068</v>
       </c>
       <c r="E5" t="n">
-        <v>0.373761</v>
+        <v>0.372022</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225041</v>
+        <v>0.220088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.533384</v>
+        <v>0.395984</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196235</v>
+        <v>0.197559</v>
       </c>
       <c r="E6" t="n">
-        <v>0.370388</v>
+        <v>0.368667</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224757</v>
+        <v>0.218794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.67822</v>
+        <v>0.392632</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193252</v>
+        <v>0.194752</v>
       </c>
       <c r="E7" t="n">
-        <v>0.368268</v>
+        <v>0.365991</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.215458</v>
+        <v>0.216753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.664214</v>
+        <v>0.391349</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194289</v>
+        <v>0.194716</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36888</v>
+        <v>0.366203</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216387</v>
+        <v>0.21575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.650278</v>
+        <v>0.390249</v>
       </c>
       <c r="D9" t="n">
-        <v>0.284802</v>
+        <v>0.287535</v>
       </c>
       <c r="E9" t="n">
-        <v>0.455396</v>
+        <v>0.454197</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.310303</v>
+        <v>0.310615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.639454</v>
+        <v>0.486036</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273463</v>
+        <v>0.280616</v>
       </c>
       <c r="E10" t="n">
-        <v>0.443955</v>
+        <v>0.443529</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.30187</v>
+        <v>0.296796</v>
       </c>
       <c r="C11" t="n">
-        <v>0.628346</v>
+        <v>0.469563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.264686</v>
+        <v>0.267106</v>
       </c>
       <c r="E11" t="n">
-        <v>0.434085</v>
+        <v>0.433638</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286481</v>
+        <v>0.285309</v>
       </c>
       <c r="C12" t="n">
-        <v>0.618335</v>
+        <v>0.45978</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256567</v>
+        <v>0.258322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.42478</v>
+        <v>0.424527</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280602</v>
+        <v>0.282682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.609439</v>
+        <v>0.450925</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24935</v>
+        <v>0.250596</v>
       </c>
       <c r="E13" t="n">
-        <v>0.416051</v>
+        <v>0.415757</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.271407</v>
+        <v>0.269882</v>
       </c>
       <c r="C14" t="n">
-        <v>0.603206</v>
+        <v>0.441243</v>
       </c>
       <c r="D14" t="n">
-        <v>0.240913</v>
+        <v>0.243142</v>
       </c>
       <c r="E14" t="n">
-        <v>0.407859</v>
+        <v>0.408038</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26196</v>
+        <v>0.260816</v>
       </c>
       <c r="C15" t="n">
-        <v>0.595845</v>
+        <v>0.434255</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234856</v>
+        <v>0.236734</v>
       </c>
       <c r="E15" t="n">
-        <v>0.400378</v>
+        <v>0.400104</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25766</v>
+        <v>0.256122</v>
       </c>
       <c r="C16" t="n">
-        <v>0.590043</v>
+        <v>0.427597</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230185</v>
+        <v>0.231192</v>
       </c>
       <c r="E16" t="n">
-        <v>0.394396</v>
+        <v>0.392953</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251438</v>
+        <v>0.251763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.584653</v>
+        <v>0.421724</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223133</v>
+        <v>0.224403</v>
       </c>
       <c r="E17" t="n">
-        <v>0.387943</v>
+        <v>0.386263</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244078</v>
+        <v>0.243164</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5794049999999999</v>
+        <v>0.416691</v>
       </c>
       <c r="D18" t="n">
-        <v>0.217521</v>
+        <v>0.219929</v>
       </c>
       <c r="E18" t="n">
-        <v>0.381335</v>
+        <v>0.379688</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24375</v>
+        <v>0.235669</v>
       </c>
       <c r="C19" t="n">
-        <v>0.574319</v>
+        <v>0.408735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21497</v>
+        <v>0.215756</v>
       </c>
       <c r="E19" t="n">
-        <v>0.37612</v>
+        <v>0.376086</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.235001</v>
+        <v>0.228506</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5728760000000001</v>
+        <v>0.405221</v>
       </c>
       <c r="D20" t="n">
-        <v>0.211141</v>
+        <v>0.211666</v>
       </c>
       <c r="E20" t="n">
-        <v>0.372463</v>
+        <v>0.371229</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.233872</v>
+        <v>0.233573</v>
       </c>
       <c r="C21" t="n">
-        <v>0.742514</v>
+        <v>0.401504</v>
       </c>
       <c r="D21" t="n">
-        <v>0.21003</v>
+        <v>0.210235</v>
       </c>
       <c r="E21" t="n">
-        <v>0.370586</v>
+        <v>0.368915</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.228196</v>
+        <v>0.228624</v>
       </c>
       <c r="C22" t="n">
-        <v>0.730316</v>
+        <v>0.399333</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209944</v>
+        <v>0.210194</v>
       </c>
       <c r="E22" t="n">
-        <v>0.370473</v>
+        <v>0.369595</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.229932</v>
+        <v>0.227376</v>
       </c>
       <c r="C23" t="n">
-        <v>0.716433</v>
+        <v>0.396284</v>
       </c>
       <c r="D23" t="n">
-        <v>0.301487</v>
+        <v>0.301885</v>
       </c>
       <c r="E23" t="n">
-        <v>0.462966</v>
+        <v>0.462924</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.313896</v>
+        <v>0.312099</v>
       </c>
       <c r="C24" t="n">
-        <v>0.702671</v>
+        <v>0.496886</v>
       </c>
       <c r="D24" t="n">
-        <v>0.289349</v>
+        <v>0.292392</v>
       </c>
       <c r="E24" t="n">
-        <v>0.451915</v>
+        <v>0.452599</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306615</v>
+        <v>0.308478</v>
       </c>
       <c r="C25" t="n">
-        <v>0.690763</v>
+        <v>0.486458</v>
       </c>
       <c r="D25" t="n">
-        <v>0.28156</v>
+        <v>0.28268</v>
       </c>
       <c r="E25" t="n">
-        <v>0.442348</v>
+        <v>0.441529</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296233</v>
+        <v>0.299202</v>
       </c>
       <c r="C26" t="n">
-        <v>0.678562</v>
+        <v>0.477664</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273661</v>
+        <v>0.274114</v>
       </c>
       <c r="E26" t="n">
-        <v>0.432676</v>
+        <v>0.432366</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285236</v>
+        <v>0.28772</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6700739999999999</v>
+        <v>0.46668</v>
       </c>
       <c r="D27" t="n">
-        <v>0.263592</v>
+        <v>0.266071</v>
       </c>
       <c r="E27" t="n">
-        <v>0.423741</v>
+        <v>0.423816</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.280351</v>
+        <v>0.280638</v>
       </c>
       <c r="C28" t="n">
-        <v>0.661921</v>
+        <v>0.457247</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255837</v>
+        <v>0.258484</v>
       </c>
       <c r="E28" t="n">
-        <v>0.415288</v>
+        <v>0.415738</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268852</v>
+        <v>0.270495</v>
       </c>
       <c r="C29" t="n">
-        <v>0.654345</v>
+        <v>0.448667</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249422</v>
+        <v>0.253982</v>
       </c>
       <c r="E29" t="n">
-        <v>0.407461</v>
+        <v>0.407681</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263594</v>
+        <v>0.263776</v>
       </c>
       <c r="C30" t="n">
-        <v>0.646065</v>
+        <v>0.439548</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242313</v>
+        <v>0.243878</v>
       </c>
       <c r="E30" t="n">
-        <v>0.400123</v>
+        <v>0.400761</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255594</v>
+        <v>0.256902</v>
       </c>
       <c r="C31" t="n">
-        <v>0.640907</v>
+        <v>0.435334</v>
       </c>
       <c r="D31" t="n">
-        <v>0.235632</v>
+        <v>0.237455</v>
       </c>
       <c r="E31" t="n">
-        <v>0.393932</v>
+        <v>0.393652</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247047</v>
+        <v>0.247755</v>
       </c>
       <c r="C32" t="n">
-        <v>0.635328</v>
+        <v>0.426615</v>
       </c>
       <c r="D32" t="n">
-        <v>0.230126</v>
+        <v>0.232675</v>
       </c>
       <c r="E32" t="n">
-        <v>0.387809</v>
+        <v>0.387363</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243192</v>
+        <v>0.246724</v>
       </c>
       <c r="C33" t="n">
-        <v>0.630009</v>
+        <v>0.424565</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225212</v>
+        <v>0.227388</v>
       </c>
       <c r="E33" t="n">
-        <v>0.382699</v>
+        <v>0.382061</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237626</v>
+        <v>0.238592</v>
       </c>
       <c r="C34" t="n">
-        <v>0.625572</v>
+        <v>0.417363</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22342</v>
+        <v>0.222705</v>
       </c>
       <c r="E34" t="n">
-        <v>0.378662</v>
+        <v>0.377923</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234661</v>
+        <v>0.233392</v>
       </c>
       <c r="C35" t="n">
-        <v>0.808002</v>
+        <v>0.413948</v>
       </c>
       <c r="D35" t="n">
-        <v>0.220039</v>
+        <v>0.220445</v>
       </c>
       <c r="E35" t="n">
-        <v>0.37612</v>
+        <v>0.374775</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230542</v>
+        <v>0.22987</v>
       </c>
       <c r="C36" t="n">
-        <v>0.790627</v>
+        <v>0.408041</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219544</v>
+        <v>0.220812</v>
       </c>
       <c r="E36" t="n">
-        <v>0.375633</v>
+        <v>0.374125</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227793</v>
+        <v>0.228798</v>
       </c>
       <c r="C37" t="n">
-        <v>0.776342</v>
+        <v>0.406045</v>
       </c>
       <c r="D37" t="n">
-        <v>0.31251</v>
+        <v>0.317101</v>
       </c>
       <c r="E37" t="n">
-        <v>0.471814</v>
+        <v>0.469962</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.317134</v>
+        <v>0.318627</v>
       </c>
       <c r="C38" t="n">
-        <v>0.762364</v>
+        <v>0.510093</v>
       </c>
       <c r="D38" t="n">
-        <v>0.300695</v>
+        <v>0.303115</v>
       </c>
       <c r="E38" t="n">
-        <v>0.46182</v>
+        <v>0.459742</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30668</v>
+        <v>0.307246</v>
       </c>
       <c r="C39" t="n">
-        <v>0.746523</v>
+        <v>0.503104</v>
       </c>
       <c r="D39" t="n">
-        <v>0.294166</v>
+        <v>0.294178</v>
       </c>
       <c r="E39" t="n">
-        <v>0.452151</v>
+        <v>0.45026</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299137</v>
+        <v>0.299203</v>
       </c>
       <c r="C40" t="n">
-        <v>0.735279</v>
+        <v>0.490784</v>
       </c>
       <c r="D40" t="n">
-        <v>0.283927</v>
+        <v>0.285191</v>
       </c>
       <c r="E40" t="n">
-        <v>0.44375</v>
+        <v>0.44305</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.289133</v>
+        <v>0.290823</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7237749999999999</v>
+        <v>0.482599</v>
       </c>
       <c r="D41" t="n">
-        <v>0.277753</v>
+        <v>0.277318</v>
       </c>
       <c r="E41" t="n">
-        <v>0.434764</v>
+        <v>0.433958</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.282302</v>
+        <v>0.282912</v>
       </c>
       <c r="C42" t="n">
-        <v>0.71328</v>
+        <v>0.472565</v>
       </c>
       <c r="D42" t="n">
-        <v>0.267999</v>
+        <v>0.269075</v>
       </c>
       <c r="E42" t="n">
-        <v>0.426553</v>
+        <v>0.426647</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273282</v>
+        <v>0.273837</v>
       </c>
       <c r="C43" t="n">
-        <v>0.702983</v>
+        <v>0.464827</v>
       </c>
       <c r="D43" t="n">
-        <v>0.260554</v>
+        <v>0.262054</v>
       </c>
       <c r="E43" t="n">
-        <v>0.419057</v>
+        <v>0.419283</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.266771</v>
+        <v>0.283305</v>
       </c>
       <c r="C44" t="n">
-        <v>0.694616</v>
+        <v>0.457621</v>
       </c>
       <c r="D44" t="n">
-        <v>0.252602</v>
+        <v>0.254961</v>
       </c>
       <c r="E44" t="n">
-        <v>0.411267</v>
+        <v>0.412164</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.260852</v>
+        <v>0.273612</v>
       </c>
       <c r="C45" t="n">
-        <v>0.687343</v>
+        <v>0.449943</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248165</v>
+        <v>0.248588</v>
       </c>
       <c r="E45" t="n">
-        <v>0.404858</v>
+        <v>0.404687</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.262638</v>
+        <v>0.263756</v>
       </c>
       <c r="C46" t="n">
-        <v>0.680605</v>
+        <v>0.444028</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240067</v>
+        <v>0.242497</v>
       </c>
       <c r="E46" t="n">
-        <v>0.398631</v>
+        <v>0.398351</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249267</v>
+        <v>0.256699</v>
       </c>
       <c r="C47" t="n">
-        <v>0.674823</v>
+        <v>0.438701</v>
       </c>
       <c r="D47" t="n">
-        <v>0.236387</v>
+        <v>0.237804</v>
       </c>
       <c r="E47" t="n">
-        <v>0.393559</v>
+        <v>0.393037</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253027</v>
+        <v>0.25116</v>
       </c>
       <c r="C48" t="n">
-        <v>0.670281</v>
+        <v>0.432583</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231242</v>
+        <v>0.235492</v>
       </c>
       <c r="E48" t="n">
-        <v>0.389329</v>
+        <v>0.388696</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.249484</v>
+        <v>0.246711</v>
       </c>
       <c r="C49" t="n">
-        <v>0.665767</v>
+        <v>0.428075</v>
       </c>
       <c r="D49" t="n">
-        <v>0.228064</v>
+        <v>0.229972</v>
       </c>
       <c r="E49" t="n">
-        <v>0.386761</v>
+        <v>0.385787</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242173</v>
+        <v>0.243168</v>
       </c>
       <c r="C50" t="n">
-        <v>0.842719</v>
+        <v>0.425199</v>
       </c>
       <c r="D50" t="n">
-        <v>0.227993</v>
+        <v>0.228093</v>
       </c>
       <c r="E50" t="n">
-        <v>0.385524</v>
+        <v>0.384831</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232248</v>
+        <v>0.234806</v>
       </c>
       <c r="C51" t="n">
-        <v>0.824828</v>
+        <v>0.423344</v>
       </c>
       <c r="D51" t="n">
-        <v>0.328736</v>
+        <v>0.325214</v>
       </c>
       <c r="E51" t="n">
-        <v>0.48642</v>
+        <v>0.488264</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.238594</v>
+        <v>0.238603</v>
       </c>
       <c r="C52" t="n">
-        <v>0.808171</v>
+        <v>0.426108</v>
       </c>
       <c r="D52" t="n">
-        <v>0.317242</v>
+        <v>0.318031</v>
       </c>
       <c r="E52" t="n">
-        <v>0.476066</v>
+        <v>0.478721</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.319441</v>
+        <v>0.326137</v>
       </c>
       <c r="C53" t="n">
-        <v>0.793434</v>
+        <v>0.520188</v>
       </c>
       <c r="D53" t="n">
-        <v>0.310109</v>
+        <v>0.309089</v>
       </c>
       <c r="E53" t="n">
-        <v>0.466535</v>
+        <v>0.46918</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.317161</v>
+        <v>0.320594</v>
       </c>
       <c r="C54" t="n">
-        <v>0.778957</v>
+        <v>0.510709</v>
       </c>
       <c r="D54" t="n">
-        <v>0.298265</v>
+        <v>0.299359</v>
       </c>
       <c r="E54" t="n">
-        <v>0.457365</v>
+        <v>0.459421</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.311288</v>
+        <v>0.305322</v>
       </c>
       <c r="C55" t="n">
-        <v>0.766749</v>
+        <v>0.50166</v>
       </c>
       <c r="D55" t="n">
-        <v>0.290642</v>
+        <v>0.290991</v>
       </c>
       <c r="E55" t="n">
-        <v>0.451467</v>
+        <v>0.451389</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292865</v>
+        <v>0.296846</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755215</v>
+        <v>0.492959</v>
       </c>
       <c r="D56" t="n">
-        <v>0.28255</v>
+        <v>0.282</v>
       </c>
       <c r="E56" t="n">
-        <v>0.441015</v>
+        <v>0.443479</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.290549</v>
+        <v>0.289546</v>
       </c>
       <c r="C57" t="n">
-        <v>0.744103</v>
+        <v>0.485547</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275749</v>
+        <v>0.275678</v>
       </c>
       <c r="E57" t="n">
-        <v>0.433564</v>
+        <v>0.436034</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.279138</v>
+        <v>0.282309</v>
       </c>
       <c r="C58" t="n">
-        <v>0.73497</v>
+        <v>0.477555</v>
       </c>
       <c r="D58" t="n">
-        <v>0.268377</v>
+        <v>0.268139</v>
       </c>
       <c r="E58" t="n">
-        <v>0.426429</v>
+        <v>0.429109</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.276386</v>
+        <v>0.273261</v>
       </c>
       <c r="C59" t="n">
-        <v>0.726183</v>
+        <v>0.470837</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262146</v>
+        <v>0.266406</v>
       </c>
       <c r="E59" t="n">
-        <v>0.422524</v>
+        <v>0.422838</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266412</v>
+        <v>0.268751</v>
       </c>
       <c r="C60" t="n">
-        <v>0.718861</v>
+        <v>0.465167</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257747</v>
+        <v>0.255692</v>
       </c>
       <c r="E60" t="n">
-        <v>0.416385</v>
+        <v>0.41684</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264233</v>
+        <v>0.26418</v>
       </c>
       <c r="C61" t="n">
-        <v>0.711963</v>
+        <v>0.459655</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251944</v>
+        <v>0.250836</v>
       </c>
       <c r="E61" t="n">
-        <v>0.411504</v>
+        <v>0.411187</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256176</v>
+        <v>0.261166</v>
       </c>
       <c r="C62" t="n">
-        <v>0.705602</v>
+        <v>0.454593</v>
       </c>
       <c r="D62" t="n">
-        <v>0.247576</v>
+        <v>0.247111</v>
       </c>
       <c r="E62" t="n">
-        <v>0.407428</v>
+        <v>0.407925</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250344</v>
+        <v>0.254981</v>
       </c>
       <c r="C63" t="n">
-        <v>0.700754</v>
+        <v>0.449477</v>
       </c>
       <c r="D63" t="n">
-        <v>0.243468</v>
+        <v>0.242521</v>
       </c>
       <c r="E63" t="n">
-        <v>0.404646</v>
+        <v>0.40353</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247636</v>
+        <v>0.248627</v>
       </c>
       <c r="C64" t="n">
-        <v>0.910764</v>
+        <v>0.44797</v>
       </c>
       <c r="D64" t="n">
-        <v>0.241531</v>
+        <v>0.242783</v>
       </c>
       <c r="E64" t="n">
-        <v>0.40257</v>
+        <v>0.403453</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247168</v>
+        <v>0.248911</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8914069999999999</v>
+        <v>0.446677</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241438</v>
+        <v>0.24257</v>
       </c>
       <c r="E65" t="n">
-        <v>0.403319</v>
+        <v>0.404819</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.249216</v>
+        <v>0.247191</v>
       </c>
       <c r="C66" t="n">
-        <v>0.872852</v>
+        <v>0.446882</v>
       </c>
       <c r="D66" t="n">
-        <v>0.34328</v>
+        <v>0.3645</v>
       </c>
       <c r="E66" t="n">
-        <v>0.517176</v>
+        <v>0.515554</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.38748</v>
+        <v>0.413715</v>
       </c>
       <c r="C67" t="n">
-        <v>0.856978</v>
+        <v>0.5961379999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.335261</v>
+        <v>0.349254</v>
       </c>
       <c r="E67" t="n">
-        <v>0.509906</v>
+        <v>0.507776</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.382772</v>
+        <v>0.399235</v>
       </c>
       <c r="C68" t="n">
-        <v>0.841607</v>
+        <v>0.586494</v>
       </c>
       <c r="D68" t="n">
-        <v>0.322972</v>
+        <v>0.340278</v>
       </c>
       <c r="E68" t="n">
-        <v>0.502428</v>
+        <v>0.500842</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.393056</v>
+        <v>0.388555</v>
       </c>
       <c r="C69" t="n">
-        <v>0.829643</v>
+        <v>0.5801269999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.315115</v>
+        <v>0.332142</v>
       </c>
       <c r="E69" t="n">
-        <v>0.494933</v>
+        <v>0.493953</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.371526</v>
+        <v>0.379085</v>
       </c>
       <c r="C70" t="n">
-        <v>0.819224</v>
+        <v>0.572838</v>
       </c>
       <c r="D70" t="n">
-        <v>0.310564</v>
+        <v>0.324747</v>
       </c>
       <c r="E70" t="n">
-        <v>0.487069</v>
+        <v>0.48639</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.358373</v>
+        <v>0.382645</v>
       </c>
       <c r="C71" t="n">
-        <v>0.809685</v>
+        <v>0.562544</v>
       </c>
       <c r="D71" t="n">
-        <v>0.299827</v>
+        <v>0.316863</v>
       </c>
       <c r="E71" t="n">
-        <v>0.479304</v>
+        <v>0.478541</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.332851</v>
+        <v>0.362073</v>
       </c>
       <c r="C72" t="n">
-        <v>0.802829</v>
+        <v>0.55235</v>
       </c>
       <c r="D72" t="n">
-        <v>0.29464</v>
+        <v>0.311637</v>
       </c>
       <c r="E72" t="n">
-        <v>0.473489</v>
+        <v>0.471911</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.354432</v>
+        <v>0.340336</v>
       </c>
       <c r="C73" t="n">
-        <v>0.796313</v>
+        <v>0.556389</v>
       </c>
       <c r="D73" t="n">
-        <v>0.290067</v>
+        <v>0.300917</v>
       </c>
       <c r="E73" t="n">
-        <v>0.466843</v>
+        <v>0.466708</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.337414</v>
+        <v>0.350647</v>
       </c>
       <c r="C74" t="n">
-        <v>0.791445</v>
+        <v>0.549473</v>
       </c>
       <c r="D74" t="n">
-        <v>0.279501</v>
+        <v>0.296148</v>
       </c>
       <c r="E74" t="n">
-        <v>0.461398</v>
+        <v>0.460944</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.341865</v>
+        <v>0.370038</v>
       </c>
       <c r="C75" t="n">
-        <v>0.790745</v>
+        <v>0.545709</v>
       </c>
       <c r="D75" t="n">
-        <v>0.276977</v>
+        <v>0.290953</v>
       </c>
       <c r="E75" t="n">
-        <v>0.456617</v>
+        <v>0.456214</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.328985</v>
+        <v>0.349824</v>
       </c>
       <c r="C76" t="n">
-        <v>0.788772</v>
+        <v>0.541524</v>
       </c>
       <c r="D76" t="n">
-        <v>0.27349</v>
+        <v>0.285397</v>
       </c>
       <c r="E76" t="n">
-        <v>0.452535</v>
+        <v>0.452895</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.317131</v>
+        <v>0.325629</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7887999999999999</v>
+        <v>0.537063</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267548</v>
+        <v>0.279845</v>
       </c>
       <c r="E77" t="n">
-        <v>0.450079</v>
+        <v>0.449203</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318508</v>
+        <v>0.336089</v>
       </c>
       <c r="C78" t="n">
-        <v>1.25365</v>
+        <v>0.536658</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265305</v>
+        <v>0.27983</v>
       </c>
       <c r="E78" t="n">
-        <v>0.448462</v>
+        <v>0.447903</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.296762</v>
+        <v>0.309201</v>
       </c>
       <c r="C79" t="n">
-        <v>1.2301</v>
+        <v>0.536486</v>
       </c>
       <c r="D79" t="n">
-        <v>0.263441</v>
+        <v>0.276884</v>
       </c>
       <c r="E79" t="n">
-        <v>0.448798</v>
+        <v>0.448429</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315997</v>
+        <v>0.311164</v>
       </c>
       <c r="C80" t="n">
-        <v>1.21229</v>
+        <v>0.537849</v>
       </c>
       <c r="D80" t="n">
-        <v>0.377498</v>
+        <v>0.429687</v>
       </c>
       <c r="E80" t="n">
-        <v>0.735916</v>
+        <v>0.768344</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.420253</v>
+        <v>0.422339</v>
       </c>
       <c r="C81" t="n">
-        <v>1.19673</v>
+        <v>0.898</v>
       </c>
       <c r="D81" t="n">
-        <v>0.374786</v>
+        <v>0.420784</v>
       </c>
       <c r="E81" t="n">
-        <v>0.738872</v>
+        <v>0.773016</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.42511</v>
+        <v>0.450873</v>
       </c>
       <c r="C82" t="n">
-        <v>1.18236</v>
+        <v>0.9074140000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.365844</v>
+        <v>0.41417</v>
       </c>
       <c r="E82" t="n">
-        <v>0.734523</v>
+        <v>0.769828</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.433888</v>
+        <v>0.416402</v>
       </c>
       <c r="C83" t="n">
-        <v>1.16885</v>
+        <v>0.89917</v>
       </c>
       <c r="D83" t="n">
-        <v>0.362474</v>
+        <v>0.405902</v>
       </c>
       <c r="E83" t="n">
-        <v>0.727653</v>
+        <v>0.763906</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.45581</v>
+        <v>0.480839</v>
       </c>
       <c r="C84" t="n">
-        <v>1.16259</v>
+        <v>0.894979</v>
       </c>
       <c r="D84" t="n">
-        <v>0.357641</v>
+        <v>0.397483</v>
       </c>
       <c r="E84" t="n">
-        <v>0.716735</v>
+        <v>0.750272</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.411766</v>
+        <v>0.40174</v>
       </c>
       <c r="C85" t="n">
-        <v>1.15772</v>
+        <v>0.883667</v>
       </c>
       <c r="D85" t="n">
-        <v>0.347084</v>
+        <v>0.389024</v>
       </c>
       <c r="E85" t="n">
-        <v>0.707879</v>
+        <v>0.737063</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.396592</v>
+        <v>0.41268</v>
       </c>
       <c r="C86" t="n">
-        <v>1.16422</v>
+        <v>0.873098</v>
       </c>
       <c r="D86" t="n">
-        <v>0.340022</v>
+        <v>0.380609</v>
       </c>
       <c r="E86" t="n">
-        <v>0.695245</v>
+        <v>0.7229370000000001</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.417343</v>
+        <v>0.454586</v>
       </c>
       <c r="C87" t="n">
-        <v>1.15273</v>
+        <v>0.852947</v>
       </c>
       <c r="D87" t="n">
-        <v>0.333589</v>
+        <v>0.373337</v>
       </c>
       <c r="E87" t="n">
-        <v>0.679684</v>
+        <v>0.709237</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.37566</v>
+        <v>0.393704</v>
       </c>
       <c r="C88" t="n">
-        <v>1.16391</v>
+        <v>0.842086</v>
       </c>
       <c r="D88" t="n">
-        <v>0.329533</v>
+        <v>0.365708</v>
       </c>
       <c r="E88" t="n">
-        <v>0.667842</v>
+        <v>0.695847</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.371891</v>
+        <v>0.388279</v>
       </c>
       <c r="C89" t="n">
-        <v>1.1737</v>
+        <v>0.833597</v>
       </c>
       <c r="D89" t="n">
-        <v>0.327056</v>
+        <v>0.35829</v>
       </c>
       <c r="E89" t="n">
-        <v>0.655288</v>
+        <v>0.683464</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.370324</v>
+        <v>0.390086</v>
       </c>
       <c r="C90" t="n">
-        <v>1.17759</v>
+        <v>0.8148339999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.319663</v>
+        <v>0.350979</v>
       </c>
       <c r="E90" t="n">
-        <v>0.645201</v>
+        <v>0.673312</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372391</v>
+        <v>0.397025</v>
       </c>
       <c r="C91" t="n">
-        <v>1.19265</v>
+        <v>0.810616</v>
       </c>
       <c r="D91" t="n">
-        <v>0.312426</v>
+        <v>0.34506</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6355189999999999</v>
+        <v>0.663367</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.365189</v>
+        <v>0.390316</v>
       </c>
       <c r="C92" t="n">
-        <v>1.75665</v>
+        <v>0.800783</v>
       </c>
       <c r="D92" t="n">
-        <v>0.310369</v>
+        <v>0.341631</v>
       </c>
       <c r="E92" t="n">
-        <v>0.628414</v>
+        <v>0.65273</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.375362</v>
+        <v>0.370095</v>
       </c>
       <c r="C93" t="n">
-        <v>1.749</v>
+        <v>0.790785</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307166</v>
+        <v>0.337714</v>
       </c>
       <c r="E93" t="n">
-        <v>0.622741</v>
+        <v>0.647286</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363592</v>
+        <v>0.407645</v>
       </c>
       <c r="C94" t="n">
-        <v>1.7341</v>
+        <v>0.78584</v>
       </c>
       <c r="D94" t="n">
-        <v>0.508741</v>
+        <v>0.541625</v>
       </c>
       <c r="E94" t="n">
-        <v>1.12373</v>
+        <v>1.1983</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.565922</v>
+        <v>0.6092919999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.72364</v>
+        <v>1.24336</v>
       </c>
       <c r="D95" t="n">
-        <v>0.498456</v>
+        <v>0.533488</v>
       </c>
       <c r="E95" t="n">
-        <v>1.11517</v>
+        <v>1.18432</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.559426</v>
+        <v>0.602068</v>
       </c>
       <c r="C96" t="n">
-        <v>1.7111</v>
+        <v>1.24009</v>
       </c>
       <c r="D96" t="n">
-        <v>0.487063</v>
+        <v>0.521927</v>
       </c>
       <c r="E96" t="n">
-        <v>1.106</v>
+        <v>1.16195</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5571159999999999</v>
+        <v>0.58428</v>
       </c>
       <c r="C97" t="n">
-        <v>1.70361</v>
+        <v>1.24287</v>
       </c>
       <c r="D97" t="n">
-        <v>0.479425</v>
+        <v>0.510928</v>
       </c>
       <c r="E97" t="n">
-        <v>1.0876</v>
+        <v>1.16579</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5551160000000001</v>
+        <v>0.561551</v>
       </c>
       <c r="C98" t="n">
-        <v>1.69883</v>
+        <v>1.24355</v>
       </c>
       <c r="D98" t="n">
-        <v>0.46507</v>
+        <v>0.499683</v>
       </c>
       <c r="E98" t="n">
-        <v>1.07101</v>
+        <v>1.14854</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.52803</v>
+        <v>0.571275</v>
       </c>
       <c r="C99" t="n">
-        <v>1.69457</v>
+        <v>1.20644</v>
       </c>
       <c r="D99" t="n">
-        <v>0.455364</v>
+        <v>0.48721</v>
       </c>
       <c r="E99" t="n">
-        <v>1.04392</v>
+        <v>1.12848</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.525116</v>
+        <v>0.5259819999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>1.69432</v>
+        <v>1.19422</v>
       </c>
       <c r="D100" t="n">
-        <v>0.445892</v>
+        <v>0.479111</v>
       </c>
       <c r="E100" t="n">
-        <v>1.03611</v>
+        <v>1.10929</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.51281</v>
+        <v>0.550762</v>
       </c>
       <c r="C101" t="n">
-        <v>1.70433</v>
+        <v>1.17813</v>
       </c>
       <c r="D101" t="n">
-        <v>0.43751</v>
+        <v>0.46892</v>
       </c>
       <c r="E101" t="n">
-        <v>1.01836</v>
+        <v>1.09287</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.505146</v>
+        <v>0.536192</v>
       </c>
       <c r="C102" t="n">
-        <v>1.70848</v>
+        <v>1.17298</v>
       </c>
       <c r="D102" t="n">
-        <v>0.42698</v>
+        <v>0.458307</v>
       </c>
       <c r="E102" t="n">
-        <v>1.00246</v>
+        <v>1.07543</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.488172</v>
+        <v>0.52579</v>
       </c>
       <c r="C103" t="n">
-        <v>1.71707</v>
+        <v>1.15062</v>
       </c>
       <c r="D103" t="n">
-        <v>0.419839</v>
+        <v>0.448947</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9881259999999999</v>
+        <v>1.05761</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.475395</v>
+        <v>0.516536</v>
       </c>
       <c r="C104" t="n">
-        <v>1.72698</v>
+        <v>1.14674</v>
       </c>
       <c r="D104" t="n">
-        <v>0.410401</v>
+        <v>0.442953</v>
       </c>
       <c r="E104" t="n">
-        <v>0.955756</v>
+        <v>1.04585</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.480137</v>
+        <v>0.505983</v>
       </c>
       <c r="C105" t="n">
-        <v>1.74062</v>
+        <v>1.12745</v>
       </c>
       <c r="D105" t="n">
-        <v>0.403976</v>
+        <v>0.43446</v>
       </c>
       <c r="E105" t="n">
-        <v>0.944132</v>
+        <v>1.03241</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.473886</v>
+        <v>0.501916</v>
       </c>
       <c r="C106" t="n">
-        <v>1.75791</v>
+        <v>1.12921</v>
       </c>
       <c r="D106" t="n">
-        <v>0.400551</v>
+        <v>0.42804</v>
       </c>
       <c r="E106" t="n">
-        <v>0.939347</v>
+        <v>1.0214</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.474711</v>
+        <v>0.499499</v>
       </c>
       <c r="C107" t="n">
-        <v>2.36081</v>
+        <v>1.11928</v>
       </c>
       <c r="D107" t="n">
-        <v>0.394267</v>
+        <v>0.421955</v>
       </c>
       <c r="E107" t="n">
-        <v>0.944062</v>
+        <v>1.01096</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.465288</v>
+        <v>0.497413</v>
       </c>
       <c r="C108" t="n">
-        <v>2.3318</v>
+        <v>1.1159</v>
       </c>
       <c r="D108" t="n">
-        <v>0.601285</v>
+        <v>0.627984</v>
       </c>
       <c r="E108" t="n">
-        <v>2.38983</v>
+        <v>2.60205</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.476117</v>
+        <v>0.494199</v>
       </c>
       <c r="C109" t="n">
-        <v>2.30707</v>
+        <v>1.11447</v>
       </c>
       <c r="D109" t="n">
-        <v>0.54212</v>
+        <v>0.622206</v>
       </c>
       <c r="E109" t="n">
-        <v>2.40167</v>
+        <v>2.61837</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.666007</v>
+        <v>0.723156</v>
       </c>
       <c r="C110" t="n">
-        <v>2.28308</v>
+        <v>2.83319</v>
       </c>
       <c r="D110" t="n">
-        <v>0.584297</v>
+        <v>0.614223</v>
       </c>
       <c r="E110" t="n">
-        <v>2.39881</v>
+        <v>2.61902</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.673196</v>
+        <v>0.695102</v>
       </c>
       <c r="C111" t="n">
-        <v>2.27356</v>
+        <v>2.83189</v>
       </c>
       <c r="D111" t="n">
-        <v>0.570959</v>
+        <v>0.602306</v>
       </c>
       <c r="E111" t="n">
-        <v>2.40246</v>
+        <v>2.62714</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.61621</v>
+        <v>0.68094</v>
       </c>
       <c r="C112" t="n">
-        <v>2.24791</v>
+        <v>2.83934</v>
       </c>
       <c r="D112" t="n">
-        <v>0.513023</v>
+        <v>0.5898139999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>2.41346</v>
+        <v>2.62568</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.642593</v>
+        <v>0.657851</v>
       </c>
       <c r="C113" t="n">
-        <v>2.23845</v>
+        <v>2.83879</v>
       </c>
       <c r="D113" t="n">
-        <v>0.547413</v>
+        <v>0.577012</v>
       </c>
       <c r="E113" t="n">
-        <v>2.40591</v>
+        <v>2.63159</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.617134</v>
+        <v>0.659664</v>
       </c>
       <c r="C114" t="n">
-        <v>2.25095</v>
+        <v>2.84693</v>
       </c>
       <c r="D114" t="n">
-        <v>0.499325</v>
+        <v>0.565038</v>
       </c>
       <c r="E114" t="n">
-        <v>2.41149</v>
+        <v>2.63968</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.621883</v>
+        <v>0.647483</v>
       </c>
       <c r="C115" t="n">
-        <v>2.26209</v>
+        <v>2.83142</v>
       </c>
       <c r="D115" t="n">
-        <v>0.526997</v>
+        <v>0.526077</v>
       </c>
       <c r="E115" t="n">
-        <v>2.39902</v>
+        <v>2.63727</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.599272</v>
+        <v>0.638428</v>
       </c>
       <c r="C116" t="n">
-        <v>2.26963</v>
+        <v>2.83519</v>
       </c>
       <c r="D116" t="n">
-        <v>0.517001</v>
+        <v>0.518782</v>
       </c>
       <c r="E116" t="n">
-        <v>2.40766</v>
+        <v>2.64282</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.600155</v>
+        <v>0.628571</v>
       </c>
       <c r="C117" t="n">
-        <v>2.24951</v>
+        <v>2.83924</v>
       </c>
       <c r="D117" t="n">
-        <v>0.507757</v>
+        <v>0.537191</v>
       </c>
       <c r="E117" t="n">
-        <v>2.41365</v>
+        <v>2.65542</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.581941</v>
+        <v>0.604589</v>
       </c>
       <c r="C118" t="n">
-        <v>2.21872</v>
+        <v>2.82816</v>
       </c>
       <c r="D118" t="n">
-        <v>0.465975</v>
+        <v>0.528884</v>
       </c>
       <c r="E118" t="n">
-        <v>2.22804</v>
+        <v>2.65809</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5379969999999999</v>
+        <v>0.6094810000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>2.22707</v>
+        <v>2.84839</v>
       </c>
       <c r="D119" t="n">
-        <v>0.461302</v>
+        <v>0.519878</v>
       </c>
       <c r="E119" t="n">
-        <v>2.22863</v>
+        <v>2.65015</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5649960000000001</v>
+        <v>0.597217</v>
       </c>
       <c r="C120" t="n">
-        <v>2.23708</v>
+        <v>2.8237</v>
       </c>
       <c r="D120" t="n">
-        <v>0.45407</v>
+        <v>0.488878</v>
       </c>
       <c r="E120" t="n">
-        <v>2.43598</v>
+        <v>2.66485</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.538647</v>
+        <v>0.5570310000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>2.91675</v>
+        <v>2.84855</v>
       </c>
       <c r="D121" t="n">
-        <v>0.451855</v>
+        <v>0.506213</v>
       </c>
       <c r="E121" t="n">
-        <v>2.00673</v>
+        <v>2.68508</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.544757</v>
+        <v>0.5813390000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>2.87312</v>
+        <v>2.87097</v>
       </c>
       <c r="D122" t="n">
-        <v>0.451189</v>
+        <v>0.482263</v>
       </c>
       <c r="E122" t="n">
-        <v>2.00889</v>
+        <v>2.68383</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.526637</v>
+        <v>0.574944</v>
       </c>
       <c r="C123" t="n">
-        <v>2.82899</v>
+        <v>2.87836</v>
       </c>
       <c r="D123" t="n">
-        <v>0.647332</v>
+        <v>0.706402</v>
       </c>
       <c r="E123" t="n">
-        <v>2.9378</v>
+        <v>3.23039</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.743348</v>
+        <v>0.759383</v>
       </c>
       <c r="C124" t="n">
-        <v>2.79159</v>
+        <v>3.50389</v>
       </c>
       <c r="D124" t="n">
-        <v>0.639825</v>
+        <v>0.699837</v>
       </c>
       <c r="E124" t="n">
-        <v>2.92725</v>
+        <v>3.21343</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.718209</v>
+        <v>0.774676</v>
       </c>
       <c r="C125" t="n">
-        <v>2.76599</v>
+        <v>3.5036</v>
       </c>
       <c r="D125" t="n">
-        <v>0.652953</v>
+        <v>0.672677</v>
       </c>
       <c r="E125" t="n">
-        <v>2.91823</v>
+        <v>3.2136</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7032350000000001</v>
+        <v>0.767337</v>
       </c>
       <c r="C126" t="n">
-        <v>2.73573</v>
+        <v>3.48199</v>
       </c>
       <c r="D126" t="n">
-        <v>0.623981</v>
+        <v>0.666333</v>
       </c>
       <c r="E126" t="n">
-        <v>2.90737</v>
+        <v>3.20947</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.706894</v>
+        <v>0.759293</v>
       </c>
       <c r="C127" t="n">
-        <v>2.70766</v>
+        <v>3.47039</v>
       </c>
       <c r="D127" t="n">
-        <v>0.618266</v>
+        <v>0.65926</v>
       </c>
       <c r="E127" t="n">
-        <v>2.90192</v>
+        <v>3.1972</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.684032</v>
+        <v>0.725903</v>
       </c>
       <c r="C128" t="n">
-        <v>2.68973</v>
+        <v>3.44666</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6141180000000001</v>
+        <v>0.669645</v>
       </c>
       <c r="E128" t="n">
-        <v>2.898</v>
+        <v>3.19388</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.672601</v>
+        <v>0.741029</v>
       </c>
       <c r="C129" t="n">
-        <v>2.67435</v>
+        <v>3.44461</v>
       </c>
       <c r="D129" t="n">
-        <v>0.606584</v>
+        <v>0.649498</v>
       </c>
       <c r="E129" t="n">
-        <v>2.89182</v>
+        <v>3.18108</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.68408</v>
+        <v>0.724387</v>
       </c>
       <c r="C130" t="n">
-        <v>2.65888</v>
+        <v>3.42156</v>
       </c>
       <c r="D130" t="n">
-        <v>0.600969</v>
+        <v>0.645032</v>
       </c>
       <c r="E130" t="n">
-        <v>2.88611</v>
+        <v>3.17469</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6610009999999999</v>
+        <v>0.705363</v>
       </c>
       <c r="C131" t="n">
-        <v>2.64792</v>
+        <v>3.42407</v>
       </c>
       <c r="D131" t="n">
-        <v>0.596521</v>
+        <v>0.639246</v>
       </c>
       <c r="E131" t="n">
-        <v>2.87871</v>
+        <v>3.17083</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.656222</v>
+        <v>0.696677</v>
       </c>
       <c r="C132" t="n">
-        <v>2.64095</v>
+        <v>3.41642</v>
       </c>
       <c r="D132" t="n">
-        <v>0.59161</v>
+        <v>0.635857</v>
       </c>
       <c r="E132" t="n">
-        <v>2.88867</v>
+        <v>3.17858</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.649655</v>
+        <v>0.692122</v>
       </c>
       <c r="C133" t="n">
-        <v>2.63626</v>
+        <v>3.41446</v>
       </c>
       <c r="D133" t="n">
-        <v>0.589345</v>
+        <v>0.632764</v>
       </c>
       <c r="E133" t="n">
-        <v>2.88601</v>
+        <v>3.17966</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6433449999999999</v>
+        <v>0.6886949999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>2.62079</v>
+        <v>3.41093</v>
       </c>
       <c r="D134" t="n">
-        <v>0.556621</v>
+        <v>0.627627</v>
       </c>
       <c r="E134" t="n">
-        <v>2.65119</v>
+        <v>3.1726</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.646099</v>
+        <v>0.6832</v>
       </c>
       <c r="C135" t="n">
-        <v>3.31454</v>
+        <v>3.39273</v>
       </c>
       <c r="D135" t="n">
-        <v>0.553752</v>
+        <v>0.624571</v>
       </c>
       <c r="E135" t="n">
-        <v>2.41279</v>
+        <v>3.17345</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.602583</v>
+        <v>0.677017</v>
       </c>
       <c r="C136" t="n">
-        <v>3.25825</v>
+        <v>3.40252</v>
       </c>
       <c r="D136" t="n">
-        <v>0.552256</v>
+        <v>0.601478</v>
       </c>
       <c r="E136" t="n">
-        <v>2.87948</v>
+        <v>3.18432</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.624117</v>
+        <v>0.681478</v>
       </c>
       <c r="C137" t="n">
-        <v>3.20479</v>
+        <v>3.39732</v>
       </c>
       <c r="D137" t="n">
-        <v>0.746314</v>
+        <v>0.82383</v>
       </c>
       <c r="E137" t="n">
-        <v>3.37118</v>
+        <v>3.7377</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.830888</v>
+        <v>0.8678900000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>3.16216</v>
+        <v>4.00212</v>
       </c>
       <c r="D138" t="n">
-        <v>0.741943</v>
+        <v>0.80223</v>
       </c>
       <c r="E138" t="n">
-        <v>3.35955</v>
+        <v>3.71751</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.789757</v>
+        <v>0.87496</v>
       </c>
       <c r="C139" t="n">
-        <v>3.11076</v>
+        <v>3.96065</v>
       </c>
       <c r="D139" t="n">
-        <v>0.739832</v>
+        <v>0.79786</v>
       </c>
       <c r="E139" t="n">
-        <v>3.34385</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.796743</v>
+        <v>0.851405</v>
       </c>
       <c r="C140" t="n">
-        <v>3.08032</v>
+        <v>3.94767</v>
       </c>
       <c r="D140" t="n">
-        <v>0.736888</v>
+        <v>0.812784</v>
       </c>
       <c r="E140" t="n">
-        <v>3.32027</v>
+        <v>3.67378</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.772798</v>
+        <v>0.844283</v>
       </c>
       <c r="C141" t="n">
-        <v>3.04803</v>
+        <v>3.91316</v>
       </c>
       <c r="D141" t="n">
-        <v>0.734541</v>
+        <v>0.8178609999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>3.30807</v>
+        <v>3.64443</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7704220000000001</v>
+        <v>0.837129</v>
       </c>
       <c r="C142" t="n">
-        <v>3.0256</v>
+        <v>3.88678</v>
       </c>
       <c r="D142" t="n">
-        <v>0.732003</v>
+        <v>0.792563</v>
       </c>
       <c r="E142" t="n">
-        <v>3.28791</v>
+        <v>3.63703</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.787368</v>
+        <v>0.83266</v>
       </c>
       <c r="C143" t="n">
-        <v>2.9988</v>
+        <v>3.867</v>
       </c>
       <c r="D143" t="n">
-        <v>0.727799</v>
+        <v>0.78932</v>
       </c>
       <c r="E143" t="n">
-        <v>3.27182</v>
+        <v>3.61563</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242288</v>
+        <v>0.242913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.551678</v>
+        <v>0.551502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214368</v>
+        <v>0.214997</v>
       </c>
       <c r="E2" t="n">
-        <v>0.385861</v>
+        <v>0.385812</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238144</v>
+        <v>0.240767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.541991</v>
+        <v>0.540747</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219437</v>
+        <v>0.20927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.379963</v>
+        <v>0.38348</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234495</v>
+        <v>0.234131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.540165</v>
+        <v>0.541979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20385</v>
+        <v>0.204042</v>
       </c>
       <c r="E4" t="n">
-        <v>0.378194</v>
+        <v>0.377862</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.226503</v>
+        <v>0.224961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.537834</v>
+        <v>0.537783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19943</v>
+        <v>0.199683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.373761</v>
+        <v>0.373161</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225041</v>
+        <v>0.221597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.533384</v>
+        <v>0.534307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196235</v>
+        <v>0.196115</v>
       </c>
       <c r="E6" t="n">
-        <v>0.370388</v>
+        <v>0.370043</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224757</v>
+        <v>0.221374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.67822</v>
+        <v>0.681435</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193252</v>
+        <v>0.193858</v>
       </c>
       <c r="E7" t="n">
-        <v>0.368268</v>
+        <v>0.368213</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.215458</v>
+        <v>0.219454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.664214</v>
+        <v>0.664061</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194289</v>
+        <v>0.194346</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36888</v>
+        <v>0.36918</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216387</v>
+        <v>0.21592</v>
       </c>
       <c r="C9" t="n">
-        <v>0.650278</v>
+        <v>0.651789</v>
       </c>
       <c r="D9" t="n">
-        <v>0.284802</v>
+        <v>0.284956</v>
       </c>
       <c r="E9" t="n">
-        <v>0.455396</v>
+        <v>0.45531</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.310303</v>
+        <v>0.313262</v>
       </c>
       <c r="C10" t="n">
-        <v>0.639454</v>
+        <v>0.6411480000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273463</v>
+        <v>0.273632</v>
       </c>
       <c r="E10" t="n">
-        <v>0.443955</v>
+        <v>0.444012</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.30187</v>
+        <v>0.304716</v>
       </c>
       <c r="C11" t="n">
-        <v>0.628346</v>
+        <v>0.627974</v>
       </c>
       <c r="D11" t="n">
-        <v>0.264686</v>
+        <v>0.269738</v>
       </c>
       <c r="E11" t="n">
-        <v>0.434085</v>
+        <v>0.433856</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286481</v>
+        <v>0.289367</v>
       </c>
       <c r="C12" t="n">
-        <v>0.618335</v>
+        <v>0.619888</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256567</v>
+        <v>0.256706</v>
       </c>
       <c r="E12" t="n">
-        <v>0.42478</v>
+        <v>0.424543</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280602</v>
+        <v>0.280065</v>
       </c>
       <c r="C13" t="n">
-        <v>0.609439</v>
+        <v>0.610942</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24935</v>
+        <v>0.248979</v>
       </c>
       <c r="E13" t="n">
-        <v>0.416051</v>
+        <v>0.415826</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.271407</v>
+        <v>0.271188</v>
       </c>
       <c r="C14" t="n">
-        <v>0.603206</v>
+        <v>0.603817</v>
       </c>
       <c r="D14" t="n">
-        <v>0.240913</v>
+        <v>0.241515</v>
       </c>
       <c r="E14" t="n">
-        <v>0.407859</v>
+        <v>0.407695</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26196</v>
+        <v>0.26312</v>
       </c>
       <c r="C15" t="n">
-        <v>0.595845</v>
+        <v>0.594807</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234856</v>
+        <v>0.235289</v>
       </c>
       <c r="E15" t="n">
-        <v>0.400378</v>
+        <v>0.400368</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25766</v>
+        <v>0.255508</v>
       </c>
       <c r="C16" t="n">
-        <v>0.590043</v>
+        <v>0.591739</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230185</v>
+        <v>0.228756</v>
       </c>
       <c r="E16" t="n">
-        <v>0.394396</v>
+        <v>0.393616</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251438</v>
+        <v>0.248456</v>
       </c>
       <c r="C17" t="n">
-        <v>0.584653</v>
+        <v>0.586344</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223133</v>
+        <v>0.223434</v>
       </c>
       <c r="E17" t="n">
-        <v>0.387943</v>
+        <v>0.38705</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244078</v>
+        <v>0.243925</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5794049999999999</v>
+        <v>0.579529</v>
       </c>
       <c r="D18" t="n">
-        <v>0.217521</v>
+        <v>0.217277</v>
       </c>
       <c r="E18" t="n">
-        <v>0.381335</v>
+        <v>0.381393</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24375</v>
+        <v>0.235611</v>
       </c>
       <c r="C19" t="n">
-        <v>0.574319</v>
+        <v>0.578349</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21497</v>
+        <v>0.212993</v>
       </c>
       <c r="E19" t="n">
-        <v>0.37612</v>
+        <v>0.376174</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.235001</v>
+        <v>0.232799</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5728760000000001</v>
+        <v>0.569609</v>
       </c>
       <c r="D20" t="n">
-        <v>0.211141</v>
+        <v>0.209398</v>
       </c>
       <c r="E20" t="n">
-        <v>0.372463</v>
+        <v>0.372395</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.233872</v>
+        <v>0.23077</v>
       </c>
       <c r="C21" t="n">
-        <v>0.742514</v>
+        <v>0.742598</v>
       </c>
       <c r="D21" t="n">
-        <v>0.21003</v>
+        <v>0.209439</v>
       </c>
       <c r="E21" t="n">
-        <v>0.370586</v>
+        <v>0.370273</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.228196</v>
+        <v>0.22666</v>
       </c>
       <c r="C22" t="n">
-        <v>0.730316</v>
+        <v>0.726629</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209944</v>
+        <v>0.208214</v>
       </c>
       <c r="E22" t="n">
-        <v>0.370473</v>
+        <v>0.370523</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.229932</v>
+        <v>0.224165</v>
       </c>
       <c r="C23" t="n">
-        <v>0.716433</v>
+        <v>0.713005</v>
       </c>
       <c r="D23" t="n">
-        <v>0.301487</v>
+        <v>0.301735</v>
       </c>
       <c r="E23" t="n">
-        <v>0.462966</v>
+        <v>0.462706</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.313896</v>
+        <v>0.318138</v>
       </c>
       <c r="C24" t="n">
-        <v>0.702671</v>
+        <v>0.699951</v>
       </c>
       <c r="D24" t="n">
-        <v>0.289349</v>
+        <v>0.288884</v>
       </c>
       <c r="E24" t="n">
-        <v>0.451915</v>
+        <v>0.451693</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306615</v>
+        <v>0.31031</v>
       </c>
       <c r="C25" t="n">
-        <v>0.690763</v>
+        <v>0.688559</v>
       </c>
       <c r="D25" t="n">
-        <v>0.28156</v>
+        <v>0.280641</v>
       </c>
       <c r="E25" t="n">
-        <v>0.442348</v>
+        <v>0.441822</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296233</v>
+        <v>0.297797</v>
       </c>
       <c r="C26" t="n">
-        <v>0.678562</v>
+        <v>0.678298</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273661</v>
+        <v>0.271293</v>
       </c>
       <c r="E26" t="n">
-        <v>0.432676</v>
+        <v>0.43272</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285236</v>
+        <v>0.286034</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6700739999999999</v>
+        <v>0.6688460000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.263592</v>
+        <v>0.265929</v>
       </c>
       <c r="E27" t="n">
-        <v>0.423741</v>
+        <v>0.423824</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.280351</v>
+        <v>0.28045</v>
       </c>
       <c r="C28" t="n">
-        <v>0.661921</v>
+        <v>0.658628</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255837</v>
+        <v>0.255096</v>
       </c>
       <c r="E28" t="n">
-        <v>0.415288</v>
+        <v>0.415027</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268852</v>
+        <v>0.271198</v>
       </c>
       <c r="C29" t="n">
-        <v>0.654345</v>
+        <v>0.65097</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249422</v>
+        <v>0.248268</v>
       </c>
       <c r="E29" t="n">
-        <v>0.407461</v>
+        <v>0.407734</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263594</v>
+        <v>0.260974</v>
       </c>
       <c r="C30" t="n">
-        <v>0.646065</v>
+        <v>0.644028</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242313</v>
+        <v>0.241327</v>
       </c>
       <c r="E30" t="n">
-        <v>0.400123</v>
+        <v>0.400114</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255594</v>
+        <v>0.260174</v>
       </c>
       <c r="C31" t="n">
-        <v>0.640907</v>
+        <v>0.6384609999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.235632</v>
+        <v>0.23594</v>
       </c>
       <c r="E31" t="n">
-        <v>0.393932</v>
+        <v>0.393736</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247047</v>
+        <v>0.249474</v>
       </c>
       <c r="C32" t="n">
-        <v>0.635328</v>
+        <v>0.633417</v>
       </c>
       <c r="D32" t="n">
-        <v>0.230126</v>
+        <v>0.230322</v>
       </c>
       <c r="E32" t="n">
-        <v>0.387809</v>
+        <v>0.387806</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243192</v>
+        <v>0.244128</v>
       </c>
       <c r="C33" t="n">
-        <v>0.630009</v>
+        <v>0.628829</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225212</v>
+        <v>0.225373</v>
       </c>
       <c r="E33" t="n">
-        <v>0.382699</v>
+        <v>0.38267</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237626</v>
+        <v>0.236158</v>
       </c>
       <c r="C34" t="n">
-        <v>0.625572</v>
+        <v>0.623665</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22342</v>
+        <v>0.220759</v>
       </c>
       <c r="E34" t="n">
-        <v>0.378662</v>
+        <v>0.378807</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234661</v>
+        <v>0.233444</v>
       </c>
       <c r="C35" t="n">
-        <v>0.808002</v>
+        <v>0.807134</v>
       </c>
       <c r="D35" t="n">
-        <v>0.220039</v>
+        <v>0.22229</v>
       </c>
       <c r="E35" t="n">
-        <v>0.37612</v>
+        <v>0.376067</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230542</v>
+        <v>0.229012</v>
       </c>
       <c r="C36" t="n">
-        <v>0.790627</v>
+        <v>0.7903250000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219544</v>
+        <v>0.217148</v>
       </c>
       <c r="E36" t="n">
-        <v>0.375633</v>
+        <v>0.375724</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227793</v>
+        <v>0.22918</v>
       </c>
       <c r="C37" t="n">
-        <v>0.776342</v>
+        <v>0.774795</v>
       </c>
       <c r="D37" t="n">
-        <v>0.31251</v>
+        <v>0.312747</v>
       </c>
       <c r="E37" t="n">
-        <v>0.471814</v>
+        <v>0.471734</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.317134</v>
+        <v>0.319027</v>
       </c>
       <c r="C38" t="n">
-        <v>0.762364</v>
+        <v>0.759908</v>
       </c>
       <c r="D38" t="n">
-        <v>0.300695</v>
+        <v>0.300176</v>
       </c>
       <c r="E38" t="n">
-        <v>0.46182</v>
+        <v>0.461662</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30668</v>
+        <v>0.308694</v>
       </c>
       <c r="C39" t="n">
-        <v>0.746523</v>
+        <v>0.746377</v>
       </c>
       <c r="D39" t="n">
-        <v>0.294166</v>
+        <v>0.291123</v>
       </c>
       <c r="E39" t="n">
-        <v>0.452151</v>
+        <v>0.451883</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299137</v>
+        <v>0.2986</v>
       </c>
       <c r="C40" t="n">
-        <v>0.735279</v>
+        <v>0.73395</v>
       </c>
       <c r="D40" t="n">
-        <v>0.283927</v>
+        <v>0.282367</v>
       </c>
       <c r="E40" t="n">
-        <v>0.44375</v>
+        <v>0.443291</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.289133</v>
+        <v>0.289572</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7237749999999999</v>
+        <v>0.722334</v>
       </c>
       <c r="D41" t="n">
-        <v>0.277753</v>
+        <v>0.277949</v>
       </c>
       <c r="E41" t="n">
-        <v>0.434764</v>
+        <v>0.434613</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.282302</v>
+        <v>0.280236</v>
       </c>
       <c r="C42" t="n">
-        <v>0.71328</v>
+        <v>0.712863</v>
       </c>
       <c r="D42" t="n">
-        <v>0.267999</v>
+        <v>0.267249</v>
       </c>
       <c r="E42" t="n">
-        <v>0.426553</v>
+        <v>0.426268</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273282</v>
+        <v>0.273366</v>
       </c>
       <c r="C43" t="n">
-        <v>0.702983</v>
+        <v>0.702681</v>
       </c>
       <c r="D43" t="n">
-        <v>0.260554</v>
+        <v>0.258367</v>
       </c>
       <c r="E43" t="n">
-        <v>0.419057</v>
+        <v>0.419044</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.266771</v>
+        <v>0.266967</v>
       </c>
       <c r="C44" t="n">
-        <v>0.694616</v>
+        <v>0.694292</v>
       </c>
       <c r="D44" t="n">
-        <v>0.252602</v>
+        <v>0.252</v>
       </c>
       <c r="E44" t="n">
-        <v>0.411267</v>
+        <v>0.411737</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.260852</v>
+        <v>0.265287</v>
       </c>
       <c r="C45" t="n">
-        <v>0.687343</v>
+        <v>0.687021</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248165</v>
+        <v>0.245734</v>
       </c>
       <c r="E45" t="n">
-        <v>0.404858</v>
+        <v>0.405184</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.262638</v>
+        <v>0.261229</v>
       </c>
       <c r="C46" t="n">
-        <v>0.680605</v>
+        <v>0.680126</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240067</v>
+        <v>0.240441</v>
       </c>
       <c r="E46" t="n">
-        <v>0.398631</v>
+        <v>0.398921</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249267</v>
+        <v>0.252442</v>
       </c>
       <c r="C47" t="n">
-        <v>0.674823</v>
+        <v>0.674745</v>
       </c>
       <c r="D47" t="n">
-        <v>0.236387</v>
+        <v>0.234987</v>
       </c>
       <c r="E47" t="n">
-        <v>0.393559</v>
+        <v>0.393666</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253027</v>
+        <v>0.252834</v>
       </c>
       <c r="C48" t="n">
-        <v>0.670281</v>
+        <v>0.670002</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231242</v>
+        <v>0.229823</v>
       </c>
       <c r="E48" t="n">
-        <v>0.389329</v>
+        <v>0.389558</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.249484</v>
+        <v>0.244477</v>
       </c>
       <c r="C49" t="n">
-        <v>0.665767</v>
+        <v>0.665373</v>
       </c>
       <c r="D49" t="n">
-        <v>0.228064</v>
+        <v>0.226569</v>
       </c>
       <c r="E49" t="n">
-        <v>0.386761</v>
+        <v>0.386911</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242173</v>
+        <v>0.238619</v>
       </c>
       <c r="C50" t="n">
-        <v>0.842719</v>
+        <v>0.841021</v>
       </c>
       <c r="D50" t="n">
-        <v>0.227993</v>
+        <v>0.22707</v>
       </c>
       <c r="E50" t="n">
-        <v>0.385524</v>
+        <v>0.385671</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232248</v>
+        <v>0.239848</v>
       </c>
       <c r="C51" t="n">
-        <v>0.824828</v>
+        <v>0.823966</v>
       </c>
       <c r="D51" t="n">
-        <v>0.328736</v>
+        <v>0.32784</v>
       </c>
       <c r="E51" t="n">
-        <v>0.48642</v>
+        <v>0.486756</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.238594</v>
+        <v>0.235216</v>
       </c>
       <c r="C52" t="n">
-        <v>0.808171</v>
+        <v>0.807119</v>
       </c>
       <c r="D52" t="n">
-        <v>0.317242</v>
+        <v>0.317156</v>
       </c>
       <c r="E52" t="n">
-        <v>0.476066</v>
+        <v>0.476041</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.319441</v>
+        <v>0.322622</v>
       </c>
       <c r="C53" t="n">
-        <v>0.793434</v>
+        <v>0.792525</v>
       </c>
       <c r="D53" t="n">
-        <v>0.310109</v>
+        <v>0.308124</v>
       </c>
       <c r="E53" t="n">
-        <v>0.466535</v>
+        <v>0.466474</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.317161</v>
+        <v>0.321565</v>
       </c>
       <c r="C54" t="n">
-        <v>0.778957</v>
+        <v>0.778187</v>
       </c>
       <c r="D54" t="n">
-        <v>0.298265</v>
+        <v>0.299347</v>
       </c>
       <c r="E54" t="n">
-        <v>0.457365</v>
+        <v>0.45845</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.311288</v>
+        <v>0.308898</v>
       </c>
       <c r="C55" t="n">
-        <v>0.766749</v>
+        <v>0.766092</v>
       </c>
       <c r="D55" t="n">
-        <v>0.290642</v>
+        <v>0.290442</v>
       </c>
       <c r="E55" t="n">
-        <v>0.451467</v>
+        <v>0.452099</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292865</v>
+        <v>0.297406</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755215</v>
+        <v>0.754564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.28255</v>
+        <v>0.283161</v>
       </c>
       <c r="E56" t="n">
-        <v>0.441015</v>
+        <v>0.445476</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.290549</v>
+        <v>0.291803</v>
       </c>
       <c r="C57" t="n">
-        <v>0.744103</v>
+        <v>0.744155</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275749</v>
+        <v>0.275332</v>
       </c>
       <c r="E57" t="n">
-        <v>0.433564</v>
+        <v>0.434633</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.279138</v>
+        <v>0.279221</v>
       </c>
       <c r="C58" t="n">
-        <v>0.73497</v>
+        <v>0.735083</v>
       </c>
       <c r="D58" t="n">
-        <v>0.268377</v>
+        <v>0.268555</v>
       </c>
       <c r="E58" t="n">
-        <v>0.426429</v>
+        <v>0.42947</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.276386</v>
+        <v>0.27735</v>
       </c>
       <c r="C59" t="n">
-        <v>0.726183</v>
+        <v>0.72602</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262146</v>
+        <v>0.262287</v>
       </c>
       <c r="E59" t="n">
-        <v>0.422524</v>
+        <v>0.422256</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266412</v>
+        <v>0.26638</v>
       </c>
       <c r="C60" t="n">
-        <v>0.718861</v>
+        <v>0.7193079999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257747</v>
+        <v>0.256969</v>
       </c>
       <c r="E60" t="n">
-        <v>0.416385</v>
+        <v>0.41717</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264233</v>
+        <v>0.265777</v>
       </c>
       <c r="C61" t="n">
-        <v>0.711963</v>
+        <v>0.712407</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251944</v>
+        <v>0.252002</v>
       </c>
       <c r="E61" t="n">
-        <v>0.411504</v>
+        <v>0.412071</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256176</v>
+        <v>0.255923</v>
       </c>
       <c r="C62" t="n">
-        <v>0.705602</v>
+        <v>0.706533</v>
       </c>
       <c r="D62" t="n">
-        <v>0.247576</v>
+        <v>0.247836</v>
       </c>
       <c r="E62" t="n">
-        <v>0.407428</v>
+        <v>0.407991</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250344</v>
+        <v>0.251978</v>
       </c>
       <c r="C63" t="n">
-        <v>0.700754</v>
+        <v>0.701731</v>
       </c>
       <c r="D63" t="n">
-        <v>0.243468</v>
+        <v>0.244257</v>
       </c>
       <c r="E63" t="n">
-        <v>0.404646</v>
+        <v>0.405267</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247636</v>
+        <v>0.248462</v>
       </c>
       <c r="C64" t="n">
-        <v>0.910764</v>
+        <v>0.913689</v>
       </c>
       <c r="D64" t="n">
-        <v>0.241531</v>
+        <v>0.241971</v>
       </c>
       <c r="E64" t="n">
-        <v>0.40257</v>
+        <v>0.403322</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247168</v>
+        <v>0.246411</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8914069999999999</v>
+        <v>0.894775</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241438</v>
+        <v>0.242279</v>
       </c>
       <c r="E65" t="n">
-        <v>0.403319</v>
+        <v>0.403282</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.249216</v>
+        <v>0.247197</v>
       </c>
       <c r="C66" t="n">
-        <v>0.872852</v>
+        <v>0.876708</v>
       </c>
       <c r="D66" t="n">
-        <v>0.34328</v>
+        <v>0.343491</v>
       </c>
       <c r="E66" t="n">
-        <v>0.517176</v>
+        <v>0.519144</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.38748</v>
+        <v>0.389363</v>
       </c>
       <c r="C67" t="n">
-        <v>0.856978</v>
+        <v>0.860129</v>
       </c>
       <c r="D67" t="n">
-        <v>0.335261</v>
+        <v>0.334492</v>
       </c>
       <c r="E67" t="n">
-        <v>0.509906</v>
+        <v>0.511605</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.382772</v>
+        <v>0.383443</v>
       </c>
       <c r="C68" t="n">
-        <v>0.841607</v>
+        <v>0.845463</v>
       </c>
       <c r="D68" t="n">
-        <v>0.322972</v>
+        <v>0.321876</v>
       </c>
       <c r="E68" t="n">
-        <v>0.502428</v>
+        <v>0.504937</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.393056</v>
+        <v>0.392511</v>
       </c>
       <c r="C69" t="n">
-        <v>0.829643</v>
+        <v>0.8328680000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.315115</v>
+        <v>0.315486</v>
       </c>
       <c r="E69" t="n">
-        <v>0.494933</v>
+        <v>0.497596</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.371526</v>
+        <v>0.371797</v>
       </c>
       <c r="C70" t="n">
-        <v>0.819224</v>
+        <v>0.822277</v>
       </c>
       <c r="D70" t="n">
-        <v>0.310564</v>
+        <v>0.309839</v>
       </c>
       <c r="E70" t="n">
-        <v>0.487069</v>
+        <v>0.490487</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.358373</v>
+        <v>0.359929</v>
       </c>
       <c r="C71" t="n">
-        <v>0.809685</v>
+        <v>0.813185</v>
       </c>
       <c r="D71" t="n">
-        <v>0.299827</v>
+        <v>0.300439</v>
       </c>
       <c r="E71" t="n">
-        <v>0.479304</v>
+        <v>0.482561</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.332851</v>
+        <v>0.333668</v>
       </c>
       <c r="C72" t="n">
-        <v>0.802829</v>
+        <v>0.806131</v>
       </c>
       <c r="D72" t="n">
-        <v>0.29464</v>
+        <v>0.293341</v>
       </c>
       <c r="E72" t="n">
-        <v>0.473489</v>
+        <v>0.476234</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.354432</v>
+        <v>0.357651</v>
       </c>
       <c r="C73" t="n">
-        <v>0.796313</v>
+        <v>0.800219</v>
       </c>
       <c r="D73" t="n">
-        <v>0.290067</v>
+        <v>0.288116</v>
       </c>
       <c r="E73" t="n">
-        <v>0.466843</v>
+        <v>0.469583</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.337414</v>
+        <v>0.331921</v>
       </c>
       <c r="C74" t="n">
-        <v>0.791445</v>
+        <v>0.795104</v>
       </c>
       <c r="D74" t="n">
-        <v>0.279501</v>
+        <v>0.278992</v>
       </c>
       <c r="E74" t="n">
-        <v>0.461398</v>
+        <v>0.464153</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.341865</v>
+        <v>0.343858</v>
       </c>
       <c r="C75" t="n">
-        <v>0.790745</v>
+        <v>0.794103</v>
       </c>
       <c r="D75" t="n">
-        <v>0.276977</v>
+        <v>0.277186</v>
       </c>
       <c r="E75" t="n">
-        <v>0.456617</v>
+        <v>0.459157</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.328985</v>
+        <v>0.315773</v>
       </c>
       <c r="C76" t="n">
-        <v>0.788772</v>
+        <v>0.791873</v>
       </c>
       <c r="D76" t="n">
-        <v>0.27349</v>
+        <v>0.27163</v>
       </c>
       <c r="E76" t="n">
-        <v>0.452535</v>
+        <v>0.455705</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.317131</v>
+        <v>0.321131</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7887999999999999</v>
+        <v>0.79238</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267548</v>
+        <v>0.269025</v>
       </c>
       <c r="E77" t="n">
-        <v>0.450079</v>
+        <v>0.452562</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318508</v>
+        <v>0.316649</v>
       </c>
       <c r="C78" t="n">
-        <v>1.25365</v>
+        <v>1.25692</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265305</v>
+        <v>0.263251</v>
       </c>
       <c r="E78" t="n">
-        <v>0.448462</v>
+        <v>0.45141</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.296762</v>
+        <v>0.306826</v>
       </c>
       <c r="C79" t="n">
-        <v>1.2301</v>
+        <v>1.23551</v>
       </c>
       <c r="D79" t="n">
-        <v>0.263441</v>
+        <v>0.264502</v>
       </c>
       <c r="E79" t="n">
-        <v>0.448798</v>
+        <v>0.451873</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315997</v>
+        <v>0.31469</v>
       </c>
       <c r="C80" t="n">
-        <v>1.21229</v>
+        <v>1.21599</v>
       </c>
       <c r="D80" t="n">
-        <v>0.377498</v>
+        <v>0.386743</v>
       </c>
       <c r="E80" t="n">
-        <v>0.735916</v>
+        <v>0.738131</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.420253</v>
+        <v>0.477652</v>
       </c>
       <c r="C81" t="n">
-        <v>1.19673</v>
+        <v>1.19878</v>
       </c>
       <c r="D81" t="n">
-        <v>0.374786</v>
+        <v>0.3798</v>
       </c>
       <c r="E81" t="n">
-        <v>0.738872</v>
+        <v>0.742136</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.42511</v>
+        <v>0.40602</v>
       </c>
       <c r="C82" t="n">
-        <v>1.18236</v>
+        <v>1.18594</v>
       </c>
       <c r="D82" t="n">
-        <v>0.365844</v>
+        <v>0.370065</v>
       </c>
       <c r="E82" t="n">
-        <v>0.734523</v>
+        <v>0.736863</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.433888</v>
+        <v>0.450162</v>
       </c>
       <c r="C83" t="n">
-        <v>1.16885</v>
+        <v>1.1747</v>
       </c>
       <c r="D83" t="n">
-        <v>0.362474</v>
+        <v>0.364777</v>
       </c>
       <c r="E83" t="n">
-        <v>0.727653</v>
+        <v>0.729932</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.45581</v>
+        <v>0.409618</v>
       </c>
       <c r="C84" t="n">
-        <v>1.16259</v>
+        <v>1.16425</v>
       </c>
       <c r="D84" t="n">
-        <v>0.357641</v>
+        <v>0.354805</v>
       </c>
       <c r="E84" t="n">
-        <v>0.716735</v>
+        <v>0.720044</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.411766</v>
+        <v>0.416963</v>
       </c>
       <c r="C85" t="n">
-        <v>1.15772</v>
+        <v>1.15964</v>
       </c>
       <c r="D85" t="n">
-        <v>0.347084</v>
+        <v>0.348563</v>
       </c>
       <c r="E85" t="n">
-        <v>0.707879</v>
+        <v>0.7079029999999999</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.396592</v>
+        <v>0.389304</v>
       </c>
       <c r="C86" t="n">
-        <v>1.16422</v>
+        <v>1.15685</v>
       </c>
       <c r="D86" t="n">
-        <v>0.340022</v>
+        <v>0.344598</v>
       </c>
       <c r="E86" t="n">
-        <v>0.695245</v>
+        <v>0.693116</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.417343</v>
+        <v>0.39319</v>
       </c>
       <c r="C87" t="n">
-        <v>1.15273</v>
+        <v>1.16161</v>
       </c>
       <c r="D87" t="n">
-        <v>0.333589</v>
+        <v>0.33456</v>
       </c>
       <c r="E87" t="n">
-        <v>0.679684</v>
+        <v>0.678701</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.37566</v>
+        <v>0.383496</v>
       </c>
       <c r="C88" t="n">
-        <v>1.16391</v>
+        <v>1.16348</v>
       </c>
       <c r="D88" t="n">
-        <v>0.329533</v>
+        <v>0.331324</v>
       </c>
       <c r="E88" t="n">
-        <v>0.667842</v>
+        <v>0.667369</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.371891</v>
+        <v>0.376139</v>
       </c>
       <c r="C89" t="n">
-        <v>1.1737</v>
+        <v>1.17312</v>
       </c>
       <c r="D89" t="n">
-        <v>0.327056</v>
+        <v>0.324656</v>
       </c>
       <c r="E89" t="n">
-        <v>0.655288</v>
+        <v>0.656041</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.370324</v>
+        <v>0.369303</v>
       </c>
       <c r="C90" t="n">
-        <v>1.17759</v>
+        <v>1.18087</v>
       </c>
       <c r="D90" t="n">
-        <v>0.319663</v>
+        <v>0.312218</v>
       </c>
       <c r="E90" t="n">
-        <v>0.645201</v>
+        <v>0.644336</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372391</v>
+        <v>0.392644</v>
       </c>
       <c r="C91" t="n">
-        <v>1.19265</v>
+        <v>1.19296</v>
       </c>
       <c r="D91" t="n">
-        <v>0.312426</v>
+        <v>0.313796</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6355189999999999</v>
+        <v>0.635053</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.365189</v>
+        <v>0.387421</v>
       </c>
       <c r="C92" t="n">
-        <v>1.75665</v>
+        <v>1.76258</v>
       </c>
       <c r="D92" t="n">
-        <v>0.310369</v>
+        <v>0.310838</v>
       </c>
       <c r="E92" t="n">
-        <v>0.628414</v>
+        <v>0.62702</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.375362</v>
+        <v>0.386321</v>
       </c>
       <c r="C93" t="n">
-        <v>1.749</v>
+        <v>1.75303</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307166</v>
+        <v>0.305764</v>
       </c>
       <c r="E93" t="n">
-        <v>0.622741</v>
+        <v>0.621038</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363592</v>
+        <v>0.352654</v>
       </c>
       <c r="C94" t="n">
-        <v>1.7341</v>
+        <v>1.73957</v>
       </c>
       <c r="D94" t="n">
-        <v>0.508741</v>
+        <v>0.493208</v>
       </c>
       <c r="E94" t="n">
-        <v>1.12373</v>
+        <v>1.10708</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.565922</v>
+        <v>0.568883</v>
       </c>
       <c r="C95" t="n">
-        <v>1.72364</v>
+        <v>1.72637</v>
       </c>
       <c r="D95" t="n">
-        <v>0.498456</v>
+        <v>0.487307</v>
       </c>
       <c r="E95" t="n">
-        <v>1.11517</v>
+        <v>1.10619</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.559426</v>
+        <v>0.56089</v>
       </c>
       <c r="C96" t="n">
-        <v>1.7111</v>
+        <v>1.71644</v>
       </c>
       <c r="D96" t="n">
-        <v>0.487063</v>
+        <v>0.478582</v>
       </c>
       <c r="E96" t="n">
-        <v>1.106</v>
+        <v>1.09536</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5571159999999999</v>
+        <v>0.523204</v>
       </c>
       <c r="C97" t="n">
-        <v>1.70361</v>
+        <v>1.70591</v>
       </c>
       <c r="D97" t="n">
-        <v>0.479425</v>
+        <v>0.465175</v>
       </c>
       <c r="E97" t="n">
-        <v>1.0876</v>
+        <v>1.07151</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5551160000000001</v>
+        <v>0.5335839999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>1.69883</v>
+        <v>1.69935</v>
       </c>
       <c r="D98" t="n">
-        <v>0.46507</v>
+        <v>0.45557</v>
       </c>
       <c r="E98" t="n">
-        <v>1.07101</v>
+        <v>1.05284</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.52803</v>
+        <v>0.532166</v>
       </c>
       <c r="C99" t="n">
-        <v>1.69457</v>
+        <v>1.69452</v>
       </c>
       <c r="D99" t="n">
-        <v>0.455364</v>
+        <v>0.445218</v>
       </c>
       <c r="E99" t="n">
-        <v>1.04392</v>
+        <v>1.03789</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.525116</v>
+        <v>0.506937</v>
       </c>
       <c r="C100" t="n">
-        <v>1.69432</v>
+        <v>1.70022</v>
       </c>
       <c r="D100" t="n">
-        <v>0.445892</v>
+        <v>0.436485</v>
       </c>
       <c r="E100" t="n">
-        <v>1.03611</v>
+        <v>1.02325</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.51281</v>
+        <v>0.509937</v>
       </c>
       <c r="C101" t="n">
-        <v>1.70433</v>
+        <v>1.7078</v>
       </c>
       <c r="D101" t="n">
-        <v>0.43751</v>
+        <v>0.427389</v>
       </c>
       <c r="E101" t="n">
-        <v>1.01836</v>
+        <v>1.00733</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.505146</v>
+        <v>0.479046</v>
       </c>
       <c r="C102" t="n">
-        <v>1.70848</v>
+        <v>1.71391</v>
       </c>
       <c r="D102" t="n">
-        <v>0.42698</v>
+        <v>0.417954</v>
       </c>
       <c r="E102" t="n">
-        <v>1.00246</v>
+        <v>0.988347</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.488172</v>
+        <v>0.482823</v>
       </c>
       <c r="C103" t="n">
-        <v>1.71707</v>
+        <v>1.72035</v>
       </c>
       <c r="D103" t="n">
-        <v>0.419839</v>
+        <v>0.412778</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9881259999999999</v>
+        <v>0.980116</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.475395</v>
+        <v>0.484168</v>
       </c>
       <c r="C104" t="n">
-        <v>1.72698</v>
+        <v>1.71575</v>
       </c>
       <c r="D104" t="n">
-        <v>0.410401</v>
+        <v>0.403005</v>
       </c>
       <c r="E104" t="n">
-        <v>0.955756</v>
+        <v>0.944844</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.480137</v>
+        <v>0.474509</v>
       </c>
       <c r="C105" t="n">
-        <v>1.74062</v>
+        <v>1.73208</v>
       </c>
       <c r="D105" t="n">
-        <v>0.403976</v>
+        <v>0.397487</v>
       </c>
       <c r="E105" t="n">
-        <v>0.944132</v>
+        <v>0.933091</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.473886</v>
+        <v>0.467633</v>
       </c>
       <c r="C106" t="n">
-        <v>1.75791</v>
+        <v>1.76373</v>
       </c>
       <c r="D106" t="n">
-        <v>0.400551</v>
+        <v>0.392967</v>
       </c>
       <c r="E106" t="n">
-        <v>0.939347</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.474711</v>
+        <v>0.469225</v>
       </c>
       <c r="C107" t="n">
-        <v>2.36081</v>
+        <v>2.36474</v>
       </c>
       <c r="D107" t="n">
-        <v>0.394267</v>
+        <v>0.386912</v>
       </c>
       <c r="E107" t="n">
-        <v>0.944062</v>
+        <v>0.929832</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.465288</v>
+        <v>0.460227</v>
       </c>
       <c r="C108" t="n">
-        <v>2.3318</v>
+        <v>2.33378</v>
       </c>
       <c r="D108" t="n">
-        <v>0.601285</v>
+        <v>0.577968</v>
       </c>
       <c r="E108" t="n">
-        <v>2.38983</v>
+        <v>2.35992</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.476117</v>
+        <v>0.470895</v>
       </c>
       <c r="C109" t="n">
-        <v>2.30707</v>
+        <v>2.30801</v>
       </c>
       <c r="D109" t="n">
-        <v>0.54212</v>
+        <v>0.524414</v>
       </c>
       <c r="E109" t="n">
-        <v>2.40167</v>
+        <v>2.37709</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.666007</v>
+        <v>0.646823</v>
       </c>
       <c r="C110" t="n">
-        <v>2.28308</v>
+        <v>2.28687</v>
       </c>
       <c r="D110" t="n">
-        <v>0.584297</v>
+        <v>0.563379</v>
       </c>
       <c r="E110" t="n">
-        <v>2.39881</v>
+        <v>2.3722</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.673196</v>
+        <v>0.6551129999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>2.27356</v>
+        <v>2.27538</v>
       </c>
       <c r="D111" t="n">
-        <v>0.570959</v>
+        <v>0.547533</v>
       </c>
       <c r="E111" t="n">
-        <v>2.40246</v>
+        <v>2.39029</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.61621</v>
+        <v>0.603586</v>
       </c>
       <c r="C112" t="n">
-        <v>2.24791</v>
+        <v>2.2472</v>
       </c>
       <c r="D112" t="n">
-        <v>0.513023</v>
+        <v>0.501236</v>
       </c>
       <c r="E112" t="n">
-        <v>2.41346</v>
+        <v>2.40307</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.642593</v>
+        <v>0.624038</v>
       </c>
       <c r="C113" t="n">
-        <v>2.23845</v>
+        <v>2.24245</v>
       </c>
       <c r="D113" t="n">
-        <v>0.547413</v>
+        <v>0.5293</v>
       </c>
       <c r="E113" t="n">
-        <v>2.40591</v>
+        <v>2.3909</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.617134</v>
+        <v>0.601348</v>
       </c>
       <c r="C114" t="n">
-        <v>2.25095</v>
+        <v>2.24882</v>
       </c>
       <c r="D114" t="n">
-        <v>0.499325</v>
+        <v>0.483388</v>
       </c>
       <c r="E114" t="n">
-        <v>2.41149</v>
+        <v>2.39315</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.621883</v>
+        <v>0.606863</v>
       </c>
       <c r="C115" t="n">
-        <v>2.26209</v>
+        <v>2.25822</v>
       </c>
       <c r="D115" t="n">
-        <v>0.526997</v>
+        <v>0.509734</v>
       </c>
       <c r="E115" t="n">
-        <v>2.39902</v>
+        <v>2.39533</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.599272</v>
+        <v>0.590863</v>
       </c>
       <c r="C116" t="n">
-        <v>2.26963</v>
+        <v>2.26677</v>
       </c>
       <c r="D116" t="n">
-        <v>0.517001</v>
+        <v>0.500897</v>
       </c>
       <c r="E116" t="n">
-        <v>2.40766</v>
+        <v>2.40082</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.600155</v>
+        <v>0.587454</v>
       </c>
       <c r="C117" t="n">
-        <v>2.24951</v>
+        <v>2.25319</v>
       </c>
       <c r="D117" t="n">
-        <v>0.507757</v>
+        <v>0.490994</v>
       </c>
       <c r="E117" t="n">
-        <v>2.41365</v>
+        <v>2.41702</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.581941</v>
+        <v>0.565812</v>
       </c>
       <c r="C118" t="n">
-        <v>2.21872</v>
+        <v>2.22896</v>
       </c>
       <c r="D118" t="n">
-        <v>0.465975</v>
+        <v>0.455556</v>
       </c>
       <c r="E118" t="n">
-        <v>2.22804</v>
+        <v>2.21679</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5379969999999999</v>
+        <v>0.529931</v>
       </c>
       <c r="C119" t="n">
-        <v>2.22707</v>
+        <v>2.21879</v>
       </c>
       <c r="D119" t="n">
-        <v>0.461302</v>
+        <v>0.451174</v>
       </c>
       <c r="E119" t="n">
-        <v>2.22863</v>
+        <v>2.21733</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5649960000000001</v>
+        <v>0.554155</v>
       </c>
       <c r="C120" t="n">
-        <v>2.23708</v>
+        <v>2.21096</v>
       </c>
       <c r="D120" t="n">
-        <v>0.45407</v>
+        <v>0.443936</v>
       </c>
       <c r="E120" t="n">
-        <v>2.43598</v>
+        <v>2.41027</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.538647</v>
+        <v>0.531838</v>
       </c>
       <c r="C121" t="n">
-        <v>2.91675</v>
+        <v>2.89968</v>
       </c>
       <c r="D121" t="n">
-        <v>0.451855</v>
+        <v>0.445354</v>
       </c>
       <c r="E121" t="n">
-        <v>2.00673</v>
+        <v>1.99533</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.544757</v>
+        <v>0.533322</v>
       </c>
       <c r="C122" t="n">
-        <v>2.87312</v>
+        <v>2.86623</v>
       </c>
       <c r="D122" t="n">
-        <v>0.451189</v>
+        <v>0.442917</v>
       </c>
       <c r="E122" t="n">
-        <v>2.00889</v>
+        <v>1.99874</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.526637</v>
+        <v>0.520757</v>
       </c>
       <c r="C123" t="n">
-        <v>2.82899</v>
+        <v>2.83037</v>
       </c>
       <c r="D123" t="n">
-        <v>0.647332</v>
+        <v>0.630766</v>
       </c>
       <c r="E123" t="n">
-        <v>2.9378</v>
+        <v>2.92674</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.743348</v>
+        <v>0.7282690000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>2.79159</v>
+        <v>2.79397</v>
       </c>
       <c r="D124" t="n">
-        <v>0.639825</v>
+        <v>0.624771</v>
       </c>
       <c r="E124" t="n">
-        <v>2.92725</v>
+        <v>2.92088</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.718209</v>
+        <v>0.708596</v>
       </c>
       <c r="C125" t="n">
-        <v>2.76599</v>
+        <v>2.76291</v>
       </c>
       <c r="D125" t="n">
-        <v>0.652953</v>
+        <v>0.637586</v>
       </c>
       <c r="E125" t="n">
-        <v>2.91823</v>
+        <v>2.91324</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7032350000000001</v>
+        <v>0.694159</v>
       </c>
       <c r="C126" t="n">
-        <v>2.73573</v>
+        <v>2.73326</v>
       </c>
       <c r="D126" t="n">
-        <v>0.623981</v>
+        <v>0.609023</v>
       </c>
       <c r="E126" t="n">
-        <v>2.90737</v>
+        <v>2.89373</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.706894</v>
+        <v>0.698004</v>
       </c>
       <c r="C127" t="n">
-        <v>2.70766</v>
+        <v>2.71266</v>
       </c>
       <c r="D127" t="n">
-        <v>0.618266</v>
+        <v>0.601766</v>
       </c>
       <c r="E127" t="n">
-        <v>2.90192</v>
+        <v>2.88732</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.684032</v>
+        <v>0.670131</v>
       </c>
       <c r="C128" t="n">
-        <v>2.68973</v>
+        <v>2.68895</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6141180000000001</v>
+        <v>0.600646</v>
       </c>
       <c r="E128" t="n">
-        <v>2.898</v>
+        <v>2.89152</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.672601</v>
+        <v>0.659687</v>
       </c>
       <c r="C129" t="n">
-        <v>2.67435</v>
+        <v>2.6638</v>
       </c>
       <c r="D129" t="n">
-        <v>0.606584</v>
+        <v>0.589249</v>
       </c>
       <c r="E129" t="n">
-        <v>2.89182</v>
+        <v>2.88298</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.68408</v>
+        <v>0.67242</v>
       </c>
       <c r="C130" t="n">
-        <v>2.65888</v>
+        <v>2.6532</v>
       </c>
       <c r="D130" t="n">
-        <v>0.600969</v>
+        <v>0.583937</v>
       </c>
       <c r="E130" t="n">
-        <v>2.88611</v>
+        <v>2.8759</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6610009999999999</v>
+        <v>0.654592</v>
       </c>
       <c r="C131" t="n">
-        <v>2.64792</v>
+        <v>2.64949</v>
       </c>
       <c r="D131" t="n">
-        <v>0.596521</v>
+        <v>0.578329</v>
       </c>
       <c r="E131" t="n">
-        <v>2.87871</v>
+        <v>2.86748</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.656222</v>
+        <v>0.649823</v>
       </c>
       <c r="C132" t="n">
-        <v>2.64095</v>
+        <v>2.63896</v>
       </c>
       <c r="D132" t="n">
-        <v>0.59161</v>
+        <v>0.584692</v>
       </c>
       <c r="E132" t="n">
-        <v>2.88867</v>
+        <v>2.88077</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.649655</v>
+        <v>0.638551</v>
       </c>
       <c r="C133" t="n">
-        <v>2.63626</v>
+        <v>2.63716</v>
       </c>
       <c r="D133" t="n">
-        <v>0.589345</v>
+        <v>0.581605</v>
       </c>
       <c r="E133" t="n">
-        <v>2.88601</v>
+        <v>2.87772</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6433449999999999</v>
+        <v>0.634993</v>
       </c>
       <c r="C134" t="n">
-        <v>2.62079</v>
+        <v>2.61001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.556621</v>
+        <v>0.553003</v>
       </c>
       <c r="E134" t="n">
-        <v>2.65119</v>
+        <v>2.63571</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.646099</v>
+        <v>0.63414</v>
       </c>
       <c r="C135" t="n">
-        <v>3.31454</v>
+        <v>3.31077</v>
       </c>
       <c r="D135" t="n">
-        <v>0.553752</v>
+        <v>0.536246</v>
       </c>
       <c r="E135" t="n">
-        <v>2.41279</v>
+        <v>2.40062</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.602583</v>
+        <v>0.599446</v>
       </c>
       <c r="C136" t="n">
-        <v>3.25825</v>
+        <v>3.25169</v>
       </c>
       <c r="D136" t="n">
-        <v>0.552256</v>
+        <v>0.546826</v>
       </c>
       <c r="E136" t="n">
-        <v>2.87948</v>
+        <v>2.86287</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.624117</v>
+        <v>0.607985</v>
       </c>
       <c r="C137" t="n">
-        <v>3.20479</v>
+        <v>3.19554</v>
       </c>
       <c r="D137" t="n">
-        <v>0.746314</v>
+        <v>0.737089</v>
       </c>
       <c r="E137" t="n">
-        <v>3.37118</v>
+        <v>3.35141</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.830888</v>
+        <v>0.819662</v>
       </c>
       <c r="C138" t="n">
-        <v>3.16216</v>
+        <v>3.14763</v>
       </c>
       <c r="D138" t="n">
-        <v>0.741943</v>
+        <v>0.731694</v>
       </c>
       <c r="E138" t="n">
-        <v>3.35955</v>
+        <v>3.34707</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.789757</v>
+        <v>0.781852</v>
       </c>
       <c r="C139" t="n">
-        <v>3.11076</v>
+        <v>3.10985</v>
       </c>
       <c r="D139" t="n">
-        <v>0.739832</v>
+        <v>0.728119</v>
       </c>
       <c r="E139" t="n">
-        <v>3.34385</v>
+        <v>3.32902</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.796743</v>
+        <v>0.785641</v>
       </c>
       <c r="C140" t="n">
-        <v>3.08032</v>
+        <v>3.07368</v>
       </c>
       <c r="D140" t="n">
-        <v>0.736888</v>
+        <v>0.7173040000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>3.32027</v>
+        <v>3.30511</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.772798</v>
+        <v>0.7653450000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>3.04803</v>
+        <v>3.03585</v>
       </c>
       <c r="D141" t="n">
-        <v>0.734541</v>
+        <v>0.726945</v>
       </c>
       <c r="E141" t="n">
-        <v>3.30807</v>
+        <v>3.29475</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7704220000000001</v>
+        <v>0.761486</v>
       </c>
       <c r="C142" t="n">
-        <v>3.0256</v>
+        <v>3.02049</v>
       </c>
       <c r="D142" t="n">
-        <v>0.732003</v>
+        <v>0.722069</v>
       </c>
       <c r="E142" t="n">
-        <v>3.28791</v>
+        <v>3.27414</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.787368</v>
+        <v>0.772249</v>
       </c>
       <c r="C143" t="n">
-        <v>2.9988</v>
+        <v>2.99278</v>
       </c>
       <c r="D143" t="n">
-        <v>0.727799</v>
+        <v>0.718977</v>
       </c>
       <c r="E143" t="n">
-        <v>3.27182</v>
+        <v>3.25795</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242913</v>
+        <v>0.24602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.551502</v>
+        <v>0.424676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214997</v>
+        <v>0.55367</v>
       </c>
       <c r="E2" t="n">
-        <v>0.385812</v>
+        <v>0.215045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.389014</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240767</v>
+        <v>0.23434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.540747</v>
+        <v>0.417689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20927</v>
+        <v>0.552563</v>
       </c>
       <c r="E3" t="n">
-        <v>0.38348</v>
+        <v>0.209536</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.384366</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234131</v>
+        <v>0.234699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.541979</v>
+        <v>0.412458</v>
       </c>
       <c r="D4" t="n">
-        <v>0.204042</v>
+        <v>0.546732</v>
       </c>
       <c r="E4" t="n">
-        <v>0.377862</v>
+        <v>0.20354</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.379436</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.224961</v>
+        <v>0.228144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.537783</v>
+        <v>0.408227</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199683</v>
+        <v>0.539162</v>
       </c>
       <c r="E5" t="n">
-        <v>0.373161</v>
+        <v>0.199679</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.375714</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.221597</v>
+        <v>0.221326</v>
       </c>
       <c r="C6" t="n">
-        <v>0.534307</v>
+        <v>0.403058</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196115</v>
+        <v>0.5305</v>
       </c>
       <c r="E6" t="n">
-        <v>0.370043</v>
+        <v>0.195848</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.373832</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221374</v>
+        <v>0.21691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.681435</v>
+        <v>0.400131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193858</v>
+        <v>0.682901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.368213</v>
+        <v>0.193599</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.36932</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.219454</v>
+        <v>0.21765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.664061</v>
+        <v>0.398622</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194346</v>
+        <v>0.668968</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36918</v>
+        <v>0.194586</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.371491</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21592</v>
+        <v>0.216987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.651789</v>
+        <v>0.399087</v>
       </c>
       <c r="D9" t="n">
-        <v>0.284956</v>
+        <v>0.65549</v>
       </c>
       <c r="E9" t="n">
-        <v>0.45531</v>
+        <v>0.284772</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.458125</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.313262</v>
+        <v>0.307805</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6411480000000001</v>
+        <v>0.486864</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273632</v>
+        <v>0.644031</v>
       </c>
       <c r="E10" t="n">
-        <v>0.444012</v>
+        <v>0.274334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.447062</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.304716</v>
+        <v>0.300059</v>
       </c>
       <c r="C11" t="n">
-        <v>0.627974</v>
+        <v>0.476426</v>
       </c>
       <c r="D11" t="n">
-        <v>0.269738</v>
+        <v>0.632675</v>
       </c>
       <c r="E11" t="n">
-        <v>0.433856</v>
+        <v>0.265654</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.434529</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.289367</v>
+        <v>0.287144</v>
       </c>
       <c r="C12" t="n">
-        <v>0.619888</v>
+        <v>0.466528</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256706</v>
+        <v>0.623209</v>
       </c>
       <c r="E12" t="n">
-        <v>0.424543</v>
+        <v>0.256193</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.42594</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280065</v>
+        <v>0.278868</v>
       </c>
       <c r="C13" t="n">
-        <v>0.610942</v>
+        <v>0.455421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248979</v>
+        <v>0.614695</v>
       </c>
       <c r="E13" t="n">
-        <v>0.415826</v>
+        <v>0.250103</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.416578</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.271188</v>
+        <v>0.271717</v>
       </c>
       <c r="C14" t="n">
-        <v>0.603817</v>
+        <v>0.446666</v>
       </c>
       <c r="D14" t="n">
-        <v>0.241515</v>
+        <v>0.606174</v>
       </c>
       <c r="E14" t="n">
-        <v>0.407695</v>
+        <v>0.2413</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.408475</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26312</v>
+        <v>0.266067</v>
       </c>
       <c r="C15" t="n">
-        <v>0.594807</v>
+        <v>0.437821</v>
       </c>
       <c r="D15" t="n">
-        <v>0.235289</v>
+        <v>0.598955</v>
       </c>
       <c r="E15" t="n">
-        <v>0.400368</v>
+        <v>0.234145</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.402314</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255508</v>
+        <v>0.25438</v>
       </c>
       <c r="C16" t="n">
-        <v>0.591739</v>
+        <v>0.429565</v>
       </c>
       <c r="D16" t="n">
-        <v>0.228756</v>
+        <v>0.592641</v>
       </c>
       <c r="E16" t="n">
-        <v>0.393616</v>
+        <v>0.228195</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.39414</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248456</v>
+        <v>0.250217</v>
       </c>
       <c r="C17" t="n">
-        <v>0.586344</v>
+        <v>0.424501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223434</v>
+        <v>0.586531</v>
       </c>
       <c r="E17" t="n">
-        <v>0.38705</v>
+        <v>0.224207</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.388903</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.243925</v>
+        <v>0.242561</v>
       </c>
       <c r="C18" t="n">
-        <v>0.579529</v>
+        <v>0.419364</v>
       </c>
       <c r="D18" t="n">
-        <v>0.217277</v>
+        <v>0.581933</v>
       </c>
       <c r="E18" t="n">
-        <v>0.381393</v>
+        <v>0.217122</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.385731</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235611</v>
+        <v>0.238984</v>
       </c>
       <c r="C19" t="n">
-        <v>0.578349</v>
+        <v>0.413798</v>
       </c>
       <c r="D19" t="n">
-        <v>0.212993</v>
+        <v>0.57846</v>
       </c>
       <c r="E19" t="n">
-        <v>0.376174</v>
+        <v>0.214773</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.376975</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.232799</v>
+        <v>0.237963</v>
       </c>
       <c r="C20" t="n">
-        <v>0.569609</v>
+        <v>0.409804</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209398</v>
+        <v>0.57426</v>
       </c>
       <c r="E20" t="n">
-        <v>0.372395</v>
+        <v>0.209768</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.373745</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.23077</v>
+        <v>0.232966</v>
       </c>
       <c r="C21" t="n">
-        <v>0.742598</v>
+        <v>0.408019</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209439</v>
+        <v>0.750988</v>
       </c>
       <c r="E21" t="n">
-        <v>0.370273</v>
+        <v>0.209427</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.373179</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22666</v>
+        <v>0.227647</v>
       </c>
       <c r="C22" t="n">
-        <v>0.726629</v>
+        <v>0.402712</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208214</v>
+        <v>0.734861</v>
       </c>
       <c r="E22" t="n">
-        <v>0.370523</v>
+        <v>0.20986</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.372999</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224165</v>
+        <v>0.226966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.713005</v>
+        <v>0.402498</v>
       </c>
       <c r="D23" t="n">
-        <v>0.301735</v>
+        <v>0.720424</v>
       </c>
       <c r="E23" t="n">
-        <v>0.462706</v>
+        <v>0.301433</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.463003</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.318138</v>
+        <v>0.314868</v>
       </c>
       <c r="C24" t="n">
-        <v>0.699951</v>
+        <v>0.504878</v>
       </c>
       <c r="D24" t="n">
-        <v>0.288884</v>
+        <v>0.707027</v>
       </c>
       <c r="E24" t="n">
-        <v>0.451693</v>
+        <v>0.291057</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.451985</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.31031</v>
+        <v>0.302624</v>
       </c>
       <c r="C25" t="n">
-        <v>0.688559</v>
+        <v>0.49381</v>
       </c>
       <c r="D25" t="n">
-        <v>0.280641</v>
+        <v>0.695657</v>
       </c>
       <c r="E25" t="n">
-        <v>0.441822</v>
+        <v>0.281423</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.443404</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297797</v>
+        <v>0.297235</v>
       </c>
       <c r="C26" t="n">
-        <v>0.678298</v>
+        <v>0.480111</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271293</v>
+        <v>0.685192</v>
       </c>
       <c r="E26" t="n">
-        <v>0.43272</v>
+        <v>0.273636</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.433437</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.286034</v>
+        <v>0.288064</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6688460000000001</v>
+        <v>0.472033</v>
       </c>
       <c r="D27" t="n">
-        <v>0.265929</v>
+        <v>0.675431</v>
       </c>
       <c r="E27" t="n">
-        <v>0.423824</v>
+        <v>0.263416</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.424549</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28045</v>
+        <v>0.278941</v>
       </c>
       <c r="C28" t="n">
-        <v>0.658628</v>
+        <v>0.459439</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255096</v>
+        <v>0.6662130000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.415027</v>
+        <v>0.255946</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.416219</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271198</v>
+        <v>0.270507</v>
       </c>
       <c r="C29" t="n">
-        <v>0.65097</v>
+        <v>0.451118</v>
       </c>
       <c r="D29" t="n">
-        <v>0.248268</v>
+        <v>0.65891</v>
       </c>
       <c r="E29" t="n">
-        <v>0.407734</v>
+        <v>0.249775</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.409195</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.260974</v>
+        <v>0.265837</v>
       </c>
       <c r="C30" t="n">
-        <v>0.644028</v>
+        <v>0.445348</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241327</v>
+        <v>0.651139</v>
       </c>
       <c r="E30" t="n">
-        <v>0.400114</v>
+        <v>0.241403</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.403232</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.260174</v>
+        <v>0.259824</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6384609999999999</v>
+        <v>0.438444</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23594</v>
+        <v>0.64474</v>
       </c>
       <c r="E31" t="n">
-        <v>0.393736</v>
+        <v>0.237207</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.39745</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249474</v>
+        <v>0.251959</v>
       </c>
       <c r="C32" t="n">
-        <v>0.633417</v>
+        <v>0.431898</v>
       </c>
       <c r="D32" t="n">
-        <v>0.230322</v>
+        <v>0.63952</v>
       </c>
       <c r="E32" t="n">
-        <v>0.387806</v>
+        <v>0.23038</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.392269</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.244128</v>
+        <v>0.244347</v>
       </c>
       <c r="C33" t="n">
-        <v>0.628829</v>
+        <v>0.427174</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225373</v>
+        <v>0.634557</v>
       </c>
       <c r="E33" t="n">
-        <v>0.38267</v>
+        <v>0.225357</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.388101</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236158</v>
+        <v>0.237996</v>
       </c>
       <c r="C34" t="n">
-        <v>0.623665</v>
+        <v>0.42035</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220759</v>
+        <v>0.629394</v>
       </c>
       <c r="E34" t="n">
-        <v>0.378807</v>
+        <v>0.222469</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.38525</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.233444</v>
+        <v>0.235557</v>
       </c>
       <c r="C35" t="n">
-        <v>0.807134</v>
+        <v>0.418451</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22229</v>
+        <v>0.815856</v>
       </c>
       <c r="E35" t="n">
-        <v>0.376067</v>
+        <v>0.219703</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.38171</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229012</v>
+        <v>0.230736</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7903250000000001</v>
+        <v>0.414524</v>
       </c>
       <c r="D36" t="n">
-        <v>0.217148</v>
+        <v>0.798494</v>
       </c>
       <c r="E36" t="n">
-        <v>0.375724</v>
+        <v>0.219509</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.382345</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22918</v>
+        <v>0.232289</v>
       </c>
       <c r="C37" t="n">
-        <v>0.774795</v>
+        <v>0.413013</v>
       </c>
       <c r="D37" t="n">
-        <v>0.312747</v>
+        <v>0.782783</v>
       </c>
       <c r="E37" t="n">
-        <v>0.471734</v>
+        <v>0.31251</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.476038</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319027</v>
+        <v>0.321211</v>
       </c>
       <c r="C38" t="n">
-        <v>0.759908</v>
+        <v>0.5173720000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.300176</v>
+        <v>0.767949</v>
       </c>
       <c r="E38" t="n">
-        <v>0.461662</v>
+        <v>0.301273</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.465353</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308694</v>
+        <v>0.308867</v>
       </c>
       <c r="C39" t="n">
-        <v>0.746377</v>
+        <v>0.507472</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291123</v>
+        <v>0.753541</v>
       </c>
       <c r="E39" t="n">
-        <v>0.451883</v>
+        <v>0.291815</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.455045</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2986</v>
+        <v>0.299522</v>
       </c>
       <c r="C40" t="n">
-        <v>0.73395</v>
+        <v>0.495829</v>
       </c>
       <c r="D40" t="n">
-        <v>0.282367</v>
+        <v>0.740291</v>
       </c>
       <c r="E40" t="n">
-        <v>0.443291</v>
+        <v>0.284944</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.444678</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.289572</v>
+        <v>0.289932</v>
       </c>
       <c r="C41" t="n">
-        <v>0.722334</v>
+        <v>0.487189</v>
       </c>
       <c r="D41" t="n">
-        <v>0.277949</v>
+        <v>0.729375</v>
       </c>
       <c r="E41" t="n">
-        <v>0.434613</v>
+        <v>0.277871</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.437742</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280236</v>
+        <v>0.284844</v>
       </c>
       <c r="C42" t="n">
-        <v>0.712863</v>
+        <v>0.477135</v>
       </c>
       <c r="D42" t="n">
-        <v>0.267249</v>
+        <v>0.719103</v>
       </c>
       <c r="E42" t="n">
-        <v>0.426268</v>
+        <v>0.267306</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.428137</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273366</v>
+        <v>0.279552</v>
       </c>
       <c r="C43" t="n">
-        <v>0.702681</v>
+        <v>0.469332</v>
       </c>
       <c r="D43" t="n">
-        <v>0.258367</v>
+        <v>0.7086980000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.419044</v>
+        <v>0.258834</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.419374</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.266967</v>
+        <v>0.26974</v>
       </c>
       <c r="C44" t="n">
-        <v>0.694292</v>
+        <v>0.461516</v>
       </c>
       <c r="D44" t="n">
-        <v>0.252</v>
+        <v>0.700709</v>
       </c>
       <c r="E44" t="n">
-        <v>0.411737</v>
+        <v>0.252877</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.412479</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.265287</v>
+        <v>0.268464</v>
       </c>
       <c r="C45" t="n">
-        <v>0.687021</v>
+        <v>0.455772</v>
       </c>
       <c r="D45" t="n">
-        <v>0.245734</v>
+        <v>0.69331</v>
       </c>
       <c r="E45" t="n">
-        <v>0.405184</v>
+        <v>0.24609</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.405303</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.261229</v>
+        <v>0.260206</v>
       </c>
       <c r="C46" t="n">
-        <v>0.680126</v>
+        <v>0.449169</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240441</v>
+        <v>0.68647</v>
       </c>
       <c r="E46" t="n">
-        <v>0.398921</v>
+        <v>0.241424</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.399632</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.252442</v>
+        <v>0.253963</v>
       </c>
       <c r="C47" t="n">
-        <v>0.674745</v>
+        <v>0.44151</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234987</v>
+        <v>0.680416</v>
       </c>
       <c r="E47" t="n">
-        <v>0.393666</v>
+        <v>0.235627</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.394414</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.252834</v>
+        <v>0.247184</v>
       </c>
       <c r="C48" t="n">
-        <v>0.670002</v>
+        <v>0.436537</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229823</v>
+        <v>0.675705</v>
       </c>
       <c r="E48" t="n">
-        <v>0.389558</v>
+        <v>0.232512</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.390545</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.244477</v>
+        <v>0.244552</v>
       </c>
       <c r="C49" t="n">
-        <v>0.665373</v>
+        <v>0.42912</v>
       </c>
       <c r="D49" t="n">
-        <v>0.226569</v>
+        <v>0.67076</v>
       </c>
       <c r="E49" t="n">
-        <v>0.386911</v>
+        <v>0.228515</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.387913</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238619</v>
+        <v>0.238075</v>
       </c>
       <c r="C50" t="n">
-        <v>0.841021</v>
+        <v>0.423464</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22707</v>
+        <v>0.851114</v>
       </c>
       <c r="E50" t="n">
-        <v>0.385671</v>
+        <v>0.226479</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.387041</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.239848</v>
+        <v>0.234345</v>
       </c>
       <c r="C51" t="n">
-        <v>0.823966</v>
+        <v>0.422382</v>
       </c>
       <c r="D51" t="n">
-        <v>0.32784</v>
+        <v>0.832331</v>
       </c>
       <c r="E51" t="n">
-        <v>0.486756</v>
+        <v>0.328154</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.486701</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.235216</v>
+        <v>0.238271</v>
       </c>
       <c r="C52" t="n">
-        <v>0.807119</v>
+        <v>0.423401</v>
       </c>
       <c r="D52" t="n">
-        <v>0.317156</v>
+        <v>0.815681</v>
       </c>
       <c r="E52" t="n">
-        <v>0.476041</v>
+        <v>0.320115</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.477132</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.322622</v>
+        <v>0.326353</v>
       </c>
       <c r="C53" t="n">
-        <v>0.792525</v>
+        <v>0.5218739999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.308124</v>
+        <v>0.800216</v>
       </c>
       <c r="E53" t="n">
-        <v>0.466474</v>
+        <v>0.308758</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.468547</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.321565</v>
+        <v>0.31327</v>
       </c>
       <c r="C54" t="n">
-        <v>0.778187</v>
+        <v>0.511613</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299347</v>
+        <v>0.7855529999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.45845</v>
+        <v>0.301241</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.46031</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.308898</v>
+        <v>0.300973</v>
       </c>
       <c r="C55" t="n">
-        <v>0.766092</v>
+        <v>0.500939</v>
       </c>
       <c r="D55" t="n">
-        <v>0.290442</v>
+        <v>0.772728</v>
       </c>
       <c r="E55" t="n">
-        <v>0.452099</v>
+        <v>0.290394</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.45053</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.297406</v>
+        <v>0.296313</v>
       </c>
       <c r="C56" t="n">
-        <v>0.754564</v>
+        <v>0.492834</v>
       </c>
       <c r="D56" t="n">
-        <v>0.283161</v>
+        <v>0.760895</v>
       </c>
       <c r="E56" t="n">
-        <v>0.445476</v>
+        <v>0.285174</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.443224</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.291803</v>
+        <v>0.285445</v>
       </c>
       <c r="C57" t="n">
-        <v>0.744155</v>
+        <v>0.486213</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275332</v>
+        <v>0.750224</v>
       </c>
       <c r="E57" t="n">
-        <v>0.434633</v>
+        <v>0.274191</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.435705</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.279221</v>
+        <v>0.280312</v>
       </c>
       <c r="C58" t="n">
-        <v>0.735083</v>
+        <v>0.477439</v>
       </c>
       <c r="D58" t="n">
-        <v>0.268555</v>
+        <v>0.740791</v>
       </c>
       <c r="E58" t="n">
-        <v>0.42947</v>
+        <v>0.26819</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.42776</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27735</v>
+        <v>0.272196</v>
       </c>
       <c r="C59" t="n">
-        <v>0.72602</v>
+        <v>0.470026</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262287</v>
+        <v>0.7316049999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.422256</v>
+        <v>0.261893</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.421304</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26638</v>
+        <v>0.27238</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7193079999999999</v>
+        <v>0.463601</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256969</v>
+        <v>0.723858</v>
       </c>
       <c r="E60" t="n">
-        <v>0.41717</v>
+        <v>0.257938</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.415872</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.265777</v>
+        <v>0.261026</v>
       </c>
       <c r="C61" t="n">
-        <v>0.712407</v>
+        <v>0.459031</v>
       </c>
       <c r="D61" t="n">
-        <v>0.252002</v>
+        <v>0.71726</v>
       </c>
       <c r="E61" t="n">
-        <v>0.412071</v>
+        <v>0.250468</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.412996</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255923</v>
+        <v>0.257754</v>
       </c>
       <c r="C62" t="n">
-        <v>0.706533</v>
+        <v>0.454462</v>
       </c>
       <c r="D62" t="n">
-        <v>0.247836</v>
+        <v>0.710981</v>
       </c>
       <c r="E62" t="n">
-        <v>0.407991</v>
+        <v>0.247925</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.409194</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251978</v>
+        <v>0.249847</v>
       </c>
       <c r="C63" t="n">
-        <v>0.701731</v>
+        <v>0.452454</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244257</v>
+        <v>0.705893</v>
       </c>
       <c r="E63" t="n">
-        <v>0.405267</v>
+        <v>0.243963</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.406345</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.248462</v>
+        <v>0.249971</v>
       </c>
       <c r="C64" t="n">
-        <v>0.913689</v>
+        <v>0.447267</v>
       </c>
       <c r="D64" t="n">
-        <v>0.241971</v>
+        <v>0.909038</v>
       </c>
       <c r="E64" t="n">
-        <v>0.403322</v>
+        <v>0.24182</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.404958</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246411</v>
+        <v>0.244623</v>
       </c>
       <c r="C65" t="n">
-        <v>0.894775</v>
+        <v>0.444012</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242279</v>
+        <v>0.889839</v>
       </c>
       <c r="E65" t="n">
-        <v>0.403282</v>
+        <v>0.242309</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.40645</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.247197</v>
+        <v>0.244453</v>
       </c>
       <c r="C66" t="n">
-        <v>0.876708</v>
+        <v>0.444722</v>
       </c>
       <c r="D66" t="n">
-        <v>0.343491</v>
+        <v>0.872551</v>
       </c>
       <c r="E66" t="n">
-        <v>0.519144</v>
+        <v>0.342341</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.512116</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.389363</v>
+        <v>0.396556</v>
       </c>
       <c r="C67" t="n">
-        <v>0.860129</v>
+        <v>0.582628</v>
       </c>
       <c r="D67" t="n">
-        <v>0.334492</v>
+        <v>0.85642</v>
       </c>
       <c r="E67" t="n">
-        <v>0.511605</v>
+        <v>0.331009</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.504518</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.383443</v>
+        <v>0.384514</v>
       </c>
       <c r="C68" t="n">
-        <v>0.845463</v>
+        <v>0.5755130000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.321876</v>
+        <v>0.84135</v>
       </c>
       <c r="E68" t="n">
-        <v>0.504937</v>
+        <v>0.325605</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.496834</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.392511</v>
+        <v>0.368961</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8328680000000001</v>
+        <v>0.572089</v>
       </c>
       <c r="D69" t="n">
-        <v>0.315486</v>
+        <v>0.828565</v>
       </c>
       <c r="E69" t="n">
-        <v>0.497596</v>
+        <v>0.316379</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.48944</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.371797</v>
+        <v>0.364095</v>
       </c>
       <c r="C70" t="n">
-        <v>0.822277</v>
+        <v>0.563431</v>
       </c>
       <c r="D70" t="n">
-        <v>0.309839</v>
+        <v>0.817323</v>
       </c>
       <c r="E70" t="n">
-        <v>0.490487</v>
+        <v>0.311461</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.481982</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.359929</v>
+        <v>0.350935</v>
       </c>
       <c r="C71" t="n">
-        <v>0.813185</v>
+        <v>0.555346</v>
       </c>
       <c r="D71" t="n">
-        <v>0.300439</v>
+        <v>0.807547</v>
       </c>
       <c r="E71" t="n">
-        <v>0.482561</v>
+        <v>0.303382</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.474103</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.333668</v>
+        <v>0.357469</v>
       </c>
       <c r="C72" t="n">
-        <v>0.806131</v>
+        <v>0.5461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.293341</v>
+        <v>0.799244</v>
       </c>
       <c r="E72" t="n">
-        <v>0.476234</v>
+        <v>0.296823</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.468262</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.357651</v>
+        <v>0.357408</v>
       </c>
       <c r="C73" t="n">
-        <v>0.800219</v>
+        <v>0.541377</v>
       </c>
       <c r="D73" t="n">
-        <v>0.288116</v>
+        <v>0.790551</v>
       </c>
       <c r="E73" t="n">
-        <v>0.469583</v>
+        <v>0.29025</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.462519</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.331921</v>
+        <v>0.33685</v>
       </c>
       <c r="C74" t="n">
-        <v>0.795104</v>
+        <v>0.535762</v>
       </c>
       <c r="D74" t="n">
-        <v>0.278992</v>
+        <v>0.787699</v>
       </c>
       <c r="E74" t="n">
-        <v>0.464153</v>
+        <v>0.280351</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.457163</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.343858</v>
+        <v>0.327093</v>
       </c>
       <c r="C75" t="n">
-        <v>0.794103</v>
+        <v>0.531365</v>
       </c>
       <c r="D75" t="n">
-        <v>0.277186</v>
+        <v>0.786877</v>
       </c>
       <c r="E75" t="n">
-        <v>0.459157</v>
+        <v>0.275687</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.45201</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.315773</v>
+        <v>0.323793</v>
       </c>
       <c r="C76" t="n">
-        <v>0.791873</v>
+        <v>0.527586</v>
       </c>
       <c r="D76" t="n">
-        <v>0.27163</v>
+        <v>0.7851359999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.455705</v>
+        <v>0.27038</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.448192</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.321131</v>
+        <v>0.321492</v>
       </c>
       <c r="C77" t="n">
-        <v>0.79238</v>
+        <v>0.523614</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269025</v>
+        <v>0.785299</v>
       </c>
       <c r="E77" t="n">
-        <v>0.452562</v>
+        <v>0.265776</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.445906</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.316649</v>
+        <v>0.311138</v>
       </c>
       <c r="C78" t="n">
-        <v>1.25692</v>
+        <v>0.521295</v>
       </c>
       <c r="D78" t="n">
-        <v>0.263251</v>
+        <v>1.24795</v>
       </c>
       <c r="E78" t="n">
-        <v>0.45141</v>
+        <v>0.265454</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.44445</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.306826</v>
+        <v>0.304413</v>
       </c>
       <c r="C79" t="n">
-        <v>1.23551</v>
+        <v>0.520566</v>
       </c>
       <c r="D79" t="n">
-        <v>0.264502</v>
+        <v>1.22586</v>
       </c>
       <c r="E79" t="n">
-        <v>0.451873</v>
+        <v>0.263151</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.445441</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.31469</v>
+        <v>0.30654</v>
       </c>
       <c r="C80" t="n">
-        <v>1.21599</v>
+        <v>0.521805</v>
       </c>
       <c r="D80" t="n">
-        <v>0.386743</v>
+        <v>1.20671</v>
       </c>
       <c r="E80" t="n">
-        <v>0.738131</v>
+        <v>0.386141</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.73168</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.477652</v>
+        <v>0.452999</v>
       </c>
       <c r="C81" t="n">
-        <v>1.19878</v>
+        <v>0.832191</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3798</v>
+        <v>1.19111</v>
       </c>
       <c r="E81" t="n">
-        <v>0.742136</v>
+        <v>0.381915</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.734768</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.40602</v>
+        <v>0.425008</v>
       </c>
       <c r="C82" t="n">
-        <v>1.18594</v>
+        <v>0.836293</v>
       </c>
       <c r="D82" t="n">
-        <v>0.370065</v>
+        <v>1.17826</v>
       </c>
       <c r="E82" t="n">
-        <v>0.736863</v>
+        <v>0.368335</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.73117</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.450162</v>
+        <v>0.447326</v>
       </c>
       <c r="C83" t="n">
-        <v>1.1747</v>
+        <v>0.848886</v>
       </c>
       <c r="D83" t="n">
-        <v>0.364777</v>
+        <v>1.17073</v>
       </c>
       <c r="E83" t="n">
-        <v>0.729932</v>
+        <v>0.36518</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.723948</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.409618</v>
+        <v>0.429765</v>
       </c>
       <c r="C84" t="n">
-        <v>1.16425</v>
+        <v>0.83958</v>
       </c>
       <c r="D84" t="n">
-        <v>0.354805</v>
+        <v>1.16204</v>
       </c>
       <c r="E84" t="n">
-        <v>0.720044</v>
+        <v>0.3569</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.714145</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.416963</v>
+        <v>0.427208</v>
       </c>
       <c r="C85" t="n">
-        <v>1.15964</v>
+        <v>0.831981</v>
       </c>
       <c r="D85" t="n">
-        <v>0.348563</v>
+        <v>1.15602</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7079029999999999</v>
+        <v>0.347165</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.701322</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.389304</v>
+        <v>0.401024</v>
       </c>
       <c r="C86" t="n">
-        <v>1.15685</v>
+        <v>0.817491</v>
       </c>
       <c r="D86" t="n">
-        <v>0.344598</v>
+        <v>1.15101</v>
       </c>
       <c r="E86" t="n">
-        <v>0.693116</v>
+        <v>0.34484</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.688347</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.39319</v>
+        <v>0.375394</v>
       </c>
       <c r="C87" t="n">
-        <v>1.16161</v>
+        <v>0.806226</v>
       </c>
       <c r="D87" t="n">
-        <v>0.33456</v>
+        <v>1.15219</v>
       </c>
       <c r="E87" t="n">
-        <v>0.678701</v>
+        <v>0.331961</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.674695</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.383496</v>
+        <v>0.391564</v>
       </c>
       <c r="C88" t="n">
-        <v>1.16348</v>
+        <v>0.794232</v>
       </c>
       <c r="D88" t="n">
-        <v>0.331324</v>
+        <v>1.15625</v>
       </c>
       <c r="E88" t="n">
-        <v>0.667369</v>
+        <v>0.33354</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.663013</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.376139</v>
+        <v>0.378054</v>
       </c>
       <c r="C89" t="n">
-        <v>1.17312</v>
+        <v>0.778316</v>
       </c>
       <c r="D89" t="n">
-        <v>0.324656</v>
+        <v>1.16685</v>
       </c>
       <c r="E89" t="n">
-        <v>0.656041</v>
+        <v>0.319908</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.650218</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369303</v>
+        <v>0.357</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18087</v>
+        <v>0.766965</v>
       </c>
       <c r="D90" t="n">
-        <v>0.312218</v>
+        <v>1.17322</v>
       </c>
       <c r="E90" t="n">
-        <v>0.644336</v>
+        <v>0.318322</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.641279</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.392644</v>
+        <v>0.387638</v>
       </c>
       <c r="C91" t="n">
-        <v>1.19296</v>
+        <v>0.764182</v>
       </c>
       <c r="D91" t="n">
-        <v>0.313796</v>
+        <v>1.18903</v>
       </c>
       <c r="E91" t="n">
-        <v>0.635053</v>
+        <v>0.312231</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.631351</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.387421</v>
+        <v>0.371682</v>
       </c>
       <c r="C92" t="n">
-        <v>1.76258</v>
+        <v>0.757965</v>
       </c>
       <c r="D92" t="n">
-        <v>0.310838</v>
+        <v>1.75637</v>
       </c>
       <c r="E92" t="n">
-        <v>0.62702</v>
+        <v>0.310119</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.624816</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386321</v>
+        <v>0.358214</v>
       </c>
       <c r="C93" t="n">
-        <v>1.75303</v>
+        <v>0.747134</v>
       </c>
       <c r="D93" t="n">
-        <v>0.305764</v>
+        <v>1.74638</v>
       </c>
       <c r="E93" t="n">
-        <v>0.621038</v>
+        <v>0.309821</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.618017</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.352654</v>
+        <v>0.368044</v>
       </c>
       <c r="C94" t="n">
-        <v>1.73957</v>
+        <v>0.743974</v>
       </c>
       <c r="D94" t="n">
-        <v>0.493208</v>
+        <v>1.73466</v>
       </c>
       <c r="E94" t="n">
-        <v>1.10708</v>
+        <v>0.494767</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.11842</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.568883</v>
+        <v>0.548805</v>
       </c>
       <c r="C95" t="n">
-        <v>1.72637</v>
+        <v>1.13657</v>
       </c>
       <c r="D95" t="n">
-        <v>0.487307</v>
+        <v>1.7266</v>
       </c>
       <c r="E95" t="n">
-        <v>1.10619</v>
+        <v>0.492029</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.11433</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.56089</v>
+        <v>0.544565</v>
       </c>
       <c r="C96" t="n">
-        <v>1.71644</v>
+        <v>1.15792</v>
       </c>
       <c r="D96" t="n">
-        <v>0.478582</v>
+        <v>1.71683</v>
       </c>
       <c r="E96" t="n">
-        <v>1.09536</v>
+        <v>0.481704</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.10169</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.523204</v>
+        <v>0.536653</v>
       </c>
       <c r="C97" t="n">
-        <v>1.70591</v>
+        <v>1.14752</v>
       </c>
       <c r="D97" t="n">
-        <v>0.465175</v>
+        <v>1.70903</v>
       </c>
       <c r="E97" t="n">
-        <v>1.07151</v>
+        <v>0.468825</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.07723</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5335839999999999</v>
+        <v>0.527393</v>
       </c>
       <c r="C98" t="n">
-        <v>1.69935</v>
+        <v>1.13788</v>
       </c>
       <c r="D98" t="n">
-        <v>0.45557</v>
+        <v>1.70365</v>
       </c>
       <c r="E98" t="n">
-        <v>1.05284</v>
+        <v>0.460649</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.06866</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.532166</v>
+        <v>0.516659</v>
       </c>
       <c r="C99" t="n">
-        <v>1.69452</v>
+        <v>1.11983</v>
       </c>
       <c r="D99" t="n">
-        <v>0.445218</v>
+        <v>1.69999</v>
       </c>
       <c r="E99" t="n">
-        <v>1.03789</v>
+        <v>0.449175</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.04293</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.506937</v>
+        <v>0.512665</v>
       </c>
       <c r="C100" t="n">
-        <v>1.70022</v>
+        <v>1.10901</v>
       </c>
       <c r="D100" t="n">
-        <v>0.436485</v>
+        <v>1.69942</v>
       </c>
       <c r="E100" t="n">
-        <v>1.02325</v>
+        <v>0.440923</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.03302</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.509937</v>
+        <v>0.503443</v>
       </c>
       <c r="C101" t="n">
-        <v>1.7078</v>
+        <v>1.09863</v>
       </c>
       <c r="D101" t="n">
-        <v>0.427389</v>
+        <v>1.70858</v>
       </c>
       <c r="E101" t="n">
-        <v>1.00733</v>
+        <v>0.43105</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.0178</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.479046</v>
+        <v>0.497842</v>
       </c>
       <c r="C102" t="n">
-        <v>1.71391</v>
+        <v>1.08706</v>
       </c>
       <c r="D102" t="n">
-        <v>0.417954</v>
+        <v>1.71432</v>
       </c>
       <c r="E102" t="n">
-        <v>0.988347</v>
+        <v>0.421511</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.00077</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.482823</v>
+        <v>0.47667</v>
       </c>
       <c r="C103" t="n">
-        <v>1.72035</v>
+        <v>1.07289</v>
       </c>
       <c r="D103" t="n">
-        <v>0.412778</v>
+        <v>1.72507</v>
       </c>
       <c r="E103" t="n">
-        <v>0.980116</v>
+        <v>0.415375</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.987226</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.484168</v>
+        <v>0.491038</v>
       </c>
       <c r="C104" t="n">
-        <v>1.71575</v>
+        <v>1.05085</v>
       </c>
       <c r="D104" t="n">
-        <v>0.403005</v>
+        <v>1.73401</v>
       </c>
       <c r="E104" t="n">
-        <v>0.944844</v>
+        <v>0.407985</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.9732690000000001</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.474509</v>
+        <v>0.48218</v>
       </c>
       <c r="C105" t="n">
-        <v>1.73208</v>
+        <v>1.04103</v>
       </c>
       <c r="D105" t="n">
-        <v>0.397487</v>
+        <v>1.75039</v>
       </c>
       <c r="E105" t="n">
-        <v>0.933091</v>
+        <v>0.402376</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.94115</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.467633</v>
+        <v>0.460453</v>
       </c>
       <c r="C106" t="n">
-        <v>1.76373</v>
+        <v>1.03349</v>
       </c>
       <c r="D106" t="n">
-        <v>0.392967</v>
+        <v>1.76742</v>
       </c>
       <c r="E106" t="n">
-        <v>0.93</v>
+        <v>0.397215</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.949101</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.469225</v>
+        <v>0.470985</v>
       </c>
       <c r="C107" t="n">
-        <v>2.36474</v>
+        <v>1.03772</v>
       </c>
       <c r="D107" t="n">
-        <v>0.386912</v>
+        <v>2.37097</v>
       </c>
       <c r="E107" t="n">
-        <v>0.929832</v>
+        <v>0.392362</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.923696</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.460227</v>
+        <v>0.453382</v>
       </c>
       <c r="C108" t="n">
-        <v>2.33378</v>
+        <v>1.02992</v>
       </c>
       <c r="D108" t="n">
-        <v>0.577968</v>
+        <v>2.34555</v>
       </c>
       <c r="E108" t="n">
-        <v>2.35992</v>
+        <v>0.586773</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.38881</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.470895</v>
+        <v>0.468559</v>
       </c>
       <c r="C109" t="n">
-        <v>2.30801</v>
+        <v>1.02425</v>
       </c>
       <c r="D109" t="n">
-        <v>0.524414</v>
+        <v>2.3203</v>
       </c>
       <c r="E109" t="n">
-        <v>2.37709</v>
+        <v>0.539069</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.40612</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.646823</v>
+        <v>0.657599</v>
       </c>
       <c r="C110" t="n">
-        <v>2.28687</v>
+        <v>2.59241</v>
       </c>
       <c r="D110" t="n">
-        <v>0.563379</v>
+        <v>2.30233</v>
       </c>
       <c r="E110" t="n">
-        <v>2.3722</v>
+        <v>0.533434</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.39665</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6551129999999999</v>
+        <v>0.6523369999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>2.27538</v>
+        <v>2.59466</v>
       </c>
       <c r="D111" t="n">
-        <v>0.547533</v>
+        <v>2.28843</v>
       </c>
       <c r="E111" t="n">
-        <v>2.39029</v>
+        <v>0.516757</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.40028</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.603586</v>
+        <v>0.6346349999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>2.2472</v>
+        <v>2.58936</v>
       </c>
       <c r="D112" t="n">
-        <v>0.501236</v>
+        <v>2.27272</v>
       </c>
       <c r="E112" t="n">
-        <v>2.40307</v>
+        <v>0.507876</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.41537</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.624038</v>
+        <v>0.610024</v>
       </c>
       <c r="C113" t="n">
-        <v>2.24245</v>
+        <v>2.595</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5293</v>
+        <v>2.27156</v>
       </c>
       <c r="E113" t="n">
-        <v>2.3909</v>
+        <v>0.497737</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.42296</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.601348</v>
+        <v>0.616514</v>
       </c>
       <c r="C114" t="n">
-        <v>2.24882</v>
+        <v>2.58531</v>
       </c>
       <c r="D114" t="n">
-        <v>0.483388</v>
+        <v>2.26506</v>
       </c>
       <c r="E114" t="n">
-        <v>2.39315</v>
+        <v>0.521894</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.40761</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.606863</v>
+        <v>0.560683</v>
       </c>
       <c r="C115" t="n">
-        <v>2.25822</v>
+        <v>2.59084</v>
       </c>
       <c r="D115" t="n">
-        <v>0.509734</v>
+        <v>2.2697</v>
       </c>
       <c r="E115" t="n">
-        <v>2.39533</v>
+        <v>0.518859</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.4124</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.590863</v>
+        <v>0.590781</v>
       </c>
       <c r="C116" t="n">
-        <v>2.26677</v>
+        <v>2.5766</v>
       </c>
       <c r="D116" t="n">
-        <v>0.500897</v>
+        <v>2.28454</v>
       </c>
       <c r="E116" t="n">
-        <v>2.40082</v>
+        <v>0.507755</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.42012</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.587454</v>
+        <v>0.568253</v>
       </c>
       <c r="C117" t="n">
-        <v>2.25319</v>
+        <v>2.61501</v>
       </c>
       <c r="D117" t="n">
-        <v>0.490994</v>
+        <v>2.2832</v>
       </c>
       <c r="E117" t="n">
-        <v>2.41702</v>
+        <v>0.468121</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.41427</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.565812</v>
+        <v>0.58519</v>
       </c>
       <c r="C118" t="n">
-        <v>2.22896</v>
+        <v>2.59094</v>
       </c>
       <c r="D118" t="n">
-        <v>0.455556</v>
+        <v>2.23994</v>
       </c>
       <c r="E118" t="n">
-        <v>2.21679</v>
+        <v>0.460344</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.42895</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.529931</v>
+        <v>0.52833</v>
       </c>
       <c r="C119" t="n">
-        <v>2.21879</v>
+        <v>1.36794</v>
       </c>
       <c r="D119" t="n">
-        <v>0.451174</v>
+        <v>2.24437</v>
       </c>
       <c r="E119" t="n">
-        <v>2.21733</v>
+        <v>0.456248</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.80666</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.554155</v>
+        <v>0.545498</v>
       </c>
       <c r="C120" t="n">
-        <v>2.21096</v>
+        <v>2.59721</v>
       </c>
       <c r="D120" t="n">
-        <v>0.443936</v>
+        <v>2.25782</v>
       </c>
       <c r="E120" t="n">
-        <v>2.41027</v>
+        <v>0.444461</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.01789</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.531838</v>
+        <v>0.517719</v>
       </c>
       <c r="C121" t="n">
-        <v>2.89968</v>
+        <v>2.59212</v>
       </c>
       <c r="D121" t="n">
-        <v>0.445354</v>
+        <v>2.93012</v>
       </c>
       <c r="E121" t="n">
-        <v>1.99533</v>
+        <v>0.445795</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.36873</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.533322</v>
+        <v>0.554467</v>
       </c>
       <c r="C122" t="n">
-        <v>2.86623</v>
+        <v>2.61728</v>
       </c>
       <c r="D122" t="n">
-        <v>0.442917</v>
+        <v>2.88907</v>
       </c>
       <c r="E122" t="n">
-        <v>1.99874</v>
+        <v>0.442119</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.22345</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.520757</v>
+        <v>0.53969</v>
       </c>
       <c r="C123" t="n">
-        <v>2.83037</v>
+        <v>2.60877</v>
       </c>
       <c r="D123" t="n">
-        <v>0.630766</v>
+        <v>2.84806</v>
       </c>
       <c r="E123" t="n">
-        <v>2.92674</v>
+        <v>0.636804</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2.93204</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7282690000000001</v>
+        <v>0.731944</v>
       </c>
       <c r="C124" t="n">
-        <v>2.79397</v>
+        <v>3.18691</v>
       </c>
       <c r="D124" t="n">
-        <v>0.624771</v>
+        <v>2.81437</v>
       </c>
       <c r="E124" t="n">
-        <v>2.92088</v>
+        <v>0.62848</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.92688</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.708596</v>
+        <v>0.713506</v>
       </c>
       <c r="C125" t="n">
-        <v>2.76291</v>
+        <v>3.16033</v>
       </c>
       <c r="D125" t="n">
-        <v>0.637586</v>
+        <v>2.78496</v>
       </c>
       <c r="E125" t="n">
-        <v>2.91324</v>
+        <v>0.6417310000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.91091</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.694159</v>
+        <v>0.700484</v>
       </c>
       <c r="C126" t="n">
-        <v>2.73326</v>
+        <v>3.15663</v>
       </c>
       <c r="D126" t="n">
-        <v>0.609023</v>
+        <v>2.7527</v>
       </c>
       <c r="E126" t="n">
-        <v>2.89373</v>
+        <v>0.61513</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.90651</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.698004</v>
+        <v>0.692406</v>
       </c>
       <c r="C127" t="n">
-        <v>2.71266</v>
+        <v>3.14383</v>
       </c>
       <c r="D127" t="n">
-        <v>0.601766</v>
+        <v>2.7247</v>
       </c>
       <c r="E127" t="n">
-        <v>2.88732</v>
+        <v>0.610325</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.90171</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.670131</v>
+        <v>0.681937</v>
       </c>
       <c r="C128" t="n">
-        <v>2.68895</v>
+        <v>3.12965</v>
       </c>
       <c r="D128" t="n">
-        <v>0.600646</v>
+        <v>2.70737</v>
       </c>
       <c r="E128" t="n">
-        <v>2.89152</v>
+        <v>0.598781</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.90423</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.659687</v>
+        <v>0.683652</v>
       </c>
       <c r="C129" t="n">
-        <v>2.6638</v>
+        <v>3.12221</v>
       </c>
       <c r="D129" t="n">
-        <v>0.589249</v>
+        <v>2.68602</v>
       </c>
       <c r="E129" t="n">
-        <v>2.88298</v>
+        <v>0.599448</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.87477</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.67242</v>
+        <v>0.673786</v>
       </c>
       <c r="C130" t="n">
-        <v>2.6532</v>
+        <v>3.09516</v>
       </c>
       <c r="D130" t="n">
-        <v>0.583937</v>
+        <v>2.68344</v>
       </c>
       <c r="E130" t="n">
-        <v>2.8759</v>
+        <v>0.596996</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.879</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.654592</v>
+        <v>0.659663</v>
       </c>
       <c r="C131" t="n">
-        <v>2.64949</v>
+        <v>3.10127</v>
       </c>
       <c r="D131" t="n">
-        <v>0.578329</v>
+        <v>2.66642</v>
       </c>
       <c r="E131" t="n">
-        <v>2.86748</v>
+        <v>0.591768</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.88731</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.649823</v>
+        <v>0.650034</v>
       </c>
       <c r="C132" t="n">
-        <v>2.63896</v>
+        <v>3.1013</v>
       </c>
       <c r="D132" t="n">
-        <v>0.584692</v>
+        <v>2.6589</v>
       </c>
       <c r="E132" t="n">
-        <v>2.88077</v>
+        <v>0.588267</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.88807</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.638551</v>
+        <v>0.649532</v>
       </c>
       <c r="C133" t="n">
-        <v>2.63716</v>
+        <v>3.08403</v>
       </c>
       <c r="D133" t="n">
-        <v>0.581605</v>
+        <v>2.65195</v>
       </c>
       <c r="E133" t="n">
-        <v>2.87772</v>
+        <v>0.583368</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.87758</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.634993</v>
+        <v>0.640178</v>
       </c>
       <c r="C134" t="n">
-        <v>2.61001</v>
+        <v>3.0829</v>
       </c>
       <c r="D134" t="n">
-        <v>0.553003</v>
+        <v>2.63251</v>
       </c>
       <c r="E134" t="n">
-        <v>2.63571</v>
+        <v>0.554136</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.86433</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.63414</v>
+        <v>0.638444</v>
       </c>
       <c r="C135" t="n">
-        <v>3.31077</v>
+        <v>3.06243</v>
       </c>
       <c r="D135" t="n">
-        <v>0.536246</v>
+        <v>3.33652</v>
       </c>
       <c r="E135" t="n">
-        <v>2.40062</v>
+        <v>0.553556</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.87815</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.599446</v>
+        <v>0.625541</v>
       </c>
       <c r="C136" t="n">
-        <v>3.25169</v>
+        <v>3.07653</v>
       </c>
       <c r="D136" t="n">
-        <v>0.546826</v>
+        <v>3.28257</v>
       </c>
       <c r="E136" t="n">
-        <v>2.86287</v>
+        <v>0.546327</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.40505</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.607985</v>
+        <v>0.629476</v>
       </c>
       <c r="C137" t="n">
-        <v>3.19554</v>
+        <v>3.07241</v>
       </c>
       <c r="D137" t="n">
-        <v>0.737089</v>
+        <v>3.22552</v>
       </c>
       <c r="E137" t="n">
-        <v>3.35141</v>
+        <v>0.740509</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.37377</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.819662</v>
+        <v>0.812434</v>
       </c>
       <c r="C138" t="n">
-        <v>3.14763</v>
+        <v>3.60545</v>
       </c>
       <c r="D138" t="n">
-        <v>0.731694</v>
+        <v>3.18364</v>
       </c>
       <c r="E138" t="n">
-        <v>3.34707</v>
+        <v>0.737751</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.35453</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.781852</v>
+        <v>0.794649</v>
       </c>
       <c r="C139" t="n">
-        <v>3.10985</v>
+        <v>3.58424</v>
       </c>
       <c r="D139" t="n">
-        <v>0.728119</v>
+        <v>3.13181</v>
       </c>
       <c r="E139" t="n">
-        <v>3.32902</v>
+        <v>0.73149</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.34103</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.785641</v>
+        <v>0.769446</v>
       </c>
       <c r="C140" t="n">
-        <v>3.07368</v>
+        <v>3.5594</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7173040000000001</v>
+        <v>3.09438</v>
       </c>
       <c r="E140" t="n">
-        <v>3.30511</v>
+        <v>0.727758</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3.31132</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7653450000000001</v>
+        <v>0.769302</v>
       </c>
       <c r="C141" t="n">
-        <v>3.03585</v>
+        <v>3.53142</v>
       </c>
       <c r="D141" t="n">
-        <v>0.726945</v>
+        <v>3.06186</v>
       </c>
       <c r="E141" t="n">
-        <v>3.29475</v>
+        <v>0.746096</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.29562</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.761486</v>
+        <v>0.757319</v>
       </c>
       <c r="C142" t="n">
-        <v>3.02049</v>
+        <v>3.51409</v>
       </c>
       <c r="D142" t="n">
-        <v>0.722069</v>
+        <v>3.04087</v>
       </c>
       <c r="E142" t="n">
-        <v>3.27414</v>
+        <v>0.723516</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.28864</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.772249</v>
+        <v>0.771961</v>
       </c>
       <c r="C143" t="n">
-        <v>2.99278</v>
+        <v>3.49144</v>
       </c>
       <c r="D143" t="n">
-        <v>0.718977</v>
+        <v>3.018</v>
       </c>
       <c r="E143" t="n">
-        <v>3.25795</v>
+        <v>0.7144160000000001</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.26625</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15337</v>
+                  <v>0.146039</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.155158</v>
+                  <v>0.148013</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.159661</v>
+                  <v>0.138681</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.151036</v>
+                  <v>0.14359</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.145481</v>
+                  <v>0.135845</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.143135</v>
+                  <v>0.135477</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.148369</v>
+                  <v>0.138485</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150446</v>
+                  <v>0.146058</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207322</v>
+                  <v>0.200991</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209592</v>
+                  <v>0.199168</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.195598</v>
+                  <v>0.189428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.190781</v>
+                  <v>0.187799</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.190823</v>
+                  <v>0.184312</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.175134</v>
+                  <v>0.170536</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.168551</v>
+                  <v>0.165581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.159679</v>
+                  <v>0.161496</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164206</v>
+                  <v>0.158637</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.167199</v>
+                  <v>0.157383</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.154037</v>
+                  <v>0.155905</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.157372</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.151621</v>
+                  <v>0.153328</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157259</v>
+                  <v>0.155101</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.238303</v>
+                  <v>0.237836</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.224434</v>
+                  <v>0.232792</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.224004</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.215688</v>
+                  <v>0.214188</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.20293</v>
+                  <v>0.206863</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.198964</v>
+                  <v>0.198074</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.187941</v>
+                  <v>0.190476</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185272</v>
+                  <v>0.189206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.178074</v>
+                  <v>0.179889</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173278</v>
+                  <v>0.176719</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.170074</v>
+                  <v>0.171518</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.168305</v>
+                  <v>0.170802</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.170652</v>
+                  <v>0.171714</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.167843</v>
+                  <v>0.170411</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243961</v>
+                  <v>0.242776</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.235067</v>
+                  <v>0.234175</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.22627</v>
+                  <v>0.22518</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218024</v>
+                  <v>0.217734</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210212</v>
+                  <v>0.209982</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.202858</v>
+                  <v>0.202762</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196171</v>
+                  <v>0.196177</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.190461</v>
+                  <v>0.190435</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.185034</v>
+                  <v>0.185025</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.180206</v>
+                  <v>0.179638</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.176532</v>
+                  <v>0.176655</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.173492</v>
+                  <v>0.173549</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.171855</v>
+                  <v>0.171866</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172451</v>
+                  <v>0.172691</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.174531</v>
+                  <v>0.175807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.241212</v>
+                  <v>0.240716</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.231315</v>
+                  <v>0.232852</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.222959</v>
+                  <v>0.224402</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.216001</v>
+                  <v>0.217265</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.208546</v>
+                  <v>0.208892</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.20144</v>
+                  <v>0.202409</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.195596</v>
+                  <v>0.195381</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.189667</v>
+                  <v>0.190447</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.184353</v>
+                  <v>0.185342</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.180335</v>
+                  <v>0.181484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178093</v>
+                  <v>0.177209</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.176032</v>
+                  <v>0.176375</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176322</v>
+                  <v>0.17631</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178398</v>
+                  <v>0.179257</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246205</v>
+                  <v>0.244087</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235745</v>
+                  <v>0.23551</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22844</v>
+                  <v>0.228011</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219722</v>
+                  <v>0.219299</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.211882</v>
+                  <v>0.212195</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205851</v>
+                  <v>0.204906</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199915</v>
+                  <v>0.198988</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19416</v>
+                  <v>0.193473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188783</v>
+                  <v>0.188598</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183925</v>
+                  <v>0.183295</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.182219</v>
+                  <v>0.180748</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178711</v>
+                  <v>0.178691</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17904</v>
+                  <v>0.178316</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180346</v>
+                  <v>0.180884</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257797</v>
+                  <v>0.256673</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.248989</v>
+                  <v>0.248828</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.242374</v>
+                  <v>0.241687</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233789</v>
+                  <v>0.233823</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.22662</v>
+                  <v>0.226435</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219911</v>
+                  <v>0.219403</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21385</v>
+                  <v>0.212981</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.20712</v>
+                  <v>0.206654</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.2016</v>
+                  <v>0.201478</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.196505</v>
+                  <v>0.195737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.193329</v>
+                  <v>0.192256</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190124</v>
+                  <v>0.189382</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188597</v>
+                  <v>0.188583</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189371</v>
+                  <v>0.18968</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270674</v>
+                  <v>0.271413</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265072</v>
+                  <v>0.265435</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258834</v>
+                  <v>0.258773</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251641</v>
+                  <v>0.252024</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245263</v>
+                  <v>0.245278</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238488</v>
+                  <v>0.239437</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233411</v>
+                  <v>0.233272</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227946</v>
+                  <v>0.227822</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222458</v>
+                  <v>0.222804</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218327</v>
+                  <v>0.218299</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214176</v>
+                  <v>0.214387</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211275</v>
+                  <v>0.211097</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208723</v>
+                  <v>0.209085</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208655</v>
+                  <v>0.209158</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210629</v>
+                  <v>0.211426</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.285509</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.278433</v>
+                  <v>0.28665</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271806</v>
+                  <v>0.279989</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266427</v>
+                  <v>0.273564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260565</v>
+                  <v>0.26764</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255512</v>
+                  <v>0.262322</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250615</v>
+                  <v>0.257025</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245594</v>
+                  <v>0.25203</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.244716</v>
+                  <v>0.247571</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.237814</v>
+                  <v>0.243348</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234924</v>
+                  <v>0.239959</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232693</v>
+                  <v>0.237783</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231404</v>
+                  <v>0.236599</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232607</v>
+                  <v>0.237197</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.316721</v>
+                  <v>0.328962</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.311521</v>
+                  <v>0.323242</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.304916</v>
+                  <v>0.317089</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299863</v>
+                  <v>0.310426</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294634</v>
+                  <v>0.306459</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.290007</v>
+                  <v>0.301111</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285681</v>
+                  <v>0.295255</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.281672</v>
+                  <v>0.290688</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278486</v>
+                  <v>0.28664</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275255</v>
+                  <v>0.282957</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.272149</v>
+                  <v>0.280443</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270314</v>
+                  <v>0.277925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.269997</v>
+                  <v>0.277999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270583</v>
+                  <v>0.278357</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.369063</v>
+                  <v>0.369562</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.363506</v>
+                  <v>0.360547</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.358269</v>
+                  <v>0.355884</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.352863</v>
+                  <v>0.352816</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34801</v>
+                  <v>0.346455</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.34351</v>
+                  <v>0.341422</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.312145</v>
+                  <v>0.28211</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.311864</v>
+                  <v>0.278115</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.311341</v>
+                  <v>0.271292</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.306772</v>
+                  <v>0.274151</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.308161</v>
+                  <v>0.266767</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.408994</v>
+                  <v>0.266578</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.405189</v>
+                  <v>0.266281</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.401577</v>
+                  <v>0.272086</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.391147</v>
+                  <v>0.331698</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.391102</v>
+                  <v>0.319212</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.38111</v>
+                  <v>0.308191</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.379912</v>
+                  <v>0.307945</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.376405</v>
+                  <v>0.295667</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.370044</v>
+                  <v>0.292683</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.366509</v>
+                  <v>0.283847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.362169</v>
+                  <v>0.280388</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.364199</v>
+                  <v>0.277733</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.36117</v>
+                  <v>0.273149</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.357351</v>
+                  <v>0.268271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.478261</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.464696</v>
+                  <v>0.270153</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.456439</v>
+                  <v>0.273148</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.448159</v>
+                  <v>0.340388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.440673</v>
+                  <v>0.331711</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.431649</v>
+                  <v>0.323314</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.425692</v>
+                  <v>0.316365</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.418998</v>
+                  <v>0.310543</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.412593</v>
+                  <v>0.301656</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.408417</v>
+                  <v>0.296089</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.40367</v>
+                  <v>0.291172</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.399719</v>
+                  <v>0.285343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393748</v>
+                  <v>0.283907</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.390428</v>
+                  <v>0.278823</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.499331</v>
+                  <v>0.280175</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.48684</v>
+                  <v>0.276888</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.478061</v>
+                  <v>0.279208</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.46875</v>
+                  <v>0.350466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.458947</v>
+                  <v>0.343127</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.450864</v>
+                  <v>0.334872</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.443182</v>
+                  <v>0.327488</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.437353</v>
+                  <v>0.320628</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.430382</v>
+                  <v>0.31489</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.424477</v>
+                  <v>0.309181</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.419409</v>
+                  <v>0.303399</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414636</v>
+                  <v>0.299576</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.40978</v>
+                  <v>0.295042</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406225</v>
+                  <v>0.293079</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.403185</v>
+                  <v>0.290591</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.506923</v>
+                  <v>0.290977</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.49607</v>
+                  <v>0.292093</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485393</v>
+                  <v>0.297895</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.47704</v>
+                  <v>0.354931</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.467187</v>
+                  <v>0.347367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.459395</v>
+                  <v>0.342722</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.452921</v>
+                  <v>0.334916</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.445497</v>
+                  <v>0.328959</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440853</v>
+                  <v>0.3234</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.434352</v>
+                  <v>0.317305</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.430313</v>
+                  <v>0.312179</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.426534</v>
+                  <v>0.308366</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.422625</v>
+                  <v>0.305196</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.419713</v>
+                  <v>0.30302</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.544347</v>
+                  <v>0.302263</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.53371</v>
+                  <v>0.303818</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.523499</v>
+                  <v>0.306058</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.516787</v>
+                  <v>0.374633</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.508951</v>
+                  <v>0.365677</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.500625</v>
+                  <v>0.360799</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494779</v>
+                  <v>0.353591</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.489162</v>
+                  <v>0.34577</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483936</v>
+                  <v>0.339963</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481121</v>
+                  <v>0.333846</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496074</v>
+                  <v>0.329286</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.488899</v>
+                  <v>0.325082</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.486092</v>
+                  <v>0.320758</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.483301</v>
+                  <v>0.319095</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.6619080000000001</v>
+                  <v>0.319423</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.651641</v>
+                  <v>0.319311</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.6414840000000001</v>
+                  <v>0.322843</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.634898</v>
+                  <v>0.393431</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.626458</v>
+                  <v>0.389378</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.619111</v>
+                  <v>0.384671</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.618937</v>
+                  <v>0.382238</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.616578</v>
+                  <v>0.3759</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.616543</v>
+                  <v>0.371191</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.618468</v>
+                  <v>0.36512</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.618605</v>
+                  <v>0.361874</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631288</v>
+                  <v>0.356697</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.634706</v>
+                  <v>0.352438</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.640709</v>
+                  <v>0.349891</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.853437</v>
+                  <v>0.35005</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.851041</v>
+                  <v>0.349669</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.846677</v>
+                  <v>0.352299</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.839566</v>
+                  <v>0.466457</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.837027</v>
+                  <v>0.465911</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.84036</v>
+                  <v>0.461742</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.840439</v>
+                  <v>0.458425</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.841024</v>
+                  <v>0.454048</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.84118</v>
+                  <v>0.450047</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.845235</v>
+                  <v>0.445345</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.849178</v>
+                  <v>0.441259</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.859448</v>
+                  <v>0.438357</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.866117</v>
+                  <v>0.435239</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.873801</v>
+                  <v>0.434282</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.882031</v>
+                  <v>0.433819</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.12628</v>
+                  <v>0.433981</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11366</v>
+                  <v>0.436931</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10831</v>
+                  <v>0.442964</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09924</v>
+                  <v>0.580354</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.10141</v>
+                  <v>0.574171</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09589</v>
+                  <v>0.569311</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09404</v>
+                  <v>0.563511</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09267</v>
+                  <v>0.558854</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09583</v>
+                  <v>0.555304</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09592</v>
+                  <v>0.551573</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.09785</v>
+                  <v>0.5418269999999999</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10406</v>
+                  <v>0.546025</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.1105</v>
+                  <v>0.544721</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.1192</v>
+                  <v>0.544034</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38021</v>
+                  <v>0.544782</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36711</v>
+                  <v>0.547028</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35208</v>
+                  <v>0.550917</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.33879</v>
+                  <v>0.714383</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33025</v>
+                  <v>0.709817</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32117</v>
+                  <v>0.703954</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.31379</v>
+                  <v>0.700326</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.30768</v>
+                  <v>0.698059</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.30326</v>
+                  <v>0.6951850000000001</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30056</v>
+                  <v>0.6917450000000001</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.30008</v>
+                  <v>0.689099</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.30108</v>
+                  <v>0.6884</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30141</v>
+                  <v>0.687611</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30559</v>
+                  <v>0.688626</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.58034</v>
+                  <v>0.689466</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.55781</v>
+                  <v>0.6928609999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53836</v>
+                  <v>0.696013</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.5207</v>
+                  <v>0.876258</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50344</v>
+                  <v>0.866931</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.49007</v>
+                  <v>0.874781</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.47742</v>
+                  <v>0.874434</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46587</v>
+                  <v>0.87453</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.45791</v>
+                  <v>0.874256</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.142888</v>
+                  <v>0.345535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.144159</v>
+                  <v>0.342328</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.139729</v>
+                  <v>0.339524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.130455</v>
+                  <v>0.338964</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.130001</v>
+                  <v>0.337026</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.114646</v>
+                  <v>0.441059</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.121203</v>
+                  <v>0.432636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.177485</v>
+                  <v>0.422785</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.178184</v>
+                  <v>0.425798</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167977</v>
+                  <v>0.41258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.158496</v>
+                  <v>0.406096</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.152255</v>
+                  <v>0.399408</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.15716</v>
+                  <v>0.393713</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.142005</v>
+                  <v>0.390631</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.136816</v>
+                  <v>0.384493</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.139587</v>
+                  <v>0.382714</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.131545</v>
+                  <v>0.376462</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.129135</v>
+                  <v>0.372734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.123154</v>
+                  <v>0.371468</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1263</v>
+                  <v>0.471596</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.129065</v>
+                  <v>0.461926</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.214336</v>
+                  <v>0.453195</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.21995</v>
+                  <v>0.442569</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.204141</v>
+                  <v>0.439045</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.187606</v>
+                  <v>0.428046</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.185954</v>
+                  <v>0.422639</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.178845</v>
+                  <v>0.415176</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.168237</v>
+                  <v>0.409081</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.165532</v>
+                  <v>0.404025</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.164239</v>
+                  <v>0.401541</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.154562</v>
+                  <v>0.396396</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153521</v>
+                  <v>0.392233</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14963</v>
+                  <v>0.387418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150836</v>
+                  <v>0.492552</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.14771</v>
+                  <v>0.481008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230768</v>
+                  <v>0.472016</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222972</v>
+                  <v>0.462267</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.213998</v>
+                  <v>0.453779</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.205509</v>
+                  <v>0.445558</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.19903</v>
+                  <v>0.438178</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191431</v>
+                  <v>0.431525</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.185004</v>
+                  <v>0.424981</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178242</v>
+                  <v>0.417433</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171721</v>
+                  <v>0.412907</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166785</v>
+                  <v>0.40713</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.163076</v>
+                  <v>0.404255</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159074</v>
+                  <v>0.399219</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.157048</v>
+                  <v>0.398134</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155008</v>
+                  <v>0.5057199999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.241177</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.232474</v>
+                  <v>0.482606</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222617</v>
+                  <v>0.473133</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.214052</v>
+                  <v>0.46451</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206278</v>
+                  <v>0.458181</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.198674</v>
+                  <v>0.449409</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191601</v>
+                  <v>0.444813</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184668</v>
+                  <v>0.437137</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.179357</v>
+                  <v>0.433472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.1736</v>
+                  <v>0.427729</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.168138</v>
+                  <v>0.423128</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.164634</v>
+                  <v>0.420407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.161852</v>
+                  <v>0.418269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.159915</v>
+                  <v>0.542173</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.160633</v>
+                  <v>0.531938</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.241778</v>
+                  <v>0.521979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234316</v>
+                  <v>0.513247</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.223856</v>
+                  <v>0.507066</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.214878</v>
+                  <v>0.501045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.206553</v>
+                  <v>0.491954</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.200975</v>
+                  <v>0.487567</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.194188</v>
+                  <v>0.484235</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.188362</v>
+                  <v>0.479325</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.182427</v>
+                  <v>0.49454</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17682</v>
+                  <v>0.492253</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.171969</v>
+                  <v>0.485952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.167466</v>
+                  <v>0.483849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.166872</v>
+                  <v>0.660579</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.166623</v>
+                  <v>0.651858</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.2389</v>
+                  <v>0.641418</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.231233</v>
+                  <v>0.633701</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222629</v>
+                  <v>0.628771</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.215057</v>
+                  <v>0.622203</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207065</v>
+                  <v>0.619414</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200438</v>
+                  <v>0.619362</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.193262</v>
+                  <v>0.616466</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.187335</v>
+                  <v>0.617853</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182132</v>
+                  <v>0.617096</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176589</v>
+                  <v>0.63459</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173081</v>
+                  <v>0.636581</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.169023</v>
+                  <v>0.641432</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.166908</v>
+                  <v>0.856594</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.166814</v>
+                  <v>0.849894</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.252534</v>
+                  <v>0.845252</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.244438</v>
+                  <v>0.841065</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.236967</v>
+                  <v>0.836136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229011</v>
+                  <v>0.842166</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.220682</v>
+                  <v>0.844179</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.213943</v>
+                  <v>0.841984</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.20784</v>
+                  <v>0.8411689999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20147</v>
+                  <v>0.8479989999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.195865</v>
+                  <v>0.85105</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.190898</v>
+                  <v>0.858108</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.186294</v>
+                  <v>0.865494</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.182449</v>
+                  <v>0.873856</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180164</v>
+                  <v>0.882892</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179211</v>
+                  <v>1.12623</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.268571</v>
+                  <v>1.11708</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.263123</v>
+                  <v>1.10725</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.255147</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.248045</v>
+                  <v>1.09922</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24044</v>
+                  <v>1.09309</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234071</v>
+                  <v>1.09198</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227632</v>
+                  <v>1.09188</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22211</v>
+                  <v>1.09281</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.216672</v>
+                  <v>1.09812</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.211883</v>
+                  <v>1.10047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.2085</v>
+                  <v>1.10279</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.204125</v>
+                  <v>1.10901</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.201067</v>
+                  <v>1.11641</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199423</v>
+                  <v>1.37934</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200191</v>
+                  <v>1.36609</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285389</v>
+                  <v>1.34952</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.279535</v>
+                  <v>1.33903</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.273237</v>
+                  <v>1.33181</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.267652</v>
+                  <v>1.3199</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.26304</v>
+                  <v>1.31294</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.258886</v>
+                  <v>1.31028</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.254448</v>
+                  <v>1.30308</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.250205</v>
+                  <v>1.30133</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24612</v>
+                  <v>1.30114</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.243283</v>
+                  <v>1.30065</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.240187</v>
+                  <v>1.30238</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.238426</v>
+                  <v>1.30428</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.236633</v>
+                  <v>1.57893</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.23708</v>
+                  <v>1.55759</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.334836</v>
+                  <v>1.53738</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.329067</v>
+                  <v>1.52081</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.323726</v>
+                  <v>1.50381</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.319833</v>
+                  <v>1.48922</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.314732</v>
+                  <v>1.47882</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.310756</v>
+                  <v>1.46512</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.307162</v>
+                  <v>1.45783</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.271192</v>
+                  <v>0.137761</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.269766</v>
+                  <v>0.136591</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.261942</v>
+                  <v>0.130647</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.266898</v>
+                  <v>0.124825</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.264205</v>
+                  <v>0.121236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.261823</v>
+                  <v>0.120823</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.260876</v>
+                  <v>0.115242</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.337755</v>
+                  <v>0.18197</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.32141</v>
+                  <v>0.191717</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.306307</v>
+                  <v>0.171582</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.303579</v>
+                  <v>0.163208</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.295531</v>
+                  <v>0.159341</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.290788</v>
+                  <v>0.15144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.286236</v>
+                  <v>0.148414</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.27627</v>
+                  <v>0.141748</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.269827</v>
+                  <v>0.138354</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.269586</v>
+                  <v>0.135532</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.261332</v>
+                  <v>0.137513</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.262818</v>
+                  <v>0.131088</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.25938</v>
+                  <v>0.129522</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.25735</v>
+                  <v>0.139204</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.333717</v>
+                  <v>0.22233</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.338816</v>
+                  <v>0.213797</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.31587</v>
+                  <v>0.207877</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.308427</v>
+                  <v>0.199287</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.298987</v>
+                  <v>0.19247</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.294611</v>
+                  <v>0.183147</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.288183</v>
+                  <v>0.175943</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.281609</v>
+                  <v>0.173927</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.27668</v>
+                  <v>0.165062</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.272235</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.267661</v>
+                  <v>0.159688</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.264742</v>
+                  <v>0.153782</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.262336</v>
+                  <v>0.150904</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.263208</v>
+                  <v>0.150984</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.347369</v>
+                  <v>0.230682</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.339619</v>
+                  <v>0.221791</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.332237</v>
+                  <v>0.212191</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.323095</v>
+                  <v>0.205325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.315365</v>
+                  <v>0.196669</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.308467</v>
+                  <v>0.189453</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.302061</v>
+                  <v>0.182552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.296349</v>
+                  <v>0.177439</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.290374</v>
+                  <v>0.171551</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.285623</v>
+                  <v>0.164983</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.281956</v>
+                  <v>0.161123</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.278551</v>
+                  <v>0.157815</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.276744</v>
+                  <v>0.155224</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.275847</v>
+                  <v>0.154986</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.35945</v>
+                  <v>0.239</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.352226</v>
+                  <v>0.230927</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.342043</v>
+                  <v>0.221685</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.334021</v>
+                  <v>0.212571</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.329362</v>
+                  <v>0.204879</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.3219</v>
+                  <v>0.196931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.31556</v>
+                  <v>0.190889</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.309051</v>
+                  <v>0.184201</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.303773</v>
+                  <v>0.177873</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.298791</v>
+                  <v>0.172243</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.29423</v>
+                  <v>0.167354</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.29061</v>
+                  <v>0.163961</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.28855</v>
+                  <v>0.160669</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.286849</v>
+                  <v>0.159794</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.288573</v>
+                  <v>0.159922</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.368444</v>
+                  <v>0.24182</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.360264</v>
+                  <v>0.231229</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.351966</v>
+                  <v>0.22419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.346137</v>
+                  <v>0.215874</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.338777</v>
+                  <v>0.206048</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.33184</v>
+                  <v>0.198942</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.324914</v>
+                  <v>0.191778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.319398</v>
+                  <v>0.185223</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.313882</v>
+                  <v>0.179302</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.308808</v>
+                  <v>0.174516</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.305441</v>
+                  <v>0.170705</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.301947</v>
+                  <v>0.167401</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.303099</v>
+                  <v>0.165988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.303311</v>
+                  <v>0.165089</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.384061</v>
+                  <v>0.238743</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.377682</v>
+                  <v>0.229209</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.372194</v>
+                  <v>0.221431</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.364102</v>
+                  <v>0.213546</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.360852</v>
+                  <v>0.206373</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.355225</v>
+                  <v>0.199238</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.34856</v>
+                  <v>0.192686</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.34299</v>
+                  <v>0.185131</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.338553</v>
+                  <v>0.180498</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.332812</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.329783</v>
+                  <v>0.170999</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.326459</v>
+                  <v>0.167733</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.325092</v>
+                  <v>0.164963</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.32522</v>
+                  <v>0.165351</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.452238</v>
+                  <v>0.250369</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.451668</v>
+                  <v>0.242842</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.447145</v>
+                  <v>0.235119</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.442183</v>
+                  <v>0.227356</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.437287</v>
+                  <v>0.220251</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.432007</v>
+                  <v>0.212871</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.428233</v>
+                  <v>0.206496</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.423292</v>
+                  <v>0.200455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.418646</v>
+                  <v>0.194783</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.41523</v>
+                  <v>0.189878</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.411758</v>
+                  <v>0.184885</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.409843</v>
+                  <v>0.181716</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.408188</v>
+                  <v>0.179034</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.407718</v>
+                  <v>0.177966</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.566439</v>
+                  <v>0.267166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.564304</v>
+                  <v>0.261253</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.557965</v>
+                  <v>0.25341</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.551828</v>
+                  <v>0.24629</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.544925</v>
+                  <v>0.239018</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.5423289999999999</v>
+                  <v>0.232958</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.536821</v>
+                  <v>0.226405</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.533166</v>
+                  <v>0.22103</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.529174</v>
+                  <v>0.215579</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.526789</v>
+                  <v>0.211122</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.52432</v>
+                  <v>0.206632</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.523133</v>
+                  <v>0.202954</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.520985</v>
+                  <v>0.200086</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.520991</v>
+                  <v>0.198735</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.522709</v>
+                  <v>0.199173</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.694646</v>
+                  <v>0.283443</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.688746</v>
+                  <v>0.277303</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.685202</v>
+                  <v>0.271758</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.680929</v>
+                  <v>0.266349</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.678063</v>
+                  <v>0.261528</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.660381</v>
+                  <v>0.256727</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.669822</v>
+                  <v>0.252371</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.66858</v>
+                  <v>0.248279</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.666127</v>
+                  <v>0.244665</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.664091</v>
+                  <v>0.241331</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.662888</v>
+                  <v>0.238531</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.662808</v>
+                  <v>0.236023</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.663058</v>
+                  <v>0.234907</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.664988</v>
+                  <v>0.234963</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.847299</v>
+                  <v>0.33469</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.846291</v>
+                  <v>0.327289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.845287</v>
+                  <v>0.322215</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.8449950000000001</v>
+                  <v>0.317731</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.844019</v>
+                  <v>0.313643</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.844831</v>
+                  <v>0.309114</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.844638</v>
+                  <v>0.305505</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.270475</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.272824</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.263759</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.259957</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.256232</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.258115</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.255855</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.325155</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.320399</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.30968</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.300998</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.293913</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.286153</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.281139</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.275524</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.274898</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.2676</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.265662</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.26002</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.260183</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.262609</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.330212</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.325548</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.315918</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.310409</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.301635</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.295574</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.290029</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.282872</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.278507</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272359</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.269059</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.266677</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.264372</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263709</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347984</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.340065</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.330786</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323484</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315716</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.309133</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.301912</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296867</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.291421</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.286315</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.282309</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.279336</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.27722</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.277116</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.358783</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.350324</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342116</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334006</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.328195</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.320973</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.314597</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.307473</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.302578</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298176</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.292764</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.289646</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.287274</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286847</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288163</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.366526</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.358653</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.349644</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.344332</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.337322</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.329298</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.323319</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.317402</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.312372</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.306709</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.302411</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301187</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.302301</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.301667</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.38254</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.376441</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.370388</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.363729</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360141</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.354189</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.348061</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.341194</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338365</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332626</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329316</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.325646</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.324753</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.325698</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.450633</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.449133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.444822</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.440212</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.434334</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.429843</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.424907</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.4203</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.415853</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.412994</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.409492</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.407402</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.406375</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.406548</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.560538</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.560684</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.553851</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.548923</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.543926</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.538116</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.533978</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.529934</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.5271940000000001</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.524362</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.522272</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.519097</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.518203</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.517801</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.519348</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.690275</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.685513</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.681941</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.677575</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.67488</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.673596</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.668506</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.665758</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.663705</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.661956</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.661919</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.661756</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.662496</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.66482</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.845621</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.845018</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.843253</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.84311</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.842824</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.843188</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.842601</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24602</v>
+        <v>0.245175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.424676</v>
+        <v>0.42453</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55367</v>
+        <v>0.55907</v>
       </c>
       <c r="E2" t="n">
-        <v>0.215045</v>
+        <v>0.21472</v>
       </c>
       <c r="F2" t="n">
-        <v>0.389014</v>
+        <v>0.388544</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.23434</v>
+        <v>0.240062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417689</v>
+        <v>0.417647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.552563</v>
+        <v>0.549834</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209536</v>
+        <v>0.209123</v>
       </c>
       <c r="F3" t="n">
-        <v>0.384366</v>
+        <v>0.381755</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234699</v>
+        <v>0.231349</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412458</v>
+        <v>0.410726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.546732</v>
+        <v>0.544836</v>
       </c>
       <c r="E4" t="n">
-        <v>0.20354</v>
+        <v>0.204008</v>
       </c>
       <c r="F4" t="n">
-        <v>0.379436</v>
+        <v>0.377161</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228144</v>
+        <v>0.229764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.408227</v>
+        <v>0.405032</v>
       </c>
       <c r="D5" t="n">
-        <v>0.539162</v>
+        <v>0.536872</v>
       </c>
       <c r="E5" t="n">
-        <v>0.199679</v>
+        <v>0.200033</v>
       </c>
       <c r="F5" t="n">
-        <v>0.375714</v>
+        <v>0.372957</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.221326</v>
+        <v>0.222476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.403058</v>
+        <v>0.400127</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5305</v>
+        <v>0.530807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.195848</v>
+        <v>0.196696</v>
       </c>
       <c r="F6" t="n">
-        <v>0.373832</v>
+        <v>0.369953</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.21691</v>
+        <v>0.220253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.400131</v>
+        <v>0.397454</v>
       </c>
       <c r="D7" t="n">
-        <v>0.682901</v>
+        <v>0.681202</v>
       </c>
       <c r="E7" t="n">
-        <v>0.193599</v>
+        <v>0.193581</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36932</v>
+        <v>0.368114</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21765</v>
+        <v>0.214687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398622</v>
+        <v>0.395533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.668968</v>
+        <v>0.666589</v>
       </c>
       <c r="E8" t="n">
-        <v>0.194586</v>
+        <v>0.19484</v>
       </c>
       <c r="F8" t="n">
-        <v>0.371491</v>
+        <v>0.368347</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216987</v>
+        <v>0.21814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.399087</v>
+        <v>0.3948</v>
       </c>
       <c r="D9" t="n">
-        <v>0.65549</v>
+        <v>0.653531</v>
       </c>
       <c r="E9" t="n">
-        <v>0.284772</v>
+        <v>0.28443</v>
       </c>
       <c r="F9" t="n">
-        <v>0.458125</v>
+        <v>0.454963</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.307805</v>
+        <v>0.30931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.486864</v>
+        <v>0.48491</v>
       </c>
       <c r="D10" t="n">
-        <v>0.644031</v>
+        <v>0.642195</v>
       </c>
       <c r="E10" t="n">
-        <v>0.274334</v>
+        <v>0.272612</v>
       </c>
       <c r="F10" t="n">
-        <v>0.447062</v>
+        <v>0.443722</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300059</v>
+        <v>0.298394</v>
       </c>
       <c r="C11" t="n">
-        <v>0.476426</v>
+        <v>0.474659</v>
       </c>
       <c r="D11" t="n">
-        <v>0.632675</v>
+        <v>0.630284</v>
       </c>
       <c r="E11" t="n">
-        <v>0.265654</v>
+        <v>0.265921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.434529</v>
+        <v>0.432818</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287144</v>
+        <v>0.291028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.466528</v>
+        <v>0.464663</v>
       </c>
       <c r="D12" t="n">
-        <v>0.623209</v>
+        <v>0.622123</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256193</v>
+        <v>0.256107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42594</v>
+        <v>0.423476</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278868</v>
+        <v>0.283141</v>
       </c>
       <c r="C13" t="n">
-        <v>0.455421</v>
+        <v>0.454924</v>
       </c>
       <c r="D13" t="n">
-        <v>0.614695</v>
+        <v>0.613529</v>
       </c>
       <c r="E13" t="n">
-        <v>0.250103</v>
+        <v>0.248982</v>
       </c>
       <c r="F13" t="n">
-        <v>0.416578</v>
+        <v>0.415583</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.271717</v>
+        <v>0.269375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.446666</v>
+        <v>0.444036</v>
       </c>
       <c r="D14" t="n">
-        <v>0.606174</v>
+        <v>0.605178</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2413</v>
+        <v>0.241268</v>
       </c>
       <c r="F14" t="n">
-        <v>0.408475</v>
+        <v>0.407403</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.266067</v>
+        <v>0.263339</v>
       </c>
       <c r="C15" t="n">
-        <v>0.437821</v>
+        <v>0.43682</v>
       </c>
       <c r="D15" t="n">
-        <v>0.598955</v>
+        <v>0.597785</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234145</v>
+        <v>0.235675</v>
       </c>
       <c r="F15" t="n">
-        <v>0.402314</v>
+        <v>0.399401</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25438</v>
+        <v>0.25876</v>
       </c>
       <c r="C16" t="n">
-        <v>0.429565</v>
+        <v>0.429131</v>
       </c>
       <c r="D16" t="n">
-        <v>0.592641</v>
+        <v>0.591355</v>
       </c>
       <c r="E16" t="n">
-        <v>0.228195</v>
+        <v>0.227902</v>
       </c>
       <c r="F16" t="n">
-        <v>0.39414</v>
+        <v>0.392574</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250217</v>
+        <v>0.250434</v>
       </c>
       <c r="C17" t="n">
-        <v>0.424501</v>
+        <v>0.422772</v>
       </c>
       <c r="D17" t="n">
-        <v>0.586531</v>
+        <v>0.585974</v>
       </c>
       <c r="E17" t="n">
-        <v>0.224207</v>
+        <v>0.222836</v>
       </c>
       <c r="F17" t="n">
-        <v>0.388903</v>
+        <v>0.386199</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242561</v>
+        <v>0.242021</v>
       </c>
       <c r="C18" t="n">
-        <v>0.419364</v>
+        <v>0.416586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.581933</v>
+        <v>0.5823159999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.217122</v>
+        <v>0.219685</v>
       </c>
       <c r="F18" t="n">
-        <v>0.385731</v>
+        <v>0.381124</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238984</v>
+        <v>0.238054</v>
       </c>
       <c r="C19" t="n">
-        <v>0.413798</v>
+        <v>0.410913</v>
       </c>
       <c r="D19" t="n">
-        <v>0.57846</v>
+        <v>0.578539</v>
       </c>
       <c r="E19" t="n">
-        <v>0.214773</v>
+        <v>0.214997</v>
       </c>
       <c r="F19" t="n">
-        <v>0.376975</v>
+        <v>0.375231</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.237963</v>
+        <v>0.233806</v>
       </c>
       <c r="C20" t="n">
-        <v>0.409804</v>
+        <v>0.40647</v>
       </c>
       <c r="D20" t="n">
-        <v>0.57426</v>
+        <v>0.574008</v>
       </c>
       <c r="E20" t="n">
-        <v>0.209768</v>
+        <v>0.210573</v>
       </c>
       <c r="F20" t="n">
-        <v>0.373745</v>
+        <v>0.372003</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232966</v>
+        <v>0.230477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.408019</v>
+        <v>0.404097</v>
       </c>
       <c r="D21" t="n">
-        <v>0.750988</v>
+        <v>0.749615</v>
       </c>
       <c r="E21" t="n">
-        <v>0.209427</v>
+        <v>0.208979</v>
       </c>
       <c r="F21" t="n">
-        <v>0.373179</v>
+        <v>0.370425</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227647</v>
+        <v>0.224801</v>
       </c>
       <c r="C22" t="n">
-        <v>0.402712</v>
+        <v>0.399385</v>
       </c>
       <c r="D22" t="n">
-        <v>0.734861</v>
+        <v>0.733443</v>
       </c>
       <c r="E22" t="n">
-        <v>0.20986</v>
+        <v>0.216798</v>
       </c>
       <c r="F22" t="n">
-        <v>0.372999</v>
+        <v>0.370281</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226966</v>
+        <v>0.224645</v>
       </c>
       <c r="C23" t="n">
-        <v>0.402498</v>
+        <v>0.398935</v>
       </c>
       <c r="D23" t="n">
-        <v>0.720424</v>
+        <v>0.719312</v>
       </c>
       <c r="E23" t="n">
-        <v>0.301433</v>
+        <v>0.305586</v>
       </c>
       <c r="F23" t="n">
-        <v>0.463003</v>
+        <v>0.461805</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314868</v>
+        <v>0.314696</v>
       </c>
       <c r="C24" t="n">
-        <v>0.504878</v>
+        <v>0.496359</v>
       </c>
       <c r="D24" t="n">
-        <v>0.707027</v>
+        <v>0.706382</v>
       </c>
       <c r="E24" t="n">
-        <v>0.291057</v>
+        <v>0.294352</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451985</v>
+        <v>0.451543</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302624</v>
+        <v>0.309149</v>
       </c>
       <c r="C25" t="n">
-        <v>0.49381</v>
+        <v>0.485901</v>
       </c>
       <c r="D25" t="n">
-        <v>0.695657</v>
+        <v>0.694817</v>
       </c>
       <c r="E25" t="n">
-        <v>0.281423</v>
+        <v>0.280582</v>
       </c>
       <c r="F25" t="n">
-        <v>0.443404</v>
+        <v>0.441012</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297235</v>
+        <v>0.296233</v>
       </c>
       <c r="C26" t="n">
-        <v>0.480111</v>
+        <v>0.475698</v>
       </c>
       <c r="D26" t="n">
-        <v>0.685192</v>
+        <v>0.683402</v>
       </c>
       <c r="E26" t="n">
-        <v>0.273636</v>
+        <v>0.27282</v>
       </c>
       <c r="F26" t="n">
-        <v>0.433437</v>
+        <v>0.431974</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.288064</v>
+        <v>0.287037</v>
       </c>
       <c r="C27" t="n">
-        <v>0.472033</v>
+        <v>0.466853</v>
       </c>
       <c r="D27" t="n">
-        <v>0.675431</v>
+        <v>0.673854</v>
       </c>
       <c r="E27" t="n">
-        <v>0.263416</v>
+        <v>0.2645</v>
       </c>
       <c r="F27" t="n">
-        <v>0.424549</v>
+        <v>0.423461</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278941</v>
+        <v>0.279613</v>
       </c>
       <c r="C28" t="n">
-        <v>0.459439</v>
+        <v>0.458248</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6662130000000001</v>
+        <v>0.666257</v>
       </c>
       <c r="E28" t="n">
-        <v>0.255946</v>
+        <v>0.25777</v>
       </c>
       <c r="F28" t="n">
-        <v>0.416219</v>
+        <v>0.414627</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270507</v>
+        <v>0.270763</v>
       </c>
       <c r="C29" t="n">
-        <v>0.451118</v>
+        <v>0.449218</v>
       </c>
       <c r="D29" t="n">
-        <v>0.65891</v>
+        <v>0.657301</v>
       </c>
       <c r="E29" t="n">
-        <v>0.249775</v>
+        <v>0.25037</v>
       </c>
       <c r="F29" t="n">
-        <v>0.409195</v>
+        <v>0.406859</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.265837</v>
+        <v>0.263187</v>
       </c>
       <c r="C30" t="n">
-        <v>0.445348</v>
+        <v>0.441736</v>
       </c>
       <c r="D30" t="n">
-        <v>0.651139</v>
+        <v>0.650147</v>
       </c>
       <c r="E30" t="n">
-        <v>0.241403</v>
+        <v>0.242691</v>
       </c>
       <c r="F30" t="n">
-        <v>0.403232</v>
+        <v>0.399882</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.259824</v>
+        <v>0.255931</v>
       </c>
       <c r="C31" t="n">
-        <v>0.438444</v>
+        <v>0.435566</v>
       </c>
       <c r="D31" t="n">
-        <v>0.64474</v>
+        <v>0.643004</v>
       </c>
       <c r="E31" t="n">
-        <v>0.237207</v>
+        <v>0.235621</v>
       </c>
       <c r="F31" t="n">
-        <v>0.39745</v>
+        <v>0.393341</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251959</v>
+        <v>0.249588</v>
       </c>
       <c r="C32" t="n">
-        <v>0.431898</v>
+        <v>0.427679</v>
       </c>
       <c r="D32" t="n">
-        <v>0.63952</v>
+        <v>0.637005</v>
       </c>
       <c r="E32" t="n">
-        <v>0.23038</v>
+        <v>0.230108</v>
       </c>
       <c r="F32" t="n">
-        <v>0.392269</v>
+        <v>0.387114</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.244347</v>
+        <v>0.243967</v>
       </c>
       <c r="C33" t="n">
-        <v>0.427174</v>
+        <v>0.422315</v>
       </c>
       <c r="D33" t="n">
-        <v>0.634557</v>
+        <v>0.631557</v>
       </c>
       <c r="E33" t="n">
-        <v>0.225357</v>
+        <v>0.22514</v>
       </c>
       <c r="F33" t="n">
-        <v>0.388101</v>
+        <v>0.382174</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237996</v>
+        <v>0.238532</v>
       </c>
       <c r="C34" t="n">
-        <v>0.42035</v>
+        <v>0.416953</v>
       </c>
       <c r="D34" t="n">
-        <v>0.629394</v>
+        <v>0.628375</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222469</v>
+        <v>0.222995</v>
       </c>
       <c r="F34" t="n">
-        <v>0.38525</v>
+        <v>0.378599</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.235557</v>
+        <v>0.234141</v>
       </c>
       <c r="C35" t="n">
-        <v>0.418451</v>
+        <v>0.412655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.815856</v>
+        <v>0.81397</v>
       </c>
       <c r="E35" t="n">
-        <v>0.219703</v>
+        <v>0.220346</v>
       </c>
       <c r="F35" t="n">
-        <v>0.38171</v>
+        <v>0.375684</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230736</v>
+        <v>0.231328</v>
       </c>
       <c r="C36" t="n">
-        <v>0.414524</v>
+        <v>0.408547</v>
       </c>
       <c r="D36" t="n">
-        <v>0.798494</v>
+        <v>0.796633</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219509</v>
+        <v>0.219155</v>
       </c>
       <c r="F36" t="n">
-        <v>0.382345</v>
+        <v>0.374818</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.232289</v>
+        <v>0.229671</v>
       </c>
       <c r="C37" t="n">
-        <v>0.413013</v>
+        <v>0.40756</v>
       </c>
       <c r="D37" t="n">
-        <v>0.782783</v>
+        <v>0.780243</v>
       </c>
       <c r="E37" t="n">
-        <v>0.31251</v>
+        <v>0.316221</v>
       </c>
       <c r="F37" t="n">
-        <v>0.476038</v>
+        <v>0.471531</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.321211</v>
+        <v>0.31899</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5173720000000001</v>
+        <v>0.511303</v>
       </c>
       <c r="D38" t="n">
-        <v>0.767949</v>
+        <v>0.76601</v>
       </c>
       <c r="E38" t="n">
-        <v>0.301273</v>
+        <v>0.300158</v>
       </c>
       <c r="F38" t="n">
-        <v>0.465353</v>
+        <v>0.461278</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308867</v>
+        <v>0.3092</v>
       </c>
       <c r="C39" t="n">
-        <v>0.507472</v>
+        <v>0.501877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.753541</v>
+        <v>0.752814</v>
       </c>
       <c r="E39" t="n">
-        <v>0.291815</v>
+        <v>0.295412</v>
       </c>
       <c r="F39" t="n">
-        <v>0.455045</v>
+        <v>0.451946</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299522</v>
+        <v>0.299897</v>
       </c>
       <c r="C40" t="n">
-        <v>0.495829</v>
+        <v>0.491333</v>
       </c>
       <c r="D40" t="n">
-        <v>0.740291</v>
+        <v>0.739356</v>
       </c>
       <c r="E40" t="n">
-        <v>0.284944</v>
+        <v>0.283945</v>
       </c>
       <c r="F40" t="n">
-        <v>0.444678</v>
+        <v>0.442881</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.289932</v>
+        <v>0.295652</v>
       </c>
       <c r="C41" t="n">
-        <v>0.487189</v>
+        <v>0.480903</v>
       </c>
       <c r="D41" t="n">
-        <v>0.729375</v>
+        <v>0.728044</v>
       </c>
       <c r="E41" t="n">
-        <v>0.277871</v>
+        <v>0.280025</v>
       </c>
       <c r="F41" t="n">
-        <v>0.437742</v>
+        <v>0.434489</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284844</v>
+        <v>0.28483</v>
       </c>
       <c r="C42" t="n">
-        <v>0.477135</v>
+        <v>0.472228</v>
       </c>
       <c r="D42" t="n">
-        <v>0.719103</v>
+        <v>0.716734</v>
       </c>
       <c r="E42" t="n">
-        <v>0.267306</v>
+        <v>0.268229</v>
       </c>
       <c r="F42" t="n">
-        <v>0.428137</v>
+        <v>0.42638</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.279552</v>
+        <v>0.276086</v>
       </c>
       <c r="C43" t="n">
-        <v>0.469332</v>
+        <v>0.463912</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7086980000000001</v>
+        <v>0.708199</v>
       </c>
       <c r="E43" t="n">
-        <v>0.258834</v>
+        <v>0.259972</v>
       </c>
       <c r="F43" t="n">
-        <v>0.419374</v>
+        <v>0.418571</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.26974</v>
+        <v>0.280132</v>
       </c>
       <c r="C44" t="n">
-        <v>0.461516</v>
+        <v>0.456518</v>
       </c>
       <c r="D44" t="n">
-        <v>0.700709</v>
+        <v>0.700272</v>
       </c>
       <c r="E44" t="n">
-        <v>0.252877</v>
+        <v>0.252895</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412479</v>
+        <v>0.411042</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.268464</v>
+        <v>0.270218</v>
       </c>
       <c r="C45" t="n">
-        <v>0.455772</v>
+        <v>0.448289</v>
       </c>
       <c r="D45" t="n">
-        <v>0.69331</v>
+        <v>0.692089</v>
       </c>
       <c r="E45" t="n">
-        <v>0.24609</v>
+        <v>0.245623</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405303</v>
+        <v>0.404405</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.260206</v>
+        <v>0.269265</v>
       </c>
       <c r="C46" t="n">
-        <v>0.449169</v>
+        <v>0.440952</v>
       </c>
       <c r="D46" t="n">
-        <v>0.68647</v>
+        <v>0.684778</v>
       </c>
       <c r="E46" t="n">
-        <v>0.241424</v>
+        <v>0.243453</v>
       </c>
       <c r="F46" t="n">
-        <v>0.399632</v>
+        <v>0.398141</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.253963</v>
+        <v>0.248788</v>
       </c>
       <c r="C47" t="n">
-        <v>0.44151</v>
+        <v>0.434743</v>
       </c>
       <c r="D47" t="n">
-        <v>0.680416</v>
+        <v>0.678459</v>
       </c>
       <c r="E47" t="n">
-        <v>0.235627</v>
+        <v>0.238625</v>
       </c>
       <c r="F47" t="n">
-        <v>0.394414</v>
+        <v>0.393284</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.247184</v>
+        <v>0.249795</v>
       </c>
       <c r="C48" t="n">
-        <v>0.436537</v>
+        <v>0.428969</v>
       </c>
       <c r="D48" t="n">
-        <v>0.675705</v>
+        <v>0.674721</v>
       </c>
       <c r="E48" t="n">
-        <v>0.232512</v>
+        <v>0.233178</v>
       </c>
       <c r="F48" t="n">
-        <v>0.390545</v>
+        <v>0.389924</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.244552</v>
+        <v>0.240393</v>
       </c>
       <c r="C49" t="n">
-        <v>0.42912</v>
+        <v>0.425339</v>
       </c>
       <c r="D49" t="n">
-        <v>0.67076</v>
+        <v>0.669511</v>
       </c>
       <c r="E49" t="n">
-        <v>0.228515</v>
+        <v>0.230659</v>
       </c>
       <c r="F49" t="n">
-        <v>0.387913</v>
+        <v>0.386511</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238075</v>
+        <v>0.234949</v>
       </c>
       <c r="C50" t="n">
-        <v>0.423464</v>
+        <v>0.422414</v>
       </c>
       <c r="D50" t="n">
-        <v>0.851114</v>
+        <v>0.84936</v>
       </c>
       <c r="E50" t="n">
-        <v>0.226479</v>
+        <v>0.225704</v>
       </c>
       <c r="F50" t="n">
-        <v>0.387041</v>
+        <v>0.387374</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234345</v>
+        <v>0.235082</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422382</v>
+        <v>0.420024</v>
       </c>
       <c r="D51" t="n">
-        <v>0.832331</v>
+        <v>0.831278</v>
       </c>
       <c r="E51" t="n">
-        <v>0.328154</v>
+        <v>0.327057</v>
       </c>
       <c r="F51" t="n">
-        <v>0.486701</v>
+        <v>0.485142</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.238271</v>
+        <v>0.23697</v>
       </c>
       <c r="C52" t="n">
-        <v>0.423401</v>
+        <v>0.420688</v>
       </c>
       <c r="D52" t="n">
-        <v>0.815681</v>
+        <v>0.814594</v>
       </c>
       <c r="E52" t="n">
-        <v>0.320115</v>
+        <v>0.317174</v>
       </c>
       <c r="F52" t="n">
-        <v>0.477132</v>
+        <v>0.476173</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.326353</v>
+        <v>0.326302</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5218739999999999</v>
+        <v>0.519268</v>
       </c>
       <c r="D53" t="n">
-        <v>0.800216</v>
+        <v>0.799222</v>
       </c>
       <c r="E53" t="n">
-        <v>0.308758</v>
+        <v>0.308036</v>
       </c>
       <c r="F53" t="n">
-        <v>0.468547</v>
+        <v>0.467647</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.31327</v>
+        <v>0.316315</v>
       </c>
       <c r="C54" t="n">
-        <v>0.511613</v>
+        <v>0.509099</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7855529999999999</v>
+        <v>0.784319</v>
       </c>
       <c r="E54" t="n">
-        <v>0.301241</v>
+        <v>0.299073</v>
       </c>
       <c r="F54" t="n">
-        <v>0.46031</v>
+        <v>0.457324</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300973</v>
+        <v>0.309591</v>
       </c>
       <c r="C55" t="n">
-        <v>0.500939</v>
+        <v>0.50143</v>
       </c>
       <c r="D55" t="n">
-        <v>0.772728</v>
+        <v>0.771723</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290394</v>
+        <v>0.290643</v>
       </c>
       <c r="F55" t="n">
-        <v>0.45053</v>
+        <v>0.450205</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.296313</v>
+        <v>0.299771</v>
       </c>
       <c r="C56" t="n">
-        <v>0.492834</v>
+        <v>0.491948</v>
       </c>
       <c r="D56" t="n">
-        <v>0.760895</v>
+        <v>0.759215</v>
       </c>
       <c r="E56" t="n">
-        <v>0.285174</v>
+        <v>0.283564</v>
       </c>
       <c r="F56" t="n">
-        <v>0.443224</v>
+        <v>0.44266</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285445</v>
+        <v>0.287091</v>
       </c>
       <c r="C57" t="n">
-        <v>0.486213</v>
+        <v>0.484582</v>
       </c>
       <c r="D57" t="n">
-        <v>0.750224</v>
+        <v>0.748979</v>
       </c>
       <c r="E57" t="n">
-        <v>0.274191</v>
+        <v>0.276809</v>
       </c>
       <c r="F57" t="n">
-        <v>0.435705</v>
+        <v>0.434364</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.280312</v>
+        <v>0.281493</v>
       </c>
       <c r="C58" t="n">
-        <v>0.477439</v>
+        <v>0.476291</v>
       </c>
       <c r="D58" t="n">
-        <v>0.740791</v>
+        <v>0.739154</v>
       </c>
       <c r="E58" t="n">
-        <v>0.26819</v>
+        <v>0.269804</v>
       </c>
       <c r="F58" t="n">
-        <v>0.42776</v>
+        <v>0.427231</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272196</v>
+        <v>0.27484</v>
       </c>
       <c r="C59" t="n">
-        <v>0.470026</v>
+        <v>0.471206</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7316049999999999</v>
+        <v>0.730232</v>
       </c>
       <c r="E59" t="n">
-        <v>0.261893</v>
+        <v>0.263078</v>
       </c>
       <c r="F59" t="n">
-        <v>0.421304</v>
+        <v>0.422597</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.27238</v>
+        <v>0.273311</v>
       </c>
       <c r="C60" t="n">
-        <v>0.463601</v>
+        <v>0.464551</v>
       </c>
       <c r="D60" t="n">
-        <v>0.723858</v>
+        <v>0.722153</v>
       </c>
       <c r="E60" t="n">
-        <v>0.257938</v>
+        <v>0.255986</v>
       </c>
       <c r="F60" t="n">
-        <v>0.415872</v>
+        <v>0.416659</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261026</v>
+        <v>0.263654</v>
       </c>
       <c r="C61" t="n">
-        <v>0.459031</v>
+        <v>0.458377</v>
       </c>
       <c r="D61" t="n">
-        <v>0.71726</v>
+        <v>0.715755</v>
       </c>
       <c r="E61" t="n">
-        <v>0.250468</v>
+        <v>0.253474</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412996</v>
+        <v>0.412332</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257754</v>
+        <v>0.260704</v>
       </c>
       <c r="C62" t="n">
-        <v>0.454462</v>
+        <v>0.45549</v>
       </c>
       <c r="D62" t="n">
-        <v>0.710981</v>
+        <v>0.710122</v>
       </c>
       <c r="E62" t="n">
-        <v>0.247925</v>
+        <v>0.247812</v>
       </c>
       <c r="F62" t="n">
-        <v>0.409194</v>
+        <v>0.408486</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249847</v>
+        <v>0.255798</v>
       </c>
       <c r="C63" t="n">
-        <v>0.452454</v>
+        <v>0.450455</v>
       </c>
       <c r="D63" t="n">
-        <v>0.705893</v>
+        <v>0.705587</v>
       </c>
       <c r="E63" t="n">
-        <v>0.243963</v>
+        <v>0.245842</v>
       </c>
       <c r="F63" t="n">
-        <v>0.406345</v>
+        <v>0.40585</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.249971</v>
+        <v>0.251921</v>
       </c>
       <c r="C64" t="n">
-        <v>0.447267</v>
+        <v>0.448122</v>
       </c>
       <c r="D64" t="n">
-        <v>0.909038</v>
+        <v>0.913281</v>
       </c>
       <c r="E64" t="n">
-        <v>0.24182</v>
+        <v>0.241297</v>
       </c>
       <c r="F64" t="n">
-        <v>0.404958</v>
+        <v>0.403859</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244623</v>
+        <v>0.246639</v>
       </c>
       <c r="C65" t="n">
-        <v>0.444012</v>
+        <v>0.444992</v>
       </c>
       <c r="D65" t="n">
-        <v>0.889839</v>
+        <v>0.893745</v>
       </c>
       <c r="E65" t="n">
-        <v>0.242309</v>
+        <v>0.242321</v>
       </c>
       <c r="F65" t="n">
-        <v>0.40645</v>
+        <v>0.404205</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244453</v>
+        <v>0.248804</v>
       </c>
       <c r="C66" t="n">
-        <v>0.444722</v>
+        <v>0.444676</v>
       </c>
       <c r="D66" t="n">
-        <v>0.872551</v>
+        <v>0.8779940000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.342341</v>
+        <v>0.337239</v>
       </c>
       <c r="F66" t="n">
-        <v>0.512116</v>
+        <v>0.51535</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.396556</v>
+        <v>0.388536</v>
       </c>
       <c r="C67" t="n">
-        <v>0.582628</v>
+        <v>0.587094</v>
       </c>
       <c r="D67" t="n">
-        <v>0.85642</v>
+        <v>0.861644</v>
       </c>
       <c r="E67" t="n">
-        <v>0.331009</v>
+        <v>0.330014</v>
       </c>
       <c r="F67" t="n">
-        <v>0.504518</v>
+        <v>0.507109</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.384514</v>
+        <v>0.376196</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5755130000000001</v>
+        <v>0.579186</v>
       </c>
       <c r="D68" t="n">
-        <v>0.84135</v>
+        <v>0.84617</v>
       </c>
       <c r="E68" t="n">
-        <v>0.325605</v>
+        <v>0.325247</v>
       </c>
       <c r="F68" t="n">
-        <v>0.496834</v>
+        <v>0.499885</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.368961</v>
+        <v>0.371631</v>
       </c>
       <c r="C69" t="n">
-        <v>0.572089</v>
+        <v>0.577968</v>
       </c>
       <c r="D69" t="n">
-        <v>0.828565</v>
+        <v>0.831949</v>
       </c>
       <c r="E69" t="n">
-        <v>0.316379</v>
+        <v>0.317861</v>
       </c>
       <c r="F69" t="n">
-        <v>0.48944</v>
+        <v>0.492846</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.364095</v>
+        <v>0.365337</v>
       </c>
       <c r="C70" t="n">
-        <v>0.563431</v>
+        <v>0.57081</v>
       </c>
       <c r="D70" t="n">
-        <v>0.817323</v>
+        <v>0.82209</v>
       </c>
       <c r="E70" t="n">
-        <v>0.311461</v>
+        <v>0.310044</v>
       </c>
       <c r="F70" t="n">
-        <v>0.481982</v>
+        <v>0.484817</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350935</v>
+        <v>0.348856</v>
       </c>
       <c r="C71" t="n">
-        <v>0.555346</v>
+        <v>0.56143</v>
       </c>
       <c r="D71" t="n">
-        <v>0.807547</v>
+        <v>0.812244</v>
       </c>
       <c r="E71" t="n">
-        <v>0.303382</v>
+        <v>0.302104</v>
       </c>
       <c r="F71" t="n">
-        <v>0.474103</v>
+        <v>0.477583</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.357469</v>
+        <v>0.361098</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5461</v>
+        <v>0.551045</v>
       </c>
       <c r="D72" t="n">
-        <v>0.799244</v>
+        <v>0.8048999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.296823</v>
+        <v>0.296854</v>
       </c>
       <c r="F72" t="n">
-        <v>0.468262</v>
+        <v>0.471495</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.357408</v>
+        <v>0.341347</v>
       </c>
       <c r="C73" t="n">
-        <v>0.541377</v>
+        <v>0.545121</v>
       </c>
       <c r="D73" t="n">
-        <v>0.790551</v>
+        <v>0.798489</v>
       </c>
       <c r="E73" t="n">
-        <v>0.29025</v>
+        <v>0.288614</v>
       </c>
       <c r="F73" t="n">
-        <v>0.462519</v>
+        <v>0.465477</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.33685</v>
+        <v>0.327776</v>
       </c>
       <c r="C74" t="n">
-        <v>0.535762</v>
+        <v>0.5415140000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.787699</v>
+        <v>0.793441</v>
       </c>
       <c r="E74" t="n">
-        <v>0.280351</v>
+        <v>0.283123</v>
       </c>
       <c r="F74" t="n">
-        <v>0.457163</v>
+        <v>0.4596</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.327093</v>
+        <v>0.331637</v>
       </c>
       <c r="C75" t="n">
-        <v>0.531365</v>
+        <v>0.537648</v>
       </c>
       <c r="D75" t="n">
-        <v>0.786877</v>
+        <v>0.790879</v>
       </c>
       <c r="E75" t="n">
-        <v>0.275687</v>
+        <v>0.274156</v>
       </c>
       <c r="F75" t="n">
-        <v>0.45201</v>
+        <v>0.454246</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.323793</v>
+        <v>0.326108</v>
       </c>
       <c r="C76" t="n">
-        <v>0.527586</v>
+        <v>0.53134</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7851359999999999</v>
+        <v>0.7888810000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.27038</v>
+        <v>0.270051</v>
       </c>
       <c r="F76" t="n">
-        <v>0.448192</v>
+        <v>0.451016</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.321492</v>
+        <v>0.325287</v>
       </c>
       <c r="C77" t="n">
-        <v>0.523614</v>
+        <v>0.526146</v>
       </c>
       <c r="D77" t="n">
-        <v>0.785299</v>
+        <v>0.787906</v>
       </c>
       <c r="E77" t="n">
-        <v>0.265776</v>
+        <v>0.268192</v>
       </c>
       <c r="F77" t="n">
-        <v>0.445906</v>
+        <v>0.448656</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.311138</v>
+        <v>0.305543</v>
       </c>
       <c r="C78" t="n">
-        <v>0.521295</v>
+        <v>0.5248660000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>1.24795</v>
+        <v>1.2496</v>
       </c>
       <c r="E78" t="n">
-        <v>0.265454</v>
+        <v>0.263377</v>
       </c>
       <c r="F78" t="n">
-        <v>0.44445</v>
+        <v>0.447342</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304413</v>
+        <v>0.313051</v>
       </c>
       <c r="C79" t="n">
-        <v>0.520566</v>
+        <v>0.5234760000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>1.22586</v>
+        <v>1.2295</v>
       </c>
       <c r="E79" t="n">
-        <v>0.263151</v>
+        <v>0.263809</v>
       </c>
       <c r="F79" t="n">
-        <v>0.445441</v>
+        <v>0.448691</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.30654</v>
+        <v>0.302931</v>
       </c>
       <c r="C80" t="n">
-        <v>0.521805</v>
+        <v>0.526366</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20671</v>
+        <v>1.20988</v>
       </c>
       <c r="E80" t="n">
-        <v>0.386141</v>
+        <v>0.383662</v>
       </c>
       <c r="F80" t="n">
-        <v>0.73168</v>
+        <v>0.734343</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.452999</v>
+        <v>0.429842</v>
       </c>
       <c r="C81" t="n">
-        <v>0.832191</v>
+        <v>0.838235</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19111</v>
+        <v>1.19471</v>
       </c>
       <c r="E81" t="n">
-        <v>0.381915</v>
+        <v>0.38156</v>
       </c>
       <c r="F81" t="n">
-        <v>0.734768</v>
+        <v>0.738199</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.425008</v>
+        <v>0.422639</v>
       </c>
       <c r="C82" t="n">
-        <v>0.836293</v>
+        <v>0.840588</v>
       </c>
       <c r="D82" t="n">
-        <v>1.17826</v>
+        <v>1.18146</v>
       </c>
       <c r="E82" t="n">
-        <v>0.368335</v>
+        <v>0.37169</v>
       </c>
       <c r="F82" t="n">
-        <v>0.73117</v>
+        <v>0.734389</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.447326</v>
+        <v>0.428928</v>
       </c>
       <c r="C83" t="n">
-        <v>0.848886</v>
+        <v>0.8512729999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17073</v>
+        <v>1.16981</v>
       </c>
       <c r="E83" t="n">
-        <v>0.36518</v>
+        <v>0.359232</v>
       </c>
       <c r="F83" t="n">
-        <v>0.723948</v>
+        <v>0.726146</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.429765</v>
+        <v>0.424439</v>
       </c>
       <c r="C84" t="n">
-        <v>0.83958</v>
+        <v>0.837717</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16204</v>
+        <v>1.16173</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3569</v>
+        <v>0.355294</v>
       </c>
       <c r="F84" t="n">
-        <v>0.714145</v>
+        <v>0.716143</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.427208</v>
+        <v>0.382893</v>
       </c>
       <c r="C85" t="n">
-        <v>0.831981</v>
+        <v>0.828345</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15602</v>
+        <v>1.15813</v>
       </c>
       <c r="E85" t="n">
-        <v>0.347165</v>
+        <v>0.349439</v>
       </c>
       <c r="F85" t="n">
-        <v>0.701322</v>
+        <v>0.704095</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.401024</v>
+        <v>0.393582</v>
       </c>
       <c r="C86" t="n">
-        <v>0.817491</v>
+        <v>0.816613</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15101</v>
+        <v>1.15519</v>
       </c>
       <c r="E86" t="n">
-        <v>0.34484</v>
+        <v>0.344694</v>
       </c>
       <c r="F86" t="n">
-        <v>0.688347</v>
+        <v>0.690448</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.375394</v>
+        <v>0.403557</v>
       </c>
       <c r="C87" t="n">
-        <v>0.806226</v>
+        <v>0.804306</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15219</v>
+        <v>1.15495</v>
       </c>
       <c r="E87" t="n">
-        <v>0.331961</v>
+        <v>0.332008</v>
       </c>
       <c r="F87" t="n">
-        <v>0.674695</v>
+        <v>0.678379</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.391564</v>
+        <v>0.383023</v>
       </c>
       <c r="C88" t="n">
-        <v>0.794232</v>
+        <v>0.7930430000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>1.15625</v>
+        <v>1.16277</v>
       </c>
       <c r="E88" t="n">
-        <v>0.33354</v>
+        <v>0.329743</v>
       </c>
       <c r="F88" t="n">
-        <v>0.663013</v>
+        <v>0.6644409999999999</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.378054</v>
+        <v>0.40711</v>
       </c>
       <c r="C89" t="n">
-        <v>0.778316</v>
+        <v>0.782895</v>
       </c>
       <c r="D89" t="n">
-        <v>1.16685</v>
+        <v>1.17194</v>
       </c>
       <c r="E89" t="n">
-        <v>0.319908</v>
+        <v>0.320744</v>
       </c>
       <c r="F89" t="n">
-        <v>0.650218</v>
+        <v>0.654448</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.357</v>
+        <v>0.390023</v>
       </c>
       <c r="C90" t="n">
-        <v>0.766965</v>
+        <v>0.771818</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17322</v>
+        <v>1.17976</v>
       </c>
       <c r="E90" t="n">
-        <v>0.318322</v>
+        <v>0.321623</v>
       </c>
       <c r="F90" t="n">
-        <v>0.641279</v>
+        <v>0.641824</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.387638</v>
+        <v>0.370469</v>
       </c>
       <c r="C91" t="n">
-        <v>0.764182</v>
+        <v>0.763734</v>
       </c>
       <c r="D91" t="n">
-        <v>1.18903</v>
+        <v>1.19187</v>
       </c>
       <c r="E91" t="n">
-        <v>0.312231</v>
+        <v>0.308445</v>
       </c>
       <c r="F91" t="n">
-        <v>0.631351</v>
+        <v>0.634118</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.371682</v>
+        <v>0.360822</v>
       </c>
       <c r="C92" t="n">
-        <v>0.757965</v>
+        <v>0.755413</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75637</v>
+        <v>1.7585</v>
       </c>
       <c r="E92" t="n">
-        <v>0.310119</v>
+        <v>0.310736</v>
       </c>
       <c r="F92" t="n">
-        <v>0.624816</v>
+        <v>0.626201</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358214</v>
+        <v>0.358194</v>
       </c>
       <c r="C93" t="n">
-        <v>0.747134</v>
+        <v>0.747044</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74638</v>
+        <v>1.74864</v>
       </c>
       <c r="E93" t="n">
-        <v>0.309821</v>
+        <v>0.307404</v>
       </c>
       <c r="F93" t="n">
-        <v>0.618017</v>
+        <v>0.620537</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.368044</v>
+        <v>0.387012</v>
       </c>
       <c r="C94" t="n">
-        <v>0.743974</v>
+        <v>0.742736</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73466</v>
+        <v>1.73723</v>
       </c>
       <c r="E94" t="n">
-        <v>0.494767</v>
+        <v>0.506189</v>
       </c>
       <c r="F94" t="n">
-        <v>1.11842</v>
+        <v>1.12175</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.548805</v>
+        <v>0.559604</v>
       </c>
       <c r="C95" t="n">
-        <v>1.13657</v>
+        <v>1.1505</v>
       </c>
       <c r="D95" t="n">
-        <v>1.7266</v>
+        <v>1.7262</v>
       </c>
       <c r="E95" t="n">
-        <v>0.492029</v>
+        <v>0.499162</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11433</v>
+        <v>1.11716</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.544565</v>
+        <v>0.549825</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15792</v>
+        <v>1.15763</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71683</v>
+        <v>1.71658</v>
       </c>
       <c r="E96" t="n">
-        <v>0.481704</v>
+        <v>0.492053</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10169</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.536653</v>
+        <v>0.547495</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14752</v>
+        <v>1.1457</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70903</v>
+        <v>1.70665</v>
       </c>
       <c r="E97" t="n">
-        <v>0.468825</v>
+        <v>0.474962</v>
       </c>
       <c r="F97" t="n">
-        <v>1.07723</v>
+        <v>1.08568</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.527393</v>
+        <v>0.547693</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13788</v>
+        <v>1.14567</v>
       </c>
       <c r="D98" t="n">
-        <v>1.70365</v>
+        <v>1.70049</v>
       </c>
       <c r="E98" t="n">
-        <v>0.460649</v>
+        <v>0.465902</v>
       </c>
       <c r="F98" t="n">
-        <v>1.06866</v>
+        <v>1.07022</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.516659</v>
+        <v>0.528297</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11983</v>
+        <v>1.12117</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69999</v>
+        <v>1.69613</v>
       </c>
       <c r="E99" t="n">
-        <v>0.449175</v>
+        <v>0.456363</v>
       </c>
       <c r="F99" t="n">
-        <v>1.04293</v>
+        <v>1.05244</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.512665</v>
+        <v>0.505564</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10901</v>
+        <v>1.10204</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69942</v>
+        <v>1.69886</v>
       </c>
       <c r="E100" t="n">
-        <v>0.440923</v>
+        <v>0.444037</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03302</v>
+        <v>1.03522</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.503443</v>
+        <v>0.504152</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09863</v>
+        <v>1.09096</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70858</v>
+        <v>1.70613</v>
       </c>
       <c r="E101" t="n">
-        <v>0.43105</v>
+        <v>0.439517</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0178</v>
+        <v>1.01856</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.497842</v>
+        <v>0.5005500000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08706</v>
+        <v>1.08873</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71432</v>
+        <v>1.71315</v>
       </c>
       <c r="E102" t="n">
-        <v>0.421511</v>
+        <v>0.428035</v>
       </c>
       <c r="F102" t="n">
-        <v>1.00077</v>
+        <v>0.99852</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.47667</v>
+        <v>0.487238</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07289</v>
+        <v>1.06794</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72507</v>
+        <v>1.71951</v>
       </c>
       <c r="E103" t="n">
-        <v>0.415375</v>
+        <v>0.419323</v>
       </c>
       <c r="F103" t="n">
-        <v>0.987226</v>
+        <v>0.989603</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.491038</v>
+        <v>0.483048</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05085</v>
+        <v>1.0512</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73401</v>
+        <v>1.73245</v>
       </c>
       <c r="E104" t="n">
-        <v>0.407985</v>
+        <v>0.410547</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9732690000000001</v>
+        <v>0.97654</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.48218</v>
+        <v>0.469866</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04103</v>
+        <v>1.04799</v>
       </c>
       <c r="D105" t="n">
-        <v>1.75039</v>
+        <v>1.74251</v>
       </c>
       <c r="E105" t="n">
-        <v>0.402376</v>
+        <v>0.405432</v>
       </c>
       <c r="F105" t="n">
-        <v>0.94115</v>
+        <v>0.962652</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.460453</v>
+        <v>0.469178</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03349</v>
+        <v>1.02364</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76742</v>
+        <v>1.76137</v>
       </c>
       <c r="E106" t="n">
-        <v>0.397215</v>
+        <v>0.399306</v>
       </c>
       <c r="F106" t="n">
-        <v>0.949101</v>
+        <v>0.951533</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.470985</v>
+        <v>0.459229</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03772</v>
+        <v>1.03447</v>
       </c>
       <c r="D107" t="n">
-        <v>2.37097</v>
+        <v>2.36258</v>
       </c>
       <c r="E107" t="n">
-        <v>0.392362</v>
+        <v>0.395455</v>
       </c>
       <c r="F107" t="n">
-        <v>0.923696</v>
+        <v>0.941099</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.453382</v>
+        <v>0.459552</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02992</v>
+        <v>1.0277</v>
       </c>
       <c r="D108" t="n">
-        <v>2.34555</v>
+        <v>2.33523</v>
       </c>
       <c r="E108" t="n">
-        <v>0.586773</v>
+        <v>0.5479270000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>2.38881</v>
+        <v>2.39355</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.468559</v>
+        <v>0.472082</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02425</v>
+        <v>1.01994</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3203</v>
+        <v>2.31159</v>
       </c>
       <c r="E109" t="n">
-        <v>0.539069</v>
+        <v>0.546221</v>
       </c>
       <c r="F109" t="n">
-        <v>2.40612</v>
+        <v>2.39319</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.657599</v>
+        <v>0.611839</v>
       </c>
       <c r="C110" t="n">
-        <v>2.59241</v>
+        <v>2.58444</v>
       </c>
       <c r="D110" t="n">
-        <v>2.30233</v>
+        <v>2.29</v>
       </c>
       <c r="E110" t="n">
-        <v>0.533434</v>
+        <v>0.584331</v>
       </c>
       <c r="F110" t="n">
-        <v>2.39665</v>
+        <v>2.39851</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6523369999999999</v>
+        <v>0.653898</v>
       </c>
       <c r="C111" t="n">
-        <v>2.59466</v>
+        <v>2.5836</v>
       </c>
       <c r="D111" t="n">
-        <v>2.28843</v>
+        <v>2.27307</v>
       </c>
       <c r="E111" t="n">
-        <v>0.516757</v>
+        <v>0.569806</v>
       </c>
       <c r="F111" t="n">
-        <v>2.40028</v>
+        <v>2.40871</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6346349999999999</v>
+        <v>0.657148</v>
       </c>
       <c r="C112" t="n">
-        <v>2.58936</v>
+        <v>2.5897</v>
       </c>
       <c r="D112" t="n">
-        <v>2.27272</v>
+        <v>2.2574</v>
       </c>
       <c r="E112" t="n">
-        <v>0.507876</v>
+        <v>0.558465</v>
       </c>
       <c r="F112" t="n">
-        <v>2.41537</v>
+        <v>2.40337</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.610024</v>
+        <v>0.638897</v>
       </c>
       <c r="C113" t="n">
-        <v>2.595</v>
+        <v>2.58588</v>
       </c>
       <c r="D113" t="n">
-        <v>2.27156</v>
+        <v>2.26013</v>
       </c>
       <c r="E113" t="n">
-        <v>0.497737</v>
+        <v>0.506613</v>
       </c>
       <c r="F113" t="n">
-        <v>2.42296</v>
+        <v>2.40038</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.616514</v>
+        <v>0.633027</v>
       </c>
       <c r="C114" t="n">
-        <v>2.58531</v>
+        <v>2.58092</v>
       </c>
       <c r="D114" t="n">
-        <v>2.26506</v>
+        <v>2.27314</v>
       </c>
       <c r="E114" t="n">
-        <v>0.521894</v>
+        <v>0.537556</v>
       </c>
       <c r="F114" t="n">
-        <v>2.40761</v>
+        <v>2.39909</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.560683</v>
+        <v>0.61689</v>
       </c>
       <c r="C115" t="n">
-        <v>2.59084</v>
+        <v>2.57117</v>
       </c>
       <c r="D115" t="n">
-        <v>2.2697</v>
+        <v>2.25232</v>
       </c>
       <c r="E115" t="n">
-        <v>0.518859</v>
+        <v>0.48931</v>
       </c>
       <c r="F115" t="n">
-        <v>2.4124</v>
+        <v>2.39437</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.590781</v>
+        <v>0.601812</v>
       </c>
       <c r="C116" t="n">
-        <v>2.5766</v>
+        <v>2.56476</v>
       </c>
       <c r="D116" t="n">
-        <v>2.28454</v>
+        <v>2.26474</v>
       </c>
       <c r="E116" t="n">
-        <v>0.507755</v>
+        <v>0.516482</v>
       </c>
       <c r="F116" t="n">
-        <v>2.42012</v>
+        <v>2.41038</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.568253</v>
+        <v>0.595133</v>
       </c>
       <c r="C117" t="n">
-        <v>2.61501</v>
+        <v>2.6024</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2832</v>
+        <v>2.27697</v>
       </c>
       <c r="E117" t="n">
-        <v>0.468121</v>
+        <v>0.47468</v>
       </c>
       <c r="F117" t="n">
-        <v>2.41427</v>
+        <v>2.41343</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.58519</v>
+        <v>0.584024</v>
       </c>
       <c r="C118" t="n">
-        <v>2.59094</v>
+        <v>2.58014</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23994</v>
+        <v>2.23498</v>
       </c>
       <c r="E118" t="n">
-        <v>0.460344</v>
+        <v>0.465313</v>
       </c>
       <c r="F118" t="n">
-        <v>2.42895</v>
+        <v>2.21742</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.52833</v>
+        <v>0.564178</v>
       </c>
       <c r="C119" t="n">
-        <v>1.36794</v>
+        <v>2.35829</v>
       </c>
       <c r="D119" t="n">
-        <v>2.24437</v>
+        <v>2.23746</v>
       </c>
       <c r="E119" t="n">
-        <v>0.456248</v>
+        <v>0.458922</v>
       </c>
       <c r="F119" t="n">
-        <v>1.80666</v>
+        <v>1.5921</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.545498</v>
+        <v>0.545559</v>
       </c>
       <c r="C120" t="n">
-        <v>2.59721</v>
+        <v>2.17548</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25782</v>
+        <v>2.24566</v>
       </c>
       <c r="E120" t="n">
-        <v>0.444461</v>
+        <v>0.456274</v>
       </c>
       <c r="F120" t="n">
-        <v>2.01789</v>
+        <v>2.4214</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.517719</v>
+        <v>0.550005</v>
       </c>
       <c r="C121" t="n">
-        <v>2.59212</v>
+        <v>2.57233</v>
       </c>
       <c r="D121" t="n">
-        <v>2.93012</v>
+        <v>2.932</v>
       </c>
       <c r="E121" t="n">
-        <v>0.445795</v>
+        <v>0.450608</v>
       </c>
       <c r="F121" t="n">
-        <v>1.36873</v>
+        <v>2.21894</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.554467</v>
+        <v>0.5288659999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>2.61728</v>
+        <v>2.58287</v>
       </c>
       <c r="D122" t="n">
-        <v>2.88907</v>
+        <v>2.86859</v>
       </c>
       <c r="E122" t="n">
-        <v>0.442119</v>
+        <v>0.448136</v>
       </c>
       <c r="F122" t="n">
-        <v>2.22345</v>
+        <v>2.43351</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.53969</v>
+        <v>0.545967</v>
       </c>
       <c r="C123" t="n">
-        <v>2.60877</v>
+        <v>2.59722</v>
       </c>
       <c r="D123" t="n">
-        <v>2.84806</v>
+        <v>2.83817</v>
       </c>
       <c r="E123" t="n">
-        <v>0.636804</v>
+        <v>0.649988</v>
       </c>
       <c r="F123" t="n">
-        <v>2.93204</v>
+        <v>2.9338</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.731944</v>
+        <v>0.719647</v>
       </c>
       <c r="C124" t="n">
-        <v>3.18691</v>
+        <v>3.18998</v>
       </c>
       <c r="D124" t="n">
-        <v>2.81437</v>
+        <v>2.80539</v>
       </c>
       <c r="E124" t="n">
-        <v>0.62848</v>
+        <v>0.6415</v>
       </c>
       <c r="F124" t="n">
-        <v>2.92688</v>
+        <v>2.92447</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.713506</v>
+        <v>0.7314310000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>3.16033</v>
+        <v>3.15351</v>
       </c>
       <c r="D125" t="n">
-        <v>2.78496</v>
+        <v>2.77095</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6417310000000001</v>
+        <v>0.633023</v>
       </c>
       <c r="F125" t="n">
-        <v>2.91091</v>
+        <v>2.91406</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.700484</v>
+        <v>0.721208</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15663</v>
+        <v>3.15694</v>
       </c>
       <c r="D126" t="n">
-        <v>2.7527</v>
+        <v>2.74479</v>
       </c>
       <c r="E126" t="n">
-        <v>0.61513</v>
+        <v>0.64856</v>
       </c>
       <c r="F126" t="n">
-        <v>2.90651</v>
+        <v>2.89437</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.692406</v>
+        <v>0.70464</v>
       </c>
       <c r="C127" t="n">
-        <v>3.14383</v>
+        <v>3.13599</v>
       </c>
       <c r="D127" t="n">
-        <v>2.7247</v>
+        <v>2.72153</v>
       </c>
       <c r="E127" t="n">
-        <v>0.610325</v>
+        <v>0.620309</v>
       </c>
       <c r="F127" t="n">
-        <v>2.90171</v>
+        <v>2.89935</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.681937</v>
+        <v>0.69008</v>
       </c>
       <c r="C128" t="n">
-        <v>3.12965</v>
+        <v>3.13233</v>
       </c>
       <c r="D128" t="n">
-        <v>2.70737</v>
+        <v>2.6968</v>
       </c>
       <c r="E128" t="n">
-        <v>0.598781</v>
+        <v>0.615121</v>
       </c>
       <c r="F128" t="n">
-        <v>2.90423</v>
+        <v>2.89469</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.683652</v>
+        <v>0.666947</v>
       </c>
       <c r="C129" t="n">
-        <v>3.12221</v>
+        <v>3.1156</v>
       </c>
       <c r="D129" t="n">
-        <v>2.68602</v>
+        <v>2.68703</v>
       </c>
       <c r="E129" t="n">
-        <v>0.599448</v>
+        <v>0.607424</v>
       </c>
       <c r="F129" t="n">
-        <v>2.87477</v>
+        <v>2.8829</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.673786</v>
+        <v>0.675299</v>
       </c>
       <c r="C130" t="n">
-        <v>3.09516</v>
+        <v>3.09692</v>
       </c>
       <c r="D130" t="n">
-        <v>2.68344</v>
+        <v>2.66322</v>
       </c>
       <c r="E130" t="n">
-        <v>0.596996</v>
+        <v>0.602754</v>
       </c>
       <c r="F130" t="n">
-        <v>2.879</v>
+        <v>2.87715</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.659663</v>
+        <v>0.665104</v>
       </c>
       <c r="C131" t="n">
-        <v>3.10127</v>
+        <v>3.09516</v>
       </c>
       <c r="D131" t="n">
-        <v>2.66642</v>
+        <v>2.65321</v>
       </c>
       <c r="E131" t="n">
-        <v>0.591768</v>
+        <v>0.599266</v>
       </c>
       <c r="F131" t="n">
-        <v>2.88731</v>
+        <v>2.87443</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.650034</v>
+        <v>0.649236</v>
       </c>
       <c r="C132" t="n">
-        <v>3.1013</v>
+        <v>3.08061</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6589</v>
+        <v>2.64626</v>
       </c>
       <c r="E132" t="n">
-        <v>0.588267</v>
+        <v>0.594787</v>
       </c>
       <c r="F132" t="n">
-        <v>2.88807</v>
+        <v>2.87737</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.649532</v>
+        <v>0.645503</v>
       </c>
       <c r="C133" t="n">
-        <v>3.08403</v>
+        <v>3.07539</v>
       </c>
       <c r="D133" t="n">
-        <v>2.65195</v>
+        <v>2.61847</v>
       </c>
       <c r="E133" t="n">
-        <v>0.583368</v>
+        <v>0.588166</v>
       </c>
       <c r="F133" t="n">
-        <v>2.87758</v>
+        <v>2.87385</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.640178</v>
+        <v>0.629911</v>
       </c>
       <c r="C134" t="n">
-        <v>3.0829</v>
+        <v>3.06808</v>
       </c>
       <c r="D134" t="n">
-        <v>2.63251</v>
+        <v>2.62421</v>
       </c>
       <c r="E134" t="n">
-        <v>0.554136</v>
+        <v>0.583587</v>
       </c>
       <c r="F134" t="n">
-        <v>2.86433</v>
+        <v>2.87751</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.638444</v>
+        <v>0.627938</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06243</v>
+        <v>3.06328</v>
       </c>
       <c r="D135" t="n">
-        <v>3.33652</v>
+        <v>3.31994</v>
       </c>
       <c r="E135" t="n">
-        <v>0.553556</v>
+        <v>0.55347</v>
       </c>
       <c r="F135" t="n">
-        <v>2.87815</v>
+        <v>2.64381</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.625541</v>
+        <v>0.6428160000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>3.07653</v>
+        <v>3.05786</v>
       </c>
       <c r="D136" t="n">
-        <v>3.28257</v>
+        <v>3.2578</v>
       </c>
       <c r="E136" t="n">
-        <v>0.546327</v>
+        <v>0.550251</v>
       </c>
       <c r="F136" t="n">
-        <v>2.40505</v>
+        <v>2.64103</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.629476</v>
+        <v>0.6283</v>
       </c>
       <c r="C137" t="n">
-        <v>3.07241</v>
+        <v>3.06474</v>
       </c>
       <c r="D137" t="n">
-        <v>3.22552</v>
+        <v>3.21197</v>
       </c>
       <c r="E137" t="n">
-        <v>0.740509</v>
+        <v>0.746896</v>
       </c>
       <c r="F137" t="n">
-        <v>3.37377</v>
+        <v>3.36489</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.812434</v>
+        <v>0.798544</v>
       </c>
       <c r="C138" t="n">
-        <v>3.60545</v>
+        <v>3.59543</v>
       </c>
       <c r="D138" t="n">
-        <v>3.18364</v>
+        <v>3.17021</v>
       </c>
       <c r="E138" t="n">
-        <v>0.737751</v>
+        <v>0.741822</v>
       </c>
       <c r="F138" t="n">
-        <v>3.35453</v>
+        <v>3.34291</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.794649</v>
+        <v>0.798191</v>
       </c>
       <c r="C139" t="n">
-        <v>3.58424</v>
+        <v>3.58508</v>
       </c>
       <c r="D139" t="n">
-        <v>3.13181</v>
+        <v>3.11817</v>
       </c>
       <c r="E139" t="n">
-        <v>0.73149</v>
+        <v>0.7406470000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>3.34103</v>
+        <v>3.32975</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.769446</v>
+        <v>0.805258</v>
       </c>
       <c r="C140" t="n">
-        <v>3.5594</v>
+        <v>3.54325</v>
       </c>
       <c r="D140" t="n">
-        <v>3.09438</v>
+        <v>3.08755</v>
       </c>
       <c r="E140" t="n">
-        <v>0.727758</v>
+        <v>0.735548</v>
       </c>
       <c r="F140" t="n">
-        <v>3.31132</v>
+        <v>3.31403</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.769302</v>
+        <v>0.793497</v>
       </c>
       <c r="C141" t="n">
-        <v>3.53142</v>
+        <v>3.52892</v>
       </c>
       <c r="D141" t="n">
-        <v>3.06186</v>
+        <v>3.05555</v>
       </c>
       <c r="E141" t="n">
-        <v>0.746096</v>
+        <v>0.734172</v>
       </c>
       <c r="F141" t="n">
-        <v>3.29562</v>
+        <v>3.29301</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.757319</v>
+        <v>0.779908</v>
       </c>
       <c r="C142" t="n">
-        <v>3.51409</v>
+        <v>3.50572</v>
       </c>
       <c r="D142" t="n">
-        <v>3.04087</v>
+        <v>3.03757</v>
       </c>
       <c r="E142" t="n">
-        <v>0.723516</v>
+        <v>0.731611</v>
       </c>
       <c r="F142" t="n">
-        <v>3.28864</v>
+        <v>3.27623</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.771961</v>
+        <v>0.776386</v>
       </c>
       <c r="C143" t="n">
-        <v>3.49144</v>
+        <v>3.47995</v>
       </c>
       <c r="D143" t="n">
-        <v>3.018</v>
+        <v>3.00966</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7144160000000001</v>
+        <v>0.748577</v>
       </c>
       <c r="F143" t="n">
-        <v>3.26625</v>
+        <v>3.26229</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245175</v>
+        <v>0.245333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.42453</v>
+        <v>0.42565</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55907</v>
+        <v>0.56096</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21472</v>
+        <v>0.214604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.388544</v>
+        <v>0.390214</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240062</v>
+        <v>0.2363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417647</v>
+        <v>0.416543</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549834</v>
+        <v>0.55411</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209123</v>
+        <v>0.209304</v>
       </c>
       <c r="F3" t="n">
-        <v>0.381755</v>
+        <v>0.384569</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.231349</v>
+        <v>0.232591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410726</v>
+        <v>0.413986</v>
       </c>
       <c r="D4" t="n">
-        <v>0.544836</v>
+        <v>0.546447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.204008</v>
+        <v>0.204277</v>
       </c>
       <c r="F4" t="n">
-        <v>0.377161</v>
+        <v>0.379435</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229764</v>
+        <v>0.229128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.405032</v>
+        <v>0.409837</v>
       </c>
       <c r="D5" t="n">
-        <v>0.536872</v>
+        <v>0.538887</v>
       </c>
       <c r="E5" t="n">
-        <v>0.200033</v>
+        <v>0.199838</v>
       </c>
       <c r="F5" t="n">
-        <v>0.372957</v>
+        <v>0.375468</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222476</v>
+        <v>0.222593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.400127</v>
+        <v>0.403647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530807</v>
+        <v>0.534027</v>
       </c>
       <c r="E6" t="n">
-        <v>0.196696</v>
+        <v>0.195586</v>
       </c>
       <c r="F6" t="n">
-        <v>0.369953</v>
+        <v>0.373239</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220253</v>
+        <v>0.213764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.397454</v>
+        <v>0.401612</v>
       </c>
       <c r="D7" t="n">
-        <v>0.681202</v>
+        <v>0.688793</v>
       </c>
       <c r="E7" t="n">
-        <v>0.193581</v>
+        <v>0.19289</v>
       </c>
       <c r="F7" t="n">
-        <v>0.368114</v>
+        <v>0.371364</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214687</v>
+        <v>0.21854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.395533</v>
+        <v>0.400068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666589</v>
+        <v>0.673675</v>
       </c>
       <c r="E8" t="n">
-        <v>0.19484</v>
+        <v>0.193113</v>
       </c>
       <c r="F8" t="n">
-        <v>0.368347</v>
+        <v>0.371753</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21814</v>
+        <v>0.21571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3948</v>
+        <v>0.400198</v>
       </c>
       <c r="D9" t="n">
-        <v>0.653531</v>
+        <v>0.6605490000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.28443</v>
+        <v>0.28426</v>
       </c>
       <c r="F9" t="n">
-        <v>0.454963</v>
+        <v>0.458956</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30931</v>
+        <v>0.307438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.48491</v>
+        <v>0.487899</v>
       </c>
       <c r="D10" t="n">
-        <v>0.642195</v>
+        <v>0.64852</v>
       </c>
       <c r="E10" t="n">
-        <v>0.272612</v>
+        <v>0.272885</v>
       </c>
       <c r="F10" t="n">
-        <v>0.443722</v>
+        <v>0.448235</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298394</v>
+        <v>0.296271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.474659</v>
+        <v>0.477728</v>
       </c>
       <c r="D11" t="n">
-        <v>0.630284</v>
+        <v>0.637256</v>
       </c>
       <c r="E11" t="n">
-        <v>0.265921</v>
+        <v>0.264474</v>
       </c>
       <c r="F11" t="n">
-        <v>0.432818</v>
+        <v>0.436802</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.291028</v>
+        <v>0.28721</v>
       </c>
       <c r="C12" t="n">
-        <v>0.464663</v>
+        <v>0.467378</v>
       </c>
       <c r="D12" t="n">
-        <v>0.622123</v>
+        <v>0.626745</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256107</v>
+        <v>0.256357</v>
       </c>
       <c r="F12" t="n">
-        <v>0.423476</v>
+        <v>0.426617</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283141</v>
+        <v>0.276768</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454924</v>
+        <v>0.456764</v>
       </c>
       <c r="D13" t="n">
-        <v>0.613529</v>
+        <v>0.61841</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248982</v>
+        <v>0.248431</v>
       </c>
       <c r="F13" t="n">
-        <v>0.415583</v>
+        <v>0.417882</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269375</v>
+        <v>0.269834</v>
       </c>
       <c r="C14" t="n">
-        <v>0.444036</v>
+        <v>0.447221</v>
       </c>
       <c r="D14" t="n">
-        <v>0.605178</v>
+        <v>0.610159</v>
       </c>
       <c r="E14" t="n">
-        <v>0.241268</v>
+        <v>0.241313</v>
       </c>
       <c r="F14" t="n">
-        <v>0.407403</v>
+        <v>0.409442</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263339</v>
+        <v>0.263999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.43682</v>
+        <v>0.437288</v>
       </c>
       <c r="D15" t="n">
-        <v>0.597785</v>
+        <v>0.603652</v>
       </c>
       <c r="E15" t="n">
-        <v>0.235675</v>
+        <v>0.234483</v>
       </c>
       <c r="F15" t="n">
-        <v>0.399401</v>
+        <v>0.402437</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25876</v>
+        <v>0.255609</v>
       </c>
       <c r="C16" t="n">
-        <v>0.429131</v>
+        <v>0.430574</v>
       </c>
       <c r="D16" t="n">
-        <v>0.591355</v>
+        <v>0.597028</v>
       </c>
       <c r="E16" t="n">
-        <v>0.227902</v>
+        <v>0.228578</v>
       </c>
       <c r="F16" t="n">
-        <v>0.392574</v>
+        <v>0.397934</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250434</v>
+        <v>0.251757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.422772</v>
+        <v>0.42747</v>
       </c>
       <c r="D17" t="n">
-        <v>0.585974</v>
+        <v>0.590662</v>
       </c>
       <c r="E17" t="n">
-        <v>0.222836</v>
+        <v>0.22233</v>
       </c>
       <c r="F17" t="n">
-        <v>0.386199</v>
+        <v>0.391882</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242021</v>
+        <v>0.242549</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416586</v>
+        <v>0.421791</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5823159999999999</v>
+        <v>0.585934</v>
       </c>
       <c r="E18" t="n">
-        <v>0.219685</v>
+        <v>0.218107</v>
       </c>
       <c r="F18" t="n">
-        <v>0.381124</v>
+        <v>0.38779</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238054</v>
+        <v>0.237973</v>
       </c>
       <c r="C19" t="n">
-        <v>0.410913</v>
+        <v>0.414041</v>
       </c>
       <c r="D19" t="n">
-        <v>0.578539</v>
+        <v>0.581206</v>
       </c>
       <c r="E19" t="n">
-        <v>0.214997</v>
+        <v>0.213174</v>
       </c>
       <c r="F19" t="n">
-        <v>0.375231</v>
+        <v>0.377746</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233806</v>
+        <v>0.23707</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40647</v>
+        <v>0.409205</v>
       </c>
       <c r="D20" t="n">
-        <v>0.574008</v>
+        <v>0.577545</v>
       </c>
       <c r="E20" t="n">
-        <v>0.210573</v>
+        <v>0.210116</v>
       </c>
       <c r="F20" t="n">
-        <v>0.372003</v>
+        <v>0.375445</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230477</v>
+        <v>0.230235</v>
       </c>
       <c r="C21" t="n">
-        <v>0.404097</v>
+        <v>0.405331</v>
       </c>
       <c r="D21" t="n">
-        <v>0.749615</v>
+        <v>0.755197</v>
       </c>
       <c r="E21" t="n">
-        <v>0.208979</v>
+        <v>0.20796</v>
       </c>
       <c r="F21" t="n">
-        <v>0.370425</v>
+        <v>0.374406</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224801</v>
+        <v>0.230883</v>
       </c>
       <c r="C22" t="n">
-        <v>0.399385</v>
+        <v>0.402094</v>
       </c>
       <c r="D22" t="n">
-        <v>0.733443</v>
+        <v>0.738515</v>
       </c>
       <c r="E22" t="n">
-        <v>0.216798</v>
+        <v>0.208761</v>
       </c>
       <c r="F22" t="n">
-        <v>0.370281</v>
+        <v>0.374473</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224645</v>
+        <v>0.227319</v>
       </c>
       <c r="C23" t="n">
-        <v>0.398935</v>
+        <v>0.401976</v>
       </c>
       <c r="D23" t="n">
-        <v>0.719312</v>
+        <v>0.723618</v>
       </c>
       <c r="E23" t="n">
-        <v>0.305586</v>
+        <v>0.301409</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461805</v>
+        <v>0.463621</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314696</v>
+        <v>0.31634</v>
       </c>
       <c r="C24" t="n">
-        <v>0.496359</v>
+        <v>0.5045770000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.706382</v>
+        <v>0.709715</v>
       </c>
       <c r="E24" t="n">
-        <v>0.294352</v>
+        <v>0.289719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451543</v>
+        <v>0.453529</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.309149</v>
+        <v>0.304981</v>
       </c>
       <c r="C25" t="n">
-        <v>0.485901</v>
+        <v>0.493426</v>
       </c>
       <c r="D25" t="n">
-        <v>0.694817</v>
+        <v>0.698236</v>
       </c>
       <c r="E25" t="n">
-        <v>0.280582</v>
+        <v>0.280632</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441012</v>
+        <v>0.443623</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296233</v>
+        <v>0.295044</v>
       </c>
       <c r="C26" t="n">
-        <v>0.475698</v>
+        <v>0.480108</v>
       </c>
       <c r="D26" t="n">
-        <v>0.683402</v>
+        <v>0.687909</v>
       </c>
       <c r="E26" t="n">
-        <v>0.27282</v>
+        <v>0.272094</v>
       </c>
       <c r="F26" t="n">
-        <v>0.431974</v>
+        <v>0.434362</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287037</v>
+        <v>0.287007</v>
       </c>
       <c r="C27" t="n">
-        <v>0.466853</v>
+        <v>0.471216</v>
       </c>
       <c r="D27" t="n">
-        <v>0.673854</v>
+        <v>0.677584</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2645</v>
+        <v>0.263549</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423461</v>
+        <v>0.425855</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279613</v>
+        <v>0.279455</v>
       </c>
       <c r="C28" t="n">
-        <v>0.458248</v>
+        <v>0.462805</v>
       </c>
       <c r="D28" t="n">
-        <v>0.666257</v>
+        <v>0.668981</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25777</v>
+        <v>0.255869</v>
       </c>
       <c r="F28" t="n">
-        <v>0.414627</v>
+        <v>0.417007</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270763</v>
+        <v>0.272896</v>
       </c>
       <c r="C29" t="n">
-        <v>0.449218</v>
+        <v>0.454275</v>
       </c>
       <c r="D29" t="n">
-        <v>0.657301</v>
+        <v>0.661596</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25037</v>
+        <v>0.248414</v>
       </c>
       <c r="F29" t="n">
-        <v>0.406859</v>
+        <v>0.409868</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263187</v>
+        <v>0.264323</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441736</v>
+        <v>0.446528</v>
       </c>
       <c r="D30" t="n">
-        <v>0.650147</v>
+        <v>0.653457</v>
       </c>
       <c r="E30" t="n">
-        <v>0.242691</v>
+        <v>0.241467</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399882</v>
+        <v>0.403524</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255931</v>
+        <v>0.25913</v>
       </c>
       <c r="C31" t="n">
-        <v>0.435566</v>
+        <v>0.437491</v>
       </c>
       <c r="D31" t="n">
-        <v>0.643004</v>
+        <v>0.6466150000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.235621</v>
+        <v>0.235484</v>
       </c>
       <c r="F31" t="n">
-        <v>0.393341</v>
+        <v>0.3974</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249588</v>
+        <v>0.249036</v>
       </c>
       <c r="C32" t="n">
-        <v>0.427679</v>
+        <v>0.432636</v>
       </c>
       <c r="D32" t="n">
-        <v>0.637005</v>
+        <v>0.641492</v>
       </c>
       <c r="E32" t="n">
-        <v>0.230108</v>
+        <v>0.230075</v>
       </c>
       <c r="F32" t="n">
-        <v>0.387114</v>
+        <v>0.390925</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243967</v>
+        <v>0.243574</v>
       </c>
       <c r="C33" t="n">
-        <v>0.422315</v>
+        <v>0.427281</v>
       </c>
       <c r="D33" t="n">
-        <v>0.631557</v>
+        <v>0.635976</v>
       </c>
       <c r="E33" t="n">
-        <v>0.22514</v>
+        <v>0.225307</v>
       </c>
       <c r="F33" t="n">
-        <v>0.382174</v>
+        <v>0.386121</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.238532</v>
+        <v>0.237285</v>
       </c>
       <c r="C34" t="n">
-        <v>0.416953</v>
+        <v>0.420863</v>
       </c>
       <c r="D34" t="n">
-        <v>0.628375</v>
+        <v>0.63132</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222995</v>
+        <v>0.221107</v>
       </c>
       <c r="F34" t="n">
-        <v>0.378599</v>
+        <v>0.384537</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234141</v>
+        <v>0.233432</v>
       </c>
       <c r="C35" t="n">
-        <v>0.412655</v>
+        <v>0.419607</v>
       </c>
       <c r="D35" t="n">
-        <v>0.81397</v>
+        <v>0.817149</v>
       </c>
       <c r="E35" t="n">
-        <v>0.220346</v>
+        <v>0.218305</v>
       </c>
       <c r="F35" t="n">
-        <v>0.375684</v>
+        <v>0.381571</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231328</v>
+        <v>0.23192</v>
       </c>
       <c r="C36" t="n">
-        <v>0.408547</v>
+        <v>0.414678</v>
       </c>
       <c r="D36" t="n">
-        <v>0.796633</v>
+        <v>0.799785</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219155</v>
+        <v>0.217254</v>
       </c>
       <c r="F36" t="n">
-        <v>0.374818</v>
+        <v>0.38037</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229671</v>
+        <v>0.22995</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40756</v>
+        <v>0.410117</v>
       </c>
       <c r="D37" t="n">
-        <v>0.780243</v>
+        <v>0.782347</v>
       </c>
       <c r="E37" t="n">
-        <v>0.316221</v>
+        <v>0.313268</v>
       </c>
       <c r="F37" t="n">
-        <v>0.471531</v>
+        <v>0.475752</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.31899</v>
+        <v>0.320274</v>
       </c>
       <c r="C38" t="n">
-        <v>0.511303</v>
+        <v>0.519281</v>
       </c>
       <c r="D38" t="n">
-        <v>0.76601</v>
+        <v>0.7686770000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.300158</v>
+        <v>0.300572</v>
       </c>
       <c r="F38" t="n">
-        <v>0.461278</v>
+        <v>0.465242</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3092</v>
+        <v>0.307298</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501877</v>
+        <v>0.50818</v>
       </c>
       <c r="D39" t="n">
-        <v>0.752814</v>
+        <v>0.756012</v>
       </c>
       <c r="E39" t="n">
-        <v>0.295412</v>
+        <v>0.29185</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451946</v>
+        <v>0.455182</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299897</v>
+        <v>0.300499</v>
       </c>
       <c r="C40" t="n">
-        <v>0.491333</v>
+        <v>0.498917</v>
       </c>
       <c r="D40" t="n">
-        <v>0.739356</v>
+        <v>0.742575</v>
       </c>
       <c r="E40" t="n">
-        <v>0.283945</v>
+        <v>0.283523</v>
       </c>
       <c r="F40" t="n">
-        <v>0.442881</v>
+        <v>0.444993</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.295652</v>
+        <v>0.294851</v>
       </c>
       <c r="C41" t="n">
-        <v>0.480903</v>
+        <v>0.487835</v>
       </c>
       <c r="D41" t="n">
-        <v>0.728044</v>
+        <v>0.729758</v>
       </c>
       <c r="E41" t="n">
-        <v>0.280025</v>
+        <v>0.277142</v>
       </c>
       <c r="F41" t="n">
-        <v>0.434489</v>
+        <v>0.435945</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28483</v>
+        <v>0.285994</v>
       </c>
       <c r="C42" t="n">
-        <v>0.472228</v>
+        <v>0.480064</v>
       </c>
       <c r="D42" t="n">
-        <v>0.716734</v>
+        <v>0.719921</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268229</v>
+        <v>0.2662</v>
       </c>
       <c r="F42" t="n">
-        <v>0.42638</v>
+        <v>0.427746</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276086</v>
+        <v>0.279394</v>
       </c>
       <c r="C43" t="n">
-        <v>0.463912</v>
+        <v>0.469875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.708199</v>
+        <v>0.710013</v>
       </c>
       <c r="E43" t="n">
-        <v>0.259972</v>
+        <v>0.258888</v>
       </c>
       <c r="F43" t="n">
-        <v>0.418571</v>
+        <v>0.41943</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280132</v>
+        <v>0.267569</v>
       </c>
       <c r="C44" t="n">
-        <v>0.456518</v>
+        <v>0.462378</v>
       </c>
       <c r="D44" t="n">
-        <v>0.700272</v>
+        <v>0.70219</v>
       </c>
       <c r="E44" t="n">
-        <v>0.252895</v>
+        <v>0.254992</v>
       </c>
       <c r="F44" t="n">
-        <v>0.411042</v>
+        <v>0.41252</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270218</v>
+        <v>0.263646</v>
       </c>
       <c r="C45" t="n">
-        <v>0.448289</v>
+        <v>0.45074</v>
       </c>
       <c r="D45" t="n">
-        <v>0.692089</v>
+        <v>0.694435</v>
       </c>
       <c r="E45" t="n">
-        <v>0.245623</v>
+        <v>0.248634</v>
       </c>
       <c r="F45" t="n">
-        <v>0.404405</v>
+        <v>0.40594</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.269265</v>
+        <v>0.253391</v>
       </c>
       <c r="C46" t="n">
-        <v>0.440952</v>
+        <v>0.44844</v>
       </c>
       <c r="D46" t="n">
-        <v>0.684778</v>
+        <v>0.687549</v>
       </c>
       <c r="E46" t="n">
-        <v>0.243453</v>
+        <v>0.239839</v>
       </c>
       <c r="F46" t="n">
-        <v>0.398141</v>
+        <v>0.399335</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.248788</v>
+        <v>0.257261</v>
       </c>
       <c r="C47" t="n">
-        <v>0.434743</v>
+        <v>0.43927</v>
       </c>
       <c r="D47" t="n">
-        <v>0.678459</v>
+        <v>0.681376</v>
       </c>
       <c r="E47" t="n">
-        <v>0.238625</v>
+        <v>0.238407</v>
       </c>
       <c r="F47" t="n">
-        <v>0.393284</v>
+        <v>0.394796</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.249795</v>
+        <v>0.252384</v>
       </c>
       <c r="C48" t="n">
-        <v>0.428969</v>
+        <v>0.434191</v>
       </c>
       <c r="D48" t="n">
-        <v>0.674721</v>
+        <v>0.676257</v>
       </c>
       <c r="E48" t="n">
-        <v>0.233178</v>
+        <v>0.230591</v>
       </c>
       <c r="F48" t="n">
-        <v>0.389924</v>
+        <v>0.390314</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240393</v>
+        <v>0.244543</v>
       </c>
       <c r="C49" t="n">
-        <v>0.425339</v>
+        <v>0.42658</v>
       </c>
       <c r="D49" t="n">
-        <v>0.669511</v>
+        <v>0.671511</v>
       </c>
       <c r="E49" t="n">
-        <v>0.230659</v>
+        <v>0.227223</v>
       </c>
       <c r="F49" t="n">
-        <v>0.386511</v>
+        <v>0.38842</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234949</v>
+        <v>0.243714</v>
       </c>
       <c r="C50" t="n">
-        <v>0.422414</v>
+        <v>0.425386</v>
       </c>
       <c r="D50" t="n">
-        <v>0.84936</v>
+        <v>0.850425</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225704</v>
+        <v>0.225457</v>
       </c>
       <c r="F50" t="n">
-        <v>0.387374</v>
+        <v>0.387327</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235082</v>
+        <v>0.239799</v>
       </c>
       <c r="C51" t="n">
-        <v>0.420024</v>
+        <v>0.422417</v>
       </c>
       <c r="D51" t="n">
-        <v>0.831278</v>
+        <v>0.83296</v>
       </c>
       <c r="E51" t="n">
-        <v>0.327057</v>
+        <v>0.32769</v>
       </c>
       <c r="F51" t="n">
-        <v>0.485142</v>
+        <v>0.486798</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23697</v>
+        <v>0.242979</v>
       </c>
       <c r="C52" t="n">
-        <v>0.420688</v>
+        <v>0.422019</v>
       </c>
       <c r="D52" t="n">
-        <v>0.814594</v>
+        <v>0.816004</v>
       </c>
       <c r="E52" t="n">
-        <v>0.317174</v>
+        <v>0.317146</v>
       </c>
       <c r="F52" t="n">
-        <v>0.476173</v>
+        <v>0.477203</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.326302</v>
+        <v>0.322484</v>
       </c>
       <c r="C53" t="n">
-        <v>0.519268</v>
+        <v>0.521127</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799222</v>
+        <v>0.800417</v>
       </c>
       <c r="E53" t="n">
-        <v>0.308036</v>
+        <v>0.309979</v>
       </c>
       <c r="F53" t="n">
-        <v>0.467647</v>
+        <v>0.467616</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.316315</v>
+        <v>0.312921</v>
       </c>
       <c r="C54" t="n">
-        <v>0.509099</v>
+        <v>0.5125459999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784319</v>
+        <v>0.786009</v>
       </c>
       <c r="E54" t="n">
-        <v>0.299073</v>
+        <v>0.299545</v>
       </c>
       <c r="F54" t="n">
-        <v>0.457324</v>
+        <v>0.45853</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309591</v>
+        <v>0.304569</v>
       </c>
       <c r="C55" t="n">
-        <v>0.50143</v>
+        <v>0.50308</v>
       </c>
       <c r="D55" t="n">
-        <v>0.771723</v>
+        <v>0.7732869999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290643</v>
+        <v>0.290951</v>
       </c>
       <c r="F55" t="n">
-        <v>0.450205</v>
+        <v>0.452241</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.299771</v>
+        <v>0.296054</v>
       </c>
       <c r="C56" t="n">
-        <v>0.491948</v>
+        <v>0.495564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.759215</v>
+        <v>0.761253</v>
       </c>
       <c r="E56" t="n">
-        <v>0.283564</v>
+        <v>0.284205</v>
       </c>
       <c r="F56" t="n">
-        <v>0.44266</v>
+        <v>0.442786</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287091</v>
+        <v>0.289036</v>
       </c>
       <c r="C57" t="n">
-        <v>0.484582</v>
+        <v>0.484657</v>
       </c>
       <c r="D57" t="n">
-        <v>0.748979</v>
+        <v>0.750671</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276809</v>
+        <v>0.275451</v>
       </c>
       <c r="F57" t="n">
-        <v>0.434364</v>
+        <v>0.435589</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.281493</v>
+        <v>0.279457</v>
       </c>
       <c r="C58" t="n">
-        <v>0.476291</v>
+        <v>0.478274</v>
       </c>
       <c r="D58" t="n">
-        <v>0.739154</v>
+        <v>0.740961</v>
       </c>
       <c r="E58" t="n">
-        <v>0.269804</v>
+        <v>0.26854</v>
       </c>
       <c r="F58" t="n">
-        <v>0.427231</v>
+        <v>0.428878</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27484</v>
+        <v>0.277192</v>
       </c>
       <c r="C59" t="n">
-        <v>0.471206</v>
+        <v>0.471586</v>
       </c>
       <c r="D59" t="n">
-        <v>0.730232</v>
+        <v>0.732311</v>
       </c>
       <c r="E59" t="n">
-        <v>0.263078</v>
+        <v>0.262675</v>
       </c>
       <c r="F59" t="n">
-        <v>0.422597</v>
+        <v>0.422172</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.273311</v>
+        <v>0.26825</v>
       </c>
       <c r="C60" t="n">
-        <v>0.464551</v>
+        <v>0.463802</v>
       </c>
       <c r="D60" t="n">
-        <v>0.722153</v>
+        <v>0.724353</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255986</v>
+        <v>0.256566</v>
       </c>
       <c r="F60" t="n">
-        <v>0.416659</v>
+        <v>0.416729</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263654</v>
+        <v>0.26217</v>
       </c>
       <c r="C61" t="n">
-        <v>0.458377</v>
+        <v>0.460628</v>
       </c>
       <c r="D61" t="n">
-        <v>0.715755</v>
+        <v>0.717708</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253474</v>
+        <v>0.252776</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412332</v>
+        <v>0.411798</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260704</v>
+        <v>0.260501</v>
       </c>
       <c r="C62" t="n">
-        <v>0.45549</v>
+        <v>0.455269</v>
       </c>
       <c r="D62" t="n">
-        <v>0.710122</v>
+        <v>0.711692</v>
       </c>
       <c r="E62" t="n">
-        <v>0.247812</v>
+        <v>0.247398</v>
       </c>
       <c r="F62" t="n">
-        <v>0.408486</v>
+        <v>0.408187</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255798</v>
+        <v>0.255279</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450455</v>
+        <v>0.450921</v>
       </c>
       <c r="D63" t="n">
-        <v>0.705587</v>
+        <v>0.706759</v>
       </c>
       <c r="E63" t="n">
-        <v>0.245842</v>
+        <v>0.243767</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40585</v>
+        <v>0.405724</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251921</v>
+        <v>0.249821</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448122</v>
+        <v>0.447111</v>
       </c>
       <c r="D64" t="n">
-        <v>0.913281</v>
+        <v>0.9115180000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.241297</v>
+        <v>0.242607</v>
       </c>
       <c r="F64" t="n">
-        <v>0.403859</v>
+        <v>0.40352</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246639</v>
+        <v>0.249022</v>
       </c>
       <c r="C65" t="n">
-        <v>0.444992</v>
+        <v>0.444861</v>
       </c>
       <c r="D65" t="n">
-        <v>0.893745</v>
+        <v>0.895716</v>
       </c>
       <c r="E65" t="n">
-        <v>0.242321</v>
+        <v>0.242324</v>
       </c>
       <c r="F65" t="n">
-        <v>0.404205</v>
+        <v>0.404043</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.248804</v>
+        <v>0.247821</v>
       </c>
       <c r="C66" t="n">
-        <v>0.444676</v>
+        <v>0.444569</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8779940000000001</v>
+        <v>0.877932</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337239</v>
+        <v>0.345417</v>
       </c>
       <c r="F66" t="n">
-        <v>0.51535</v>
+        <v>0.512556</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388536</v>
+        <v>0.387388</v>
       </c>
       <c r="C67" t="n">
-        <v>0.587094</v>
+        <v>0.586708</v>
       </c>
       <c r="D67" t="n">
-        <v>0.861644</v>
+        <v>0.86114</v>
       </c>
       <c r="E67" t="n">
-        <v>0.330014</v>
+        <v>0.333498</v>
       </c>
       <c r="F67" t="n">
-        <v>0.507109</v>
+        <v>0.50589</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.376196</v>
+        <v>0.37685</v>
       </c>
       <c r="C68" t="n">
-        <v>0.579186</v>
+        <v>0.579335</v>
       </c>
       <c r="D68" t="n">
-        <v>0.84617</v>
+        <v>0.845939</v>
       </c>
       <c r="E68" t="n">
-        <v>0.325247</v>
+        <v>0.32359</v>
       </c>
       <c r="F68" t="n">
-        <v>0.499885</v>
+        <v>0.49847</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.371631</v>
+        <v>0.363892</v>
       </c>
       <c r="C69" t="n">
-        <v>0.577968</v>
+        <v>0.573701</v>
       </c>
       <c r="D69" t="n">
-        <v>0.831949</v>
+        <v>0.832353</v>
       </c>
       <c r="E69" t="n">
-        <v>0.317861</v>
+        <v>0.316801</v>
       </c>
       <c r="F69" t="n">
-        <v>0.492846</v>
+        <v>0.491052</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365337</v>
+        <v>0.357871</v>
       </c>
       <c r="C70" t="n">
-        <v>0.57081</v>
+        <v>0.567418</v>
       </c>
       <c r="D70" t="n">
-        <v>0.82209</v>
+        <v>0.821055</v>
       </c>
       <c r="E70" t="n">
-        <v>0.310044</v>
+        <v>0.309889</v>
       </c>
       <c r="F70" t="n">
-        <v>0.484817</v>
+        <v>0.483299</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.348856</v>
+        <v>0.355099</v>
       </c>
       <c r="C71" t="n">
-        <v>0.56143</v>
+        <v>0.55811</v>
       </c>
       <c r="D71" t="n">
-        <v>0.812244</v>
+        <v>0.811018</v>
       </c>
       <c r="E71" t="n">
-        <v>0.302104</v>
+        <v>0.298828</v>
       </c>
       <c r="F71" t="n">
-        <v>0.477583</v>
+        <v>0.475591</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.361098</v>
+        <v>0.349787</v>
       </c>
       <c r="C72" t="n">
-        <v>0.551045</v>
+        <v>0.549975</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.80282</v>
       </c>
       <c r="E72" t="n">
-        <v>0.296854</v>
+        <v>0.292667</v>
       </c>
       <c r="F72" t="n">
-        <v>0.471495</v>
+        <v>0.469734</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.341347</v>
+        <v>0.338847</v>
       </c>
       <c r="C73" t="n">
-        <v>0.545121</v>
+        <v>0.543378</v>
       </c>
       <c r="D73" t="n">
-        <v>0.798489</v>
+        <v>0.797735</v>
       </c>
       <c r="E73" t="n">
-        <v>0.288614</v>
+        <v>0.286335</v>
       </c>
       <c r="F73" t="n">
-        <v>0.465477</v>
+        <v>0.463553</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.327776</v>
+        <v>0.337976</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5415140000000001</v>
+        <v>0.53712</v>
       </c>
       <c r="D74" t="n">
-        <v>0.793441</v>
+        <v>0.791529</v>
       </c>
       <c r="E74" t="n">
-        <v>0.283123</v>
+        <v>0.279495</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4596</v>
+        <v>0.457917</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.331637</v>
+        <v>0.338317</v>
       </c>
       <c r="C75" t="n">
-        <v>0.537648</v>
+        <v>0.531772</v>
       </c>
       <c r="D75" t="n">
-        <v>0.790879</v>
+        <v>0.789531</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274156</v>
+        <v>0.274693</v>
       </c>
       <c r="F75" t="n">
-        <v>0.454246</v>
+        <v>0.453638</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.326108</v>
+        <v>0.332086</v>
       </c>
       <c r="C76" t="n">
-        <v>0.53134</v>
+        <v>0.527878</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7888810000000001</v>
+        <v>0.787234</v>
       </c>
       <c r="E76" t="n">
-        <v>0.270051</v>
+        <v>0.270937</v>
       </c>
       <c r="F76" t="n">
-        <v>0.451016</v>
+        <v>0.44951</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325287</v>
+        <v>0.325266</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526146</v>
+        <v>0.52454</v>
       </c>
       <c r="D77" t="n">
-        <v>0.787906</v>
+        <v>0.787237</v>
       </c>
       <c r="E77" t="n">
-        <v>0.268192</v>
+        <v>0.266994</v>
       </c>
       <c r="F77" t="n">
-        <v>0.448656</v>
+        <v>0.4471</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.305543</v>
+        <v>0.307751</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5248660000000001</v>
+        <v>0.522414</v>
       </c>
       <c r="D78" t="n">
-        <v>1.2496</v>
+        <v>1.24703</v>
       </c>
       <c r="E78" t="n">
-        <v>0.263377</v>
+        <v>0.266912</v>
       </c>
       <c r="F78" t="n">
-        <v>0.447342</v>
+        <v>0.446038</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.313051</v>
+        <v>0.309783</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5234760000000001</v>
+        <v>0.522165</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2295</v>
+        <v>1.22833</v>
       </c>
       <c r="E79" t="n">
-        <v>0.263809</v>
+        <v>0.265837</v>
       </c>
       <c r="F79" t="n">
-        <v>0.448691</v>
+        <v>0.447336</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302931</v>
+        <v>0.312279</v>
       </c>
       <c r="C80" t="n">
-        <v>0.526366</v>
+        <v>0.523355</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20988</v>
+        <v>1.20603</v>
       </c>
       <c r="E80" t="n">
-        <v>0.383662</v>
+        <v>0.380327</v>
       </c>
       <c r="F80" t="n">
-        <v>0.734343</v>
+        <v>0.736872</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.429842</v>
+        <v>0.415162</v>
       </c>
       <c r="C81" t="n">
-        <v>0.838235</v>
+        <v>0.83765</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19471</v>
+        <v>1.19939</v>
       </c>
       <c r="E81" t="n">
-        <v>0.38156</v>
+        <v>0.382393</v>
       </c>
       <c r="F81" t="n">
-        <v>0.738199</v>
+        <v>0.738603</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.422639</v>
+        <v>0.420096</v>
       </c>
       <c r="C82" t="n">
-        <v>0.840588</v>
+        <v>0.843082</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18146</v>
+        <v>1.18608</v>
       </c>
       <c r="E82" t="n">
-        <v>0.37169</v>
+        <v>0.371802</v>
       </c>
       <c r="F82" t="n">
-        <v>0.734389</v>
+        <v>0.734367</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.428928</v>
+        <v>0.445533</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8512729999999999</v>
+        <v>0.850202</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16981</v>
+        <v>1.17554</v>
       </c>
       <c r="E83" t="n">
-        <v>0.359232</v>
+        <v>0.361305</v>
       </c>
       <c r="F83" t="n">
-        <v>0.726146</v>
+        <v>0.727027</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.424439</v>
+        <v>0.41596</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837717</v>
+        <v>0.842696</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16173</v>
+        <v>1.16774</v>
       </c>
       <c r="E84" t="n">
-        <v>0.355294</v>
+        <v>0.356186</v>
       </c>
       <c r="F84" t="n">
-        <v>0.716143</v>
+        <v>0.716376</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.382893</v>
+        <v>0.397376</v>
       </c>
       <c r="C85" t="n">
-        <v>0.828345</v>
+        <v>0.8280189999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15813</v>
+        <v>1.16137</v>
       </c>
       <c r="E85" t="n">
-        <v>0.349439</v>
+        <v>0.351273</v>
       </c>
       <c r="F85" t="n">
-        <v>0.704095</v>
+        <v>0.704727</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.393582</v>
+        <v>0.390217</v>
       </c>
       <c r="C86" t="n">
-        <v>0.816613</v>
+        <v>0.817728</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15519</v>
+        <v>1.16107</v>
       </c>
       <c r="E86" t="n">
-        <v>0.344694</v>
+        <v>0.3418</v>
       </c>
       <c r="F86" t="n">
-        <v>0.690448</v>
+        <v>0.688968</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.403557</v>
+        <v>0.388096</v>
       </c>
       <c r="C87" t="n">
-        <v>0.804306</v>
+        <v>0.803743</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15495</v>
+        <v>1.16109</v>
       </c>
       <c r="E87" t="n">
-        <v>0.332008</v>
+        <v>0.334868</v>
       </c>
       <c r="F87" t="n">
-        <v>0.678379</v>
+        <v>0.676804</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.383023</v>
+        <v>0.394993</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7930430000000001</v>
+        <v>0.794911</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16277</v>
+        <v>1.16422</v>
       </c>
       <c r="E88" t="n">
-        <v>0.329743</v>
+        <v>0.331542</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6644409999999999</v>
+        <v>0.6654870000000001</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.40711</v>
+        <v>0.402661</v>
       </c>
       <c r="C89" t="n">
-        <v>0.782895</v>
+        <v>0.782378</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17194</v>
+        <v>1.17113</v>
       </c>
       <c r="E89" t="n">
-        <v>0.320744</v>
+        <v>0.320146</v>
       </c>
       <c r="F89" t="n">
-        <v>0.654448</v>
+        <v>0.652949</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.390023</v>
+        <v>0.372696</v>
       </c>
       <c r="C90" t="n">
-        <v>0.771818</v>
+        <v>0.770939</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17976</v>
+        <v>1.1784</v>
       </c>
       <c r="E90" t="n">
-        <v>0.321623</v>
+        <v>0.319887</v>
       </c>
       <c r="F90" t="n">
-        <v>0.641824</v>
+        <v>0.6423680000000001</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.370469</v>
+        <v>0.367537</v>
       </c>
       <c r="C91" t="n">
-        <v>0.763734</v>
+        <v>0.765567</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19187</v>
+        <v>1.19394</v>
       </c>
       <c r="E91" t="n">
-        <v>0.308445</v>
+        <v>0.312608</v>
       </c>
       <c r="F91" t="n">
-        <v>0.634118</v>
+        <v>0.631825</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.360822</v>
+        <v>0.378941</v>
       </c>
       <c r="C92" t="n">
-        <v>0.755413</v>
+        <v>0.755872</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7585</v>
+        <v>1.75854</v>
       </c>
       <c r="E92" t="n">
-        <v>0.310736</v>
+        <v>0.308534</v>
       </c>
       <c r="F92" t="n">
-        <v>0.626201</v>
+        <v>0.625315</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358194</v>
+        <v>0.378756</v>
       </c>
       <c r="C93" t="n">
-        <v>0.747044</v>
+        <v>0.7487510000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74864</v>
+        <v>1.75462</v>
       </c>
       <c r="E93" t="n">
-        <v>0.307404</v>
+        <v>0.304236</v>
       </c>
       <c r="F93" t="n">
-        <v>0.620537</v>
+        <v>0.621574</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387012</v>
+        <v>0.369283</v>
       </c>
       <c r="C94" t="n">
-        <v>0.742736</v>
+        <v>0.745673</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73723</v>
+        <v>1.74143</v>
       </c>
       <c r="E94" t="n">
-        <v>0.506189</v>
+        <v>0.509853</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12175</v>
+        <v>1.12328</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.559604</v>
+        <v>0.565918</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1505</v>
+        <v>1.14848</v>
       </c>
       <c r="D95" t="n">
-        <v>1.7262</v>
+        <v>1.72686</v>
       </c>
       <c r="E95" t="n">
-        <v>0.499162</v>
+        <v>0.499495</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11716</v>
+        <v>1.11873</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.549825</v>
+        <v>0.558954</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15763</v>
+        <v>1.14796</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71658</v>
+        <v>1.71478</v>
       </c>
       <c r="E96" t="n">
-        <v>0.492053</v>
+        <v>0.488781</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10625</v>
+        <v>1.10472</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.547495</v>
+        <v>0.54642</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1457</v>
+        <v>1.14317</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70665</v>
+        <v>1.70694</v>
       </c>
       <c r="E97" t="n">
-        <v>0.474962</v>
+        <v>0.479262</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08568</v>
+        <v>1.08812</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.547693</v>
+        <v>0.545038</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14567</v>
+        <v>1.13648</v>
       </c>
       <c r="D98" t="n">
-        <v>1.70049</v>
+        <v>1.69752</v>
       </c>
       <c r="E98" t="n">
-        <v>0.465902</v>
+        <v>0.467813</v>
       </c>
       <c r="F98" t="n">
-        <v>1.07022</v>
+        <v>1.07071</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528297</v>
+        <v>0.522089</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12117</v>
+        <v>1.1232</v>
       </c>
       <c r="D99" t="n">
         <v>1.69613</v>
       </c>
       <c r="E99" t="n">
-        <v>0.456363</v>
+        <v>0.456576</v>
       </c>
       <c r="F99" t="n">
-        <v>1.05244</v>
+        <v>1.05078</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.505564</v>
+        <v>0.523865</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10204</v>
+        <v>1.10326</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69886</v>
+        <v>1.69617</v>
       </c>
       <c r="E100" t="n">
-        <v>0.444037</v>
+        <v>0.446735</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03522</v>
+        <v>1.02568</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504152</v>
+        <v>0.507409</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09096</v>
+        <v>1.09274</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70613</v>
+        <v>1.70532</v>
       </c>
       <c r="E101" t="n">
-        <v>0.439517</v>
+        <v>0.436063</v>
       </c>
       <c r="F101" t="n">
-        <v>1.01856</v>
+        <v>1.01768</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5005500000000001</v>
+        <v>0.504059</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08873</v>
+        <v>1.08652</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71315</v>
+        <v>1.71292</v>
       </c>
       <c r="E102" t="n">
-        <v>0.428035</v>
+        <v>0.427133</v>
       </c>
       <c r="F102" t="n">
-        <v>0.99852</v>
+        <v>1.00397</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.487238</v>
+        <v>0.480787</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06794</v>
+        <v>1.07297</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71951</v>
+        <v>1.7197</v>
       </c>
       <c r="E103" t="n">
-        <v>0.419323</v>
+        <v>0.420407</v>
       </c>
       <c r="F103" t="n">
-        <v>0.989603</v>
+        <v>0.988237</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483048</v>
+        <v>0.473427</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0512</v>
+        <v>1.05076</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73245</v>
+        <v>1.72812</v>
       </c>
       <c r="E104" t="n">
-        <v>0.410547</v>
+        <v>0.41431</v>
       </c>
       <c r="F104" t="n">
-        <v>0.97654</v>
+        <v>0.9767</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.469866</v>
+        <v>0.476074</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04799</v>
+        <v>1.03934</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74251</v>
+        <v>1.74624</v>
       </c>
       <c r="E105" t="n">
-        <v>0.405432</v>
+        <v>0.406575</v>
       </c>
       <c r="F105" t="n">
-        <v>0.962652</v>
+        <v>0.962854</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.469178</v>
+        <v>0.476232</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02364</v>
+        <v>1.0263</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76137</v>
+        <v>1.76237</v>
       </c>
       <c r="E106" t="n">
-        <v>0.399306</v>
+        <v>0.400867</v>
       </c>
       <c r="F106" t="n">
-        <v>0.951533</v>
+        <v>0.934785</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.459229</v>
+        <v>0.465674</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03447</v>
+        <v>1.03722</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36258</v>
+        <v>2.36316</v>
       </c>
       <c r="E107" t="n">
-        <v>0.395455</v>
+        <v>0.354654</v>
       </c>
       <c r="F107" t="n">
-        <v>0.941099</v>
+        <v>0.939879</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.459552</v>
+        <v>0.460274</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0277</v>
+        <v>1.03211</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33523</v>
+        <v>2.33775</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5479270000000001</v>
+        <v>0.599945</v>
       </c>
       <c r="F108" t="n">
-        <v>2.39355</v>
+        <v>2.39056</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.472082</v>
+        <v>0.458007</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01994</v>
+        <v>1.02689</v>
       </c>
       <c r="D109" t="n">
-        <v>2.31159</v>
+        <v>2.3159</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546221</v>
+        <v>0.593697</v>
       </c>
       <c r="F109" t="n">
-        <v>2.39319</v>
+        <v>2.38693</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.611839</v>
+        <v>0.672829</v>
       </c>
       <c r="C110" t="n">
-        <v>2.58444</v>
+        <v>2.56546</v>
       </c>
       <c r="D110" t="n">
-        <v>2.29</v>
+        <v>2.29548</v>
       </c>
       <c r="E110" t="n">
-        <v>0.584331</v>
+        <v>0.581775</v>
       </c>
       <c r="F110" t="n">
-        <v>2.39851</v>
+        <v>2.39779</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.653898</v>
+        <v>0.66694</v>
       </c>
       <c r="C111" t="n">
-        <v>2.5836</v>
+        <v>2.56622</v>
       </c>
       <c r="D111" t="n">
-        <v>2.27307</v>
+        <v>2.29408</v>
       </c>
       <c r="E111" t="n">
-        <v>0.569806</v>
+        <v>0.529646</v>
       </c>
       <c r="F111" t="n">
-        <v>2.40871</v>
+        <v>2.38748</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.657148</v>
+        <v>0.656446</v>
       </c>
       <c r="C112" t="n">
-        <v>2.5897</v>
+        <v>2.57824</v>
       </c>
       <c r="D112" t="n">
-        <v>2.2574</v>
+        <v>2.26346</v>
       </c>
       <c r="E112" t="n">
-        <v>0.558465</v>
+        <v>0.519732</v>
       </c>
       <c r="F112" t="n">
-        <v>2.40337</v>
+        <v>2.39993</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.638897</v>
+        <v>0.626021</v>
       </c>
       <c r="C113" t="n">
-        <v>2.58588</v>
+        <v>2.57253</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26013</v>
+        <v>2.25822</v>
       </c>
       <c r="E113" t="n">
-        <v>0.506613</v>
+        <v>0.511764</v>
       </c>
       <c r="F113" t="n">
-        <v>2.40038</v>
+        <v>2.40238</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.633027</v>
+        <v>0.624165</v>
       </c>
       <c r="C114" t="n">
-        <v>2.58092</v>
+        <v>2.57272</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27314</v>
+        <v>2.27299</v>
       </c>
       <c r="E114" t="n">
-        <v>0.537556</v>
+        <v>0.538826</v>
       </c>
       <c r="F114" t="n">
-        <v>2.39909</v>
+        <v>2.38676</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.61689</v>
+        <v>0.616267</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57117</v>
+        <v>2.57028</v>
       </c>
       <c r="D115" t="n">
-        <v>2.25232</v>
+        <v>2.27902</v>
       </c>
       <c r="E115" t="n">
-        <v>0.48931</v>
+        <v>0.490476</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39437</v>
+        <v>2.40647</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.601812</v>
+        <v>0.567196</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56476</v>
+        <v>2.56947</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26474</v>
+        <v>2.28589</v>
       </c>
       <c r="E116" t="n">
-        <v>0.516482</v>
+        <v>0.518773</v>
       </c>
       <c r="F116" t="n">
-        <v>2.41038</v>
+        <v>2.40065</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.595133</v>
+        <v>0.59622</v>
       </c>
       <c r="C117" t="n">
-        <v>2.6024</v>
+        <v>2.58268</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27697</v>
+        <v>2.27215</v>
       </c>
       <c r="E117" t="n">
-        <v>0.47468</v>
+        <v>0.509063</v>
       </c>
       <c r="F117" t="n">
-        <v>2.41343</v>
+        <v>2.40904</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.584024</v>
+        <v>0.584033</v>
       </c>
       <c r="C118" t="n">
-        <v>2.58014</v>
+        <v>2.58209</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23498</v>
+        <v>2.24351</v>
       </c>
       <c r="E118" t="n">
-        <v>0.465313</v>
+        <v>0.467286</v>
       </c>
       <c r="F118" t="n">
-        <v>2.21742</v>
+        <v>2.21758</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.564178</v>
+        <v>0.568218</v>
       </c>
       <c r="C119" t="n">
-        <v>2.35829</v>
+        <v>2.5783</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23746</v>
+        <v>2.24002</v>
       </c>
       <c r="E119" t="n">
-        <v>0.458922</v>
+        <v>0.460289</v>
       </c>
       <c r="F119" t="n">
-        <v>1.5921</v>
+        <v>2.20111</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.545559</v>
+        <v>0.571978</v>
       </c>
       <c r="C120" t="n">
-        <v>2.17548</v>
+        <v>2.58182</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24566</v>
+        <v>2.24929</v>
       </c>
       <c r="E120" t="n">
-        <v>0.456274</v>
+        <v>0.455715</v>
       </c>
       <c r="F120" t="n">
-        <v>2.4214</v>
+        <v>2.42206</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.550005</v>
+        <v>0.542121</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57233</v>
+        <v>2.37169</v>
       </c>
       <c r="D121" t="n">
-        <v>2.932</v>
+        <v>2.92336</v>
       </c>
       <c r="E121" t="n">
-        <v>0.450608</v>
+        <v>0.447417</v>
       </c>
       <c r="F121" t="n">
-        <v>2.21894</v>
+        <v>1.17029</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5288659999999999</v>
+        <v>0.556787</v>
       </c>
       <c r="C122" t="n">
-        <v>2.58287</v>
+        <v>2.58986</v>
       </c>
       <c r="D122" t="n">
-        <v>2.86859</v>
+        <v>2.88483</v>
       </c>
       <c r="E122" t="n">
-        <v>0.448136</v>
+        <v>0.448638</v>
       </c>
       <c r="F122" t="n">
-        <v>2.43351</v>
+        <v>2.21428</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.545967</v>
+        <v>0.524224</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59722</v>
+        <v>2.59933</v>
       </c>
       <c r="D123" t="n">
-        <v>2.83817</v>
+        <v>2.84302</v>
       </c>
       <c r="E123" t="n">
-        <v>0.649988</v>
+        <v>0.644103</v>
       </c>
       <c r="F123" t="n">
-        <v>2.9338</v>
+        <v>2.92833</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.719647</v>
+        <v>0.729765</v>
       </c>
       <c r="C124" t="n">
-        <v>3.18998</v>
+        <v>3.17296</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80539</v>
+        <v>2.81156</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6415</v>
+        <v>0.636858</v>
       </c>
       <c r="F124" t="n">
-        <v>2.92447</v>
+        <v>2.92153</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7314310000000001</v>
+        <v>0.735247</v>
       </c>
       <c r="C125" t="n">
-        <v>3.15351</v>
+        <v>3.15675</v>
       </c>
       <c r="D125" t="n">
-        <v>2.77095</v>
+        <v>2.77921</v>
       </c>
       <c r="E125" t="n">
-        <v>0.633023</v>
+        <v>0.629708</v>
       </c>
       <c r="F125" t="n">
-        <v>2.91406</v>
+        <v>2.90577</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.721208</v>
+        <v>0.708924</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15694</v>
+        <v>3.13853</v>
       </c>
       <c r="D126" t="n">
-        <v>2.74479</v>
+        <v>2.75079</v>
       </c>
       <c r="E126" t="n">
-        <v>0.64856</v>
+        <v>0.625498</v>
       </c>
       <c r="F126" t="n">
-        <v>2.89437</v>
+        <v>2.9053</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70464</v>
+        <v>0.691699</v>
       </c>
       <c r="C127" t="n">
-        <v>3.13599</v>
+        <v>3.10741</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72153</v>
+        <v>2.72328</v>
       </c>
       <c r="E127" t="n">
-        <v>0.620309</v>
+        <v>0.618581</v>
       </c>
       <c r="F127" t="n">
-        <v>2.89935</v>
+        <v>2.89885</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.69008</v>
+        <v>0.698068</v>
       </c>
       <c r="C128" t="n">
-        <v>3.13233</v>
+        <v>3.12086</v>
       </c>
       <c r="D128" t="n">
-        <v>2.6968</v>
+        <v>2.70293</v>
       </c>
       <c r="E128" t="n">
-        <v>0.615121</v>
+        <v>0.612517</v>
       </c>
       <c r="F128" t="n">
-        <v>2.89469</v>
+        <v>2.89378</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.666947</v>
+        <v>0.669523</v>
       </c>
       <c r="C129" t="n">
-        <v>3.1156</v>
+        <v>3.1085</v>
       </c>
       <c r="D129" t="n">
-        <v>2.68703</v>
+        <v>2.68665</v>
       </c>
       <c r="E129" t="n">
-        <v>0.607424</v>
+        <v>0.607897</v>
       </c>
       <c r="F129" t="n">
-        <v>2.8829</v>
+        <v>2.88028</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.675299</v>
+        <v>0.670142</v>
       </c>
       <c r="C130" t="n">
-        <v>3.09692</v>
+        <v>3.08862</v>
       </c>
       <c r="D130" t="n">
-        <v>2.66322</v>
+        <v>2.66666</v>
       </c>
       <c r="E130" t="n">
-        <v>0.602754</v>
+        <v>0.601921</v>
       </c>
       <c r="F130" t="n">
-        <v>2.87715</v>
+        <v>2.8731</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.665104</v>
+        <v>0.662543</v>
       </c>
       <c r="C131" t="n">
-        <v>3.09516</v>
+        <v>3.08877</v>
       </c>
       <c r="D131" t="n">
-        <v>2.65321</v>
+        <v>2.65847</v>
       </c>
       <c r="E131" t="n">
-        <v>0.599266</v>
+        <v>0.597289</v>
       </c>
       <c r="F131" t="n">
-        <v>2.87443</v>
+        <v>2.87096</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.649236</v>
+        <v>0.651206</v>
       </c>
       <c r="C132" t="n">
-        <v>3.08061</v>
+        <v>3.07391</v>
       </c>
       <c r="D132" t="n">
-        <v>2.64626</v>
+        <v>2.65202</v>
       </c>
       <c r="E132" t="n">
-        <v>0.594787</v>
+        <v>0.59273</v>
       </c>
       <c r="F132" t="n">
-        <v>2.87737</v>
+        <v>2.87966</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.645503</v>
+        <v>0.644474</v>
       </c>
       <c r="C133" t="n">
-        <v>3.07539</v>
+        <v>3.07471</v>
       </c>
       <c r="D133" t="n">
-        <v>2.61847</v>
+        <v>2.64981</v>
       </c>
       <c r="E133" t="n">
-        <v>0.588166</v>
+        <v>0.586938</v>
       </c>
       <c r="F133" t="n">
-        <v>2.87385</v>
+        <v>2.87577</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.629911</v>
+        <v>0.643253</v>
       </c>
       <c r="C134" t="n">
-        <v>3.06808</v>
+        <v>3.07079</v>
       </c>
       <c r="D134" t="n">
-        <v>2.62421</v>
+        <v>2.62507</v>
       </c>
       <c r="E134" t="n">
-        <v>0.583587</v>
+        <v>0.556708</v>
       </c>
       <c r="F134" t="n">
-        <v>2.87751</v>
+        <v>2.41669</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.627938</v>
+        <v>0.634704</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06328</v>
+        <v>3.06075</v>
       </c>
       <c r="D135" t="n">
-        <v>3.31994</v>
+        <v>3.32457</v>
       </c>
       <c r="E135" t="n">
-        <v>0.55347</v>
+        <v>0.580561</v>
       </c>
       <c r="F135" t="n">
-        <v>2.64381</v>
+        <v>2.8717</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6428160000000001</v>
+        <v>0.62237</v>
       </c>
       <c r="C136" t="n">
-        <v>3.05786</v>
+        <v>3.05809</v>
       </c>
       <c r="D136" t="n">
-        <v>3.2578</v>
+        <v>3.2729</v>
       </c>
       <c r="E136" t="n">
-        <v>0.550251</v>
+        <v>0.5502089999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>2.64103</v>
+        <v>2.87687</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6283</v>
+        <v>0.640455</v>
       </c>
       <c r="C137" t="n">
-        <v>3.06474</v>
+        <v>3.06707</v>
       </c>
       <c r="D137" t="n">
-        <v>3.21197</v>
+        <v>3.21758</v>
       </c>
       <c r="E137" t="n">
-        <v>0.746896</v>
+        <v>0.74622</v>
       </c>
       <c r="F137" t="n">
-        <v>3.36489</v>
+        <v>3.37794</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.798544</v>
+        <v>0.826276</v>
       </c>
       <c r="C138" t="n">
-        <v>3.59543</v>
+        <v>3.59305</v>
       </c>
       <c r="D138" t="n">
-        <v>3.17021</v>
+        <v>3.17274</v>
       </c>
       <c r="E138" t="n">
-        <v>0.741822</v>
+        <v>0.743237</v>
       </c>
       <c r="F138" t="n">
-        <v>3.34291</v>
+        <v>3.34988</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.798191</v>
+        <v>0.805902</v>
       </c>
       <c r="C139" t="n">
-        <v>3.58508</v>
+        <v>3.58186</v>
       </c>
       <c r="D139" t="n">
-        <v>3.11817</v>
+        <v>3.13333</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7406470000000001</v>
+        <v>0.737961</v>
       </c>
       <c r="F139" t="n">
-        <v>3.32975</v>
+        <v>3.34005</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.805258</v>
+        <v>0.8067220000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>3.54325</v>
+        <v>3.55033</v>
       </c>
       <c r="D140" t="n">
-        <v>3.08755</v>
+        <v>3.09506</v>
       </c>
       <c r="E140" t="n">
-        <v>0.735548</v>
+        <v>0.736221</v>
       </c>
       <c r="F140" t="n">
-        <v>3.31403</v>
+        <v>3.32094</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.793497</v>
+        <v>0.785816</v>
       </c>
       <c r="C141" t="n">
-        <v>3.52892</v>
+        <v>3.52901</v>
       </c>
       <c r="D141" t="n">
-        <v>3.05555</v>
+        <v>3.05502</v>
       </c>
       <c r="E141" t="n">
-        <v>0.734172</v>
+        <v>0.731922</v>
       </c>
       <c r="F141" t="n">
-        <v>3.29301</v>
+        <v>3.29847</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.779908</v>
+        <v>0.784005</v>
       </c>
       <c r="C142" t="n">
-        <v>3.50572</v>
+        <v>3.50334</v>
       </c>
       <c r="D142" t="n">
-        <v>3.03757</v>
+        <v>3.04256</v>
       </c>
       <c r="E142" t="n">
-        <v>0.731611</v>
+        <v>0.731843</v>
       </c>
       <c r="F142" t="n">
-        <v>3.27623</v>
+        <v>3.28245</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.776386</v>
+        <v>0.784492</v>
       </c>
       <c r="C143" t="n">
-        <v>3.47995</v>
+        <v>3.48471</v>
       </c>
       <c r="D143" t="n">
-        <v>3.00966</v>
+        <v>3.02008</v>
       </c>
       <c r="E143" t="n">
-        <v>0.748577</v>
+        <v>0.730453</v>
       </c>
       <c r="F143" t="n">
-        <v>3.26229</v>
+        <v>3.26644</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245333</v>
+        <v>0.245677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.42565</v>
+        <v>0.427661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.56096</v>
+        <v>0.557713</v>
       </c>
       <c r="E2" t="n">
-        <v>0.214604</v>
+        <v>0.214647</v>
       </c>
       <c r="F2" t="n">
-        <v>0.390214</v>
+        <v>0.388067</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2363</v>
+        <v>0.233357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.416543</v>
+        <v>0.420459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.55411</v>
+        <v>0.549285</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209304</v>
+        <v>0.208772</v>
       </c>
       <c r="F3" t="n">
-        <v>0.384569</v>
+        <v>0.382265</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232591</v>
+        <v>0.230739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.413986</v>
+        <v>0.414517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.546447</v>
+        <v>0.538783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.204277</v>
+        <v>0.203918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.379435</v>
+        <v>0.376946</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229128</v>
+        <v>0.224757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.409837</v>
+        <v>0.408894</v>
       </c>
       <c r="D5" t="n">
-        <v>0.538887</v>
+        <v>0.53373</v>
       </c>
       <c r="E5" t="n">
-        <v>0.199838</v>
+        <v>0.199358</v>
       </c>
       <c r="F5" t="n">
-        <v>0.375468</v>
+        <v>0.372266</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222593</v>
+        <v>0.224953</v>
       </c>
       <c r="C6" t="n">
-        <v>0.403647</v>
+        <v>0.40513</v>
       </c>
       <c r="D6" t="n">
-        <v>0.534027</v>
+        <v>0.529057</v>
       </c>
       <c r="E6" t="n">
-        <v>0.195586</v>
+        <v>0.195569</v>
       </c>
       <c r="F6" t="n">
-        <v>0.373239</v>
+        <v>0.368899</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213764</v>
+        <v>0.220913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.401612</v>
+        <v>0.400289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.688793</v>
+        <v>0.683597</v>
       </c>
       <c r="E7" t="n">
-        <v>0.19289</v>
+        <v>0.193162</v>
       </c>
       <c r="F7" t="n">
-        <v>0.371364</v>
+        <v>0.366538</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21854</v>
+        <v>0.218616</v>
       </c>
       <c r="C8" t="n">
-        <v>0.400068</v>
+        <v>0.397567</v>
       </c>
       <c r="D8" t="n">
-        <v>0.673675</v>
+        <v>0.669153</v>
       </c>
       <c r="E8" t="n">
-        <v>0.193113</v>
+        <v>0.1937</v>
       </c>
       <c r="F8" t="n">
-        <v>0.371753</v>
+        <v>0.367175</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21571</v>
+        <v>0.218212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.400198</v>
+        <v>0.397371</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6605490000000001</v>
+        <v>0.656031</v>
       </c>
       <c r="E9" t="n">
-        <v>0.28426</v>
+        <v>0.2846</v>
       </c>
       <c r="F9" t="n">
-        <v>0.458956</v>
+        <v>0.45366</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.307438</v>
+        <v>0.30522</v>
       </c>
       <c r="C10" t="n">
-        <v>0.487899</v>
+        <v>0.484017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.64852</v>
+        <v>0.644529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.272885</v>
+        <v>0.272948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.448235</v>
+        <v>0.443837</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296271</v>
+        <v>0.298954</v>
       </c>
       <c r="C11" t="n">
-        <v>0.477728</v>
+        <v>0.473739</v>
       </c>
       <c r="D11" t="n">
-        <v>0.637256</v>
+        <v>0.633957</v>
       </c>
       <c r="E11" t="n">
-        <v>0.264474</v>
+        <v>0.264066</v>
       </c>
       <c r="F11" t="n">
-        <v>0.436802</v>
+        <v>0.433848</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.28721</v>
+        <v>0.288444</v>
       </c>
       <c r="C12" t="n">
-        <v>0.467378</v>
+        <v>0.464879</v>
       </c>
       <c r="D12" t="n">
-        <v>0.626745</v>
+        <v>0.6254189999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256357</v>
+        <v>0.255636</v>
       </c>
       <c r="F12" t="n">
-        <v>0.426617</v>
+        <v>0.424922</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.276768</v>
+        <v>0.27957</v>
       </c>
       <c r="C13" t="n">
-        <v>0.456764</v>
+        <v>0.454703</v>
       </c>
       <c r="D13" t="n">
-        <v>0.61841</v>
+        <v>0.617056</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248431</v>
+        <v>0.248339</v>
       </c>
       <c r="F13" t="n">
-        <v>0.417882</v>
+        <v>0.416164</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269834</v>
+        <v>0.270179</v>
       </c>
       <c r="C14" t="n">
-        <v>0.447221</v>
+        <v>0.445121</v>
       </c>
       <c r="D14" t="n">
-        <v>0.610159</v>
+        <v>0.6092</v>
       </c>
       <c r="E14" t="n">
-        <v>0.241313</v>
+        <v>0.240702</v>
       </c>
       <c r="F14" t="n">
-        <v>0.409442</v>
+        <v>0.408055</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263999</v>
+        <v>0.263091</v>
       </c>
       <c r="C15" t="n">
-        <v>0.437288</v>
+        <v>0.437079</v>
       </c>
       <c r="D15" t="n">
-        <v>0.603652</v>
+        <v>0.602153</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234483</v>
+        <v>0.234411</v>
       </c>
       <c r="F15" t="n">
-        <v>0.402437</v>
+        <v>0.401119</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255609</v>
+        <v>0.258538</v>
       </c>
       <c r="C16" t="n">
-        <v>0.430574</v>
+        <v>0.430322</v>
       </c>
       <c r="D16" t="n">
-        <v>0.597028</v>
+        <v>0.595268</v>
       </c>
       <c r="E16" t="n">
-        <v>0.228578</v>
+        <v>0.228468</v>
       </c>
       <c r="F16" t="n">
-        <v>0.397934</v>
+        <v>0.395619</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251757</v>
+        <v>0.248073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.42747</v>
+        <v>0.424324</v>
       </c>
       <c r="D17" t="n">
-        <v>0.590662</v>
+        <v>0.589475</v>
       </c>
       <c r="E17" t="n">
-        <v>0.22233</v>
+        <v>0.222393</v>
       </c>
       <c r="F17" t="n">
-        <v>0.391882</v>
+        <v>0.390143</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242549</v>
+        <v>0.244629</v>
       </c>
       <c r="C18" t="n">
-        <v>0.421791</v>
+        <v>0.418621</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585934</v>
+        <v>0.584392</v>
       </c>
       <c r="E18" t="n">
-        <v>0.218107</v>
+        <v>0.217156</v>
       </c>
       <c r="F18" t="n">
-        <v>0.38779</v>
+        <v>0.386048</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.237973</v>
+        <v>0.237616</v>
       </c>
       <c r="C19" t="n">
-        <v>0.414041</v>
+        <v>0.412762</v>
       </c>
       <c r="D19" t="n">
-        <v>0.581206</v>
+        <v>0.580246</v>
       </c>
       <c r="E19" t="n">
-        <v>0.213174</v>
+        <v>0.213176</v>
       </c>
       <c r="F19" t="n">
-        <v>0.377746</v>
+        <v>0.376491</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23707</v>
+        <v>0.234371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.409205</v>
+        <v>0.40909</v>
       </c>
       <c r="D20" t="n">
-        <v>0.577545</v>
+        <v>0.57598</v>
       </c>
       <c r="E20" t="n">
-        <v>0.210116</v>
+        <v>0.21023</v>
       </c>
       <c r="F20" t="n">
-        <v>0.375445</v>
+        <v>0.374322</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230235</v>
+        <v>0.230158</v>
       </c>
       <c r="C21" t="n">
-        <v>0.405331</v>
+        <v>0.406352</v>
       </c>
       <c r="D21" t="n">
-        <v>0.755197</v>
+        <v>0.751167</v>
       </c>
       <c r="E21" t="n">
-        <v>0.20796</v>
+        <v>0.208047</v>
       </c>
       <c r="F21" t="n">
-        <v>0.374406</v>
+        <v>0.373248</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.230883</v>
+        <v>0.227412</v>
       </c>
       <c r="C22" t="n">
-        <v>0.402094</v>
+        <v>0.403008</v>
       </c>
       <c r="D22" t="n">
-        <v>0.738515</v>
+        <v>0.735884</v>
       </c>
       <c r="E22" t="n">
-        <v>0.208761</v>
+        <v>0.208957</v>
       </c>
       <c r="F22" t="n">
-        <v>0.374473</v>
+        <v>0.373415</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227319</v>
+        <v>0.228515</v>
       </c>
       <c r="C23" t="n">
-        <v>0.401976</v>
+        <v>0.402167</v>
       </c>
       <c r="D23" t="n">
-        <v>0.723618</v>
+        <v>0.721297</v>
       </c>
       <c r="E23" t="n">
-        <v>0.301409</v>
+        <v>0.301791</v>
       </c>
       <c r="F23" t="n">
-        <v>0.463621</v>
+        <v>0.462615</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.31634</v>
+        <v>0.317627</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5045770000000001</v>
+        <v>0.506041</v>
       </c>
       <c r="D24" t="n">
-        <v>0.709715</v>
+        <v>0.708763</v>
       </c>
       <c r="E24" t="n">
-        <v>0.289719</v>
+        <v>0.289586</v>
       </c>
       <c r="F24" t="n">
-        <v>0.453529</v>
+        <v>0.452301</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.304981</v>
+        <v>0.306771</v>
       </c>
       <c r="C25" t="n">
-        <v>0.493426</v>
+        <v>0.495085</v>
       </c>
       <c r="D25" t="n">
-        <v>0.698236</v>
+        <v>0.695428</v>
       </c>
       <c r="E25" t="n">
-        <v>0.280632</v>
+        <v>0.280577</v>
       </c>
       <c r="F25" t="n">
-        <v>0.443623</v>
+        <v>0.441478</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.295044</v>
+        <v>0.29641</v>
       </c>
       <c r="C26" t="n">
-        <v>0.480108</v>
+        <v>0.481351</v>
       </c>
       <c r="D26" t="n">
-        <v>0.687909</v>
+        <v>0.6853050000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.272094</v>
+        <v>0.271275</v>
       </c>
       <c r="F26" t="n">
-        <v>0.434362</v>
+        <v>0.433413</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287007</v>
+        <v>0.285966</v>
       </c>
       <c r="C27" t="n">
-        <v>0.471216</v>
+        <v>0.473055</v>
       </c>
       <c r="D27" t="n">
-        <v>0.677584</v>
+        <v>0.675423</v>
       </c>
       <c r="E27" t="n">
-        <v>0.263549</v>
+        <v>0.263384</v>
       </c>
       <c r="F27" t="n">
-        <v>0.425855</v>
+        <v>0.424508</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279455</v>
+        <v>0.279549</v>
       </c>
       <c r="C28" t="n">
-        <v>0.462805</v>
+        <v>0.461888</v>
       </c>
       <c r="D28" t="n">
-        <v>0.668981</v>
+        <v>0.667019</v>
       </c>
       <c r="E28" t="n">
-        <v>0.255869</v>
+        <v>0.257499</v>
       </c>
       <c r="F28" t="n">
-        <v>0.417007</v>
+        <v>0.415617</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.272896</v>
+        <v>0.270778</v>
       </c>
       <c r="C29" t="n">
-        <v>0.454275</v>
+        <v>0.452479</v>
       </c>
       <c r="D29" t="n">
-        <v>0.661596</v>
+        <v>0.65949</v>
       </c>
       <c r="E29" t="n">
-        <v>0.248414</v>
+        <v>0.248064</v>
       </c>
       <c r="F29" t="n">
-        <v>0.409868</v>
+        <v>0.408503</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264323</v>
+        <v>0.263713</v>
       </c>
       <c r="C30" t="n">
-        <v>0.446528</v>
+        <v>0.446177</v>
       </c>
       <c r="D30" t="n">
-        <v>0.653457</v>
+        <v>0.65112</v>
       </c>
       <c r="E30" t="n">
-        <v>0.241467</v>
+        <v>0.241559</v>
       </c>
       <c r="F30" t="n">
-        <v>0.403524</v>
+        <v>0.402049</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25913</v>
+        <v>0.257756</v>
       </c>
       <c r="C31" t="n">
-        <v>0.437491</v>
+        <v>0.437915</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6466150000000001</v>
+        <v>0.645114</v>
       </c>
       <c r="E31" t="n">
-        <v>0.235484</v>
+        <v>0.236631</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3974</v>
+        <v>0.396273</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249036</v>
+        <v>0.251502</v>
       </c>
       <c r="C32" t="n">
-        <v>0.432636</v>
+        <v>0.43365</v>
       </c>
       <c r="D32" t="n">
-        <v>0.641492</v>
+        <v>0.6398740000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.230075</v>
+        <v>0.229799</v>
       </c>
       <c r="F32" t="n">
-        <v>0.390925</v>
+        <v>0.39054</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243574</v>
+        <v>0.247649</v>
       </c>
       <c r="C33" t="n">
-        <v>0.427281</v>
+        <v>0.426111</v>
       </c>
       <c r="D33" t="n">
-        <v>0.635976</v>
+        <v>0.634732</v>
       </c>
       <c r="E33" t="n">
-        <v>0.225307</v>
+        <v>0.225186</v>
       </c>
       <c r="F33" t="n">
-        <v>0.386121</v>
+        <v>0.386883</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237285</v>
+        <v>0.239089</v>
       </c>
       <c r="C34" t="n">
-        <v>0.420863</v>
+        <v>0.418472</v>
       </c>
       <c r="D34" t="n">
-        <v>0.63132</v>
+        <v>0.630193</v>
       </c>
       <c r="E34" t="n">
-        <v>0.221107</v>
+        <v>0.222039</v>
       </c>
       <c r="F34" t="n">
-        <v>0.384537</v>
+        <v>0.384039</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.233432</v>
+        <v>0.235698</v>
       </c>
       <c r="C35" t="n">
-        <v>0.419607</v>
+        <v>0.415095</v>
       </c>
       <c r="D35" t="n">
-        <v>0.817149</v>
+        <v>0.816226</v>
       </c>
       <c r="E35" t="n">
-        <v>0.218305</v>
+        <v>0.220743</v>
       </c>
       <c r="F35" t="n">
-        <v>0.381571</v>
+        <v>0.381598</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23192</v>
+        <v>0.232096</v>
       </c>
       <c r="C36" t="n">
-        <v>0.414678</v>
+        <v>0.413756</v>
       </c>
       <c r="D36" t="n">
-        <v>0.799785</v>
+        <v>0.799354</v>
       </c>
       <c r="E36" t="n">
-        <v>0.217254</v>
+        <v>0.219739</v>
       </c>
       <c r="F36" t="n">
-        <v>0.38037</v>
+        <v>0.380297</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22995</v>
+        <v>0.230127</v>
       </c>
       <c r="C37" t="n">
-        <v>0.410117</v>
+        <v>0.409253</v>
       </c>
       <c r="D37" t="n">
-        <v>0.782347</v>
+        <v>0.781846</v>
       </c>
       <c r="E37" t="n">
-        <v>0.313268</v>
+        <v>0.31284</v>
       </c>
       <c r="F37" t="n">
-        <v>0.475752</v>
+        <v>0.487196</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320274</v>
+        <v>0.3194</v>
       </c>
       <c r="C38" t="n">
-        <v>0.519281</v>
+        <v>0.515583</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7686770000000001</v>
+        <v>0.767436</v>
       </c>
       <c r="E38" t="n">
-        <v>0.300572</v>
+        <v>0.302101</v>
       </c>
       <c r="F38" t="n">
-        <v>0.465242</v>
+        <v>0.476388</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.307298</v>
+        <v>0.309206</v>
       </c>
       <c r="C39" t="n">
-        <v>0.50818</v>
+        <v>0.506669</v>
       </c>
       <c r="D39" t="n">
-        <v>0.756012</v>
+        <v>0.754117</v>
       </c>
       <c r="E39" t="n">
-        <v>0.29185</v>
+        <v>0.291768</v>
       </c>
       <c r="F39" t="n">
-        <v>0.455182</v>
+        <v>0.465582</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.300499</v>
+        <v>0.301029</v>
       </c>
       <c r="C40" t="n">
-        <v>0.498917</v>
+        <v>0.495382</v>
       </c>
       <c r="D40" t="n">
-        <v>0.742575</v>
+        <v>0.740089</v>
       </c>
       <c r="E40" t="n">
-        <v>0.283523</v>
+        <v>0.283753</v>
       </c>
       <c r="F40" t="n">
-        <v>0.444993</v>
+        <v>0.444886</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.294851</v>
+        <v>0.289203</v>
       </c>
       <c r="C41" t="n">
-        <v>0.487835</v>
+        <v>0.485048</v>
       </c>
       <c r="D41" t="n">
-        <v>0.729758</v>
+        <v>0.728972</v>
       </c>
       <c r="E41" t="n">
-        <v>0.277142</v>
+        <v>0.27414</v>
       </c>
       <c r="F41" t="n">
-        <v>0.435945</v>
+        <v>0.435919</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.285994</v>
+        <v>0.281059</v>
       </c>
       <c r="C42" t="n">
-        <v>0.480064</v>
+        <v>0.476048</v>
       </c>
       <c r="D42" t="n">
-        <v>0.719921</v>
+        <v>0.718502</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2662</v>
+        <v>0.268396</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427746</v>
+        <v>0.426072</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.279394</v>
+        <v>0.272626</v>
       </c>
       <c r="C43" t="n">
-        <v>0.469875</v>
+        <v>0.466875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.710013</v>
+        <v>0.708657</v>
       </c>
       <c r="E43" t="n">
-        <v>0.258888</v>
+        <v>0.260046</v>
       </c>
       <c r="F43" t="n">
-        <v>0.41943</v>
+        <v>0.41786</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.267569</v>
+        <v>0.280001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.462378</v>
+        <v>0.458753</v>
       </c>
       <c r="D44" t="n">
-        <v>0.70219</v>
+        <v>0.700047</v>
       </c>
       <c r="E44" t="n">
-        <v>0.254992</v>
+        <v>0.252708</v>
       </c>
       <c r="F44" t="n">
-        <v>0.41252</v>
+        <v>0.410864</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.263646</v>
+        <v>0.261153</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45074</v>
+        <v>0.452112</v>
       </c>
       <c r="D45" t="n">
-        <v>0.694435</v>
+        <v>0.692705</v>
       </c>
       <c r="E45" t="n">
-        <v>0.248634</v>
+        <v>0.245231</v>
       </c>
       <c r="F45" t="n">
-        <v>0.40594</v>
+        <v>0.404586</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253391</v>
+        <v>0.257072</v>
       </c>
       <c r="C46" t="n">
-        <v>0.44844</v>
+        <v>0.4474</v>
       </c>
       <c r="D46" t="n">
-        <v>0.687549</v>
+        <v>0.685626</v>
       </c>
       <c r="E46" t="n">
-        <v>0.239839</v>
+        <v>0.239252</v>
       </c>
       <c r="F46" t="n">
-        <v>0.399335</v>
+        <v>0.398445</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.257261</v>
+        <v>0.255899</v>
       </c>
       <c r="C47" t="n">
-        <v>0.43927</v>
+        <v>0.436413</v>
       </c>
       <c r="D47" t="n">
-        <v>0.681376</v>
+        <v>0.679538</v>
       </c>
       <c r="E47" t="n">
-        <v>0.238407</v>
+        <v>0.234047</v>
       </c>
       <c r="F47" t="n">
-        <v>0.394796</v>
+        <v>0.393379</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.252384</v>
+        <v>0.242575</v>
       </c>
       <c r="C48" t="n">
-        <v>0.434191</v>
+        <v>0.428135</v>
       </c>
       <c r="D48" t="n">
-        <v>0.676257</v>
+        <v>0.67462</v>
       </c>
       <c r="E48" t="n">
-        <v>0.230591</v>
+        <v>0.232009</v>
       </c>
       <c r="F48" t="n">
-        <v>0.390314</v>
+        <v>0.389572</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.244543</v>
+        <v>0.2408</v>
       </c>
       <c r="C49" t="n">
-        <v>0.42658</v>
+        <v>0.424959</v>
       </c>
       <c r="D49" t="n">
-        <v>0.671511</v>
+        <v>0.669694</v>
       </c>
       <c r="E49" t="n">
-        <v>0.227223</v>
+        <v>0.227508</v>
       </c>
       <c r="F49" t="n">
-        <v>0.38842</v>
+        <v>0.386396</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.243714</v>
+        <v>0.241908</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425386</v>
+        <v>0.422058</v>
       </c>
       <c r="D50" t="n">
-        <v>0.850425</v>
+        <v>0.849325</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225457</v>
+        <v>0.226921</v>
       </c>
       <c r="F50" t="n">
-        <v>0.387327</v>
+        <v>0.385183</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.239799</v>
+        <v>0.237526</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422417</v>
+        <v>0.422164</v>
       </c>
       <c r="D51" t="n">
-        <v>0.83296</v>
+        <v>0.831307</v>
       </c>
       <c r="E51" t="n">
-        <v>0.32769</v>
+        <v>0.325503</v>
       </c>
       <c r="F51" t="n">
-        <v>0.486798</v>
+        <v>0.486094</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.242979</v>
+        <v>0.24053</v>
       </c>
       <c r="C52" t="n">
-        <v>0.422019</v>
+        <v>0.42189</v>
       </c>
       <c r="D52" t="n">
-        <v>0.816004</v>
+        <v>0.814576</v>
       </c>
       <c r="E52" t="n">
-        <v>0.317146</v>
+        <v>0.315582</v>
       </c>
       <c r="F52" t="n">
-        <v>0.477203</v>
+        <v>0.475921</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.322484</v>
+        <v>0.319066</v>
       </c>
       <c r="C53" t="n">
-        <v>0.521127</v>
+        <v>0.52418</v>
       </c>
       <c r="D53" t="n">
-        <v>0.800417</v>
+        <v>0.799225</v>
       </c>
       <c r="E53" t="n">
-        <v>0.309979</v>
+        <v>0.306291</v>
       </c>
       <c r="F53" t="n">
-        <v>0.467616</v>
+        <v>0.466627</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.312921</v>
+        <v>0.316688</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5125459999999999</v>
+        <v>0.5132910000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.786009</v>
+        <v>0.7840549999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.299545</v>
+        <v>0.298426</v>
       </c>
       <c r="F54" t="n">
-        <v>0.45853</v>
+        <v>0.458104</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.304569</v>
+        <v>0.307462</v>
       </c>
       <c r="C55" t="n">
-        <v>0.50308</v>
+        <v>0.5041639999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7732869999999999</v>
+        <v>0.771517</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290951</v>
+        <v>0.289733</v>
       </c>
       <c r="F55" t="n">
-        <v>0.452241</v>
+        <v>0.450121</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.296054</v>
+        <v>0.29887</v>
       </c>
       <c r="C56" t="n">
-        <v>0.495564</v>
+        <v>0.493903</v>
       </c>
       <c r="D56" t="n">
-        <v>0.761253</v>
+        <v>0.759929</v>
       </c>
       <c r="E56" t="n">
-        <v>0.284205</v>
+        <v>0.282323</v>
       </c>
       <c r="F56" t="n">
-        <v>0.442786</v>
+        <v>0.441329</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.289036</v>
+        <v>0.285899</v>
       </c>
       <c r="C57" t="n">
-        <v>0.484657</v>
+        <v>0.486651</v>
       </c>
       <c r="D57" t="n">
-        <v>0.750671</v>
+        <v>0.749153</v>
       </c>
       <c r="E57" t="n">
-        <v>0.275451</v>
+        <v>0.27832</v>
       </c>
       <c r="F57" t="n">
-        <v>0.435589</v>
+        <v>0.433798</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.279457</v>
+        <v>0.280953</v>
       </c>
       <c r="C58" t="n">
-        <v>0.478274</v>
+        <v>0.480169</v>
       </c>
       <c r="D58" t="n">
-        <v>0.740961</v>
+        <v>0.739885</v>
       </c>
       <c r="E58" t="n">
-        <v>0.26854</v>
+        <v>0.26718</v>
       </c>
       <c r="F58" t="n">
-        <v>0.428878</v>
+        <v>0.426735</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.277192</v>
+        <v>0.275892</v>
       </c>
       <c r="C59" t="n">
-        <v>0.471586</v>
+        <v>0.471329</v>
       </c>
       <c r="D59" t="n">
-        <v>0.732311</v>
+        <v>0.730701</v>
       </c>
       <c r="E59" t="n">
-        <v>0.262675</v>
+        <v>0.262979</v>
       </c>
       <c r="F59" t="n">
-        <v>0.422172</v>
+        <v>0.42147</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26825</v>
+        <v>0.268061</v>
       </c>
       <c r="C60" t="n">
-        <v>0.463802</v>
+        <v>0.464928</v>
       </c>
       <c r="D60" t="n">
-        <v>0.724353</v>
+        <v>0.722845</v>
       </c>
       <c r="E60" t="n">
-        <v>0.256566</v>
+        <v>0.256524</v>
       </c>
       <c r="F60" t="n">
-        <v>0.416729</v>
+        <v>0.414531</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26217</v>
+        <v>0.262154</v>
       </c>
       <c r="C61" t="n">
-        <v>0.460628</v>
+        <v>0.458017</v>
       </c>
       <c r="D61" t="n">
-        <v>0.717708</v>
+        <v>0.716336</v>
       </c>
       <c r="E61" t="n">
-        <v>0.252776</v>
+        <v>0.250345</v>
       </c>
       <c r="F61" t="n">
-        <v>0.411798</v>
+        <v>0.409511</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260501</v>
+        <v>0.254507</v>
       </c>
       <c r="C62" t="n">
-        <v>0.455269</v>
+        <v>0.453064</v>
       </c>
       <c r="D62" t="n">
-        <v>0.711692</v>
+        <v>0.710615</v>
       </c>
       <c r="E62" t="n">
-        <v>0.247398</v>
+        <v>0.247236</v>
       </c>
       <c r="F62" t="n">
-        <v>0.408187</v>
+        <v>0.405524</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255279</v>
+        <v>0.255926</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450921</v>
+        <v>0.449452</v>
       </c>
       <c r="D63" t="n">
-        <v>0.706759</v>
+        <v>0.705501</v>
       </c>
       <c r="E63" t="n">
-        <v>0.243767</v>
+        <v>0.243901</v>
       </c>
       <c r="F63" t="n">
-        <v>0.405724</v>
+        <v>0.402991</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.249821</v>
+        <v>0.250173</v>
       </c>
       <c r="C64" t="n">
-        <v>0.447111</v>
+        <v>0.445355</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9115180000000001</v>
+        <v>0.913821</v>
       </c>
       <c r="E64" t="n">
-        <v>0.242607</v>
+        <v>0.241678</v>
       </c>
       <c r="F64" t="n">
-        <v>0.40352</v>
+        <v>0.401125</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249022</v>
+        <v>0.246886</v>
       </c>
       <c r="C65" t="n">
-        <v>0.444861</v>
+        <v>0.443914</v>
       </c>
       <c r="D65" t="n">
-        <v>0.895716</v>
+        <v>0.897787</v>
       </c>
       <c r="E65" t="n">
-        <v>0.242324</v>
+        <v>0.242184</v>
       </c>
       <c r="F65" t="n">
-        <v>0.404043</v>
+        <v>0.402703</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.247821</v>
+        <v>0.246612</v>
       </c>
       <c r="C66" t="n">
-        <v>0.444569</v>
+        <v>0.444611</v>
       </c>
       <c r="D66" t="n">
-        <v>0.877932</v>
+        <v>0.879302</v>
       </c>
       <c r="E66" t="n">
-        <v>0.345417</v>
+        <v>0.342483</v>
       </c>
       <c r="F66" t="n">
-        <v>0.512556</v>
+        <v>0.513548</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387388</v>
+        <v>0.397491</v>
       </c>
       <c r="C67" t="n">
-        <v>0.586708</v>
+        <v>0.5841460000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.86114</v>
+        <v>0.862753</v>
       </c>
       <c r="E67" t="n">
-        <v>0.333498</v>
+        <v>0.331806</v>
       </c>
       <c r="F67" t="n">
-        <v>0.50589</v>
+        <v>0.506826</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.37685</v>
+        <v>0.380767</v>
       </c>
       <c r="C68" t="n">
-        <v>0.579335</v>
+        <v>0.576528</v>
       </c>
       <c r="D68" t="n">
-        <v>0.845939</v>
+        <v>0.8459140000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>0.32359</v>
+        <v>0.32624</v>
       </c>
       <c r="F68" t="n">
-        <v>0.49847</v>
+        <v>0.498706</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.363892</v>
+        <v>0.364827</v>
       </c>
       <c r="C69" t="n">
-        <v>0.573701</v>
+        <v>0.575787</v>
       </c>
       <c r="D69" t="n">
-        <v>0.832353</v>
+        <v>0.833859</v>
       </c>
       <c r="E69" t="n">
-        <v>0.316801</v>
+        <v>0.317936</v>
       </c>
       <c r="F69" t="n">
-        <v>0.491052</v>
+        <v>0.491671</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.357871</v>
+        <v>0.363911</v>
       </c>
       <c r="C70" t="n">
-        <v>0.567418</v>
+        <v>0.568159</v>
       </c>
       <c r="D70" t="n">
-        <v>0.821055</v>
+        <v>0.82337</v>
       </c>
       <c r="E70" t="n">
-        <v>0.309889</v>
+        <v>0.307841</v>
       </c>
       <c r="F70" t="n">
-        <v>0.483299</v>
+        <v>0.484491</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.355099</v>
+        <v>0.354418</v>
       </c>
       <c r="C71" t="n">
-        <v>0.55811</v>
+        <v>0.559819</v>
       </c>
       <c r="D71" t="n">
-        <v>0.811018</v>
+        <v>0.8137259999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.298828</v>
+        <v>0.298339</v>
       </c>
       <c r="F71" t="n">
-        <v>0.475591</v>
+        <v>0.477357</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.349787</v>
+        <v>0.350219</v>
       </c>
       <c r="C72" t="n">
-        <v>0.549975</v>
+        <v>0.55225</v>
       </c>
       <c r="D72" t="n">
-        <v>0.80282</v>
+        <v>0.80562</v>
       </c>
       <c r="E72" t="n">
-        <v>0.292667</v>
+        <v>0.29355</v>
       </c>
       <c r="F72" t="n">
-        <v>0.469734</v>
+        <v>0.470537</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.338847</v>
+        <v>0.35253</v>
       </c>
       <c r="C73" t="n">
-        <v>0.543378</v>
+        <v>0.5448229999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.797735</v>
+        <v>0.799484</v>
       </c>
       <c r="E73" t="n">
-        <v>0.286335</v>
+        <v>0.284877</v>
       </c>
       <c r="F73" t="n">
-        <v>0.463553</v>
+        <v>0.464521</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.337976</v>
+        <v>0.331682</v>
       </c>
       <c r="C74" t="n">
-        <v>0.53712</v>
+        <v>0.53945</v>
       </c>
       <c r="D74" t="n">
-        <v>0.791529</v>
+        <v>0.794421</v>
       </c>
       <c r="E74" t="n">
-        <v>0.279495</v>
+        <v>0.279553</v>
       </c>
       <c r="F74" t="n">
-        <v>0.457917</v>
+        <v>0.459325</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.338317</v>
+        <v>0.333957</v>
       </c>
       <c r="C75" t="n">
-        <v>0.531772</v>
+        <v>0.534202</v>
       </c>
       <c r="D75" t="n">
-        <v>0.789531</v>
+        <v>0.791905</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274693</v>
+        <v>0.277415</v>
       </c>
       <c r="F75" t="n">
-        <v>0.453638</v>
+        <v>0.454752</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.332086</v>
+        <v>0.323549</v>
       </c>
       <c r="C76" t="n">
-        <v>0.527878</v>
+        <v>0.529909</v>
       </c>
       <c r="D76" t="n">
-        <v>0.787234</v>
+        <v>0.789216</v>
       </c>
       <c r="E76" t="n">
-        <v>0.270937</v>
+        <v>0.268911</v>
       </c>
       <c r="F76" t="n">
-        <v>0.44951</v>
+        <v>0.451032</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325266</v>
+        <v>0.313671</v>
       </c>
       <c r="C77" t="n">
-        <v>0.52454</v>
+        <v>0.5266189999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.787237</v>
+        <v>0.789428</v>
       </c>
       <c r="E77" t="n">
-        <v>0.266994</v>
+        <v>0.265186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4471</v>
+        <v>0.448431</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.307751</v>
+        <v>0.317048</v>
       </c>
       <c r="C78" t="n">
-        <v>0.522414</v>
+        <v>0.5233</v>
       </c>
       <c r="D78" t="n">
-        <v>1.24703</v>
+        <v>1.24953</v>
       </c>
       <c r="E78" t="n">
-        <v>0.266912</v>
+        <v>0.265503</v>
       </c>
       <c r="F78" t="n">
-        <v>0.446038</v>
+        <v>0.447037</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.309783</v>
+        <v>0.317977</v>
       </c>
       <c r="C79" t="n">
-        <v>0.522165</v>
+        <v>0.524472</v>
       </c>
       <c r="D79" t="n">
-        <v>1.22833</v>
+        <v>1.2299</v>
       </c>
       <c r="E79" t="n">
-        <v>0.265837</v>
+        <v>0.26376</v>
       </c>
       <c r="F79" t="n">
-        <v>0.447336</v>
+        <v>0.447902</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.312279</v>
+        <v>0.293794</v>
       </c>
       <c r="C80" t="n">
-        <v>0.523355</v>
+        <v>0.5245109999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20603</v>
+        <v>1.20886</v>
       </c>
       <c r="E80" t="n">
-        <v>0.380327</v>
+        <v>0.380051</v>
       </c>
       <c r="F80" t="n">
-        <v>0.736872</v>
+        <v>0.733505</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.415162</v>
+        <v>0.425083</v>
       </c>
       <c r="C81" t="n">
-        <v>0.83765</v>
+        <v>0.842158</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19939</v>
+        <v>1.19249</v>
       </c>
       <c r="E81" t="n">
-        <v>0.382393</v>
+        <v>0.373751</v>
       </c>
       <c r="F81" t="n">
-        <v>0.738603</v>
+        <v>0.735541</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.420096</v>
+        <v>0.418767</v>
       </c>
       <c r="C82" t="n">
-        <v>0.843082</v>
+        <v>0.8475240000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18608</v>
+        <v>1.17781</v>
       </c>
       <c r="E82" t="n">
-        <v>0.371802</v>
+        <v>0.370934</v>
       </c>
       <c r="F82" t="n">
-        <v>0.734367</v>
+        <v>0.732067</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.445533</v>
+        <v>0.419459</v>
       </c>
       <c r="C83" t="n">
-        <v>0.850202</v>
+        <v>0.847469</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17554</v>
+        <v>1.16922</v>
       </c>
       <c r="E83" t="n">
-        <v>0.361305</v>
+        <v>0.359736</v>
       </c>
       <c r="F83" t="n">
-        <v>0.727027</v>
+        <v>0.725387</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.41596</v>
+        <v>0.403839</v>
       </c>
       <c r="C84" t="n">
-        <v>0.842696</v>
+        <v>0.838468</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16774</v>
+        <v>1.16227</v>
       </c>
       <c r="E84" t="n">
-        <v>0.356186</v>
+        <v>0.354491</v>
       </c>
       <c r="F84" t="n">
-        <v>0.716376</v>
+        <v>0.715205</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.397376</v>
+        <v>0.399551</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8280189999999999</v>
+        <v>0.827061</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16137</v>
+        <v>1.15631</v>
       </c>
       <c r="E85" t="n">
-        <v>0.351273</v>
+        <v>0.346615</v>
       </c>
       <c r="F85" t="n">
-        <v>0.704727</v>
+        <v>0.702171</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.390217</v>
+        <v>0.399415</v>
       </c>
       <c r="C86" t="n">
-        <v>0.817728</v>
+        <v>0.817584</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16107</v>
+        <v>1.15351</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3418</v>
+        <v>0.338942</v>
       </c>
       <c r="F86" t="n">
-        <v>0.688968</v>
+        <v>0.6893550000000001</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.388096</v>
+        <v>0.40896</v>
       </c>
       <c r="C87" t="n">
-        <v>0.803743</v>
+        <v>0.804921</v>
       </c>
       <c r="D87" t="n">
-        <v>1.16109</v>
+        <v>1.15389</v>
       </c>
       <c r="E87" t="n">
-        <v>0.334868</v>
+        <v>0.332492</v>
       </c>
       <c r="F87" t="n">
-        <v>0.676804</v>
+        <v>0.675041</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.394993</v>
+        <v>0.397962</v>
       </c>
       <c r="C88" t="n">
-        <v>0.794911</v>
+        <v>0.7914949999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16422</v>
+        <v>1.15965</v>
       </c>
       <c r="E88" t="n">
-        <v>0.331542</v>
+        <v>0.328662</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6654870000000001</v>
+        <v>0.662725</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.402661</v>
+        <v>0.362503</v>
       </c>
       <c r="C89" t="n">
-        <v>0.782378</v>
+        <v>0.781948</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17113</v>
+        <v>1.16751</v>
       </c>
       <c r="E89" t="n">
-        <v>0.320146</v>
+        <v>0.325618</v>
       </c>
       <c r="F89" t="n">
-        <v>0.652949</v>
+        <v>0.651434</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372696</v>
+        <v>0.362901</v>
       </c>
       <c r="C90" t="n">
-        <v>0.770939</v>
+        <v>0.770675</v>
       </c>
       <c r="D90" t="n">
-        <v>1.1784</v>
+        <v>1.17415</v>
       </c>
       <c r="E90" t="n">
-        <v>0.319887</v>
+        <v>0.317198</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6423680000000001</v>
+        <v>0.641477</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.367537</v>
+        <v>0.394409</v>
       </c>
       <c r="C91" t="n">
-        <v>0.765567</v>
+        <v>0.763602</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19394</v>
+        <v>1.18925</v>
       </c>
       <c r="E91" t="n">
-        <v>0.312608</v>
+        <v>0.310987</v>
       </c>
       <c r="F91" t="n">
-        <v>0.631825</v>
+        <v>0.631366</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.378941</v>
+        <v>0.388353</v>
       </c>
       <c r="C92" t="n">
-        <v>0.755872</v>
+        <v>0.752054</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75854</v>
+        <v>1.75655</v>
       </c>
       <c r="E92" t="n">
-        <v>0.308534</v>
+        <v>0.307835</v>
       </c>
       <c r="F92" t="n">
-        <v>0.625315</v>
+        <v>0.624105</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.378756</v>
+        <v>0.37597</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7487510000000001</v>
+        <v>0.747614</v>
       </c>
       <c r="D93" t="n">
-        <v>1.75462</v>
+        <v>1.7497</v>
       </c>
       <c r="E93" t="n">
-        <v>0.304236</v>
+        <v>0.306768</v>
       </c>
       <c r="F93" t="n">
-        <v>0.621574</v>
+        <v>0.619532</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.369283</v>
+        <v>0.36541</v>
       </c>
       <c r="C94" t="n">
-        <v>0.745673</v>
+        <v>0.742788</v>
       </c>
       <c r="D94" t="n">
-        <v>1.74143</v>
+        <v>1.73511</v>
       </c>
       <c r="E94" t="n">
-        <v>0.509853</v>
+        <v>0.496167</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12328</v>
+        <v>1.11037</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.565918</v>
+        <v>0.550762</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14848</v>
+        <v>1.15031</v>
       </c>
       <c r="D95" t="n">
-        <v>1.72686</v>
+        <v>1.72487</v>
       </c>
       <c r="E95" t="n">
-        <v>0.499495</v>
+        <v>0.493126</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11873</v>
+        <v>1.10719</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.558954</v>
+        <v>0.525908</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14796</v>
+        <v>1.15184</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71478</v>
+        <v>1.71629</v>
       </c>
       <c r="E96" t="n">
-        <v>0.488781</v>
+        <v>0.48163</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10472</v>
+        <v>1.09378</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.54642</v>
+        <v>0.536563</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14317</v>
+        <v>1.14173</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70694</v>
+        <v>1.70756</v>
       </c>
       <c r="E97" t="n">
-        <v>0.479262</v>
+        <v>0.469856</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08812</v>
+        <v>1.07973</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.545038</v>
+        <v>0.530967</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13648</v>
+        <v>1.13147</v>
       </c>
       <c r="D98" t="n">
-        <v>1.69752</v>
+        <v>1.70129</v>
       </c>
       <c r="E98" t="n">
-        <v>0.467813</v>
+        <v>0.459332</v>
       </c>
       <c r="F98" t="n">
-        <v>1.07071</v>
+        <v>1.06017</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.522089</v>
+        <v>0.521325</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1232</v>
+        <v>1.12579</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69613</v>
+        <v>1.70137</v>
       </c>
       <c r="E99" t="n">
-        <v>0.456576</v>
+        <v>0.449377</v>
       </c>
       <c r="F99" t="n">
-        <v>1.05078</v>
+        <v>1.04487</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.523865</v>
+        <v>0.517715</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10326</v>
+        <v>1.11013</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69617</v>
+        <v>1.69999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.446735</v>
+        <v>0.43962</v>
       </c>
       <c r="F100" t="n">
-        <v>1.02568</v>
+        <v>1.02701</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.507409</v>
+        <v>0.5037970000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09274</v>
+        <v>1.09431</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70532</v>
+        <v>1.70403</v>
       </c>
       <c r="E101" t="n">
-        <v>0.436063</v>
+        <v>0.430971</v>
       </c>
       <c r="F101" t="n">
-        <v>1.01768</v>
+        <v>1.01152</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.504059</v>
+        <v>0.481978</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08652</v>
+        <v>1.08612</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71292</v>
+        <v>1.71109</v>
       </c>
       <c r="E102" t="n">
-        <v>0.427133</v>
+        <v>0.422459</v>
       </c>
       <c r="F102" t="n">
-        <v>1.00397</v>
+        <v>0.995974</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.480787</v>
+        <v>0.489072</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07297</v>
+        <v>1.06325</v>
       </c>
       <c r="D103" t="n">
-        <v>1.7197</v>
+        <v>1.71947</v>
       </c>
       <c r="E103" t="n">
-        <v>0.420407</v>
+        <v>0.414464</v>
       </c>
       <c r="F103" t="n">
-        <v>0.988237</v>
+        <v>0.981318</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473427</v>
+        <v>0.4737</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05076</v>
+        <v>1.04958</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72812</v>
+        <v>1.73141</v>
       </c>
       <c r="E104" t="n">
-        <v>0.41431</v>
+        <v>0.40621</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9767</v>
+        <v>0.966626</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.476074</v>
+        <v>0.478848</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03934</v>
+        <v>1.03418</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74624</v>
+        <v>1.74194</v>
       </c>
       <c r="E105" t="n">
-        <v>0.406575</v>
+        <v>0.401977</v>
       </c>
       <c r="F105" t="n">
-        <v>0.962854</v>
+        <v>0.953908</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.476232</v>
+        <v>0.460979</v>
       </c>
       <c r="C106" t="n">
-        <v>1.0263</v>
+        <v>1.02998</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76237</v>
+        <v>1.75985</v>
       </c>
       <c r="E106" t="n">
-        <v>0.400867</v>
+        <v>0.393969</v>
       </c>
       <c r="F106" t="n">
-        <v>0.934785</v>
+        <v>0.943093</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.465674</v>
+        <v>0.453359</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03722</v>
+        <v>1.03786</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36316</v>
+        <v>2.36582</v>
       </c>
       <c r="E107" t="n">
-        <v>0.354654</v>
+        <v>0.391099</v>
       </c>
       <c r="F107" t="n">
-        <v>0.939879</v>
+        <v>0.927416</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.460274</v>
+        <v>0.449461</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03211</v>
+        <v>1.02473</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33775</v>
+        <v>2.33553</v>
       </c>
       <c r="E108" t="n">
-        <v>0.599945</v>
+        <v>0.543942</v>
       </c>
       <c r="F108" t="n">
-        <v>2.39056</v>
+        <v>2.37995</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.458007</v>
+        <v>0.473095</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02689</v>
+        <v>1.02302</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3159</v>
+        <v>2.31119</v>
       </c>
       <c r="E109" t="n">
-        <v>0.593697</v>
+        <v>0.536629</v>
       </c>
       <c r="F109" t="n">
-        <v>2.38693</v>
+        <v>2.39855</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.672829</v>
+        <v>0.66293</v>
       </c>
       <c r="C110" t="n">
-        <v>2.56546</v>
+        <v>2.58274</v>
       </c>
       <c r="D110" t="n">
-        <v>2.29548</v>
+        <v>2.2912</v>
       </c>
       <c r="E110" t="n">
-        <v>0.581775</v>
+        <v>0.571279</v>
       </c>
       <c r="F110" t="n">
-        <v>2.39779</v>
+        <v>2.4017</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.66694</v>
+        <v>0.600461</v>
       </c>
       <c r="C111" t="n">
-        <v>2.56622</v>
+        <v>2.58233</v>
       </c>
       <c r="D111" t="n">
-        <v>2.29408</v>
+        <v>2.27439</v>
       </c>
       <c r="E111" t="n">
-        <v>0.529646</v>
+        <v>0.517414</v>
       </c>
       <c r="F111" t="n">
-        <v>2.38748</v>
+        <v>2.40401</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.656446</v>
+        <v>0.651125</v>
       </c>
       <c r="C112" t="n">
-        <v>2.57824</v>
+        <v>2.59121</v>
       </c>
       <c r="D112" t="n">
-        <v>2.26346</v>
+        <v>2.26728</v>
       </c>
       <c r="E112" t="n">
-        <v>0.519732</v>
+        <v>0.510008</v>
       </c>
       <c r="F112" t="n">
-        <v>2.39993</v>
+        <v>2.39328</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.626021</v>
+        <v>0.6246119999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57253</v>
+        <v>2.57131</v>
       </c>
       <c r="D113" t="n">
-        <v>2.25822</v>
+        <v>2.25901</v>
       </c>
       <c r="E113" t="n">
-        <v>0.511764</v>
+        <v>0.53707</v>
       </c>
       <c r="F113" t="n">
-        <v>2.40238</v>
+        <v>2.39772</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.624165</v>
+        <v>0.611638</v>
       </c>
       <c r="C114" t="n">
-        <v>2.57272</v>
+        <v>2.5728</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27299</v>
+        <v>2.26459</v>
       </c>
       <c r="E114" t="n">
-        <v>0.538826</v>
+        <v>0.52673</v>
       </c>
       <c r="F114" t="n">
-        <v>2.38676</v>
+        <v>2.39049</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.616267</v>
+        <v>0.6109250000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57028</v>
+        <v>2.57539</v>
       </c>
       <c r="D115" t="n">
-        <v>2.27902</v>
+        <v>2.257</v>
       </c>
       <c r="E115" t="n">
-        <v>0.490476</v>
+        <v>0.517512</v>
       </c>
       <c r="F115" t="n">
-        <v>2.40647</v>
+        <v>2.39465</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.567196</v>
+        <v>0.601148</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56947</v>
+        <v>2.55952</v>
       </c>
       <c r="D116" t="n">
-        <v>2.28589</v>
+        <v>2.25965</v>
       </c>
       <c r="E116" t="n">
-        <v>0.518773</v>
+        <v>0.476894</v>
       </c>
       <c r="F116" t="n">
-        <v>2.40065</v>
+        <v>2.40189</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.59622</v>
+        <v>0.587713</v>
       </c>
       <c r="C117" t="n">
-        <v>2.58268</v>
+        <v>2.59563</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27215</v>
+        <v>2.27508</v>
       </c>
       <c r="E117" t="n">
-        <v>0.509063</v>
+        <v>0.498398</v>
       </c>
       <c r="F117" t="n">
-        <v>2.40904</v>
+        <v>2.41669</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.584033</v>
+        <v>0.5681079999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>2.58209</v>
+        <v>2.58527</v>
       </c>
       <c r="D118" t="n">
-        <v>2.24351</v>
+        <v>2.23818</v>
       </c>
       <c r="E118" t="n">
-        <v>0.467286</v>
+        <v>0.463417</v>
       </c>
       <c r="F118" t="n">
-        <v>2.21758</v>
+        <v>2.00952</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.568218</v>
+        <v>0.548212</v>
       </c>
       <c r="C119" t="n">
-        <v>2.5783</v>
+        <v>1.37557</v>
       </c>
       <c r="D119" t="n">
-        <v>2.24002</v>
+        <v>2.24417</v>
       </c>
       <c r="E119" t="n">
-        <v>0.460289</v>
+        <v>0.455966</v>
       </c>
       <c r="F119" t="n">
-        <v>2.20111</v>
+        <v>2.22612</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.571978</v>
+        <v>0.56255</v>
       </c>
       <c r="C120" t="n">
-        <v>2.58182</v>
+        <v>2.58459</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24929</v>
+        <v>2.24989</v>
       </c>
       <c r="E120" t="n">
-        <v>0.455715</v>
+        <v>0.449727</v>
       </c>
       <c r="F120" t="n">
-        <v>2.42206</v>
+        <v>2.22603</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.542121</v>
+        <v>0.528686</v>
       </c>
       <c r="C121" t="n">
-        <v>2.37169</v>
+        <v>2.37544</v>
       </c>
       <c r="D121" t="n">
-        <v>2.92336</v>
+        <v>2.92284</v>
       </c>
       <c r="E121" t="n">
-        <v>0.447417</v>
+        <v>0.449267</v>
       </c>
       <c r="F121" t="n">
-        <v>1.17029</v>
+        <v>2.42505</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.556787</v>
+        <v>0.538556</v>
       </c>
       <c r="C122" t="n">
-        <v>2.58986</v>
+        <v>2.5989</v>
       </c>
       <c r="D122" t="n">
-        <v>2.88483</v>
+        <v>2.87789</v>
       </c>
       <c r="E122" t="n">
-        <v>0.448638</v>
+        <v>0.444834</v>
       </c>
       <c r="F122" t="n">
-        <v>2.21428</v>
+        <v>1.5645</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.524224</v>
+        <v>0.546659</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59933</v>
+        <v>2.59369</v>
       </c>
       <c r="D123" t="n">
-        <v>2.84302</v>
+        <v>2.84366</v>
       </c>
       <c r="E123" t="n">
-        <v>0.644103</v>
+        <v>0.640176</v>
       </c>
       <c r="F123" t="n">
-        <v>2.92833</v>
+        <v>2.92436</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.729765</v>
+        <v>0.736913</v>
       </c>
       <c r="C124" t="n">
-        <v>3.17296</v>
+        <v>3.16425</v>
       </c>
       <c r="D124" t="n">
-        <v>2.81156</v>
+        <v>2.80137</v>
       </c>
       <c r="E124" t="n">
-        <v>0.636858</v>
+        <v>0.632192</v>
       </c>
       <c r="F124" t="n">
-        <v>2.92153</v>
+        <v>2.91881</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.735247</v>
+        <v>0.715543</v>
       </c>
       <c r="C125" t="n">
-        <v>3.15675</v>
+        <v>3.15186</v>
       </c>
       <c r="D125" t="n">
-        <v>2.77921</v>
+        <v>2.77386</v>
       </c>
       <c r="E125" t="n">
-        <v>0.629708</v>
+        <v>0.647656</v>
       </c>
       <c r="F125" t="n">
-        <v>2.90577</v>
+        <v>2.90449</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.708924</v>
+        <v>0.708432</v>
       </c>
       <c r="C126" t="n">
-        <v>3.13853</v>
+        <v>3.15022</v>
       </c>
       <c r="D126" t="n">
-        <v>2.75079</v>
+        <v>2.7443</v>
       </c>
       <c r="E126" t="n">
-        <v>0.625498</v>
+        <v>0.640049</v>
       </c>
       <c r="F126" t="n">
-        <v>2.9053</v>
+        <v>2.88976</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.691699</v>
+        <v>0.710164</v>
       </c>
       <c r="C127" t="n">
-        <v>3.10741</v>
+        <v>3.10753</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72328</v>
+        <v>2.71575</v>
       </c>
       <c r="E127" t="n">
-        <v>0.618581</v>
+        <v>0.632378</v>
       </c>
       <c r="F127" t="n">
-        <v>2.89885</v>
+        <v>2.89269</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.698068</v>
+        <v>0.681045</v>
       </c>
       <c r="C128" t="n">
-        <v>3.12086</v>
+        <v>3.11475</v>
       </c>
       <c r="D128" t="n">
-        <v>2.70293</v>
+        <v>2.69783</v>
       </c>
       <c r="E128" t="n">
-        <v>0.612517</v>
+        <v>0.607288</v>
       </c>
       <c r="F128" t="n">
-        <v>2.89378</v>
+        <v>2.89471</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.669523</v>
+        <v>0.6759849999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>3.1085</v>
+        <v>3.11029</v>
       </c>
       <c r="D129" t="n">
-        <v>2.68665</v>
+        <v>2.6816</v>
       </c>
       <c r="E129" t="n">
-        <v>0.607897</v>
+        <v>0.602585</v>
       </c>
       <c r="F129" t="n">
-        <v>2.88028</v>
+        <v>2.88073</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.670142</v>
+        <v>0.674277</v>
       </c>
       <c r="C130" t="n">
-        <v>3.08862</v>
+        <v>3.09489</v>
       </c>
       <c r="D130" t="n">
-        <v>2.66666</v>
+        <v>2.66281</v>
       </c>
       <c r="E130" t="n">
-        <v>0.601921</v>
+        <v>0.597212</v>
       </c>
       <c r="F130" t="n">
-        <v>2.8731</v>
+        <v>2.87381</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.662543</v>
+        <v>0.669205</v>
       </c>
       <c r="C131" t="n">
-        <v>3.08877</v>
+        <v>3.09713</v>
       </c>
       <c r="D131" t="n">
-        <v>2.65847</v>
+        <v>2.65822</v>
       </c>
       <c r="E131" t="n">
-        <v>0.597289</v>
+        <v>0.593927</v>
       </c>
       <c r="F131" t="n">
-        <v>2.87096</v>
+        <v>2.8778</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.651206</v>
+        <v>0.651516</v>
       </c>
       <c r="C132" t="n">
-        <v>3.07391</v>
+        <v>3.08268</v>
       </c>
       <c r="D132" t="n">
-        <v>2.65202</v>
+        <v>2.64154</v>
       </c>
       <c r="E132" t="n">
-        <v>0.59273</v>
+        <v>0.590352</v>
       </c>
       <c r="F132" t="n">
-        <v>2.87966</v>
+        <v>2.8732</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.644474</v>
+        <v>0.639172</v>
       </c>
       <c r="C133" t="n">
-        <v>3.07471</v>
+        <v>3.06933</v>
       </c>
       <c r="D133" t="n">
-        <v>2.64981</v>
+        <v>2.61574</v>
       </c>
       <c r="E133" t="n">
-        <v>0.586938</v>
+        <v>0.554648</v>
       </c>
       <c r="F133" t="n">
-        <v>2.87577</v>
+        <v>2.87816</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.643253</v>
+        <v>0.6388819999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>3.07079</v>
+        <v>3.09087</v>
       </c>
       <c r="D134" t="n">
-        <v>2.62507</v>
+        <v>2.61933</v>
       </c>
       <c r="E134" t="n">
-        <v>0.556708</v>
+        <v>0.555108</v>
       </c>
       <c r="F134" t="n">
-        <v>2.41669</v>
+        <v>2.86813</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.634704</v>
+        <v>0.636597</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06075</v>
+        <v>3.0616</v>
       </c>
       <c r="D135" t="n">
-        <v>3.32457</v>
+        <v>3.32807</v>
       </c>
       <c r="E135" t="n">
-        <v>0.580561</v>
+        <v>0.553206</v>
       </c>
       <c r="F135" t="n">
-        <v>2.8717</v>
+        <v>2.86775</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.62237</v>
+        <v>0.641042</v>
       </c>
       <c r="C136" t="n">
-        <v>3.05809</v>
+        <v>3.06146</v>
       </c>
       <c r="D136" t="n">
-        <v>3.2729</v>
+        <v>3.26056</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5502089999999999</v>
+        <v>0.547365</v>
       </c>
       <c r="F136" t="n">
-        <v>2.87687</v>
+        <v>2.63495</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.640455</v>
+        <v>0.639057</v>
       </c>
       <c r="C137" t="n">
-        <v>3.06707</v>
+        <v>3.06022</v>
       </c>
       <c r="D137" t="n">
-        <v>3.21758</v>
+        <v>3.21677</v>
       </c>
       <c r="E137" t="n">
-        <v>0.74622</v>
+        <v>0.743824</v>
       </c>
       <c r="F137" t="n">
-        <v>3.37794</v>
+        <v>3.36939</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.826276</v>
+        <v>0.819262</v>
       </c>
       <c r="C138" t="n">
-        <v>3.59305</v>
+        <v>3.63334</v>
       </c>
       <c r="D138" t="n">
-        <v>3.17274</v>
+        <v>3.16741</v>
       </c>
       <c r="E138" t="n">
-        <v>0.743237</v>
+        <v>0.7402570000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>3.34988</v>
+        <v>3.35428</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.805902</v>
+        <v>0.77604</v>
       </c>
       <c r="C139" t="n">
-        <v>3.58186</v>
+        <v>3.59473</v>
       </c>
       <c r="D139" t="n">
-        <v>3.13333</v>
+        <v>3.12455</v>
       </c>
       <c r="E139" t="n">
-        <v>0.737961</v>
+        <v>0.758565</v>
       </c>
       <c r="F139" t="n">
-        <v>3.34005</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8067220000000001</v>
+        <v>0.805893</v>
       </c>
       <c r="C140" t="n">
-        <v>3.55033</v>
+        <v>3.54667</v>
       </c>
       <c r="D140" t="n">
-        <v>3.09506</v>
+        <v>3.09366</v>
       </c>
       <c r="E140" t="n">
-        <v>0.736221</v>
+        <v>0.733518</v>
       </c>
       <c r="F140" t="n">
-        <v>3.32094</v>
+        <v>3.31627</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.785816</v>
+        <v>0.784162</v>
       </c>
       <c r="C141" t="n">
-        <v>3.52901</v>
+        <v>3.52459</v>
       </c>
       <c r="D141" t="n">
-        <v>3.05502</v>
+        <v>3.05287</v>
       </c>
       <c r="E141" t="n">
-        <v>0.731922</v>
+        <v>0.731307</v>
       </c>
       <c r="F141" t="n">
-        <v>3.29847</v>
+        <v>3.29869</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.784005</v>
+        <v>0.777052</v>
       </c>
       <c r="C142" t="n">
-        <v>3.50334</v>
+        <v>3.51156</v>
       </c>
       <c r="D142" t="n">
-        <v>3.04256</v>
+        <v>3.04073</v>
       </c>
       <c r="E142" t="n">
-        <v>0.731843</v>
+        <v>0.728587</v>
       </c>
       <c r="F142" t="n">
-        <v>3.28245</v>
+        <v>3.28042</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.784492</v>
+        <v>0.781382</v>
       </c>
       <c r="C143" t="n">
-        <v>3.48471</v>
+        <v>3.48703</v>
       </c>
       <c r="D143" t="n">
-        <v>3.02008</v>
+        <v>3.01208</v>
       </c>
       <c r="E143" t="n">
-        <v>0.730453</v>
+        <v>0.7261649999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>3.26644</v>
+        <v>3.26321</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245175</v>
+        <v>0.244307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.42453</v>
+        <v>0.426168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55907</v>
+        <v>0.560855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21472</v>
+        <v>0.215214</v>
       </c>
       <c r="F2" t="n">
-        <v>0.388544</v>
+        <v>0.389053</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240062</v>
+        <v>0.235359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417647</v>
+        <v>0.416528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549834</v>
+        <v>0.5502089999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209123</v>
+        <v>0.209448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.381755</v>
+        <v>0.384192</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.231349</v>
+        <v>0.233038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410726</v>
+        <v>0.41326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.544836</v>
+        <v>0.542891</v>
       </c>
       <c r="E4" t="n">
-        <v>0.204008</v>
+        <v>0.205061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.377161</v>
+        <v>0.37832</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229764</v>
+        <v>0.226451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.405032</v>
+        <v>0.408289</v>
       </c>
       <c r="D5" t="n">
-        <v>0.536872</v>
+        <v>0.535442</v>
       </c>
       <c r="E5" t="n">
-        <v>0.200033</v>
+        <v>0.199564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.372957</v>
+        <v>0.373577</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222476</v>
+        <v>0.222764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.400127</v>
+        <v>0.402719</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530807</v>
+        <v>0.530349</v>
       </c>
       <c r="E6" t="n">
-        <v>0.196696</v>
+        <v>0.195339</v>
       </c>
       <c r="F6" t="n">
-        <v>0.369953</v>
+        <v>0.373118</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220253</v>
+        <v>0.215221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.397454</v>
+        <v>0.399636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.681202</v>
+        <v>0.685423</v>
       </c>
       <c r="E7" t="n">
-        <v>0.193581</v>
+        <v>0.193675</v>
       </c>
       <c r="F7" t="n">
-        <v>0.368114</v>
+        <v>0.371595</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214687</v>
+        <v>0.214066</v>
       </c>
       <c r="C8" t="n">
-        <v>0.395533</v>
+        <v>0.398045</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666589</v>
+        <v>0.671631</v>
       </c>
       <c r="E8" t="n">
-        <v>0.19484</v>
+        <v>0.194586</v>
       </c>
       <c r="F8" t="n">
-        <v>0.368347</v>
+        <v>0.369447</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21814</v>
+        <v>0.22204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3948</v>
+        <v>0.398998</v>
       </c>
       <c r="D9" t="n">
-        <v>0.653531</v>
+        <v>0.660149</v>
       </c>
       <c r="E9" t="n">
-        <v>0.28443</v>
+        <v>0.284182</v>
       </c>
       <c r="F9" t="n">
-        <v>0.454963</v>
+        <v>0.459691</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30931</v>
+        <v>0.314483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.48491</v>
+        <v>0.486106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.642195</v>
+        <v>0.646586</v>
       </c>
       <c r="E10" t="n">
-        <v>0.272612</v>
+        <v>0.273291</v>
       </c>
       <c r="F10" t="n">
-        <v>0.443722</v>
+        <v>0.448953</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298394</v>
+        <v>0.300188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.474659</v>
+        <v>0.475593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.630284</v>
+        <v>0.635562</v>
       </c>
       <c r="E11" t="n">
-        <v>0.265921</v>
+        <v>0.266316</v>
       </c>
       <c r="F11" t="n">
-        <v>0.432818</v>
+        <v>0.435146</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.291028</v>
+        <v>0.288671</v>
       </c>
       <c r="C12" t="n">
-        <v>0.464663</v>
+        <v>0.464851</v>
       </c>
       <c r="D12" t="n">
-        <v>0.622123</v>
+        <v>0.624854</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256107</v>
+        <v>0.258314</v>
       </c>
       <c r="F12" t="n">
-        <v>0.423476</v>
+        <v>0.426905</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283141</v>
+        <v>0.27956</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454924</v>
+        <v>0.455621</v>
       </c>
       <c r="D13" t="n">
-        <v>0.613529</v>
+        <v>0.616129</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248982</v>
+        <v>0.248766</v>
       </c>
       <c r="F13" t="n">
-        <v>0.415583</v>
+        <v>0.417533</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269375</v>
+        <v>0.272613</v>
       </c>
       <c r="C14" t="n">
-        <v>0.444036</v>
+        <v>0.445752</v>
       </c>
       <c r="D14" t="n">
-        <v>0.605178</v>
+        <v>0.608781</v>
       </c>
       <c r="E14" t="n">
-        <v>0.241268</v>
+        <v>0.24344</v>
       </c>
       <c r="F14" t="n">
-        <v>0.407403</v>
+        <v>0.408707</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263339</v>
+        <v>0.263836</v>
       </c>
       <c r="C15" t="n">
-        <v>0.43682</v>
+        <v>0.438515</v>
       </c>
       <c r="D15" t="n">
-        <v>0.597785</v>
+        <v>0.601044</v>
       </c>
       <c r="E15" t="n">
-        <v>0.235675</v>
+        <v>0.234833</v>
       </c>
       <c r="F15" t="n">
-        <v>0.399401</v>
+        <v>0.402212</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25876</v>
+        <v>0.258122</v>
       </c>
       <c r="C16" t="n">
-        <v>0.429131</v>
+        <v>0.431201</v>
       </c>
       <c r="D16" t="n">
-        <v>0.591355</v>
+        <v>0.5954390000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.227902</v>
+        <v>0.229938</v>
       </c>
       <c r="F16" t="n">
-        <v>0.392574</v>
+        <v>0.396604</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250434</v>
+        <v>0.248467</v>
       </c>
       <c r="C17" t="n">
-        <v>0.422772</v>
+        <v>0.426752</v>
       </c>
       <c r="D17" t="n">
-        <v>0.585974</v>
+        <v>0.589359</v>
       </c>
       <c r="E17" t="n">
-        <v>0.222836</v>
+        <v>0.224545</v>
       </c>
       <c r="F17" t="n">
-        <v>0.386199</v>
+        <v>0.390899</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242021</v>
+        <v>0.244989</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416586</v>
+        <v>0.423208</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5823159999999999</v>
+        <v>0.585025</v>
       </c>
       <c r="E18" t="n">
-        <v>0.219685</v>
+        <v>0.21759</v>
       </c>
       <c r="F18" t="n">
-        <v>0.381124</v>
+        <v>0.38688</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238054</v>
+        <v>0.240279</v>
       </c>
       <c r="C19" t="n">
-        <v>0.410913</v>
+        <v>0.413611</v>
       </c>
       <c r="D19" t="n">
-        <v>0.578539</v>
+        <v>0.579871</v>
       </c>
       <c r="E19" t="n">
-        <v>0.214997</v>
+        <v>0.214654</v>
       </c>
       <c r="F19" t="n">
-        <v>0.375231</v>
+        <v>0.37746</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233806</v>
+        <v>0.235407</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40647</v>
+        <v>0.409363</v>
       </c>
       <c r="D20" t="n">
-        <v>0.574008</v>
+        <v>0.575939</v>
       </c>
       <c r="E20" t="n">
-        <v>0.210573</v>
+        <v>0.209457</v>
       </c>
       <c r="F20" t="n">
-        <v>0.372003</v>
+        <v>0.375138</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230477</v>
+        <v>0.230898</v>
       </c>
       <c r="C21" t="n">
-        <v>0.404097</v>
+        <v>0.406314</v>
       </c>
       <c r="D21" t="n">
-        <v>0.749615</v>
+        <v>0.751319</v>
       </c>
       <c r="E21" t="n">
-        <v>0.208979</v>
+        <v>0.208919</v>
       </c>
       <c r="F21" t="n">
-        <v>0.370425</v>
+        <v>0.374765</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224801</v>
+        <v>0.228927</v>
       </c>
       <c r="C22" t="n">
-        <v>0.399385</v>
+        <v>0.403934</v>
       </c>
       <c r="D22" t="n">
-        <v>0.733443</v>
+        <v>0.737545</v>
       </c>
       <c r="E22" t="n">
-        <v>0.216798</v>
+        <v>0.210166</v>
       </c>
       <c r="F22" t="n">
-        <v>0.370281</v>
+        <v>0.37468</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224645</v>
+        <v>0.231865</v>
       </c>
       <c r="C23" t="n">
-        <v>0.398935</v>
+        <v>0.403126</v>
       </c>
       <c r="D23" t="n">
-        <v>0.719312</v>
+        <v>0.722628</v>
       </c>
       <c r="E23" t="n">
-        <v>0.305586</v>
+        <v>0.302643</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461805</v>
+        <v>0.463274</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314696</v>
+        <v>0.311887</v>
       </c>
       <c r="C24" t="n">
-        <v>0.496359</v>
+        <v>0.504856</v>
       </c>
       <c r="D24" t="n">
-        <v>0.706382</v>
+        <v>0.7092540000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.294352</v>
+        <v>0.290187</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451543</v>
+        <v>0.453623</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.309149</v>
+        <v>0.305745</v>
       </c>
       <c r="C25" t="n">
-        <v>0.485901</v>
+        <v>0.49637</v>
       </c>
       <c r="D25" t="n">
-        <v>0.694817</v>
+        <v>0.696406</v>
       </c>
       <c r="E25" t="n">
-        <v>0.280582</v>
+        <v>0.279736</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441012</v>
+        <v>0.443374</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296233</v>
+        <v>0.2967</v>
       </c>
       <c r="C26" t="n">
-        <v>0.475698</v>
+        <v>0.481073</v>
       </c>
       <c r="D26" t="n">
-        <v>0.683402</v>
+        <v>0.685584</v>
       </c>
       <c r="E26" t="n">
-        <v>0.27282</v>
+        <v>0.274297</v>
       </c>
       <c r="F26" t="n">
-        <v>0.431974</v>
+        <v>0.434459</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287037</v>
+        <v>0.287184</v>
       </c>
       <c r="C27" t="n">
-        <v>0.466853</v>
+        <v>0.471928</v>
       </c>
       <c r="D27" t="n">
-        <v>0.673854</v>
+        <v>0.675256</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2645</v>
+        <v>0.2638</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423461</v>
+        <v>0.423758</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279613</v>
+        <v>0.279208</v>
       </c>
       <c r="C28" t="n">
-        <v>0.458248</v>
+        <v>0.463507</v>
       </c>
       <c r="D28" t="n">
-        <v>0.666257</v>
+        <v>0.666173</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25777</v>
+        <v>0.256762</v>
       </c>
       <c r="F28" t="n">
-        <v>0.414627</v>
+        <v>0.415825</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270763</v>
+        <v>0.270119</v>
       </c>
       <c r="C29" t="n">
-        <v>0.449218</v>
+        <v>0.451765</v>
       </c>
       <c r="D29" t="n">
-        <v>0.657301</v>
+        <v>0.657699</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25037</v>
+        <v>0.2489</v>
       </c>
       <c r="F29" t="n">
-        <v>0.406859</v>
+        <v>0.408054</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263187</v>
+        <v>0.262593</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441736</v>
+        <v>0.442869</v>
       </c>
       <c r="D30" t="n">
-        <v>0.650147</v>
+        <v>0.650006</v>
       </c>
       <c r="E30" t="n">
-        <v>0.242691</v>
+        <v>0.241673</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399882</v>
+        <v>0.401749</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255931</v>
+        <v>0.256493</v>
       </c>
       <c r="C31" t="n">
-        <v>0.435566</v>
+        <v>0.43704</v>
       </c>
       <c r="D31" t="n">
-        <v>0.643004</v>
+        <v>0.643364</v>
       </c>
       <c r="E31" t="n">
-        <v>0.235621</v>
+        <v>0.236353</v>
       </c>
       <c r="F31" t="n">
-        <v>0.393341</v>
+        <v>0.39499</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249588</v>
+        <v>0.252422</v>
       </c>
       <c r="C32" t="n">
-        <v>0.427679</v>
+        <v>0.433455</v>
       </c>
       <c r="D32" t="n">
-        <v>0.637005</v>
+        <v>0.637305</v>
       </c>
       <c r="E32" t="n">
-        <v>0.230108</v>
+        <v>0.230967</v>
       </c>
       <c r="F32" t="n">
-        <v>0.387114</v>
+        <v>0.388129</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243967</v>
+        <v>0.245115</v>
       </c>
       <c r="C33" t="n">
-        <v>0.422315</v>
+        <v>0.423507</v>
       </c>
       <c r="D33" t="n">
-        <v>0.631557</v>
+        <v>0.63178</v>
       </c>
       <c r="E33" t="n">
-        <v>0.22514</v>
+        <v>0.225921</v>
       </c>
       <c r="F33" t="n">
-        <v>0.382174</v>
+        <v>0.383795</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.238532</v>
+        <v>0.24108</v>
       </c>
       <c r="C34" t="n">
-        <v>0.416953</v>
+        <v>0.418825</v>
       </c>
       <c r="D34" t="n">
-        <v>0.628375</v>
+        <v>0.6294</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222995</v>
+        <v>0.22133</v>
       </c>
       <c r="F34" t="n">
-        <v>0.378599</v>
+        <v>0.379748</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234141</v>
+        <v>0.235561</v>
       </c>
       <c r="C35" t="n">
-        <v>0.412655</v>
+        <v>0.413934</v>
       </c>
       <c r="D35" t="n">
-        <v>0.81397</v>
+        <v>0.814849</v>
       </c>
       <c r="E35" t="n">
-        <v>0.220346</v>
+        <v>0.220622</v>
       </c>
       <c r="F35" t="n">
-        <v>0.375684</v>
+        <v>0.376875</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231328</v>
+        <v>0.233377</v>
       </c>
       <c r="C36" t="n">
-        <v>0.408547</v>
+        <v>0.409197</v>
       </c>
       <c r="D36" t="n">
-        <v>0.796633</v>
+        <v>0.797181</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219155</v>
+        <v>0.219198</v>
       </c>
       <c r="F36" t="n">
-        <v>0.374818</v>
+        <v>0.376149</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229671</v>
+        <v>0.232009</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40756</v>
+        <v>0.408615</v>
       </c>
       <c r="D37" t="n">
-        <v>0.780243</v>
+        <v>0.7814</v>
       </c>
       <c r="E37" t="n">
-        <v>0.316221</v>
+        <v>0.311935</v>
       </c>
       <c r="F37" t="n">
-        <v>0.471531</v>
+        <v>0.472282</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.31899</v>
+        <v>0.320721</v>
       </c>
       <c r="C38" t="n">
-        <v>0.511303</v>
+        <v>0.513709</v>
       </c>
       <c r="D38" t="n">
-        <v>0.76601</v>
+        <v>0.766669</v>
       </c>
       <c r="E38" t="n">
-        <v>0.300158</v>
+        <v>0.303526</v>
       </c>
       <c r="F38" t="n">
-        <v>0.461278</v>
+        <v>0.462136</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3092</v>
+        <v>0.308525</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501877</v>
+        <v>0.505378</v>
       </c>
       <c r="D39" t="n">
-        <v>0.752814</v>
+        <v>0.753251</v>
       </c>
       <c r="E39" t="n">
-        <v>0.295412</v>
+        <v>0.29522</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451946</v>
+        <v>0.452368</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299897</v>
+        <v>0.299732</v>
       </c>
       <c r="C40" t="n">
-        <v>0.491333</v>
+        <v>0.494266</v>
       </c>
       <c r="D40" t="n">
-        <v>0.739356</v>
+        <v>0.740157</v>
       </c>
       <c r="E40" t="n">
-        <v>0.283945</v>
+        <v>0.283308</v>
       </c>
       <c r="F40" t="n">
-        <v>0.442881</v>
+        <v>0.443434</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.295652</v>
+        <v>0.292423</v>
       </c>
       <c r="C41" t="n">
-        <v>0.480903</v>
+        <v>0.485065</v>
       </c>
       <c r="D41" t="n">
-        <v>0.728044</v>
+        <v>0.7280180000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.280025</v>
+        <v>0.279666</v>
       </c>
       <c r="F41" t="n">
-        <v>0.434489</v>
+        <v>0.434266</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28483</v>
+        <v>0.285275</v>
       </c>
       <c r="C42" t="n">
-        <v>0.472228</v>
+        <v>0.47546</v>
       </c>
       <c r="D42" t="n">
-        <v>0.716734</v>
+        <v>0.717424</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268229</v>
+        <v>0.268035</v>
       </c>
       <c r="F42" t="n">
-        <v>0.42638</v>
+        <v>0.427482</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276086</v>
+        <v>0.280065</v>
       </c>
       <c r="C43" t="n">
-        <v>0.463912</v>
+        <v>0.467641</v>
       </c>
       <c r="D43" t="n">
-        <v>0.708199</v>
+        <v>0.708025</v>
       </c>
       <c r="E43" t="n">
-        <v>0.259972</v>
+        <v>0.260499</v>
       </c>
       <c r="F43" t="n">
-        <v>0.418571</v>
+        <v>0.418592</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280132</v>
+        <v>0.269637</v>
       </c>
       <c r="C44" t="n">
-        <v>0.456518</v>
+        <v>0.459199</v>
       </c>
       <c r="D44" t="n">
-        <v>0.700272</v>
+        <v>0.700202</v>
       </c>
       <c r="E44" t="n">
-        <v>0.252895</v>
+        <v>0.252318</v>
       </c>
       <c r="F44" t="n">
-        <v>0.411042</v>
+        <v>0.4111</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270218</v>
+        <v>0.26204</v>
       </c>
       <c r="C45" t="n">
-        <v>0.448289</v>
+        <v>0.451115</v>
       </c>
       <c r="D45" t="n">
-        <v>0.692089</v>
+        <v>0.692283</v>
       </c>
       <c r="E45" t="n">
-        <v>0.245623</v>
+        <v>0.247344</v>
       </c>
       <c r="F45" t="n">
-        <v>0.404405</v>
+        <v>0.405099</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.269265</v>
+        <v>0.26348</v>
       </c>
       <c r="C46" t="n">
-        <v>0.440952</v>
+        <v>0.444392</v>
       </c>
       <c r="D46" t="n">
-        <v>0.684778</v>
+        <v>0.684817</v>
       </c>
       <c r="E46" t="n">
-        <v>0.243453</v>
+        <v>0.241986</v>
       </c>
       <c r="F46" t="n">
-        <v>0.398141</v>
+        <v>0.399058</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.248788</v>
+        <v>0.24688</v>
       </c>
       <c r="C47" t="n">
-        <v>0.434743</v>
+        <v>0.437646</v>
       </c>
       <c r="D47" t="n">
-        <v>0.678459</v>
+        <v>0.678828</v>
       </c>
       <c r="E47" t="n">
-        <v>0.238625</v>
+        <v>0.235773</v>
       </c>
       <c r="F47" t="n">
-        <v>0.393284</v>
+        <v>0.394232</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.249795</v>
+        <v>0.242884</v>
       </c>
       <c r="C48" t="n">
-        <v>0.428969</v>
+        <v>0.432124</v>
       </c>
       <c r="D48" t="n">
-        <v>0.674721</v>
+        <v>0.674884</v>
       </c>
       <c r="E48" t="n">
-        <v>0.233178</v>
+        <v>0.230383</v>
       </c>
       <c r="F48" t="n">
-        <v>0.389924</v>
+        <v>0.390025</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240393</v>
+        <v>0.242301</v>
       </c>
       <c r="C49" t="n">
-        <v>0.425339</v>
+        <v>0.427996</v>
       </c>
       <c r="D49" t="n">
-        <v>0.669511</v>
+        <v>0.669619</v>
       </c>
       <c r="E49" t="n">
-        <v>0.230659</v>
+        <v>0.228825</v>
       </c>
       <c r="F49" t="n">
-        <v>0.386511</v>
+        <v>0.386917</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234949</v>
+        <v>0.237793</v>
       </c>
       <c r="C50" t="n">
-        <v>0.422414</v>
+        <v>0.422165</v>
       </c>
       <c r="D50" t="n">
-        <v>0.84936</v>
+        <v>0.849754</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225704</v>
+        <v>0.228658</v>
       </c>
       <c r="F50" t="n">
-        <v>0.387374</v>
+        <v>0.385358</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235082</v>
+        <v>0.235221</v>
       </c>
       <c r="C51" t="n">
-        <v>0.420024</v>
+        <v>0.421147</v>
       </c>
       <c r="D51" t="n">
-        <v>0.831278</v>
+        <v>0.831577</v>
       </c>
       <c r="E51" t="n">
-        <v>0.327057</v>
+        <v>0.328656</v>
       </c>
       <c r="F51" t="n">
-        <v>0.485142</v>
+        <v>0.487229</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23697</v>
+        <v>0.238144</v>
       </c>
       <c r="C52" t="n">
-        <v>0.420688</v>
+        <v>0.420811</v>
       </c>
       <c r="D52" t="n">
-        <v>0.814594</v>
+        <v>0.814609</v>
       </c>
       <c r="E52" t="n">
-        <v>0.317174</v>
+        <v>0.317224</v>
       </c>
       <c r="F52" t="n">
-        <v>0.476173</v>
+        <v>0.476032</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.326302</v>
+        <v>0.323384</v>
       </c>
       <c r="C53" t="n">
-        <v>0.519268</v>
+        <v>0.522396</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799222</v>
+        <v>0.79963</v>
       </c>
       <c r="E53" t="n">
-        <v>0.308036</v>
+        <v>0.30888</v>
       </c>
       <c r="F53" t="n">
-        <v>0.467647</v>
+        <v>0.466664</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.316315</v>
+        <v>0.309422</v>
       </c>
       <c r="C54" t="n">
-        <v>0.509099</v>
+        <v>0.511942</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784319</v>
+        <v>0.78486</v>
       </c>
       <c r="E54" t="n">
-        <v>0.299073</v>
+        <v>0.299573</v>
       </c>
       <c r="F54" t="n">
-        <v>0.457324</v>
+        <v>0.45815</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309591</v>
+        <v>0.307838</v>
       </c>
       <c r="C55" t="n">
-        <v>0.50143</v>
+        <v>0.503593</v>
       </c>
       <c r="D55" t="n">
-        <v>0.771723</v>
+        <v>0.772128</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290643</v>
+        <v>0.292431</v>
       </c>
       <c r="F55" t="n">
-        <v>0.450205</v>
+        <v>0.449924</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.299771</v>
+        <v>0.29478</v>
       </c>
       <c r="C56" t="n">
-        <v>0.491948</v>
+        <v>0.493802</v>
       </c>
       <c r="D56" t="n">
-        <v>0.759215</v>
+        <v>0.759683</v>
       </c>
       <c r="E56" t="n">
-        <v>0.283564</v>
+        <v>0.283907</v>
       </c>
       <c r="F56" t="n">
-        <v>0.44266</v>
+        <v>0.441345</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287091</v>
+        <v>0.289597</v>
       </c>
       <c r="C57" t="n">
-        <v>0.484582</v>
+        <v>0.48678</v>
       </c>
       <c r="D57" t="n">
-        <v>0.748979</v>
+        <v>0.749772</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276809</v>
+        <v>0.276029</v>
       </c>
       <c r="F57" t="n">
-        <v>0.434364</v>
+        <v>0.434724</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.281493</v>
+        <v>0.280225</v>
       </c>
       <c r="C58" t="n">
-        <v>0.476291</v>
+        <v>0.478825</v>
       </c>
       <c r="D58" t="n">
-        <v>0.739154</v>
+        <v>0.7396509999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.269804</v>
+        <v>0.268755</v>
       </c>
       <c r="F58" t="n">
-        <v>0.427231</v>
+        <v>0.427609</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27484</v>
+        <v>0.27353</v>
       </c>
       <c r="C59" t="n">
-        <v>0.471206</v>
+        <v>0.472069</v>
       </c>
       <c r="D59" t="n">
-        <v>0.730232</v>
+        <v>0.73064</v>
       </c>
       <c r="E59" t="n">
-        <v>0.263078</v>
+        <v>0.263056</v>
       </c>
       <c r="F59" t="n">
-        <v>0.422597</v>
+        <v>0.422994</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.273311</v>
+        <v>0.266949</v>
       </c>
       <c r="C60" t="n">
-        <v>0.464551</v>
+        <v>0.465537</v>
       </c>
       <c r="D60" t="n">
-        <v>0.722153</v>
+        <v>0.722598</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255986</v>
+        <v>0.256381</v>
       </c>
       <c r="F60" t="n">
-        <v>0.416659</v>
+        <v>0.417423</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263654</v>
+        <v>0.260892</v>
       </c>
       <c r="C61" t="n">
-        <v>0.458377</v>
+        <v>0.459949</v>
       </c>
       <c r="D61" t="n">
-        <v>0.715755</v>
+        <v>0.716294</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253474</v>
+        <v>0.250747</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412332</v>
+        <v>0.411869</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260704</v>
+        <v>0.260465</v>
       </c>
       <c r="C62" t="n">
-        <v>0.45549</v>
+        <v>0.454785</v>
       </c>
       <c r="D62" t="n">
-        <v>0.710122</v>
+        <v>0.710538</v>
       </c>
       <c r="E62" t="n">
-        <v>0.247812</v>
+        <v>0.247477</v>
       </c>
       <c r="F62" t="n">
-        <v>0.408486</v>
+        <v>0.407873</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255798</v>
+        <v>0.251939</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450455</v>
+        <v>0.450463</v>
       </c>
       <c r="D63" t="n">
-        <v>0.705587</v>
+        <v>0.704928</v>
       </c>
       <c r="E63" t="n">
-        <v>0.245842</v>
+        <v>0.243443</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40585</v>
+        <v>0.404506</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251921</v>
+        <v>0.245998</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448122</v>
+        <v>0.447218</v>
       </c>
       <c r="D64" t="n">
-        <v>0.913281</v>
+        <v>0.909164</v>
       </c>
       <c r="E64" t="n">
-        <v>0.241297</v>
+        <v>0.241526</v>
       </c>
       <c r="F64" t="n">
-        <v>0.403859</v>
+        <v>0.403842</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246639</v>
+        <v>0.244942</v>
       </c>
       <c r="C65" t="n">
-        <v>0.444992</v>
+        <v>0.445021</v>
       </c>
       <c r="D65" t="n">
-        <v>0.893745</v>
+        <v>0.890895</v>
       </c>
       <c r="E65" t="n">
-        <v>0.242321</v>
+        <v>0.242298</v>
       </c>
       <c r="F65" t="n">
-        <v>0.404205</v>
+        <v>0.405365</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.248804</v>
+        <v>0.244137</v>
       </c>
       <c r="C66" t="n">
-        <v>0.444676</v>
+        <v>0.444206</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8779940000000001</v>
+        <v>0.872637</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337239</v>
+        <v>0.338903</v>
       </c>
       <c r="F66" t="n">
-        <v>0.51535</v>
+        <v>0.5140749999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388536</v>
+        <v>0.396054</v>
       </c>
       <c r="C67" t="n">
-        <v>0.587094</v>
+        <v>0.581725</v>
       </c>
       <c r="D67" t="n">
-        <v>0.861644</v>
+        <v>0.856113</v>
       </c>
       <c r="E67" t="n">
-        <v>0.330014</v>
+        <v>0.330514</v>
       </c>
       <c r="F67" t="n">
-        <v>0.507109</v>
+        <v>0.5061870000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.376196</v>
+        <v>0.386726</v>
       </c>
       <c r="C68" t="n">
-        <v>0.579186</v>
+        <v>0.5736869999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.84617</v>
+        <v>0.841484</v>
       </c>
       <c r="E68" t="n">
-        <v>0.325247</v>
+        <v>0.327162</v>
       </c>
       <c r="F68" t="n">
-        <v>0.499885</v>
+        <v>0.498704</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.371631</v>
+        <v>0.375105</v>
       </c>
       <c r="C69" t="n">
-        <v>0.577968</v>
+        <v>0.572952</v>
       </c>
       <c r="D69" t="n">
-        <v>0.831949</v>
+        <v>0.8296519999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.317861</v>
+        <v>0.32018</v>
       </c>
       <c r="F69" t="n">
-        <v>0.492846</v>
+        <v>0.491079</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365337</v>
+        <v>0.36449</v>
       </c>
       <c r="C70" t="n">
-        <v>0.57081</v>
+        <v>0.5657180000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.82209</v>
+        <v>0.817919</v>
       </c>
       <c r="E70" t="n">
-        <v>0.310044</v>
+        <v>0.307387</v>
       </c>
       <c r="F70" t="n">
-        <v>0.484817</v>
+        <v>0.483728</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.348856</v>
+        <v>0.352666</v>
       </c>
       <c r="C71" t="n">
-        <v>0.56143</v>
+        <v>0.553655</v>
       </c>
       <c r="D71" t="n">
-        <v>0.812244</v>
+        <v>0.808108</v>
       </c>
       <c r="E71" t="n">
-        <v>0.302104</v>
+        <v>0.303463</v>
       </c>
       <c r="F71" t="n">
-        <v>0.477583</v>
+        <v>0.47579</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.361098</v>
+        <v>0.344297</v>
       </c>
       <c r="C72" t="n">
-        <v>0.551045</v>
+        <v>0.546312</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.799419</v>
       </c>
       <c r="E72" t="n">
-        <v>0.296854</v>
+        <v>0.295983</v>
       </c>
       <c r="F72" t="n">
-        <v>0.471495</v>
+        <v>0.468974</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.341347</v>
+        <v>0.350907</v>
       </c>
       <c r="C73" t="n">
-        <v>0.545121</v>
+        <v>0.54084</v>
       </c>
       <c r="D73" t="n">
-        <v>0.798489</v>
+        <v>0.7922630000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>0.288614</v>
+        <v>0.290064</v>
       </c>
       <c r="F73" t="n">
-        <v>0.465477</v>
+        <v>0.463397</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.327776</v>
+        <v>0.323788</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5415140000000001</v>
+        <v>0.533482</v>
       </c>
       <c r="D74" t="n">
-        <v>0.793441</v>
+        <v>0.787515</v>
       </c>
       <c r="E74" t="n">
-        <v>0.283123</v>
+        <v>0.281871</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4596</v>
+        <v>0.457523</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.331637</v>
+        <v>0.332602</v>
       </c>
       <c r="C75" t="n">
-        <v>0.537648</v>
+        <v>0.5301630000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.790879</v>
+        <v>0.787577</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274156</v>
+        <v>0.274122</v>
       </c>
       <c r="F75" t="n">
-        <v>0.454246</v>
+        <v>0.452995</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.326108</v>
+        <v>0.328553</v>
       </c>
       <c r="C76" t="n">
-        <v>0.53134</v>
+        <v>0.5261940000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7888810000000001</v>
+        <v>0.785982</v>
       </c>
       <c r="E76" t="n">
-        <v>0.270051</v>
+        <v>0.268963</v>
       </c>
       <c r="F76" t="n">
-        <v>0.451016</v>
+        <v>0.448893</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325287</v>
+        <v>0.324411</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526146</v>
+        <v>0.524226</v>
       </c>
       <c r="D77" t="n">
-        <v>0.787906</v>
+        <v>0.785069</v>
       </c>
       <c r="E77" t="n">
-        <v>0.268192</v>
+        <v>0.267412</v>
       </c>
       <c r="F77" t="n">
-        <v>0.448656</v>
+        <v>0.446417</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.305543</v>
+        <v>0.316302</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5248660000000001</v>
+        <v>0.521841</v>
       </c>
       <c r="D78" t="n">
-        <v>1.2496</v>
+        <v>1.24622</v>
       </c>
       <c r="E78" t="n">
-        <v>0.263377</v>
+        <v>0.266296</v>
       </c>
       <c r="F78" t="n">
-        <v>0.447342</v>
+        <v>0.445551</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.313051</v>
+        <v>0.308102</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5234760000000001</v>
+        <v>0.519766</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2295</v>
+        <v>1.22522</v>
       </c>
       <c r="E79" t="n">
-        <v>0.263809</v>
+        <v>0.265118</v>
       </c>
       <c r="F79" t="n">
-        <v>0.448691</v>
+        <v>0.446372</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302931</v>
+        <v>0.296701</v>
       </c>
       <c r="C80" t="n">
-        <v>0.526366</v>
+        <v>0.5208429999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20988</v>
+        <v>1.20662</v>
       </c>
       <c r="E80" t="n">
-        <v>0.383662</v>
+        <v>0.38622</v>
       </c>
       <c r="F80" t="n">
-        <v>0.734343</v>
+        <v>0.732147</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.429842</v>
+        <v>0.472481</v>
       </c>
       <c r="C81" t="n">
-        <v>0.838235</v>
+        <v>0.831624</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19471</v>
+        <v>1.18955</v>
       </c>
       <c r="E81" t="n">
-        <v>0.38156</v>
+        <v>0.375318</v>
       </c>
       <c r="F81" t="n">
-        <v>0.738199</v>
+        <v>0.736752</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.422639</v>
+        <v>0.4053</v>
       </c>
       <c r="C82" t="n">
-        <v>0.840588</v>
+        <v>0.842412</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18146</v>
+        <v>1.18012</v>
       </c>
       <c r="E82" t="n">
-        <v>0.37169</v>
+        <v>0.370632</v>
       </c>
       <c r="F82" t="n">
-        <v>0.734389</v>
+        <v>0.731697</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.428928</v>
+        <v>0.410331</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8512729999999999</v>
+        <v>0.854203</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16981</v>
+        <v>1.1679</v>
       </c>
       <c r="E83" t="n">
-        <v>0.359232</v>
+        <v>0.358962</v>
       </c>
       <c r="F83" t="n">
-        <v>0.726146</v>
+        <v>0.724812</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.424439</v>
+        <v>0.403371</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837717</v>
+        <v>0.841293</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16173</v>
+        <v>1.16183</v>
       </c>
       <c r="E84" t="n">
-        <v>0.355294</v>
+        <v>0.357461</v>
       </c>
       <c r="F84" t="n">
-        <v>0.716143</v>
+        <v>0.713589</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.382893</v>
+        <v>0.445239</v>
       </c>
       <c r="C85" t="n">
-        <v>0.828345</v>
+        <v>0.832267</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15813</v>
+        <v>1.15743</v>
       </c>
       <c r="E85" t="n">
-        <v>0.349439</v>
+        <v>0.346487</v>
       </c>
       <c r="F85" t="n">
-        <v>0.704095</v>
+        <v>0.702288</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.393582</v>
+        <v>0.405199</v>
       </c>
       <c r="C86" t="n">
-        <v>0.816613</v>
+        <v>0.81976</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15519</v>
+        <v>1.15681</v>
       </c>
       <c r="E86" t="n">
-        <v>0.344694</v>
+        <v>0.340455</v>
       </c>
       <c r="F86" t="n">
-        <v>0.690448</v>
+        <v>0.690629</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.403557</v>
+        <v>0.405144</v>
       </c>
       <c r="C87" t="n">
-        <v>0.804306</v>
+        <v>0.811072</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15495</v>
+        <v>1.15628</v>
       </c>
       <c r="E87" t="n">
-        <v>0.332008</v>
+        <v>0.334945</v>
       </c>
       <c r="F87" t="n">
-        <v>0.678379</v>
+        <v>0.677451</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.383023</v>
+        <v>0.365055</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7930430000000001</v>
+        <v>0.7948460000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16277</v>
+        <v>1.16163</v>
       </c>
       <c r="E88" t="n">
-        <v>0.329743</v>
+        <v>0.326744</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6644409999999999</v>
+        <v>0.664902</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.40711</v>
+        <v>0.382409</v>
       </c>
       <c r="C89" t="n">
-        <v>0.782895</v>
+        <v>0.779686</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17194</v>
+        <v>1.17064</v>
       </c>
       <c r="E89" t="n">
-        <v>0.320744</v>
+        <v>0.318394</v>
       </c>
       <c r="F89" t="n">
-        <v>0.654448</v>
+        <v>0.653973</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.390023</v>
+        <v>0.371296</v>
       </c>
       <c r="C90" t="n">
-        <v>0.771818</v>
+        <v>0.770992</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17976</v>
+        <v>1.1813</v>
       </c>
       <c r="E90" t="n">
-        <v>0.321623</v>
+        <v>0.31599</v>
       </c>
       <c r="F90" t="n">
-        <v>0.641824</v>
+        <v>0.641644</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.370469</v>
+        <v>0.368655</v>
       </c>
       <c r="C91" t="n">
-        <v>0.763734</v>
+        <v>0.7643760000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19187</v>
+        <v>1.19049</v>
       </c>
       <c r="E91" t="n">
-        <v>0.308445</v>
+        <v>0.310561</v>
       </c>
       <c r="F91" t="n">
-        <v>0.634118</v>
+        <v>0.632866</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.360822</v>
+        <v>0.371115</v>
       </c>
       <c r="C92" t="n">
-        <v>0.755413</v>
+        <v>0.753796</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7585</v>
+        <v>1.76073</v>
       </c>
       <c r="E92" t="n">
-        <v>0.310736</v>
+        <v>0.304856</v>
       </c>
       <c r="F92" t="n">
-        <v>0.626201</v>
+        <v>0.624418</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358194</v>
+        <v>0.35935</v>
       </c>
       <c r="C93" t="n">
-        <v>0.747044</v>
+        <v>0.748816</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74864</v>
+        <v>1.75357</v>
       </c>
       <c r="E93" t="n">
-        <v>0.307404</v>
+        <v>0.307012</v>
       </c>
       <c r="F93" t="n">
-        <v>0.620537</v>
+        <v>0.621125</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387012</v>
+        <v>0.357084</v>
       </c>
       <c r="C94" t="n">
-        <v>0.742736</v>
+        <v>0.743429</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73723</v>
+        <v>1.74026</v>
       </c>
       <c r="E94" t="n">
-        <v>0.506189</v>
+        <v>0.499715</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12175</v>
+        <v>1.11647</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.559604</v>
+        <v>0.5513670000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1505</v>
+        <v>1.14648</v>
       </c>
       <c r="D95" t="n">
-        <v>1.7262</v>
+        <v>1.72541</v>
       </c>
       <c r="E95" t="n">
-        <v>0.499162</v>
+        <v>0.490853</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11716</v>
+        <v>1.1127</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.549825</v>
+        <v>0.535563</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15763</v>
+        <v>1.15549</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71658</v>
+        <v>1.71325</v>
       </c>
       <c r="E96" t="n">
-        <v>0.492053</v>
+        <v>0.479148</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10625</v>
+        <v>1.09833</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.547495</v>
+        <v>0.538087</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1457</v>
+        <v>1.14893</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70665</v>
+        <v>1.70774</v>
       </c>
       <c r="E97" t="n">
-        <v>0.474962</v>
+        <v>0.470926</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08568</v>
+        <v>1.08133</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.547693</v>
+        <v>0.525098</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14567</v>
+        <v>1.13539</v>
       </c>
       <c r="D98" t="n">
-        <v>1.70049</v>
+        <v>1.70012</v>
       </c>
       <c r="E98" t="n">
-        <v>0.465902</v>
+        <v>0.460964</v>
       </c>
       <c r="F98" t="n">
-        <v>1.07022</v>
+        <v>1.06518</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528297</v>
+        <v>0.517032</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12117</v>
+        <v>1.12356</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69613</v>
+        <v>1.69841</v>
       </c>
       <c r="E99" t="n">
-        <v>0.456363</v>
+        <v>0.450449</v>
       </c>
       <c r="F99" t="n">
-        <v>1.05244</v>
+        <v>1.04741</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.505564</v>
+        <v>0.518339</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10204</v>
+        <v>1.10654</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69886</v>
+        <v>1.69791</v>
       </c>
       <c r="E100" t="n">
-        <v>0.444037</v>
+        <v>0.437954</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03522</v>
+        <v>1.03094</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504152</v>
+        <v>0.510837</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09096</v>
+        <v>1.10128</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70613</v>
+        <v>1.70585</v>
       </c>
       <c r="E101" t="n">
-        <v>0.439517</v>
+        <v>0.430837</v>
       </c>
       <c r="F101" t="n">
-        <v>1.01856</v>
+        <v>1.01405</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5005500000000001</v>
+        <v>0.5049400000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08873</v>
+        <v>1.0867</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71315</v>
+        <v>1.71425</v>
       </c>
       <c r="E102" t="n">
-        <v>0.428035</v>
+        <v>0.423875</v>
       </c>
       <c r="F102" t="n">
-        <v>0.99852</v>
+        <v>0.99753</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.487238</v>
+        <v>0.49178</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06794</v>
+        <v>1.05673</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71951</v>
+        <v>1.71952</v>
       </c>
       <c r="E103" t="n">
-        <v>0.419323</v>
+        <v>0.416727</v>
       </c>
       <c r="F103" t="n">
-        <v>0.989603</v>
+        <v>0.984777</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483048</v>
+        <v>0.470536</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0512</v>
+        <v>1.0596</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73245</v>
+        <v>1.73247</v>
       </c>
       <c r="E104" t="n">
-        <v>0.410547</v>
+        <v>0.406399</v>
       </c>
       <c r="F104" t="n">
-        <v>0.97654</v>
+        <v>0.9604549999999999</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.469866</v>
+        <v>0.484091</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04799</v>
+        <v>1.03802</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74251</v>
+        <v>1.74748</v>
       </c>
       <c r="E105" t="n">
-        <v>0.405432</v>
+        <v>0.40348</v>
       </c>
       <c r="F105" t="n">
-        <v>0.962652</v>
+        <v>0.957337</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.469178</v>
+        <v>0.472597</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02364</v>
+        <v>1.03501</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76137</v>
+        <v>1.762</v>
       </c>
       <c r="E106" t="n">
-        <v>0.399306</v>
+        <v>0.3959</v>
       </c>
       <c r="F106" t="n">
-        <v>0.951533</v>
+        <v>0.947182</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.459229</v>
+        <v>0.458395</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03447</v>
+        <v>1.03543</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36258</v>
+        <v>2.36362</v>
       </c>
       <c r="E107" t="n">
-        <v>0.395455</v>
+        <v>0.392496</v>
       </c>
       <c r="F107" t="n">
-        <v>0.941099</v>
+        <v>0.938399</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.459552</v>
+        <v>0.454365</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0277</v>
+        <v>1.02793</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33523</v>
+        <v>2.33808</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5479270000000001</v>
+        <v>0.539015</v>
       </c>
       <c r="F108" t="n">
-        <v>2.39355</v>
+        <v>2.38474</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.472082</v>
+        <v>0.473248</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01994</v>
+        <v>1.0186</v>
       </c>
       <c r="D109" t="n">
-        <v>2.31159</v>
+        <v>2.31506</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546221</v>
+        <v>0.536713</v>
       </c>
       <c r="F109" t="n">
-        <v>2.39319</v>
+        <v>2.39269</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.611839</v>
+        <v>0.669064</v>
       </c>
       <c r="C110" t="n">
-        <v>2.58444</v>
+        <v>2.59033</v>
       </c>
       <c r="D110" t="n">
-        <v>2.29</v>
+        <v>2.28974</v>
       </c>
       <c r="E110" t="n">
-        <v>0.584331</v>
+        <v>0.57278</v>
       </c>
       <c r="F110" t="n">
-        <v>2.39851</v>
+        <v>2.39024</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.653898</v>
+        <v>0.6502019999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>2.5836</v>
+        <v>2.58559</v>
       </c>
       <c r="D111" t="n">
-        <v>2.27307</v>
+        <v>2.27638</v>
       </c>
       <c r="E111" t="n">
-        <v>0.569806</v>
+        <v>0.521075</v>
       </c>
       <c r="F111" t="n">
-        <v>2.40871</v>
+        <v>2.40163</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.657148</v>
+        <v>0.639389</v>
       </c>
       <c r="C112" t="n">
-        <v>2.5897</v>
+        <v>2.59258</v>
       </c>
       <c r="D112" t="n">
-        <v>2.2574</v>
+        <v>2.26289</v>
       </c>
       <c r="E112" t="n">
-        <v>0.558465</v>
+        <v>0.548941</v>
       </c>
       <c r="F112" t="n">
-        <v>2.40337</v>
+        <v>2.38763</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.638897</v>
+        <v>0.61837</v>
       </c>
       <c r="C113" t="n">
-        <v>2.58588</v>
+        <v>2.57118</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26013</v>
+        <v>2.24329</v>
       </c>
       <c r="E113" t="n">
-        <v>0.506613</v>
+        <v>0.538779</v>
       </c>
       <c r="F113" t="n">
-        <v>2.40038</v>
+        <v>2.40505</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.633027</v>
+        <v>0.612336</v>
       </c>
       <c r="C114" t="n">
-        <v>2.58092</v>
+        <v>2.58058</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27314</v>
+        <v>2.26444</v>
       </c>
       <c r="E114" t="n">
-        <v>0.537556</v>
+        <v>0.528647</v>
       </c>
       <c r="F114" t="n">
-        <v>2.39909</v>
+        <v>2.39914</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.61689</v>
+        <v>0.565426</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57117</v>
+        <v>2.57634</v>
       </c>
       <c r="D115" t="n">
-        <v>2.25232</v>
+        <v>2.27083</v>
       </c>
       <c r="E115" t="n">
-        <v>0.48931</v>
+        <v>0.518915</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39437</v>
+        <v>2.4041</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.601812</v>
+        <v>0.5931419999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56476</v>
+        <v>2.57562</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26474</v>
+        <v>2.28274</v>
       </c>
       <c r="E116" t="n">
-        <v>0.516482</v>
+        <v>0.473862</v>
       </c>
       <c r="F116" t="n">
-        <v>2.41038</v>
+        <v>2.4086</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.595133</v>
+        <v>0.592936</v>
       </c>
       <c r="C117" t="n">
-        <v>2.6024</v>
+        <v>2.59165</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27697</v>
+        <v>2.27982</v>
       </c>
       <c r="E117" t="n">
-        <v>0.47468</v>
+        <v>0.500825</v>
       </c>
       <c r="F117" t="n">
-        <v>2.41343</v>
+        <v>2.41379</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.584024</v>
+        <v>0.559636</v>
       </c>
       <c r="C118" t="n">
-        <v>2.58014</v>
+        <v>2.58237</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23498</v>
+        <v>2.2467</v>
       </c>
       <c r="E118" t="n">
-        <v>0.465313</v>
+        <v>0.4636</v>
       </c>
       <c r="F118" t="n">
-        <v>2.21742</v>
+        <v>2.21718</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.564178</v>
+        <v>0.559099</v>
       </c>
       <c r="C119" t="n">
-        <v>2.35829</v>
+        <v>1.37524</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23746</v>
+        <v>2.24668</v>
       </c>
       <c r="E119" t="n">
-        <v>0.458922</v>
+        <v>0.456683</v>
       </c>
       <c r="F119" t="n">
-        <v>1.5921</v>
+        <v>2.41399</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.545559</v>
+        <v>0.551582</v>
       </c>
       <c r="C120" t="n">
-        <v>2.17548</v>
+        <v>2.59344</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24566</v>
+        <v>2.25278</v>
       </c>
       <c r="E120" t="n">
-        <v>0.456274</v>
+        <v>0.450588</v>
       </c>
       <c r="F120" t="n">
-        <v>2.4214</v>
+        <v>2.42011</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.550005</v>
+        <v>0.5161790000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57233</v>
+        <v>2.57896</v>
       </c>
       <c r="D121" t="n">
-        <v>2.932</v>
+        <v>2.92918</v>
       </c>
       <c r="E121" t="n">
-        <v>0.450608</v>
+        <v>0.446096</v>
       </c>
       <c r="F121" t="n">
-        <v>2.21894</v>
+        <v>2.42886</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5288659999999999</v>
+        <v>0.533417</v>
       </c>
       <c r="C122" t="n">
-        <v>2.58287</v>
+        <v>2.59347</v>
       </c>
       <c r="D122" t="n">
-        <v>2.86859</v>
+        <v>2.88481</v>
       </c>
       <c r="E122" t="n">
-        <v>0.448136</v>
+        <v>0.446057</v>
       </c>
       <c r="F122" t="n">
-        <v>2.43351</v>
+        <v>2.42399</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.545967</v>
+        <v>0.5404640000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59722</v>
+        <v>2.59549</v>
       </c>
       <c r="D123" t="n">
-        <v>2.83817</v>
+        <v>2.84491</v>
       </c>
       <c r="E123" t="n">
-        <v>0.649988</v>
+        <v>0.641281</v>
       </c>
       <c r="F123" t="n">
-        <v>2.9338</v>
+        <v>2.93055</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.719647</v>
+        <v>0.710936</v>
       </c>
       <c r="C124" t="n">
-        <v>3.18998</v>
+        <v>3.17853</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80539</v>
+        <v>2.81148</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6415</v>
+        <v>0.63542</v>
       </c>
       <c r="F124" t="n">
-        <v>2.92447</v>
+        <v>2.92262</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7314310000000001</v>
+        <v>0.727714</v>
       </c>
       <c r="C125" t="n">
-        <v>3.15351</v>
+        <v>3.15792</v>
       </c>
       <c r="D125" t="n">
-        <v>2.77095</v>
+        <v>2.784</v>
       </c>
       <c r="E125" t="n">
-        <v>0.633023</v>
+        <v>0.625974</v>
       </c>
       <c r="F125" t="n">
-        <v>2.91406</v>
+        <v>2.9215</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.721208</v>
+        <v>0.708403</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15694</v>
+        <v>3.15856</v>
       </c>
       <c r="D126" t="n">
-        <v>2.74479</v>
+        <v>2.75187</v>
       </c>
       <c r="E126" t="n">
-        <v>0.64856</v>
+        <v>0.620067</v>
       </c>
       <c r="F126" t="n">
-        <v>2.89437</v>
+        <v>2.90219</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70464</v>
+        <v>0.703438</v>
       </c>
       <c r="C127" t="n">
-        <v>3.13599</v>
+        <v>3.11566</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72153</v>
+        <v>2.72796</v>
       </c>
       <c r="E127" t="n">
-        <v>0.620309</v>
+        <v>0.615301</v>
       </c>
       <c r="F127" t="n">
-        <v>2.89935</v>
+        <v>2.89584</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.69008</v>
+        <v>0.690072</v>
       </c>
       <c r="C128" t="n">
-        <v>3.13233</v>
+        <v>3.12587</v>
       </c>
       <c r="D128" t="n">
-        <v>2.6968</v>
+        <v>2.70762</v>
       </c>
       <c r="E128" t="n">
-        <v>0.615121</v>
+        <v>0.628305</v>
       </c>
       <c r="F128" t="n">
-        <v>2.89469</v>
+        <v>2.89543</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.666947</v>
+        <v>0.676396</v>
       </c>
       <c r="C129" t="n">
-        <v>3.1156</v>
+        <v>3.10462</v>
       </c>
       <c r="D129" t="n">
-        <v>2.68703</v>
+        <v>2.68161</v>
       </c>
       <c r="E129" t="n">
-        <v>0.607424</v>
+        <v>0.60275</v>
       </c>
       <c r="F129" t="n">
-        <v>2.8829</v>
+        <v>2.87788</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.675299</v>
+        <v>0.665309</v>
       </c>
       <c r="C130" t="n">
-        <v>3.09692</v>
+        <v>3.09938</v>
       </c>
       <c r="D130" t="n">
-        <v>2.66322</v>
+        <v>2.67383</v>
       </c>
       <c r="E130" t="n">
-        <v>0.602754</v>
+        <v>0.597683</v>
       </c>
       <c r="F130" t="n">
-        <v>2.87715</v>
+        <v>2.87787</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.665104</v>
+        <v>0.65402</v>
       </c>
       <c r="C131" t="n">
-        <v>3.09516</v>
+        <v>3.09506</v>
       </c>
       <c r="D131" t="n">
-        <v>2.65321</v>
+        <v>2.65786</v>
       </c>
       <c r="E131" t="n">
-        <v>0.599266</v>
+        <v>0.595066</v>
       </c>
       <c r="F131" t="n">
-        <v>2.87443</v>
+        <v>2.88101</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.649236</v>
+        <v>0.6620470000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>3.08061</v>
+        <v>3.0829</v>
       </c>
       <c r="D132" t="n">
-        <v>2.64626</v>
+        <v>2.64834</v>
       </c>
       <c r="E132" t="n">
-        <v>0.594787</v>
+        <v>0.590879</v>
       </c>
       <c r="F132" t="n">
-        <v>2.87737</v>
+        <v>2.88094</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.645503</v>
+        <v>0.648869</v>
       </c>
       <c r="C133" t="n">
-        <v>3.07539</v>
+        <v>3.082</v>
       </c>
       <c r="D133" t="n">
-        <v>2.61847</v>
+        <v>2.62546</v>
       </c>
       <c r="E133" t="n">
-        <v>0.588166</v>
+        <v>0.5862309999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>2.87385</v>
+        <v>2.88016</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.629911</v>
+        <v>0.6501400000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>3.06808</v>
+        <v>3.07926</v>
       </c>
       <c r="D134" t="n">
-        <v>2.62421</v>
+        <v>2.62977</v>
       </c>
       <c r="E134" t="n">
-        <v>0.583587</v>
+        <v>0.555341</v>
       </c>
       <c r="F134" t="n">
-        <v>2.87751</v>
+        <v>2.18222</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.627938</v>
+        <v>0.636414</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06328</v>
+        <v>3.06504</v>
       </c>
       <c r="D135" t="n">
-        <v>3.31994</v>
+        <v>3.32872</v>
       </c>
       <c r="E135" t="n">
-        <v>0.55347</v>
+        <v>0.554708</v>
       </c>
       <c r="F135" t="n">
-        <v>2.64381</v>
+        <v>2.86938</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6428160000000001</v>
+        <v>0.6281</v>
       </c>
       <c r="C136" t="n">
-        <v>3.05786</v>
+        <v>3.06855</v>
       </c>
       <c r="D136" t="n">
-        <v>3.2578</v>
+        <v>3.26644</v>
       </c>
       <c r="E136" t="n">
-        <v>0.550251</v>
+        <v>0.55123</v>
       </c>
       <c r="F136" t="n">
-        <v>2.64103</v>
+        <v>2.17027</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6283</v>
+        <v>0.601661</v>
       </c>
       <c r="C137" t="n">
-        <v>3.06474</v>
+        <v>3.07036</v>
       </c>
       <c r="D137" t="n">
-        <v>3.21197</v>
+        <v>3.21695</v>
       </c>
       <c r="E137" t="n">
-        <v>0.746896</v>
+        <v>0.743459</v>
       </c>
       <c r="F137" t="n">
-        <v>3.36489</v>
+        <v>3.37074</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.798544</v>
+        <v>0.8246289999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>3.59543</v>
+        <v>3.59855</v>
       </c>
       <c r="D138" t="n">
-        <v>3.17021</v>
+        <v>3.17899</v>
       </c>
       <c r="E138" t="n">
-        <v>0.741822</v>
+        <v>0.739617</v>
       </c>
       <c r="F138" t="n">
-        <v>3.34291</v>
+        <v>3.35535</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.798191</v>
+        <v>0.813075</v>
       </c>
       <c r="C139" t="n">
-        <v>3.58508</v>
+        <v>3.59619</v>
       </c>
       <c r="D139" t="n">
-        <v>3.11817</v>
+        <v>3.13271</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7406470000000001</v>
+        <v>0.736279</v>
       </c>
       <c r="F139" t="n">
-        <v>3.32975</v>
+        <v>3.33361</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.805258</v>
+        <v>0.774702</v>
       </c>
       <c r="C140" t="n">
-        <v>3.54325</v>
+        <v>3.55617</v>
       </c>
       <c r="D140" t="n">
-        <v>3.08755</v>
+        <v>3.09414</v>
       </c>
       <c r="E140" t="n">
-        <v>0.735548</v>
+        <v>0.7547430000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>3.31403</v>
+        <v>3.31574</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.793497</v>
+        <v>0.796409</v>
       </c>
       <c r="C141" t="n">
-        <v>3.52892</v>
+        <v>3.54017</v>
       </c>
       <c r="D141" t="n">
-        <v>3.05555</v>
+        <v>3.07056</v>
       </c>
       <c r="E141" t="n">
-        <v>0.734172</v>
+        <v>0.731578</v>
       </c>
       <c r="F141" t="n">
-        <v>3.29301</v>
+        <v>3.30164</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.779908</v>
+        <v>0.779737</v>
       </c>
       <c r="C142" t="n">
-        <v>3.50572</v>
+        <v>3.51222</v>
       </c>
       <c r="D142" t="n">
-        <v>3.03757</v>
+        <v>3.03693</v>
       </c>
       <c r="E142" t="n">
-        <v>0.731611</v>
+        <v>0.730334</v>
       </c>
       <c r="F142" t="n">
-        <v>3.27623</v>
+        <v>3.27816</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.776386</v>
+        <v>0.775821</v>
       </c>
       <c r="C143" t="n">
-        <v>3.47995</v>
+        <v>3.4901</v>
       </c>
       <c r="D143" t="n">
-        <v>3.00966</v>
+        <v>3.0032</v>
       </c>
       <c r="E143" t="n">
-        <v>0.748577</v>
+        <v>0.72707</v>
       </c>
       <c r="F143" t="n">
-        <v>3.26229</v>
+        <v>3.26012</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244307</v>
+        <v>0.244835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.426168</v>
+        <v>0.424144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.560855</v>
+        <v>0.555108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.215214</v>
+        <v>0.215365</v>
       </c>
       <c r="F2" t="n">
-        <v>0.389053</v>
+        <v>0.389564</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.235359</v>
+        <v>0.232135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.416528</v>
+        <v>0.416224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5502089999999999</v>
+        <v>0.548045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209448</v>
+        <v>0.208874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.384192</v>
+        <v>0.383225</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233038</v>
+        <v>0.232993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.41326</v>
+        <v>0.411675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.542891</v>
+        <v>0.541485</v>
       </c>
       <c r="E4" t="n">
-        <v>0.205061</v>
+        <v>0.204066</v>
       </c>
       <c r="F4" t="n">
-        <v>0.37832</v>
+        <v>0.377977</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.226451</v>
+        <v>0.22844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.408289</v>
+        <v>0.406064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.535442</v>
+        <v>0.536315</v>
       </c>
       <c r="E5" t="n">
-        <v>0.199564</v>
+        <v>0.199522</v>
       </c>
       <c r="F5" t="n">
-        <v>0.373577</v>
+        <v>0.373645</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222764</v>
+        <v>0.224437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402719</v>
+        <v>0.401413</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530349</v>
+        <v>0.53081</v>
       </c>
       <c r="E6" t="n">
-        <v>0.195339</v>
+        <v>0.196513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.373118</v>
+        <v>0.370692</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.215221</v>
+        <v>0.219681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.399636</v>
+        <v>0.396757</v>
       </c>
       <c r="D7" t="n">
-        <v>0.685423</v>
+        <v>0.68454</v>
       </c>
       <c r="E7" t="n">
-        <v>0.193675</v>
+        <v>0.193408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.371595</v>
+        <v>0.368445</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214066</v>
+        <v>0.216115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398045</v>
+        <v>0.399917</v>
       </c>
       <c r="D8" t="n">
-        <v>0.671631</v>
+        <v>0.67179</v>
       </c>
       <c r="E8" t="n">
-        <v>0.194586</v>
+        <v>0.194248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.369447</v>
+        <v>0.373186</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22204</v>
+        <v>0.218213</v>
       </c>
       <c r="C9" t="n">
-        <v>0.398998</v>
+        <v>0.400142</v>
       </c>
       <c r="D9" t="n">
-        <v>0.660149</v>
+        <v>0.65859</v>
       </c>
       <c r="E9" t="n">
-        <v>0.284182</v>
+        <v>0.284665</v>
       </c>
       <c r="F9" t="n">
-        <v>0.459691</v>
+        <v>0.456578</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314483</v>
+        <v>0.308193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.486106</v>
+        <v>0.487696</v>
       </c>
       <c r="D10" t="n">
-        <v>0.646586</v>
+        <v>0.646639</v>
       </c>
       <c r="E10" t="n">
-        <v>0.273291</v>
+        <v>0.275064</v>
       </c>
       <c r="F10" t="n">
-        <v>0.448953</v>
+        <v>0.445742</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300188</v>
+        <v>0.297505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.475593</v>
+        <v>0.473842</v>
       </c>
       <c r="D11" t="n">
-        <v>0.635562</v>
+        <v>0.635373</v>
       </c>
       <c r="E11" t="n">
-        <v>0.266316</v>
+        <v>0.263958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.435146</v>
+        <v>0.436065</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.288671</v>
+        <v>0.291434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.464851</v>
+        <v>0.467183</v>
       </c>
       <c r="D12" t="n">
-        <v>0.624854</v>
+        <v>0.625468</v>
       </c>
       <c r="E12" t="n">
-        <v>0.258314</v>
+        <v>0.257832</v>
       </c>
       <c r="F12" t="n">
-        <v>0.426905</v>
+        <v>0.425928</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.27956</v>
+        <v>0.279751</v>
       </c>
       <c r="C13" t="n">
-        <v>0.455621</v>
+        <v>0.455703</v>
       </c>
       <c r="D13" t="n">
-        <v>0.616129</v>
+        <v>0.616672</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248766</v>
+        <v>0.250233</v>
       </c>
       <c r="F13" t="n">
-        <v>0.417533</v>
+        <v>0.417837</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272613</v>
+        <v>0.269409</v>
       </c>
       <c r="C14" t="n">
-        <v>0.445752</v>
+        <v>0.446282</v>
       </c>
       <c r="D14" t="n">
-        <v>0.608781</v>
+        <v>0.608901</v>
       </c>
       <c r="E14" t="n">
-        <v>0.24344</v>
+        <v>0.240991</v>
       </c>
       <c r="F14" t="n">
-        <v>0.408707</v>
+        <v>0.409072</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263836</v>
+        <v>0.262112</v>
       </c>
       <c r="C15" t="n">
-        <v>0.438515</v>
+        <v>0.438022</v>
       </c>
       <c r="D15" t="n">
-        <v>0.601044</v>
+        <v>0.602298</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234833</v>
+        <v>0.236014</v>
       </c>
       <c r="F15" t="n">
-        <v>0.402212</v>
+        <v>0.401859</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.258122</v>
+        <v>0.256113</v>
       </c>
       <c r="C16" t="n">
-        <v>0.431201</v>
+        <v>0.431191</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5954390000000001</v>
+        <v>0.595749</v>
       </c>
       <c r="E16" t="n">
-        <v>0.229938</v>
+        <v>0.228433</v>
       </c>
       <c r="F16" t="n">
-        <v>0.396604</v>
+        <v>0.396858</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248467</v>
+        <v>0.246306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.426752</v>
+        <v>0.425727</v>
       </c>
       <c r="D17" t="n">
-        <v>0.589359</v>
+        <v>0.589325</v>
       </c>
       <c r="E17" t="n">
-        <v>0.224545</v>
+        <v>0.222906</v>
       </c>
       <c r="F17" t="n">
-        <v>0.390899</v>
+        <v>0.391395</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244989</v>
+        <v>0.245149</v>
       </c>
       <c r="C18" t="n">
-        <v>0.423208</v>
+        <v>0.420101</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585025</v>
+        <v>0.584405</v>
       </c>
       <c r="E18" t="n">
-        <v>0.21759</v>
+        <v>0.218654</v>
       </c>
       <c r="F18" t="n">
-        <v>0.38688</v>
+        <v>0.384709</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.240279</v>
+        <v>0.24032</v>
       </c>
       <c r="C19" t="n">
-        <v>0.413611</v>
+        <v>0.414669</v>
       </c>
       <c r="D19" t="n">
-        <v>0.579871</v>
+        <v>0.58009</v>
       </c>
       <c r="E19" t="n">
-        <v>0.214654</v>
+        <v>0.213463</v>
       </c>
       <c r="F19" t="n">
-        <v>0.37746</v>
+        <v>0.377947</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.235407</v>
+        <v>0.233995</v>
       </c>
       <c r="C20" t="n">
-        <v>0.409363</v>
+        <v>0.410446</v>
       </c>
       <c r="D20" t="n">
-        <v>0.575939</v>
+        <v>0.575784</v>
       </c>
       <c r="E20" t="n">
-        <v>0.209457</v>
+        <v>0.210319</v>
       </c>
       <c r="F20" t="n">
-        <v>0.375138</v>
+        <v>0.375691</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230898</v>
+        <v>0.229577</v>
       </c>
       <c r="C21" t="n">
-        <v>0.406314</v>
+        <v>0.407399</v>
       </c>
       <c r="D21" t="n">
-        <v>0.751319</v>
+        <v>0.751522</v>
       </c>
       <c r="E21" t="n">
-        <v>0.208919</v>
+        <v>0.209959</v>
       </c>
       <c r="F21" t="n">
-        <v>0.374765</v>
+        <v>0.374157</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.228927</v>
+        <v>0.231784</v>
       </c>
       <c r="C22" t="n">
-        <v>0.403934</v>
+        <v>0.404053</v>
       </c>
       <c r="D22" t="n">
-        <v>0.737545</v>
+        <v>0.737922</v>
       </c>
       <c r="E22" t="n">
-        <v>0.210166</v>
+        <v>0.209473</v>
       </c>
       <c r="F22" t="n">
-        <v>0.37468</v>
+        <v>0.374885</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.231865</v>
+        <v>0.229441</v>
       </c>
       <c r="C23" t="n">
-        <v>0.403126</v>
+        <v>0.40278</v>
       </c>
       <c r="D23" t="n">
-        <v>0.722628</v>
+        <v>0.723872</v>
       </c>
       <c r="E23" t="n">
-        <v>0.302643</v>
+        <v>0.301747</v>
       </c>
       <c r="F23" t="n">
-        <v>0.463274</v>
+        <v>0.463764</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311887</v>
+        <v>0.320412</v>
       </c>
       <c r="C24" t="n">
-        <v>0.504856</v>
+        <v>0.50485</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7092540000000001</v>
+        <v>0.7097059999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.290187</v>
+        <v>0.290196</v>
       </c>
       <c r="F24" t="n">
-        <v>0.453623</v>
+        <v>0.45341</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.305745</v>
+        <v>0.30826</v>
       </c>
       <c r="C25" t="n">
-        <v>0.49637</v>
+        <v>0.494354</v>
       </c>
       <c r="D25" t="n">
-        <v>0.696406</v>
+        <v>0.6976059999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.279736</v>
+        <v>0.281233</v>
       </c>
       <c r="F25" t="n">
-        <v>0.443374</v>
+        <v>0.443764</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2967</v>
+        <v>0.298262</v>
       </c>
       <c r="C26" t="n">
-        <v>0.481073</v>
+        <v>0.482826</v>
       </c>
       <c r="D26" t="n">
-        <v>0.685584</v>
+        <v>0.687345</v>
       </c>
       <c r="E26" t="n">
-        <v>0.274297</v>
+        <v>0.273393</v>
       </c>
       <c r="F26" t="n">
-        <v>0.434459</v>
+        <v>0.43464</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287184</v>
+        <v>0.287988</v>
       </c>
       <c r="C27" t="n">
-        <v>0.471928</v>
+        <v>0.471437</v>
       </c>
       <c r="D27" t="n">
-        <v>0.675256</v>
+        <v>0.677257</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2638</v>
+        <v>0.265245</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423758</v>
+        <v>0.424593</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279208</v>
+        <v>0.278858</v>
       </c>
       <c r="C28" t="n">
-        <v>0.463507</v>
+        <v>0.461728</v>
       </c>
       <c r="D28" t="n">
-        <v>0.666173</v>
+        <v>0.6684059999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.256762</v>
+        <v>0.256847</v>
       </c>
       <c r="F28" t="n">
-        <v>0.415825</v>
+        <v>0.417329</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270119</v>
+        <v>0.274427</v>
       </c>
       <c r="C29" t="n">
-        <v>0.451765</v>
+        <v>0.452686</v>
       </c>
       <c r="D29" t="n">
-        <v>0.657699</v>
+        <v>0.661327</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2489</v>
+        <v>0.249079</v>
       </c>
       <c r="F29" t="n">
-        <v>0.408054</v>
+        <v>0.409816</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262593</v>
+        <v>0.262205</v>
       </c>
       <c r="C30" t="n">
-        <v>0.442869</v>
+        <v>0.444837</v>
       </c>
       <c r="D30" t="n">
-        <v>0.650006</v>
+        <v>0.652941</v>
       </c>
       <c r="E30" t="n">
-        <v>0.241673</v>
+        <v>0.24144</v>
       </c>
       <c r="F30" t="n">
-        <v>0.401749</v>
+        <v>0.403107</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256493</v>
+        <v>0.258113</v>
       </c>
       <c r="C31" t="n">
-        <v>0.43704</v>
+        <v>0.439397</v>
       </c>
       <c r="D31" t="n">
-        <v>0.643364</v>
+        <v>0.646267</v>
       </c>
       <c r="E31" t="n">
-        <v>0.236353</v>
+        <v>0.236145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.39499</v>
+        <v>0.397098</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.252422</v>
+        <v>0.251312</v>
       </c>
       <c r="C32" t="n">
-        <v>0.433455</v>
+        <v>0.433463</v>
       </c>
       <c r="D32" t="n">
-        <v>0.637305</v>
+        <v>0.640869</v>
       </c>
       <c r="E32" t="n">
-        <v>0.230967</v>
+        <v>0.230046</v>
       </c>
       <c r="F32" t="n">
-        <v>0.388129</v>
+        <v>0.392538</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245115</v>
+        <v>0.247265</v>
       </c>
       <c r="C33" t="n">
-        <v>0.423507</v>
+        <v>0.427715</v>
       </c>
       <c r="D33" t="n">
-        <v>0.63178</v>
+        <v>0.635864</v>
       </c>
       <c r="E33" t="n">
-        <v>0.225921</v>
+        <v>0.224823</v>
       </c>
       <c r="F33" t="n">
-        <v>0.383795</v>
+        <v>0.387563</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.24108</v>
+        <v>0.239242</v>
       </c>
       <c r="C34" t="n">
-        <v>0.418825</v>
+        <v>0.422732</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6294</v>
+        <v>0.630869</v>
       </c>
       <c r="E34" t="n">
-        <v>0.22133</v>
+        <v>0.221839</v>
       </c>
       <c r="F34" t="n">
-        <v>0.379748</v>
+        <v>0.384796</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.235561</v>
+        <v>0.236626</v>
       </c>
       <c r="C35" t="n">
-        <v>0.413934</v>
+        <v>0.419874</v>
       </c>
       <c r="D35" t="n">
-        <v>0.814849</v>
+        <v>0.817164</v>
       </c>
       <c r="E35" t="n">
-        <v>0.220622</v>
+        <v>0.219005</v>
       </c>
       <c r="F35" t="n">
-        <v>0.376875</v>
+        <v>0.382584</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233377</v>
+        <v>0.23453</v>
       </c>
       <c r="C36" t="n">
-        <v>0.409197</v>
+        <v>0.414779</v>
       </c>
       <c r="D36" t="n">
-        <v>0.797181</v>
+        <v>0.800005</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219198</v>
+        <v>0.219515</v>
       </c>
       <c r="F36" t="n">
-        <v>0.376149</v>
+        <v>0.380779</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.232009</v>
+        <v>0.232532</v>
       </c>
       <c r="C37" t="n">
-        <v>0.408615</v>
+        <v>0.412803</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7814</v>
+        <v>0.784263</v>
       </c>
       <c r="E37" t="n">
-        <v>0.311935</v>
+        <v>0.312439</v>
       </c>
       <c r="F37" t="n">
-        <v>0.472282</v>
+        <v>0.477385</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320721</v>
+        <v>0.319032</v>
       </c>
       <c r="C38" t="n">
-        <v>0.513709</v>
+        <v>0.519204</v>
       </c>
       <c r="D38" t="n">
-        <v>0.766669</v>
+        <v>0.769012</v>
       </c>
       <c r="E38" t="n">
-        <v>0.303526</v>
+        <v>0.301918</v>
       </c>
       <c r="F38" t="n">
-        <v>0.462136</v>
+        <v>0.46581</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308525</v>
+        <v>0.307978</v>
       </c>
       <c r="C39" t="n">
-        <v>0.505378</v>
+        <v>0.509177</v>
       </c>
       <c r="D39" t="n">
-        <v>0.753251</v>
+        <v>0.755922</v>
       </c>
       <c r="E39" t="n">
-        <v>0.29522</v>
+        <v>0.294913</v>
       </c>
       <c r="F39" t="n">
-        <v>0.452368</v>
+        <v>0.456235</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299732</v>
+        <v>0.298922</v>
       </c>
       <c r="C40" t="n">
-        <v>0.494266</v>
+        <v>0.498109</v>
       </c>
       <c r="D40" t="n">
-        <v>0.740157</v>
+        <v>0.742666</v>
       </c>
       <c r="E40" t="n">
-        <v>0.283308</v>
+        <v>0.288085</v>
       </c>
       <c r="F40" t="n">
-        <v>0.443434</v>
+        <v>0.445713</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.292423</v>
+        <v>0.298293</v>
       </c>
       <c r="C41" t="n">
-        <v>0.485065</v>
+        <v>0.488322</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7280180000000001</v>
+        <v>0.7300219999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.279666</v>
+        <v>0.275095</v>
       </c>
       <c r="F41" t="n">
-        <v>0.434266</v>
+        <v>0.436542</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.285275</v>
+        <v>0.28949</v>
       </c>
       <c r="C42" t="n">
-        <v>0.47546</v>
+        <v>0.479806</v>
       </c>
       <c r="D42" t="n">
-        <v>0.717424</v>
+        <v>0.7196399999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268035</v>
+        <v>0.268423</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427482</v>
+        <v>0.427614</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.280065</v>
+        <v>0.276736</v>
       </c>
       <c r="C43" t="n">
-        <v>0.467641</v>
+        <v>0.47041</v>
       </c>
       <c r="D43" t="n">
-        <v>0.708025</v>
+        <v>0.709821</v>
       </c>
       <c r="E43" t="n">
-        <v>0.260499</v>
+        <v>0.260535</v>
       </c>
       <c r="F43" t="n">
-        <v>0.418592</v>
+        <v>0.419333</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.269637</v>
+        <v>0.267573</v>
       </c>
       <c r="C44" t="n">
-        <v>0.459199</v>
+        <v>0.461893</v>
       </c>
       <c r="D44" t="n">
-        <v>0.700202</v>
+        <v>0.701716</v>
       </c>
       <c r="E44" t="n">
-        <v>0.252318</v>
+        <v>0.253673</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4111</v>
+        <v>0.412304</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.26204</v>
+        <v>0.262462</v>
       </c>
       <c r="C45" t="n">
-        <v>0.451115</v>
+        <v>0.455442</v>
       </c>
       <c r="D45" t="n">
-        <v>0.692283</v>
+        <v>0.6941349999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.247344</v>
+        <v>0.246048</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405099</v>
+        <v>0.40596</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.26348</v>
+        <v>0.265254</v>
       </c>
       <c r="C46" t="n">
-        <v>0.444392</v>
+        <v>0.450534</v>
       </c>
       <c r="D46" t="n">
-        <v>0.684817</v>
+        <v>0.686978</v>
       </c>
       <c r="E46" t="n">
-        <v>0.241986</v>
+        <v>0.242386</v>
       </c>
       <c r="F46" t="n">
-        <v>0.399058</v>
+        <v>0.399593</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.24688</v>
+        <v>0.25648</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437646</v>
+        <v>0.44124</v>
       </c>
       <c r="D47" t="n">
-        <v>0.678828</v>
+        <v>0.681164</v>
       </c>
       <c r="E47" t="n">
-        <v>0.235773</v>
+        <v>0.234985</v>
       </c>
       <c r="F47" t="n">
-        <v>0.394232</v>
+        <v>0.394725</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.242884</v>
+        <v>0.251878</v>
       </c>
       <c r="C48" t="n">
-        <v>0.432124</v>
+        <v>0.435547</v>
       </c>
       <c r="D48" t="n">
-        <v>0.674884</v>
+        <v>0.676558</v>
       </c>
       <c r="E48" t="n">
-        <v>0.230383</v>
+        <v>0.231935</v>
       </c>
       <c r="F48" t="n">
-        <v>0.390025</v>
+        <v>0.390715</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.242301</v>
+        <v>0.24332</v>
       </c>
       <c r="C49" t="n">
-        <v>0.427996</v>
+        <v>0.428307</v>
       </c>
       <c r="D49" t="n">
-        <v>0.669619</v>
+        <v>0.671579</v>
       </c>
       <c r="E49" t="n">
-        <v>0.228825</v>
+        <v>0.229751</v>
       </c>
       <c r="F49" t="n">
-        <v>0.386917</v>
+        <v>0.388079</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237793</v>
+        <v>0.240652</v>
       </c>
       <c r="C50" t="n">
-        <v>0.422165</v>
+        <v>0.425469</v>
       </c>
       <c r="D50" t="n">
-        <v>0.849754</v>
+        <v>0.85073</v>
       </c>
       <c r="E50" t="n">
-        <v>0.228658</v>
+        <v>0.226349</v>
       </c>
       <c r="F50" t="n">
-        <v>0.385358</v>
+        <v>0.387059</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235221</v>
+        <v>0.242055</v>
       </c>
       <c r="C51" t="n">
-        <v>0.421147</v>
+        <v>0.422948</v>
       </c>
       <c r="D51" t="n">
-        <v>0.831577</v>
+        <v>0.832881</v>
       </c>
       <c r="E51" t="n">
-        <v>0.328656</v>
+        <v>0.327295</v>
       </c>
       <c r="F51" t="n">
-        <v>0.487229</v>
+        <v>0.487896</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.238144</v>
+        <v>0.240371</v>
       </c>
       <c r="C52" t="n">
-        <v>0.420811</v>
+        <v>0.424539</v>
       </c>
       <c r="D52" t="n">
-        <v>0.814609</v>
+        <v>0.816026</v>
       </c>
       <c r="E52" t="n">
-        <v>0.317224</v>
+        <v>0.316244</v>
       </c>
       <c r="F52" t="n">
-        <v>0.476032</v>
+        <v>0.477732</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.323384</v>
+        <v>0.321466</v>
       </c>
       <c r="C53" t="n">
-        <v>0.522396</v>
+        <v>0.523872</v>
       </c>
       <c r="D53" t="n">
-        <v>0.79963</v>
+        <v>0.800733</v>
       </c>
       <c r="E53" t="n">
-        <v>0.30888</v>
+        <v>0.307139</v>
       </c>
       <c r="F53" t="n">
-        <v>0.466664</v>
+        <v>0.468164</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309422</v>
+        <v>0.314863</v>
       </c>
       <c r="C54" t="n">
-        <v>0.511942</v>
+        <v>0.513245</v>
       </c>
       <c r="D54" t="n">
-        <v>0.78486</v>
+        <v>0.785795</v>
       </c>
       <c r="E54" t="n">
-        <v>0.299573</v>
+        <v>0.298991</v>
       </c>
       <c r="F54" t="n">
-        <v>0.45815</v>
+        <v>0.459196</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.307838</v>
+        <v>0.307552</v>
       </c>
       <c r="C55" t="n">
-        <v>0.503593</v>
+        <v>0.5039400000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.772128</v>
+        <v>0.773315</v>
       </c>
       <c r="E55" t="n">
-        <v>0.292431</v>
+        <v>0.290532</v>
       </c>
       <c r="F55" t="n">
-        <v>0.449924</v>
+        <v>0.451626</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29478</v>
+        <v>0.295292</v>
       </c>
       <c r="C56" t="n">
-        <v>0.493802</v>
+        <v>0.494113</v>
       </c>
       <c r="D56" t="n">
-        <v>0.759683</v>
+        <v>0.761514</v>
       </c>
       <c r="E56" t="n">
-        <v>0.283907</v>
+        <v>0.283036</v>
       </c>
       <c r="F56" t="n">
-        <v>0.441345</v>
+        <v>0.442781</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.289597</v>
+        <v>0.289733</v>
       </c>
       <c r="C57" t="n">
-        <v>0.48678</v>
+        <v>0.486146</v>
       </c>
       <c r="D57" t="n">
-        <v>0.749772</v>
+        <v>0.7505849999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276029</v>
+        <v>0.276948</v>
       </c>
       <c r="F57" t="n">
-        <v>0.434724</v>
+        <v>0.434959</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.280225</v>
+        <v>0.285877</v>
       </c>
       <c r="C58" t="n">
-        <v>0.478825</v>
+        <v>0.479231</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7396509999999999</v>
+        <v>0.741158</v>
       </c>
       <c r="E58" t="n">
-        <v>0.268755</v>
+        <v>0.268371</v>
       </c>
       <c r="F58" t="n">
-        <v>0.427609</v>
+        <v>0.428037</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27353</v>
+        <v>0.271322</v>
       </c>
       <c r="C59" t="n">
-        <v>0.472069</v>
+        <v>0.472009</v>
       </c>
       <c r="D59" t="n">
-        <v>0.73064</v>
+        <v>0.732226</v>
       </c>
       <c r="E59" t="n">
-        <v>0.263056</v>
+        <v>0.262466</v>
       </c>
       <c r="F59" t="n">
-        <v>0.422994</v>
+        <v>0.421779</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266949</v>
+        <v>0.268818</v>
       </c>
       <c r="C60" t="n">
-        <v>0.465537</v>
+        <v>0.466812</v>
       </c>
       <c r="D60" t="n">
-        <v>0.722598</v>
+        <v>0.724688</v>
       </c>
       <c r="E60" t="n">
-        <v>0.256381</v>
+        <v>0.256989</v>
       </c>
       <c r="F60" t="n">
-        <v>0.417423</v>
+        <v>0.416466</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260892</v>
+        <v>0.260558</v>
       </c>
       <c r="C61" t="n">
-        <v>0.459949</v>
+        <v>0.460246</v>
       </c>
       <c r="D61" t="n">
-        <v>0.716294</v>
+        <v>0.71767</v>
       </c>
       <c r="E61" t="n">
-        <v>0.250747</v>
+        <v>0.252137</v>
       </c>
       <c r="F61" t="n">
-        <v>0.411869</v>
+        <v>0.413058</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260465</v>
+        <v>0.256564</v>
       </c>
       <c r="C62" t="n">
-        <v>0.454785</v>
+        <v>0.455352</v>
       </c>
       <c r="D62" t="n">
-        <v>0.710538</v>
+        <v>0.711546</v>
       </c>
       <c r="E62" t="n">
-        <v>0.247477</v>
+        <v>0.247125</v>
       </c>
       <c r="F62" t="n">
-        <v>0.407873</v>
+        <v>0.408943</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251939</v>
+        <v>0.252266</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450463</v>
+        <v>0.451476</v>
       </c>
       <c r="D63" t="n">
-        <v>0.704928</v>
+        <v>0.70687</v>
       </c>
       <c r="E63" t="n">
-        <v>0.243443</v>
+        <v>0.243809</v>
       </c>
       <c r="F63" t="n">
-        <v>0.404506</v>
+        <v>0.406342</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245998</v>
+        <v>0.248736</v>
       </c>
       <c r="C64" t="n">
-        <v>0.447218</v>
+        <v>0.448335</v>
       </c>
       <c r="D64" t="n">
-        <v>0.909164</v>
+        <v>0.916604</v>
       </c>
       <c r="E64" t="n">
-        <v>0.241526</v>
+        <v>0.243482</v>
       </c>
       <c r="F64" t="n">
-        <v>0.403842</v>
+        <v>0.405093</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244942</v>
+        <v>0.24836</v>
       </c>
       <c r="C65" t="n">
-        <v>0.445021</v>
+        <v>0.445763</v>
       </c>
       <c r="D65" t="n">
-        <v>0.890895</v>
+        <v>0.897136</v>
       </c>
       <c r="E65" t="n">
-        <v>0.242298</v>
+        <v>0.242453</v>
       </c>
       <c r="F65" t="n">
-        <v>0.405365</v>
+        <v>0.405617</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244137</v>
+        <v>0.245612</v>
       </c>
       <c r="C66" t="n">
-        <v>0.444206</v>
+        <v>0.446507</v>
       </c>
       <c r="D66" t="n">
-        <v>0.872637</v>
+        <v>0.878881</v>
       </c>
       <c r="E66" t="n">
-        <v>0.338903</v>
+        <v>0.337345</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5140749999999999</v>
+        <v>0.515252</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.396054</v>
+        <v>0.381834</v>
       </c>
       <c r="C67" t="n">
-        <v>0.581725</v>
+        <v>0.5892810000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.856113</v>
+        <v>0.862033</v>
       </c>
       <c r="E67" t="n">
-        <v>0.330514</v>
+        <v>0.335105</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5061870000000001</v>
+        <v>0.5085150000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.386726</v>
+        <v>0.373198</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5736869999999999</v>
+        <v>0.58028</v>
       </c>
       <c r="D68" t="n">
-        <v>0.841484</v>
+        <v>0.8443000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>0.327162</v>
+        <v>0.321127</v>
       </c>
       <c r="F68" t="n">
-        <v>0.498704</v>
+        <v>0.502315</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.375105</v>
+        <v>0.365064</v>
       </c>
       <c r="C69" t="n">
-        <v>0.572952</v>
+        <v>0.579372</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8296519999999999</v>
+        <v>0.83436</v>
       </c>
       <c r="E69" t="n">
-        <v>0.32018</v>
+        <v>0.316551</v>
       </c>
       <c r="F69" t="n">
-        <v>0.491079</v>
+        <v>0.494802</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.36449</v>
+        <v>0.368404</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5657180000000001</v>
+        <v>0.570271</v>
       </c>
       <c r="D70" t="n">
-        <v>0.817919</v>
+        <v>0.822941</v>
       </c>
       <c r="E70" t="n">
-        <v>0.307387</v>
+        <v>0.309675</v>
       </c>
       <c r="F70" t="n">
-        <v>0.483728</v>
+        <v>0.487622</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.352666</v>
+        <v>0.363603</v>
       </c>
       <c r="C71" t="n">
-        <v>0.553655</v>
+        <v>0.562422</v>
       </c>
       <c r="D71" t="n">
-        <v>0.808108</v>
+        <v>0.813291</v>
       </c>
       <c r="E71" t="n">
-        <v>0.303463</v>
+        <v>0.299512</v>
       </c>
       <c r="F71" t="n">
-        <v>0.47579</v>
+        <v>0.479962</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.344297</v>
+        <v>0.341952</v>
       </c>
       <c r="C72" t="n">
-        <v>0.546312</v>
+        <v>0.553162</v>
       </c>
       <c r="D72" t="n">
-        <v>0.799419</v>
+        <v>0.8058</v>
       </c>
       <c r="E72" t="n">
-        <v>0.295983</v>
+        <v>0.29328</v>
       </c>
       <c r="F72" t="n">
-        <v>0.468974</v>
+        <v>0.473737</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350907</v>
+        <v>0.339512</v>
       </c>
       <c r="C73" t="n">
-        <v>0.54084</v>
+        <v>0.547671</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7922630000000001</v>
+        <v>0.799592</v>
       </c>
       <c r="E73" t="n">
-        <v>0.290064</v>
+        <v>0.289051</v>
       </c>
       <c r="F73" t="n">
-        <v>0.463397</v>
+        <v>0.46706</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.323788</v>
+        <v>0.341305</v>
       </c>
       <c r="C74" t="n">
-        <v>0.533482</v>
+        <v>0.542695</v>
       </c>
       <c r="D74" t="n">
-        <v>0.787515</v>
+        <v>0.792888</v>
       </c>
       <c r="E74" t="n">
-        <v>0.281871</v>
+        <v>0.279836</v>
       </c>
       <c r="F74" t="n">
-        <v>0.457523</v>
+        <v>0.461842</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.332602</v>
+        <v>0.337587</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5301630000000001</v>
+        <v>0.537629</v>
       </c>
       <c r="D75" t="n">
-        <v>0.787577</v>
+        <v>0.792523</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274122</v>
+        <v>0.278929</v>
       </c>
       <c r="F75" t="n">
-        <v>0.452995</v>
+        <v>0.456855</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.328553</v>
+        <v>0.319015</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5261940000000001</v>
+        <v>0.533251</v>
       </c>
       <c r="D76" t="n">
-        <v>0.785982</v>
+        <v>0.790055</v>
       </c>
       <c r="E76" t="n">
-        <v>0.268963</v>
+        <v>0.27193</v>
       </c>
       <c r="F76" t="n">
-        <v>0.448893</v>
+        <v>0.452952</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.324411</v>
+        <v>0.315345</v>
       </c>
       <c r="C77" t="n">
-        <v>0.524226</v>
+        <v>0.529246</v>
       </c>
       <c r="D77" t="n">
-        <v>0.785069</v>
+        <v>0.7920199999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.267412</v>
+        <v>0.269833</v>
       </c>
       <c r="F77" t="n">
-        <v>0.446417</v>
+        <v>0.449974</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.316302</v>
+        <v>0.296773</v>
       </c>
       <c r="C78" t="n">
-        <v>0.521841</v>
+        <v>0.52635</v>
       </c>
       <c r="D78" t="n">
-        <v>1.24622</v>
+        <v>1.25585</v>
       </c>
       <c r="E78" t="n">
-        <v>0.266296</v>
+        <v>0.265819</v>
       </c>
       <c r="F78" t="n">
-        <v>0.445551</v>
+        <v>0.448659</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.308102</v>
+        <v>0.305484</v>
       </c>
       <c r="C79" t="n">
-        <v>0.519766</v>
+        <v>0.5239239999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>1.22522</v>
+        <v>1.23516</v>
       </c>
       <c r="E79" t="n">
-        <v>0.265118</v>
+        <v>0.262051</v>
       </c>
       <c r="F79" t="n">
-        <v>0.446372</v>
+        <v>0.449779</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.296701</v>
+        <v>0.299716</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5208429999999999</v>
+        <v>0.526452</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20662</v>
+        <v>1.21435</v>
       </c>
       <c r="E80" t="n">
-        <v>0.38622</v>
+        <v>0.384746</v>
       </c>
       <c r="F80" t="n">
-        <v>0.732147</v>
+        <v>0.736071</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.472481</v>
+        <v>0.436592</v>
       </c>
       <c r="C81" t="n">
-        <v>0.831624</v>
+        <v>0.836582</v>
       </c>
       <c r="D81" t="n">
-        <v>1.18955</v>
+        <v>1.19991</v>
       </c>
       <c r="E81" t="n">
-        <v>0.375318</v>
+        <v>0.376337</v>
       </c>
       <c r="F81" t="n">
-        <v>0.736752</v>
+        <v>0.738995</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4053</v>
+        <v>0.435487</v>
       </c>
       <c r="C82" t="n">
-        <v>0.842412</v>
+        <v>0.8393699999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18012</v>
+        <v>1.18539</v>
       </c>
       <c r="E82" t="n">
-        <v>0.370632</v>
+        <v>0.373051</v>
       </c>
       <c r="F82" t="n">
-        <v>0.731697</v>
+        <v>0.735606</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.410331</v>
+        <v>0.404184</v>
       </c>
       <c r="C83" t="n">
-        <v>0.854203</v>
+        <v>0.851477</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1679</v>
+        <v>1.17273</v>
       </c>
       <c r="E83" t="n">
-        <v>0.358962</v>
+        <v>0.3661</v>
       </c>
       <c r="F83" t="n">
-        <v>0.724812</v>
+        <v>0.727123</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.403371</v>
+        <v>0.424862</v>
       </c>
       <c r="C84" t="n">
-        <v>0.841293</v>
+        <v>0.839534</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16183</v>
+        <v>1.16227</v>
       </c>
       <c r="E84" t="n">
-        <v>0.357461</v>
+        <v>0.356677</v>
       </c>
       <c r="F84" t="n">
-        <v>0.713589</v>
+        <v>0.715212</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.445239</v>
+        <v>0.408804</v>
       </c>
       <c r="C85" t="n">
-        <v>0.832267</v>
+        <v>0.828705</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15743</v>
+        <v>1.15477</v>
       </c>
       <c r="E85" t="n">
-        <v>0.346487</v>
+        <v>0.345909</v>
       </c>
       <c r="F85" t="n">
-        <v>0.702288</v>
+        <v>0.703346</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.405199</v>
+        <v>0.401673</v>
       </c>
       <c r="C86" t="n">
-        <v>0.81976</v>
+        <v>0.820964</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15681</v>
+        <v>1.15425</v>
       </c>
       <c r="E86" t="n">
-        <v>0.340455</v>
+        <v>0.34051</v>
       </c>
       <c r="F86" t="n">
-        <v>0.690629</v>
+        <v>0.68943</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.405144</v>
+        <v>0.389836</v>
       </c>
       <c r="C87" t="n">
-        <v>0.811072</v>
+        <v>0.806107</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15628</v>
+        <v>1.15416</v>
       </c>
       <c r="E87" t="n">
-        <v>0.334945</v>
+        <v>0.33411</v>
       </c>
       <c r="F87" t="n">
-        <v>0.677451</v>
+        <v>0.676665</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.365055</v>
+        <v>0.379412</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7948460000000001</v>
+        <v>0.796432</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16163</v>
+        <v>1.15814</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326744</v>
+        <v>0.326185</v>
       </c>
       <c r="F88" t="n">
-        <v>0.664902</v>
+        <v>0.6641359999999999</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.382409</v>
+        <v>0.410281</v>
       </c>
       <c r="C89" t="n">
-        <v>0.779686</v>
+        <v>0.784336</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17064</v>
+        <v>1.17053</v>
       </c>
       <c r="E89" t="n">
-        <v>0.318394</v>
+        <v>0.323784</v>
       </c>
       <c r="F89" t="n">
-        <v>0.653973</v>
+        <v>0.652698</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.371296</v>
+        <v>0.375147</v>
       </c>
       <c r="C90" t="n">
-        <v>0.770992</v>
+        <v>0.769379</v>
       </c>
       <c r="D90" t="n">
-        <v>1.1813</v>
+        <v>1.17661</v>
       </c>
       <c r="E90" t="n">
-        <v>0.31599</v>
+        <v>0.314624</v>
       </c>
       <c r="F90" t="n">
-        <v>0.641644</v>
+        <v>0.641234</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.368655</v>
+        <v>0.378592</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7643760000000001</v>
+        <v>0.765709</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19049</v>
+        <v>1.19127</v>
       </c>
       <c r="E91" t="n">
-        <v>0.310561</v>
+        <v>0.318044</v>
       </c>
       <c r="F91" t="n">
-        <v>0.632866</v>
+        <v>0.631898</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.371115</v>
+        <v>0.353938</v>
       </c>
       <c r="C92" t="n">
-        <v>0.753796</v>
+        <v>0.754717</v>
       </c>
       <c r="D92" t="n">
-        <v>1.76073</v>
+        <v>1.75659</v>
       </c>
       <c r="E92" t="n">
-        <v>0.304856</v>
+        <v>0.306867</v>
       </c>
       <c r="F92" t="n">
-        <v>0.624418</v>
+        <v>0.623839</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.35935</v>
+        <v>0.377785</v>
       </c>
       <c r="C93" t="n">
-        <v>0.748816</v>
+        <v>0.747845</v>
       </c>
       <c r="D93" t="n">
-        <v>1.75357</v>
+        <v>1.75137</v>
       </c>
       <c r="E93" t="n">
-        <v>0.307012</v>
+        <v>0.307574</v>
       </c>
       <c r="F93" t="n">
-        <v>0.621125</v>
+        <v>0.617623</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.357084</v>
+        <v>0.376437</v>
       </c>
       <c r="C94" t="n">
-        <v>0.743429</v>
+        <v>0.741345</v>
       </c>
       <c r="D94" t="n">
-        <v>1.74026</v>
+        <v>1.73782</v>
       </c>
       <c r="E94" t="n">
-        <v>0.499715</v>
+        <v>0.500613</v>
       </c>
       <c r="F94" t="n">
-        <v>1.11647</v>
+        <v>1.11697</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5513670000000001</v>
+        <v>0.559924</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14648</v>
+        <v>1.14743</v>
       </c>
       <c r="D95" t="n">
-        <v>1.72541</v>
+        <v>1.72647</v>
       </c>
       <c r="E95" t="n">
-        <v>0.490853</v>
+        <v>0.491581</v>
       </c>
       <c r="F95" t="n">
-        <v>1.1127</v>
+        <v>1.11332</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535563</v>
+        <v>0.563451</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15549</v>
+        <v>1.15608</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71325</v>
+        <v>1.71982</v>
       </c>
       <c r="E96" t="n">
-        <v>0.479148</v>
+        <v>0.485606</v>
       </c>
       <c r="F96" t="n">
-        <v>1.09833</v>
+        <v>1.09979</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.538087</v>
+        <v>0.5406339999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14893</v>
+        <v>1.14821</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70774</v>
+        <v>1.70659</v>
       </c>
       <c r="E97" t="n">
-        <v>0.470926</v>
+        <v>0.475213</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08133</v>
+        <v>1.07349</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.525098</v>
+        <v>0.526097</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13539</v>
+        <v>1.13564</v>
       </c>
       <c r="D98" t="n">
-        <v>1.70012</v>
+        <v>1.70107</v>
       </c>
       <c r="E98" t="n">
-        <v>0.460964</v>
+        <v>0.461457</v>
       </c>
       <c r="F98" t="n">
-        <v>1.06518</v>
+        <v>1.06715</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.517032</v>
+        <v>0.515823</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12356</v>
+        <v>1.11929</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69841</v>
+        <v>1.70041</v>
       </c>
       <c r="E99" t="n">
-        <v>0.450449</v>
+        <v>0.452898</v>
       </c>
       <c r="F99" t="n">
-        <v>1.04741</v>
+        <v>1.04106</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.518339</v>
+        <v>0.495002</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10654</v>
+        <v>1.11247</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69791</v>
+        <v>1.69764</v>
       </c>
       <c r="E100" t="n">
-        <v>0.437954</v>
+        <v>0.44109</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03094</v>
+        <v>1.02533</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.510837</v>
+        <v>0.489547</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10128</v>
+        <v>1.08849</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70585</v>
+        <v>1.70575</v>
       </c>
       <c r="E101" t="n">
-        <v>0.430837</v>
+        <v>0.434383</v>
       </c>
       <c r="F101" t="n">
-        <v>1.01405</v>
+        <v>1.01426</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5049400000000001</v>
+        <v>0.488442</v>
       </c>
       <c r="C102" t="n">
-        <v>1.0867</v>
+        <v>1.08594</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71425</v>
+        <v>1.71219</v>
       </c>
       <c r="E102" t="n">
-        <v>0.423875</v>
+        <v>0.42341</v>
       </c>
       <c r="F102" t="n">
-        <v>0.99753</v>
+        <v>1.00053</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.49178</v>
+        <v>0.477334</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05673</v>
+        <v>1.06513</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71952</v>
+        <v>1.72338</v>
       </c>
       <c r="E103" t="n">
-        <v>0.416727</v>
+        <v>0.416399</v>
       </c>
       <c r="F103" t="n">
-        <v>0.984777</v>
+        <v>0.984332</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.470536</v>
+        <v>0.46552</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0596</v>
+        <v>1.05498</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73247</v>
+        <v>1.73485</v>
       </c>
       <c r="E104" t="n">
-        <v>0.406399</v>
+        <v>0.409638</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9604549999999999</v>
+        <v>0.954036</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.484091</v>
+        <v>0.468396</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03802</v>
+        <v>1.04504</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74748</v>
+        <v>1.74675</v>
       </c>
       <c r="E105" t="n">
-        <v>0.40348</v>
+        <v>0.401038</v>
       </c>
       <c r="F105" t="n">
-        <v>0.957337</v>
+        <v>0.957023</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.472597</v>
+        <v>0.469698</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03501</v>
+        <v>1.02662</v>
       </c>
       <c r="D106" t="n">
-        <v>1.762</v>
+        <v>1.76441</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3959</v>
+        <v>0.397976</v>
       </c>
       <c r="F106" t="n">
-        <v>0.947182</v>
+        <v>0.924193</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.458395</v>
+        <v>0.463659</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03543</v>
+        <v>1.03921</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36362</v>
+        <v>2.36719</v>
       </c>
       <c r="E107" t="n">
-        <v>0.392496</v>
+        <v>0.390609</v>
       </c>
       <c r="F107" t="n">
-        <v>0.938399</v>
+        <v>0.93813</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.454365</v>
+        <v>0.452016</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02793</v>
+        <v>1.02326</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33808</v>
+        <v>2.34024</v>
       </c>
       <c r="E108" t="n">
-        <v>0.539015</v>
+        <v>0.591357</v>
       </c>
       <c r="F108" t="n">
-        <v>2.38474</v>
+        <v>2.37944</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.473248</v>
+        <v>0.457929</v>
       </c>
       <c r="C109" t="n">
-        <v>1.0186</v>
+        <v>1.02016</v>
       </c>
       <c r="D109" t="n">
-        <v>2.31506</v>
+        <v>2.31792</v>
       </c>
       <c r="E109" t="n">
-        <v>0.536713</v>
+        <v>0.535633</v>
       </c>
       <c r="F109" t="n">
-        <v>2.39269</v>
+        <v>2.39245</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.669064</v>
+        <v>0.6688809999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>2.59033</v>
+        <v>2.57481</v>
       </c>
       <c r="D110" t="n">
-        <v>2.28974</v>
+        <v>2.29862</v>
       </c>
       <c r="E110" t="n">
-        <v>0.57278</v>
+        <v>0.572428</v>
       </c>
       <c r="F110" t="n">
-        <v>2.39024</v>
+        <v>2.39569</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6502019999999999</v>
+        <v>0.599943</v>
       </c>
       <c r="C111" t="n">
-        <v>2.58559</v>
+        <v>2.5833</v>
       </c>
       <c r="D111" t="n">
-        <v>2.27638</v>
+        <v>2.28547</v>
       </c>
       <c r="E111" t="n">
-        <v>0.521075</v>
+        <v>0.56229</v>
       </c>
       <c r="F111" t="n">
-        <v>2.40163</v>
+        <v>2.38413</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.639389</v>
+        <v>0.643131</v>
       </c>
       <c r="C112" t="n">
-        <v>2.59258</v>
+        <v>2.5852</v>
       </c>
       <c r="D112" t="n">
-        <v>2.26289</v>
+        <v>2.27667</v>
       </c>
       <c r="E112" t="n">
-        <v>0.548941</v>
+        <v>0.54887</v>
       </c>
       <c r="F112" t="n">
-        <v>2.38763</v>
+        <v>2.39863</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.61837</v>
+        <v>0.584098</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57118</v>
+        <v>2.56631</v>
       </c>
       <c r="D113" t="n">
-        <v>2.24329</v>
+        <v>2.26124</v>
       </c>
       <c r="E113" t="n">
-        <v>0.538779</v>
+        <v>0.5388849999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>2.40505</v>
+        <v>2.3995</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.612336</v>
+        <v>0.620794</v>
       </c>
       <c r="C114" t="n">
-        <v>2.58058</v>
+        <v>2.57202</v>
       </c>
       <c r="D114" t="n">
-        <v>2.26444</v>
+        <v>2.2905</v>
       </c>
       <c r="E114" t="n">
-        <v>0.528647</v>
+        <v>0.528712</v>
       </c>
       <c r="F114" t="n">
-        <v>2.39914</v>
+        <v>2.39332</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.565426</v>
+        <v>0.602043</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57634</v>
+        <v>2.57656</v>
       </c>
       <c r="D115" t="n">
-        <v>2.27083</v>
+        <v>2.28124</v>
       </c>
       <c r="E115" t="n">
-        <v>0.518915</v>
+        <v>0.517914</v>
       </c>
       <c r="F115" t="n">
-        <v>2.4041</v>
+        <v>2.40296</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5931419999999999</v>
+        <v>0.570114</v>
       </c>
       <c r="C116" t="n">
-        <v>2.57562</v>
+        <v>2.5648</v>
       </c>
       <c r="D116" t="n">
-        <v>2.28274</v>
+        <v>2.27544</v>
       </c>
       <c r="E116" t="n">
-        <v>0.473862</v>
+        <v>0.509949</v>
       </c>
       <c r="F116" t="n">
-        <v>2.4086</v>
+        <v>2.40438</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.592936</v>
+        <v>0.596419</v>
       </c>
       <c r="C117" t="n">
-        <v>2.59165</v>
+        <v>2.59731</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27982</v>
+        <v>2.28297</v>
       </c>
       <c r="E117" t="n">
-        <v>0.500825</v>
+        <v>0.501522</v>
       </c>
       <c r="F117" t="n">
-        <v>2.41379</v>
+        <v>2.40658</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.559636</v>
+        <v>0.56619</v>
       </c>
       <c r="C118" t="n">
-        <v>2.58237</v>
+        <v>2.57329</v>
       </c>
       <c r="D118" t="n">
-        <v>2.2467</v>
+        <v>2.24583</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4636</v>
+        <v>0.464626</v>
       </c>
       <c r="F118" t="n">
-        <v>2.21718</v>
+        <v>2.21823</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.559099</v>
+        <v>0.565491</v>
       </c>
       <c r="C119" t="n">
-        <v>1.37524</v>
+        <v>2.56744</v>
       </c>
       <c r="D119" t="n">
-        <v>2.24668</v>
+        <v>2.24202</v>
       </c>
       <c r="E119" t="n">
-        <v>0.456683</v>
+        <v>0.456314</v>
       </c>
       <c r="F119" t="n">
-        <v>2.41399</v>
+        <v>2.41381</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.551582</v>
+        <v>0.539476</v>
       </c>
       <c r="C120" t="n">
-        <v>2.59344</v>
+        <v>2.37081</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25278</v>
+        <v>2.25175</v>
       </c>
       <c r="E120" t="n">
-        <v>0.450588</v>
+        <v>0.454142</v>
       </c>
       <c r="F120" t="n">
-        <v>2.42011</v>
+        <v>1.6013</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5161790000000001</v>
+        <v>0.554846</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57896</v>
+        <v>2.58386</v>
       </c>
       <c r="D121" t="n">
-        <v>2.92918</v>
+        <v>2.92748</v>
       </c>
       <c r="E121" t="n">
-        <v>0.446096</v>
+        <v>0.447144</v>
       </c>
       <c r="F121" t="n">
-        <v>2.42886</v>
+        <v>2.42784</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.533417</v>
+        <v>0.529263</v>
       </c>
       <c r="C122" t="n">
-        <v>2.59347</v>
+        <v>1.34213</v>
       </c>
       <c r="D122" t="n">
-        <v>2.88481</v>
+        <v>2.88828</v>
       </c>
       <c r="E122" t="n">
-        <v>0.446057</v>
+        <v>0.443686</v>
       </c>
       <c r="F122" t="n">
-        <v>2.42399</v>
+        <v>1.80033</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5404640000000001</v>
+        <v>0.522772</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59549</v>
+        <v>2.59516</v>
       </c>
       <c r="D123" t="n">
-        <v>2.84491</v>
+        <v>2.84574</v>
       </c>
       <c r="E123" t="n">
-        <v>0.641281</v>
+        <v>0.6425920000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>2.93055</v>
+        <v>2.92816</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.710936</v>
+        <v>0.7292</v>
       </c>
       <c r="C124" t="n">
-        <v>3.17853</v>
+        <v>3.18365</v>
       </c>
       <c r="D124" t="n">
-        <v>2.81148</v>
+        <v>2.80982</v>
       </c>
       <c r="E124" t="n">
-        <v>0.63542</v>
+        <v>0.635149</v>
       </c>
       <c r="F124" t="n">
-        <v>2.92262</v>
+        <v>2.91918</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.727714</v>
+        <v>0.731518</v>
       </c>
       <c r="C125" t="n">
-        <v>3.15792</v>
+        <v>3.15835</v>
       </c>
       <c r="D125" t="n">
-        <v>2.784</v>
+        <v>2.77783</v>
       </c>
       <c r="E125" t="n">
-        <v>0.625974</v>
+        <v>0.647944</v>
       </c>
       <c r="F125" t="n">
-        <v>2.9215</v>
+        <v>2.91337</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.708403</v>
+        <v>0.702676</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15856</v>
+        <v>3.15255</v>
       </c>
       <c r="D126" t="n">
-        <v>2.75187</v>
+        <v>2.75004</v>
       </c>
       <c r="E126" t="n">
-        <v>0.620067</v>
+        <v>0.621776</v>
       </c>
       <c r="F126" t="n">
-        <v>2.90219</v>
+        <v>2.90589</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.703438</v>
+        <v>0.696858</v>
       </c>
       <c r="C127" t="n">
-        <v>3.11566</v>
+        <v>3.13449</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72796</v>
+        <v>2.72114</v>
       </c>
       <c r="E127" t="n">
-        <v>0.615301</v>
+        <v>0.615592</v>
       </c>
       <c r="F127" t="n">
-        <v>2.89584</v>
+        <v>2.8971</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.690072</v>
+        <v>0.690547</v>
       </c>
       <c r="C128" t="n">
-        <v>3.12587</v>
+        <v>3.1312</v>
       </c>
       <c r="D128" t="n">
-        <v>2.70762</v>
+        <v>2.7102</v>
       </c>
       <c r="E128" t="n">
-        <v>0.628305</v>
+        <v>0.609526</v>
       </c>
       <c r="F128" t="n">
-        <v>2.89543</v>
+        <v>2.89422</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.676396</v>
+        <v>0.677217</v>
       </c>
       <c r="C129" t="n">
-        <v>3.10462</v>
+        <v>3.10887</v>
       </c>
       <c r="D129" t="n">
-        <v>2.68161</v>
+        <v>2.68548</v>
       </c>
       <c r="E129" t="n">
-        <v>0.60275</v>
+        <v>0.604764</v>
       </c>
       <c r="F129" t="n">
-        <v>2.87788</v>
+        <v>2.87978</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.665309</v>
+        <v>0.679227</v>
       </c>
       <c r="C130" t="n">
-        <v>3.09938</v>
+        <v>3.08843</v>
       </c>
       <c r="D130" t="n">
-        <v>2.67383</v>
+        <v>2.66847</v>
       </c>
       <c r="E130" t="n">
-        <v>0.597683</v>
+        <v>0.600333</v>
       </c>
       <c r="F130" t="n">
-        <v>2.87787</v>
+        <v>2.86605</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.65402</v>
+        <v>0.671457</v>
       </c>
       <c r="C131" t="n">
-        <v>3.09506</v>
+        <v>3.09286</v>
       </c>
       <c r="D131" t="n">
-        <v>2.65786</v>
+        <v>2.66386</v>
       </c>
       <c r="E131" t="n">
-        <v>0.595066</v>
+        <v>0.563665</v>
       </c>
       <c r="F131" t="n">
-        <v>2.88101</v>
+        <v>2.879</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6620470000000001</v>
+        <v>0.655859</v>
       </c>
       <c r="C132" t="n">
-        <v>3.0829</v>
+        <v>3.07683</v>
       </c>
       <c r="D132" t="n">
-        <v>2.64834</v>
+        <v>2.65101</v>
       </c>
       <c r="E132" t="n">
-        <v>0.590879</v>
+        <v>0.592123</v>
       </c>
       <c r="F132" t="n">
-        <v>2.88094</v>
+        <v>2.87968</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.648869</v>
+        <v>0.640411</v>
       </c>
       <c r="C133" t="n">
-        <v>3.082</v>
+        <v>3.07634</v>
       </c>
       <c r="D133" t="n">
-        <v>2.62546</v>
+        <v>2.62235</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5862309999999999</v>
+        <v>0.560603</v>
       </c>
       <c r="F133" t="n">
-        <v>2.88016</v>
+        <v>2.87789</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6501400000000001</v>
+        <v>0.640523</v>
       </c>
       <c r="C134" t="n">
-        <v>3.07926</v>
+        <v>3.0714</v>
       </c>
       <c r="D134" t="n">
-        <v>2.62977</v>
+        <v>2.62281</v>
       </c>
       <c r="E134" t="n">
-        <v>0.555341</v>
+        <v>0.58336</v>
       </c>
       <c r="F134" t="n">
-        <v>2.18222</v>
+        <v>2.86904</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.636414</v>
+        <v>0.636917</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06504</v>
+        <v>3.06389</v>
       </c>
       <c r="D135" t="n">
-        <v>3.32872</v>
+        <v>3.32748</v>
       </c>
       <c r="E135" t="n">
-        <v>0.554708</v>
+        <v>0.5528960000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>2.86938</v>
+        <v>2.41054</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6281</v>
+        <v>0.627964</v>
       </c>
       <c r="C136" t="n">
-        <v>3.06855</v>
+        <v>3.07116</v>
       </c>
       <c r="D136" t="n">
-        <v>3.26644</v>
+        <v>3.26636</v>
       </c>
       <c r="E136" t="n">
-        <v>0.55123</v>
+        <v>0.551383</v>
       </c>
       <c r="F136" t="n">
-        <v>2.17027</v>
+        <v>2.16929</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.601661</v>
+        <v>0.63851</v>
       </c>
       <c r="C137" t="n">
-        <v>3.07036</v>
+        <v>3.06064</v>
       </c>
       <c r="D137" t="n">
-        <v>3.21695</v>
+        <v>3.22516</v>
       </c>
       <c r="E137" t="n">
-        <v>0.743459</v>
+        <v>0.768496</v>
       </c>
       <c r="F137" t="n">
-        <v>3.37074</v>
+        <v>3.38011</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8246289999999999</v>
+        <v>0.817473</v>
       </c>
       <c r="C138" t="n">
-        <v>3.59855</v>
+        <v>3.60033</v>
       </c>
       <c r="D138" t="n">
-        <v>3.17899</v>
+        <v>3.17382</v>
       </c>
       <c r="E138" t="n">
-        <v>0.739617</v>
+        <v>0.742873</v>
       </c>
       <c r="F138" t="n">
-        <v>3.35535</v>
+        <v>3.35684</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.813075</v>
+        <v>0.81541</v>
       </c>
       <c r="C139" t="n">
-        <v>3.59619</v>
+        <v>3.57986</v>
       </c>
       <c r="D139" t="n">
-        <v>3.13271</v>
+        <v>3.12695</v>
       </c>
       <c r="E139" t="n">
-        <v>0.736279</v>
+        <v>0.741039</v>
       </c>
       <c r="F139" t="n">
-        <v>3.33361</v>
+        <v>3.34265</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.774702</v>
+        <v>0.805211</v>
       </c>
       <c r="C140" t="n">
-        <v>3.55617</v>
+        <v>3.5547</v>
       </c>
       <c r="D140" t="n">
-        <v>3.09414</v>
+        <v>3.09253</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7547430000000001</v>
+        <v>0.7359290000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>3.31574</v>
+        <v>3.32077</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.796409</v>
+        <v>0.774695</v>
       </c>
       <c r="C141" t="n">
-        <v>3.54017</v>
+        <v>3.53313</v>
       </c>
       <c r="D141" t="n">
-        <v>3.07056</v>
+        <v>3.06487</v>
       </c>
       <c r="E141" t="n">
-        <v>0.731578</v>
+        <v>0.752057</v>
       </c>
       <c r="F141" t="n">
-        <v>3.30164</v>
+        <v>3.29593</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.779737</v>
+        <v>0.776412</v>
       </c>
       <c r="C142" t="n">
-        <v>3.51222</v>
+        <v>3.51242</v>
       </c>
       <c r="D142" t="n">
-        <v>3.03693</v>
+        <v>3.03109</v>
       </c>
       <c r="E142" t="n">
-        <v>0.730334</v>
+        <v>0.749657</v>
       </c>
       <c r="F142" t="n">
-        <v>3.27816</v>
+        <v>3.28191</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.775821</v>
+        <v>0.773429</v>
       </c>
       <c r="C143" t="n">
-        <v>3.4901</v>
+        <v>3.48568</v>
       </c>
       <c r="D143" t="n">
-        <v>3.0032</v>
+        <v>3.01724</v>
       </c>
       <c r="E143" t="n">
-        <v>0.72707</v>
+        <v>0.745013</v>
       </c>
       <c r="F143" t="n">
-        <v>3.26012</v>
+        <v>3.26827</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245175</v>
+        <v>0.245372</v>
       </c>
       <c r="C2" t="n">
-        <v>0.42453</v>
+        <v>0.423868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55907</v>
+        <v>0.560846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21472</v>
+        <v>0.208843</v>
       </c>
       <c r="F2" t="n">
-        <v>0.388544</v>
+        <v>0.378138</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240062</v>
+        <v>0.238112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417647</v>
+        <v>0.417548</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549834</v>
+        <v>0.55169</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209123</v>
+        <v>0.202926</v>
       </c>
       <c r="F3" t="n">
-        <v>0.381755</v>
+        <v>0.37481</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.231349</v>
+        <v>0.232736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410726</v>
+        <v>0.412681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.544836</v>
+        <v>0.545688</v>
       </c>
       <c r="E4" t="n">
-        <v>0.204008</v>
+        <v>0.197793</v>
       </c>
       <c r="F4" t="n">
-        <v>0.377161</v>
+        <v>0.371033</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229764</v>
+        <v>0.228581</v>
       </c>
       <c r="C5" t="n">
-        <v>0.405032</v>
+        <v>0.407992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.536872</v>
+        <v>0.541277</v>
       </c>
       <c r="E5" t="n">
-        <v>0.200033</v>
+        <v>0.194974</v>
       </c>
       <c r="F5" t="n">
-        <v>0.372957</v>
+        <v>0.368457</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222476</v>
+        <v>0.225127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.400127</v>
+        <v>0.404078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530807</v>
+        <v>0.534698</v>
       </c>
       <c r="E6" t="n">
-        <v>0.196696</v>
+        <v>0.19315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.369953</v>
+        <v>0.368888</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220253</v>
+        <v>0.219059</v>
       </c>
       <c r="C7" t="n">
-        <v>0.397454</v>
+        <v>0.399915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.681202</v>
+        <v>0.686271</v>
       </c>
       <c r="E7" t="n">
-        <v>0.193581</v>
+        <v>0.291849</v>
       </c>
       <c r="F7" t="n">
-        <v>0.368114</v>
+        <v>0.460217</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214687</v>
+        <v>0.217452</v>
       </c>
       <c r="C8" t="n">
-        <v>0.395533</v>
+        <v>0.398804</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666589</v>
+        <v>0.671624</v>
       </c>
       <c r="E8" t="n">
-        <v>0.19484</v>
+        <v>0.282231</v>
       </c>
       <c r="F8" t="n">
-        <v>0.368347</v>
+        <v>0.449356</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21814</v>
+        <v>0.218057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3948</v>
+        <v>0.400806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.653531</v>
+        <v>0.658417</v>
       </c>
       <c r="E9" t="n">
-        <v>0.28443</v>
+        <v>0.273286</v>
       </c>
       <c r="F9" t="n">
-        <v>0.454963</v>
+        <v>0.439569</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30931</v>
+        <v>0.308754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.48491</v>
+        <v>0.485425</v>
       </c>
       <c r="D10" t="n">
-        <v>0.642195</v>
+        <v>0.646309</v>
       </c>
       <c r="E10" t="n">
-        <v>0.272612</v>
+        <v>0.263703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.443722</v>
+        <v>0.429501</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298394</v>
+        <v>0.300326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.474659</v>
+        <v>0.477654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.630284</v>
+        <v>0.6353760000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.265921</v>
+        <v>0.256297</v>
       </c>
       <c r="F11" t="n">
-        <v>0.432818</v>
+        <v>0.418311</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.291028</v>
+        <v>0.283901</v>
       </c>
       <c r="C12" t="n">
-        <v>0.464663</v>
+        <v>0.464155</v>
       </c>
       <c r="D12" t="n">
-        <v>0.622123</v>
+        <v>0.625136</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256107</v>
+        <v>0.248166</v>
       </c>
       <c r="F12" t="n">
-        <v>0.423476</v>
+        <v>0.410073</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283141</v>
+        <v>0.275307</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454924</v>
+        <v>0.450778</v>
       </c>
       <c r="D13" t="n">
-        <v>0.613529</v>
+        <v>0.615815</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248982</v>
+        <v>0.242216</v>
       </c>
       <c r="F13" t="n">
-        <v>0.415583</v>
+        <v>0.40216</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269375</v>
+        <v>0.273337</v>
       </c>
       <c r="C14" t="n">
-        <v>0.444036</v>
+        <v>0.445778</v>
       </c>
       <c r="D14" t="n">
-        <v>0.605178</v>
+        <v>0.60842</v>
       </c>
       <c r="E14" t="n">
-        <v>0.241268</v>
+        <v>0.234275</v>
       </c>
       <c r="F14" t="n">
-        <v>0.407403</v>
+        <v>0.395346</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263339</v>
+        <v>0.262495</v>
       </c>
       <c r="C15" t="n">
-        <v>0.43682</v>
+        <v>0.437204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.597785</v>
+        <v>0.602533</v>
       </c>
       <c r="E15" t="n">
-        <v>0.235675</v>
+        <v>0.228635</v>
       </c>
       <c r="F15" t="n">
-        <v>0.399401</v>
+        <v>0.389094</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25876</v>
+        <v>0.258644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.429131</v>
+        <v>0.429121</v>
       </c>
       <c r="D16" t="n">
-        <v>0.591355</v>
+        <v>0.594759</v>
       </c>
       <c r="E16" t="n">
-        <v>0.227902</v>
+        <v>0.222882</v>
       </c>
       <c r="F16" t="n">
-        <v>0.392574</v>
+        <v>0.384016</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250434</v>
+        <v>0.249525</v>
       </c>
       <c r="C17" t="n">
-        <v>0.422772</v>
+        <v>0.425965</v>
       </c>
       <c r="D17" t="n">
-        <v>0.585974</v>
+        <v>0.5885320000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.222836</v>
+        <v>0.217607</v>
       </c>
       <c r="F17" t="n">
-        <v>0.386199</v>
+        <v>0.379529</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242021</v>
+        <v>0.245098</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416586</v>
+        <v>0.420997</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5823159999999999</v>
+        <v>0.583806</v>
       </c>
       <c r="E18" t="n">
-        <v>0.219685</v>
+        <v>0.214231</v>
       </c>
       <c r="F18" t="n">
-        <v>0.381124</v>
+        <v>0.372298</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238054</v>
+        <v>0.236139</v>
       </c>
       <c r="C19" t="n">
-        <v>0.410913</v>
+        <v>0.412245</v>
       </c>
       <c r="D19" t="n">
-        <v>0.578539</v>
+        <v>0.58039</v>
       </c>
       <c r="E19" t="n">
-        <v>0.214997</v>
+        <v>0.210924</v>
       </c>
       <c r="F19" t="n">
-        <v>0.375231</v>
+        <v>0.369937</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233806</v>
+        <v>0.23132</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40647</v>
+        <v>0.409945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.574008</v>
+        <v>0.577839</v>
       </c>
       <c r="E20" t="n">
-        <v>0.210573</v>
+        <v>0.209862</v>
       </c>
       <c r="F20" t="n">
-        <v>0.372003</v>
+        <v>0.369399</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230477</v>
+        <v>0.231623</v>
       </c>
       <c r="C21" t="n">
-        <v>0.404097</v>
+        <v>0.405916</v>
       </c>
       <c r="D21" t="n">
-        <v>0.749615</v>
+        <v>0.7517</v>
       </c>
       <c r="E21" t="n">
-        <v>0.208979</v>
+        <v>0.308801</v>
       </c>
       <c r="F21" t="n">
-        <v>0.370425</v>
+        <v>0.466406</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224801</v>
+        <v>0.22416</v>
       </c>
       <c r="C22" t="n">
-        <v>0.399385</v>
+        <v>0.402418</v>
       </c>
       <c r="D22" t="n">
-        <v>0.733443</v>
+        <v>0.736223</v>
       </c>
       <c r="E22" t="n">
-        <v>0.216798</v>
+        <v>0.300804</v>
       </c>
       <c r="F22" t="n">
-        <v>0.370281</v>
+        <v>0.456522</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224645</v>
+        <v>0.226064</v>
       </c>
       <c r="C23" t="n">
-        <v>0.398935</v>
+        <v>0.400962</v>
       </c>
       <c r="D23" t="n">
-        <v>0.719312</v>
+        <v>0.721782</v>
       </c>
       <c r="E23" t="n">
-        <v>0.305586</v>
+        <v>0.288605</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461805</v>
+        <v>0.446929</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314696</v>
+        <v>0.315347</v>
       </c>
       <c r="C24" t="n">
-        <v>0.496359</v>
+        <v>0.507043</v>
       </c>
       <c r="D24" t="n">
-        <v>0.706382</v>
+        <v>0.708537</v>
       </c>
       <c r="E24" t="n">
-        <v>0.294352</v>
+        <v>0.279531</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451543</v>
+        <v>0.437214</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.309149</v>
+        <v>0.304647</v>
       </c>
       <c r="C25" t="n">
-        <v>0.485901</v>
+        <v>0.496801</v>
       </c>
       <c r="D25" t="n">
-        <v>0.694817</v>
+        <v>0.69681</v>
       </c>
       <c r="E25" t="n">
-        <v>0.280582</v>
+        <v>0.27098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441012</v>
+        <v>0.426802</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296233</v>
+        <v>0.298459</v>
       </c>
       <c r="C26" t="n">
-        <v>0.475698</v>
+        <v>0.485825</v>
       </c>
       <c r="D26" t="n">
-        <v>0.683402</v>
+        <v>0.68605</v>
       </c>
       <c r="E26" t="n">
-        <v>0.27282</v>
+        <v>0.26356</v>
       </c>
       <c r="F26" t="n">
-        <v>0.431974</v>
+        <v>0.416772</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287037</v>
+        <v>0.287723</v>
       </c>
       <c r="C27" t="n">
-        <v>0.466853</v>
+        <v>0.475937</v>
       </c>
       <c r="D27" t="n">
-        <v>0.673854</v>
+        <v>0.676997</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2645</v>
+        <v>0.255111</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423461</v>
+        <v>0.410085</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279613</v>
+        <v>0.277847</v>
       </c>
       <c r="C28" t="n">
-        <v>0.458248</v>
+        <v>0.466241</v>
       </c>
       <c r="D28" t="n">
-        <v>0.666257</v>
+        <v>0.6671589999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25777</v>
+        <v>0.248165</v>
       </c>
       <c r="F28" t="n">
-        <v>0.414627</v>
+        <v>0.400697</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270763</v>
+        <v>0.270462</v>
       </c>
       <c r="C29" t="n">
-        <v>0.449218</v>
+        <v>0.45726</v>
       </c>
       <c r="D29" t="n">
-        <v>0.657301</v>
+        <v>0.659741</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25037</v>
+        <v>0.241298</v>
       </c>
       <c r="F29" t="n">
-        <v>0.406859</v>
+        <v>0.393621</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263187</v>
+        <v>0.265298</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441736</v>
+        <v>0.441415</v>
       </c>
       <c r="D30" t="n">
-        <v>0.650147</v>
+        <v>0.651174</v>
       </c>
       <c r="E30" t="n">
-        <v>0.242691</v>
+        <v>0.239185</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399882</v>
+        <v>0.39135</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255931</v>
+        <v>0.25671</v>
       </c>
       <c r="C31" t="n">
-        <v>0.435566</v>
+        <v>0.437277</v>
       </c>
       <c r="D31" t="n">
-        <v>0.643004</v>
+        <v>0.645509</v>
       </c>
       <c r="E31" t="n">
-        <v>0.235621</v>
+        <v>0.231453</v>
       </c>
       <c r="F31" t="n">
-        <v>0.393341</v>
+        <v>0.387158</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249588</v>
+        <v>0.250333</v>
       </c>
       <c r="C32" t="n">
-        <v>0.427679</v>
+        <v>0.432502</v>
       </c>
       <c r="D32" t="n">
-        <v>0.637005</v>
+        <v>0.640384</v>
       </c>
       <c r="E32" t="n">
-        <v>0.230108</v>
+        <v>0.225027</v>
       </c>
       <c r="F32" t="n">
-        <v>0.387114</v>
+        <v>0.383377</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243967</v>
+        <v>0.244111</v>
       </c>
       <c r="C33" t="n">
-        <v>0.422315</v>
+        <v>0.427878</v>
       </c>
       <c r="D33" t="n">
-        <v>0.631557</v>
+        <v>0.635256</v>
       </c>
       <c r="E33" t="n">
-        <v>0.22514</v>
+        <v>0.221787</v>
       </c>
       <c r="F33" t="n">
-        <v>0.382174</v>
+        <v>0.374486</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.238532</v>
+        <v>0.23867</v>
       </c>
       <c r="C34" t="n">
-        <v>0.416953</v>
+        <v>0.423687</v>
       </c>
       <c r="D34" t="n">
-        <v>0.628375</v>
+        <v>0.630488</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222995</v>
+        <v>0.220228</v>
       </c>
       <c r="F34" t="n">
-        <v>0.378599</v>
+        <v>0.378736</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234141</v>
+        <v>0.233227</v>
       </c>
       <c r="C35" t="n">
-        <v>0.412655</v>
+        <v>0.420358</v>
       </c>
       <c r="D35" t="n">
-        <v>0.81397</v>
+        <v>0.8161079999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.220346</v>
+        <v>0.220693</v>
       </c>
       <c r="F35" t="n">
-        <v>0.375684</v>
+        <v>0.379806</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231328</v>
+        <v>0.230018</v>
       </c>
       <c r="C36" t="n">
-        <v>0.408547</v>
+        <v>0.411188</v>
       </c>
       <c r="D36" t="n">
-        <v>0.796633</v>
+        <v>0.798516</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219155</v>
+        <v>0.311535</v>
       </c>
       <c r="F36" t="n">
-        <v>0.374818</v>
+        <v>0.463838</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229671</v>
+        <v>0.230285</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40756</v>
+        <v>0.410663</v>
       </c>
       <c r="D37" t="n">
-        <v>0.780243</v>
+        <v>0.783598</v>
       </c>
       <c r="E37" t="n">
-        <v>0.316221</v>
+        <v>0.301356</v>
       </c>
       <c r="F37" t="n">
-        <v>0.471531</v>
+        <v>0.453667</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.31899</v>
+        <v>0.317993</v>
       </c>
       <c r="C38" t="n">
-        <v>0.511303</v>
+        <v>0.515275</v>
       </c>
       <c r="D38" t="n">
-        <v>0.76601</v>
+        <v>0.768438</v>
       </c>
       <c r="E38" t="n">
-        <v>0.300158</v>
+        <v>0.290464</v>
       </c>
       <c r="F38" t="n">
-        <v>0.461278</v>
+        <v>0.449673</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3092</v>
+        <v>0.307584</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501877</v>
+        <v>0.505475</v>
       </c>
       <c r="D39" t="n">
-        <v>0.752814</v>
+        <v>0.754841</v>
       </c>
       <c r="E39" t="n">
-        <v>0.295412</v>
+        <v>0.281505</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451946</v>
+        <v>0.435178</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299897</v>
+        <v>0.299536</v>
       </c>
       <c r="C40" t="n">
-        <v>0.491333</v>
+        <v>0.4942</v>
       </c>
       <c r="D40" t="n">
-        <v>0.739356</v>
+        <v>0.74154</v>
       </c>
       <c r="E40" t="n">
-        <v>0.283945</v>
+        <v>0.274016</v>
       </c>
       <c r="F40" t="n">
-        <v>0.442881</v>
+        <v>0.427887</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.295652</v>
+        <v>0.292117</v>
       </c>
       <c r="C41" t="n">
-        <v>0.480903</v>
+        <v>0.485772</v>
       </c>
       <c r="D41" t="n">
-        <v>0.728044</v>
+        <v>0.729506</v>
       </c>
       <c r="E41" t="n">
-        <v>0.280025</v>
+        <v>0.266524</v>
       </c>
       <c r="F41" t="n">
-        <v>0.434489</v>
+        <v>0.418472</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28483</v>
+        <v>0.281108</v>
       </c>
       <c r="C42" t="n">
-        <v>0.472228</v>
+        <v>0.47584</v>
       </c>
       <c r="D42" t="n">
-        <v>0.716734</v>
+        <v>0.719661</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268229</v>
+        <v>0.258726</v>
       </c>
       <c r="F42" t="n">
-        <v>0.42638</v>
+        <v>0.412701</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276086</v>
+        <v>0.284274</v>
       </c>
       <c r="C43" t="n">
-        <v>0.463912</v>
+        <v>0.468206</v>
       </c>
       <c r="D43" t="n">
-        <v>0.708199</v>
+        <v>0.710022</v>
       </c>
       <c r="E43" t="n">
-        <v>0.259972</v>
+        <v>0.252853</v>
       </c>
       <c r="F43" t="n">
-        <v>0.418571</v>
+        <v>0.405207</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280132</v>
+        <v>0.279476</v>
       </c>
       <c r="C44" t="n">
-        <v>0.456518</v>
+        <v>0.458728</v>
       </c>
       <c r="D44" t="n">
-        <v>0.700272</v>
+        <v>0.701658</v>
       </c>
       <c r="E44" t="n">
-        <v>0.252895</v>
+        <v>0.247445</v>
       </c>
       <c r="F44" t="n">
-        <v>0.411042</v>
+        <v>0.399251</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270218</v>
+        <v>0.262585</v>
       </c>
       <c r="C45" t="n">
-        <v>0.448289</v>
+        <v>0.451763</v>
       </c>
       <c r="D45" t="n">
-        <v>0.692089</v>
+        <v>0.694443</v>
       </c>
       <c r="E45" t="n">
-        <v>0.245623</v>
+        <v>0.24019</v>
       </c>
       <c r="F45" t="n">
-        <v>0.404405</v>
+        <v>0.394071</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.269265</v>
+        <v>0.259184</v>
       </c>
       <c r="C46" t="n">
-        <v>0.440952</v>
+        <v>0.445286</v>
       </c>
       <c r="D46" t="n">
-        <v>0.684778</v>
+        <v>0.687593</v>
       </c>
       <c r="E46" t="n">
-        <v>0.243453</v>
+        <v>0.235486</v>
       </c>
       <c r="F46" t="n">
-        <v>0.398141</v>
+        <v>0.390079</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.248788</v>
+        <v>0.248363</v>
       </c>
       <c r="C47" t="n">
-        <v>0.434743</v>
+        <v>0.438642</v>
       </c>
       <c r="D47" t="n">
-        <v>0.678459</v>
+        <v>0.681268</v>
       </c>
       <c r="E47" t="n">
-        <v>0.238625</v>
+        <v>0.232136</v>
       </c>
       <c r="F47" t="n">
-        <v>0.393284</v>
+        <v>0.386782</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.249795</v>
+        <v>0.24291</v>
       </c>
       <c r="C48" t="n">
-        <v>0.428969</v>
+        <v>0.43349</v>
       </c>
       <c r="D48" t="n">
-        <v>0.674721</v>
+        <v>0.676293</v>
       </c>
       <c r="E48" t="n">
-        <v>0.233178</v>
+        <v>0.227883</v>
       </c>
       <c r="F48" t="n">
-        <v>0.389924</v>
+        <v>0.385222</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240393</v>
+        <v>0.249797</v>
       </c>
       <c r="C49" t="n">
-        <v>0.425339</v>
+        <v>0.425073</v>
       </c>
       <c r="D49" t="n">
-        <v>0.669511</v>
+        <v>0.6713</v>
       </c>
       <c r="E49" t="n">
-        <v>0.230659</v>
+        <v>0.228745</v>
       </c>
       <c r="F49" t="n">
-        <v>0.386511</v>
+        <v>0.385838</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234949</v>
+        <v>0.235748</v>
       </c>
       <c r="C50" t="n">
-        <v>0.422414</v>
+        <v>0.422599</v>
       </c>
       <c r="D50" t="n">
-        <v>0.84936</v>
+        <v>0.850255</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225704</v>
+        <v>0.326309</v>
       </c>
       <c r="F50" t="n">
-        <v>0.387374</v>
+        <v>0.479653</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235082</v>
+        <v>0.243591</v>
       </c>
       <c r="C51" t="n">
-        <v>0.420024</v>
+        <v>0.423906</v>
       </c>
       <c r="D51" t="n">
-        <v>0.831278</v>
+        <v>0.832742</v>
       </c>
       <c r="E51" t="n">
-        <v>0.327057</v>
+        <v>0.316377</v>
       </c>
       <c r="F51" t="n">
-        <v>0.485142</v>
+        <v>0.469457</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23697</v>
+        <v>0.24154</v>
       </c>
       <c r="C52" t="n">
-        <v>0.420688</v>
+        <v>0.423999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.814594</v>
+        <v>0.816118</v>
       </c>
       <c r="E52" t="n">
-        <v>0.317174</v>
+        <v>0.308303</v>
       </c>
       <c r="F52" t="n">
-        <v>0.476173</v>
+        <v>0.460568</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.326302</v>
+        <v>0.326863</v>
       </c>
       <c r="C53" t="n">
-        <v>0.519268</v>
+        <v>0.522186</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799222</v>
+        <v>0.800554</v>
       </c>
       <c r="E53" t="n">
-        <v>0.308036</v>
+        <v>0.298976</v>
       </c>
       <c r="F53" t="n">
-        <v>0.467647</v>
+        <v>0.451024</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.316315</v>
+        <v>0.316044</v>
       </c>
       <c r="C54" t="n">
-        <v>0.509099</v>
+        <v>0.512944</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784319</v>
+        <v>0.78569</v>
       </c>
       <c r="E54" t="n">
-        <v>0.299073</v>
+        <v>0.292285</v>
       </c>
       <c r="F54" t="n">
-        <v>0.457324</v>
+        <v>0.442789</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309591</v>
+        <v>0.306899</v>
       </c>
       <c r="C55" t="n">
-        <v>0.50143</v>
+        <v>0.500702</v>
       </c>
       <c r="D55" t="n">
-        <v>0.771723</v>
+        <v>0.773213</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290643</v>
+        <v>0.283754</v>
       </c>
       <c r="F55" t="n">
-        <v>0.450205</v>
+        <v>0.434889</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.299771</v>
+        <v>0.294508</v>
       </c>
       <c r="C56" t="n">
-        <v>0.491948</v>
+        <v>0.492888</v>
       </c>
       <c r="D56" t="n">
-        <v>0.759215</v>
+        <v>0.7612910000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.283564</v>
+        <v>0.275198</v>
       </c>
       <c r="F56" t="n">
-        <v>0.44266</v>
+        <v>0.428346</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287091</v>
+        <v>0.302355</v>
       </c>
       <c r="C57" t="n">
-        <v>0.484582</v>
+        <v>0.485665</v>
       </c>
       <c r="D57" t="n">
-        <v>0.748979</v>
+        <v>0.750358</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276809</v>
+        <v>0.268039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.434364</v>
+        <v>0.420479</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.281493</v>
+        <v>0.282072</v>
       </c>
       <c r="C58" t="n">
-        <v>0.476291</v>
+        <v>0.478355</v>
       </c>
       <c r="D58" t="n">
-        <v>0.739154</v>
+        <v>0.740923</v>
       </c>
       <c r="E58" t="n">
-        <v>0.269804</v>
+        <v>0.262102</v>
       </c>
       <c r="F58" t="n">
-        <v>0.427231</v>
+        <v>0.414883</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27484</v>
+        <v>0.274829</v>
       </c>
       <c r="C59" t="n">
-        <v>0.471206</v>
+        <v>0.47145</v>
       </c>
       <c r="D59" t="n">
-        <v>0.730232</v>
+        <v>0.73201</v>
       </c>
       <c r="E59" t="n">
-        <v>0.263078</v>
+        <v>0.25588</v>
       </c>
       <c r="F59" t="n">
-        <v>0.422597</v>
+        <v>0.409809</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.273311</v>
+        <v>0.26803</v>
       </c>
       <c r="C60" t="n">
-        <v>0.464551</v>
+        <v>0.465449</v>
       </c>
       <c r="D60" t="n">
-        <v>0.722153</v>
+        <v>0.724751</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255986</v>
+        <v>0.251023</v>
       </c>
       <c r="F60" t="n">
-        <v>0.416659</v>
+        <v>0.404231</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263654</v>
+        <v>0.263398</v>
       </c>
       <c r="C61" t="n">
-        <v>0.458377</v>
+        <v>0.460752</v>
       </c>
       <c r="D61" t="n">
-        <v>0.715755</v>
+        <v>0.717479</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253474</v>
+        <v>0.24793</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412332</v>
+        <v>0.404407</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260704</v>
+        <v>0.254698</v>
       </c>
       <c r="C62" t="n">
-        <v>0.45549</v>
+        <v>0.456207</v>
       </c>
       <c r="D62" t="n">
-        <v>0.710122</v>
+        <v>0.711411</v>
       </c>
       <c r="E62" t="n">
-        <v>0.247812</v>
+        <v>0.243929</v>
       </c>
       <c r="F62" t="n">
-        <v>0.408486</v>
+        <v>0.402118</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255798</v>
+        <v>0.258596</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450455</v>
+        <v>0.451071</v>
       </c>
       <c r="D63" t="n">
-        <v>0.705587</v>
+        <v>0.706512</v>
       </c>
       <c r="E63" t="n">
-        <v>0.245842</v>
+        <v>0.243483</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40585</v>
+        <v>0.400979</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251921</v>
+        <v>0.257944</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448122</v>
+        <v>0.447871</v>
       </c>
       <c r="D64" t="n">
-        <v>0.913281</v>
+        <v>0.917701</v>
       </c>
       <c r="E64" t="n">
-        <v>0.241297</v>
+        <v>0.350722</v>
       </c>
       <c r="F64" t="n">
-        <v>0.403859</v>
+        <v>0.507846</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246639</v>
+        <v>0.251424</v>
       </c>
       <c r="C65" t="n">
-        <v>0.444992</v>
+        <v>0.444837</v>
       </c>
       <c r="D65" t="n">
-        <v>0.893745</v>
+        <v>0.8995880000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.242321</v>
+        <v>0.336102</v>
       </c>
       <c r="F65" t="n">
-        <v>0.404205</v>
+        <v>0.500502</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.248804</v>
+        <v>0.250858</v>
       </c>
       <c r="C66" t="n">
-        <v>0.444676</v>
+        <v>0.44576</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8779940000000001</v>
+        <v>0.880959</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337239</v>
+        <v>0.334126</v>
       </c>
       <c r="F66" t="n">
-        <v>0.51535</v>
+        <v>0.493914</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388536</v>
+        <v>0.390989</v>
       </c>
       <c r="C67" t="n">
-        <v>0.587094</v>
+        <v>0.588696</v>
       </c>
       <c r="D67" t="n">
-        <v>0.861644</v>
+        <v>0.864411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.330014</v>
+        <v>0.325188</v>
       </c>
       <c r="F67" t="n">
-        <v>0.507109</v>
+        <v>0.485629</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.376196</v>
+        <v>0.396213</v>
       </c>
       <c r="C68" t="n">
-        <v>0.579186</v>
+        <v>0.57959</v>
       </c>
       <c r="D68" t="n">
-        <v>0.84617</v>
+        <v>0.848818</v>
       </c>
       <c r="E68" t="n">
-        <v>0.325247</v>
+        <v>0.322895</v>
       </c>
       <c r="F68" t="n">
-        <v>0.499885</v>
+        <v>0.477946</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.371631</v>
+        <v>0.378851</v>
       </c>
       <c r="C69" t="n">
-        <v>0.577968</v>
+        <v>0.572406</v>
       </c>
       <c r="D69" t="n">
-        <v>0.831949</v>
+        <v>0.83492</v>
       </c>
       <c r="E69" t="n">
-        <v>0.317861</v>
+        <v>0.310022</v>
       </c>
       <c r="F69" t="n">
-        <v>0.492846</v>
+        <v>0.471329</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365337</v>
+        <v>0.371051</v>
       </c>
       <c r="C70" t="n">
-        <v>0.57081</v>
+        <v>0.5645019999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.82209</v>
+        <v>0.8241579999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.310044</v>
+        <v>0.297543</v>
       </c>
       <c r="F70" t="n">
-        <v>0.484817</v>
+        <v>0.463236</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.348856</v>
+        <v>0.374893</v>
       </c>
       <c r="C71" t="n">
-        <v>0.56143</v>
+        <v>0.554557</v>
       </c>
       <c r="D71" t="n">
-        <v>0.812244</v>
+        <v>0.812422</v>
       </c>
       <c r="E71" t="n">
-        <v>0.302104</v>
+        <v>0.295427</v>
       </c>
       <c r="F71" t="n">
-        <v>0.477583</v>
+        <v>0.458018</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.361098</v>
+        <v>0.349602</v>
       </c>
       <c r="C72" t="n">
-        <v>0.551045</v>
+        <v>0.547354</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.806876</v>
       </c>
       <c r="E72" t="n">
-        <v>0.296854</v>
+        <v>0.291296</v>
       </c>
       <c r="F72" t="n">
-        <v>0.471495</v>
+        <v>0.452332</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.341347</v>
+        <v>0.360895</v>
       </c>
       <c r="C73" t="n">
-        <v>0.545121</v>
+        <v>0.541575</v>
       </c>
       <c r="D73" t="n">
-        <v>0.798489</v>
+        <v>0.800284</v>
       </c>
       <c r="E73" t="n">
-        <v>0.288614</v>
+        <v>0.286555</v>
       </c>
       <c r="F73" t="n">
-        <v>0.465477</v>
+        <v>0.447476</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.327776</v>
+        <v>0.348972</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5415140000000001</v>
+        <v>0.535297</v>
       </c>
       <c r="D74" t="n">
-        <v>0.793441</v>
+        <v>0.794703</v>
       </c>
       <c r="E74" t="n">
-        <v>0.283123</v>
+        <v>0.279524</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4596</v>
+        <v>0.442713</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.331637</v>
+        <v>0.34653</v>
       </c>
       <c r="C75" t="n">
-        <v>0.537648</v>
+        <v>0.534379</v>
       </c>
       <c r="D75" t="n">
-        <v>0.790879</v>
+        <v>0.792593</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274156</v>
+        <v>0.273199</v>
       </c>
       <c r="F75" t="n">
-        <v>0.454246</v>
+        <v>0.440445</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.326108</v>
+        <v>0.318619</v>
       </c>
       <c r="C76" t="n">
-        <v>0.53134</v>
+        <v>0.527882</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7888810000000001</v>
+        <v>0.7915990000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.270051</v>
+        <v>0.269275</v>
       </c>
       <c r="F76" t="n">
-        <v>0.451016</v>
+        <v>0.438525</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325287</v>
+        <v>0.325102</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526146</v>
+        <v>0.525093</v>
       </c>
       <c r="D77" t="n">
-        <v>0.787906</v>
+        <v>0.791779</v>
       </c>
       <c r="E77" t="n">
-        <v>0.268192</v>
+        <v>0.264839</v>
       </c>
       <c r="F77" t="n">
-        <v>0.448656</v>
+        <v>0.439048</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.305543</v>
+        <v>0.314924</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5248660000000001</v>
+        <v>0.521595</v>
       </c>
       <c r="D78" t="n">
-        <v>1.2496</v>
+        <v>1.25441</v>
       </c>
       <c r="E78" t="n">
-        <v>0.263377</v>
+        <v>0.267116</v>
       </c>
       <c r="F78" t="n">
-        <v>0.447342</v>
+        <v>0.441114</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.313051</v>
+        <v>0.315455</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5234760000000001</v>
+        <v>0.522046</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2295</v>
+        <v>1.23405</v>
       </c>
       <c r="E79" t="n">
-        <v>0.263809</v>
+        <v>0.397277</v>
       </c>
       <c r="F79" t="n">
-        <v>0.448691</v>
+        <v>0.709003</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302931</v>
+        <v>0.331075</v>
       </c>
       <c r="C80" t="n">
-        <v>0.526366</v>
+        <v>0.522412</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20988</v>
+        <v>1.21585</v>
       </c>
       <c r="E80" t="n">
-        <v>0.383662</v>
+        <v>0.388163</v>
       </c>
       <c r="F80" t="n">
-        <v>0.734343</v>
+        <v>0.707431</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.429842</v>
+        <v>0.439381</v>
       </c>
       <c r="C81" t="n">
-        <v>0.838235</v>
+        <v>0.851196</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19471</v>
+        <v>1.19981</v>
       </c>
       <c r="E81" t="n">
-        <v>0.38156</v>
+        <v>0.36834</v>
       </c>
       <c r="F81" t="n">
-        <v>0.738199</v>
+        <v>0.697964</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.422639</v>
+        <v>0.450351</v>
       </c>
       <c r="C82" t="n">
-        <v>0.840588</v>
+        <v>0.85429</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18146</v>
+        <v>1.18773</v>
       </c>
       <c r="E82" t="n">
-        <v>0.37169</v>
+        <v>0.368747</v>
       </c>
       <c r="F82" t="n">
-        <v>0.734389</v>
+        <v>0.6875289999999999</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.428928</v>
+        <v>0.416271</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8512729999999999</v>
+        <v>0.851065</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16981</v>
+        <v>1.17451</v>
       </c>
       <c r="E83" t="n">
-        <v>0.359232</v>
+        <v>0.351518</v>
       </c>
       <c r="F83" t="n">
-        <v>0.726146</v>
+        <v>0.678076</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.424439</v>
+        <v>0.434599</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837717</v>
+        <v>0.841989</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16173</v>
+        <v>1.16728</v>
       </c>
       <c r="E84" t="n">
-        <v>0.355294</v>
+        <v>0.346292</v>
       </c>
       <c r="F84" t="n">
-        <v>0.716143</v>
+        <v>0.666979</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.382893</v>
+        <v>0.430134</v>
       </c>
       <c r="C85" t="n">
-        <v>0.828345</v>
+        <v>0.83042</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15813</v>
+        <v>1.16221</v>
       </c>
       <c r="E85" t="n">
-        <v>0.349439</v>
+        <v>0.347805</v>
       </c>
       <c r="F85" t="n">
-        <v>0.704095</v>
+        <v>0.65377</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.393582</v>
+        <v>0.429075</v>
       </c>
       <c r="C86" t="n">
-        <v>0.816613</v>
+        <v>0.822103</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15519</v>
+        <v>1.16081</v>
       </c>
       <c r="E86" t="n">
-        <v>0.344694</v>
+        <v>0.340098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.690448</v>
+        <v>0.64214</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.403557</v>
+        <v>0.414431</v>
       </c>
       <c r="C87" t="n">
-        <v>0.804306</v>
+        <v>0.812853</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15495</v>
+        <v>1.16068</v>
       </c>
       <c r="E87" t="n">
-        <v>0.332008</v>
+        <v>0.332057</v>
       </c>
       <c r="F87" t="n">
-        <v>0.678379</v>
+        <v>0.631207</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.383023</v>
+        <v>0.393417</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7930430000000001</v>
+        <v>0.7936800000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16277</v>
+        <v>1.16653</v>
       </c>
       <c r="E88" t="n">
-        <v>0.329743</v>
+        <v>0.326642</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6644409999999999</v>
+        <v>0.621507</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.40711</v>
+        <v>0.395357</v>
       </c>
       <c r="C89" t="n">
-        <v>0.782895</v>
+        <v>0.78433</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17194</v>
+        <v>1.17096</v>
       </c>
       <c r="E89" t="n">
-        <v>0.320744</v>
+        <v>0.319854</v>
       </c>
       <c r="F89" t="n">
-        <v>0.654448</v>
+        <v>0.613018</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.390023</v>
+        <v>0.369032</v>
       </c>
       <c r="C90" t="n">
-        <v>0.771818</v>
+        <v>0.775807</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17976</v>
+        <v>1.18677</v>
       </c>
       <c r="E90" t="n">
-        <v>0.321623</v>
+        <v>0.320784</v>
       </c>
       <c r="F90" t="n">
-        <v>0.641824</v>
+        <v>0.600954</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.370469</v>
+        <v>0.387631</v>
       </c>
       <c r="C91" t="n">
-        <v>0.763734</v>
+        <v>0.7679510000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19187</v>
+        <v>1.19253</v>
       </c>
       <c r="E91" t="n">
-        <v>0.308445</v>
+        <v>0.30978</v>
       </c>
       <c r="F91" t="n">
-        <v>0.634118</v>
+        <v>0.596511</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.360822</v>
+        <v>0.3874</v>
       </c>
       <c r="C92" t="n">
-        <v>0.755413</v>
+        <v>0.756242</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7585</v>
+        <v>1.76659</v>
       </c>
       <c r="E92" t="n">
-        <v>0.310736</v>
+        <v>0.31094</v>
       </c>
       <c r="F92" t="n">
-        <v>0.626201</v>
+        <v>0.593686</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358194</v>
+        <v>0.380791</v>
       </c>
       <c r="C93" t="n">
-        <v>0.747044</v>
+        <v>0.7494189999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74864</v>
+        <v>1.75541</v>
       </c>
       <c r="E93" t="n">
-        <v>0.307404</v>
+        <v>0.424112</v>
       </c>
       <c r="F93" t="n">
-        <v>0.620537</v>
+        <v>0.968001</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387012</v>
+        <v>0.361328</v>
       </c>
       <c r="C94" t="n">
-        <v>0.742736</v>
+        <v>0.743721</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73723</v>
+        <v>1.74573</v>
       </c>
       <c r="E94" t="n">
-        <v>0.506189</v>
+        <v>0.429549</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12175</v>
+        <v>0.958469</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.559604</v>
+        <v>0.557744</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1505</v>
+        <v>1.13842</v>
       </c>
       <c r="D95" t="n">
-        <v>1.7262</v>
+        <v>1.73128</v>
       </c>
       <c r="E95" t="n">
-        <v>0.499162</v>
+        <v>0.409487</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11716</v>
+        <v>0.945567</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.549825</v>
+        <v>0.549083</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15763</v>
+        <v>1.15076</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71658</v>
+        <v>1.71954</v>
       </c>
       <c r="E96" t="n">
-        <v>0.492053</v>
+        <v>0.415225</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10625</v>
+        <v>0.930386</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.547495</v>
+        <v>0.527227</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1457</v>
+        <v>1.1442</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70665</v>
+        <v>1.71165</v>
       </c>
       <c r="E97" t="n">
-        <v>0.474962</v>
+        <v>0.408411</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08568</v>
+        <v>0.9145</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.547693</v>
+        <v>0.532809</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14567</v>
+        <v>1.14347</v>
       </c>
       <c r="D98" t="n">
-        <v>1.70049</v>
+        <v>1.70753</v>
       </c>
       <c r="E98" t="n">
-        <v>0.465902</v>
+        <v>0.392946</v>
       </c>
       <c r="F98" t="n">
-        <v>1.07022</v>
+        <v>0.898519</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528297</v>
+        <v>0.524389</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12117</v>
+        <v>1.12193</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69613</v>
+        <v>1.70204</v>
       </c>
       <c r="E99" t="n">
-        <v>0.456363</v>
+        <v>0.391328</v>
       </c>
       <c r="F99" t="n">
-        <v>1.05244</v>
+        <v>0.882396</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.505564</v>
+        <v>0.51589</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10204</v>
+        <v>1.11183</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69886</v>
+        <v>1.70392</v>
       </c>
       <c r="E100" t="n">
-        <v>0.444037</v>
+        <v>0.373114</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03522</v>
+        <v>0.866889</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504152</v>
+        <v>0.502443</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09096</v>
+        <v>1.09665</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70613</v>
+        <v>1.71128</v>
       </c>
       <c r="E101" t="n">
-        <v>0.439517</v>
+        <v>0.377487</v>
       </c>
       <c r="F101" t="n">
-        <v>1.01856</v>
+        <v>0.854329</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5005500000000001</v>
+        <v>0.496955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08873</v>
+        <v>1.07667</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71315</v>
+        <v>1.71711</v>
       </c>
       <c r="E102" t="n">
-        <v>0.428035</v>
+        <v>0.361165</v>
       </c>
       <c r="F102" t="n">
-        <v>0.99852</v>
+        <v>0.8427249999999999</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.487238</v>
+        <v>0.489515</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06794</v>
+        <v>1.06499</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71951</v>
+        <v>1.72708</v>
       </c>
       <c r="E103" t="n">
-        <v>0.419323</v>
+        <v>0.369917</v>
       </c>
       <c r="F103" t="n">
-        <v>0.989603</v>
+        <v>0.832104</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483048</v>
+        <v>0.477572</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0512</v>
+        <v>1.04985</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73245</v>
+        <v>1.73971</v>
       </c>
       <c r="E104" t="n">
-        <v>0.410547</v>
+        <v>0.358581</v>
       </c>
       <c r="F104" t="n">
-        <v>0.97654</v>
+        <v>0.823817</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.469866</v>
+        <v>0.471496</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04799</v>
+        <v>1.05263</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74251</v>
+        <v>1.75348</v>
       </c>
       <c r="E105" t="n">
-        <v>0.405432</v>
+        <v>0.35168</v>
       </c>
       <c r="F105" t="n">
-        <v>0.962652</v>
+        <v>0.81074</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.469178</v>
+        <v>0.466011</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02364</v>
+        <v>1.0417</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76137</v>
+        <v>1.76825</v>
       </c>
       <c r="E106" t="n">
-        <v>0.399306</v>
+        <v>0.359949</v>
       </c>
       <c r="F106" t="n">
-        <v>0.951533</v>
+        <v>0.8050659999999999</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.459229</v>
+        <v>0.454136</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03447</v>
+        <v>1.03643</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36258</v>
+        <v>2.37736</v>
       </c>
       <c r="E107" t="n">
-        <v>0.395455</v>
+        <v>0.535505</v>
       </c>
       <c r="F107" t="n">
-        <v>0.941099</v>
+        <v>2.31114</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.459552</v>
+        <v>0.469315</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0277</v>
+        <v>1.03057</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33523</v>
+        <v>2.34872</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5479270000000001</v>
+        <v>0.536307</v>
       </c>
       <c r="F108" t="n">
-        <v>2.39355</v>
+        <v>2.313</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.472082</v>
+        <v>0.46217</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01994</v>
+        <v>1.01955</v>
       </c>
       <c r="D109" t="n">
-        <v>2.31159</v>
+        <v>2.32582</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546221</v>
+        <v>0.526968</v>
       </c>
       <c r="F109" t="n">
-        <v>2.39319</v>
+        <v>2.31757</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.611839</v>
+        <v>0.674023</v>
       </c>
       <c r="C110" t="n">
-        <v>2.58444</v>
+        <v>2.58487</v>
       </c>
       <c r="D110" t="n">
-        <v>2.29</v>
+        <v>2.30619</v>
       </c>
       <c r="E110" t="n">
-        <v>0.584331</v>
+        <v>0.517363</v>
       </c>
       <c r="F110" t="n">
-        <v>2.39851</v>
+        <v>1.37899</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.653898</v>
+        <v>0.638702</v>
       </c>
       <c r="C111" t="n">
-        <v>2.5836</v>
+        <v>2.60008</v>
       </c>
       <c r="D111" t="n">
-        <v>2.27307</v>
+        <v>2.28462</v>
       </c>
       <c r="E111" t="n">
-        <v>0.569806</v>
+        <v>0.505957</v>
       </c>
       <c r="F111" t="n">
-        <v>2.40871</v>
+        <v>2.31252</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.657148</v>
+        <v>0.597418</v>
       </c>
       <c r="C112" t="n">
-        <v>2.5897</v>
+        <v>2.57919</v>
       </c>
       <c r="D112" t="n">
-        <v>2.2574</v>
+        <v>2.26935</v>
       </c>
       <c r="E112" t="n">
-        <v>0.558465</v>
+        <v>0.497922</v>
       </c>
       <c r="F112" t="n">
-        <v>2.40337</v>
+        <v>2.3024</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.638897</v>
+        <v>0.61537</v>
       </c>
       <c r="C113" t="n">
-        <v>2.58588</v>
+        <v>2.57734</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26013</v>
+        <v>2.2622</v>
       </c>
       <c r="E113" t="n">
-        <v>0.506613</v>
+        <v>0.49063</v>
       </c>
       <c r="F113" t="n">
-        <v>2.40038</v>
+        <v>2.31332</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.633027</v>
+        <v>0.588197</v>
       </c>
       <c r="C114" t="n">
-        <v>2.58092</v>
+        <v>2.5997</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27314</v>
+        <v>2.24909</v>
       </c>
       <c r="E114" t="n">
-        <v>0.537556</v>
+        <v>0.479376</v>
       </c>
       <c r="F114" t="n">
-        <v>2.39909</v>
+        <v>2.299</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.61689</v>
+        <v>0.596396</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57117</v>
+        <v>2.59789</v>
       </c>
       <c r="D115" t="n">
-        <v>2.25232</v>
+        <v>2.24925</v>
       </c>
       <c r="E115" t="n">
-        <v>0.48931</v>
+        <v>0.467912</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39437</v>
+        <v>2.3001</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.601812</v>
+        <v>0.5721619999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56476</v>
+        <v>2.57716</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26474</v>
+        <v>2.24031</v>
       </c>
       <c r="E116" t="n">
-        <v>0.516482</v>
+        <v>0.464053</v>
       </c>
       <c r="F116" t="n">
-        <v>2.41038</v>
+        <v>2.30285</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.595133</v>
+        <v>0.581888</v>
       </c>
       <c r="C117" t="n">
-        <v>2.6024</v>
+        <v>2.58948</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27697</v>
+        <v>2.25964</v>
       </c>
       <c r="E117" t="n">
-        <v>0.47468</v>
+        <v>0.455451</v>
       </c>
       <c r="F117" t="n">
-        <v>2.41343</v>
+        <v>2.12063</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.584024</v>
+        <v>0.57988</v>
       </c>
       <c r="C118" t="n">
-        <v>2.58014</v>
+        <v>2.59731</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23498</v>
+        <v>2.25774</v>
       </c>
       <c r="E118" t="n">
-        <v>0.465313</v>
+        <v>0.452439</v>
       </c>
       <c r="F118" t="n">
-        <v>2.21742</v>
+        <v>1.90881</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.564178</v>
+        <v>0.566629</v>
       </c>
       <c r="C119" t="n">
-        <v>2.35829</v>
+        <v>2.58043</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23746</v>
+        <v>2.25517</v>
       </c>
       <c r="E119" t="n">
-        <v>0.458922</v>
+        <v>0.447576</v>
       </c>
       <c r="F119" t="n">
-        <v>1.5921</v>
+        <v>1.90545</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.545559</v>
+        <v>0.55952</v>
       </c>
       <c r="C120" t="n">
-        <v>2.17548</v>
+        <v>2.609</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24566</v>
+        <v>2.26668</v>
       </c>
       <c r="E120" t="n">
-        <v>0.456274</v>
+        <v>0.440421</v>
       </c>
       <c r="F120" t="n">
-        <v>2.4214</v>
+        <v>1.90416</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.550005</v>
+        <v>0.549447</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57233</v>
+        <v>2.58956</v>
       </c>
       <c r="D121" t="n">
-        <v>2.932</v>
+        <v>2.94183</v>
       </c>
       <c r="E121" t="n">
-        <v>0.450608</v>
+        <v>0.635448</v>
       </c>
       <c r="F121" t="n">
-        <v>2.21894</v>
+        <v>2.82441</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5288659999999999</v>
+        <v>0.540432</v>
       </c>
       <c r="C122" t="n">
-        <v>2.58287</v>
+        <v>2.3922</v>
       </c>
       <c r="D122" t="n">
-        <v>2.86859</v>
+        <v>2.9005</v>
       </c>
       <c r="E122" t="n">
-        <v>0.448136</v>
+        <v>0.635873</v>
       </c>
       <c r="F122" t="n">
-        <v>2.43351</v>
+        <v>2.81277</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.545967</v>
+        <v>0.532303</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59722</v>
+        <v>2.61721</v>
       </c>
       <c r="D123" t="n">
-        <v>2.83817</v>
+        <v>2.8598</v>
       </c>
       <c r="E123" t="n">
-        <v>0.649988</v>
+        <v>0.627012</v>
       </c>
       <c r="F123" t="n">
-        <v>2.9338</v>
+        <v>2.80744</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.719647</v>
+        <v>0.718471</v>
       </c>
       <c r="C124" t="n">
-        <v>3.18998</v>
+        <v>3.18826</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80539</v>
+        <v>2.82353</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6415</v>
+        <v>0.619467</v>
       </c>
       <c r="F124" t="n">
-        <v>2.92447</v>
+        <v>2.79509</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7314310000000001</v>
+        <v>0.7204970000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>3.15351</v>
+        <v>3.18551</v>
       </c>
       <c r="D125" t="n">
-        <v>2.77095</v>
+        <v>2.79254</v>
       </c>
       <c r="E125" t="n">
-        <v>0.633023</v>
+        <v>0.612208</v>
       </c>
       <c r="F125" t="n">
-        <v>2.91406</v>
+        <v>2.7736</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.721208</v>
+        <v>0.705888</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15694</v>
+        <v>3.16762</v>
       </c>
       <c r="D126" t="n">
-        <v>2.74479</v>
+        <v>2.76345</v>
       </c>
       <c r="E126" t="n">
-        <v>0.64856</v>
+        <v>0.607918</v>
       </c>
       <c r="F126" t="n">
-        <v>2.89437</v>
+        <v>2.77595</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70464</v>
+        <v>0.702427</v>
       </c>
       <c r="C127" t="n">
-        <v>3.13599</v>
+        <v>3.15507</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72153</v>
+        <v>2.73383</v>
       </c>
       <c r="E127" t="n">
-        <v>0.620309</v>
+        <v>0.606144</v>
       </c>
       <c r="F127" t="n">
-        <v>2.89935</v>
+        <v>2.76559</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.69008</v>
+        <v>0.683509</v>
       </c>
       <c r="C128" t="n">
-        <v>3.13233</v>
+        <v>3.14385</v>
       </c>
       <c r="D128" t="n">
-        <v>2.6968</v>
+        <v>2.71009</v>
       </c>
       <c r="E128" t="n">
-        <v>0.615121</v>
+        <v>0.598117</v>
       </c>
       <c r="F128" t="n">
-        <v>2.89469</v>
+        <v>2.75615</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.666947</v>
+        <v>0.667526</v>
       </c>
       <c r="C129" t="n">
-        <v>3.1156</v>
+        <v>3.1362</v>
       </c>
       <c r="D129" t="n">
-        <v>2.68703</v>
+        <v>2.69891</v>
       </c>
       <c r="E129" t="n">
-        <v>0.607424</v>
+        <v>0.5947249999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>2.8829</v>
+        <v>2.75252</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.675299</v>
+        <v>0.656373</v>
       </c>
       <c r="C130" t="n">
-        <v>3.09692</v>
+        <v>3.11783</v>
       </c>
       <c r="D130" t="n">
-        <v>2.66322</v>
+        <v>2.65505</v>
       </c>
       <c r="E130" t="n">
-        <v>0.602754</v>
+        <v>0.561606</v>
       </c>
       <c r="F130" t="n">
-        <v>2.87715</v>
+        <v>2.75158</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.665104</v>
+        <v>0.659182</v>
       </c>
       <c r="C131" t="n">
-        <v>3.09516</v>
+        <v>3.1127</v>
       </c>
       <c r="D131" t="n">
-        <v>2.65321</v>
+        <v>2.67508</v>
       </c>
       <c r="E131" t="n">
-        <v>0.599266</v>
+        <v>0.583151</v>
       </c>
       <c r="F131" t="n">
-        <v>2.87443</v>
+        <v>2.73935</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.649236</v>
+        <v>0.646908</v>
       </c>
       <c r="C132" t="n">
-        <v>3.08061</v>
+        <v>3.1017</v>
       </c>
       <c r="D132" t="n">
-        <v>2.64626</v>
+        <v>2.64139</v>
       </c>
       <c r="E132" t="n">
-        <v>0.594787</v>
+        <v>0.560042</v>
       </c>
       <c r="F132" t="n">
-        <v>2.87737</v>
+        <v>2.52216</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.645503</v>
+        <v>0.651501</v>
       </c>
       <c r="C133" t="n">
-        <v>3.07539</v>
+        <v>3.09232</v>
       </c>
       <c r="D133" t="n">
-        <v>2.61847</v>
+        <v>2.65901</v>
       </c>
       <c r="E133" t="n">
-        <v>0.588166</v>
+        <v>0.576862</v>
       </c>
       <c r="F133" t="n">
-        <v>2.87385</v>
+        <v>2.74086</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.629911</v>
+        <v>0.635074</v>
       </c>
       <c r="C134" t="n">
-        <v>3.06808</v>
+        <v>3.09217</v>
       </c>
       <c r="D134" t="n">
-        <v>2.62421</v>
+        <v>2.6439</v>
       </c>
       <c r="E134" t="n">
-        <v>0.583587</v>
+        <v>0.551211</v>
       </c>
       <c r="F134" t="n">
-        <v>2.87751</v>
+        <v>2.72394</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.627938</v>
+        <v>0.647467</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06328</v>
+        <v>3.08432</v>
       </c>
       <c r="D135" t="n">
-        <v>3.31994</v>
+        <v>3.34077</v>
       </c>
       <c r="E135" t="n">
-        <v>0.55347</v>
+        <v>0.744204</v>
       </c>
       <c r="F135" t="n">
-        <v>2.64381</v>
+        <v>3.25446</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6428160000000001</v>
+        <v>0.625347</v>
       </c>
       <c r="C136" t="n">
-        <v>3.05786</v>
+        <v>2.62787</v>
       </c>
       <c r="D136" t="n">
-        <v>3.2578</v>
+        <v>3.284</v>
       </c>
       <c r="E136" t="n">
-        <v>0.550251</v>
+        <v>0.7396430000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>2.64103</v>
+        <v>3.23224</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6283</v>
+        <v>0.600363</v>
       </c>
       <c r="C137" t="n">
-        <v>3.06474</v>
+        <v>2.85518</v>
       </c>
       <c r="D137" t="n">
-        <v>3.21197</v>
+        <v>3.23444</v>
       </c>
       <c r="E137" t="n">
-        <v>0.746896</v>
+        <v>0.734277</v>
       </c>
       <c r="F137" t="n">
-        <v>3.36489</v>
+        <v>3.22277</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.798544</v>
+        <v>0.8221619999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>3.59543</v>
+        <v>3.65373</v>
       </c>
       <c r="D138" t="n">
-        <v>3.17021</v>
+        <v>3.18835</v>
       </c>
       <c r="E138" t="n">
-        <v>0.741822</v>
+        <v>0.729683</v>
       </c>
       <c r="F138" t="n">
-        <v>3.34291</v>
+        <v>3.20546</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.798191</v>
+        <v>0.805359</v>
       </c>
       <c r="C139" t="n">
-        <v>3.58508</v>
+        <v>3.59909</v>
       </c>
       <c r="D139" t="n">
-        <v>3.11817</v>
+        <v>3.14696</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7406470000000001</v>
+        <v>0.7254159999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>3.32975</v>
+        <v>3.1888</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.805258</v>
+        <v>0.7770089999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>3.54325</v>
+        <v>3.58191</v>
       </c>
       <c r="D140" t="n">
-        <v>3.08755</v>
+        <v>3.10983</v>
       </c>
       <c r="E140" t="n">
-        <v>0.735548</v>
+        <v>0.724902</v>
       </c>
       <c r="F140" t="n">
-        <v>3.31403</v>
+        <v>3.17346</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.793497</v>
+        <v>0.757348</v>
       </c>
       <c r="C141" t="n">
-        <v>3.52892</v>
+        <v>3.55401</v>
       </c>
       <c r="D141" t="n">
-        <v>3.05555</v>
+        <v>3.07969</v>
       </c>
       <c r="E141" t="n">
-        <v>0.734172</v>
+        <v>0.739246</v>
       </c>
       <c r="F141" t="n">
-        <v>3.29301</v>
+        <v>3.157</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.779908</v>
+        <v>0.758019</v>
       </c>
       <c r="C142" t="n">
-        <v>3.50572</v>
+        <v>3.53277</v>
       </c>
       <c r="D142" t="n">
-        <v>3.03757</v>
+        <v>3.04885</v>
       </c>
       <c r="E142" t="n">
-        <v>0.731611</v>
+        <v>0.736581</v>
       </c>
       <c r="F142" t="n">
-        <v>3.27623</v>
+        <v>3.14683</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.776386</v>
+        <v>0.762158</v>
       </c>
       <c r="C143" t="n">
-        <v>3.47995</v>
+        <v>3.50383</v>
       </c>
       <c r="D143" t="n">
-        <v>3.00966</v>
+        <v>3.03217</v>
       </c>
       <c r="E143" t="n">
-        <v>0.748577</v>
+        <v>0.7347089999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>3.26229</v>
+        <v>3.12907</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245175</v>
+        <v>0.245025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.42453</v>
+        <v>0.424189</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55907</v>
+        <v>0.554529</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21472</v>
+        <v>0.207445</v>
       </c>
       <c r="F2" t="n">
-        <v>0.388544</v>
+        <v>0.387945</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240062</v>
+        <v>0.239793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417647</v>
+        <v>0.417101</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549834</v>
+        <v>0.552023</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209123</v>
+        <v>0.201907</v>
       </c>
       <c r="F3" t="n">
-        <v>0.381755</v>
+        <v>0.381675</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.231349</v>
+        <v>0.233893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410726</v>
+        <v>0.41112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.544836</v>
+        <v>0.544214</v>
       </c>
       <c r="E4" t="n">
-        <v>0.204008</v>
+        <v>0.196872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.377161</v>
+        <v>0.376864</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229764</v>
+        <v>0.231957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.405032</v>
+        <v>0.405513</v>
       </c>
       <c r="D5" t="n">
-        <v>0.536872</v>
+        <v>0.5393289999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.200033</v>
+        <v>0.191561</v>
       </c>
       <c r="F5" t="n">
-        <v>0.372957</v>
+        <v>0.37208</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222476</v>
+        <v>0.222088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.400127</v>
+        <v>0.400451</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530807</v>
+        <v>0.532767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.196696</v>
+        <v>0.188854</v>
       </c>
       <c r="F6" t="n">
-        <v>0.369953</v>
+        <v>0.368937</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220253</v>
+        <v>0.218652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.397454</v>
+        <v>0.396186</v>
       </c>
       <c r="D7" t="n">
-        <v>0.681202</v>
+        <v>0.683172</v>
       </c>
       <c r="E7" t="n">
-        <v>0.193581</v>
+        <v>0.185798</v>
       </c>
       <c r="F7" t="n">
-        <v>0.368114</v>
+        <v>0.3677</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214687</v>
+        <v>0.221235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.395533</v>
+        <v>0.398767</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666589</v>
+        <v>0.669992</v>
       </c>
       <c r="E8" t="n">
-        <v>0.19484</v>
+        <v>0.185314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.368347</v>
+        <v>0.370394</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21814</v>
+        <v>0.215895</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3948</v>
+        <v>0.399444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.653531</v>
+        <v>0.656987</v>
       </c>
       <c r="E9" t="n">
-        <v>0.28443</v>
+        <v>0.274113</v>
       </c>
       <c r="F9" t="n">
-        <v>0.454963</v>
+        <v>0.451675</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30931</v>
+        <v>0.306199</v>
       </c>
       <c r="C10" t="n">
-        <v>0.48491</v>
+        <v>0.487763</v>
       </c>
       <c r="D10" t="n">
-        <v>0.642195</v>
+        <v>0.644236</v>
       </c>
       <c r="E10" t="n">
-        <v>0.272612</v>
+        <v>0.26303</v>
       </c>
       <c r="F10" t="n">
-        <v>0.443722</v>
+        <v>0.4419</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298394</v>
+        <v>0.297106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.474659</v>
+        <v>0.476816</v>
       </c>
       <c r="D11" t="n">
-        <v>0.630284</v>
+        <v>0.632978</v>
       </c>
       <c r="E11" t="n">
-        <v>0.265921</v>
+        <v>0.25449</v>
       </c>
       <c r="F11" t="n">
-        <v>0.432818</v>
+        <v>0.430968</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.291028</v>
+        <v>0.292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.464663</v>
+        <v>0.466191</v>
       </c>
       <c r="D12" t="n">
-        <v>0.622123</v>
+        <v>0.622824</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256107</v>
+        <v>0.246354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.423476</v>
+        <v>0.421224</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283141</v>
+        <v>0.280567</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454924</v>
+        <v>0.455304</v>
       </c>
       <c r="D13" t="n">
-        <v>0.613529</v>
+        <v>0.615849</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248982</v>
+        <v>0.240491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.415583</v>
+        <v>0.413111</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269375</v>
+        <v>0.270921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.444036</v>
+        <v>0.453435</v>
       </c>
       <c r="D14" t="n">
-        <v>0.605178</v>
+        <v>0.607151</v>
       </c>
       <c r="E14" t="n">
-        <v>0.241268</v>
+        <v>0.235416</v>
       </c>
       <c r="F14" t="n">
-        <v>0.407403</v>
+        <v>0.406163</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263339</v>
+        <v>0.272631</v>
       </c>
       <c r="C15" t="n">
-        <v>0.43682</v>
+        <v>0.437992</v>
       </c>
       <c r="D15" t="n">
-        <v>0.597785</v>
+        <v>0.599353</v>
       </c>
       <c r="E15" t="n">
-        <v>0.235675</v>
+        <v>0.22566</v>
       </c>
       <c r="F15" t="n">
-        <v>0.399401</v>
+        <v>0.398525</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25876</v>
+        <v>0.256381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.429131</v>
+        <v>0.431099</v>
       </c>
       <c r="D16" t="n">
-        <v>0.591355</v>
+        <v>0.593102</v>
       </c>
       <c r="E16" t="n">
-        <v>0.227902</v>
+        <v>0.218163</v>
       </c>
       <c r="F16" t="n">
-        <v>0.392574</v>
+        <v>0.392675</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250434</v>
+        <v>0.252694</v>
       </c>
       <c r="C17" t="n">
-        <v>0.422772</v>
+        <v>0.427778</v>
       </c>
       <c r="D17" t="n">
-        <v>0.585974</v>
+        <v>0.586727</v>
       </c>
       <c r="E17" t="n">
-        <v>0.222836</v>
+        <v>0.212811</v>
       </c>
       <c r="F17" t="n">
-        <v>0.386199</v>
+        <v>0.386468</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242021</v>
+        <v>0.242161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416586</v>
+        <v>0.422031</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5823159999999999</v>
+        <v>0.584277</v>
       </c>
       <c r="E18" t="n">
-        <v>0.219685</v>
+        <v>0.207565</v>
       </c>
       <c r="F18" t="n">
-        <v>0.381124</v>
+        <v>0.381782</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238054</v>
+        <v>0.23899</v>
       </c>
       <c r="C19" t="n">
-        <v>0.410913</v>
+        <v>0.413942</v>
       </c>
       <c r="D19" t="n">
-        <v>0.578539</v>
+        <v>0.580166</v>
       </c>
       <c r="E19" t="n">
-        <v>0.214997</v>
+        <v>0.203726</v>
       </c>
       <c r="F19" t="n">
-        <v>0.375231</v>
+        <v>0.374725</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233806</v>
+        <v>0.237401</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40647</v>
+        <v>0.409628</v>
       </c>
       <c r="D20" t="n">
-        <v>0.574008</v>
+        <v>0.576294</v>
       </c>
       <c r="E20" t="n">
-        <v>0.210573</v>
+        <v>0.200944</v>
       </c>
       <c r="F20" t="n">
-        <v>0.372003</v>
+        <v>0.372034</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230477</v>
+        <v>0.229075</v>
       </c>
       <c r="C21" t="n">
-        <v>0.404097</v>
+        <v>0.406179</v>
       </c>
       <c r="D21" t="n">
-        <v>0.749615</v>
+        <v>0.749148</v>
       </c>
       <c r="E21" t="n">
-        <v>0.208979</v>
+        <v>0.200221</v>
       </c>
       <c r="F21" t="n">
-        <v>0.370425</v>
+        <v>0.371557</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224801</v>
+        <v>0.226887</v>
       </c>
       <c r="C22" t="n">
-        <v>0.399385</v>
+        <v>0.403453</v>
       </c>
       <c r="D22" t="n">
-        <v>0.733443</v>
+        <v>0.73599</v>
       </c>
       <c r="E22" t="n">
-        <v>0.216798</v>
+        <v>0.199133</v>
       </c>
       <c r="F22" t="n">
-        <v>0.370281</v>
+        <v>0.371887</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224645</v>
+        <v>0.229161</v>
       </c>
       <c r="C23" t="n">
-        <v>0.398935</v>
+        <v>0.402581</v>
       </c>
       <c r="D23" t="n">
-        <v>0.719312</v>
+        <v>0.720472</v>
       </c>
       <c r="E23" t="n">
-        <v>0.305586</v>
+        <v>0.290748</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461805</v>
+        <v>0.457402</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314696</v>
+        <v>0.314885</v>
       </c>
       <c r="C24" t="n">
-        <v>0.496359</v>
+        <v>0.506822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.706382</v>
+        <v>0.708206</v>
       </c>
       <c r="E24" t="n">
-        <v>0.294352</v>
+        <v>0.27817</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451543</v>
+        <v>0.44711</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.309149</v>
+        <v>0.302874</v>
       </c>
       <c r="C25" t="n">
-        <v>0.485901</v>
+        <v>0.495891</v>
       </c>
       <c r="D25" t="n">
-        <v>0.694817</v>
+        <v>0.695889</v>
       </c>
       <c r="E25" t="n">
-        <v>0.280582</v>
+        <v>0.269428</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441012</v>
+        <v>0.435871</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296233</v>
+        <v>0.296342</v>
       </c>
       <c r="C26" t="n">
-        <v>0.475698</v>
+        <v>0.479956</v>
       </c>
       <c r="D26" t="n">
-        <v>0.683402</v>
+        <v>0.684956</v>
       </c>
       <c r="E26" t="n">
-        <v>0.27282</v>
+        <v>0.260859</v>
       </c>
       <c r="F26" t="n">
-        <v>0.431974</v>
+        <v>0.427695</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287037</v>
+        <v>0.288106</v>
       </c>
       <c r="C27" t="n">
-        <v>0.466853</v>
+        <v>0.470409</v>
       </c>
       <c r="D27" t="n">
-        <v>0.673854</v>
+        <v>0.675879</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2645</v>
+        <v>0.253026</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423461</v>
+        <v>0.419038</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279613</v>
+        <v>0.278462</v>
       </c>
       <c r="C28" t="n">
-        <v>0.458248</v>
+        <v>0.459726</v>
       </c>
       <c r="D28" t="n">
-        <v>0.666257</v>
+        <v>0.6670739999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25777</v>
+        <v>0.24816</v>
       </c>
       <c r="F28" t="n">
-        <v>0.414627</v>
+        <v>0.410907</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270763</v>
+        <v>0.282489</v>
       </c>
       <c r="C29" t="n">
-        <v>0.449218</v>
+        <v>0.450774</v>
       </c>
       <c r="D29" t="n">
-        <v>0.657301</v>
+        <v>0.659373</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25037</v>
+        <v>0.238877</v>
       </c>
       <c r="F29" t="n">
-        <v>0.406859</v>
+        <v>0.403967</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263187</v>
+        <v>0.262558</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441736</v>
+        <v>0.4438</v>
       </c>
       <c r="D30" t="n">
-        <v>0.650147</v>
+        <v>0.651361</v>
       </c>
       <c r="E30" t="n">
-        <v>0.242691</v>
+        <v>0.232224</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399882</v>
+        <v>0.397701</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255931</v>
+        <v>0.257693</v>
       </c>
       <c r="C31" t="n">
-        <v>0.435566</v>
+        <v>0.437152</v>
       </c>
       <c r="D31" t="n">
-        <v>0.643004</v>
+        <v>0.645562</v>
       </c>
       <c r="E31" t="n">
-        <v>0.235621</v>
+        <v>0.226692</v>
       </c>
       <c r="F31" t="n">
-        <v>0.393341</v>
+        <v>0.392146</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249588</v>
+        <v>0.251987</v>
       </c>
       <c r="C32" t="n">
-        <v>0.427679</v>
+        <v>0.43193</v>
       </c>
       <c r="D32" t="n">
-        <v>0.637005</v>
+        <v>0.639724</v>
       </c>
       <c r="E32" t="n">
-        <v>0.230108</v>
+        <v>0.222244</v>
       </c>
       <c r="F32" t="n">
-        <v>0.387114</v>
+        <v>0.386535</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243967</v>
+        <v>0.245089</v>
       </c>
       <c r="C33" t="n">
-        <v>0.422315</v>
+        <v>0.425841</v>
       </c>
       <c r="D33" t="n">
-        <v>0.631557</v>
+        <v>0.634947</v>
       </c>
       <c r="E33" t="n">
-        <v>0.22514</v>
+        <v>0.217165</v>
       </c>
       <c r="F33" t="n">
-        <v>0.382174</v>
+        <v>0.381797</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.238532</v>
+        <v>0.240661</v>
       </c>
       <c r="C34" t="n">
-        <v>0.416953</v>
+        <v>0.421083</v>
       </c>
       <c r="D34" t="n">
-        <v>0.628375</v>
+        <v>0.629534</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222995</v>
+        <v>0.212301</v>
       </c>
       <c r="F34" t="n">
-        <v>0.378599</v>
+        <v>0.376952</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234141</v>
+        <v>0.233825</v>
       </c>
       <c r="C35" t="n">
-        <v>0.412655</v>
+        <v>0.417099</v>
       </c>
       <c r="D35" t="n">
-        <v>0.81397</v>
+        <v>0.815306</v>
       </c>
       <c r="E35" t="n">
-        <v>0.220346</v>
+        <v>0.211055</v>
       </c>
       <c r="F35" t="n">
-        <v>0.375684</v>
+        <v>0.376518</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231328</v>
+        <v>0.230841</v>
       </c>
       <c r="C36" t="n">
-        <v>0.408547</v>
+        <v>0.413307</v>
       </c>
       <c r="D36" t="n">
-        <v>0.796633</v>
+        <v>0.799697</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219155</v>
+        <v>0.209466</v>
       </c>
       <c r="F36" t="n">
-        <v>0.374818</v>
+        <v>0.376849</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229671</v>
+        <v>0.229612</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40756</v>
+        <v>0.412525</v>
       </c>
       <c r="D37" t="n">
-        <v>0.780243</v>
+        <v>0.7828619999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.316221</v>
+        <v>0.302159</v>
       </c>
       <c r="F37" t="n">
-        <v>0.471531</v>
+        <v>0.470096</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.31899</v>
+        <v>0.319637</v>
       </c>
       <c r="C38" t="n">
-        <v>0.511303</v>
+        <v>0.518914</v>
       </c>
       <c r="D38" t="n">
-        <v>0.76601</v>
+        <v>0.768086</v>
       </c>
       <c r="E38" t="n">
-        <v>0.300158</v>
+        <v>0.290937</v>
       </c>
       <c r="F38" t="n">
-        <v>0.461278</v>
+        <v>0.457101</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3092</v>
+        <v>0.308545</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501877</v>
+        <v>0.507236</v>
       </c>
       <c r="D39" t="n">
-        <v>0.752814</v>
+        <v>0.753827</v>
       </c>
       <c r="E39" t="n">
-        <v>0.295412</v>
+        <v>0.281685</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451946</v>
+        <v>0.445909</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299897</v>
+        <v>0.303735</v>
       </c>
       <c r="C40" t="n">
-        <v>0.491333</v>
+        <v>0.49954</v>
       </c>
       <c r="D40" t="n">
-        <v>0.739356</v>
+        <v>0.741868</v>
       </c>
       <c r="E40" t="n">
-        <v>0.283945</v>
+        <v>0.273529</v>
       </c>
       <c r="F40" t="n">
-        <v>0.442881</v>
+        <v>0.442546</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.295652</v>
+        <v>0.291025</v>
       </c>
       <c r="C41" t="n">
-        <v>0.480903</v>
+        <v>0.487295</v>
       </c>
       <c r="D41" t="n">
-        <v>0.728044</v>
+        <v>0.728568</v>
       </c>
       <c r="E41" t="n">
-        <v>0.280025</v>
+        <v>0.264849</v>
       </c>
       <c r="F41" t="n">
-        <v>0.434489</v>
+        <v>0.433912</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28483</v>
+        <v>0.284106</v>
       </c>
       <c r="C42" t="n">
-        <v>0.472228</v>
+        <v>0.476139</v>
       </c>
       <c r="D42" t="n">
-        <v>0.716734</v>
+        <v>0.71931</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268229</v>
+        <v>0.256905</v>
       </c>
       <c r="F42" t="n">
-        <v>0.42638</v>
+        <v>0.424954</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276086</v>
+        <v>0.283074</v>
       </c>
       <c r="C43" t="n">
-        <v>0.463912</v>
+        <v>0.468216</v>
       </c>
       <c r="D43" t="n">
-        <v>0.708199</v>
+        <v>0.709132</v>
       </c>
       <c r="E43" t="n">
-        <v>0.259972</v>
+        <v>0.251716</v>
       </c>
       <c r="F43" t="n">
-        <v>0.418571</v>
+        <v>0.415199</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280132</v>
+        <v>0.273179</v>
       </c>
       <c r="C44" t="n">
-        <v>0.456518</v>
+        <v>0.462178</v>
       </c>
       <c r="D44" t="n">
-        <v>0.700272</v>
+        <v>0.701135</v>
       </c>
       <c r="E44" t="n">
-        <v>0.252895</v>
+        <v>0.242744</v>
       </c>
       <c r="F44" t="n">
-        <v>0.411042</v>
+        <v>0.407467</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270218</v>
+        <v>0.265707</v>
       </c>
       <c r="C45" t="n">
-        <v>0.448289</v>
+        <v>0.454905</v>
       </c>
       <c r="D45" t="n">
-        <v>0.692089</v>
+        <v>0.693368</v>
       </c>
       <c r="E45" t="n">
-        <v>0.245623</v>
+        <v>0.23637</v>
       </c>
       <c r="F45" t="n">
-        <v>0.404405</v>
+        <v>0.400502</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.269265</v>
+        <v>0.256598</v>
       </c>
       <c r="C46" t="n">
-        <v>0.440952</v>
+        <v>0.449916</v>
       </c>
       <c r="D46" t="n">
-        <v>0.684778</v>
+        <v>0.68652</v>
       </c>
       <c r="E46" t="n">
-        <v>0.243453</v>
+        <v>0.230674</v>
       </c>
       <c r="F46" t="n">
-        <v>0.398141</v>
+        <v>0.395457</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.248788</v>
+        <v>0.258929</v>
       </c>
       <c r="C47" t="n">
-        <v>0.434743</v>
+        <v>0.438721</v>
       </c>
       <c r="D47" t="n">
-        <v>0.678459</v>
+        <v>0.680808</v>
       </c>
       <c r="E47" t="n">
-        <v>0.238625</v>
+        <v>0.227442</v>
       </c>
       <c r="F47" t="n">
-        <v>0.393284</v>
+        <v>0.391776</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.249795</v>
+        <v>0.242935</v>
       </c>
       <c r="C48" t="n">
-        <v>0.428969</v>
+        <v>0.435267</v>
       </c>
       <c r="D48" t="n">
-        <v>0.674721</v>
+        <v>0.675721</v>
       </c>
       <c r="E48" t="n">
-        <v>0.233178</v>
+        <v>0.221657</v>
       </c>
       <c r="F48" t="n">
-        <v>0.389924</v>
+        <v>0.388759</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240393</v>
+        <v>0.24803</v>
       </c>
       <c r="C49" t="n">
-        <v>0.425339</v>
+        <v>0.426855</v>
       </c>
       <c r="D49" t="n">
-        <v>0.669511</v>
+        <v>0.6705759999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.230659</v>
+        <v>0.217909</v>
       </c>
       <c r="F49" t="n">
-        <v>0.386511</v>
+        <v>0.386768</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234949</v>
+        <v>0.235384</v>
       </c>
       <c r="C50" t="n">
-        <v>0.422414</v>
+        <v>0.424356</v>
       </c>
       <c r="D50" t="n">
-        <v>0.84936</v>
+        <v>0.850275</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225704</v>
+        <v>0.218248</v>
       </c>
       <c r="F50" t="n">
-        <v>0.387374</v>
+        <v>0.386511</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235082</v>
+        <v>0.233162</v>
       </c>
       <c r="C51" t="n">
-        <v>0.420024</v>
+        <v>0.422568</v>
       </c>
       <c r="D51" t="n">
-        <v>0.831278</v>
+        <v>0.832106</v>
       </c>
       <c r="E51" t="n">
-        <v>0.327057</v>
+        <v>0.316334</v>
       </c>
       <c r="F51" t="n">
-        <v>0.485142</v>
+        <v>0.480439</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23697</v>
+        <v>0.236823</v>
       </c>
       <c r="C52" t="n">
-        <v>0.420688</v>
+        <v>0.423989</v>
       </c>
       <c r="D52" t="n">
-        <v>0.814594</v>
+        <v>0.815724</v>
       </c>
       <c r="E52" t="n">
-        <v>0.317174</v>
+        <v>0.307589</v>
       </c>
       <c r="F52" t="n">
-        <v>0.476173</v>
+        <v>0.470692</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.326302</v>
+        <v>0.319518</v>
       </c>
       <c r="C53" t="n">
-        <v>0.519268</v>
+        <v>0.5233100000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799222</v>
+        <v>0.8001509999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.308036</v>
+        <v>0.298738</v>
       </c>
       <c r="F53" t="n">
-        <v>0.467647</v>
+        <v>0.461114</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.316315</v>
+        <v>0.317164</v>
       </c>
       <c r="C54" t="n">
-        <v>0.509099</v>
+        <v>0.512943</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784319</v>
+        <v>0.784967</v>
       </c>
       <c r="E54" t="n">
-        <v>0.299073</v>
+        <v>0.289624</v>
       </c>
       <c r="F54" t="n">
-        <v>0.457324</v>
+        <v>0.45219</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309591</v>
+        <v>0.305875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.50143</v>
+        <v>0.504063</v>
       </c>
       <c r="D55" t="n">
-        <v>0.771723</v>
+        <v>0.772575</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290643</v>
+        <v>0.281319</v>
       </c>
       <c r="F55" t="n">
-        <v>0.450205</v>
+        <v>0.445219</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.299771</v>
+        <v>0.29764</v>
       </c>
       <c r="C56" t="n">
-        <v>0.491948</v>
+        <v>0.495723</v>
       </c>
       <c r="D56" t="n">
-        <v>0.759215</v>
+        <v>0.760429</v>
       </c>
       <c r="E56" t="n">
-        <v>0.283564</v>
+        <v>0.273684</v>
       </c>
       <c r="F56" t="n">
-        <v>0.44266</v>
+        <v>0.436887</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287091</v>
+        <v>0.287855</v>
       </c>
       <c r="C57" t="n">
-        <v>0.484582</v>
+        <v>0.489021</v>
       </c>
       <c r="D57" t="n">
-        <v>0.748979</v>
+        <v>0.750095</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276809</v>
+        <v>0.266734</v>
       </c>
       <c r="F57" t="n">
-        <v>0.434364</v>
+        <v>0.430302</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.281493</v>
+        <v>0.282302</v>
       </c>
       <c r="C58" t="n">
-        <v>0.476291</v>
+        <v>0.4809</v>
       </c>
       <c r="D58" t="n">
-        <v>0.739154</v>
+        <v>0.740436</v>
       </c>
       <c r="E58" t="n">
-        <v>0.269804</v>
+        <v>0.259944</v>
       </c>
       <c r="F58" t="n">
-        <v>0.427231</v>
+        <v>0.424083</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27484</v>
+        <v>0.277388</v>
       </c>
       <c r="C59" t="n">
-        <v>0.471206</v>
+        <v>0.473756</v>
       </c>
       <c r="D59" t="n">
-        <v>0.730232</v>
+        <v>0.731469</v>
       </c>
       <c r="E59" t="n">
-        <v>0.263078</v>
+        <v>0.253267</v>
       </c>
       <c r="F59" t="n">
-        <v>0.422597</v>
+        <v>0.418692</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.273311</v>
+        <v>0.267844</v>
       </c>
       <c r="C60" t="n">
-        <v>0.464551</v>
+        <v>0.46803</v>
       </c>
       <c r="D60" t="n">
-        <v>0.722153</v>
+        <v>0.724023</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255986</v>
+        <v>0.247355</v>
       </c>
       <c r="F60" t="n">
-        <v>0.416659</v>
+        <v>0.41248</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263654</v>
+        <v>0.26373</v>
       </c>
       <c r="C61" t="n">
-        <v>0.458377</v>
+        <v>0.461213</v>
       </c>
       <c r="D61" t="n">
-        <v>0.715755</v>
+        <v>0.717654</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253474</v>
+        <v>0.242062</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412332</v>
+        <v>0.408091</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260704</v>
+        <v>0.257758</v>
       </c>
       <c r="C62" t="n">
-        <v>0.45549</v>
+        <v>0.455323</v>
       </c>
       <c r="D62" t="n">
-        <v>0.710122</v>
+        <v>0.711386</v>
       </c>
       <c r="E62" t="n">
-        <v>0.247812</v>
+        <v>0.239192</v>
       </c>
       <c r="F62" t="n">
-        <v>0.408486</v>
+        <v>0.404412</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255798</v>
+        <v>0.255285</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450455</v>
+        <v>0.451703</v>
       </c>
       <c r="D63" t="n">
-        <v>0.705587</v>
+        <v>0.706541</v>
       </c>
       <c r="E63" t="n">
-        <v>0.245842</v>
+        <v>0.233819</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40585</v>
+        <v>0.401617</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251921</v>
+        <v>0.249519</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448122</v>
+        <v>0.449277</v>
       </c>
       <c r="D64" t="n">
-        <v>0.913281</v>
+        <v>0.914394</v>
       </c>
       <c r="E64" t="n">
-        <v>0.241297</v>
+        <v>0.233137</v>
       </c>
       <c r="F64" t="n">
-        <v>0.403859</v>
+        <v>0.401733</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246639</v>
+        <v>0.247563</v>
       </c>
       <c r="C65" t="n">
-        <v>0.444992</v>
+        <v>0.448215</v>
       </c>
       <c r="D65" t="n">
-        <v>0.893745</v>
+        <v>0.895304</v>
       </c>
       <c r="E65" t="n">
-        <v>0.242321</v>
+        <v>0.232463</v>
       </c>
       <c r="F65" t="n">
-        <v>0.404205</v>
+        <v>0.403218</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.248804</v>
+        <v>0.246013</v>
       </c>
       <c r="C66" t="n">
-        <v>0.444676</v>
+        <v>0.44569</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8779940000000001</v>
+        <v>0.875768</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337239</v>
+        <v>0.336625</v>
       </c>
       <c r="F66" t="n">
-        <v>0.51535</v>
+        <v>0.505069</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388536</v>
+        <v>0.382602</v>
       </c>
       <c r="C67" t="n">
-        <v>0.587094</v>
+        <v>0.583763</v>
       </c>
       <c r="D67" t="n">
-        <v>0.861644</v>
+        <v>0.860411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.330014</v>
+        <v>0.322533</v>
       </c>
       <c r="F67" t="n">
-        <v>0.507109</v>
+        <v>0.4975</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.376196</v>
+        <v>0.380427</v>
       </c>
       <c r="C68" t="n">
-        <v>0.579186</v>
+        <v>0.575167</v>
       </c>
       <c r="D68" t="n">
-        <v>0.84617</v>
+        <v>0.845274</v>
       </c>
       <c r="E68" t="n">
-        <v>0.325247</v>
+        <v>0.318298</v>
       </c>
       <c r="F68" t="n">
-        <v>0.499885</v>
+        <v>0.490558</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.371631</v>
+        <v>0.380842</v>
       </c>
       <c r="C69" t="n">
-        <v>0.577968</v>
+        <v>0.575998</v>
       </c>
       <c r="D69" t="n">
-        <v>0.831949</v>
+        <v>0.832799</v>
       </c>
       <c r="E69" t="n">
-        <v>0.317861</v>
+        <v>0.305715</v>
       </c>
       <c r="F69" t="n">
-        <v>0.492846</v>
+        <v>0.483446</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365337</v>
+        <v>0.364664</v>
       </c>
       <c r="C70" t="n">
-        <v>0.57081</v>
+        <v>0.568292</v>
       </c>
       <c r="D70" t="n">
-        <v>0.82209</v>
+        <v>0.821699</v>
       </c>
       <c r="E70" t="n">
-        <v>0.310044</v>
+        <v>0.302078</v>
       </c>
       <c r="F70" t="n">
-        <v>0.484817</v>
+        <v>0.476138</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.348856</v>
+        <v>0.355919</v>
       </c>
       <c r="C71" t="n">
-        <v>0.56143</v>
+        <v>0.561463</v>
       </c>
       <c r="D71" t="n">
-        <v>0.812244</v>
+        <v>0.812266</v>
       </c>
       <c r="E71" t="n">
-        <v>0.302104</v>
+        <v>0.291738</v>
       </c>
       <c r="F71" t="n">
-        <v>0.477583</v>
+        <v>0.469332</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.361098</v>
+        <v>0.332698</v>
       </c>
       <c r="C72" t="n">
-        <v>0.551045</v>
+        <v>0.55137</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.804733</v>
       </c>
       <c r="E72" t="n">
-        <v>0.296854</v>
+        <v>0.284847</v>
       </c>
       <c r="F72" t="n">
-        <v>0.471495</v>
+        <v>0.462088</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.341347</v>
+        <v>0.33039</v>
       </c>
       <c r="C73" t="n">
-        <v>0.545121</v>
+        <v>0.544002</v>
       </c>
       <c r="D73" t="n">
-        <v>0.798489</v>
+        <v>0.795381</v>
       </c>
       <c r="E73" t="n">
-        <v>0.288614</v>
+        <v>0.282029</v>
       </c>
       <c r="F73" t="n">
-        <v>0.465477</v>
+        <v>0.456499</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.327776</v>
+        <v>0.317576</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5415140000000001</v>
+        <v>0.540198</v>
       </c>
       <c r="D74" t="n">
-        <v>0.793441</v>
+        <v>0.792256</v>
       </c>
       <c r="E74" t="n">
-        <v>0.283123</v>
+        <v>0.271666</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4596</v>
+        <v>0.451191</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.331637</v>
+        <v>0.325091</v>
       </c>
       <c r="C75" t="n">
-        <v>0.537648</v>
+        <v>0.534535</v>
       </c>
       <c r="D75" t="n">
-        <v>0.790879</v>
+        <v>0.789874</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274156</v>
+        <v>0.269225</v>
       </c>
       <c r="F75" t="n">
-        <v>0.454246</v>
+        <v>0.447349</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.326108</v>
+        <v>0.320505</v>
       </c>
       <c r="C76" t="n">
-        <v>0.53134</v>
+        <v>0.531258</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7888810000000001</v>
+        <v>0.788316</v>
       </c>
       <c r="E76" t="n">
-        <v>0.270051</v>
+        <v>0.266766</v>
       </c>
       <c r="F76" t="n">
-        <v>0.451016</v>
+        <v>0.443261</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325287</v>
+        <v>0.311478</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526146</v>
+        <v>0.528088</v>
       </c>
       <c r="D77" t="n">
-        <v>0.787906</v>
+        <v>0.7883790000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.268192</v>
+        <v>0.259798</v>
       </c>
       <c r="F77" t="n">
-        <v>0.448656</v>
+        <v>0.44145</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.305543</v>
+        <v>0.307846</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5248660000000001</v>
+        <v>0.524679</v>
       </c>
       <c r="D78" t="n">
-        <v>1.2496</v>
+        <v>1.24934</v>
       </c>
       <c r="E78" t="n">
-        <v>0.263377</v>
+        <v>0.256034</v>
       </c>
       <c r="F78" t="n">
-        <v>0.447342</v>
+        <v>0.440666</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.313051</v>
+        <v>0.306339</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5234760000000001</v>
+        <v>0.522412</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2295</v>
+        <v>1.22938</v>
       </c>
       <c r="E79" t="n">
-        <v>0.263809</v>
+        <v>0.256357</v>
       </c>
       <c r="F79" t="n">
-        <v>0.448691</v>
+        <v>0.441783</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302931</v>
+        <v>0.304159</v>
       </c>
       <c r="C80" t="n">
-        <v>0.526366</v>
+        <v>0.523652</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20988</v>
+        <v>1.21046</v>
       </c>
       <c r="E80" t="n">
-        <v>0.383662</v>
+        <v>0.374551</v>
       </c>
       <c r="F80" t="n">
-        <v>0.734343</v>
+        <v>0.719338</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.429842</v>
+        <v>0.419189</v>
       </c>
       <c r="C81" t="n">
-        <v>0.838235</v>
+        <v>0.8428</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19471</v>
+        <v>1.19327</v>
       </c>
       <c r="E81" t="n">
-        <v>0.38156</v>
+        <v>0.378595</v>
       </c>
       <c r="F81" t="n">
-        <v>0.738199</v>
+        <v>0.711459</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.422639</v>
+        <v>0.401819</v>
       </c>
       <c r="C82" t="n">
-        <v>0.840588</v>
+        <v>0.83789</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18146</v>
+        <v>1.18262</v>
       </c>
       <c r="E82" t="n">
-        <v>0.37169</v>
+        <v>0.361372</v>
       </c>
       <c r="F82" t="n">
-        <v>0.734389</v>
+        <v>0.704526</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.428928</v>
+        <v>0.405815</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8512729999999999</v>
+        <v>0.849615</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16981</v>
+        <v>1.16926</v>
       </c>
       <c r="E83" t="n">
-        <v>0.359232</v>
+        <v>0.356331</v>
       </c>
       <c r="F83" t="n">
-        <v>0.726146</v>
+        <v>0.695458</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.424439</v>
+        <v>0.431579</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837717</v>
+        <v>0.840798</v>
       </c>
       <c r="D84" t="n">
         <v>1.16173</v>
       </c>
       <c r="E84" t="n">
-        <v>0.355294</v>
+        <v>0.351474</v>
       </c>
       <c r="F84" t="n">
-        <v>0.716143</v>
+        <v>0.687576</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.382893</v>
+        <v>0.398995</v>
       </c>
       <c r="C85" t="n">
-        <v>0.828345</v>
+        <v>0.8289</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15813</v>
+        <v>1.1569</v>
       </c>
       <c r="E85" t="n">
-        <v>0.349439</v>
+        <v>0.343771</v>
       </c>
       <c r="F85" t="n">
-        <v>0.704095</v>
+        <v>0.675611</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.393582</v>
+        <v>0.377607</v>
       </c>
       <c r="C86" t="n">
-        <v>0.816613</v>
+        <v>0.816712</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15519</v>
+        <v>1.15463</v>
       </c>
       <c r="E86" t="n">
-        <v>0.344694</v>
+        <v>0.337687</v>
       </c>
       <c r="F86" t="n">
-        <v>0.690448</v>
+        <v>0.66404</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.403557</v>
+        <v>0.410879</v>
       </c>
       <c r="C87" t="n">
-        <v>0.804306</v>
+        <v>0.805061</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15495</v>
+        <v>1.15434</v>
       </c>
       <c r="E87" t="n">
-        <v>0.332008</v>
+        <v>0.329716</v>
       </c>
       <c r="F87" t="n">
-        <v>0.678379</v>
+        <v>0.651651</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.383023</v>
+        <v>0.383458</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7930430000000001</v>
+        <v>0.793262</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16277</v>
+        <v>1.15976</v>
       </c>
       <c r="E88" t="n">
-        <v>0.329743</v>
+        <v>0.31871</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6644409999999999</v>
+        <v>0.639948</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.40711</v>
+        <v>0.372823</v>
       </c>
       <c r="C89" t="n">
-        <v>0.782895</v>
+        <v>0.781237</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17194</v>
+        <v>1.16847</v>
       </c>
       <c r="E89" t="n">
-        <v>0.320744</v>
+        <v>0.316466</v>
       </c>
       <c r="F89" t="n">
-        <v>0.654448</v>
+        <v>0.629152</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.390023</v>
+        <v>0.369951</v>
       </c>
       <c r="C90" t="n">
-        <v>0.771818</v>
+        <v>0.7696539999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17976</v>
+        <v>1.1761</v>
       </c>
       <c r="E90" t="n">
-        <v>0.321623</v>
+        <v>0.31251</v>
       </c>
       <c r="F90" t="n">
-        <v>0.641824</v>
+        <v>0.616443</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.370469</v>
+        <v>0.365975</v>
       </c>
       <c r="C91" t="n">
-        <v>0.763734</v>
+        <v>0.763696</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19187</v>
+        <v>1.19115</v>
       </c>
       <c r="E91" t="n">
-        <v>0.308445</v>
+        <v>0.306543</v>
       </c>
       <c r="F91" t="n">
-        <v>0.634118</v>
+        <v>0.609521</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.360822</v>
+        <v>0.36511</v>
       </c>
       <c r="C92" t="n">
-        <v>0.755413</v>
+        <v>0.753596</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7585</v>
+        <v>1.75676</v>
       </c>
       <c r="E92" t="n">
-        <v>0.310736</v>
+        <v>0.300413</v>
       </c>
       <c r="F92" t="n">
-        <v>0.626201</v>
+        <v>0.607765</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358194</v>
+        <v>0.36409</v>
       </c>
       <c r="C93" t="n">
-        <v>0.747044</v>
+        <v>0.747103</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74864</v>
+        <v>1.74979</v>
       </c>
       <c r="E93" t="n">
-        <v>0.307404</v>
+        <v>0.301247</v>
       </c>
       <c r="F93" t="n">
-        <v>0.620537</v>
+        <v>0.601253</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387012</v>
+        <v>0.373272</v>
       </c>
       <c r="C94" t="n">
-        <v>0.742736</v>
+        <v>0.741376</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73723</v>
+        <v>1.73675</v>
       </c>
       <c r="E94" t="n">
-        <v>0.506189</v>
+        <v>0.489808</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12175</v>
+        <v>1.09036</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.559604</v>
+        <v>0.558182</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1505</v>
+        <v>1.15608</v>
       </c>
       <c r="D95" t="n">
-        <v>1.7262</v>
+        <v>1.72403</v>
       </c>
       <c r="E95" t="n">
-        <v>0.499162</v>
+        <v>0.483162</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11716</v>
+        <v>1.07942</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.549825</v>
+        <v>0.55239</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15763</v>
+        <v>1.15825</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71658</v>
+        <v>1.71514</v>
       </c>
       <c r="E96" t="n">
-        <v>0.492053</v>
+        <v>0.473724</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10625</v>
+        <v>1.06205</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.547495</v>
+        <v>0.54553</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1457</v>
+        <v>1.1443</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70665</v>
+        <v>1.70444</v>
       </c>
       <c r="E97" t="n">
-        <v>0.474962</v>
+        <v>0.457571</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08568</v>
+        <v>1.04318</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.547693</v>
+        <v>0.520018</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14567</v>
+        <v>1.1297</v>
       </c>
       <c r="D98" t="n">
-        <v>1.70049</v>
+        <v>1.69839</v>
       </c>
       <c r="E98" t="n">
-        <v>0.465902</v>
+        <v>0.451828</v>
       </c>
       <c r="F98" t="n">
-        <v>1.07022</v>
+        <v>1.02484</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528297</v>
+        <v>0.50973</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12117</v>
+        <v>1.11882</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69613</v>
+        <v>1.69731</v>
       </c>
       <c r="E99" t="n">
-        <v>0.456363</v>
+        <v>0.43759</v>
       </c>
       <c r="F99" t="n">
-        <v>1.05244</v>
+        <v>1.00588</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.505564</v>
+        <v>0.512045</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10204</v>
+        <v>1.10734</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69886</v>
+        <v>1.69835</v>
       </c>
       <c r="E100" t="n">
-        <v>0.444037</v>
+        <v>0.430337</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03522</v>
+        <v>0.9893960000000001</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504152</v>
+        <v>0.505365</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09096</v>
+        <v>1.09904</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70613</v>
+        <v>1.70664</v>
       </c>
       <c r="E101" t="n">
-        <v>0.439517</v>
+        <v>0.419341</v>
       </c>
       <c r="F101" t="n">
-        <v>1.01856</v>
+        <v>0.967396</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5005500000000001</v>
+        <v>0.495318</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08873</v>
+        <v>1.09715</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71315</v>
+        <v>1.71002</v>
       </c>
       <c r="E102" t="n">
-        <v>0.428035</v>
+        <v>0.406656</v>
       </c>
       <c r="F102" t="n">
-        <v>0.99852</v>
+        <v>0.958137</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.487238</v>
+        <v>0.486758</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06794</v>
+        <v>1.06684</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71951</v>
+        <v>1.71835</v>
       </c>
       <c r="E103" t="n">
-        <v>0.419323</v>
+        <v>0.399235</v>
       </c>
       <c r="F103" t="n">
-        <v>0.989603</v>
+        <v>0.934846</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483048</v>
+        <v>0.477695</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0512</v>
+        <v>1.05352</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73245</v>
+        <v>1.73146</v>
       </c>
       <c r="E104" t="n">
-        <v>0.410547</v>
+        <v>0.396036</v>
       </c>
       <c r="F104" t="n">
-        <v>0.97654</v>
+        <v>0.925563</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.469866</v>
+        <v>0.461037</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04799</v>
+        <v>1.05362</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74251</v>
+        <v>1.74594</v>
       </c>
       <c r="E105" t="n">
-        <v>0.405432</v>
+        <v>0.385631</v>
       </c>
       <c r="F105" t="n">
-        <v>0.962652</v>
+        <v>0.912439</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.469178</v>
+        <v>0.459181</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02364</v>
+        <v>1.02242</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76137</v>
+        <v>1.76321</v>
       </c>
       <c r="E106" t="n">
-        <v>0.399306</v>
+        <v>0.379006</v>
       </c>
       <c r="F106" t="n">
-        <v>0.951533</v>
+        <v>0.910473</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.459229</v>
+        <v>0.462903</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03447</v>
+        <v>1.03453</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36258</v>
+        <v>2.36462</v>
       </c>
       <c r="E107" t="n">
-        <v>0.395455</v>
+        <v>0.37767</v>
       </c>
       <c r="F107" t="n">
-        <v>0.941099</v>
+        <v>0.909868</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.459552</v>
+        <v>0.459182</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0277</v>
+        <v>1.03271</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33523</v>
+        <v>2.33521</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5479270000000001</v>
+        <v>0.523635</v>
       </c>
       <c r="F108" t="n">
-        <v>2.39355</v>
+        <v>2.3255</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.472082</v>
+        <v>0.44192</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01994</v>
+        <v>1.01917</v>
       </c>
       <c r="D109" t="n">
-        <v>2.31159</v>
+        <v>2.31313</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546221</v>
+        <v>0.518678</v>
       </c>
       <c r="F109" t="n">
-        <v>2.39319</v>
+        <v>2.346</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.611839</v>
+        <v>0.669505</v>
       </c>
       <c r="C110" t="n">
-        <v>2.58444</v>
+        <v>2.58407</v>
       </c>
       <c r="D110" t="n">
-        <v>2.29</v>
+        <v>2.29363</v>
       </c>
       <c r="E110" t="n">
-        <v>0.584331</v>
+        <v>0.554357</v>
       </c>
       <c r="F110" t="n">
-        <v>2.39851</v>
+        <v>2.3332</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.653898</v>
+        <v>0.655705</v>
       </c>
       <c r="C111" t="n">
-        <v>2.5836</v>
+        <v>2.58423</v>
       </c>
       <c r="D111" t="n">
-        <v>2.27307</v>
+        <v>2.27652</v>
       </c>
       <c r="E111" t="n">
-        <v>0.569806</v>
+        <v>0.499047</v>
       </c>
       <c r="F111" t="n">
-        <v>2.40871</v>
+        <v>2.33214</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.657148</v>
+        <v>0.6455650000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>2.5897</v>
+        <v>2.56828</v>
       </c>
       <c r="D112" t="n">
-        <v>2.2574</v>
+        <v>2.26319</v>
       </c>
       <c r="E112" t="n">
-        <v>0.558465</v>
+        <v>0.528931</v>
       </c>
       <c r="F112" t="n">
-        <v>2.40337</v>
+        <v>2.32827</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.638897</v>
+        <v>0.631173</v>
       </c>
       <c r="C113" t="n">
-        <v>2.58588</v>
+        <v>2.5762</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26013</v>
+        <v>2.26501</v>
       </c>
       <c r="E113" t="n">
-        <v>0.506613</v>
+        <v>0.479591</v>
       </c>
       <c r="F113" t="n">
-        <v>2.40038</v>
+        <v>2.32886</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.633027</v>
+        <v>0.62085</v>
       </c>
       <c r="C114" t="n">
-        <v>2.58092</v>
+        <v>2.58028</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27314</v>
+        <v>2.2647</v>
       </c>
       <c r="E114" t="n">
-        <v>0.537556</v>
+        <v>0.508819</v>
       </c>
       <c r="F114" t="n">
-        <v>2.39909</v>
+        <v>2.31987</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.61689</v>
+        <v>0.597336</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57117</v>
+        <v>2.57942</v>
       </c>
       <c r="D115" t="n">
-        <v>2.25232</v>
+        <v>2.25728</v>
       </c>
       <c r="E115" t="n">
-        <v>0.48931</v>
+        <v>0.466622</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39437</v>
+        <v>2.31318</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.601812</v>
+        <v>0.600708</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56476</v>
+        <v>2.56657</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26474</v>
+        <v>2.28216</v>
       </c>
       <c r="E116" t="n">
-        <v>0.516482</v>
+        <v>0.489275</v>
       </c>
       <c r="F116" t="n">
-        <v>2.41038</v>
+        <v>2.31724</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.595133</v>
+        <v>0.587355</v>
       </c>
       <c r="C117" t="n">
-        <v>2.6024</v>
+        <v>2.58606</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27697</v>
+        <v>2.27897</v>
       </c>
       <c r="E117" t="n">
-        <v>0.47468</v>
+        <v>0.481093</v>
       </c>
       <c r="F117" t="n">
-        <v>2.41343</v>
+        <v>2.32232</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.584024</v>
+        <v>0.576219</v>
       </c>
       <c r="C118" t="n">
-        <v>2.58014</v>
+        <v>2.57283</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23498</v>
+        <v>2.23523</v>
       </c>
       <c r="E118" t="n">
-        <v>0.465313</v>
+        <v>0.443649</v>
       </c>
       <c r="F118" t="n">
-        <v>2.21742</v>
+        <v>1.92379</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.564178</v>
+        <v>0.551084</v>
       </c>
       <c r="C119" t="n">
-        <v>2.35829</v>
+        <v>2.37088</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23746</v>
+        <v>2.23548</v>
       </c>
       <c r="E119" t="n">
-        <v>0.458922</v>
+        <v>0.437585</v>
       </c>
       <c r="F119" t="n">
-        <v>1.5921</v>
+        <v>1.91561</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.545559</v>
+        <v>0.560419</v>
       </c>
       <c r="C120" t="n">
-        <v>2.17548</v>
+        <v>2.57739</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24566</v>
+        <v>2.24881</v>
       </c>
       <c r="E120" t="n">
-        <v>0.456274</v>
+        <v>0.42973</v>
       </c>
       <c r="F120" t="n">
-        <v>2.4214</v>
+        <v>2.31206</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.550005</v>
+        <v>0.541219</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57233</v>
+        <v>2.37531</v>
       </c>
       <c r="D121" t="n">
-        <v>2.932</v>
+        <v>2.92082</v>
       </c>
       <c r="E121" t="n">
-        <v>0.450608</v>
+        <v>0.425194</v>
       </c>
       <c r="F121" t="n">
-        <v>2.21894</v>
+        <v>2.11933</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5288659999999999</v>
+        <v>0.537616</v>
       </c>
       <c r="C122" t="n">
-        <v>2.58287</v>
+        <v>2.58831</v>
       </c>
       <c r="D122" t="n">
-        <v>2.86859</v>
+        <v>2.87783</v>
       </c>
       <c r="E122" t="n">
-        <v>0.448136</v>
+        <v>0.4232</v>
       </c>
       <c r="F122" t="n">
-        <v>2.43351</v>
+        <v>1.70333</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.545967</v>
+        <v>0.540976</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59722</v>
+        <v>2.59716</v>
       </c>
       <c r="D123" t="n">
-        <v>2.83817</v>
+        <v>2.84082</v>
       </c>
       <c r="E123" t="n">
-        <v>0.649988</v>
+        <v>0.616119</v>
       </c>
       <c r="F123" t="n">
-        <v>2.9338</v>
+        <v>2.82731</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.719647</v>
+        <v>0.704955</v>
       </c>
       <c r="C124" t="n">
-        <v>3.18998</v>
+        <v>3.18101</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80539</v>
+        <v>2.80393</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6415</v>
+        <v>0.608491</v>
       </c>
       <c r="F124" t="n">
-        <v>2.92447</v>
+        <v>2.81157</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7314310000000001</v>
+        <v>0.727739</v>
       </c>
       <c r="C125" t="n">
-        <v>3.15351</v>
+        <v>3.15425</v>
       </c>
       <c r="D125" t="n">
-        <v>2.77095</v>
+        <v>2.77756</v>
       </c>
       <c r="E125" t="n">
-        <v>0.633023</v>
+        <v>0.623183</v>
       </c>
       <c r="F125" t="n">
-        <v>2.91406</v>
+        <v>2.79918</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.721208</v>
+        <v>0.701497</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15694</v>
+        <v>3.15369</v>
       </c>
       <c r="D126" t="n">
-        <v>2.74479</v>
+        <v>2.74369</v>
       </c>
       <c r="E126" t="n">
-        <v>0.64856</v>
+        <v>0.5954469999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>2.89437</v>
+        <v>2.7828</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70464</v>
+        <v>0.705102</v>
       </c>
       <c r="C127" t="n">
-        <v>3.13599</v>
+        <v>3.14269</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72153</v>
+        <v>2.71702</v>
       </c>
       <c r="E127" t="n">
-        <v>0.620309</v>
+        <v>0.6066319999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>2.89935</v>
+        <v>2.77902</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.69008</v>
+        <v>0.691974</v>
       </c>
       <c r="C128" t="n">
-        <v>3.13233</v>
+        <v>3.13122</v>
       </c>
       <c r="D128" t="n">
-        <v>2.6968</v>
+        <v>2.70175</v>
       </c>
       <c r="E128" t="n">
-        <v>0.615121</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>2.89469</v>
+        <v>2.77372</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.666947</v>
+        <v>0.675979</v>
       </c>
       <c r="C129" t="n">
-        <v>3.1156</v>
+        <v>3.10817</v>
       </c>
       <c r="D129" t="n">
-        <v>2.68703</v>
+        <v>2.69007</v>
       </c>
       <c r="E129" t="n">
-        <v>0.607424</v>
+        <v>0.576592</v>
       </c>
       <c r="F129" t="n">
-        <v>2.8829</v>
+        <v>2.75997</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.675299</v>
+        <v>0.667851</v>
       </c>
       <c r="C130" t="n">
-        <v>3.09692</v>
+        <v>3.09328</v>
       </c>
       <c r="D130" t="n">
-        <v>2.66322</v>
+        <v>2.67295</v>
       </c>
       <c r="E130" t="n">
-        <v>0.602754</v>
+        <v>0.571982</v>
       </c>
       <c r="F130" t="n">
-        <v>2.87715</v>
+        <v>2.75352</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.665104</v>
+        <v>0.656104</v>
       </c>
       <c r="C131" t="n">
-        <v>3.09516</v>
+        <v>3.10022</v>
       </c>
       <c r="D131" t="n">
-        <v>2.65321</v>
+        <v>2.66515</v>
       </c>
       <c r="E131" t="n">
-        <v>0.599266</v>
+        <v>0.567253</v>
       </c>
       <c r="F131" t="n">
-        <v>2.87443</v>
+        <v>2.7571</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.649236</v>
+        <v>0.644885</v>
       </c>
       <c r="C132" t="n">
-        <v>3.08061</v>
+        <v>3.0856</v>
       </c>
       <c r="D132" t="n">
-        <v>2.64626</v>
+        <v>2.6497</v>
       </c>
       <c r="E132" t="n">
-        <v>0.594787</v>
+        <v>0.56214</v>
       </c>
       <c r="F132" t="n">
-        <v>2.87737</v>
+        <v>2.75043</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.645503</v>
+        <v>0.6432369999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>3.07539</v>
+        <v>3.08455</v>
       </c>
       <c r="D133" t="n">
-        <v>2.61847</v>
+        <v>2.64132</v>
       </c>
       <c r="E133" t="n">
-        <v>0.588166</v>
+        <v>0.56075</v>
       </c>
       <c r="F133" t="n">
-        <v>2.87385</v>
+        <v>2.74708</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.629911</v>
+        <v>0.6015</v>
       </c>
       <c r="C134" t="n">
-        <v>3.06808</v>
+        <v>3.07854</v>
       </c>
       <c r="D134" t="n">
-        <v>2.62421</v>
+        <v>2.62512</v>
       </c>
       <c r="E134" t="n">
-        <v>0.583587</v>
+        <v>0.529464</v>
       </c>
       <c r="F134" t="n">
-        <v>2.87751</v>
+        <v>2.74166</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.627938</v>
+        <v>0.636903</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06328</v>
+        <v>3.06789</v>
       </c>
       <c r="D135" t="n">
-        <v>3.31994</v>
+        <v>3.32652</v>
       </c>
       <c r="E135" t="n">
-        <v>0.55347</v>
+        <v>0.527371</v>
       </c>
       <c r="F135" t="n">
-        <v>2.64381</v>
+        <v>2.51566</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6428160000000001</v>
+        <v>0.6283879999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>3.05786</v>
+        <v>3.06089</v>
       </c>
       <c r="D136" t="n">
-        <v>3.2578</v>
+        <v>3.26946</v>
       </c>
       <c r="E136" t="n">
-        <v>0.550251</v>
+        <v>0.522251</v>
       </c>
       <c r="F136" t="n">
-        <v>2.64103</v>
+        <v>2.74513</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6283</v>
+        <v>0.6309709999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>3.06474</v>
+        <v>3.07014</v>
       </c>
       <c r="D137" t="n">
-        <v>3.21197</v>
+        <v>3.21242</v>
       </c>
       <c r="E137" t="n">
-        <v>0.746896</v>
+        <v>0.714313</v>
       </c>
       <c r="F137" t="n">
-        <v>3.36489</v>
+        <v>3.24245</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.798544</v>
+        <v>0.817971</v>
       </c>
       <c r="C138" t="n">
-        <v>3.59543</v>
+        <v>3.59353</v>
       </c>
       <c r="D138" t="n">
-        <v>3.17021</v>
+        <v>3.16817</v>
       </c>
       <c r="E138" t="n">
-        <v>0.741822</v>
+        <v>0.709023</v>
       </c>
       <c r="F138" t="n">
-        <v>3.34291</v>
+        <v>3.22439</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.798191</v>
+        <v>0.800545</v>
       </c>
       <c r="C139" t="n">
-        <v>3.58508</v>
+        <v>3.58768</v>
       </c>
       <c r="D139" t="n">
-        <v>3.11817</v>
+        <v>3.13277</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7406470000000001</v>
+        <v>0.705311</v>
       </c>
       <c r="F139" t="n">
-        <v>3.32975</v>
+        <v>3.21383</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.805258</v>
+        <v>0.801484</v>
       </c>
       <c r="C140" t="n">
-        <v>3.54325</v>
+        <v>3.56789</v>
       </c>
       <c r="D140" t="n">
-        <v>3.08755</v>
+        <v>3.09447</v>
       </c>
       <c r="E140" t="n">
-        <v>0.735548</v>
+        <v>0.699171</v>
       </c>
       <c r="F140" t="n">
-        <v>3.31403</v>
+        <v>3.19786</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.793497</v>
+        <v>0.801936</v>
       </c>
       <c r="C141" t="n">
-        <v>3.52892</v>
+        <v>3.53232</v>
       </c>
       <c r="D141" t="n">
-        <v>3.05555</v>
+        <v>3.06222</v>
       </c>
       <c r="E141" t="n">
-        <v>0.734172</v>
+        <v>0.696414</v>
       </c>
       <c r="F141" t="n">
-        <v>3.29301</v>
+        <v>3.18218</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.779908</v>
+        <v>0.783698</v>
       </c>
       <c r="C142" t="n">
-        <v>3.50572</v>
+        <v>3.51648</v>
       </c>
       <c r="D142" t="n">
-        <v>3.03757</v>
+        <v>3.038</v>
       </c>
       <c r="E142" t="n">
-        <v>0.731611</v>
+        <v>0.693029</v>
       </c>
       <c r="F142" t="n">
-        <v>3.27623</v>
+        <v>3.16028</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.776386</v>
+        <v>0.77371</v>
       </c>
       <c r="C143" t="n">
-        <v>3.47995</v>
+        <v>3.48859</v>
       </c>
       <c r="D143" t="n">
-        <v>3.00966</v>
+        <v>3.01021</v>
       </c>
       <c r="E143" t="n">
-        <v>0.748577</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>3.26229</v>
+        <v>3.14547</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245025</v>
+        <v>0.248389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.424189</v>
+        <v>0.425265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.554529</v>
+        <v>0.5557569999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.207445</v>
+        <v>0.210235</v>
       </c>
       <c r="F2" t="n">
-        <v>0.387945</v>
+        <v>0.387016</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239793</v>
+        <v>0.24587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417101</v>
+        <v>0.420029</v>
       </c>
       <c r="D3" t="n">
-        <v>0.552023</v>
+        <v>0.550267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.201907</v>
+        <v>0.203178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.381675</v>
+        <v>0.380707</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233893</v>
+        <v>0.235927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.41112</v>
+        <v>0.413936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.544214</v>
+        <v>0.542606</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196872</v>
+        <v>0.199414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.376864</v>
+        <v>0.375422</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231957</v>
+        <v>0.225862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.405513</v>
+        <v>0.409469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5393289999999999</v>
+        <v>0.538901</v>
       </c>
       <c r="E5" t="n">
-        <v>0.191561</v>
+        <v>0.194443</v>
       </c>
       <c r="F5" t="n">
-        <v>0.37208</v>
+        <v>0.371184</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222088</v>
+        <v>0.216299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.400451</v>
+        <v>0.40335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.532767</v>
+        <v>0.535357</v>
       </c>
       <c r="E6" t="n">
-        <v>0.188854</v>
+        <v>0.191444</v>
       </c>
       <c r="F6" t="n">
-        <v>0.368937</v>
+        <v>0.368131</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218652</v>
+        <v>0.220881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.396186</v>
+        <v>0.400981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.683172</v>
+        <v>0.687388</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185798</v>
+        <v>0.188343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3677</v>
+        <v>0.366695</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221235</v>
+        <v>0.217629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398767</v>
+        <v>0.398904</v>
       </c>
       <c r="D8" t="n">
-        <v>0.669992</v>
+        <v>0.672108</v>
       </c>
       <c r="E8" t="n">
-        <v>0.185314</v>
+        <v>0.18908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.370394</v>
+        <v>0.367697</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.215895</v>
+        <v>0.215344</v>
       </c>
       <c r="C9" t="n">
-        <v>0.399444</v>
+        <v>0.399657</v>
       </c>
       <c r="D9" t="n">
-        <v>0.656987</v>
+        <v>0.659444</v>
       </c>
       <c r="E9" t="n">
-        <v>0.274113</v>
+        <v>0.279086</v>
       </c>
       <c r="F9" t="n">
-        <v>0.451675</v>
+        <v>0.449409</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306199</v>
+        <v>0.306655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.487763</v>
+        <v>0.486821</v>
       </c>
       <c r="D10" t="n">
-        <v>0.644236</v>
+        <v>0.646712</v>
       </c>
       <c r="E10" t="n">
-        <v>0.26303</v>
+        <v>0.268671</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4419</v>
+        <v>0.439971</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.297106</v>
+        <v>0.298136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.476816</v>
+        <v>0.475942</v>
       </c>
       <c r="D11" t="n">
-        <v>0.632978</v>
+        <v>0.635444</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25449</v>
+        <v>0.259528</v>
       </c>
       <c r="F11" t="n">
-        <v>0.430968</v>
+        <v>0.428064</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.292</v>
+        <v>0.293693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.466191</v>
+        <v>0.46399</v>
       </c>
       <c r="D12" t="n">
-        <v>0.622824</v>
+        <v>0.624907</v>
       </c>
       <c r="E12" t="n">
-        <v>0.246354</v>
+        <v>0.253085</v>
       </c>
       <c r="F12" t="n">
-        <v>0.421224</v>
+        <v>0.419612</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280567</v>
+        <v>0.279612</v>
       </c>
       <c r="C13" t="n">
-        <v>0.455304</v>
+        <v>0.455841</v>
       </c>
       <c r="D13" t="n">
-        <v>0.615849</v>
+        <v>0.6169480000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.240491</v>
+        <v>0.243262</v>
       </c>
       <c r="F13" t="n">
-        <v>0.413111</v>
+        <v>0.411767</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270921</v>
+        <v>0.269082</v>
       </c>
       <c r="C14" t="n">
-        <v>0.453435</v>
+        <v>0.445039</v>
       </c>
       <c r="D14" t="n">
-        <v>0.607151</v>
+        <v>0.60827</v>
       </c>
       <c r="E14" t="n">
-        <v>0.235416</v>
+        <v>0.236486</v>
       </c>
       <c r="F14" t="n">
-        <v>0.406163</v>
+        <v>0.403593</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272631</v>
+        <v>0.264375</v>
       </c>
       <c r="C15" t="n">
-        <v>0.437992</v>
+        <v>0.437953</v>
       </c>
       <c r="D15" t="n">
-        <v>0.599353</v>
+        <v>0.601306</v>
       </c>
       <c r="E15" t="n">
-        <v>0.22566</v>
+        <v>0.230292</v>
       </c>
       <c r="F15" t="n">
-        <v>0.398525</v>
+        <v>0.396947</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256381</v>
+        <v>0.256152</v>
       </c>
       <c r="C16" t="n">
-        <v>0.431099</v>
+        <v>0.433626</v>
       </c>
       <c r="D16" t="n">
-        <v>0.593102</v>
+        <v>0.595959</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218163</v>
+        <v>0.225701</v>
       </c>
       <c r="F16" t="n">
-        <v>0.392675</v>
+        <v>0.390785</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.252694</v>
+        <v>0.254156</v>
       </c>
       <c r="C17" t="n">
-        <v>0.427778</v>
+        <v>0.425257</v>
       </c>
       <c r="D17" t="n">
-        <v>0.586727</v>
+        <v>0.590273</v>
       </c>
       <c r="E17" t="n">
-        <v>0.212811</v>
+        <v>0.21811</v>
       </c>
       <c r="F17" t="n">
-        <v>0.386468</v>
+        <v>0.384798</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242161</v>
+        <v>0.246331</v>
       </c>
       <c r="C18" t="n">
-        <v>0.422031</v>
+        <v>0.419723</v>
       </c>
       <c r="D18" t="n">
-        <v>0.584277</v>
+        <v>0.5844549999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.207565</v>
+        <v>0.214481</v>
       </c>
       <c r="F18" t="n">
-        <v>0.381782</v>
+        <v>0.380042</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.23899</v>
+        <v>0.239177</v>
       </c>
       <c r="C19" t="n">
-        <v>0.413942</v>
+        <v>0.415552</v>
       </c>
       <c r="D19" t="n">
-        <v>0.580166</v>
+        <v>0.58078</v>
       </c>
       <c r="E19" t="n">
-        <v>0.203726</v>
+        <v>0.208703</v>
       </c>
       <c r="F19" t="n">
-        <v>0.374725</v>
+        <v>0.373424</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.237401</v>
+        <v>0.239264</v>
       </c>
       <c r="C20" t="n">
-        <v>0.409628</v>
+        <v>0.410102</v>
       </c>
       <c r="D20" t="n">
-        <v>0.576294</v>
+        <v>0.576723</v>
       </c>
       <c r="E20" t="n">
-        <v>0.200944</v>
+        <v>0.207068</v>
       </c>
       <c r="F20" t="n">
-        <v>0.372034</v>
+        <v>0.370148</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229075</v>
+        <v>0.227889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.406179</v>
+        <v>0.407434</v>
       </c>
       <c r="D21" t="n">
-        <v>0.749148</v>
+        <v>0.753986</v>
       </c>
       <c r="E21" t="n">
-        <v>0.200221</v>
+        <v>0.205287</v>
       </c>
       <c r="F21" t="n">
-        <v>0.371557</v>
+        <v>0.369082</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226887</v>
+        <v>0.2287</v>
       </c>
       <c r="C22" t="n">
-        <v>0.403453</v>
+        <v>0.404124</v>
       </c>
       <c r="D22" t="n">
-        <v>0.73599</v>
+        <v>0.738325</v>
       </c>
       <c r="E22" t="n">
-        <v>0.199133</v>
+        <v>0.206052</v>
       </c>
       <c r="F22" t="n">
-        <v>0.371887</v>
+        <v>0.369111</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.229161</v>
+        <v>0.227531</v>
       </c>
       <c r="C23" t="n">
-        <v>0.402581</v>
+        <v>0.403011</v>
       </c>
       <c r="D23" t="n">
-        <v>0.720472</v>
+        <v>0.723853</v>
       </c>
       <c r="E23" t="n">
-        <v>0.290748</v>
+        <v>0.298634</v>
       </c>
       <c r="F23" t="n">
-        <v>0.457402</v>
+        <v>0.456215</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314885</v>
+        <v>0.31404</v>
       </c>
       <c r="C24" t="n">
-        <v>0.506822</v>
+        <v>0.505541</v>
       </c>
       <c r="D24" t="n">
-        <v>0.708206</v>
+        <v>0.709981</v>
       </c>
       <c r="E24" t="n">
-        <v>0.27817</v>
+        <v>0.285588</v>
       </c>
       <c r="F24" t="n">
-        <v>0.44711</v>
+        <v>0.445317</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302874</v>
+        <v>0.308072</v>
       </c>
       <c r="C25" t="n">
-        <v>0.495891</v>
+        <v>0.494513</v>
       </c>
       <c r="D25" t="n">
-        <v>0.695889</v>
+        <v>0.69821</v>
       </c>
       <c r="E25" t="n">
-        <v>0.269428</v>
+        <v>0.275778</v>
       </c>
       <c r="F25" t="n">
-        <v>0.435871</v>
+        <v>0.436677</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296342</v>
+        <v>0.298333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.479956</v>
+        <v>0.479528</v>
       </c>
       <c r="D26" t="n">
-        <v>0.684956</v>
+        <v>0.687254</v>
       </c>
       <c r="E26" t="n">
-        <v>0.260859</v>
+        <v>0.267649</v>
       </c>
       <c r="F26" t="n">
-        <v>0.427695</v>
+        <v>0.427508</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.288106</v>
+        <v>0.290417</v>
       </c>
       <c r="C27" t="n">
-        <v>0.470409</v>
+        <v>0.470254</v>
       </c>
       <c r="D27" t="n">
-        <v>0.675879</v>
+        <v>0.676984</v>
       </c>
       <c r="E27" t="n">
-        <v>0.253026</v>
+        <v>0.260261</v>
       </c>
       <c r="F27" t="n">
-        <v>0.419038</v>
+        <v>0.41851</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278462</v>
+        <v>0.280678</v>
       </c>
       <c r="C28" t="n">
-        <v>0.459726</v>
+        <v>0.460388</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6670739999999999</v>
+        <v>0.668185</v>
       </c>
       <c r="E28" t="n">
-        <v>0.24816</v>
+        <v>0.253443</v>
       </c>
       <c r="F28" t="n">
-        <v>0.410907</v>
+        <v>0.409736</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282489</v>
+        <v>0.274129</v>
       </c>
       <c r="C29" t="n">
-        <v>0.450774</v>
+        <v>0.452465</v>
       </c>
       <c r="D29" t="n">
-        <v>0.659373</v>
+        <v>0.659421</v>
       </c>
       <c r="E29" t="n">
-        <v>0.238877</v>
+        <v>0.244581</v>
       </c>
       <c r="F29" t="n">
-        <v>0.403967</v>
+        <v>0.40397</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262558</v>
+        <v>0.264392</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4438</v>
+        <v>0.444577</v>
       </c>
       <c r="D30" t="n">
-        <v>0.651361</v>
+        <v>0.651535</v>
       </c>
       <c r="E30" t="n">
-        <v>0.232224</v>
+        <v>0.238289</v>
       </c>
       <c r="F30" t="n">
-        <v>0.397701</v>
+        <v>0.396668</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.257693</v>
+        <v>0.257605</v>
       </c>
       <c r="C31" t="n">
-        <v>0.437152</v>
+        <v>0.438475</v>
       </c>
       <c r="D31" t="n">
-        <v>0.645562</v>
+        <v>0.646061</v>
       </c>
       <c r="E31" t="n">
-        <v>0.226692</v>
+        <v>0.233744</v>
       </c>
       <c r="F31" t="n">
-        <v>0.392146</v>
+        <v>0.390985</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251987</v>
+        <v>0.255107</v>
       </c>
       <c r="C32" t="n">
-        <v>0.43193</v>
+        <v>0.4341</v>
       </c>
       <c r="D32" t="n">
-        <v>0.639724</v>
+        <v>0.640724</v>
       </c>
       <c r="E32" t="n">
-        <v>0.222244</v>
+        <v>0.226221</v>
       </c>
       <c r="F32" t="n">
-        <v>0.386535</v>
+        <v>0.385726</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245089</v>
+        <v>0.244756</v>
       </c>
       <c r="C33" t="n">
-        <v>0.425841</v>
+        <v>0.42948</v>
       </c>
       <c r="D33" t="n">
-        <v>0.634947</v>
+        <v>0.635953</v>
       </c>
       <c r="E33" t="n">
-        <v>0.217165</v>
+        <v>0.22133</v>
       </c>
       <c r="F33" t="n">
-        <v>0.381797</v>
+        <v>0.381377</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.240661</v>
+        <v>0.237341</v>
       </c>
       <c r="C34" t="n">
-        <v>0.421083</v>
+        <v>0.42156</v>
       </c>
       <c r="D34" t="n">
-        <v>0.629534</v>
+        <v>0.630541</v>
       </c>
       <c r="E34" t="n">
-        <v>0.212301</v>
+        <v>0.217134</v>
       </c>
       <c r="F34" t="n">
-        <v>0.376952</v>
+        <v>0.377657</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.233825</v>
+        <v>0.23389</v>
       </c>
       <c r="C35" t="n">
-        <v>0.417099</v>
+        <v>0.417888</v>
       </c>
       <c r="D35" t="n">
-        <v>0.815306</v>
+        <v>0.8166369999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.211055</v>
+        <v>0.215061</v>
       </c>
       <c r="F35" t="n">
-        <v>0.376518</v>
+        <v>0.376438</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230841</v>
+        <v>0.231505</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413307</v>
+        <v>0.413881</v>
       </c>
       <c r="D36" t="n">
-        <v>0.799697</v>
+        <v>0.799184</v>
       </c>
       <c r="E36" t="n">
-        <v>0.209466</v>
+        <v>0.213844</v>
       </c>
       <c r="F36" t="n">
-        <v>0.376849</v>
+        <v>0.37622</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229612</v>
+        <v>0.230251</v>
       </c>
       <c r="C37" t="n">
-        <v>0.412525</v>
+        <v>0.411753</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7828619999999999</v>
+        <v>0.783015</v>
       </c>
       <c r="E37" t="n">
-        <v>0.302159</v>
+        <v>0.31205</v>
       </c>
       <c r="F37" t="n">
-        <v>0.470096</v>
+        <v>0.4687</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319637</v>
+        <v>0.323619</v>
       </c>
       <c r="C38" t="n">
-        <v>0.518914</v>
+        <v>0.516114</v>
       </c>
       <c r="D38" t="n">
-        <v>0.768086</v>
+        <v>0.768186</v>
       </c>
       <c r="E38" t="n">
-        <v>0.290937</v>
+        <v>0.296152</v>
       </c>
       <c r="F38" t="n">
-        <v>0.457101</v>
+        <v>0.458929</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308545</v>
+        <v>0.311947</v>
       </c>
       <c r="C39" t="n">
-        <v>0.507236</v>
+        <v>0.505162</v>
       </c>
       <c r="D39" t="n">
-        <v>0.753827</v>
+        <v>0.754562</v>
       </c>
       <c r="E39" t="n">
-        <v>0.281685</v>
+        <v>0.28765</v>
       </c>
       <c r="F39" t="n">
-        <v>0.445909</v>
+        <v>0.448885</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303735</v>
+        <v>0.303797</v>
       </c>
       <c r="C40" t="n">
-        <v>0.49954</v>
+        <v>0.494963</v>
       </c>
       <c r="D40" t="n">
-        <v>0.741868</v>
+        <v>0.741774</v>
       </c>
       <c r="E40" t="n">
-        <v>0.273529</v>
+        <v>0.278449</v>
       </c>
       <c r="F40" t="n">
-        <v>0.442546</v>
+        <v>0.441083</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291025</v>
+        <v>0.293824</v>
       </c>
       <c r="C41" t="n">
-        <v>0.487295</v>
+        <v>0.485757</v>
       </c>
       <c r="D41" t="n">
-        <v>0.728568</v>
+        <v>0.7300179999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.264849</v>
+        <v>0.272857</v>
       </c>
       <c r="F41" t="n">
-        <v>0.433912</v>
+        <v>0.432053</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284106</v>
+        <v>0.286957</v>
       </c>
       <c r="C42" t="n">
-        <v>0.476139</v>
+        <v>0.475417</v>
       </c>
       <c r="D42" t="n">
-        <v>0.71931</v>
+        <v>0.720247</v>
       </c>
       <c r="E42" t="n">
-        <v>0.256905</v>
+        <v>0.262812</v>
       </c>
       <c r="F42" t="n">
-        <v>0.424954</v>
+        <v>0.421623</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283074</v>
+        <v>0.272804</v>
       </c>
       <c r="C43" t="n">
-        <v>0.468216</v>
+        <v>0.46786</v>
       </c>
       <c r="D43" t="n">
-        <v>0.709132</v>
+        <v>0.7097250000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.251716</v>
+        <v>0.25533</v>
       </c>
       <c r="F43" t="n">
-        <v>0.415199</v>
+        <v>0.413122</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.273179</v>
+        <v>0.271852</v>
       </c>
       <c r="C44" t="n">
-        <v>0.462178</v>
+        <v>0.459394</v>
       </c>
       <c r="D44" t="n">
-        <v>0.701135</v>
+        <v>0.700887</v>
       </c>
       <c r="E44" t="n">
-        <v>0.242744</v>
+        <v>0.24872</v>
       </c>
       <c r="F44" t="n">
-        <v>0.407467</v>
+        <v>0.406101</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.265707</v>
+        <v>0.261924</v>
       </c>
       <c r="C45" t="n">
-        <v>0.454905</v>
+        <v>0.453189</v>
       </c>
       <c r="D45" t="n">
-        <v>0.693368</v>
+        <v>0.694138</v>
       </c>
       <c r="E45" t="n">
-        <v>0.23637</v>
+        <v>0.242767</v>
       </c>
       <c r="F45" t="n">
-        <v>0.400502</v>
+        <v>0.399981</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.256598</v>
+        <v>0.258388</v>
       </c>
       <c r="C46" t="n">
-        <v>0.449916</v>
+        <v>0.448088</v>
       </c>
       <c r="D46" t="n">
-        <v>0.68652</v>
+        <v>0.687147</v>
       </c>
       <c r="E46" t="n">
-        <v>0.230674</v>
+        <v>0.235891</v>
       </c>
       <c r="F46" t="n">
-        <v>0.395457</v>
+        <v>0.394478</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.258929</v>
+        <v>0.255877</v>
       </c>
       <c r="C47" t="n">
-        <v>0.438721</v>
+        <v>0.43871</v>
       </c>
       <c r="D47" t="n">
-        <v>0.680808</v>
+        <v>0.681866</v>
       </c>
       <c r="E47" t="n">
-        <v>0.227442</v>
+        <v>0.231636</v>
       </c>
       <c r="F47" t="n">
-        <v>0.391776</v>
+        <v>0.388942</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.242935</v>
+        <v>0.243617</v>
       </c>
       <c r="C48" t="n">
-        <v>0.435267</v>
+        <v>0.432204</v>
       </c>
       <c r="D48" t="n">
-        <v>0.675721</v>
+        <v>0.676145</v>
       </c>
       <c r="E48" t="n">
-        <v>0.221657</v>
+        <v>0.226726</v>
       </c>
       <c r="F48" t="n">
-        <v>0.388759</v>
+        <v>0.38598</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.24803</v>
+        <v>0.246313</v>
       </c>
       <c r="C49" t="n">
-        <v>0.426855</v>
+        <v>0.426819</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6705759999999999</v>
+        <v>0.671763</v>
       </c>
       <c r="E49" t="n">
-        <v>0.217909</v>
+        <v>0.226045</v>
       </c>
       <c r="F49" t="n">
-        <v>0.386768</v>
+        <v>0.383915</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.235384</v>
+        <v>0.241358</v>
       </c>
       <c r="C50" t="n">
-        <v>0.424356</v>
+        <v>0.424171</v>
       </c>
       <c r="D50" t="n">
-        <v>0.850275</v>
+        <v>0.850723</v>
       </c>
       <c r="E50" t="n">
-        <v>0.218248</v>
+        <v>0.222354</v>
       </c>
       <c r="F50" t="n">
-        <v>0.386511</v>
+        <v>0.384472</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.233162</v>
+        <v>0.236279</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422568</v>
+        <v>0.423104</v>
       </c>
       <c r="D51" t="n">
-        <v>0.832106</v>
+        <v>0.832521</v>
       </c>
       <c r="E51" t="n">
-        <v>0.316334</v>
+        <v>0.3239</v>
       </c>
       <c r="F51" t="n">
-        <v>0.480439</v>
+        <v>0.482226</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.236823</v>
+        <v>0.243935</v>
       </c>
       <c r="C52" t="n">
-        <v>0.423989</v>
+        <v>0.422621</v>
       </c>
       <c r="D52" t="n">
-        <v>0.815724</v>
+        <v>0.8161079999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.307589</v>
+        <v>0.313201</v>
       </c>
       <c r="F52" t="n">
-        <v>0.470692</v>
+        <v>0.472834</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.319518</v>
+        <v>0.327882</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5233100000000001</v>
+        <v>0.524034</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8001509999999999</v>
+        <v>0.800241</v>
       </c>
       <c r="E53" t="n">
-        <v>0.298738</v>
+        <v>0.304841</v>
       </c>
       <c r="F53" t="n">
-        <v>0.461114</v>
+        <v>0.463876</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.317164</v>
+        <v>0.311986</v>
       </c>
       <c r="C54" t="n">
-        <v>0.512943</v>
+        <v>0.51274</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784967</v>
+        <v>0.785453</v>
       </c>
       <c r="E54" t="n">
-        <v>0.289624</v>
+        <v>0.296734</v>
       </c>
       <c r="F54" t="n">
-        <v>0.45219</v>
+        <v>0.455614</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.305875</v>
+        <v>0.30488</v>
       </c>
       <c r="C55" t="n">
-        <v>0.504063</v>
+        <v>0.503815</v>
       </c>
       <c r="D55" t="n">
-        <v>0.772575</v>
+        <v>0.772993</v>
       </c>
       <c r="E55" t="n">
-        <v>0.281319</v>
+        <v>0.287142</v>
       </c>
       <c r="F55" t="n">
-        <v>0.445219</v>
+        <v>0.44723</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29764</v>
+        <v>0.29769</v>
       </c>
       <c r="C56" t="n">
-        <v>0.495723</v>
+        <v>0.494146</v>
       </c>
       <c r="D56" t="n">
-        <v>0.760429</v>
+        <v>0.761439</v>
       </c>
       <c r="E56" t="n">
-        <v>0.273684</v>
+        <v>0.278957</v>
       </c>
       <c r="F56" t="n">
-        <v>0.436887</v>
+        <v>0.438706</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287855</v>
+        <v>0.292432</v>
       </c>
       <c r="C57" t="n">
-        <v>0.489021</v>
+        <v>0.486047</v>
       </c>
       <c r="D57" t="n">
-        <v>0.750095</v>
+        <v>0.750237</v>
       </c>
       <c r="E57" t="n">
-        <v>0.266734</v>
+        <v>0.272702</v>
       </c>
       <c r="F57" t="n">
-        <v>0.430302</v>
+        <v>0.432071</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.282302</v>
+        <v>0.282797</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4809</v>
+        <v>0.477605</v>
       </c>
       <c r="D58" t="n">
-        <v>0.740436</v>
+        <v>0.740833</v>
       </c>
       <c r="E58" t="n">
-        <v>0.259944</v>
+        <v>0.265387</v>
       </c>
       <c r="F58" t="n">
-        <v>0.424083</v>
+        <v>0.424721</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.277388</v>
+        <v>0.27473</v>
       </c>
       <c r="C59" t="n">
-        <v>0.473756</v>
+        <v>0.471673</v>
       </c>
       <c r="D59" t="n">
-        <v>0.731469</v>
+        <v>0.7320990000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.253267</v>
+        <v>0.258987</v>
       </c>
       <c r="F59" t="n">
-        <v>0.418692</v>
+        <v>0.418922</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267844</v>
+        <v>0.26677</v>
       </c>
       <c r="C60" t="n">
-        <v>0.46803</v>
+        <v>0.464763</v>
       </c>
       <c r="D60" t="n">
-        <v>0.724023</v>
+        <v>0.724735</v>
       </c>
       <c r="E60" t="n">
-        <v>0.247355</v>
+        <v>0.253137</v>
       </c>
       <c r="F60" t="n">
-        <v>0.41248</v>
+        <v>0.413304</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26373</v>
+        <v>0.265337</v>
       </c>
       <c r="C61" t="n">
-        <v>0.461213</v>
+        <v>0.45863</v>
       </c>
       <c r="D61" t="n">
-        <v>0.717654</v>
+        <v>0.717863</v>
       </c>
       <c r="E61" t="n">
-        <v>0.242062</v>
+        <v>0.248539</v>
       </c>
       <c r="F61" t="n">
-        <v>0.408091</v>
+        <v>0.408286</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257758</v>
+        <v>0.259836</v>
       </c>
       <c r="C62" t="n">
-        <v>0.455323</v>
+        <v>0.453606</v>
       </c>
       <c r="D62" t="n">
-        <v>0.711386</v>
+        <v>0.711558</v>
       </c>
       <c r="E62" t="n">
-        <v>0.239192</v>
+        <v>0.243678</v>
       </c>
       <c r="F62" t="n">
-        <v>0.404412</v>
+        <v>0.404609</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255285</v>
+        <v>0.255258</v>
       </c>
       <c r="C63" t="n">
-        <v>0.451703</v>
+        <v>0.449066</v>
       </c>
       <c r="D63" t="n">
-        <v>0.706541</v>
+        <v>0.706515</v>
       </c>
       <c r="E63" t="n">
-        <v>0.233819</v>
+        <v>0.24028</v>
       </c>
       <c r="F63" t="n">
-        <v>0.401617</v>
+        <v>0.401366</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.249519</v>
+        <v>0.251318</v>
       </c>
       <c r="C64" t="n">
-        <v>0.449277</v>
+        <v>0.446096</v>
       </c>
       <c r="D64" t="n">
-        <v>0.914394</v>
+        <v>0.918249</v>
       </c>
       <c r="E64" t="n">
-        <v>0.233137</v>
+        <v>0.238796</v>
       </c>
       <c r="F64" t="n">
-        <v>0.401733</v>
+        <v>0.399085</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247563</v>
+        <v>0.248384</v>
       </c>
       <c r="C65" t="n">
-        <v>0.448215</v>
+        <v>0.444023</v>
       </c>
       <c r="D65" t="n">
-        <v>0.895304</v>
+        <v>0.89577</v>
       </c>
       <c r="E65" t="n">
-        <v>0.232463</v>
+        <v>0.238964</v>
       </c>
       <c r="F65" t="n">
-        <v>0.403218</v>
+        <v>0.39967</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.246013</v>
+        <v>0.248959</v>
       </c>
       <c r="C66" t="n">
-        <v>0.44569</v>
+        <v>0.444579</v>
       </c>
       <c r="D66" t="n">
-        <v>0.875768</v>
+        <v>0.87971</v>
       </c>
       <c r="E66" t="n">
-        <v>0.336625</v>
+        <v>0.339643</v>
       </c>
       <c r="F66" t="n">
-        <v>0.505069</v>
+        <v>0.505208</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.382602</v>
+        <v>0.380028</v>
       </c>
       <c r="C67" t="n">
-        <v>0.583763</v>
+        <v>0.58425</v>
       </c>
       <c r="D67" t="n">
-        <v>0.860411</v>
+        <v>0.8631219999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.322533</v>
+        <v>0.33054</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4975</v>
+        <v>0.498878</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380427</v>
+        <v>0.359144</v>
       </c>
       <c r="C68" t="n">
-        <v>0.575167</v>
+        <v>0.577454</v>
       </c>
       <c r="D68" t="n">
-        <v>0.845274</v>
+        <v>0.848043</v>
       </c>
       <c r="E68" t="n">
-        <v>0.318298</v>
+        <v>0.321955</v>
       </c>
       <c r="F68" t="n">
-        <v>0.490558</v>
+        <v>0.492046</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.380842</v>
+        <v>0.37952</v>
       </c>
       <c r="C69" t="n">
-        <v>0.575998</v>
+        <v>0.574013</v>
       </c>
       <c r="D69" t="n">
-        <v>0.832799</v>
+        <v>0.835611</v>
       </c>
       <c r="E69" t="n">
-        <v>0.305715</v>
+        <v>0.30991</v>
       </c>
       <c r="F69" t="n">
-        <v>0.483446</v>
+        <v>0.484702</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.364664</v>
+        <v>0.363318</v>
       </c>
       <c r="C70" t="n">
-        <v>0.568292</v>
+        <v>0.566748</v>
       </c>
       <c r="D70" t="n">
-        <v>0.821699</v>
+        <v>0.824419</v>
       </c>
       <c r="E70" t="n">
-        <v>0.302078</v>
+        <v>0.306722</v>
       </c>
       <c r="F70" t="n">
-        <v>0.476138</v>
+        <v>0.477692</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.355919</v>
+        <v>0.365071</v>
       </c>
       <c r="C71" t="n">
-        <v>0.561463</v>
+        <v>0.557767</v>
       </c>
       <c r="D71" t="n">
-        <v>0.812266</v>
+        <v>0.814897</v>
       </c>
       <c r="E71" t="n">
-        <v>0.291738</v>
+        <v>0.295878</v>
       </c>
       <c r="F71" t="n">
-        <v>0.469332</v>
+        <v>0.469216</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.332698</v>
+        <v>0.3448</v>
       </c>
       <c r="C72" t="n">
-        <v>0.55137</v>
+        <v>0.550715</v>
       </c>
       <c r="D72" t="n">
-        <v>0.804733</v>
+        <v>0.806767</v>
       </c>
       <c r="E72" t="n">
-        <v>0.284847</v>
+        <v>0.291667</v>
       </c>
       <c r="F72" t="n">
-        <v>0.462088</v>
+        <v>0.463922</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.33039</v>
+        <v>0.342303</v>
       </c>
       <c r="C73" t="n">
-        <v>0.544002</v>
+        <v>0.544991</v>
       </c>
       <c r="D73" t="n">
-        <v>0.795381</v>
+        <v>0.800521</v>
       </c>
       <c r="E73" t="n">
-        <v>0.282029</v>
+        <v>0.281518</v>
       </c>
       <c r="F73" t="n">
-        <v>0.456499</v>
+        <v>0.457225</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.317576</v>
+        <v>0.341096</v>
       </c>
       <c r="C74" t="n">
-        <v>0.540198</v>
+        <v>0.539108</v>
       </c>
       <c r="D74" t="n">
-        <v>0.792256</v>
+        <v>0.795789</v>
       </c>
       <c r="E74" t="n">
-        <v>0.271666</v>
+        <v>0.279626</v>
       </c>
       <c r="F74" t="n">
-        <v>0.451191</v>
+        <v>0.452046</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.325091</v>
+        <v>0.331517</v>
       </c>
       <c r="C75" t="n">
-        <v>0.534535</v>
+        <v>0.533424</v>
       </c>
       <c r="D75" t="n">
-        <v>0.789874</v>
+        <v>0.7903250000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>0.269225</v>
+        <v>0.274323</v>
       </c>
       <c r="F75" t="n">
-        <v>0.447349</v>
+        <v>0.447897</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.320505</v>
+        <v>0.325056</v>
       </c>
       <c r="C76" t="n">
-        <v>0.531258</v>
+        <v>0.530589</v>
       </c>
       <c r="D76" t="n">
-        <v>0.788316</v>
+        <v>0.788368</v>
       </c>
       <c r="E76" t="n">
-        <v>0.266766</v>
+        <v>0.266704</v>
       </c>
       <c r="F76" t="n">
-        <v>0.443261</v>
+        <v>0.444558</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.311478</v>
+        <v>0.314698</v>
       </c>
       <c r="C77" t="n">
-        <v>0.528088</v>
+        <v>0.5262790000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7883790000000001</v>
+        <v>0.788732</v>
       </c>
       <c r="E77" t="n">
-        <v>0.259798</v>
+        <v>0.265776</v>
       </c>
       <c r="F77" t="n">
-        <v>0.44145</v>
+        <v>0.442244</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.307846</v>
+        <v>0.309904</v>
       </c>
       <c r="C78" t="n">
-        <v>0.524679</v>
+        <v>0.523416</v>
       </c>
       <c r="D78" t="n">
-        <v>1.24934</v>
+        <v>1.24996</v>
       </c>
       <c r="E78" t="n">
-        <v>0.256034</v>
+        <v>0.259</v>
       </c>
       <c r="F78" t="n">
-        <v>0.440666</v>
+        <v>0.440869</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.306339</v>
+        <v>0.3114</v>
       </c>
       <c r="C79" t="n">
-        <v>0.522412</v>
+        <v>0.522723</v>
       </c>
       <c r="D79" t="n">
-        <v>1.22938</v>
+        <v>1.23022</v>
       </c>
       <c r="E79" t="n">
-        <v>0.256357</v>
+        <v>0.261121</v>
       </c>
       <c r="F79" t="n">
-        <v>0.441783</v>
+        <v>0.442041</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.304159</v>
+        <v>0.302348</v>
       </c>
       <c r="C80" t="n">
-        <v>0.523652</v>
+        <v>0.52466</v>
       </c>
       <c r="D80" t="n">
-        <v>1.21046</v>
+        <v>1.21104</v>
       </c>
       <c r="E80" t="n">
-        <v>0.374551</v>
+        <v>0.376253</v>
       </c>
       <c r="F80" t="n">
-        <v>0.719338</v>
+        <v>0.729355</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.419189</v>
+        <v>0.428069</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8428</v>
+        <v>0.831911</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19327</v>
+        <v>1.19429</v>
       </c>
       <c r="E81" t="n">
-        <v>0.378595</v>
+        <v>0.369012</v>
       </c>
       <c r="F81" t="n">
-        <v>0.711459</v>
+        <v>0.728993</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.401819</v>
+        <v>0.447025</v>
       </c>
       <c r="C82" t="n">
-        <v>0.83789</v>
+        <v>0.836581</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18262</v>
+        <v>1.18123</v>
       </c>
       <c r="E82" t="n">
-        <v>0.361372</v>
+        <v>0.362687</v>
       </c>
       <c r="F82" t="n">
-        <v>0.704526</v>
+        <v>0.711302</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.405815</v>
+        <v>0.409055</v>
       </c>
       <c r="C83" t="n">
-        <v>0.849615</v>
+        <v>0.85472</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16926</v>
+        <v>1.17145</v>
       </c>
       <c r="E83" t="n">
-        <v>0.356331</v>
+        <v>0.35683</v>
       </c>
       <c r="F83" t="n">
-        <v>0.695458</v>
+        <v>0.7046480000000001</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.431579</v>
+        <v>0.42425</v>
       </c>
       <c r="C84" t="n">
-        <v>0.840798</v>
+        <v>0.838512</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16173</v>
+        <v>1.1632</v>
       </c>
       <c r="E84" t="n">
-        <v>0.351474</v>
+        <v>0.351092</v>
       </c>
       <c r="F84" t="n">
-        <v>0.687576</v>
+        <v>0.69199</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.398995</v>
+        <v>0.402048</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8289</v>
+        <v>0.828003</v>
       </c>
       <c r="D85" t="n">
-        <v>1.1569</v>
+        <v>1.15441</v>
       </c>
       <c r="E85" t="n">
-        <v>0.343771</v>
+        <v>0.339071</v>
       </c>
       <c r="F85" t="n">
-        <v>0.675611</v>
+        <v>0.679378</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.377607</v>
+        <v>0.430278</v>
       </c>
       <c r="C86" t="n">
-        <v>0.816712</v>
+        <v>0.819182</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15463</v>
+        <v>1.15128</v>
       </c>
       <c r="E86" t="n">
-        <v>0.337687</v>
+        <v>0.334192</v>
       </c>
       <c r="F86" t="n">
-        <v>0.66404</v>
+        <v>0.666694</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.410879</v>
+        <v>0.381935</v>
       </c>
       <c r="C87" t="n">
-        <v>0.805061</v>
+        <v>0.80667</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15434</v>
+        <v>1.15109</v>
       </c>
       <c r="E87" t="n">
-        <v>0.329716</v>
+        <v>0.325666</v>
       </c>
       <c r="F87" t="n">
-        <v>0.651651</v>
+        <v>0.6597</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.383458</v>
+        <v>0.3905</v>
       </c>
       <c r="C88" t="n">
-        <v>0.793262</v>
+        <v>0.790872</v>
       </c>
       <c r="D88" t="n">
-        <v>1.15976</v>
+        <v>1.16091</v>
       </c>
       <c r="E88" t="n">
-        <v>0.31871</v>
+        <v>0.321018</v>
       </c>
       <c r="F88" t="n">
-        <v>0.639948</v>
+        <v>0.646576</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.372823</v>
+        <v>0.359545</v>
       </c>
       <c r="C89" t="n">
-        <v>0.781237</v>
+        <v>0.779371</v>
       </c>
       <c r="D89" t="n">
-        <v>1.16847</v>
+        <v>1.17026</v>
       </c>
       <c r="E89" t="n">
-        <v>0.316466</v>
+        <v>0.314378</v>
       </c>
       <c r="F89" t="n">
-        <v>0.629152</v>
+        <v>0.635035</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369951</v>
+        <v>0.379875</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7696539999999999</v>
+        <v>0.768303</v>
       </c>
       <c r="D90" t="n">
-        <v>1.1761</v>
+        <v>1.17914</v>
       </c>
       <c r="E90" t="n">
-        <v>0.31251</v>
+        <v>0.311857</v>
       </c>
       <c r="F90" t="n">
-        <v>0.616443</v>
+        <v>0.626321</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.365975</v>
+        <v>0.372625</v>
       </c>
       <c r="C91" t="n">
-        <v>0.763696</v>
+        <v>0.762704</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19115</v>
+        <v>1.19042</v>
       </c>
       <c r="E91" t="n">
-        <v>0.306543</v>
+        <v>0.304958</v>
       </c>
       <c r="F91" t="n">
-        <v>0.609521</v>
+        <v>0.614551</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.36511</v>
+        <v>0.386933</v>
       </c>
       <c r="C92" t="n">
-        <v>0.753596</v>
+        <v>0.753836</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75676</v>
+        <v>1.7608</v>
       </c>
       <c r="E92" t="n">
-        <v>0.300413</v>
+        <v>0.297799</v>
       </c>
       <c r="F92" t="n">
-        <v>0.607765</v>
+        <v>0.60942</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.36409</v>
+        <v>0.355986</v>
       </c>
       <c r="C93" t="n">
-        <v>0.747103</v>
+        <v>0.74848</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74979</v>
+        <v>1.75288</v>
       </c>
       <c r="E93" t="n">
-        <v>0.301247</v>
+        <v>0.302085</v>
       </c>
       <c r="F93" t="n">
-        <v>0.601253</v>
+        <v>0.605275</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.373272</v>
+        <v>0.368259</v>
       </c>
       <c r="C94" t="n">
-        <v>0.741376</v>
+        <v>0.743096</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73675</v>
+        <v>1.74061</v>
       </c>
       <c r="E94" t="n">
-        <v>0.489808</v>
+        <v>0.494687</v>
       </c>
       <c r="F94" t="n">
-        <v>1.09036</v>
+        <v>1.10808</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.558182</v>
+        <v>0.5495910000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15608</v>
+        <v>1.16569</v>
       </c>
       <c r="D95" t="n">
-        <v>1.72403</v>
+        <v>1.7245</v>
       </c>
       <c r="E95" t="n">
-        <v>0.483162</v>
+        <v>0.488088</v>
       </c>
       <c r="F95" t="n">
-        <v>1.07942</v>
+        <v>1.09417</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.55239</v>
+        <v>0.563107</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15825</v>
+        <v>1.16633</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71514</v>
+        <v>1.71549</v>
       </c>
       <c r="E96" t="n">
-        <v>0.473724</v>
+        <v>0.478308</v>
       </c>
       <c r="F96" t="n">
-        <v>1.06205</v>
+        <v>1.07457</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.54553</v>
+        <v>0.544374</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1443</v>
+        <v>1.1412</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70444</v>
+        <v>1.70358</v>
       </c>
       <c r="E97" t="n">
-        <v>0.457571</v>
+        <v>0.4659</v>
       </c>
       <c r="F97" t="n">
-        <v>1.04318</v>
+        <v>1.05449</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.520018</v>
+        <v>0.5270280000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1297</v>
+        <v>1.13573</v>
       </c>
       <c r="D98" t="n">
-        <v>1.69839</v>
+        <v>1.69924</v>
       </c>
       <c r="E98" t="n">
-        <v>0.451828</v>
+        <v>0.455537</v>
       </c>
       <c r="F98" t="n">
-        <v>1.02484</v>
+        <v>1.03778</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.50973</v>
+        <v>0.521311</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11882</v>
+        <v>1.122</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69731</v>
+        <v>1.69504</v>
       </c>
       <c r="E99" t="n">
-        <v>0.43759</v>
+        <v>0.443261</v>
       </c>
       <c r="F99" t="n">
-        <v>1.00588</v>
+        <v>1.01782</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.512045</v>
+        <v>0.50265</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10734</v>
+        <v>1.10764</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69835</v>
+        <v>1.69564</v>
       </c>
       <c r="E100" t="n">
-        <v>0.430337</v>
+        <v>0.433602</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9893960000000001</v>
+        <v>1.00168</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.505365</v>
+        <v>0.5050829999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09904</v>
+        <v>1.09672</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70664</v>
+        <v>1.70407</v>
       </c>
       <c r="E101" t="n">
-        <v>0.419341</v>
+        <v>0.423074</v>
       </c>
       <c r="F101" t="n">
-        <v>0.967396</v>
+        <v>0.9832</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.495318</v>
+        <v>0.488518</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09715</v>
+        <v>1.09116</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71002</v>
+        <v>1.71218</v>
       </c>
       <c r="E102" t="n">
-        <v>0.406656</v>
+        <v>0.41246</v>
       </c>
       <c r="F102" t="n">
-        <v>0.958137</v>
+        <v>0.970248</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.486758</v>
+        <v>0.482063</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06684</v>
+        <v>1.06807</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71835</v>
+        <v>1.71661</v>
       </c>
       <c r="E103" t="n">
-        <v>0.399235</v>
+        <v>0.406195</v>
       </c>
       <c r="F103" t="n">
-        <v>0.934846</v>
+        <v>0.958245</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.477695</v>
+        <v>0.475196</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05352</v>
+        <v>1.05253</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73146</v>
+        <v>1.73068</v>
       </c>
       <c r="E104" t="n">
-        <v>0.396036</v>
+        <v>0.397308</v>
       </c>
       <c r="F104" t="n">
-        <v>0.925563</v>
+        <v>0.939281</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.461037</v>
+        <v>0.478395</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05362</v>
+        <v>1.03993</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74594</v>
+        <v>1.74152</v>
       </c>
       <c r="E105" t="n">
-        <v>0.385631</v>
+        <v>0.390382</v>
       </c>
       <c r="F105" t="n">
-        <v>0.912439</v>
+        <v>0.928188</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.459181</v>
+        <v>0.463599</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02242</v>
+        <v>1.02016</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76321</v>
+        <v>1.76091</v>
       </c>
       <c r="E106" t="n">
-        <v>0.379006</v>
+        <v>0.386869</v>
       </c>
       <c r="F106" t="n">
-        <v>0.910473</v>
+        <v>0.924337</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.462903</v>
+        <v>0.459604</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03453</v>
+        <v>1.03415</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36462</v>
+        <v>2.36418</v>
       </c>
       <c r="E107" t="n">
-        <v>0.37767</v>
+        <v>0.38146</v>
       </c>
       <c r="F107" t="n">
-        <v>0.909868</v>
+        <v>0.91703</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.459182</v>
+        <v>0.4462</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03271</v>
+        <v>1.02268</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33521</v>
+        <v>2.33228</v>
       </c>
       <c r="E108" t="n">
-        <v>0.523635</v>
+        <v>0.533072</v>
       </c>
       <c r="F108" t="n">
-        <v>2.3255</v>
+        <v>2.35934</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.44192</v>
+        <v>0.465154</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01917</v>
+        <v>1.01589</v>
       </c>
       <c r="D109" t="n">
-        <v>2.31313</v>
+        <v>2.30824</v>
       </c>
       <c r="E109" t="n">
-        <v>0.518678</v>
+        <v>0.534591</v>
       </c>
       <c r="F109" t="n">
-        <v>2.346</v>
+        <v>2.35533</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.669505</v>
+        <v>0.689748</v>
       </c>
       <c r="C110" t="n">
-        <v>2.58407</v>
+        <v>2.56996</v>
       </c>
       <c r="D110" t="n">
-        <v>2.29363</v>
+        <v>2.29045</v>
       </c>
       <c r="E110" t="n">
-        <v>0.554357</v>
+        <v>0.524753</v>
       </c>
       <c r="F110" t="n">
-        <v>2.3332</v>
+        <v>2.34684</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.655705</v>
+        <v>0.655464</v>
       </c>
       <c r="C111" t="n">
-        <v>2.58423</v>
+        <v>2.59685</v>
       </c>
       <c r="D111" t="n">
-        <v>2.27652</v>
+        <v>2.26867</v>
       </c>
       <c r="E111" t="n">
-        <v>0.499047</v>
+        <v>0.508609</v>
       </c>
       <c r="F111" t="n">
-        <v>2.33214</v>
+        <v>2.34241</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6455650000000001</v>
+        <v>0.654896</v>
       </c>
       <c r="C112" t="n">
-        <v>2.56828</v>
+        <v>2.58102</v>
       </c>
       <c r="D112" t="n">
-        <v>2.26319</v>
+        <v>2.25618</v>
       </c>
       <c r="E112" t="n">
-        <v>0.528931</v>
+        <v>0.541554</v>
       </c>
       <c r="F112" t="n">
-        <v>2.32827</v>
+        <v>2.34795</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.631173</v>
+        <v>0.627433</v>
       </c>
       <c r="C113" t="n">
-        <v>2.5762</v>
+        <v>2.57432</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26501</v>
+        <v>2.26883</v>
       </c>
       <c r="E113" t="n">
-        <v>0.479591</v>
+        <v>0.494189</v>
       </c>
       <c r="F113" t="n">
-        <v>2.32886</v>
+        <v>2.33117</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.62085</v>
+        <v>0.609187</v>
       </c>
       <c r="C114" t="n">
-        <v>2.58028</v>
+        <v>2.57928</v>
       </c>
       <c r="D114" t="n">
-        <v>2.2647</v>
+        <v>2.25797</v>
       </c>
       <c r="E114" t="n">
-        <v>0.508819</v>
+        <v>0.521748</v>
       </c>
       <c r="F114" t="n">
-        <v>2.31987</v>
+        <v>2.33091</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.597336</v>
+        <v>0.618152</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57942</v>
+        <v>2.57092</v>
       </c>
       <c r="D115" t="n">
-        <v>2.25728</v>
+        <v>2.26951</v>
       </c>
       <c r="E115" t="n">
-        <v>0.466622</v>
+        <v>0.475001</v>
       </c>
       <c r="F115" t="n">
-        <v>2.31318</v>
+        <v>2.3314</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.600708</v>
+        <v>0.601949</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56657</v>
+        <v>2.55841</v>
       </c>
       <c r="D116" t="n">
-        <v>2.28216</v>
+        <v>2.27292</v>
       </c>
       <c r="E116" t="n">
-        <v>0.489275</v>
+        <v>0.499196</v>
       </c>
       <c r="F116" t="n">
-        <v>2.31724</v>
+        <v>2.32934</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.587355</v>
+        <v>0.590383</v>
       </c>
       <c r="C117" t="n">
-        <v>2.58606</v>
+        <v>2.61301</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27897</v>
+        <v>2.26613</v>
       </c>
       <c r="E117" t="n">
-        <v>0.481093</v>
+        <v>0.490208</v>
       </c>
       <c r="F117" t="n">
-        <v>2.32232</v>
+        <v>2.32984</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.576219</v>
+        <v>0.564944</v>
       </c>
       <c r="C118" t="n">
-        <v>2.57283</v>
+        <v>2.58074</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23523</v>
+        <v>2.24046</v>
       </c>
       <c r="E118" t="n">
-        <v>0.443649</v>
+        <v>0.451216</v>
       </c>
       <c r="F118" t="n">
-        <v>1.92379</v>
+        <v>2.13701</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.551084</v>
+        <v>0.5676639999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>2.37088</v>
+        <v>2.56952</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23548</v>
+        <v>2.23566</v>
       </c>
       <c r="E119" t="n">
-        <v>0.437585</v>
+        <v>0.446294</v>
       </c>
       <c r="F119" t="n">
-        <v>1.91561</v>
+        <v>1.72143</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.560419</v>
+        <v>0.53271</v>
       </c>
       <c r="C120" t="n">
-        <v>2.57739</v>
+        <v>2.58142</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24881</v>
+        <v>2.24542</v>
       </c>
       <c r="E120" t="n">
-        <v>0.42973</v>
+        <v>0.436796</v>
       </c>
       <c r="F120" t="n">
-        <v>2.31206</v>
+        <v>1.51964</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.541219</v>
+        <v>0.524438</v>
       </c>
       <c r="C121" t="n">
-        <v>2.37531</v>
+        <v>2.16091</v>
       </c>
       <c r="D121" t="n">
-        <v>2.92082</v>
+        <v>2.92131</v>
       </c>
       <c r="E121" t="n">
-        <v>0.425194</v>
+        <v>0.461544</v>
       </c>
       <c r="F121" t="n">
-        <v>2.11933</v>
+        <v>2.33551</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.537616</v>
+        <v>0.552612</v>
       </c>
       <c r="C122" t="n">
-        <v>2.58831</v>
+        <v>2.58304</v>
       </c>
       <c r="D122" t="n">
-        <v>2.87783</v>
+        <v>2.88091</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4232</v>
+        <v>0.432497</v>
       </c>
       <c r="F122" t="n">
-        <v>1.70333</v>
+        <v>1.52342</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.540976</v>
+        <v>0.531405</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59716</v>
+        <v>1.31355</v>
       </c>
       <c r="D123" t="n">
-        <v>2.84082</v>
+        <v>2.83228</v>
       </c>
       <c r="E123" t="n">
-        <v>0.616119</v>
+        <v>0.626725</v>
       </c>
       <c r="F123" t="n">
-        <v>2.82731</v>
+        <v>2.83743</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.704955</v>
+        <v>0.728001</v>
       </c>
       <c r="C124" t="n">
-        <v>3.18101</v>
+        <v>3.16249</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80393</v>
+        <v>2.80841</v>
       </c>
       <c r="E124" t="n">
-        <v>0.608491</v>
+        <v>0.621035</v>
       </c>
       <c r="F124" t="n">
-        <v>2.81157</v>
+        <v>2.82366</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.727739</v>
+        <v>0.7231300000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>3.15425</v>
+        <v>3.15925</v>
       </c>
       <c r="D125" t="n">
-        <v>2.77756</v>
+        <v>2.77989</v>
       </c>
       <c r="E125" t="n">
-        <v>0.623183</v>
+        <v>0.613451</v>
       </c>
       <c r="F125" t="n">
-        <v>2.79918</v>
+        <v>2.81293</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.701497</v>
+        <v>0.705907</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15369</v>
+        <v>3.15365</v>
       </c>
       <c r="D126" t="n">
-        <v>2.74369</v>
+        <v>2.74093</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5954469999999999</v>
+        <v>0.629</v>
       </c>
       <c r="F126" t="n">
-        <v>2.7828</v>
+        <v>2.80737</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.705102</v>
+        <v>0.695313</v>
       </c>
       <c r="C127" t="n">
-        <v>3.14269</v>
+        <v>3.12655</v>
       </c>
       <c r="D127" t="n">
-        <v>2.71702</v>
+        <v>2.71683</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6066319999999999</v>
+        <v>0.599692</v>
       </c>
       <c r="F127" t="n">
-        <v>2.77902</v>
+        <v>2.79008</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.691974</v>
+        <v>0.707287</v>
       </c>
       <c r="C128" t="n">
-        <v>3.13122</v>
+        <v>3.11867</v>
       </c>
       <c r="D128" t="n">
-        <v>2.70175</v>
+        <v>2.68891</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.594143</v>
       </c>
       <c r="F128" t="n">
-        <v>2.77372</v>
+        <v>2.78321</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.675979</v>
+        <v>0.682003</v>
       </c>
       <c r="C129" t="n">
-        <v>3.10817</v>
+        <v>3.09865</v>
       </c>
       <c r="D129" t="n">
-        <v>2.69007</v>
+        <v>2.68587</v>
       </c>
       <c r="E129" t="n">
-        <v>0.576592</v>
+        <v>0.589022</v>
       </c>
       <c r="F129" t="n">
-        <v>2.75997</v>
+        <v>2.77224</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.667851</v>
+        <v>0.676575</v>
       </c>
       <c r="C130" t="n">
-        <v>3.09328</v>
+        <v>3.09099</v>
       </c>
       <c r="D130" t="n">
-        <v>2.67295</v>
+        <v>2.67392</v>
       </c>
       <c r="E130" t="n">
-        <v>0.571982</v>
+        <v>0.584435</v>
       </c>
       <c r="F130" t="n">
-        <v>2.75352</v>
+        <v>2.75976</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.656104</v>
+        <v>0.673083</v>
       </c>
       <c r="C131" t="n">
-        <v>3.10022</v>
+        <v>3.09469</v>
       </c>
       <c r="D131" t="n">
-        <v>2.66515</v>
+        <v>2.65847</v>
       </c>
       <c r="E131" t="n">
-        <v>0.567253</v>
+        <v>0.579191</v>
       </c>
       <c r="F131" t="n">
-        <v>2.7571</v>
+        <v>2.76609</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.644885</v>
+        <v>0.648903</v>
       </c>
       <c r="C132" t="n">
-        <v>3.0856</v>
+        <v>3.08211</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6497</v>
+        <v>2.65357</v>
       </c>
       <c r="E132" t="n">
-        <v>0.56214</v>
+        <v>0.573529</v>
       </c>
       <c r="F132" t="n">
-        <v>2.75043</v>
+        <v>2.7589</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6432369999999999</v>
+        <v>0.659819</v>
       </c>
       <c r="C133" t="n">
-        <v>3.08455</v>
+        <v>3.07072</v>
       </c>
       <c r="D133" t="n">
-        <v>2.64132</v>
+        <v>2.64503</v>
       </c>
       <c r="E133" t="n">
-        <v>0.56075</v>
+        <v>0.569383</v>
       </c>
       <c r="F133" t="n">
-        <v>2.74708</v>
+        <v>2.75601</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6015</v>
+        <v>0.634289</v>
       </c>
       <c r="C134" t="n">
-        <v>3.07854</v>
+        <v>3.07008</v>
       </c>
       <c r="D134" t="n">
-        <v>2.62512</v>
+        <v>2.62671</v>
       </c>
       <c r="E134" t="n">
-        <v>0.529464</v>
+        <v>0.540696</v>
       </c>
       <c r="F134" t="n">
-        <v>2.74166</v>
+        <v>2.29837</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.636903</v>
+        <v>0.645498</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06789</v>
+        <v>3.06539</v>
       </c>
       <c r="D135" t="n">
-        <v>3.32652</v>
+        <v>3.32509</v>
       </c>
       <c r="E135" t="n">
-        <v>0.527371</v>
+        <v>0.560172</v>
       </c>
       <c r="F135" t="n">
-        <v>2.51566</v>
+        <v>2.75328</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6283879999999999</v>
+        <v>0.634163</v>
       </c>
       <c r="C136" t="n">
-        <v>3.06089</v>
+        <v>3.0592</v>
       </c>
       <c r="D136" t="n">
-        <v>3.26946</v>
+        <v>3.26367</v>
       </c>
       <c r="E136" t="n">
-        <v>0.522251</v>
+        <v>0.557003</v>
       </c>
       <c r="F136" t="n">
-        <v>2.74513</v>
+        <v>2.73794</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6309709999999999</v>
+        <v>0.626961</v>
       </c>
       <c r="C137" t="n">
-        <v>3.07014</v>
+        <v>3.0638</v>
       </c>
       <c r="D137" t="n">
-        <v>3.21242</v>
+        <v>3.21338</v>
       </c>
       <c r="E137" t="n">
-        <v>0.714313</v>
+        <v>0.724707</v>
       </c>
       <c r="F137" t="n">
-        <v>3.24245</v>
+        <v>3.25671</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.817971</v>
+        <v>0.813152</v>
       </c>
       <c r="C138" t="n">
-        <v>3.59353</v>
+        <v>3.59683</v>
       </c>
       <c r="D138" t="n">
-        <v>3.16817</v>
+        <v>3.17014</v>
       </c>
       <c r="E138" t="n">
-        <v>0.709023</v>
+        <v>0.719503</v>
       </c>
       <c r="F138" t="n">
-        <v>3.22439</v>
+        <v>3.24589</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.800545</v>
+        <v>0.788825</v>
       </c>
       <c r="C139" t="n">
-        <v>3.58768</v>
+        <v>3.58324</v>
       </c>
       <c r="D139" t="n">
-        <v>3.13277</v>
+        <v>3.12615</v>
       </c>
       <c r="E139" t="n">
-        <v>0.705311</v>
+        <v>0.717875</v>
       </c>
       <c r="F139" t="n">
-        <v>3.21383</v>
+        <v>3.22151</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.801484</v>
+        <v>0.791279</v>
       </c>
       <c r="C140" t="n">
-        <v>3.56789</v>
+        <v>3.5427</v>
       </c>
       <c r="D140" t="n">
-        <v>3.09447</v>
+        <v>3.08063</v>
       </c>
       <c r="E140" t="n">
-        <v>0.699171</v>
+        <v>0.713297</v>
       </c>
       <c r="F140" t="n">
-        <v>3.19786</v>
+        <v>3.21016</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.801936</v>
+        <v>0.796277</v>
       </c>
       <c r="C141" t="n">
-        <v>3.53232</v>
+        <v>3.53469</v>
       </c>
       <c r="D141" t="n">
-        <v>3.06222</v>
+        <v>3.05334</v>
       </c>
       <c r="E141" t="n">
-        <v>0.696414</v>
+        <v>0.709153</v>
       </c>
       <c r="F141" t="n">
-        <v>3.18218</v>
+        <v>3.18968</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.783698</v>
+        <v>0.7763</v>
       </c>
       <c r="C142" t="n">
-        <v>3.51648</v>
+        <v>3.50664</v>
       </c>
       <c r="D142" t="n">
-        <v>3.038</v>
+        <v>3.03345</v>
       </c>
       <c r="E142" t="n">
-        <v>0.693029</v>
+        <v>0.707356</v>
       </c>
       <c r="F142" t="n">
-        <v>3.16028</v>
+        <v>3.16877</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.77371</v>
+        <v>0.780075</v>
       </c>
       <c r="C143" t="n">
-        <v>3.48859</v>
+        <v>3.48961</v>
       </c>
       <c r="D143" t="n">
-        <v>3.01021</v>
+        <v>3.01019</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.721404</v>
       </c>
       <c r="F143" t="n">
-        <v>3.14547</v>
+        <v>3.15362</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.248389</v>
+        <v>0.244292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.425265</v>
+        <v>0.424363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5557569999999999</v>
+        <v>0.561227</v>
       </c>
       <c r="E2" t="n">
-        <v>0.210235</v>
+        <v>0.207353</v>
       </c>
       <c r="F2" t="n">
-        <v>0.387016</v>
+        <v>0.394155</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24587</v>
+        <v>0.236767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.420029</v>
+        <v>0.417622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.550267</v>
+        <v>0.550296</v>
       </c>
       <c r="E3" t="n">
-        <v>0.203178</v>
+        <v>0.203161</v>
       </c>
       <c r="F3" t="n">
-        <v>0.380707</v>
+        <v>0.389315</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.235927</v>
+        <v>0.233132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.413936</v>
+        <v>0.41087</v>
       </c>
       <c r="D4" t="n">
-        <v>0.542606</v>
+        <v>0.542668</v>
       </c>
       <c r="E4" t="n">
-        <v>0.199414</v>
+        <v>0.196963</v>
       </c>
       <c r="F4" t="n">
-        <v>0.375422</v>
+        <v>0.383467</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.225862</v>
+        <v>0.227277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.409469</v>
+        <v>0.405296</v>
       </c>
       <c r="D5" t="n">
-        <v>0.538901</v>
+        <v>0.537043</v>
       </c>
       <c r="E5" t="n">
-        <v>0.194443</v>
+        <v>0.193117</v>
       </c>
       <c r="F5" t="n">
-        <v>0.371184</v>
+        <v>0.378727</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.216299</v>
+        <v>0.223103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40335</v>
+        <v>0.40095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.535357</v>
+        <v>0.530756</v>
       </c>
       <c r="E6" t="n">
-        <v>0.191444</v>
+        <v>0.189704</v>
       </c>
       <c r="F6" t="n">
-        <v>0.368131</v>
+        <v>0.376751</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220881</v>
+        <v>0.218761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.400981</v>
+        <v>0.396241</v>
       </c>
       <c r="D7" t="n">
-        <v>0.687388</v>
+        <v>0.684294</v>
       </c>
       <c r="E7" t="n">
-        <v>0.188343</v>
+        <v>0.187164</v>
       </c>
       <c r="F7" t="n">
-        <v>0.366695</v>
+        <v>0.374287</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217629</v>
+        <v>0.214495</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398904</v>
+        <v>0.393973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.672108</v>
+        <v>0.66935</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18908</v>
+        <v>0.187894</v>
       </c>
       <c r="F8" t="n">
-        <v>0.367697</v>
+        <v>0.374537</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.215344</v>
+        <v>0.214062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.399657</v>
+        <v>0.394172</v>
       </c>
       <c r="D9" t="n">
-        <v>0.659444</v>
+        <v>0.655898</v>
       </c>
       <c r="E9" t="n">
-        <v>0.279086</v>
+        <v>0.278186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.449409</v>
+        <v>0.456288</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306655</v>
+        <v>0.307886</v>
       </c>
       <c r="C10" t="n">
-        <v>0.486821</v>
+        <v>0.486518</v>
       </c>
       <c r="D10" t="n">
-        <v>0.646712</v>
+        <v>0.644104</v>
       </c>
       <c r="E10" t="n">
-        <v>0.268671</v>
+        <v>0.266144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.439971</v>
+        <v>0.446192</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298136</v>
+        <v>0.298338</v>
       </c>
       <c r="C11" t="n">
-        <v>0.475942</v>
+        <v>0.477091</v>
       </c>
       <c r="D11" t="n">
-        <v>0.635444</v>
+        <v>0.634605</v>
       </c>
       <c r="E11" t="n">
-        <v>0.259528</v>
+        <v>0.257926</v>
       </c>
       <c r="F11" t="n">
-        <v>0.428064</v>
+        <v>0.436225</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.293693</v>
+        <v>0.287475</v>
       </c>
       <c r="C12" t="n">
-        <v>0.46399</v>
+        <v>0.465885</v>
       </c>
       <c r="D12" t="n">
-        <v>0.624907</v>
+        <v>0.624591</v>
       </c>
       <c r="E12" t="n">
-        <v>0.253085</v>
+        <v>0.249413</v>
       </c>
       <c r="F12" t="n">
-        <v>0.419612</v>
+        <v>0.426444</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279612</v>
+        <v>0.284026</v>
       </c>
       <c r="C13" t="n">
-        <v>0.455841</v>
+        <v>0.455188</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6169480000000001</v>
+        <v>0.616052</v>
       </c>
       <c r="E13" t="n">
-        <v>0.243262</v>
+        <v>0.242227</v>
       </c>
       <c r="F13" t="n">
-        <v>0.411767</v>
+        <v>0.418613</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269082</v>
+        <v>0.272302</v>
       </c>
       <c r="C14" t="n">
-        <v>0.445039</v>
+        <v>0.445927</v>
       </c>
       <c r="D14" t="n">
-        <v>0.60827</v>
+        <v>0.60759</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236486</v>
+        <v>0.234769</v>
       </c>
       <c r="F14" t="n">
-        <v>0.403593</v>
+        <v>0.410584</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264375</v>
+        <v>0.268279</v>
       </c>
       <c r="C15" t="n">
-        <v>0.437953</v>
+        <v>0.437573</v>
       </c>
       <c r="D15" t="n">
-        <v>0.601306</v>
+        <v>0.600643</v>
       </c>
       <c r="E15" t="n">
-        <v>0.230292</v>
+        <v>0.230845</v>
       </c>
       <c r="F15" t="n">
-        <v>0.396947</v>
+        <v>0.403564</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256152</v>
+        <v>0.253572</v>
       </c>
       <c r="C16" t="n">
-        <v>0.433626</v>
+        <v>0.430387</v>
       </c>
       <c r="D16" t="n">
-        <v>0.595959</v>
+        <v>0.594241</v>
       </c>
       <c r="E16" t="n">
-        <v>0.225701</v>
+        <v>0.224709</v>
       </c>
       <c r="F16" t="n">
-        <v>0.390785</v>
+        <v>0.397373</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.254156</v>
+        <v>0.24923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.425257</v>
+        <v>0.42572</v>
       </c>
       <c r="D17" t="n">
-        <v>0.590273</v>
+        <v>0.588202</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21811</v>
+        <v>0.216758</v>
       </c>
       <c r="F17" t="n">
-        <v>0.384798</v>
+        <v>0.391055</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.246331</v>
+        <v>0.244893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.419723</v>
+        <v>0.419878</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5844549999999999</v>
+        <v>0.583755</v>
       </c>
       <c r="E18" t="n">
-        <v>0.214481</v>
+        <v>0.211936</v>
       </c>
       <c r="F18" t="n">
-        <v>0.380042</v>
+        <v>0.386235</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.239177</v>
+        <v>0.240937</v>
       </c>
       <c r="C19" t="n">
-        <v>0.415552</v>
+        <v>0.413228</v>
       </c>
       <c r="D19" t="n">
-        <v>0.58078</v>
+        <v>0.579857</v>
       </c>
       <c r="E19" t="n">
-        <v>0.208703</v>
+        <v>0.207426</v>
       </c>
       <c r="F19" t="n">
-        <v>0.373424</v>
+        <v>0.380064</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239264</v>
+        <v>0.231533</v>
       </c>
       <c r="C20" t="n">
-        <v>0.410102</v>
+        <v>0.409673</v>
       </c>
       <c r="D20" t="n">
-        <v>0.576723</v>
+        <v>0.576006</v>
       </c>
       <c r="E20" t="n">
-        <v>0.207068</v>
+        <v>0.204542</v>
       </c>
       <c r="F20" t="n">
-        <v>0.370148</v>
+        <v>0.376981</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227889</v>
+        <v>0.230835</v>
       </c>
       <c r="C21" t="n">
-        <v>0.407434</v>
+        <v>0.40664</v>
       </c>
       <c r="D21" t="n">
-        <v>0.753986</v>
+        <v>0.751715</v>
       </c>
       <c r="E21" t="n">
-        <v>0.205287</v>
+        <v>0.203016</v>
       </c>
       <c r="F21" t="n">
-        <v>0.369082</v>
+        <v>0.375407</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2287</v>
+        <v>0.231313</v>
       </c>
       <c r="C22" t="n">
-        <v>0.404124</v>
+        <v>0.402854</v>
       </c>
       <c r="D22" t="n">
-        <v>0.738325</v>
+        <v>0.736899</v>
       </c>
       <c r="E22" t="n">
-        <v>0.206052</v>
+        <v>0.203334</v>
       </c>
       <c r="F22" t="n">
-        <v>0.369111</v>
+        <v>0.376461</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227531</v>
+        <v>0.231907</v>
       </c>
       <c r="C23" t="n">
-        <v>0.403011</v>
+        <v>0.402424</v>
       </c>
       <c r="D23" t="n">
-        <v>0.723853</v>
+        <v>0.722147</v>
       </c>
       <c r="E23" t="n">
-        <v>0.298634</v>
+        <v>0.295567</v>
       </c>
       <c r="F23" t="n">
-        <v>0.456215</v>
+        <v>0.463472</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.31404</v>
+        <v>0.313462</v>
       </c>
       <c r="C24" t="n">
-        <v>0.505541</v>
+        <v>0.506638</v>
       </c>
       <c r="D24" t="n">
-        <v>0.709981</v>
+        <v>0.710108</v>
       </c>
       <c r="E24" t="n">
-        <v>0.285588</v>
+        <v>0.283077</v>
       </c>
       <c r="F24" t="n">
-        <v>0.445317</v>
+        <v>0.45282</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.308072</v>
+        <v>0.303647</v>
       </c>
       <c r="C25" t="n">
-        <v>0.494513</v>
+        <v>0.496063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.69821</v>
+        <v>0.698102</v>
       </c>
       <c r="E25" t="n">
-        <v>0.275778</v>
+        <v>0.280273</v>
       </c>
       <c r="F25" t="n">
-        <v>0.436677</v>
+        <v>0.441786</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298333</v>
+        <v>0.298092</v>
       </c>
       <c r="C26" t="n">
-        <v>0.479528</v>
+        <v>0.480523</v>
       </c>
       <c r="D26" t="n">
-        <v>0.687254</v>
+        <v>0.685289</v>
       </c>
       <c r="E26" t="n">
-        <v>0.267649</v>
+        <v>0.265583</v>
       </c>
       <c r="F26" t="n">
-        <v>0.427508</v>
+        <v>0.433085</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.290417</v>
+        <v>0.289677</v>
       </c>
       <c r="C27" t="n">
-        <v>0.470254</v>
+        <v>0.470105</v>
       </c>
       <c r="D27" t="n">
-        <v>0.676984</v>
+        <v>0.676947</v>
       </c>
       <c r="E27" t="n">
-        <v>0.260261</v>
+        <v>0.257872</v>
       </c>
       <c r="F27" t="n">
-        <v>0.41851</v>
+        <v>0.424593</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.280678</v>
+        <v>0.277839</v>
       </c>
       <c r="C28" t="n">
-        <v>0.460388</v>
+        <v>0.459332</v>
       </c>
       <c r="D28" t="n">
-        <v>0.668185</v>
+        <v>0.667605</v>
       </c>
       <c r="E28" t="n">
-        <v>0.253443</v>
+        <v>0.249875</v>
       </c>
       <c r="F28" t="n">
-        <v>0.409736</v>
+        <v>0.415942</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.274129</v>
+        <v>0.268587</v>
       </c>
       <c r="C29" t="n">
-        <v>0.452465</v>
+        <v>0.451074</v>
       </c>
       <c r="D29" t="n">
-        <v>0.659421</v>
+        <v>0.660498</v>
       </c>
       <c r="E29" t="n">
-        <v>0.244581</v>
+        <v>0.244323</v>
       </c>
       <c r="F29" t="n">
-        <v>0.40397</v>
+        <v>0.408919</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264392</v>
+        <v>0.265566</v>
       </c>
       <c r="C30" t="n">
-        <v>0.444577</v>
+        <v>0.443691</v>
       </c>
       <c r="D30" t="n">
-        <v>0.651535</v>
+        <v>0.651903</v>
       </c>
       <c r="E30" t="n">
-        <v>0.238289</v>
+        <v>0.235681</v>
       </c>
       <c r="F30" t="n">
-        <v>0.396668</v>
+        <v>0.402385</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.257605</v>
+        <v>0.259852</v>
       </c>
       <c r="C31" t="n">
-        <v>0.438475</v>
+        <v>0.437968</v>
       </c>
       <c r="D31" t="n">
-        <v>0.646061</v>
+        <v>0.645725</v>
       </c>
       <c r="E31" t="n">
-        <v>0.233744</v>
+        <v>0.231263</v>
       </c>
       <c r="F31" t="n">
-        <v>0.390985</v>
+        <v>0.396638</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.255107</v>
+        <v>0.249017</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4341</v>
+        <v>0.433123</v>
       </c>
       <c r="D32" t="n">
-        <v>0.640724</v>
+        <v>0.640561</v>
       </c>
       <c r="E32" t="n">
-        <v>0.226221</v>
+        <v>0.226467</v>
       </c>
       <c r="F32" t="n">
-        <v>0.385726</v>
+        <v>0.391024</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.244756</v>
+        <v>0.245259</v>
       </c>
       <c r="C33" t="n">
-        <v>0.42948</v>
+        <v>0.427856</v>
       </c>
       <c r="D33" t="n">
-        <v>0.635953</v>
+        <v>0.635297</v>
       </c>
       <c r="E33" t="n">
-        <v>0.22133</v>
+        <v>0.220631</v>
       </c>
       <c r="F33" t="n">
-        <v>0.381377</v>
+        <v>0.386905</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237341</v>
+        <v>0.236486</v>
       </c>
       <c r="C34" t="n">
-        <v>0.42156</v>
+        <v>0.41994</v>
       </c>
       <c r="D34" t="n">
-        <v>0.630541</v>
+        <v>0.630717</v>
       </c>
       <c r="E34" t="n">
-        <v>0.217134</v>
+        <v>0.216366</v>
       </c>
       <c r="F34" t="n">
-        <v>0.377657</v>
+        <v>0.384859</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23389</v>
+        <v>0.234629</v>
       </c>
       <c r="C35" t="n">
-        <v>0.417888</v>
+        <v>0.417936</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8166369999999999</v>
+        <v>0.816063</v>
       </c>
       <c r="E35" t="n">
-        <v>0.215061</v>
+        <v>0.215706</v>
       </c>
       <c r="F35" t="n">
-        <v>0.376438</v>
+        <v>0.381276</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231505</v>
+        <v>0.231348</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413881</v>
+        <v>0.415811</v>
       </c>
       <c r="D36" t="n">
-        <v>0.799184</v>
+        <v>0.798146</v>
       </c>
       <c r="E36" t="n">
-        <v>0.213844</v>
+        <v>0.21307</v>
       </c>
       <c r="F36" t="n">
-        <v>0.37622</v>
+        <v>0.380891</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230251</v>
+        <v>0.230785</v>
       </c>
       <c r="C37" t="n">
-        <v>0.411753</v>
+        <v>0.413121</v>
       </c>
       <c r="D37" t="n">
-        <v>0.783015</v>
+        <v>0.781922</v>
       </c>
       <c r="E37" t="n">
-        <v>0.31205</v>
+        <v>0.306141</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4687</v>
+        <v>0.471855</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.323619</v>
+        <v>0.319088</v>
       </c>
       <c r="C38" t="n">
-        <v>0.516114</v>
+        <v>0.516323</v>
       </c>
       <c r="D38" t="n">
-        <v>0.768186</v>
+        <v>0.7681750000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.296152</v>
+        <v>0.294446</v>
       </c>
       <c r="F38" t="n">
-        <v>0.458929</v>
+        <v>0.461761</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.311947</v>
+        <v>0.309605</v>
       </c>
       <c r="C39" t="n">
-        <v>0.505162</v>
+        <v>0.507223</v>
       </c>
       <c r="D39" t="n">
-        <v>0.754562</v>
+        <v>0.754735</v>
       </c>
       <c r="E39" t="n">
-        <v>0.28765</v>
+        <v>0.286918</v>
       </c>
       <c r="F39" t="n">
-        <v>0.448885</v>
+        <v>0.452632</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303797</v>
+        <v>0.298642</v>
       </c>
       <c r="C40" t="n">
-        <v>0.494963</v>
+        <v>0.496122</v>
       </c>
       <c r="D40" t="n">
-        <v>0.741774</v>
+        <v>0.7413</v>
       </c>
       <c r="E40" t="n">
-        <v>0.278449</v>
+        <v>0.277306</v>
       </c>
       <c r="F40" t="n">
-        <v>0.441083</v>
+        <v>0.445945</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.293824</v>
+        <v>0.292588</v>
       </c>
       <c r="C41" t="n">
-        <v>0.485757</v>
+        <v>0.485752</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7300179999999999</v>
+        <v>0.7294850000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.272857</v>
+        <v>0.269249</v>
       </c>
       <c r="F41" t="n">
-        <v>0.432053</v>
+        <v>0.435563</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.286957</v>
+        <v>0.284071</v>
       </c>
       <c r="C42" t="n">
-        <v>0.475417</v>
+        <v>0.477103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.720247</v>
+        <v>0.719475</v>
       </c>
       <c r="E42" t="n">
-        <v>0.262812</v>
+        <v>0.261235</v>
       </c>
       <c r="F42" t="n">
-        <v>0.421623</v>
+        <v>0.427436</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272804</v>
+        <v>0.280611</v>
       </c>
       <c r="C43" t="n">
-        <v>0.46786</v>
+        <v>0.468521</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7097250000000001</v>
+        <v>0.708938</v>
       </c>
       <c r="E43" t="n">
-        <v>0.25533</v>
+        <v>0.256608</v>
       </c>
       <c r="F43" t="n">
-        <v>0.413122</v>
+        <v>0.419994</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.271852</v>
+        <v>0.270394</v>
       </c>
       <c r="C44" t="n">
-        <v>0.459394</v>
+        <v>0.459951</v>
       </c>
       <c r="D44" t="n">
-        <v>0.700887</v>
+        <v>0.701298</v>
       </c>
       <c r="E44" t="n">
-        <v>0.24872</v>
+        <v>0.247164</v>
       </c>
       <c r="F44" t="n">
-        <v>0.406101</v>
+        <v>0.4122</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261924</v>
+        <v>0.261715</v>
       </c>
       <c r="C45" t="n">
-        <v>0.453189</v>
+        <v>0.453737</v>
       </c>
       <c r="D45" t="n">
-        <v>0.694138</v>
+        <v>0.6934129999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.242767</v>
+        <v>0.241122</v>
       </c>
       <c r="F45" t="n">
-        <v>0.399981</v>
+        <v>0.405682</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.258388</v>
+        <v>0.266527</v>
       </c>
       <c r="C46" t="n">
-        <v>0.448088</v>
+        <v>0.447569</v>
       </c>
       <c r="D46" t="n">
-        <v>0.687147</v>
+        <v>0.687068</v>
       </c>
       <c r="E46" t="n">
-        <v>0.235891</v>
+        <v>0.235296</v>
       </c>
       <c r="F46" t="n">
-        <v>0.394478</v>
+        <v>0.400673</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.255877</v>
+        <v>0.253087</v>
       </c>
       <c r="C47" t="n">
-        <v>0.43871</v>
+        <v>0.438965</v>
       </c>
       <c r="D47" t="n">
-        <v>0.681866</v>
+        <v>0.681023</v>
       </c>
       <c r="E47" t="n">
-        <v>0.231636</v>
+        <v>0.230481</v>
       </c>
       <c r="F47" t="n">
-        <v>0.388942</v>
+        <v>0.396986</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.243617</v>
+        <v>0.248812</v>
       </c>
       <c r="C48" t="n">
-        <v>0.432204</v>
+        <v>0.43424</v>
       </c>
       <c r="D48" t="n">
-        <v>0.676145</v>
+        <v>0.676353</v>
       </c>
       <c r="E48" t="n">
-        <v>0.226726</v>
+        <v>0.227475</v>
       </c>
       <c r="F48" t="n">
-        <v>0.38598</v>
+        <v>0.393759</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.246313</v>
+        <v>0.240139</v>
       </c>
       <c r="C49" t="n">
-        <v>0.426819</v>
+        <v>0.427876</v>
       </c>
       <c r="D49" t="n">
-        <v>0.671763</v>
+        <v>0.671336</v>
       </c>
       <c r="E49" t="n">
-        <v>0.226045</v>
+        <v>0.224104</v>
       </c>
       <c r="F49" t="n">
-        <v>0.383915</v>
+        <v>0.392208</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241358</v>
+        <v>0.238977</v>
       </c>
       <c r="C50" t="n">
-        <v>0.424171</v>
+        <v>0.425112</v>
       </c>
       <c r="D50" t="n">
-        <v>0.850723</v>
+        <v>0.850264</v>
       </c>
       <c r="E50" t="n">
-        <v>0.222354</v>
+        <v>0.220907</v>
       </c>
       <c r="F50" t="n">
-        <v>0.384472</v>
+        <v>0.392183</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236279</v>
+        <v>0.240707</v>
       </c>
       <c r="C51" t="n">
-        <v>0.423104</v>
+        <v>0.422937</v>
       </c>
       <c r="D51" t="n">
-        <v>0.832521</v>
+        <v>0.832418</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3239</v>
+        <v>0.319134</v>
       </c>
       <c r="F51" t="n">
-        <v>0.482226</v>
+        <v>0.485913</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.243935</v>
+        <v>0.241151</v>
       </c>
       <c r="C52" t="n">
-        <v>0.422621</v>
+        <v>0.423319</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8161079999999999</v>
+        <v>0.81517</v>
       </c>
       <c r="E52" t="n">
-        <v>0.313201</v>
+        <v>0.311243</v>
       </c>
       <c r="F52" t="n">
-        <v>0.472834</v>
+        <v>0.476018</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.327882</v>
+        <v>0.323968</v>
       </c>
       <c r="C53" t="n">
-        <v>0.524034</v>
+        <v>0.523164</v>
       </c>
       <c r="D53" t="n">
-        <v>0.800241</v>
+        <v>0.799978</v>
       </c>
       <c r="E53" t="n">
-        <v>0.304841</v>
+        <v>0.301179</v>
       </c>
       <c r="F53" t="n">
-        <v>0.463876</v>
+        <v>0.467929</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311986</v>
+        <v>0.319873</v>
       </c>
       <c r="C54" t="n">
-        <v>0.51274</v>
+        <v>0.510126</v>
       </c>
       <c r="D54" t="n">
-        <v>0.785453</v>
+        <v>0.7847769999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.296734</v>
+        <v>0.292474</v>
       </c>
       <c r="F54" t="n">
-        <v>0.455614</v>
+        <v>0.457524</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.30488</v>
+        <v>0.30757</v>
       </c>
       <c r="C55" t="n">
-        <v>0.503815</v>
+        <v>0.500376</v>
       </c>
       <c r="D55" t="n">
-        <v>0.772993</v>
+        <v>0.772531</v>
       </c>
       <c r="E55" t="n">
-        <v>0.287142</v>
+        <v>0.285609</v>
       </c>
       <c r="F55" t="n">
-        <v>0.44723</v>
+        <v>0.447608</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29769</v>
+        <v>0.295707</v>
       </c>
       <c r="C56" t="n">
-        <v>0.494146</v>
+        <v>0.49268</v>
       </c>
       <c r="D56" t="n">
-        <v>0.761439</v>
+        <v>0.760581</v>
       </c>
       <c r="E56" t="n">
-        <v>0.278957</v>
+        <v>0.277267</v>
       </c>
       <c r="F56" t="n">
-        <v>0.438706</v>
+        <v>0.440173</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.292432</v>
+        <v>0.287858</v>
       </c>
       <c r="C57" t="n">
-        <v>0.486047</v>
+        <v>0.483452</v>
       </c>
       <c r="D57" t="n">
-        <v>0.750237</v>
+        <v>0.750173</v>
       </c>
       <c r="E57" t="n">
-        <v>0.272702</v>
+        <v>0.269951</v>
       </c>
       <c r="F57" t="n">
-        <v>0.432071</v>
+        <v>0.433097</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.282797</v>
+        <v>0.286103</v>
       </c>
       <c r="C58" t="n">
-        <v>0.477605</v>
+        <v>0.47616</v>
       </c>
       <c r="D58" t="n">
-        <v>0.740833</v>
+        <v>0.740495</v>
       </c>
       <c r="E58" t="n">
-        <v>0.265387</v>
+        <v>0.264207</v>
       </c>
       <c r="F58" t="n">
-        <v>0.424721</v>
+        <v>0.426504</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27473</v>
+        <v>0.273322</v>
       </c>
       <c r="C59" t="n">
-        <v>0.471673</v>
+        <v>0.469863</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7320990000000001</v>
+        <v>0.731702</v>
       </c>
       <c r="E59" t="n">
-        <v>0.258987</v>
+        <v>0.258787</v>
       </c>
       <c r="F59" t="n">
-        <v>0.418922</v>
+        <v>0.421264</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26677</v>
+        <v>0.269413</v>
       </c>
       <c r="C60" t="n">
-        <v>0.464763</v>
+        <v>0.464452</v>
       </c>
       <c r="D60" t="n">
-        <v>0.724735</v>
+        <v>0.724029</v>
       </c>
       <c r="E60" t="n">
-        <v>0.253137</v>
+        <v>0.251396</v>
       </c>
       <c r="F60" t="n">
-        <v>0.413304</v>
+        <v>0.415258</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.265337</v>
+        <v>0.260708</v>
       </c>
       <c r="C61" t="n">
-        <v>0.45863</v>
+        <v>0.457086</v>
       </c>
       <c r="D61" t="n">
-        <v>0.717863</v>
+        <v>0.717153</v>
       </c>
       <c r="E61" t="n">
-        <v>0.248539</v>
+        <v>0.246986</v>
       </c>
       <c r="F61" t="n">
-        <v>0.408286</v>
+        <v>0.411306</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.259836</v>
+        <v>0.258353</v>
       </c>
       <c r="C62" t="n">
-        <v>0.453606</v>
+        <v>0.454363</v>
       </c>
       <c r="D62" t="n">
-        <v>0.711558</v>
+        <v>0.711012</v>
       </c>
       <c r="E62" t="n">
-        <v>0.243678</v>
+        <v>0.243179</v>
       </c>
       <c r="F62" t="n">
-        <v>0.404609</v>
+        <v>0.408152</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255258</v>
+        <v>0.252329</v>
       </c>
       <c r="C63" t="n">
-        <v>0.449066</v>
+        <v>0.449367</v>
       </c>
       <c r="D63" t="n">
-        <v>0.706515</v>
+        <v>0.705967</v>
       </c>
       <c r="E63" t="n">
-        <v>0.24028</v>
+        <v>0.238914</v>
       </c>
       <c r="F63" t="n">
-        <v>0.401366</v>
+        <v>0.406862</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251318</v>
+        <v>0.247375</v>
       </c>
       <c r="C64" t="n">
-        <v>0.446096</v>
+        <v>0.446195</v>
       </c>
       <c r="D64" t="n">
-        <v>0.918249</v>
+        <v>0.9146879999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.238796</v>
+        <v>0.237927</v>
       </c>
       <c r="F64" t="n">
-        <v>0.399085</v>
+        <v>0.406232</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.248384</v>
+        <v>0.249191</v>
       </c>
       <c r="C65" t="n">
-        <v>0.444023</v>
+        <v>0.444282</v>
       </c>
       <c r="D65" t="n">
-        <v>0.89577</v>
+        <v>0.898537</v>
       </c>
       <c r="E65" t="n">
-        <v>0.238964</v>
+        <v>0.237929</v>
       </c>
       <c r="F65" t="n">
-        <v>0.39967</v>
+        <v>0.408038</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.248959</v>
+        <v>0.244893</v>
       </c>
       <c r="C66" t="n">
-        <v>0.444579</v>
+        <v>0.444721</v>
       </c>
       <c r="D66" t="n">
-        <v>0.87971</v>
+        <v>0.880928</v>
       </c>
       <c r="E66" t="n">
-        <v>0.339643</v>
+        <v>0.33465</v>
       </c>
       <c r="F66" t="n">
-        <v>0.505208</v>
+        <v>0.511649</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.380028</v>
+        <v>0.381916</v>
       </c>
       <c r="C67" t="n">
-        <v>0.58425</v>
+        <v>0.586545</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8631219999999999</v>
+        <v>0.865009</v>
       </c>
       <c r="E67" t="n">
-        <v>0.33054</v>
+        <v>0.331935</v>
       </c>
       <c r="F67" t="n">
-        <v>0.498878</v>
+        <v>0.504359</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.359144</v>
+        <v>0.379029</v>
       </c>
       <c r="C68" t="n">
-        <v>0.577454</v>
+        <v>0.578419</v>
       </c>
       <c r="D68" t="n">
-        <v>0.848043</v>
+        <v>0.84956</v>
       </c>
       <c r="E68" t="n">
-        <v>0.321955</v>
+        <v>0.322598</v>
       </c>
       <c r="F68" t="n">
-        <v>0.492046</v>
+        <v>0.496688</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.37952</v>
+        <v>0.379577</v>
       </c>
       <c r="C69" t="n">
-        <v>0.574013</v>
+        <v>0.574357</v>
       </c>
       <c r="D69" t="n">
-        <v>0.835611</v>
+        <v>0.8344279999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.30991</v>
+        <v>0.309339</v>
       </c>
       <c r="F69" t="n">
-        <v>0.484702</v>
+        <v>0.48985</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.363318</v>
+        <v>0.358485</v>
       </c>
       <c r="C70" t="n">
-        <v>0.566748</v>
+        <v>0.566565</v>
       </c>
       <c r="D70" t="n">
-        <v>0.824419</v>
+        <v>0.823481</v>
       </c>
       <c r="E70" t="n">
-        <v>0.306722</v>
+        <v>0.307438</v>
       </c>
       <c r="F70" t="n">
-        <v>0.477692</v>
+        <v>0.481639</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.365071</v>
+        <v>0.357526</v>
       </c>
       <c r="C71" t="n">
-        <v>0.557767</v>
+        <v>0.557709</v>
       </c>
       <c r="D71" t="n">
-        <v>0.814897</v>
+        <v>0.814003</v>
       </c>
       <c r="E71" t="n">
-        <v>0.295878</v>
+        <v>0.294756</v>
       </c>
       <c r="F71" t="n">
-        <v>0.469216</v>
+        <v>0.47334</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3448</v>
+        <v>0.347797</v>
       </c>
       <c r="C72" t="n">
-        <v>0.550715</v>
+        <v>0.549341</v>
       </c>
       <c r="D72" t="n">
-        <v>0.806767</v>
+        <v>0.806366</v>
       </c>
       <c r="E72" t="n">
-        <v>0.291667</v>
+        <v>0.288676</v>
       </c>
       <c r="F72" t="n">
-        <v>0.463922</v>
+        <v>0.468779</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.342303</v>
+        <v>0.339492</v>
       </c>
       <c r="C73" t="n">
-        <v>0.544991</v>
+        <v>0.542974</v>
       </c>
       <c r="D73" t="n">
-        <v>0.800521</v>
+        <v>0.799821</v>
       </c>
       <c r="E73" t="n">
-        <v>0.281518</v>
+        <v>0.28582</v>
       </c>
       <c r="F73" t="n">
-        <v>0.457225</v>
+        <v>0.461229</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.341096</v>
+        <v>0.331778</v>
       </c>
       <c r="C74" t="n">
-        <v>0.539108</v>
+        <v>0.5377150000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.795789</v>
+        <v>0.794276</v>
       </c>
       <c r="E74" t="n">
-        <v>0.279626</v>
+        <v>0.279671</v>
       </c>
       <c r="F74" t="n">
-        <v>0.452046</v>
+        <v>0.456107</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.331517</v>
+        <v>0.326422</v>
       </c>
       <c r="C75" t="n">
-        <v>0.533424</v>
+        <v>0.533108</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7903250000000001</v>
+        <v>0.791088</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274323</v>
+        <v>0.273735</v>
       </c>
       <c r="F75" t="n">
-        <v>0.447897</v>
+        <v>0.451751</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.325056</v>
+        <v>0.327643</v>
       </c>
       <c r="C76" t="n">
-        <v>0.530589</v>
+        <v>0.530274</v>
       </c>
       <c r="D76" t="n">
-        <v>0.788368</v>
+        <v>0.789519</v>
       </c>
       <c r="E76" t="n">
-        <v>0.266704</v>
+        <v>0.266637</v>
       </c>
       <c r="F76" t="n">
-        <v>0.444558</v>
+        <v>0.447698</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.314698</v>
+        <v>0.305702</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5262790000000001</v>
+        <v>0.525848</v>
       </c>
       <c r="D77" t="n">
-        <v>0.788732</v>
+        <v>0.789852</v>
       </c>
       <c r="E77" t="n">
-        <v>0.265776</v>
+        <v>0.264938</v>
       </c>
       <c r="F77" t="n">
-        <v>0.442244</v>
+        <v>0.446575</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.309904</v>
+        <v>0.313143</v>
       </c>
       <c r="C78" t="n">
-        <v>0.523416</v>
+        <v>0.5248429999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1.24996</v>
+        <v>1.25083</v>
       </c>
       <c r="E78" t="n">
-        <v>0.259</v>
+        <v>0.261998</v>
       </c>
       <c r="F78" t="n">
-        <v>0.440869</v>
+        <v>0.44727</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3114</v>
+        <v>0.311538</v>
       </c>
       <c r="C79" t="n">
-        <v>0.522723</v>
+        <v>0.522402</v>
       </c>
       <c r="D79" t="n">
-        <v>1.23022</v>
+        <v>1.23008</v>
       </c>
       <c r="E79" t="n">
-        <v>0.261121</v>
+        <v>0.261578</v>
       </c>
       <c r="F79" t="n">
-        <v>0.442041</v>
+        <v>0.44708</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302348</v>
+        <v>0.319862</v>
       </c>
       <c r="C80" t="n">
-        <v>0.52466</v>
+        <v>0.524458</v>
       </c>
       <c r="D80" t="n">
-        <v>1.21104</v>
+        <v>1.2101</v>
       </c>
       <c r="E80" t="n">
-        <v>0.376253</v>
+        <v>0.383028</v>
       </c>
       <c r="F80" t="n">
-        <v>0.729355</v>
+        <v>0.713734</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.428069</v>
+        <v>0.445689</v>
       </c>
       <c r="C81" t="n">
-        <v>0.831911</v>
+        <v>0.837189</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19429</v>
+        <v>1.19428</v>
       </c>
       <c r="E81" t="n">
-        <v>0.369012</v>
+        <v>0.374795</v>
       </c>
       <c r="F81" t="n">
-        <v>0.728993</v>
+        <v>0.715471</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.447025</v>
+        <v>0.435734</v>
       </c>
       <c r="C82" t="n">
-        <v>0.836581</v>
+        <v>0.839467</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18123</v>
+        <v>1.1818</v>
       </c>
       <c r="E82" t="n">
-        <v>0.362687</v>
+        <v>0.370369</v>
       </c>
       <c r="F82" t="n">
-        <v>0.711302</v>
+        <v>0.7102000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.409055</v>
+        <v>0.450958</v>
       </c>
       <c r="C83" t="n">
-        <v>0.85472</v>
+        <v>0.851168</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17145</v>
+        <v>1.1754</v>
       </c>
       <c r="E83" t="n">
-        <v>0.35683</v>
+        <v>0.356838</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7046480000000001</v>
+        <v>0.697966</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.42425</v>
+        <v>0.422248</v>
       </c>
       <c r="C84" t="n">
-        <v>0.838512</v>
+        <v>0.8407480000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1632</v>
+        <v>1.16409</v>
       </c>
       <c r="E84" t="n">
-        <v>0.351092</v>
+        <v>0.348851</v>
       </c>
       <c r="F84" t="n">
-        <v>0.69199</v>
+        <v>0.685381</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.402048</v>
+        <v>0.419377</v>
       </c>
       <c r="C85" t="n">
-        <v>0.828003</v>
+        <v>0.826774</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15441</v>
+        <v>1.15875</v>
       </c>
       <c r="E85" t="n">
-        <v>0.339071</v>
+        <v>0.345167</v>
       </c>
       <c r="F85" t="n">
-        <v>0.679378</v>
+        <v>0.676133</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.430278</v>
+        <v>0.426029</v>
       </c>
       <c r="C86" t="n">
-        <v>0.819182</v>
+        <v>0.81859</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15128</v>
+        <v>1.15699</v>
       </c>
       <c r="E86" t="n">
-        <v>0.334192</v>
+        <v>0.338335</v>
       </c>
       <c r="F86" t="n">
-        <v>0.666694</v>
+        <v>0.665895</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.381935</v>
+        <v>0.388527</v>
       </c>
       <c r="C87" t="n">
-        <v>0.80667</v>
+        <v>0.804764</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15109</v>
+        <v>1.15163</v>
       </c>
       <c r="E87" t="n">
-        <v>0.325666</v>
+        <v>0.328661</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6597</v>
+        <v>0.653265</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3905</v>
+        <v>0.414624</v>
       </c>
       <c r="C88" t="n">
-        <v>0.790872</v>
+        <v>0.794729</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16091</v>
+        <v>1.15594</v>
       </c>
       <c r="E88" t="n">
-        <v>0.321018</v>
+        <v>0.322521</v>
       </c>
       <c r="F88" t="n">
-        <v>0.646576</v>
+        <v>0.6398200000000001</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.359545</v>
+        <v>0.394687</v>
       </c>
       <c r="C89" t="n">
-        <v>0.779371</v>
+        <v>0.783033</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17026</v>
+        <v>1.16829</v>
       </c>
       <c r="E89" t="n">
-        <v>0.314378</v>
+        <v>0.316169</v>
       </c>
       <c r="F89" t="n">
-        <v>0.635035</v>
+        <v>0.6286040000000001</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.379875</v>
+        <v>0.368213</v>
       </c>
       <c r="C90" t="n">
-        <v>0.768303</v>
+        <v>0.767296</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17914</v>
+        <v>1.17732</v>
       </c>
       <c r="E90" t="n">
-        <v>0.311857</v>
+        <v>0.314306</v>
       </c>
       <c r="F90" t="n">
-        <v>0.626321</v>
+        <v>0.6179</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372625</v>
+        <v>0.365219</v>
       </c>
       <c r="C91" t="n">
-        <v>0.762704</v>
+        <v>0.763451</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19042</v>
+        <v>1.18883</v>
       </c>
       <c r="E91" t="n">
-        <v>0.304958</v>
+        <v>0.312654</v>
       </c>
       <c r="F91" t="n">
-        <v>0.614551</v>
+        <v>0.612252</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.386933</v>
+        <v>0.388107</v>
       </c>
       <c r="C92" t="n">
-        <v>0.753836</v>
+        <v>0.753085</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7608</v>
+        <v>1.7618</v>
       </c>
       <c r="E92" t="n">
-        <v>0.297799</v>
+        <v>0.300216</v>
       </c>
       <c r="F92" t="n">
-        <v>0.60942</v>
+        <v>0.606656</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.355986</v>
+        <v>0.356397</v>
       </c>
       <c r="C93" t="n">
-        <v>0.74848</v>
+        <v>0.745526</v>
       </c>
       <c r="D93" t="n">
-        <v>1.75288</v>
+        <v>1.74882</v>
       </c>
       <c r="E93" t="n">
-        <v>0.302085</v>
+        <v>0.301747</v>
       </c>
       <c r="F93" t="n">
-        <v>0.605275</v>
+        <v>0.601332</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.368259</v>
+        <v>0.376009</v>
       </c>
       <c r="C94" t="n">
-        <v>0.743096</v>
+        <v>0.742065</v>
       </c>
       <c r="D94" t="n">
-        <v>1.74061</v>
+        <v>1.73786</v>
       </c>
       <c r="E94" t="n">
-        <v>0.494687</v>
+        <v>0.488916</v>
       </c>
       <c r="F94" t="n">
-        <v>1.10808</v>
+        <v>1.08028</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5495910000000001</v>
+        <v>0.553342</v>
       </c>
       <c r="C95" t="n">
-        <v>1.16569</v>
+        <v>1.13808</v>
       </c>
       <c r="D95" t="n">
-        <v>1.7245</v>
+        <v>1.72549</v>
       </c>
       <c r="E95" t="n">
-        <v>0.488088</v>
+        <v>0.483108</v>
       </c>
       <c r="F95" t="n">
-        <v>1.09417</v>
+        <v>1.07179</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.563107</v>
+        <v>0.563273</v>
       </c>
       <c r="C96" t="n">
-        <v>1.16633</v>
+        <v>1.15084</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71549</v>
+        <v>1.71335</v>
       </c>
       <c r="E96" t="n">
-        <v>0.478308</v>
+        <v>0.46836</v>
       </c>
       <c r="F96" t="n">
-        <v>1.07457</v>
+        <v>1.05383</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.544374</v>
+        <v>0.534011</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1412</v>
+        <v>1.14971</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70358</v>
+        <v>1.70224</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4659</v>
+        <v>0.460561</v>
       </c>
       <c r="F97" t="n">
-        <v>1.05449</v>
+        <v>1.03475</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5270280000000001</v>
+        <v>0.528257</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13573</v>
+        <v>1.13144</v>
       </c>
       <c r="D98" t="n">
-        <v>1.69924</v>
+        <v>1.69953</v>
       </c>
       <c r="E98" t="n">
-        <v>0.455537</v>
+        <v>0.450686</v>
       </c>
       <c r="F98" t="n">
-        <v>1.03778</v>
+        <v>1.00269</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.521311</v>
+        <v>0.517266</v>
       </c>
       <c r="C99" t="n">
-        <v>1.122</v>
+        <v>1.1162</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69504</v>
+        <v>1.7014</v>
       </c>
       <c r="E99" t="n">
-        <v>0.443261</v>
+        <v>0.439446</v>
       </c>
       <c r="F99" t="n">
-        <v>1.01782</v>
+        <v>0.9986699999999999</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.50265</v>
+        <v>0.519803</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10764</v>
+        <v>1.11446</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69564</v>
+        <v>1.69941</v>
       </c>
       <c r="E100" t="n">
-        <v>0.433602</v>
+        <v>0.427721</v>
       </c>
       <c r="F100" t="n">
-        <v>1.00168</v>
+        <v>0.978732</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5050829999999999</v>
+        <v>0.504078</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09672</v>
+        <v>1.0967</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70407</v>
+        <v>1.70663</v>
       </c>
       <c r="E101" t="n">
-        <v>0.423074</v>
+        <v>0.418807</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9832</v>
+        <v>0.965541</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.488518</v>
+        <v>0.505722</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09116</v>
+        <v>1.08679</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71218</v>
+        <v>1.70843</v>
       </c>
       <c r="E102" t="n">
-        <v>0.41246</v>
+        <v>0.409505</v>
       </c>
       <c r="F102" t="n">
-        <v>0.970248</v>
+        <v>0.951505</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.482063</v>
+        <v>0.481814</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06807</v>
+        <v>1.06081</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71661</v>
+        <v>1.71864</v>
       </c>
       <c r="E103" t="n">
-        <v>0.406195</v>
+        <v>0.403732</v>
       </c>
       <c r="F103" t="n">
-        <v>0.958245</v>
+        <v>0.940686</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.475196</v>
+        <v>0.473671</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05253</v>
+        <v>1.04995</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73068</v>
+        <v>1.73042</v>
       </c>
       <c r="E104" t="n">
-        <v>0.397308</v>
+        <v>0.395195</v>
       </c>
       <c r="F104" t="n">
-        <v>0.939281</v>
+        <v>0.928342</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.478395</v>
+        <v>0.472451</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03993</v>
+        <v>1.04425</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74152</v>
+        <v>1.7464</v>
       </c>
       <c r="E105" t="n">
-        <v>0.390382</v>
+        <v>0.386626</v>
       </c>
       <c r="F105" t="n">
-        <v>0.928188</v>
+        <v>0.918422</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.463599</v>
+        <v>0.471902</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02016</v>
+        <v>1.02942</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76091</v>
+        <v>1.76</v>
       </c>
       <c r="E106" t="n">
-        <v>0.386869</v>
+        <v>0.384517</v>
       </c>
       <c r="F106" t="n">
-        <v>0.924337</v>
+        <v>0.9104100000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.459604</v>
+        <v>0.459996</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03415</v>
+        <v>1.04019</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36418</v>
+        <v>2.36991</v>
       </c>
       <c r="E107" t="n">
-        <v>0.38146</v>
+        <v>0.378671</v>
       </c>
       <c r="F107" t="n">
-        <v>0.91703</v>
+        <v>0.902408</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4462</v>
+        <v>0.45812</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02268</v>
+        <v>1.02568</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33228</v>
+        <v>2.3371</v>
       </c>
       <c r="E108" t="n">
-        <v>0.533072</v>
+        <v>0.5280589999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>2.35934</v>
+        <v>2.33134</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.465154</v>
+        <v>0.475003</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01589</v>
+        <v>1.02179</v>
       </c>
       <c r="D109" t="n">
-        <v>2.30824</v>
+        <v>2.3142</v>
       </c>
       <c r="E109" t="n">
-        <v>0.534591</v>
+        <v>0.5255030000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>2.35533</v>
+        <v>2.33885</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.689748</v>
+        <v>0.656712</v>
       </c>
       <c r="C110" t="n">
-        <v>2.56996</v>
+        <v>2.58726</v>
       </c>
       <c r="D110" t="n">
-        <v>2.29045</v>
+        <v>2.29404</v>
       </c>
       <c r="E110" t="n">
-        <v>0.524753</v>
+        <v>0.5552550000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>2.34684</v>
+        <v>2.33994</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.655464</v>
+        <v>0.662276</v>
       </c>
       <c r="C111" t="n">
-        <v>2.59685</v>
+        <v>2.58712</v>
       </c>
       <c r="D111" t="n">
-        <v>2.26867</v>
+        <v>2.27758</v>
       </c>
       <c r="E111" t="n">
-        <v>0.508609</v>
+        <v>0.545286</v>
       </c>
       <c r="F111" t="n">
-        <v>2.34241</v>
+        <v>2.32625</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.654896</v>
+        <v>0.647528</v>
       </c>
       <c r="C112" t="n">
-        <v>2.58102</v>
+        <v>2.57092</v>
       </c>
       <c r="D112" t="n">
-        <v>2.25618</v>
+        <v>2.25806</v>
       </c>
       <c r="E112" t="n">
-        <v>0.541554</v>
+        <v>0.533593</v>
       </c>
       <c r="F112" t="n">
-        <v>2.34795</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.627433</v>
+        <v>0.599125</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57432</v>
+        <v>2.58072</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26883</v>
+        <v>2.26848</v>
       </c>
       <c r="E113" t="n">
-        <v>0.494189</v>
+        <v>0.52052</v>
       </c>
       <c r="F113" t="n">
-        <v>2.33117</v>
+        <v>2.32911</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.609187</v>
+        <v>0.621194</v>
       </c>
       <c r="C114" t="n">
-        <v>2.57928</v>
+        <v>2.57288</v>
       </c>
       <c r="D114" t="n">
-        <v>2.25797</v>
+        <v>2.28273</v>
       </c>
       <c r="E114" t="n">
-        <v>0.521748</v>
+        <v>0.511608</v>
       </c>
       <c r="F114" t="n">
-        <v>2.33091</v>
+        <v>2.32587</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.618152</v>
+        <v>0.5889529999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57092</v>
+        <v>2.58365</v>
       </c>
       <c r="D115" t="n">
-        <v>2.26951</v>
+        <v>2.28406</v>
       </c>
       <c r="E115" t="n">
-        <v>0.475001</v>
+        <v>0.499477</v>
       </c>
       <c r="F115" t="n">
-        <v>2.3314</v>
+        <v>2.3244</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.601949</v>
+        <v>0.591653</v>
       </c>
       <c r="C116" t="n">
-        <v>2.55841</v>
+        <v>2.5815</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27292</v>
+        <v>2.28546</v>
       </c>
       <c r="E116" t="n">
-        <v>0.499196</v>
+        <v>0.491046</v>
       </c>
       <c r="F116" t="n">
-        <v>2.32934</v>
+        <v>2.31972</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.590383</v>
+        <v>0.58807</v>
       </c>
       <c r="C117" t="n">
-        <v>2.61301</v>
+        <v>2.6081</v>
       </c>
       <c r="D117" t="n">
-        <v>2.26613</v>
+        <v>2.28903</v>
       </c>
       <c r="E117" t="n">
-        <v>0.490208</v>
+        <v>0.481808</v>
       </c>
       <c r="F117" t="n">
-        <v>2.32984</v>
+        <v>2.31498</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.564944</v>
+        <v>0.5829530000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>2.58074</v>
+        <v>2.57572</v>
       </c>
       <c r="D118" t="n">
-        <v>2.24046</v>
+        <v>2.24545</v>
       </c>
       <c r="E118" t="n">
-        <v>0.451216</v>
+        <v>0.447834</v>
       </c>
       <c r="F118" t="n">
-        <v>2.13701</v>
+        <v>2.12736</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5676639999999999</v>
+        <v>0.565008</v>
       </c>
       <c r="C119" t="n">
-        <v>2.56952</v>
+        <v>2.56732</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23566</v>
+        <v>2.2421</v>
       </c>
       <c r="E119" t="n">
-        <v>0.446294</v>
+        <v>0.438994</v>
       </c>
       <c r="F119" t="n">
-        <v>1.72143</v>
+        <v>1.30299</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.53271</v>
+        <v>0.56107</v>
       </c>
       <c r="C120" t="n">
-        <v>2.58142</v>
+        <v>2.5881</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24542</v>
+        <v>2.2555</v>
       </c>
       <c r="E120" t="n">
-        <v>0.436796</v>
+        <v>0.433618</v>
       </c>
       <c r="F120" t="n">
-        <v>1.51964</v>
+        <v>1.2963</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.524438</v>
+        <v>0.554017</v>
       </c>
       <c r="C121" t="n">
-        <v>2.16091</v>
+        <v>2.57776</v>
       </c>
       <c r="D121" t="n">
-        <v>2.92131</v>
+        <v>2.92726</v>
       </c>
       <c r="E121" t="n">
-        <v>0.461544</v>
+        <v>0.430301</v>
       </c>
       <c r="F121" t="n">
-        <v>2.33551</v>
+        <v>1.91463</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.552612</v>
+        <v>0.5270590000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>2.58304</v>
+        <v>1.32948</v>
       </c>
       <c r="D122" t="n">
-        <v>2.88091</v>
+        <v>2.88623</v>
       </c>
       <c r="E122" t="n">
-        <v>0.432497</v>
+        <v>0.427414</v>
       </c>
       <c r="F122" t="n">
-        <v>1.52342</v>
+        <v>2.33162</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.531405</v>
+        <v>0.537751</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31355</v>
+        <v>2.60117</v>
       </c>
       <c r="D123" t="n">
-        <v>2.83228</v>
+        <v>2.84089</v>
       </c>
       <c r="E123" t="n">
-        <v>0.626725</v>
+        <v>0.620266</v>
       </c>
       <c r="F123" t="n">
-        <v>2.83743</v>
+        <v>2.82029</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.728001</v>
+        <v>0.726333</v>
       </c>
       <c r="C124" t="n">
-        <v>3.16249</v>
+        <v>3.17464</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80841</v>
+        <v>2.81174</v>
       </c>
       <c r="E124" t="n">
-        <v>0.621035</v>
+        <v>0.614957</v>
       </c>
       <c r="F124" t="n">
-        <v>2.82366</v>
+        <v>2.81694</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7231300000000001</v>
+        <v>0.722258</v>
       </c>
       <c r="C125" t="n">
-        <v>3.15925</v>
+        <v>3.15343</v>
       </c>
       <c r="D125" t="n">
-        <v>2.77989</v>
+        <v>2.77883</v>
       </c>
       <c r="E125" t="n">
-        <v>0.613451</v>
+        <v>0.608954</v>
       </c>
       <c r="F125" t="n">
-        <v>2.81293</v>
+        <v>2.80119</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.705907</v>
+        <v>0.712744</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15365</v>
+        <v>3.15042</v>
       </c>
       <c r="D126" t="n">
-        <v>2.74093</v>
+        <v>2.75011</v>
       </c>
       <c r="E126" t="n">
-        <v>0.629</v>
+        <v>0.600997</v>
       </c>
       <c r="F126" t="n">
-        <v>2.80737</v>
+        <v>2.78766</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.695313</v>
+        <v>0.688876</v>
       </c>
       <c r="C127" t="n">
-        <v>3.12655</v>
+        <v>3.1289</v>
       </c>
       <c r="D127" t="n">
-        <v>2.71683</v>
+        <v>2.7345</v>
       </c>
       <c r="E127" t="n">
-        <v>0.599692</v>
+        <v>0.594175</v>
       </c>
       <c r="F127" t="n">
-        <v>2.79008</v>
+        <v>2.78077</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.707287</v>
+        <v>0.679965</v>
       </c>
       <c r="C128" t="n">
-        <v>3.11867</v>
+        <v>3.12143</v>
       </c>
       <c r="D128" t="n">
-        <v>2.68891</v>
+        <v>2.71091</v>
       </c>
       <c r="E128" t="n">
-        <v>0.594143</v>
+        <v>0.59038</v>
       </c>
       <c r="F128" t="n">
-        <v>2.78321</v>
+        <v>2.77328</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.682003</v>
+        <v>0.683476</v>
       </c>
       <c r="C129" t="n">
-        <v>3.09865</v>
+        <v>3.1264</v>
       </c>
       <c r="D129" t="n">
-        <v>2.68587</v>
+        <v>2.69056</v>
       </c>
       <c r="E129" t="n">
-        <v>0.589022</v>
+        <v>0.587013</v>
       </c>
       <c r="F129" t="n">
-        <v>2.77224</v>
+        <v>2.76297</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.676575</v>
+        <v>0.682177</v>
       </c>
       <c r="C130" t="n">
-        <v>3.09099</v>
+        <v>3.08732</v>
       </c>
       <c r="D130" t="n">
-        <v>2.67392</v>
+        <v>2.66963</v>
       </c>
       <c r="E130" t="n">
-        <v>0.584435</v>
+        <v>0.580949</v>
       </c>
       <c r="F130" t="n">
-        <v>2.75976</v>
+        <v>2.75808</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.673083</v>
+        <v>0.670424</v>
       </c>
       <c r="C131" t="n">
-        <v>3.09469</v>
+        <v>3.0989</v>
       </c>
       <c r="D131" t="n">
-        <v>2.65847</v>
+        <v>2.65956</v>
       </c>
       <c r="E131" t="n">
-        <v>0.579191</v>
+        <v>0.574708</v>
       </c>
       <c r="F131" t="n">
-        <v>2.76609</v>
+        <v>2.74833</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.648903</v>
+        <v>0.647432</v>
       </c>
       <c r="C132" t="n">
-        <v>3.08211</v>
+        <v>3.0795</v>
       </c>
       <c r="D132" t="n">
-        <v>2.65357</v>
+        <v>2.65465</v>
       </c>
       <c r="E132" t="n">
-        <v>0.573529</v>
+        <v>0.572387</v>
       </c>
       <c r="F132" t="n">
-        <v>2.7589</v>
+        <v>2.74721</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.659819</v>
+        <v>0.6450090000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>3.07072</v>
+        <v>3.075</v>
       </c>
       <c r="D133" t="n">
-        <v>2.64503</v>
+        <v>2.64326</v>
       </c>
       <c r="E133" t="n">
-        <v>0.569383</v>
+        <v>0.568406</v>
       </c>
       <c r="F133" t="n">
-        <v>2.75601</v>
+        <v>2.74785</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.634289</v>
+        <v>0.647186</v>
       </c>
       <c r="C134" t="n">
-        <v>3.07008</v>
+        <v>3.07656</v>
       </c>
       <c r="D134" t="n">
-        <v>2.62671</v>
+        <v>2.63673</v>
       </c>
       <c r="E134" t="n">
-        <v>0.540696</v>
+        <v>0.541116</v>
       </c>
       <c r="F134" t="n">
-        <v>2.29837</v>
+        <v>2.74041</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.645498</v>
+        <v>0.6414570000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06539</v>
+        <v>3.06612</v>
       </c>
       <c r="D135" t="n">
-        <v>3.32509</v>
+        <v>3.32621</v>
       </c>
       <c r="E135" t="n">
-        <v>0.560172</v>
+        <v>0.534653</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75328</v>
+        <v>2.5161</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.634163</v>
+        <v>0.6334340000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>3.0592</v>
+        <v>3.06087</v>
       </c>
       <c r="D136" t="n">
-        <v>3.26367</v>
+        <v>3.26995</v>
       </c>
       <c r="E136" t="n">
-        <v>0.557003</v>
+        <v>0.532399</v>
       </c>
       <c r="F136" t="n">
-        <v>2.73794</v>
+        <v>2.74562</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.626961</v>
+        <v>0.625293</v>
       </c>
       <c r="C137" t="n">
-        <v>3.0638</v>
+        <v>3.05999</v>
       </c>
       <c r="D137" t="n">
-        <v>3.21338</v>
+        <v>3.21619</v>
       </c>
       <c r="E137" t="n">
-        <v>0.724707</v>
+        <v>0.724942</v>
       </c>
       <c r="F137" t="n">
-        <v>3.25671</v>
+        <v>3.24335</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.813152</v>
+        <v>0.783297</v>
       </c>
       <c r="C138" t="n">
-        <v>3.59683</v>
+        <v>3.62081</v>
       </c>
       <c r="D138" t="n">
-        <v>3.17014</v>
+        <v>3.17928</v>
       </c>
       <c r="E138" t="n">
-        <v>0.719503</v>
+        <v>0.720155</v>
       </c>
       <c r="F138" t="n">
-        <v>3.24589</v>
+        <v>3.22733</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.788825</v>
+        <v>0.77881</v>
       </c>
       <c r="C139" t="n">
-        <v>3.58324</v>
+        <v>3.58677</v>
       </c>
       <c r="D139" t="n">
-        <v>3.12615</v>
+        <v>3.13324</v>
       </c>
       <c r="E139" t="n">
-        <v>0.717875</v>
+        <v>0.715155</v>
       </c>
       <c r="F139" t="n">
-        <v>3.22151</v>
+        <v>3.21025</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.791279</v>
+        <v>0.803602</v>
       </c>
       <c r="C140" t="n">
-        <v>3.5427</v>
+        <v>3.55334</v>
       </c>
       <c r="D140" t="n">
-        <v>3.08063</v>
+        <v>3.09968</v>
       </c>
       <c r="E140" t="n">
-        <v>0.713297</v>
+        <v>0.732509</v>
       </c>
       <c r="F140" t="n">
-        <v>3.21016</v>
+        <v>3.19684</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.796277</v>
+        <v>0.796057</v>
       </c>
       <c r="C141" t="n">
-        <v>3.53469</v>
+        <v>3.53086</v>
       </c>
       <c r="D141" t="n">
-        <v>3.05334</v>
+        <v>3.06307</v>
       </c>
       <c r="E141" t="n">
-        <v>0.709153</v>
+        <v>0.707683</v>
       </c>
       <c r="F141" t="n">
-        <v>3.18968</v>
+        <v>3.17718</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7763</v>
+        <v>0.781219</v>
       </c>
       <c r="C142" t="n">
-        <v>3.50664</v>
+        <v>3.50424</v>
       </c>
       <c r="D142" t="n">
-        <v>3.03345</v>
+        <v>3.04477</v>
       </c>
       <c r="E142" t="n">
-        <v>0.707356</v>
+        <v>0.706031</v>
       </c>
       <c r="F142" t="n">
-        <v>3.16877</v>
+        <v>3.16522</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.780075</v>
+        <v>0.749718</v>
       </c>
       <c r="C143" t="n">
-        <v>3.48961</v>
+        <v>3.48275</v>
       </c>
       <c r="D143" t="n">
-        <v>3.01019</v>
+        <v>3.01937</v>
       </c>
       <c r="E143" t="n">
-        <v>0.721404</v>
+        <v>0.705218</v>
       </c>
       <c r="F143" t="n">
-        <v>3.15362</v>
+        <v>3.14614</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245175</v>
+        <v>0.247142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.42453</v>
+        <v>0.421821</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55907</v>
+        <v>0.56545</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21472</v>
+        <v>0.214003</v>
       </c>
       <c r="F2" t="n">
-        <v>0.388544</v>
+        <v>0.40367</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240062</v>
+        <v>0.243939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417647</v>
+        <v>0.415787</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549834</v>
+        <v>0.560993</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209123</v>
+        <v>0.2079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.381755</v>
+        <v>0.396268</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.231349</v>
+        <v>0.23725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410726</v>
+        <v>0.412143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.544836</v>
+        <v>0.556712</v>
       </c>
       <c r="E4" t="n">
-        <v>0.204008</v>
+        <v>0.203199</v>
       </c>
       <c r="F4" t="n">
-        <v>0.377161</v>
+        <v>0.391155</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229764</v>
+        <v>0.242216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.405032</v>
+        <v>0.406722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.536872</v>
+        <v>0.551728</v>
       </c>
       <c r="E5" t="n">
-        <v>0.200033</v>
+        <v>0.198031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.372957</v>
+        <v>0.386448</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222476</v>
+        <v>0.22557</v>
       </c>
       <c r="C6" t="n">
-        <v>0.400127</v>
+        <v>0.401801</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530807</v>
+        <v>0.547596</v>
       </c>
       <c r="E6" t="n">
-        <v>0.196696</v>
+        <v>0.194365</v>
       </c>
       <c r="F6" t="n">
-        <v>0.369953</v>
+        <v>0.381871</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220253</v>
+        <v>0.222679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.397454</v>
+        <v>0.398679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.681202</v>
+        <v>0.698713</v>
       </c>
       <c r="E7" t="n">
-        <v>0.193581</v>
+        <v>0.19121</v>
       </c>
       <c r="F7" t="n">
-        <v>0.368114</v>
+        <v>0.381002</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214687</v>
+        <v>0.217061</v>
       </c>
       <c r="C8" t="n">
-        <v>0.395533</v>
+        <v>0.397207</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666589</v>
+        <v>0.685002</v>
       </c>
       <c r="E8" t="n">
-        <v>0.19484</v>
+        <v>0.192187</v>
       </c>
       <c r="F8" t="n">
-        <v>0.368347</v>
+        <v>0.379938</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21814</v>
+        <v>0.223076</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3948</v>
+        <v>0.397504</v>
       </c>
       <c r="D9" t="n">
-        <v>0.653531</v>
+        <v>0.671258</v>
       </c>
       <c r="E9" t="n">
-        <v>0.28443</v>
+        <v>0.282342</v>
       </c>
       <c r="F9" t="n">
-        <v>0.454963</v>
+        <v>0.4782</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30931</v>
+        <v>0.314575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.48491</v>
+        <v>0.492345</v>
       </c>
       <c r="D10" t="n">
-        <v>0.642195</v>
+        <v>0.65991</v>
       </c>
       <c r="E10" t="n">
-        <v>0.272612</v>
+        <v>0.273645</v>
       </c>
       <c r="F10" t="n">
-        <v>0.443722</v>
+        <v>0.466216</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298394</v>
+        <v>0.302898</v>
       </c>
       <c r="C11" t="n">
-        <v>0.474659</v>
+        <v>0.479787</v>
       </c>
       <c r="D11" t="n">
-        <v>0.630284</v>
+        <v>0.648134</v>
       </c>
       <c r="E11" t="n">
-        <v>0.265921</v>
+        <v>0.265208</v>
       </c>
       <c r="F11" t="n">
-        <v>0.432818</v>
+        <v>0.455697</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.291028</v>
+        <v>0.295317</v>
       </c>
       <c r="C12" t="n">
-        <v>0.464663</v>
+        <v>0.468093</v>
       </c>
       <c r="D12" t="n">
-        <v>0.622123</v>
+        <v>0.637796</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256107</v>
+        <v>0.256098</v>
       </c>
       <c r="F12" t="n">
-        <v>0.423476</v>
+        <v>0.44479</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283141</v>
+        <v>0.287727</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454924</v>
+        <v>0.458658</v>
       </c>
       <c r="D13" t="n">
-        <v>0.613529</v>
+        <v>0.6281679999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248982</v>
+        <v>0.248534</v>
       </c>
       <c r="F13" t="n">
-        <v>0.415583</v>
+        <v>0.435072</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269375</v>
+        <v>0.279707</v>
       </c>
       <c r="C14" t="n">
-        <v>0.444036</v>
+        <v>0.449767</v>
       </c>
       <c r="D14" t="n">
-        <v>0.605178</v>
+        <v>0.619286</v>
       </c>
       <c r="E14" t="n">
-        <v>0.241268</v>
+        <v>0.24081</v>
       </c>
       <c r="F14" t="n">
-        <v>0.407403</v>
+        <v>0.426114</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263339</v>
+        <v>0.265637</v>
       </c>
       <c r="C15" t="n">
-        <v>0.43682</v>
+        <v>0.441182</v>
       </c>
       <c r="D15" t="n">
-        <v>0.597785</v>
+        <v>0.6122570000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.235675</v>
+        <v>0.234677</v>
       </c>
       <c r="F15" t="n">
-        <v>0.399401</v>
+        <v>0.417866</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25876</v>
+        <v>0.260891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.429131</v>
+        <v>0.434771</v>
       </c>
       <c r="D16" t="n">
-        <v>0.591355</v>
+        <v>0.6063499999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.227902</v>
+        <v>0.227928</v>
       </c>
       <c r="F16" t="n">
-        <v>0.392574</v>
+        <v>0.410328</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250434</v>
+        <v>0.254312</v>
       </c>
       <c r="C17" t="n">
-        <v>0.422772</v>
+        <v>0.428087</v>
       </c>
       <c r="D17" t="n">
-        <v>0.585974</v>
+        <v>0.60056</v>
       </c>
       <c r="E17" t="n">
-        <v>0.222836</v>
+        <v>0.222004</v>
       </c>
       <c r="F17" t="n">
-        <v>0.386199</v>
+        <v>0.403269</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242021</v>
+        <v>0.248859</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416586</v>
+        <v>0.421488</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5823159999999999</v>
+        <v>0.59392</v>
       </c>
       <c r="E18" t="n">
-        <v>0.219685</v>
+        <v>0.217072</v>
       </c>
       <c r="F18" t="n">
-        <v>0.381124</v>
+        <v>0.397144</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238054</v>
+        <v>0.2429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.410913</v>
+        <v>0.415542</v>
       </c>
       <c r="D19" t="n">
-        <v>0.578539</v>
+        <v>0.5902539999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.214997</v>
+        <v>0.212504</v>
       </c>
       <c r="F19" t="n">
-        <v>0.375231</v>
+        <v>0.391435</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233806</v>
+        <v>0.243081</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40647</v>
+        <v>0.411055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.574008</v>
+        <v>0.584053</v>
       </c>
       <c r="E20" t="n">
-        <v>0.210573</v>
+        <v>0.207361</v>
       </c>
       <c r="F20" t="n">
-        <v>0.372003</v>
+        <v>0.38521</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230477</v>
+        <v>0.229501</v>
       </c>
       <c r="C21" t="n">
-        <v>0.404097</v>
+        <v>0.404422</v>
       </c>
       <c r="D21" t="n">
-        <v>0.749615</v>
+        <v>0.758687</v>
       </c>
       <c r="E21" t="n">
-        <v>0.208979</v>
+        <v>0.20621</v>
       </c>
       <c r="F21" t="n">
-        <v>0.370425</v>
+        <v>0.383171</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224801</v>
+        <v>0.232836</v>
       </c>
       <c r="C22" t="n">
-        <v>0.399385</v>
+        <v>0.402777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.733443</v>
+        <v>0.745868</v>
       </c>
       <c r="E22" t="n">
-        <v>0.216798</v>
+        <v>0.207681</v>
       </c>
       <c r="F22" t="n">
-        <v>0.370281</v>
+        <v>0.383777</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224645</v>
+        <v>0.231991</v>
       </c>
       <c r="C23" t="n">
-        <v>0.398935</v>
+        <v>0.402077</v>
       </c>
       <c r="D23" t="n">
-        <v>0.719312</v>
+        <v>0.731277</v>
       </c>
       <c r="E23" t="n">
-        <v>0.305586</v>
+        <v>0.301361</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461805</v>
+        <v>0.490695</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314696</v>
+        <v>0.319632</v>
       </c>
       <c r="C24" t="n">
-        <v>0.496359</v>
+        <v>0.509946</v>
       </c>
       <c r="D24" t="n">
-        <v>0.706382</v>
+        <v>0.718857</v>
       </c>
       <c r="E24" t="n">
-        <v>0.294352</v>
+        <v>0.290356</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451543</v>
+        <v>0.477344</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.309149</v>
+        <v>0.313701</v>
       </c>
       <c r="C25" t="n">
-        <v>0.485901</v>
+        <v>0.497781</v>
       </c>
       <c r="D25" t="n">
-        <v>0.694817</v>
+        <v>0.707929</v>
       </c>
       <c r="E25" t="n">
-        <v>0.280582</v>
+        <v>0.280835</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441012</v>
+        <v>0.466345</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296233</v>
+        <v>0.301102</v>
       </c>
       <c r="C26" t="n">
-        <v>0.475698</v>
+        <v>0.481552</v>
       </c>
       <c r="D26" t="n">
-        <v>0.683402</v>
+        <v>0.695323</v>
       </c>
       <c r="E26" t="n">
-        <v>0.27282</v>
+        <v>0.273516</v>
       </c>
       <c r="F26" t="n">
-        <v>0.431974</v>
+        <v>0.457532</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287037</v>
+        <v>0.2935</v>
       </c>
       <c r="C27" t="n">
-        <v>0.466853</v>
+        <v>0.472648</v>
       </c>
       <c r="D27" t="n">
-        <v>0.673854</v>
+        <v>0.685872</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2645</v>
+        <v>0.265296</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423461</v>
+        <v>0.448103</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279613</v>
+        <v>0.286844</v>
       </c>
       <c r="C28" t="n">
-        <v>0.458248</v>
+        <v>0.46455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.666257</v>
+        <v>0.67735</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25777</v>
+        <v>0.255794</v>
       </c>
       <c r="F28" t="n">
-        <v>0.414627</v>
+        <v>0.437919</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270763</v>
+        <v>0.280256</v>
       </c>
       <c r="C29" t="n">
-        <v>0.449218</v>
+        <v>0.456557</v>
       </c>
       <c r="D29" t="n">
-        <v>0.657301</v>
+        <v>0.669864</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25037</v>
+        <v>0.249063</v>
       </c>
       <c r="F29" t="n">
-        <v>0.406859</v>
+        <v>0.429418</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263187</v>
+        <v>0.266688</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441736</v>
+        <v>0.448429</v>
       </c>
       <c r="D30" t="n">
-        <v>0.650147</v>
+        <v>0.66269</v>
       </c>
       <c r="E30" t="n">
-        <v>0.242691</v>
+        <v>0.241805</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399882</v>
+        <v>0.421931</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255931</v>
+        <v>0.261023</v>
       </c>
       <c r="C31" t="n">
-        <v>0.435566</v>
+        <v>0.441208</v>
       </c>
       <c r="D31" t="n">
-        <v>0.643004</v>
+        <v>0.656745</v>
       </c>
       <c r="E31" t="n">
-        <v>0.235621</v>
+        <v>0.23555</v>
       </c>
       <c r="F31" t="n">
-        <v>0.393341</v>
+        <v>0.414209</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249588</v>
+        <v>0.256143</v>
       </c>
       <c r="C32" t="n">
-        <v>0.427679</v>
+        <v>0.434831</v>
       </c>
       <c r="D32" t="n">
-        <v>0.637005</v>
+        <v>0.651427</v>
       </c>
       <c r="E32" t="n">
-        <v>0.230108</v>
+        <v>0.229621</v>
       </c>
       <c r="F32" t="n">
-        <v>0.387114</v>
+        <v>0.408788</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243967</v>
+        <v>0.245728</v>
       </c>
       <c r="C33" t="n">
-        <v>0.422315</v>
+        <v>0.431602</v>
       </c>
       <c r="D33" t="n">
-        <v>0.631557</v>
+        <v>0.646417</v>
       </c>
       <c r="E33" t="n">
-        <v>0.22514</v>
+        <v>0.225316</v>
       </c>
       <c r="F33" t="n">
-        <v>0.382174</v>
+        <v>0.402605</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.238532</v>
+        <v>0.244596</v>
       </c>
       <c r="C34" t="n">
-        <v>0.416953</v>
+        <v>0.421565</v>
       </c>
       <c r="D34" t="n">
-        <v>0.628375</v>
+        <v>0.641136</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222995</v>
+        <v>0.222342</v>
       </c>
       <c r="F34" t="n">
-        <v>0.378599</v>
+        <v>0.396419</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234141</v>
+        <v>0.238412</v>
       </c>
       <c r="C35" t="n">
-        <v>0.412655</v>
+        <v>0.417898</v>
       </c>
       <c r="D35" t="n">
-        <v>0.81397</v>
+        <v>0.82501</v>
       </c>
       <c r="E35" t="n">
-        <v>0.220346</v>
+        <v>0.218348</v>
       </c>
       <c r="F35" t="n">
-        <v>0.375684</v>
+        <v>0.39328</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231328</v>
+        <v>0.235856</v>
       </c>
       <c r="C36" t="n">
-        <v>0.408547</v>
+        <v>0.415496</v>
       </c>
       <c r="D36" t="n">
-        <v>0.796633</v>
+        <v>0.80802</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219155</v>
+        <v>0.220307</v>
       </c>
       <c r="F36" t="n">
-        <v>0.374818</v>
+        <v>0.39215</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229671</v>
+        <v>0.232877</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40756</v>
+        <v>0.411694</v>
       </c>
       <c r="D37" t="n">
-        <v>0.780243</v>
+        <v>0.790393</v>
       </c>
       <c r="E37" t="n">
-        <v>0.316221</v>
+        <v>0.316509</v>
       </c>
       <c r="F37" t="n">
-        <v>0.471531</v>
+        <v>0.503633</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.31899</v>
+        <v>0.323129</v>
       </c>
       <c r="C38" t="n">
-        <v>0.511303</v>
+        <v>0.51916</v>
       </c>
       <c r="D38" t="n">
-        <v>0.76601</v>
+        <v>0.778827</v>
       </c>
       <c r="E38" t="n">
-        <v>0.300158</v>
+        <v>0.306797</v>
       </c>
       <c r="F38" t="n">
-        <v>0.461278</v>
+        <v>0.493827</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3092</v>
+        <v>0.314546</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501877</v>
+        <v>0.50993</v>
       </c>
       <c r="D39" t="n">
-        <v>0.752814</v>
+        <v>0.7647659999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.295412</v>
+        <v>0.293458</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451946</v>
+        <v>0.481792</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299897</v>
+        <v>0.302318</v>
       </c>
       <c r="C40" t="n">
-        <v>0.491333</v>
+        <v>0.50047</v>
       </c>
       <c r="D40" t="n">
-        <v>0.739356</v>
+        <v>0.7518</v>
       </c>
       <c r="E40" t="n">
-        <v>0.283945</v>
+        <v>0.284141</v>
       </c>
       <c r="F40" t="n">
-        <v>0.442881</v>
+        <v>0.472096</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.295652</v>
+        <v>0.295259</v>
       </c>
       <c r="C41" t="n">
-        <v>0.480903</v>
+        <v>0.490892</v>
       </c>
       <c r="D41" t="n">
-        <v>0.728044</v>
+        <v>0.7405929999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.280025</v>
+        <v>0.277147</v>
       </c>
       <c r="F41" t="n">
-        <v>0.434489</v>
+        <v>0.460895</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28483</v>
+        <v>0.293743</v>
       </c>
       <c r="C42" t="n">
-        <v>0.472228</v>
+        <v>0.482247</v>
       </c>
       <c r="D42" t="n">
-        <v>0.716734</v>
+        <v>0.730387</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268229</v>
+        <v>0.267194</v>
       </c>
       <c r="F42" t="n">
-        <v>0.42638</v>
+        <v>0.454714</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276086</v>
+        <v>0.285549</v>
       </c>
       <c r="C43" t="n">
-        <v>0.463912</v>
+        <v>0.473748</v>
       </c>
       <c r="D43" t="n">
-        <v>0.708199</v>
+        <v>0.720762</v>
       </c>
       <c r="E43" t="n">
-        <v>0.259972</v>
+        <v>0.259569</v>
       </c>
       <c r="F43" t="n">
-        <v>0.418571</v>
+        <v>0.444781</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280132</v>
+        <v>0.271349</v>
       </c>
       <c r="C44" t="n">
-        <v>0.456518</v>
+        <v>0.464679</v>
       </c>
       <c r="D44" t="n">
-        <v>0.700272</v>
+        <v>0.713069</v>
       </c>
       <c r="E44" t="n">
-        <v>0.252895</v>
+        <v>0.253675</v>
       </c>
       <c r="F44" t="n">
-        <v>0.411042</v>
+        <v>0.43652</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270218</v>
+        <v>0.271055</v>
       </c>
       <c r="C45" t="n">
-        <v>0.448289</v>
+        <v>0.457015</v>
       </c>
       <c r="D45" t="n">
-        <v>0.692089</v>
+        <v>0.705918</v>
       </c>
       <c r="E45" t="n">
-        <v>0.245623</v>
+        <v>0.247088</v>
       </c>
       <c r="F45" t="n">
-        <v>0.404405</v>
+        <v>0.42926</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.269265</v>
+        <v>0.257824</v>
       </c>
       <c r="C46" t="n">
-        <v>0.440952</v>
+        <v>0.450405</v>
       </c>
       <c r="D46" t="n">
-        <v>0.684778</v>
+        <v>0.699653</v>
       </c>
       <c r="E46" t="n">
-        <v>0.243453</v>
+        <v>0.24097</v>
       </c>
       <c r="F46" t="n">
-        <v>0.398141</v>
+        <v>0.422307</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.248788</v>
+        <v>0.260724</v>
       </c>
       <c r="C47" t="n">
-        <v>0.434743</v>
+        <v>0.441064</v>
       </c>
       <c r="D47" t="n">
-        <v>0.678459</v>
+        <v>0.6936</v>
       </c>
       <c r="E47" t="n">
-        <v>0.238625</v>
+        <v>0.232294</v>
       </c>
       <c r="F47" t="n">
-        <v>0.393284</v>
+        <v>0.414678</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.249795</v>
+        <v>0.247805</v>
       </c>
       <c r="C48" t="n">
-        <v>0.428969</v>
+        <v>0.437326</v>
       </c>
       <c r="D48" t="n">
-        <v>0.674721</v>
+        <v>0.688152</v>
       </c>
       <c r="E48" t="n">
-        <v>0.233178</v>
+        <v>0.230655</v>
       </c>
       <c r="F48" t="n">
-        <v>0.389924</v>
+        <v>0.411656</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240393</v>
+        <v>0.247769</v>
       </c>
       <c r="C49" t="n">
-        <v>0.425339</v>
+        <v>0.434662</v>
       </c>
       <c r="D49" t="n">
-        <v>0.669511</v>
+        <v>0.684751</v>
       </c>
       <c r="E49" t="n">
-        <v>0.230659</v>
+        <v>0.22745</v>
       </c>
       <c r="F49" t="n">
-        <v>0.386511</v>
+        <v>0.408166</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234949</v>
+        <v>0.240708</v>
       </c>
       <c r="C50" t="n">
-        <v>0.422414</v>
+        <v>0.43269</v>
       </c>
       <c r="D50" t="n">
-        <v>0.84936</v>
+        <v>0.859869</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225704</v>
+        <v>0.225946</v>
       </c>
       <c r="F50" t="n">
-        <v>0.387374</v>
+        <v>0.406917</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235082</v>
+        <v>0.238109</v>
       </c>
       <c r="C51" t="n">
-        <v>0.420024</v>
+        <v>0.430845</v>
       </c>
       <c r="D51" t="n">
-        <v>0.831278</v>
+        <v>0.841593</v>
       </c>
       <c r="E51" t="n">
-        <v>0.327057</v>
+        <v>0.324634</v>
       </c>
       <c r="F51" t="n">
-        <v>0.485142</v>
+        <v>0.520427</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23697</v>
+        <v>0.236582</v>
       </c>
       <c r="C52" t="n">
-        <v>0.420688</v>
+        <v>0.430129</v>
       </c>
       <c r="D52" t="n">
-        <v>0.814594</v>
+        <v>0.82477</v>
       </c>
       <c r="E52" t="n">
-        <v>0.317174</v>
+        <v>0.313855</v>
       </c>
       <c r="F52" t="n">
-        <v>0.476173</v>
+        <v>0.5089939999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.326302</v>
+        <v>0.327293</v>
       </c>
       <c r="C53" t="n">
-        <v>0.519268</v>
+        <v>0.526438</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799222</v>
+        <v>0.809567</v>
       </c>
       <c r="E53" t="n">
-        <v>0.308036</v>
+        <v>0.30636</v>
       </c>
       <c r="F53" t="n">
-        <v>0.467647</v>
+        <v>0.498586</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.316315</v>
+        <v>0.319118</v>
       </c>
       <c r="C54" t="n">
-        <v>0.509099</v>
+        <v>0.516823</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784319</v>
+        <v>0.795634</v>
       </c>
       <c r="E54" t="n">
-        <v>0.299073</v>
+        <v>0.29592</v>
       </c>
       <c r="F54" t="n">
-        <v>0.457324</v>
+        <v>0.487851</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309591</v>
+        <v>0.309712</v>
       </c>
       <c r="C55" t="n">
-        <v>0.50143</v>
+        <v>0.507419</v>
       </c>
       <c r="D55" t="n">
-        <v>0.771723</v>
+        <v>0.782232</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290643</v>
+        <v>0.288944</v>
       </c>
       <c r="F55" t="n">
-        <v>0.450205</v>
+        <v>0.478661</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.299771</v>
+        <v>0.301946</v>
       </c>
       <c r="C56" t="n">
-        <v>0.491948</v>
+        <v>0.499252</v>
       </c>
       <c r="D56" t="n">
-        <v>0.759215</v>
+        <v>0.770942</v>
       </c>
       <c r="E56" t="n">
-        <v>0.283564</v>
+        <v>0.279821</v>
       </c>
       <c r="F56" t="n">
-        <v>0.44266</v>
+        <v>0.469387</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287091</v>
+        <v>0.291784</v>
       </c>
       <c r="C57" t="n">
-        <v>0.484582</v>
+        <v>0.491323</v>
       </c>
       <c r="D57" t="n">
-        <v>0.748979</v>
+        <v>0.760046</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276809</v>
+        <v>0.272422</v>
       </c>
       <c r="F57" t="n">
-        <v>0.434364</v>
+        <v>0.460794</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.281493</v>
+        <v>0.284683</v>
       </c>
       <c r="C58" t="n">
-        <v>0.476291</v>
+        <v>0.48399</v>
       </c>
       <c r="D58" t="n">
-        <v>0.739154</v>
+        <v>0.750897</v>
       </c>
       <c r="E58" t="n">
-        <v>0.269804</v>
+        <v>0.264925</v>
       </c>
       <c r="F58" t="n">
-        <v>0.427231</v>
+        <v>0.452422</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27484</v>
+        <v>0.275833</v>
       </c>
       <c r="C59" t="n">
-        <v>0.471206</v>
+        <v>0.476467</v>
       </c>
       <c r="D59" t="n">
-        <v>0.730232</v>
+        <v>0.7412570000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.263078</v>
+        <v>0.260263</v>
       </c>
       <c r="F59" t="n">
-        <v>0.422597</v>
+        <v>0.444858</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.273311</v>
+        <v>0.274538</v>
       </c>
       <c r="C60" t="n">
-        <v>0.464551</v>
+        <v>0.470723</v>
       </c>
       <c r="D60" t="n">
-        <v>0.722153</v>
+        <v>0.734309</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255986</v>
+        <v>0.25427</v>
       </c>
       <c r="F60" t="n">
-        <v>0.416659</v>
+        <v>0.437831</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263654</v>
+        <v>0.264808</v>
       </c>
       <c r="C61" t="n">
-        <v>0.458377</v>
+        <v>0.461024</v>
       </c>
       <c r="D61" t="n">
-        <v>0.715755</v>
+        <v>0.726206</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253474</v>
+        <v>0.247777</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412332</v>
+        <v>0.431305</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260704</v>
+        <v>0.262141</v>
       </c>
       <c r="C62" t="n">
-        <v>0.45549</v>
+        <v>0.456699</v>
       </c>
       <c r="D62" t="n">
-        <v>0.710122</v>
+        <v>0.719915</v>
       </c>
       <c r="E62" t="n">
-        <v>0.247812</v>
+        <v>0.245124</v>
       </c>
       <c r="F62" t="n">
-        <v>0.408486</v>
+        <v>0.426021</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255798</v>
+        <v>0.255146</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450455</v>
+        <v>0.450937</v>
       </c>
       <c r="D63" t="n">
-        <v>0.705587</v>
+        <v>0.715886</v>
       </c>
       <c r="E63" t="n">
-        <v>0.245842</v>
+        <v>0.240966</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40585</v>
+        <v>0.421436</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251921</v>
+        <v>0.250778</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448122</v>
+        <v>0.446703</v>
       </c>
       <c r="D64" t="n">
-        <v>0.913281</v>
+        <v>0.92084</v>
       </c>
       <c r="E64" t="n">
-        <v>0.241297</v>
+        <v>0.237542</v>
       </c>
       <c r="F64" t="n">
-        <v>0.403859</v>
+        <v>0.418292</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246639</v>
+        <v>0.247784</v>
       </c>
       <c r="C65" t="n">
-        <v>0.444992</v>
+        <v>0.447572</v>
       </c>
       <c r="D65" t="n">
-        <v>0.893745</v>
+        <v>0.901149</v>
       </c>
       <c r="E65" t="n">
-        <v>0.242321</v>
+        <v>0.236169</v>
       </c>
       <c r="F65" t="n">
-        <v>0.404205</v>
+        <v>0.418393</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.248804</v>
+        <v>0.244491</v>
       </c>
       <c r="C66" t="n">
-        <v>0.444676</v>
+        <v>0.447046</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8779940000000001</v>
+        <v>0.884078</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337239</v>
+        <v>0.336532</v>
       </c>
       <c r="F66" t="n">
-        <v>0.51535</v>
+        <v>0.549774</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388536</v>
+        <v>0.394992</v>
       </c>
       <c r="C67" t="n">
-        <v>0.587094</v>
+        <v>0.604707</v>
       </c>
       <c r="D67" t="n">
-        <v>0.861644</v>
+        <v>0.8666430000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>0.330014</v>
+        <v>0.32942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.507109</v>
+        <v>0.541693</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.376196</v>
+        <v>0.401337</v>
       </c>
       <c r="C68" t="n">
-        <v>0.579186</v>
+        <v>0.593466</v>
       </c>
       <c r="D68" t="n">
-        <v>0.84617</v>
+        <v>0.85193</v>
       </c>
       <c r="E68" t="n">
-        <v>0.325247</v>
+        <v>0.320226</v>
       </c>
       <c r="F68" t="n">
-        <v>0.499885</v>
+        <v>0.532798</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.371631</v>
+        <v>0.375941</v>
       </c>
       <c r="C69" t="n">
-        <v>0.577968</v>
+        <v>0.5879760000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.831949</v>
+        <v>0.838377</v>
       </c>
       <c r="E69" t="n">
-        <v>0.317861</v>
+        <v>0.318595</v>
       </c>
       <c r="F69" t="n">
-        <v>0.492846</v>
+        <v>0.524875</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365337</v>
+        <v>0.371822</v>
       </c>
       <c r="C70" t="n">
-        <v>0.57081</v>
+        <v>0.578321</v>
       </c>
       <c r="D70" t="n">
-        <v>0.82209</v>
+        <v>0.828364</v>
       </c>
       <c r="E70" t="n">
-        <v>0.310044</v>
+        <v>0.309059</v>
       </c>
       <c r="F70" t="n">
-        <v>0.484817</v>
+        <v>0.518184</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.348856</v>
+        <v>0.369278</v>
       </c>
       <c r="C71" t="n">
-        <v>0.56143</v>
+        <v>0.570173</v>
       </c>
       <c r="D71" t="n">
-        <v>0.812244</v>
+        <v>0.819317</v>
       </c>
       <c r="E71" t="n">
-        <v>0.302104</v>
+        <v>0.296438</v>
       </c>
       <c r="F71" t="n">
-        <v>0.477583</v>
+        <v>0.508231</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.361098</v>
+        <v>0.361966</v>
       </c>
       <c r="C72" t="n">
-        <v>0.551045</v>
+        <v>0.562077</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.812902</v>
       </c>
       <c r="E72" t="n">
-        <v>0.296854</v>
+        <v>0.28933</v>
       </c>
       <c r="F72" t="n">
-        <v>0.471495</v>
+        <v>0.499892</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.341347</v>
+        <v>0.33344</v>
       </c>
       <c r="C73" t="n">
-        <v>0.545121</v>
+        <v>0.557712</v>
       </c>
       <c r="D73" t="n">
-        <v>0.798489</v>
+        <v>0.807407</v>
       </c>
       <c r="E73" t="n">
-        <v>0.288614</v>
+        <v>0.284117</v>
       </c>
       <c r="F73" t="n">
-        <v>0.465477</v>
+        <v>0.493313</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.327776</v>
+        <v>0.352862</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5415140000000001</v>
+        <v>0.553441</v>
       </c>
       <c r="D74" t="n">
-        <v>0.793441</v>
+        <v>0.8032319999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.283123</v>
+        <v>0.2776</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4596</v>
+        <v>0.486946</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.331637</v>
+        <v>0.332067</v>
       </c>
       <c r="C75" t="n">
-        <v>0.537648</v>
+        <v>0.548974</v>
       </c>
       <c r="D75" t="n">
-        <v>0.790879</v>
+        <v>0.795619</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274156</v>
+        <v>0.274194</v>
       </c>
       <c r="F75" t="n">
-        <v>0.454246</v>
+        <v>0.481152</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.326108</v>
+        <v>0.325378</v>
       </c>
       <c r="C76" t="n">
-        <v>0.53134</v>
+        <v>0.543627</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7888810000000001</v>
+        <v>0.794636</v>
       </c>
       <c r="E76" t="n">
-        <v>0.270051</v>
+        <v>0.270885</v>
       </c>
       <c r="F76" t="n">
-        <v>0.451016</v>
+        <v>0.476232</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325287</v>
+        <v>0.32456</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526146</v>
+        <v>0.541703</v>
       </c>
       <c r="D77" t="n">
-        <v>0.787906</v>
+        <v>0.795078</v>
       </c>
       <c r="E77" t="n">
-        <v>0.268192</v>
+        <v>0.265986</v>
       </c>
       <c r="F77" t="n">
-        <v>0.448656</v>
+        <v>0.472725</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.305543</v>
+        <v>0.321165</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5248660000000001</v>
+        <v>0.5365839999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1.2496</v>
+        <v>1.25981</v>
       </c>
       <c r="E78" t="n">
-        <v>0.263377</v>
+        <v>0.262861</v>
       </c>
       <c r="F78" t="n">
-        <v>0.447342</v>
+        <v>0.470802</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.313051</v>
+        <v>0.299589</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5234760000000001</v>
+        <v>0.536619</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2295</v>
+        <v>1.23848</v>
       </c>
       <c r="E79" t="n">
-        <v>0.263809</v>
+        <v>0.263135</v>
       </c>
       <c r="F79" t="n">
-        <v>0.448691</v>
+        <v>0.47126</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302931</v>
+        <v>0.300528</v>
       </c>
       <c r="C80" t="n">
-        <v>0.526366</v>
+        <v>0.537114</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20988</v>
+        <v>1.21839</v>
       </c>
       <c r="E80" t="n">
-        <v>0.383662</v>
+        <v>0.389198</v>
       </c>
       <c r="F80" t="n">
-        <v>0.734343</v>
+        <v>0.783121</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.429842</v>
+        <v>0.461426</v>
       </c>
       <c r="C81" t="n">
-        <v>0.838235</v>
+        <v>0.851952</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19471</v>
+        <v>1.20995</v>
       </c>
       <c r="E81" t="n">
-        <v>0.38156</v>
+        <v>0.385499</v>
       </c>
       <c r="F81" t="n">
-        <v>0.738199</v>
+        <v>0.783265</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.422639</v>
+        <v>0.465557</v>
       </c>
       <c r="C82" t="n">
-        <v>0.840588</v>
+        <v>0.857477</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18146</v>
+        <v>1.19252</v>
       </c>
       <c r="E82" t="n">
-        <v>0.37169</v>
+        <v>0.375482</v>
       </c>
       <c r="F82" t="n">
-        <v>0.734389</v>
+        <v>0.778046</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.428928</v>
+        <v>0.406784</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8512729999999999</v>
+        <v>0.856572</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16981</v>
+        <v>1.18175</v>
       </c>
       <c r="E83" t="n">
-        <v>0.359232</v>
+        <v>0.370307</v>
       </c>
       <c r="F83" t="n">
-        <v>0.726146</v>
+        <v>0.769323</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.424439</v>
+        <v>0.433341</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837717</v>
+        <v>0.858138</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16173</v>
+        <v>1.17519</v>
       </c>
       <c r="E84" t="n">
-        <v>0.355294</v>
+        <v>0.361846</v>
       </c>
       <c r="F84" t="n">
-        <v>0.716143</v>
+        <v>0.756472</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.382893</v>
+        <v>0.414295</v>
       </c>
       <c r="C85" t="n">
-        <v>0.828345</v>
+        <v>0.851789</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15813</v>
+        <v>1.17052</v>
       </c>
       <c r="E85" t="n">
-        <v>0.349439</v>
+        <v>0.353749</v>
       </c>
       <c r="F85" t="n">
-        <v>0.704095</v>
+        <v>0.7468939999999999</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.393582</v>
+        <v>0.409909</v>
       </c>
       <c r="C86" t="n">
-        <v>0.816613</v>
+        <v>0.8495740000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15519</v>
+        <v>1.17642</v>
       </c>
       <c r="E86" t="n">
-        <v>0.344694</v>
+        <v>0.345318</v>
       </c>
       <c r="F86" t="n">
-        <v>0.690448</v>
+        <v>0.73246</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.403557</v>
+        <v>0.407196</v>
       </c>
       <c r="C87" t="n">
-        <v>0.804306</v>
+        <v>0.831902</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15495</v>
+        <v>1.17728</v>
       </c>
       <c r="E87" t="n">
-        <v>0.332008</v>
+        <v>0.33948</v>
       </c>
       <c r="F87" t="n">
-        <v>0.678379</v>
+        <v>0.718243</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.383023</v>
+        <v>0.432114</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7930430000000001</v>
+        <v>0.822736</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16277</v>
+        <v>1.18106</v>
       </c>
       <c r="E88" t="n">
-        <v>0.329743</v>
+        <v>0.334179</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6644409999999999</v>
+        <v>0.703365</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.40711</v>
+        <v>0.381637</v>
       </c>
       <c r="C89" t="n">
-        <v>0.782895</v>
+        <v>0.807836</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17194</v>
+        <v>1.18767</v>
       </c>
       <c r="E89" t="n">
-        <v>0.320744</v>
+        <v>0.326045</v>
       </c>
       <c r="F89" t="n">
-        <v>0.654448</v>
+        <v>0.684981</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.390023</v>
+        <v>0.380389</v>
       </c>
       <c r="C90" t="n">
-        <v>0.771818</v>
+        <v>0.792227</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17976</v>
+        <v>1.1847</v>
       </c>
       <c r="E90" t="n">
-        <v>0.321623</v>
+        <v>0.325592</v>
       </c>
       <c r="F90" t="n">
-        <v>0.641824</v>
+        <v>0.6714</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.370469</v>
+        <v>0.389696</v>
       </c>
       <c r="C91" t="n">
-        <v>0.763734</v>
+        <v>0.7789970000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19187</v>
+        <v>1.19793</v>
       </c>
       <c r="E91" t="n">
-        <v>0.308445</v>
+        <v>0.320506</v>
       </c>
       <c r="F91" t="n">
-        <v>0.634118</v>
+        <v>0.665645</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.360822</v>
+        <v>0.365959</v>
       </c>
       <c r="C92" t="n">
-        <v>0.755413</v>
+        <v>0.775544</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7585</v>
+        <v>1.77654</v>
       </c>
       <c r="E92" t="n">
-        <v>0.310736</v>
+        <v>0.310162</v>
       </c>
       <c r="F92" t="n">
-        <v>0.626201</v>
+        <v>0.659951</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358194</v>
+        <v>0.368435</v>
       </c>
       <c r="C93" t="n">
-        <v>0.747044</v>
+        <v>0.76773</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74864</v>
+        <v>1.77648</v>
       </c>
       <c r="E93" t="n">
-        <v>0.307404</v>
+        <v>0.311892</v>
       </c>
       <c r="F93" t="n">
-        <v>0.620537</v>
+        <v>0.651412</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387012</v>
+        <v>0.362202</v>
       </c>
       <c r="C94" t="n">
-        <v>0.742736</v>
+        <v>0.760665</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73723</v>
+        <v>1.7513</v>
       </c>
       <c r="E94" t="n">
-        <v>0.506189</v>
+        <v>0.516469</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12175</v>
+        <v>1.17697</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.559604</v>
+        <v>0.588471</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1505</v>
+        <v>1.19265</v>
       </c>
       <c r="D95" t="n">
-        <v>1.7262</v>
+        <v>1.74054</v>
       </c>
       <c r="E95" t="n">
-        <v>0.499162</v>
+        <v>0.511252</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11716</v>
+        <v>1.17126</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.549825</v>
+        <v>0.57092</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15763</v>
+        <v>1.19159</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71658</v>
+        <v>1.73773</v>
       </c>
       <c r="E96" t="n">
-        <v>0.492053</v>
+        <v>0.50079</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10625</v>
+        <v>1.14439</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.547495</v>
+        <v>0.566138</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1457</v>
+        <v>1.18062</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70665</v>
+        <v>1.72355</v>
       </c>
       <c r="E97" t="n">
-        <v>0.474962</v>
+        <v>0.488312</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08568</v>
+        <v>1.14058</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.547693</v>
+        <v>0.547536</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14567</v>
+        <v>1.18001</v>
       </c>
       <c r="D98" t="n">
-        <v>1.70049</v>
+        <v>1.7215</v>
       </c>
       <c r="E98" t="n">
-        <v>0.465902</v>
+        <v>0.477254</v>
       </c>
       <c r="F98" t="n">
-        <v>1.07022</v>
+        <v>1.10909</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528297</v>
+        <v>0.549177</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12117</v>
+        <v>1.16722</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69613</v>
+        <v>1.71639</v>
       </c>
       <c r="E99" t="n">
-        <v>0.456363</v>
+        <v>0.46616</v>
       </c>
       <c r="F99" t="n">
-        <v>1.05244</v>
+        <v>1.10006</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.505564</v>
+        <v>0.532175</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10204</v>
+        <v>1.15013</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69886</v>
+        <v>1.71731</v>
       </c>
       <c r="E100" t="n">
-        <v>0.444037</v>
+        <v>0.45546</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03522</v>
+        <v>1.08428</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504152</v>
+        <v>0.516532</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09096</v>
+        <v>1.14415</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70613</v>
+        <v>1.71875</v>
       </c>
       <c r="E101" t="n">
-        <v>0.439517</v>
+        <v>0.444143</v>
       </c>
       <c r="F101" t="n">
-        <v>1.01856</v>
+        <v>1.05922</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5005500000000001</v>
+        <v>0.516133</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08873</v>
+        <v>1.10735</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71315</v>
+        <v>1.73172</v>
       </c>
       <c r="E102" t="n">
-        <v>0.428035</v>
+        <v>0.43661</v>
       </c>
       <c r="F102" t="n">
-        <v>0.99852</v>
+        <v>1.03947</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.487238</v>
+        <v>0.49913</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06794</v>
+        <v>1.09705</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71951</v>
+        <v>1.74104</v>
       </c>
       <c r="E103" t="n">
-        <v>0.419323</v>
+        <v>0.428067</v>
       </c>
       <c r="F103" t="n">
-        <v>0.989603</v>
+        <v>1.02201</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483048</v>
+        <v>0.495447</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0512</v>
+        <v>1.08189</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73245</v>
+        <v>1.75195</v>
       </c>
       <c r="E104" t="n">
-        <v>0.410547</v>
+        <v>0.422147</v>
       </c>
       <c r="F104" t="n">
-        <v>0.97654</v>
+        <v>1.01619</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.469866</v>
+        <v>0.496396</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04799</v>
+        <v>1.07285</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74251</v>
+        <v>1.76284</v>
       </c>
       <c r="E105" t="n">
-        <v>0.405432</v>
+        <v>0.412904</v>
       </c>
       <c r="F105" t="n">
-        <v>0.962652</v>
+        <v>1.0071</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.469178</v>
+        <v>0.492651</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02364</v>
+        <v>1.07196</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76137</v>
+        <v>1.78494</v>
       </c>
       <c r="E106" t="n">
-        <v>0.399306</v>
+        <v>0.408773</v>
       </c>
       <c r="F106" t="n">
-        <v>0.951533</v>
+        <v>0.995688</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.459229</v>
+        <v>0.4786</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03447</v>
+        <v>1.06097</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36258</v>
+        <v>2.38893</v>
       </c>
       <c r="E107" t="n">
-        <v>0.395455</v>
+        <v>0.402257</v>
       </c>
       <c r="F107" t="n">
-        <v>0.941099</v>
+        <v>0.9870100000000001</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.459552</v>
+        <v>0.478723</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0277</v>
+        <v>1.04441</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33523</v>
+        <v>2.36175</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5479270000000001</v>
+        <v>0.615574</v>
       </c>
       <c r="F108" t="n">
-        <v>2.39355</v>
+        <v>2.53829</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.472082</v>
+        <v>0.488526</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01994</v>
+        <v>1.03918</v>
       </c>
       <c r="D109" t="n">
-        <v>2.31159</v>
+        <v>2.34189</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546221</v>
+        <v>0.607252</v>
       </c>
       <c r="F109" t="n">
-        <v>2.39319</v>
+        <v>2.54995</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.611839</v>
+        <v>0.699549</v>
       </c>
       <c r="C110" t="n">
-        <v>2.58444</v>
+        <v>2.7184</v>
       </c>
       <c r="D110" t="n">
-        <v>2.29</v>
+        <v>2.32074</v>
       </c>
       <c r="E110" t="n">
-        <v>0.584331</v>
+        <v>0.596855</v>
       </c>
       <c r="F110" t="n">
-        <v>2.39851</v>
+        <v>2.54914</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.653898</v>
+        <v>0.685465</v>
       </c>
       <c r="C111" t="n">
-        <v>2.5836</v>
+        <v>2.71328</v>
       </c>
       <c r="D111" t="n">
-        <v>2.27307</v>
+        <v>2.30761</v>
       </c>
       <c r="E111" t="n">
-        <v>0.569806</v>
+        <v>0.581322</v>
       </c>
       <c r="F111" t="n">
-        <v>2.40871</v>
+        <v>2.53181</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.657148</v>
+        <v>0.676705</v>
       </c>
       <c r="C112" t="n">
-        <v>2.5897</v>
+        <v>2.6993</v>
       </c>
       <c r="D112" t="n">
-        <v>2.2574</v>
+        <v>2.29798</v>
       </c>
       <c r="E112" t="n">
-        <v>0.558465</v>
+        <v>0.529498</v>
       </c>
       <c r="F112" t="n">
-        <v>2.40337</v>
+        <v>2.56775</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.638897</v>
+        <v>0.664215</v>
       </c>
       <c r="C113" t="n">
-        <v>2.58588</v>
+        <v>2.71906</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26013</v>
+        <v>2.2775</v>
       </c>
       <c r="E113" t="n">
-        <v>0.506613</v>
+        <v>0.558235</v>
       </c>
       <c r="F113" t="n">
-        <v>2.40038</v>
+        <v>2.55304</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.633027</v>
+        <v>0.601447</v>
       </c>
       <c r="C114" t="n">
-        <v>2.58092</v>
+        <v>2.70862</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27314</v>
+        <v>2.30452</v>
       </c>
       <c r="E114" t="n">
-        <v>0.537556</v>
+        <v>0.546743</v>
       </c>
       <c r="F114" t="n">
-        <v>2.39909</v>
+        <v>2.55681</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.61689</v>
+        <v>0.636686</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57117</v>
+        <v>2.72122</v>
       </c>
       <c r="D115" t="n">
-        <v>2.25232</v>
+        <v>2.30658</v>
       </c>
       <c r="E115" t="n">
-        <v>0.48931</v>
+        <v>0.5376069999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39437</v>
+        <v>2.55142</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.601812</v>
+        <v>0.598355</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56476</v>
+        <v>2.68889</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26474</v>
+        <v>2.31412</v>
       </c>
       <c r="E116" t="n">
-        <v>0.516482</v>
+        <v>0.529456</v>
       </c>
       <c r="F116" t="n">
-        <v>2.41038</v>
+        <v>2.53985</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.595133</v>
+        <v>0.592303</v>
       </c>
       <c r="C117" t="n">
-        <v>2.6024</v>
+        <v>2.70939</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27697</v>
+        <v>2.31288</v>
       </c>
       <c r="E117" t="n">
-        <v>0.47468</v>
+        <v>0.51448</v>
       </c>
       <c r="F117" t="n">
-        <v>2.41343</v>
+        <v>2.5514</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.584024</v>
+        <v>0.599073</v>
       </c>
       <c r="C118" t="n">
-        <v>2.58014</v>
+        <v>2.71178</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23498</v>
+        <v>2.26051</v>
       </c>
       <c r="E118" t="n">
-        <v>0.465313</v>
+        <v>0.474667</v>
       </c>
       <c r="F118" t="n">
-        <v>2.21742</v>
+        <v>2.35481</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.564178</v>
+        <v>0.585513</v>
       </c>
       <c r="C119" t="n">
-        <v>2.35829</v>
+        <v>2.72157</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23746</v>
+        <v>2.27306</v>
       </c>
       <c r="E119" t="n">
-        <v>0.458922</v>
+        <v>0.470173</v>
       </c>
       <c r="F119" t="n">
-        <v>1.5921</v>
+        <v>1.69036</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.545559</v>
+        <v>0.589077</v>
       </c>
       <c r="C120" t="n">
-        <v>2.17548</v>
+        <v>2.71746</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24566</v>
+        <v>2.28704</v>
       </c>
       <c r="E120" t="n">
-        <v>0.456274</v>
+        <v>0.464391</v>
       </c>
       <c r="F120" t="n">
-        <v>2.4214</v>
+        <v>2.56644</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.550005</v>
+        <v>0.559943</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57233</v>
+        <v>2.50217</v>
       </c>
       <c r="D121" t="n">
-        <v>2.932</v>
+        <v>2.94321</v>
       </c>
       <c r="E121" t="n">
-        <v>0.450608</v>
+        <v>0.459464</v>
       </c>
       <c r="F121" t="n">
-        <v>2.21894</v>
+        <v>2.13056</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5288659999999999</v>
+        <v>0.550117</v>
       </c>
       <c r="C122" t="n">
-        <v>2.58287</v>
+        <v>2.7086</v>
       </c>
       <c r="D122" t="n">
-        <v>2.86859</v>
+        <v>2.89141</v>
       </c>
       <c r="E122" t="n">
-        <v>0.448136</v>
+        <v>0.455329</v>
       </c>
       <c r="F122" t="n">
-        <v>2.43351</v>
+        <v>1.90506</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.545967</v>
+        <v>0.552412</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59722</v>
+        <v>2.71817</v>
       </c>
       <c r="D123" t="n">
-        <v>2.83817</v>
+        <v>2.85553</v>
       </c>
       <c r="E123" t="n">
-        <v>0.649988</v>
+        <v>0.664272</v>
       </c>
       <c r="F123" t="n">
-        <v>2.9338</v>
+        <v>3.08643</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.719647</v>
+        <v>0.777213</v>
       </c>
       <c r="C124" t="n">
-        <v>3.18998</v>
+        <v>3.30632</v>
       </c>
       <c r="D124" t="n">
-        <v>2.80539</v>
+        <v>2.82712</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6415</v>
+        <v>0.656948</v>
       </c>
       <c r="F124" t="n">
-        <v>2.92447</v>
+        <v>3.08043</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7314310000000001</v>
+        <v>0.763096</v>
       </c>
       <c r="C125" t="n">
-        <v>3.15351</v>
+        <v>3.29619</v>
       </c>
       <c r="D125" t="n">
-        <v>2.77095</v>
+        <v>2.80748</v>
       </c>
       <c r="E125" t="n">
-        <v>0.633023</v>
+        <v>0.647887</v>
       </c>
       <c r="F125" t="n">
-        <v>2.91406</v>
+        <v>3.0838</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.721208</v>
+        <v>0.749718</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15694</v>
+        <v>3.28132</v>
       </c>
       <c r="D126" t="n">
-        <v>2.74479</v>
+        <v>2.77994</v>
       </c>
       <c r="E126" t="n">
-        <v>0.64856</v>
+        <v>0.639425</v>
       </c>
       <c r="F126" t="n">
-        <v>2.89437</v>
+        <v>3.05643</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70464</v>
+        <v>0.732436</v>
       </c>
       <c r="C127" t="n">
-        <v>3.13599</v>
+        <v>3.25947</v>
       </c>
       <c r="D127" t="n">
-        <v>2.72153</v>
+        <v>2.75806</v>
       </c>
       <c r="E127" t="n">
-        <v>0.620309</v>
+        <v>0.630023</v>
       </c>
       <c r="F127" t="n">
-        <v>2.89935</v>
+        <v>3.07108</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.69008</v>
+        <v>0.730689</v>
       </c>
       <c r="C128" t="n">
-        <v>3.13233</v>
+        <v>3.26205</v>
       </c>
       <c r="D128" t="n">
-        <v>2.6968</v>
+        <v>2.73833</v>
       </c>
       <c r="E128" t="n">
-        <v>0.615121</v>
+        <v>0.624314</v>
       </c>
       <c r="F128" t="n">
-        <v>2.89469</v>
+        <v>3.05715</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.666947</v>
+        <v>0.708765</v>
       </c>
       <c r="C129" t="n">
-        <v>3.1156</v>
+        <v>3.2465</v>
       </c>
       <c r="D129" t="n">
-        <v>2.68703</v>
+        <v>2.71507</v>
       </c>
       <c r="E129" t="n">
-        <v>0.607424</v>
+        <v>0.6162879999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>2.8829</v>
+        <v>3.03309</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.675299</v>
+        <v>0.710054</v>
       </c>
       <c r="C130" t="n">
-        <v>3.09692</v>
+        <v>3.23241</v>
       </c>
       <c r="D130" t="n">
-        <v>2.66322</v>
+        <v>2.70901</v>
       </c>
       <c r="E130" t="n">
-        <v>0.602754</v>
+        <v>0.611901</v>
       </c>
       <c r="F130" t="n">
-        <v>2.87715</v>
+        <v>3.04353</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.665104</v>
+        <v>0.694828</v>
       </c>
       <c r="C131" t="n">
-        <v>3.09516</v>
+        <v>3.2196</v>
       </c>
       <c r="D131" t="n">
-        <v>2.65321</v>
+        <v>2.69885</v>
       </c>
       <c r="E131" t="n">
-        <v>0.599266</v>
+        <v>0.595957</v>
       </c>
       <c r="F131" t="n">
-        <v>2.87443</v>
+        <v>3.03288</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.649236</v>
+        <v>0.67848</v>
       </c>
       <c r="C132" t="n">
-        <v>3.08061</v>
+        <v>3.20903</v>
       </c>
       <c r="D132" t="n">
-        <v>2.64626</v>
+        <v>2.69563</v>
       </c>
       <c r="E132" t="n">
-        <v>0.594787</v>
+        <v>0.601133</v>
       </c>
       <c r="F132" t="n">
-        <v>2.87737</v>
+        <v>3.03943</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.645503</v>
+        <v>0.678498</v>
       </c>
       <c r="C133" t="n">
-        <v>3.07539</v>
+        <v>3.21749</v>
       </c>
       <c r="D133" t="n">
-        <v>2.61847</v>
+        <v>2.68959</v>
       </c>
       <c r="E133" t="n">
-        <v>0.588166</v>
+        <v>0.596231</v>
       </c>
       <c r="F133" t="n">
-        <v>2.87385</v>
+        <v>3.0417</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.629911</v>
+        <v>0.670399</v>
       </c>
       <c r="C134" t="n">
-        <v>3.06808</v>
+        <v>3.21505</v>
       </c>
       <c r="D134" t="n">
-        <v>2.62421</v>
+        <v>2.67145</v>
       </c>
       <c r="E134" t="n">
-        <v>0.583587</v>
+        <v>0.5808680000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>2.87751</v>
+        <v>3.0303</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.627938</v>
+        <v>0.660314</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06328</v>
+        <v>3.20917</v>
       </c>
       <c r="D135" t="n">
-        <v>3.31994</v>
+        <v>3.37545</v>
       </c>
       <c r="E135" t="n">
-        <v>0.55347</v>
+        <v>0.575793</v>
       </c>
       <c r="F135" t="n">
-        <v>2.64381</v>
+        <v>3.02603</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6428160000000001</v>
+        <v>0.662581</v>
       </c>
       <c r="C136" t="n">
-        <v>3.05786</v>
+        <v>3.19898</v>
       </c>
       <c r="D136" t="n">
-        <v>3.2578</v>
+        <v>3.30305</v>
       </c>
       <c r="E136" t="n">
-        <v>0.550251</v>
+        <v>0.559688</v>
       </c>
       <c r="F136" t="n">
-        <v>2.64103</v>
+        <v>3.02893</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6283</v>
+        <v>0.653857</v>
       </c>
       <c r="C137" t="n">
-        <v>3.06474</v>
+        <v>3.19654</v>
       </c>
       <c r="D137" t="n">
-        <v>3.21197</v>
+        <v>3.25366</v>
       </c>
       <c r="E137" t="n">
-        <v>0.746896</v>
+        <v>0.765158</v>
       </c>
       <c r="F137" t="n">
-        <v>3.36489</v>
+        <v>3.55267</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.798544</v>
+        <v>0.857063</v>
       </c>
       <c r="C138" t="n">
-        <v>3.59543</v>
+        <v>3.7735</v>
       </c>
       <c r="D138" t="n">
-        <v>3.17021</v>
+        <v>3.20376</v>
       </c>
       <c r="E138" t="n">
-        <v>0.741822</v>
+        <v>0.756687</v>
       </c>
       <c r="F138" t="n">
-        <v>3.34291</v>
+        <v>3.52623</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.798191</v>
+        <v>0.854042</v>
       </c>
       <c r="C139" t="n">
-        <v>3.58508</v>
+        <v>3.75197</v>
       </c>
       <c r="D139" t="n">
-        <v>3.11817</v>
+        <v>3.1742</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7406470000000001</v>
+        <v>0.751266</v>
       </c>
       <c r="F139" t="n">
-        <v>3.32975</v>
+        <v>3.50919</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.805258</v>
+        <v>0.8335669999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>3.54325</v>
+        <v>3.71964</v>
       </c>
       <c r="D140" t="n">
-        <v>3.08755</v>
+        <v>3.13638</v>
       </c>
       <c r="E140" t="n">
-        <v>0.735548</v>
+        <v>0.762511</v>
       </c>
       <c r="F140" t="n">
-        <v>3.31403</v>
+        <v>3.49419</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.793497</v>
+        <v>0.785798</v>
       </c>
       <c r="C141" t="n">
-        <v>3.52892</v>
+        <v>3.69549</v>
       </c>
       <c r="D141" t="n">
-        <v>3.05555</v>
+        <v>3.10639</v>
       </c>
       <c r="E141" t="n">
-        <v>0.734172</v>
+        <v>0.760081</v>
       </c>
       <c r="F141" t="n">
-        <v>3.29301</v>
+        <v>3.46885</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.779908</v>
+        <v>0.799011</v>
       </c>
       <c r="C142" t="n">
-        <v>3.50572</v>
+        <v>3.67762</v>
       </c>
       <c r="D142" t="n">
-        <v>3.03757</v>
+        <v>3.07383</v>
       </c>
       <c r="E142" t="n">
-        <v>0.731611</v>
+        <v>0.745205</v>
       </c>
       <c r="F142" t="n">
-        <v>3.27623</v>
+        <v>3.44431</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.776386</v>
+        <v>0.798783</v>
       </c>
       <c r="C143" t="n">
-        <v>3.47995</v>
+        <v>3.63571</v>
       </c>
       <c r="D143" t="n">
-        <v>3.00966</v>
+        <v>3.05396</v>
       </c>
       <c r="E143" t="n">
-        <v>0.748577</v>
+        <v>0.748201</v>
       </c>
       <c r="F143" t="n">
-        <v>3.26229</v>
+        <v>3.42669</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247142</v>
+        <v>0.247022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.421821</v>
+        <v>0.423783</v>
       </c>
       <c r="D2" t="n">
-        <v>0.56545</v>
+        <v>0.5682430000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.214003</v>
+        <v>0.214045</v>
       </c>
       <c r="F2" t="n">
-        <v>0.40367</v>
+        <v>0.4048</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243939</v>
+        <v>0.245784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.415787</v>
+        <v>0.417009</v>
       </c>
       <c r="D3" t="n">
-        <v>0.560993</v>
+        <v>0.561138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2079</v>
+        <v>0.207195</v>
       </c>
       <c r="F3" t="n">
-        <v>0.396268</v>
+        <v>0.39732</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.23725</v>
+        <v>0.234101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412143</v>
+        <v>0.412946</v>
       </c>
       <c r="D4" t="n">
-        <v>0.556712</v>
+        <v>0.557273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.203199</v>
+        <v>0.202639</v>
       </c>
       <c r="F4" t="n">
-        <v>0.391155</v>
+        <v>0.392434</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242216</v>
+        <v>0.232835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.406722</v>
+        <v>0.405925</v>
       </c>
       <c r="D5" t="n">
-        <v>0.551728</v>
+        <v>0.554021</v>
       </c>
       <c r="E5" t="n">
-        <v>0.198031</v>
+        <v>0.197683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.386448</v>
+        <v>0.387249</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22557</v>
+        <v>0.225611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.401801</v>
+        <v>0.402723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.547596</v>
+        <v>0.549706</v>
       </c>
       <c r="E6" t="n">
-        <v>0.194365</v>
+        <v>0.19395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.381871</v>
+        <v>0.384618</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.222679</v>
+        <v>0.221242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.398679</v>
+        <v>0.401067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.698713</v>
+        <v>0.701889</v>
       </c>
       <c r="E7" t="n">
-        <v>0.19121</v>
+        <v>0.191113</v>
       </c>
       <c r="F7" t="n">
-        <v>0.381002</v>
+        <v>0.380618</v>
       </c>
     </row>
     <row r="8">
@@ -5204,16 +5204,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217061</v>
+        <v>0.218376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.397207</v>
+        <v>0.397732</v>
       </c>
       <c r="D8" t="n">
-        <v>0.685002</v>
+        <v>0.6873089999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.192187</v>
+        <v>0.191544</v>
       </c>
       <c r="F8" t="n">
         <v>0.379938</v>
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.223076</v>
+        <v>0.219079</v>
       </c>
       <c r="C9" t="n">
-        <v>0.397504</v>
+        <v>0.397821</v>
       </c>
       <c r="D9" t="n">
-        <v>0.671258</v>
+        <v>0.674198</v>
       </c>
       <c r="E9" t="n">
-        <v>0.282342</v>
+        <v>0.282111</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4782</v>
+        <v>0.477878</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314575</v>
+        <v>0.318212</v>
       </c>
       <c r="C10" t="n">
-        <v>0.492345</v>
+        <v>0.488097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.65991</v>
+        <v>0.662501</v>
       </c>
       <c r="E10" t="n">
-        <v>0.273645</v>
+        <v>0.272367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.466216</v>
+        <v>0.465588</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.302898</v>
+        <v>0.315022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.479787</v>
+        <v>0.478768</v>
       </c>
       <c r="D11" t="n">
-        <v>0.648134</v>
+        <v>0.650876</v>
       </c>
       <c r="E11" t="n">
-        <v>0.265208</v>
+        <v>0.262464</v>
       </c>
       <c r="F11" t="n">
-        <v>0.455697</v>
+        <v>0.454127</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.295317</v>
+        <v>0.298492</v>
       </c>
       <c r="C12" t="n">
-        <v>0.468093</v>
+        <v>0.467077</v>
       </c>
       <c r="D12" t="n">
-        <v>0.637796</v>
+        <v>0.639038</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256098</v>
+        <v>0.254074</v>
       </c>
       <c r="F12" t="n">
-        <v>0.44479</v>
+        <v>0.445057</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287727</v>
+        <v>0.287323</v>
       </c>
       <c r="C13" t="n">
-        <v>0.458658</v>
+        <v>0.457369</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6281679999999999</v>
+        <v>0.629979</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248534</v>
+        <v>0.246256</v>
       </c>
       <c r="F13" t="n">
-        <v>0.435072</v>
+        <v>0.434912</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279707</v>
+        <v>0.277444</v>
       </c>
       <c r="C14" t="n">
-        <v>0.449767</v>
+        <v>0.448243</v>
       </c>
       <c r="D14" t="n">
-        <v>0.619286</v>
+        <v>0.622293</v>
       </c>
       <c r="E14" t="n">
-        <v>0.24081</v>
+        <v>0.238458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.426114</v>
+        <v>0.426375</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265637</v>
+        <v>0.267366</v>
       </c>
       <c r="C15" t="n">
-        <v>0.441182</v>
+        <v>0.44009</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6122570000000001</v>
+        <v>0.6153650000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234677</v>
+        <v>0.231519</v>
       </c>
       <c r="F15" t="n">
-        <v>0.417866</v>
+        <v>0.417012</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260891</v>
+        <v>0.261967</v>
       </c>
       <c r="C16" t="n">
-        <v>0.434771</v>
+        <v>0.432733</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6063499999999999</v>
+        <v>0.609372</v>
       </c>
       <c r="E16" t="n">
-        <v>0.227928</v>
+        <v>0.225466</v>
       </c>
       <c r="F16" t="n">
-        <v>0.410328</v>
+        <v>0.409641</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.254312</v>
+        <v>0.255371</v>
       </c>
       <c r="C17" t="n">
-        <v>0.428087</v>
+        <v>0.425902</v>
       </c>
       <c r="D17" t="n">
-        <v>0.60056</v>
+        <v>0.603641</v>
       </c>
       <c r="E17" t="n">
-        <v>0.222004</v>
+        <v>0.219495</v>
       </c>
       <c r="F17" t="n">
-        <v>0.403269</v>
+        <v>0.40297</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248859</v>
+        <v>0.248108</v>
       </c>
       <c r="C18" t="n">
-        <v>0.421488</v>
+        <v>0.420388</v>
       </c>
       <c r="D18" t="n">
-        <v>0.59392</v>
+        <v>0.596156</v>
       </c>
       <c r="E18" t="n">
-        <v>0.217072</v>
+        <v>0.214541</v>
       </c>
       <c r="F18" t="n">
-        <v>0.397144</v>
+        <v>0.396465</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2429</v>
+        <v>0.244975</v>
       </c>
       <c r="C19" t="n">
-        <v>0.415542</v>
+        <v>0.414084</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5902539999999999</v>
+        <v>0.5917480000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.212504</v>
+        <v>0.209941</v>
       </c>
       <c r="F19" t="n">
-        <v>0.391435</v>
+        <v>0.393032</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.243081</v>
+        <v>0.235705</v>
       </c>
       <c r="C20" t="n">
-        <v>0.411055</v>
+        <v>0.412864</v>
       </c>
       <c r="D20" t="n">
-        <v>0.584053</v>
+        <v>0.589456</v>
       </c>
       <c r="E20" t="n">
-        <v>0.207361</v>
+        <v>0.207722</v>
       </c>
       <c r="F20" t="n">
-        <v>0.38521</v>
+        <v>0.38884</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229501</v>
+        <v>0.235435</v>
       </c>
       <c r="C21" t="n">
-        <v>0.404422</v>
+        <v>0.407184</v>
       </c>
       <c r="D21" t="n">
-        <v>0.758687</v>
+        <v>0.761972</v>
       </c>
       <c r="E21" t="n">
-        <v>0.20621</v>
+        <v>0.206741</v>
       </c>
       <c r="F21" t="n">
-        <v>0.383171</v>
+        <v>0.385097</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.232836</v>
+        <v>0.235781</v>
       </c>
       <c r="C22" t="n">
-        <v>0.402777</v>
+        <v>0.404114</v>
       </c>
       <c r="D22" t="n">
-        <v>0.745868</v>
+        <v>0.746344</v>
       </c>
       <c r="E22" t="n">
-        <v>0.207681</v>
+        <v>0.206645</v>
       </c>
       <c r="F22" t="n">
-        <v>0.383777</v>
+        <v>0.384661</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.231991</v>
+        <v>0.230955</v>
       </c>
       <c r="C23" t="n">
-        <v>0.402077</v>
+        <v>0.402545</v>
       </c>
       <c r="D23" t="n">
-        <v>0.731277</v>
+        <v>0.731555</v>
       </c>
       <c r="E23" t="n">
-        <v>0.301361</v>
+        <v>0.298902</v>
       </c>
       <c r="F23" t="n">
-        <v>0.490695</v>
+        <v>0.489933</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.319632</v>
+        <v>0.32288</v>
       </c>
       <c r="C24" t="n">
-        <v>0.509946</v>
+        <v>0.502353</v>
       </c>
       <c r="D24" t="n">
-        <v>0.718857</v>
+        <v>0.718964</v>
       </c>
       <c r="E24" t="n">
-        <v>0.290356</v>
+        <v>0.293725</v>
       </c>
       <c r="F24" t="n">
-        <v>0.477344</v>
+        <v>0.478395</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313701</v>
+        <v>0.311238</v>
       </c>
       <c r="C25" t="n">
-        <v>0.497781</v>
+        <v>0.491825</v>
       </c>
       <c r="D25" t="n">
-        <v>0.707929</v>
+        <v>0.706878</v>
       </c>
       <c r="E25" t="n">
-        <v>0.280835</v>
+        <v>0.28509</v>
       </c>
       <c r="F25" t="n">
-        <v>0.466345</v>
+        <v>0.467438</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.301102</v>
+        <v>0.302944</v>
       </c>
       <c r="C26" t="n">
-        <v>0.481552</v>
+        <v>0.481434</v>
       </c>
       <c r="D26" t="n">
-        <v>0.695323</v>
+        <v>0.69497</v>
       </c>
       <c r="E26" t="n">
-        <v>0.273516</v>
+        <v>0.271148</v>
       </c>
       <c r="F26" t="n">
-        <v>0.457532</v>
+        <v>0.457756</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2935</v>
+        <v>0.28953</v>
       </c>
       <c r="C27" t="n">
-        <v>0.472648</v>
+        <v>0.472179</v>
       </c>
       <c r="D27" t="n">
-        <v>0.685872</v>
+        <v>0.685018</v>
       </c>
       <c r="E27" t="n">
-        <v>0.265296</v>
+        <v>0.262993</v>
       </c>
       <c r="F27" t="n">
-        <v>0.448103</v>
+        <v>0.448204</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286844</v>
+        <v>0.284145</v>
       </c>
       <c r="C28" t="n">
-        <v>0.46455</v>
+        <v>0.463168</v>
       </c>
       <c r="D28" t="n">
-        <v>0.67735</v>
+        <v>0.675733</v>
       </c>
       <c r="E28" t="n">
-        <v>0.255794</v>
+        <v>0.255453</v>
       </c>
       <c r="F28" t="n">
-        <v>0.437919</v>
+        <v>0.438899</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280256</v>
+        <v>0.278454</v>
       </c>
       <c r="C29" t="n">
-        <v>0.456557</v>
+        <v>0.454007</v>
       </c>
       <c r="D29" t="n">
-        <v>0.669864</v>
+        <v>0.667888</v>
       </c>
       <c r="E29" t="n">
-        <v>0.249063</v>
+        <v>0.247845</v>
       </c>
       <c r="F29" t="n">
-        <v>0.429418</v>
+        <v>0.430247</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.266688</v>
+        <v>0.268669</v>
       </c>
       <c r="C30" t="n">
-        <v>0.448429</v>
+        <v>0.446569</v>
       </c>
       <c r="D30" t="n">
-        <v>0.66269</v>
+        <v>0.660372</v>
       </c>
       <c r="E30" t="n">
-        <v>0.241805</v>
+        <v>0.241747</v>
       </c>
       <c r="F30" t="n">
-        <v>0.421931</v>
+        <v>0.422808</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.261023</v>
+        <v>0.257521</v>
       </c>
       <c r="C31" t="n">
-        <v>0.441208</v>
+        <v>0.439833</v>
       </c>
       <c r="D31" t="n">
-        <v>0.656745</v>
+        <v>0.65457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.23555</v>
+        <v>0.23564</v>
       </c>
       <c r="F31" t="n">
-        <v>0.414209</v>
+        <v>0.415959</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.256143</v>
+        <v>0.256115</v>
       </c>
       <c r="C32" t="n">
-        <v>0.434831</v>
+        <v>0.433574</v>
       </c>
       <c r="D32" t="n">
-        <v>0.651427</v>
+        <v>0.648842</v>
       </c>
       <c r="E32" t="n">
-        <v>0.229621</v>
+        <v>0.229946</v>
       </c>
       <c r="F32" t="n">
-        <v>0.408788</v>
+        <v>0.408113</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245728</v>
+        <v>0.250117</v>
       </c>
       <c r="C33" t="n">
-        <v>0.431602</v>
+        <v>0.426971</v>
       </c>
       <c r="D33" t="n">
-        <v>0.646417</v>
+        <v>0.643719</v>
       </c>
       <c r="E33" t="n">
-        <v>0.225316</v>
+        <v>0.225505</v>
       </c>
       <c r="F33" t="n">
-        <v>0.402605</v>
+        <v>0.404305</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.244596</v>
+        <v>0.242684</v>
       </c>
       <c r="C34" t="n">
-        <v>0.421565</v>
+        <v>0.421621</v>
       </c>
       <c r="D34" t="n">
-        <v>0.641136</v>
+        <v>0.639838</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222342</v>
+        <v>0.220535</v>
       </c>
       <c r="F34" t="n">
-        <v>0.396419</v>
+        <v>0.397138</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.238412</v>
+        <v>0.240324</v>
       </c>
       <c r="C35" t="n">
-        <v>0.417898</v>
+        <v>0.417295</v>
       </c>
       <c r="D35" t="n">
-        <v>0.82501</v>
+        <v>0.823698</v>
       </c>
       <c r="E35" t="n">
-        <v>0.218348</v>
+        <v>0.217993</v>
       </c>
       <c r="F35" t="n">
-        <v>0.39328</v>
+        <v>0.393788</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235856</v>
+        <v>0.235379</v>
       </c>
       <c r="C36" t="n">
-        <v>0.415496</v>
+        <v>0.41382</v>
       </c>
       <c r="D36" t="n">
-        <v>0.80802</v>
+        <v>0.805832</v>
       </c>
       <c r="E36" t="n">
-        <v>0.220307</v>
+        <v>0.219046</v>
       </c>
       <c r="F36" t="n">
-        <v>0.39215</v>
+        <v>0.392437</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.232877</v>
+        <v>0.23217</v>
       </c>
       <c r="C37" t="n">
-        <v>0.411694</v>
+        <v>0.410195</v>
       </c>
       <c r="D37" t="n">
-        <v>0.790393</v>
+        <v>0.789308</v>
       </c>
       <c r="E37" t="n">
-        <v>0.316509</v>
+        <v>0.310402</v>
       </c>
       <c r="F37" t="n">
-        <v>0.503633</v>
+        <v>0.503013</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.323129</v>
+        <v>0.324374</v>
       </c>
       <c r="C38" t="n">
-        <v>0.51916</v>
+        <v>0.519925</v>
       </c>
       <c r="D38" t="n">
-        <v>0.778827</v>
+        <v>0.776509</v>
       </c>
       <c r="E38" t="n">
-        <v>0.306797</v>
+        <v>0.301752</v>
       </c>
       <c r="F38" t="n">
-        <v>0.493827</v>
+        <v>0.494359</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.314546</v>
+        <v>0.313633</v>
       </c>
       <c r="C39" t="n">
-        <v>0.50993</v>
+        <v>0.513165</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7647659999999999</v>
+        <v>0.762782</v>
       </c>
       <c r="E39" t="n">
-        <v>0.293458</v>
+        <v>0.29286</v>
       </c>
       <c r="F39" t="n">
-        <v>0.481792</v>
+        <v>0.482603</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302318</v>
+        <v>0.301083</v>
       </c>
       <c r="C40" t="n">
-        <v>0.50047</v>
+        <v>0.500898</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7518</v>
+        <v>0.75044</v>
       </c>
       <c r="E40" t="n">
-        <v>0.284141</v>
+        <v>0.284363</v>
       </c>
       <c r="F40" t="n">
-        <v>0.472096</v>
+        <v>0.473061</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.295259</v>
+        <v>0.297897</v>
       </c>
       <c r="C41" t="n">
-        <v>0.490892</v>
+        <v>0.4921</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7405929999999999</v>
+        <v>0.73913</v>
       </c>
       <c r="E41" t="n">
-        <v>0.277147</v>
+        <v>0.276246</v>
       </c>
       <c r="F41" t="n">
-        <v>0.460895</v>
+        <v>0.463203</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293743</v>
+        <v>0.286346</v>
       </c>
       <c r="C42" t="n">
-        <v>0.482247</v>
+        <v>0.48282</v>
       </c>
       <c r="D42" t="n">
-        <v>0.730387</v>
+        <v>0.729693</v>
       </c>
       <c r="E42" t="n">
-        <v>0.267194</v>
+        <v>0.268206</v>
       </c>
       <c r="F42" t="n">
-        <v>0.454714</v>
+        <v>0.454423</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285549</v>
+        <v>0.282075</v>
       </c>
       <c r="C43" t="n">
-        <v>0.473748</v>
+        <v>0.476166</v>
       </c>
       <c r="D43" t="n">
-        <v>0.720762</v>
+        <v>0.719567</v>
       </c>
       <c r="E43" t="n">
-        <v>0.259569</v>
+        <v>0.259618</v>
       </c>
       <c r="F43" t="n">
-        <v>0.444781</v>
+        <v>0.445149</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.271349</v>
+        <v>0.281317</v>
       </c>
       <c r="C44" t="n">
-        <v>0.464679</v>
+        <v>0.468959</v>
       </c>
       <c r="D44" t="n">
-        <v>0.713069</v>
+        <v>0.7111</v>
       </c>
       <c r="E44" t="n">
-        <v>0.253675</v>
+        <v>0.2512</v>
       </c>
       <c r="F44" t="n">
-        <v>0.43652</v>
+        <v>0.436482</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.271055</v>
+        <v>0.265672</v>
       </c>
       <c r="C45" t="n">
-        <v>0.457015</v>
+        <v>0.458916</v>
       </c>
       <c r="D45" t="n">
-        <v>0.705918</v>
+        <v>0.7052</v>
       </c>
       <c r="E45" t="n">
-        <v>0.247088</v>
+        <v>0.246419</v>
       </c>
       <c r="F45" t="n">
-        <v>0.42926</v>
+        <v>0.429953</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.257824</v>
+        <v>0.265689</v>
       </c>
       <c r="C46" t="n">
-        <v>0.450405</v>
+        <v>0.454385</v>
       </c>
       <c r="D46" t="n">
-        <v>0.699653</v>
+        <v>0.697991</v>
       </c>
       <c r="E46" t="n">
-        <v>0.24097</v>
+        <v>0.238496</v>
       </c>
       <c r="F46" t="n">
-        <v>0.422307</v>
+        <v>0.421318</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260724</v>
+        <v>0.256</v>
       </c>
       <c r="C47" t="n">
-        <v>0.441064</v>
+        <v>0.448349</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6936</v>
+        <v>0.693544</v>
       </c>
       <c r="E47" t="n">
-        <v>0.232294</v>
+        <v>0.236445</v>
       </c>
       <c r="F47" t="n">
-        <v>0.414678</v>
+        <v>0.417535</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.247805</v>
+        <v>0.247171</v>
       </c>
       <c r="C48" t="n">
-        <v>0.437326</v>
+        <v>0.442873</v>
       </c>
       <c r="D48" t="n">
-        <v>0.688152</v>
+        <v>0.687569</v>
       </c>
       <c r="E48" t="n">
-        <v>0.230655</v>
+        <v>0.230586</v>
       </c>
       <c r="F48" t="n">
-        <v>0.411656</v>
+        <v>0.412091</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247769</v>
+        <v>0.243103</v>
       </c>
       <c r="C49" t="n">
-        <v>0.434662</v>
+        <v>0.437771</v>
       </c>
       <c r="D49" t="n">
-        <v>0.684751</v>
+        <v>0.68272</v>
       </c>
       <c r="E49" t="n">
-        <v>0.22745</v>
+        <v>0.224098</v>
       </c>
       <c r="F49" t="n">
-        <v>0.408166</v>
+        <v>0.40588</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240708</v>
+        <v>0.240569</v>
       </c>
       <c r="C50" t="n">
-        <v>0.43269</v>
+        <v>0.433303</v>
       </c>
       <c r="D50" t="n">
-        <v>0.859869</v>
+        <v>0.857961</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225946</v>
+        <v>0.225653</v>
       </c>
       <c r="F50" t="n">
-        <v>0.406917</v>
+        <v>0.405273</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.238109</v>
+        <v>0.240221</v>
       </c>
       <c r="C51" t="n">
-        <v>0.430845</v>
+        <v>0.431167</v>
       </c>
       <c r="D51" t="n">
-        <v>0.841593</v>
+        <v>0.84052</v>
       </c>
       <c r="E51" t="n">
-        <v>0.324634</v>
+        <v>0.325754</v>
       </c>
       <c r="F51" t="n">
-        <v>0.520427</v>
+        <v>0.520445</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.236582</v>
+        <v>0.244787</v>
       </c>
       <c r="C52" t="n">
-        <v>0.430129</v>
+        <v>0.431445</v>
       </c>
       <c r="D52" t="n">
-        <v>0.82477</v>
+        <v>0.82398</v>
       </c>
       <c r="E52" t="n">
-        <v>0.313855</v>
+        <v>0.315325</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5089939999999999</v>
+        <v>0.509325</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.327293</v>
+        <v>0.33035</v>
       </c>
       <c r="C53" t="n">
-        <v>0.526438</v>
+        <v>0.533593</v>
       </c>
       <c r="D53" t="n">
-        <v>0.809567</v>
+        <v>0.808988</v>
       </c>
       <c r="E53" t="n">
-        <v>0.30636</v>
+        <v>0.306074</v>
       </c>
       <c r="F53" t="n">
-        <v>0.498586</v>
+        <v>0.498716</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.319118</v>
+        <v>0.323138</v>
       </c>
       <c r="C54" t="n">
-        <v>0.516823</v>
+        <v>0.525372</v>
       </c>
       <c r="D54" t="n">
-        <v>0.795634</v>
+        <v>0.794748</v>
       </c>
       <c r="E54" t="n">
-        <v>0.29592</v>
+        <v>0.297755</v>
       </c>
       <c r="F54" t="n">
-        <v>0.487851</v>
+        <v>0.488283</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309712</v>
+        <v>0.311179</v>
       </c>
       <c r="C55" t="n">
-        <v>0.507419</v>
+        <v>0.515562</v>
       </c>
       <c r="D55" t="n">
-        <v>0.782232</v>
+        <v>0.782498</v>
       </c>
       <c r="E55" t="n">
-        <v>0.288944</v>
+        <v>0.289748</v>
       </c>
       <c r="F55" t="n">
-        <v>0.478661</v>
+        <v>0.480308</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.301946</v>
+        <v>0.303724</v>
       </c>
       <c r="C56" t="n">
-        <v>0.499252</v>
+        <v>0.50761</v>
       </c>
       <c r="D56" t="n">
-        <v>0.770942</v>
+        <v>0.771084</v>
       </c>
       <c r="E56" t="n">
-        <v>0.279821</v>
+        <v>0.280154</v>
       </c>
       <c r="F56" t="n">
-        <v>0.469387</v>
+        <v>0.470311</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.291784</v>
+        <v>0.290161</v>
       </c>
       <c r="C57" t="n">
-        <v>0.491323</v>
+        <v>0.500112</v>
       </c>
       <c r="D57" t="n">
-        <v>0.760046</v>
+        <v>0.759825</v>
       </c>
       <c r="E57" t="n">
-        <v>0.272422</v>
+        <v>0.273726</v>
       </c>
       <c r="F57" t="n">
-        <v>0.460794</v>
+        <v>0.461637</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.284683</v>
+        <v>0.284687</v>
       </c>
       <c r="C58" t="n">
-        <v>0.48399</v>
+        <v>0.49189</v>
       </c>
       <c r="D58" t="n">
-        <v>0.750897</v>
+        <v>0.751546</v>
       </c>
       <c r="E58" t="n">
-        <v>0.264925</v>
+        <v>0.266788</v>
       </c>
       <c r="F58" t="n">
-        <v>0.452422</v>
+        <v>0.453706</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.275833</v>
+        <v>0.28262</v>
       </c>
       <c r="C59" t="n">
-        <v>0.476467</v>
+        <v>0.486756</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7412570000000001</v>
+        <v>0.741812</v>
       </c>
       <c r="E59" t="n">
-        <v>0.260263</v>
+        <v>0.259929</v>
       </c>
       <c r="F59" t="n">
-        <v>0.444858</v>
+        <v>0.446452</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.274538</v>
+        <v>0.272311</v>
       </c>
       <c r="C60" t="n">
-        <v>0.470723</v>
+        <v>0.47668</v>
       </c>
       <c r="D60" t="n">
-        <v>0.734309</v>
+        <v>0.734664</v>
       </c>
       <c r="E60" t="n">
-        <v>0.25427</v>
+        <v>0.253441</v>
       </c>
       <c r="F60" t="n">
-        <v>0.437831</v>
+        <v>0.438404</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264808</v>
+        <v>0.261684</v>
       </c>
       <c r="C61" t="n">
-        <v>0.461024</v>
+        <v>0.470358</v>
       </c>
       <c r="D61" t="n">
-        <v>0.726206</v>
+        <v>0.727204</v>
       </c>
       <c r="E61" t="n">
-        <v>0.247777</v>
+        <v>0.246882</v>
       </c>
       <c r="F61" t="n">
-        <v>0.431305</v>
+        <v>0.431703</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262141</v>
+        <v>0.257496</v>
       </c>
       <c r="C62" t="n">
-        <v>0.456699</v>
+        <v>0.466718</v>
       </c>
       <c r="D62" t="n">
-        <v>0.719915</v>
+        <v>0.721334</v>
       </c>
       <c r="E62" t="n">
-        <v>0.245124</v>
+        <v>0.244791</v>
       </c>
       <c r="F62" t="n">
-        <v>0.426021</v>
+        <v>0.426201</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255146</v>
+        <v>0.249374</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450937</v>
+        <v>0.463342</v>
       </c>
       <c r="D63" t="n">
-        <v>0.715886</v>
+        <v>0.71621</v>
       </c>
       <c r="E63" t="n">
-        <v>0.240966</v>
+        <v>0.241127</v>
       </c>
       <c r="F63" t="n">
-        <v>0.421436</v>
+        <v>0.42234</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250778</v>
+        <v>0.25386</v>
       </c>
       <c r="C64" t="n">
-        <v>0.446703</v>
+        <v>0.460328</v>
       </c>
       <c r="D64" t="n">
-        <v>0.92084</v>
+        <v>0.915449</v>
       </c>
       <c r="E64" t="n">
-        <v>0.237542</v>
+        <v>0.239989</v>
       </c>
       <c r="F64" t="n">
-        <v>0.418292</v>
+        <v>0.420832</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247784</v>
+        <v>0.246492</v>
       </c>
       <c r="C65" t="n">
-        <v>0.447572</v>
+        <v>0.460595</v>
       </c>
       <c r="D65" t="n">
-        <v>0.901149</v>
+        <v>0.896113</v>
       </c>
       <c r="E65" t="n">
-        <v>0.236169</v>
+        <v>0.237312</v>
       </c>
       <c r="F65" t="n">
-        <v>0.418393</v>
+        <v>0.422298</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244491</v>
+        <v>0.24875</v>
       </c>
       <c r="C66" t="n">
-        <v>0.447046</v>
+        <v>0.461363</v>
       </c>
       <c r="D66" t="n">
-        <v>0.884078</v>
+        <v>0.877434</v>
       </c>
       <c r="E66" t="n">
-        <v>0.336532</v>
+        <v>0.336257</v>
       </c>
       <c r="F66" t="n">
-        <v>0.549774</v>
+        <v>0.54361</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.394992</v>
+        <v>0.415955</v>
       </c>
       <c r="C67" t="n">
-        <v>0.604707</v>
+        <v>0.6008829999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8666430000000001</v>
+        <v>0.861712</v>
       </c>
       <c r="E67" t="n">
-        <v>0.32942</v>
+        <v>0.334569</v>
       </c>
       <c r="F67" t="n">
-        <v>0.541693</v>
+        <v>0.535923</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.401337</v>
+        <v>0.387803</v>
       </c>
       <c r="C68" t="n">
-        <v>0.593466</v>
+        <v>0.588941</v>
       </c>
       <c r="D68" t="n">
-        <v>0.85193</v>
+        <v>0.845889</v>
       </c>
       <c r="E68" t="n">
-        <v>0.320226</v>
+        <v>0.320051</v>
       </c>
       <c r="F68" t="n">
-        <v>0.532798</v>
+        <v>0.526724</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.375941</v>
+        <v>0.371492</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5879760000000001</v>
+        <v>0.582712</v>
       </c>
       <c r="D69" t="n">
-        <v>0.838377</v>
+        <v>0.833946</v>
       </c>
       <c r="E69" t="n">
-        <v>0.318595</v>
+        <v>0.311376</v>
       </c>
       <c r="F69" t="n">
-        <v>0.524875</v>
+        <v>0.517759</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.371822</v>
+        <v>0.384049</v>
       </c>
       <c r="C70" t="n">
-        <v>0.578321</v>
+        <v>0.575705</v>
       </c>
       <c r="D70" t="n">
-        <v>0.828364</v>
+        <v>0.823516</v>
       </c>
       <c r="E70" t="n">
-        <v>0.309059</v>
+        <v>0.305718</v>
       </c>
       <c r="F70" t="n">
-        <v>0.518184</v>
+        <v>0.509747</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.369278</v>
+        <v>0.366337</v>
       </c>
       <c r="C71" t="n">
-        <v>0.570173</v>
+        <v>0.5666060000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.819317</v>
+        <v>0.813742</v>
       </c>
       <c r="E71" t="n">
-        <v>0.296438</v>
+        <v>0.301031</v>
       </c>
       <c r="F71" t="n">
-        <v>0.508231</v>
+        <v>0.500438</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.361966</v>
+        <v>0.345799</v>
       </c>
       <c r="C72" t="n">
-        <v>0.562077</v>
+        <v>0.558611</v>
       </c>
       <c r="D72" t="n">
-        <v>0.812902</v>
+        <v>0.806547</v>
       </c>
       <c r="E72" t="n">
-        <v>0.28933</v>
+        <v>0.295183</v>
       </c>
       <c r="F72" t="n">
-        <v>0.499892</v>
+        <v>0.493593</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.33344</v>
+        <v>0.343915</v>
       </c>
       <c r="C73" t="n">
-        <v>0.557712</v>
+        <v>0.5520350000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.807407</v>
+        <v>0.799028</v>
       </c>
       <c r="E73" t="n">
-        <v>0.284117</v>
+        <v>0.287736</v>
       </c>
       <c r="F73" t="n">
-        <v>0.493313</v>
+        <v>0.486792</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.352862</v>
+        <v>0.347132</v>
       </c>
       <c r="C74" t="n">
-        <v>0.553441</v>
+        <v>0.546874</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8032319999999999</v>
+        <v>0.795349</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2776</v>
+        <v>0.278574</v>
       </c>
       <c r="F74" t="n">
-        <v>0.486946</v>
+        <v>0.480565</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.332067</v>
+        <v>0.340507</v>
       </c>
       <c r="C75" t="n">
-        <v>0.548974</v>
+        <v>0.543113</v>
       </c>
       <c r="D75" t="n">
-        <v>0.795619</v>
+        <v>0.7932670000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274194</v>
+        <v>0.271259</v>
       </c>
       <c r="F75" t="n">
-        <v>0.481152</v>
+        <v>0.474004</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.325378</v>
+        <v>0.327611</v>
       </c>
       <c r="C76" t="n">
-        <v>0.543627</v>
+        <v>0.539986</v>
       </c>
       <c r="D76" t="n">
-        <v>0.794636</v>
+        <v>0.791347</v>
       </c>
       <c r="E76" t="n">
-        <v>0.270885</v>
+        <v>0.268054</v>
       </c>
       <c r="F76" t="n">
-        <v>0.476232</v>
+        <v>0.468931</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.32456</v>
+        <v>0.326856</v>
       </c>
       <c r="C77" t="n">
-        <v>0.541703</v>
+        <v>0.536453</v>
       </c>
       <c r="D77" t="n">
-        <v>0.795078</v>
+        <v>0.7929079999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.265986</v>
+        <v>0.26652</v>
       </c>
       <c r="F77" t="n">
-        <v>0.472725</v>
+        <v>0.466071</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.321165</v>
+        <v>0.319845</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5365839999999999</v>
+        <v>0.535571</v>
       </c>
       <c r="D78" t="n">
-        <v>1.25981</v>
+        <v>1.26042</v>
       </c>
       <c r="E78" t="n">
-        <v>0.262861</v>
+        <v>0.262926</v>
       </c>
       <c r="F78" t="n">
-        <v>0.470802</v>
+        <v>0.463668</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.299589</v>
+        <v>0.298392</v>
       </c>
       <c r="C79" t="n">
-        <v>0.536619</v>
+        <v>0.534122</v>
       </c>
       <c r="D79" t="n">
-        <v>1.23848</v>
+        <v>1.23761</v>
       </c>
       <c r="E79" t="n">
-        <v>0.263135</v>
+        <v>0.262049</v>
       </c>
       <c r="F79" t="n">
-        <v>0.47126</v>
+        <v>0.464131</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.300528</v>
+        <v>0.317205</v>
       </c>
       <c r="C80" t="n">
-        <v>0.537114</v>
+        <v>0.534726</v>
       </c>
       <c r="D80" t="n">
         <v>1.21839</v>
       </c>
       <c r="E80" t="n">
-        <v>0.389198</v>
+        <v>0.392287</v>
       </c>
       <c r="F80" t="n">
-        <v>0.783121</v>
+        <v>0.779274</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.461426</v>
+        <v>0.48845</v>
       </c>
       <c r="C81" t="n">
-        <v>0.851952</v>
+        <v>0.872281</v>
       </c>
       <c r="D81" t="n">
-        <v>1.20995</v>
+        <v>1.2088</v>
       </c>
       <c r="E81" t="n">
-        <v>0.385499</v>
+        <v>0.384827</v>
       </c>
       <c r="F81" t="n">
-        <v>0.783265</v>
+        <v>0.7841900000000001</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.465557</v>
+        <v>0.463451</v>
       </c>
       <c r="C82" t="n">
-        <v>0.857477</v>
+        <v>0.863491</v>
       </c>
       <c r="D82" t="n">
-        <v>1.19252</v>
+        <v>1.19294</v>
       </c>
       <c r="E82" t="n">
-        <v>0.375482</v>
+        <v>0.376195</v>
       </c>
       <c r="F82" t="n">
-        <v>0.778046</v>
+        <v>0.778271</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.406784</v>
+        <v>0.44101</v>
       </c>
       <c r="C83" t="n">
-        <v>0.856572</v>
+        <v>0.861991</v>
       </c>
       <c r="D83" t="n">
-        <v>1.18175</v>
+        <v>1.18235</v>
       </c>
       <c r="E83" t="n">
-        <v>0.370307</v>
+        <v>0.371829</v>
       </c>
       <c r="F83" t="n">
-        <v>0.769323</v>
+        <v>0.769639</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.433341</v>
+        <v>0.421459</v>
       </c>
       <c r="C84" t="n">
-        <v>0.858138</v>
+        <v>0.860574</v>
       </c>
       <c r="D84" t="n">
-        <v>1.17519</v>
+        <v>1.16878</v>
       </c>
       <c r="E84" t="n">
-        <v>0.361846</v>
+        <v>0.360799</v>
       </c>
       <c r="F84" t="n">
-        <v>0.756472</v>
+        <v>0.756383</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.414295</v>
+        <v>0.422738</v>
       </c>
       <c r="C85" t="n">
-        <v>0.851789</v>
+        <v>0.854234</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17052</v>
+        <v>1.16492</v>
       </c>
       <c r="E85" t="n">
-        <v>0.353749</v>
+        <v>0.354595</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7468939999999999</v>
+        <v>0.7422339999999999</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.409909</v>
+        <v>0.418586</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8495740000000001</v>
+        <v>0.837064</v>
       </c>
       <c r="D86" t="n">
-        <v>1.17642</v>
+        <v>1.16363</v>
       </c>
       <c r="E86" t="n">
-        <v>0.345318</v>
+        <v>0.344615</v>
       </c>
       <c r="F86" t="n">
-        <v>0.73246</v>
+        <v>0.728335</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.407196</v>
+        <v>0.406173</v>
       </c>
       <c r="C87" t="n">
-        <v>0.831902</v>
+        <v>0.829023</v>
       </c>
       <c r="D87" t="n">
-        <v>1.17728</v>
+        <v>1.17477</v>
       </c>
       <c r="E87" t="n">
-        <v>0.33948</v>
+        <v>0.34044</v>
       </c>
       <c r="F87" t="n">
-        <v>0.718243</v>
+        <v>0.718791</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.432114</v>
+        <v>0.389627</v>
       </c>
       <c r="C88" t="n">
-        <v>0.822736</v>
+        <v>0.811124</v>
       </c>
       <c r="D88" t="n">
-        <v>1.18106</v>
+        <v>1.17879</v>
       </c>
       <c r="E88" t="n">
-        <v>0.334179</v>
+        <v>0.335231</v>
       </c>
       <c r="F88" t="n">
-        <v>0.703365</v>
+        <v>0.703314</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.381637</v>
+        <v>0.398937</v>
       </c>
       <c r="C89" t="n">
-        <v>0.807836</v>
+        <v>0.8055909999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>1.18767</v>
+        <v>1.18519</v>
       </c>
       <c r="E89" t="n">
-        <v>0.326045</v>
+        <v>0.328385</v>
       </c>
       <c r="F89" t="n">
-        <v>0.684981</v>
+        <v>0.681604</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.380389</v>
+        <v>0.382926</v>
       </c>
       <c r="C90" t="n">
-        <v>0.792227</v>
+        <v>0.790516</v>
       </c>
       <c r="D90" t="n">
-        <v>1.1847</v>
+        <v>1.18196</v>
       </c>
       <c r="E90" t="n">
-        <v>0.325592</v>
+        <v>0.318319</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6714</v>
+        <v>0.677962</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.389696</v>
+        <v>0.392704</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7789970000000001</v>
+        <v>0.784363</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19793</v>
+        <v>1.20539</v>
       </c>
       <c r="E91" t="n">
-        <v>0.320506</v>
+        <v>0.317939</v>
       </c>
       <c r="F91" t="n">
-        <v>0.665645</v>
+        <v>0.663794</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.365959</v>
+        <v>0.393951</v>
       </c>
       <c r="C92" t="n">
-        <v>0.775544</v>
+        <v>0.773014</v>
       </c>
       <c r="D92" t="n">
-        <v>1.77654</v>
+        <v>1.77514</v>
       </c>
       <c r="E92" t="n">
-        <v>0.310162</v>
+        <v>0.310881</v>
       </c>
       <c r="F92" t="n">
-        <v>0.659951</v>
+        <v>0.655244</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.368435</v>
+        <v>0.36843</v>
       </c>
       <c r="C93" t="n">
-        <v>0.76773</v>
+        <v>0.764436</v>
       </c>
       <c r="D93" t="n">
-        <v>1.77648</v>
+        <v>1.7594</v>
       </c>
       <c r="E93" t="n">
-        <v>0.311892</v>
+        <v>0.306582</v>
       </c>
       <c r="F93" t="n">
-        <v>0.651412</v>
+        <v>0.65216</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362202</v>
+        <v>0.374556</v>
       </c>
       <c r="C94" t="n">
-        <v>0.760665</v>
+        <v>0.76357</v>
       </c>
       <c r="D94" t="n">
-        <v>1.7513</v>
+        <v>1.75983</v>
       </c>
       <c r="E94" t="n">
-        <v>0.516469</v>
+        <v>0.518307</v>
       </c>
       <c r="F94" t="n">
-        <v>1.17697</v>
+        <v>1.17514</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.588471</v>
+        <v>0.565541</v>
       </c>
       <c r="C95" t="n">
-        <v>1.19265</v>
+        <v>1.18897</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74054</v>
+        <v>1.74619</v>
       </c>
       <c r="E95" t="n">
-        <v>0.511252</v>
+        <v>0.513235</v>
       </c>
       <c r="F95" t="n">
-        <v>1.17126</v>
+        <v>1.17132</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.57092</v>
+        <v>0.562742</v>
       </c>
       <c r="C96" t="n">
-        <v>1.19159</v>
+        <v>1.19486</v>
       </c>
       <c r="D96" t="n">
-        <v>1.73773</v>
+        <v>1.73933</v>
       </c>
       <c r="E96" t="n">
-        <v>0.50079</v>
+        <v>0.500734</v>
       </c>
       <c r="F96" t="n">
-        <v>1.14439</v>
+        <v>1.15529</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.566138</v>
+        <v>0.5619690000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>1.18062</v>
+        <v>1.18429</v>
       </c>
       <c r="D97" t="n">
-        <v>1.72355</v>
+        <v>1.72984</v>
       </c>
       <c r="E97" t="n">
-        <v>0.488312</v>
+        <v>0.490063</v>
       </c>
       <c r="F97" t="n">
-        <v>1.14058</v>
+        <v>1.13931</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.547536</v>
+        <v>0.5467070000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>1.18001</v>
+        <v>1.17276</v>
       </c>
       <c r="D98" t="n">
-        <v>1.7215</v>
+        <v>1.72793</v>
       </c>
       <c r="E98" t="n">
-        <v>0.477254</v>
+        <v>0.476962</v>
       </c>
       <c r="F98" t="n">
-        <v>1.10909</v>
+        <v>1.12284</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.549177</v>
+        <v>0.539174</v>
       </c>
       <c r="C99" t="n">
-        <v>1.16722</v>
+        <v>1.15998</v>
       </c>
       <c r="D99" t="n">
-        <v>1.71639</v>
+        <v>1.72312</v>
       </c>
       <c r="E99" t="n">
-        <v>0.46616</v>
+        <v>0.465523</v>
       </c>
       <c r="F99" t="n">
-        <v>1.10006</v>
+        <v>1.09807</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.532175</v>
+        <v>0.529938</v>
       </c>
       <c r="C100" t="n">
-        <v>1.15013</v>
+        <v>1.14986</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71731</v>
+        <v>1.72362</v>
       </c>
       <c r="E100" t="n">
-        <v>0.45546</v>
+        <v>0.45596</v>
       </c>
       <c r="F100" t="n">
-        <v>1.08428</v>
+        <v>1.07301</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.516532</v>
+        <v>0.528636</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14415</v>
+        <v>1.13389</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71875</v>
+        <v>1.72382</v>
       </c>
       <c r="E101" t="n">
-        <v>0.444143</v>
+        <v>0.445347</v>
       </c>
       <c r="F101" t="n">
-        <v>1.05922</v>
+        <v>1.05096</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.516133</v>
+        <v>0.507809</v>
       </c>
       <c r="C102" t="n">
-        <v>1.10735</v>
+        <v>1.1081</v>
       </c>
       <c r="D102" t="n">
-        <v>1.73172</v>
+        <v>1.73417</v>
       </c>
       <c r="E102" t="n">
-        <v>0.43661</v>
+        <v>0.435387</v>
       </c>
       <c r="F102" t="n">
-        <v>1.03947</v>
+        <v>1.05087</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.49913</v>
+        <v>0.509134</v>
       </c>
       <c r="C103" t="n">
-        <v>1.09705</v>
+        <v>1.10167</v>
       </c>
       <c r="D103" t="n">
-        <v>1.74104</v>
+        <v>1.74086</v>
       </c>
       <c r="E103" t="n">
-        <v>0.428067</v>
+        <v>0.429372</v>
       </c>
       <c r="F103" t="n">
-        <v>1.02201</v>
+        <v>1.0359</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.495447</v>
+        <v>0.491318</v>
       </c>
       <c r="C104" t="n">
-        <v>1.08189</v>
+        <v>1.08273</v>
       </c>
       <c r="D104" t="n">
-        <v>1.75195</v>
+        <v>1.7565</v>
       </c>
       <c r="E104" t="n">
-        <v>0.422147</v>
+        <v>0.419686</v>
       </c>
       <c r="F104" t="n">
-        <v>1.01619</v>
+        <v>1.0192</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.496396</v>
+        <v>0.50539</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07285</v>
+        <v>1.06686</v>
       </c>
       <c r="D105" t="n">
-        <v>1.76284</v>
+        <v>1.76897</v>
       </c>
       <c r="E105" t="n">
-        <v>0.412904</v>
+        <v>0.414203</v>
       </c>
       <c r="F105" t="n">
-        <v>1.0071</v>
+        <v>1.00307</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.492651</v>
+        <v>0.486675</v>
       </c>
       <c r="C106" t="n">
-        <v>1.07196</v>
+        <v>1.06592</v>
       </c>
       <c r="D106" t="n">
-        <v>1.78494</v>
+        <v>1.78175</v>
       </c>
       <c r="E106" t="n">
-        <v>0.408773</v>
+        <v>0.408322</v>
       </c>
       <c r="F106" t="n">
-        <v>0.995688</v>
+        <v>0.976795</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4786</v>
+        <v>0.470093</v>
       </c>
       <c r="C107" t="n">
-        <v>1.06097</v>
+        <v>1.0674</v>
       </c>
       <c r="D107" t="n">
-        <v>2.38893</v>
+        <v>2.38853</v>
       </c>
       <c r="E107" t="n">
-        <v>0.402257</v>
+        <v>0.400149</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9870100000000001</v>
+        <v>0.992928</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.478723</v>
+        <v>0.46348</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04441</v>
+        <v>1.03576</v>
       </c>
       <c r="D108" t="n">
-        <v>2.36175</v>
+        <v>2.36313</v>
       </c>
       <c r="E108" t="n">
-        <v>0.615574</v>
+        <v>0.612074</v>
       </c>
       <c r="F108" t="n">
-        <v>2.53829</v>
+        <v>2.54026</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.488526</v>
+        <v>0.475818</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03918</v>
+        <v>1.05734</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34189</v>
+        <v>2.33259</v>
       </c>
       <c r="E109" t="n">
-        <v>0.607252</v>
+        <v>0.606268</v>
       </c>
       <c r="F109" t="n">
-        <v>2.54995</v>
+        <v>2.52115</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.699549</v>
+        <v>0.647015</v>
       </c>
       <c r="C110" t="n">
-        <v>2.7184</v>
+        <v>2.69746</v>
       </c>
       <c r="D110" t="n">
-        <v>2.32074</v>
+        <v>2.31308</v>
       </c>
       <c r="E110" t="n">
-        <v>0.596855</v>
+        <v>0.596164</v>
       </c>
       <c r="F110" t="n">
-        <v>2.54914</v>
+        <v>2.53566</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.685465</v>
+        <v>0.664391</v>
       </c>
       <c r="C111" t="n">
-        <v>2.71328</v>
+        <v>2.69352</v>
       </c>
       <c r="D111" t="n">
-        <v>2.30761</v>
+        <v>2.30102</v>
       </c>
       <c r="E111" t="n">
-        <v>0.581322</v>
+        <v>0.580351</v>
       </c>
       <c r="F111" t="n">
-        <v>2.53181</v>
+        <v>2.54431</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.676705</v>
+        <v>0.661312</v>
       </c>
       <c r="C112" t="n">
-        <v>2.6993</v>
+        <v>2.72009</v>
       </c>
       <c r="D112" t="n">
-        <v>2.29798</v>
+        <v>2.28891</v>
       </c>
       <c r="E112" t="n">
-        <v>0.529498</v>
+        <v>0.530326</v>
       </c>
       <c r="F112" t="n">
-        <v>2.56775</v>
+        <v>2.54788</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.664215</v>
+        <v>0.631778</v>
       </c>
       <c r="C113" t="n">
-        <v>2.71906</v>
+        <v>2.71999</v>
       </c>
       <c r="D113" t="n">
-        <v>2.2775</v>
+        <v>2.27878</v>
       </c>
       <c r="E113" t="n">
-        <v>0.558235</v>
+        <v>0.5570310000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>2.55304</v>
+        <v>2.5447</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.601447</v>
+        <v>0.621955</v>
       </c>
       <c r="C114" t="n">
-        <v>2.70862</v>
+        <v>2.70205</v>
       </c>
       <c r="D114" t="n">
-        <v>2.30452</v>
+        <v>2.31858</v>
       </c>
       <c r="E114" t="n">
-        <v>0.546743</v>
+        <v>0.51124</v>
       </c>
       <c r="F114" t="n">
-        <v>2.55681</v>
+        <v>2.53983</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.636686</v>
+        <v>0.639213</v>
       </c>
       <c r="C115" t="n">
-        <v>2.72122</v>
+        <v>2.70392</v>
       </c>
       <c r="D115" t="n">
-        <v>2.30658</v>
+        <v>2.30896</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5376069999999999</v>
+        <v>0.534103</v>
       </c>
       <c r="F115" t="n">
-        <v>2.55142</v>
+        <v>2.55471</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.598355</v>
+        <v>0.622656</v>
       </c>
       <c r="C116" t="n">
-        <v>2.68889</v>
+        <v>2.69373</v>
       </c>
       <c r="D116" t="n">
-        <v>2.31412</v>
+        <v>2.29548</v>
       </c>
       <c r="E116" t="n">
-        <v>0.529456</v>
+        <v>0.5268389999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>2.53985</v>
+        <v>2.54903</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.592303</v>
+        <v>0.598006</v>
       </c>
       <c r="C117" t="n">
-        <v>2.70939</v>
+        <v>2.71102</v>
       </c>
       <c r="D117" t="n">
-        <v>2.31288</v>
+        <v>2.31538</v>
       </c>
       <c r="E117" t="n">
-        <v>0.51448</v>
+        <v>0.518974</v>
       </c>
       <c r="F117" t="n">
-        <v>2.5514</v>
+        <v>2.55456</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.599073</v>
+        <v>0.60712</v>
       </c>
       <c r="C118" t="n">
-        <v>2.71178</v>
+        <v>2.7157</v>
       </c>
       <c r="D118" t="n">
-        <v>2.26051</v>
+        <v>2.26048</v>
       </c>
       <c r="E118" t="n">
-        <v>0.474667</v>
+        <v>0.474746</v>
       </c>
       <c r="F118" t="n">
-        <v>2.35481</v>
+        <v>2.34795</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.585513</v>
+        <v>0.593029</v>
       </c>
       <c r="C119" t="n">
-        <v>2.72157</v>
+        <v>2.71839</v>
       </c>
       <c r="D119" t="n">
-        <v>2.27306</v>
+        <v>2.26704</v>
       </c>
       <c r="E119" t="n">
-        <v>0.470173</v>
+        <v>0.471216</v>
       </c>
       <c r="F119" t="n">
-        <v>1.69036</v>
+        <v>1.48076</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.589077</v>
+        <v>0.587898</v>
       </c>
       <c r="C120" t="n">
-        <v>2.71746</v>
+        <v>2.71648</v>
       </c>
       <c r="D120" t="n">
-        <v>2.28704</v>
+        <v>2.27955</v>
       </c>
       <c r="E120" t="n">
-        <v>0.464391</v>
+        <v>0.463881</v>
       </c>
       <c r="F120" t="n">
-        <v>2.56644</v>
+        <v>2.36314</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.559943</v>
+        <v>0.5869799999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>2.50217</v>
+        <v>2.71356</v>
       </c>
       <c r="D121" t="n">
-        <v>2.94321</v>
+        <v>2.94963</v>
       </c>
       <c r="E121" t="n">
-        <v>0.459464</v>
+        <v>0.460272</v>
       </c>
       <c r="F121" t="n">
-        <v>2.13056</v>
+        <v>1.90443</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.550117</v>
+        <v>0.569793</v>
       </c>
       <c r="C122" t="n">
-        <v>2.7086</v>
+        <v>2.71406</v>
       </c>
       <c r="D122" t="n">
-        <v>2.89141</v>
+        <v>2.89264</v>
       </c>
       <c r="E122" t="n">
-        <v>0.455329</v>
+        <v>0.45692</v>
       </c>
       <c r="F122" t="n">
-        <v>1.90506</v>
+        <v>2.11764</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.552412</v>
+        <v>0.560206</v>
       </c>
       <c r="C123" t="n">
-        <v>2.71817</v>
+        <v>2.71513</v>
       </c>
       <c r="D123" t="n">
-        <v>2.85553</v>
+        <v>2.84967</v>
       </c>
       <c r="E123" t="n">
-        <v>0.664272</v>
+        <v>0.662682</v>
       </c>
       <c r="F123" t="n">
-        <v>3.08643</v>
+        <v>3.08038</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.777213</v>
+        <v>0.770884</v>
       </c>
       <c r="C124" t="n">
-        <v>3.30632</v>
+        <v>3.31422</v>
       </c>
       <c r="D124" t="n">
-        <v>2.82712</v>
+        <v>2.83062</v>
       </c>
       <c r="E124" t="n">
-        <v>0.656948</v>
+        <v>0.657269</v>
       </c>
       <c r="F124" t="n">
-        <v>3.08043</v>
+        <v>3.08202</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.763096</v>
+        <v>0.747279</v>
       </c>
       <c r="C125" t="n">
-        <v>3.29619</v>
+        <v>3.30822</v>
       </c>
       <c r="D125" t="n">
-        <v>2.80748</v>
+        <v>2.80148</v>
       </c>
       <c r="E125" t="n">
-        <v>0.647887</v>
+        <v>0.6417620000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>3.0838</v>
+        <v>3.07459</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.749718</v>
+        <v>0.755561</v>
       </c>
       <c r="C126" t="n">
-        <v>3.28132</v>
+        <v>3.27189</v>
       </c>
       <c r="D126" t="n">
-        <v>2.77994</v>
+        <v>2.77736</v>
       </c>
       <c r="E126" t="n">
-        <v>0.639425</v>
+        <v>0.641834</v>
       </c>
       <c r="F126" t="n">
-        <v>3.05643</v>
+        <v>3.08207</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.732436</v>
+        <v>0.730599</v>
       </c>
       <c r="C127" t="n">
-        <v>3.25947</v>
+        <v>3.2817</v>
       </c>
       <c r="D127" t="n">
-        <v>2.75806</v>
+        <v>2.75783</v>
       </c>
       <c r="E127" t="n">
-        <v>0.630023</v>
+        <v>0.656809</v>
       </c>
       <c r="F127" t="n">
-        <v>3.07108</v>
+        <v>3.0622</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.730689</v>
+        <v>0.717857</v>
       </c>
       <c r="C128" t="n">
-        <v>3.26205</v>
+        <v>3.25946</v>
       </c>
       <c r="D128" t="n">
-        <v>2.73833</v>
+        <v>2.73929</v>
       </c>
       <c r="E128" t="n">
-        <v>0.624314</v>
+        <v>0.620799</v>
       </c>
       <c r="F128" t="n">
-        <v>3.05715</v>
+        <v>3.05572</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.708765</v>
+        <v>0.702744</v>
       </c>
       <c r="C129" t="n">
-        <v>3.2465</v>
+        <v>3.24061</v>
       </c>
       <c r="D129" t="n">
-        <v>2.71507</v>
+        <v>2.71919</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6162879999999999</v>
+        <v>0.619696</v>
       </c>
       <c r="F129" t="n">
-        <v>3.03309</v>
+        <v>3.0437</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.710054</v>
+        <v>0.705408</v>
       </c>
       <c r="C130" t="n">
-        <v>3.23241</v>
+        <v>3.23887</v>
       </c>
       <c r="D130" t="n">
-        <v>2.70901</v>
+        <v>2.70763</v>
       </c>
       <c r="E130" t="n">
-        <v>0.611901</v>
+        <v>0.63278</v>
       </c>
       <c r="F130" t="n">
-        <v>3.04353</v>
+        <v>3.02769</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.694828</v>
+        <v>0.69689</v>
       </c>
       <c r="C131" t="n">
-        <v>3.2196</v>
+        <v>3.21384</v>
       </c>
       <c r="D131" t="n">
-        <v>2.69885</v>
+        <v>2.70038</v>
       </c>
       <c r="E131" t="n">
-        <v>0.595957</v>
+        <v>0.606562</v>
       </c>
       <c r="F131" t="n">
-        <v>3.03288</v>
+        <v>3.04671</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.67848</v>
+        <v>0.685368</v>
       </c>
       <c r="C132" t="n">
-        <v>3.20903</v>
+        <v>3.2254</v>
       </c>
       <c r="D132" t="n">
-        <v>2.69563</v>
+        <v>2.68883</v>
       </c>
       <c r="E132" t="n">
-        <v>0.601133</v>
+        <v>0.603448</v>
       </c>
       <c r="F132" t="n">
-        <v>3.03943</v>
+        <v>3.04133</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.678498</v>
+        <v>0.680949</v>
       </c>
       <c r="C133" t="n">
-        <v>3.21749</v>
+        <v>3.21936</v>
       </c>
       <c r="D133" t="n">
-        <v>2.68959</v>
+        <v>2.69481</v>
       </c>
       <c r="E133" t="n">
-        <v>0.596231</v>
+        <v>0.59341</v>
       </c>
       <c r="F133" t="n">
-        <v>3.0417</v>
+        <v>3.04261</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.670399</v>
+        <v>0.672725</v>
       </c>
       <c r="C134" t="n">
-        <v>3.21505</v>
+        <v>3.21074</v>
       </c>
       <c r="D134" t="n">
-        <v>2.67145</v>
+        <v>2.66795</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5808680000000001</v>
+        <v>0.56387</v>
       </c>
       <c r="F134" t="n">
-        <v>3.0303</v>
+        <v>3.02511</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.660314</v>
+        <v>0.673034</v>
       </c>
       <c r="C135" t="n">
-        <v>3.20917</v>
+        <v>3.19175</v>
       </c>
       <c r="D135" t="n">
-        <v>3.37545</v>
+        <v>3.36936</v>
       </c>
       <c r="E135" t="n">
-        <v>0.575793</v>
+        <v>0.5626</v>
       </c>
       <c r="F135" t="n">
-        <v>3.02603</v>
+        <v>2.7959</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.662581</v>
+        <v>0.65162</v>
       </c>
       <c r="C136" t="n">
-        <v>3.19898</v>
+        <v>3.19855</v>
       </c>
       <c r="D136" t="n">
-        <v>3.30305</v>
+        <v>3.30822</v>
       </c>
       <c r="E136" t="n">
-        <v>0.559688</v>
+        <v>0.556095</v>
       </c>
       <c r="F136" t="n">
-        <v>3.02893</v>
+        <v>2.79206</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.653857</v>
+        <v>0.641572</v>
       </c>
       <c r="C137" t="n">
-        <v>3.19654</v>
+        <v>3.18652</v>
       </c>
       <c r="D137" t="n">
-        <v>3.25366</v>
+        <v>3.2549</v>
       </c>
       <c r="E137" t="n">
-        <v>0.765158</v>
+        <v>0.765055</v>
       </c>
       <c r="F137" t="n">
-        <v>3.55267</v>
+        <v>3.54436</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.857063</v>
+        <v>0.848383</v>
       </c>
       <c r="C138" t="n">
-        <v>3.7735</v>
+        <v>3.77841</v>
       </c>
       <c r="D138" t="n">
-        <v>3.20376</v>
+        <v>3.20943</v>
       </c>
       <c r="E138" t="n">
-        <v>0.756687</v>
+        <v>0.755395</v>
       </c>
       <c r="F138" t="n">
-        <v>3.52623</v>
+        <v>3.53537</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.854042</v>
+        <v>0.839803</v>
       </c>
       <c r="C139" t="n">
-        <v>3.75197</v>
+        <v>3.74702</v>
       </c>
       <c r="D139" t="n">
-        <v>3.1742</v>
+        <v>3.16653</v>
       </c>
       <c r="E139" t="n">
-        <v>0.751266</v>
+        <v>0.749345</v>
       </c>
       <c r="F139" t="n">
-        <v>3.50919</v>
+        <v>3.50692</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8335669999999999</v>
+        <v>0.803063</v>
       </c>
       <c r="C140" t="n">
-        <v>3.71964</v>
+        <v>3.71687</v>
       </c>
       <c r="D140" t="n">
-        <v>3.13638</v>
+        <v>3.13089</v>
       </c>
       <c r="E140" t="n">
-        <v>0.762511</v>
+        <v>0.768993</v>
       </c>
       <c r="F140" t="n">
-        <v>3.49419</v>
+        <v>3.49027</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.785798</v>
+        <v>0.812855</v>
       </c>
       <c r="C141" t="n">
-        <v>3.69549</v>
+        <v>3.68316</v>
       </c>
       <c r="D141" t="n">
-        <v>3.10639</v>
+        <v>3.10018</v>
       </c>
       <c r="E141" t="n">
-        <v>0.760081</v>
+        <v>0.734564</v>
       </c>
       <c r="F141" t="n">
-        <v>3.46885</v>
+        <v>3.4716</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.799011</v>
+        <v>0.7905180000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>3.67762</v>
+        <v>3.67384</v>
       </c>
       <c r="D142" t="n">
-        <v>3.07383</v>
+        <v>3.08158</v>
       </c>
       <c r="E142" t="n">
-        <v>0.745205</v>
+        <v>0.733309</v>
       </c>
       <c r="F142" t="n">
-        <v>3.44431</v>
+        <v>3.45097</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.798783</v>
+        <v>0.78671</v>
       </c>
       <c r="C143" t="n">
-        <v>3.63571</v>
+        <v>3.65181</v>
       </c>
       <c r="D143" t="n">
-        <v>3.05396</v>
+        <v>3.05984</v>
       </c>
       <c r="E143" t="n">
-        <v>0.748201</v>
+        <v>0.730495</v>
       </c>
       <c r="F143" t="n">
-        <v>3.42669</v>
+        <v>3.42327</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244292</v>
+        <v>0.246856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.424363</v>
+        <v>0.424051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.561227</v>
+        <v>0.568573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.207353</v>
+        <v>0.205901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.394155</v>
+        <v>0.394219</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.236767</v>
+        <v>0.237325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417622</v>
+        <v>0.41663</v>
       </c>
       <c r="D3" t="n">
-        <v>0.550296</v>
+        <v>0.562246</v>
       </c>
       <c r="E3" t="n">
-        <v>0.203161</v>
+        <v>0.200198</v>
       </c>
       <c r="F3" t="n">
-        <v>0.389315</v>
+        <v>0.388598</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233132</v>
+        <v>0.232164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.41087</v>
+        <v>0.413295</v>
       </c>
       <c r="D4" t="n">
-        <v>0.542668</v>
+        <v>0.556767</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196963</v>
+        <v>0.195999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.383467</v>
+        <v>0.38392</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227277</v>
+        <v>0.231458</v>
       </c>
       <c r="C5" t="n">
-        <v>0.405296</v>
+        <v>0.406191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.537043</v>
+        <v>0.551955</v>
       </c>
       <c r="E5" t="n">
-        <v>0.193117</v>
+        <v>0.191366</v>
       </c>
       <c r="F5" t="n">
-        <v>0.378727</v>
+        <v>0.380331</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223103</v>
+        <v>0.22722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40095</v>
+        <v>0.402455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530756</v>
+        <v>0.548187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.189704</v>
+        <v>0.187927</v>
       </c>
       <c r="F6" t="n">
-        <v>0.376751</v>
+        <v>0.380342</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218761</v>
+        <v>0.221104</v>
       </c>
       <c r="C7" t="n">
-        <v>0.396241</v>
+        <v>0.400296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.684294</v>
+        <v>0.702047</v>
       </c>
       <c r="E7" t="n">
-        <v>0.187164</v>
+        <v>0.18548</v>
       </c>
       <c r="F7" t="n">
-        <v>0.374287</v>
+        <v>0.376485</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214495</v>
+        <v>0.217818</v>
       </c>
       <c r="C8" t="n">
-        <v>0.393973</v>
+        <v>0.400254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.66935</v>
+        <v>0.688075</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187894</v>
+        <v>0.185722</v>
       </c>
       <c r="F8" t="n">
-        <v>0.374537</v>
+        <v>0.377076</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.214062</v>
+        <v>0.218432</v>
       </c>
       <c r="C9" t="n">
-        <v>0.394172</v>
+        <v>0.398941</v>
       </c>
       <c r="D9" t="n">
-        <v>0.655898</v>
+        <v>0.674545</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278186</v>
+        <v>0.275502</v>
       </c>
       <c r="F9" t="n">
-        <v>0.456288</v>
+        <v>0.45931</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.307886</v>
+        <v>0.316005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.486518</v>
+        <v>0.494402</v>
       </c>
       <c r="D10" t="n">
-        <v>0.644104</v>
+        <v>0.663671</v>
       </c>
       <c r="E10" t="n">
-        <v>0.266144</v>
+        <v>0.266857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.446192</v>
+        <v>0.449916</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298338</v>
+        <v>0.30744</v>
       </c>
       <c r="C11" t="n">
-        <v>0.477091</v>
+        <v>0.481931</v>
       </c>
       <c r="D11" t="n">
-        <v>0.634605</v>
+        <v>0.651545</v>
       </c>
       <c r="E11" t="n">
-        <v>0.257926</v>
+        <v>0.257365</v>
       </c>
       <c r="F11" t="n">
-        <v>0.436225</v>
+        <v>0.437264</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287475</v>
+        <v>0.296181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.465885</v>
+        <v>0.470584</v>
       </c>
       <c r="D12" t="n">
-        <v>0.624591</v>
+        <v>0.640933</v>
       </c>
       <c r="E12" t="n">
-        <v>0.249413</v>
+        <v>0.24891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.426444</v>
+        <v>0.428192</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.284026</v>
+        <v>0.28584</v>
       </c>
       <c r="C13" t="n">
-        <v>0.455188</v>
+        <v>0.460768</v>
       </c>
       <c r="D13" t="n">
-        <v>0.616052</v>
+        <v>0.632549</v>
       </c>
       <c r="E13" t="n">
-        <v>0.242227</v>
+        <v>0.241592</v>
       </c>
       <c r="F13" t="n">
-        <v>0.418613</v>
+        <v>0.419429</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272302</v>
+        <v>0.280525</v>
       </c>
       <c r="C14" t="n">
-        <v>0.445927</v>
+        <v>0.451731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.60759</v>
+        <v>0.623162</v>
       </c>
       <c r="E14" t="n">
-        <v>0.234769</v>
+        <v>0.234074</v>
       </c>
       <c r="F14" t="n">
-        <v>0.410584</v>
+        <v>0.411481</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.268279</v>
+        <v>0.272656</v>
       </c>
       <c r="C15" t="n">
-        <v>0.437573</v>
+        <v>0.443211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.600643</v>
+        <v>0.615816</v>
       </c>
       <c r="E15" t="n">
-        <v>0.230845</v>
+        <v>0.227288</v>
       </c>
       <c r="F15" t="n">
-        <v>0.403564</v>
+        <v>0.404889</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.253572</v>
+        <v>0.258819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.430387</v>
+        <v>0.435812</v>
       </c>
       <c r="D16" t="n">
-        <v>0.594241</v>
+        <v>0.609959</v>
       </c>
       <c r="E16" t="n">
-        <v>0.224709</v>
+        <v>0.221229</v>
       </c>
       <c r="F16" t="n">
-        <v>0.397373</v>
+        <v>0.399352</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.24923</v>
+        <v>0.252411</v>
       </c>
       <c r="C17" t="n">
-        <v>0.42572</v>
+        <v>0.429902</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588202</v>
+        <v>0.604422</v>
       </c>
       <c r="E17" t="n">
-        <v>0.216758</v>
+        <v>0.215137</v>
       </c>
       <c r="F17" t="n">
-        <v>0.391055</v>
+        <v>0.394369</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244893</v>
+        <v>0.252341</v>
       </c>
       <c r="C18" t="n">
-        <v>0.419878</v>
+        <v>0.423581</v>
       </c>
       <c r="D18" t="n">
-        <v>0.583755</v>
+        <v>0.598074</v>
       </c>
       <c r="E18" t="n">
-        <v>0.211936</v>
+        <v>0.21006</v>
       </c>
       <c r="F18" t="n">
-        <v>0.386235</v>
+        <v>0.388985</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.240937</v>
+        <v>0.241351</v>
       </c>
       <c r="C19" t="n">
-        <v>0.413228</v>
+        <v>0.417354</v>
       </c>
       <c r="D19" t="n">
-        <v>0.579857</v>
+        <v>0.594882</v>
       </c>
       <c r="E19" t="n">
-        <v>0.207426</v>
+        <v>0.205404</v>
       </c>
       <c r="F19" t="n">
-        <v>0.380064</v>
+        <v>0.38098</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231533</v>
+        <v>0.243433</v>
       </c>
       <c r="C20" t="n">
-        <v>0.409673</v>
+        <v>0.412803</v>
       </c>
       <c r="D20" t="n">
-        <v>0.576006</v>
+        <v>0.591164</v>
       </c>
       <c r="E20" t="n">
-        <v>0.204542</v>
+        <v>0.20226</v>
       </c>
       <c r="F20" t="n">
-        <v>0.376981</v>
+        <v>0.37839</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230835</v>
+        <v>0.236483</v>
       </c>
       <c r="C21" t="n">
-        <v>0.40664</v>
+        <v>0.406086</v>
       </c>
       <c r="D21" t="n">
-        <v>0.751715</v>
+        <v>0.766556</v>
       </c>
       <c r="E21" t="n">
-        <v>0.203016</v>
+        <v>0.200856</v>
       </c>
       <c r="F21" t="n">
-        <v>0.375407</v>
+        <v>0.37859</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.231313</v>
+        <v>0.227077</v>
       </c>
       <c r="C22" t="n">
-        <v>0.402854</v>
+        <v>0.40584</v>
       </c>
       <c r="D22" t="n">
-        <v>0.736899</v>
+        <v>0.750507</v>
       </c>
       <c r="E22" t="n">
-        <v>0.203334</v>
+        <v>0.200873</v>
       </c>
       <c r="F22" t="n">
-        <v>0.376461</v>
+        <v>0.377757</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.231907</v>
+        <v>0.228723</v>
       </c>
       <c r="C23" t="n">
-        <v>0.402424</v>
+        <v>0.404434</v>
       </c>
       <c r="D23" t="n">
-        <v>0.722147</v>
+        <v>0.736537</v>
       </c>
       <c r="E23" t="n">
-        <v>0.295567</v>
+        <v>0.294977</v>
       </c>
       <c r="F23" t="n">
-        <v>0.463472</v>
+        <v>0.464665</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.313462</v>
+        <v>0.318993</v>
       </c>
       <c r="C24" t="n">
-        <v>0.506638</v>
+        <v>0.510623</v>
       </c>
       <c r="D24" t="n">
-        <v>0.710108</v>
+        <v>0.723762</v>
       </c>
       <c r="E24" t="n">
-        <v>0.283077</v>
+        <v>0.283213</v>
       </c>
       <c r="F24" t="n">
-        <v>0.45282</v>
+        <v>0.454509</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303647</v>
+        <v>0.312017</v>
       </c>
       <c r="C25" t="n">
-        <v>0.496063</v>
+        <v>0.497807</v>
       </c>
       <c r="D25" t="n">
-        <v>0.698102</v>
+        <v>0.711948</v>
       </c>
       <c r="E25" t="n">
-        <v>0.280273</v>
+        <v>0.273757</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441786</v>
+        <v>0.446056</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298092</v>
+        <v>0.303589</v>
       </c>
       <c r="C26" t="n">
-        <v>0.480523</v>
+        <v>0.483099</v>
       </c>
       <c r="D26" t="n">
-        <v>0.685289</v>
+        <v>0.699904</v>
       </c>
       <c r="E26" t="n">
-        <v>0.265583</v>
+        <v>0.264864</v>
       </c>
       <c r="F26" t="n">
-        <v>0.433085</v>
+        <v>0.435695</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.289677</v>
+        <v>0.290127</v>
       </c>
       <c r="C27" t="n">
-        <v>0.470105</v>
+        <v>0.47632</v>
       </c>
       <c r="D27" t="n">
-        <v>0.676947</v>
+        <v>0.690094</v>
       </c>
       <c r="E27" t="n">
-        <v>0.257872</v>
+        <v>0.256772</v>
       </c>
       <c r="F27" t="n">
-        <v>0.424593</v>
+        <v>0.427644</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277839</v>
+        <v>0.284106</v>
       </c>
       <c r="C28" t="n">
-        <v>0.459332</v>
+        <v>0.466165</v>
       </c>
       <c r="D28" t="n">
-        <v>0.667605</v>
+        <v>0.6814249999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.249875</v>
+        <v>0.248937</v>
       </c>
       <c r="F28" t="n">
-        <v>0.415942</v>
+        <v>0.418286</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268587</v>
+        <v>0.278612</v>
       </c>
       <c r="C29" t="n">
-        <v>0.451074</v>
+        <v>0.457675</v>
       </c>
       <c r="D29" t="n">
-        <v>0.660498</v>
+        <v>0.672839</v>
       </c>
       <c r="E29" t="n">
-        <v>0.244323</v>
+        <v>0.240793</v>
       </c>
       <c r="F29" t="n">
-        <v>0.408919</v>
+        <v>0.411769</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.265566</v>
+        <v>0.267295</v>
       </c>
       <c r="C30" t="n">
-        <v>0.443691</v>
+        <v>0.451396</v>
       </c>
       <c r="D30" t="n">
-        <v>0.651903</v>
+        <v>0.664819</v>
       </c>
       <c r="E30" t="n">
-        <v>0.235681</v>
+        <v>0.234367</v>
       </c>
       <c r="F30" t="n">
-        <v>0.402385</v>
+        <v>0.405609</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.259852</v>
+        <v>0.260998</v>
       </c>
       <c r="C31" t="n">
-        <v>0.437968</v>
+        <v>0.44182</v>
       </c>
       <c r="D31" t="n">
-        <v>0.645725</v>
+        <v>0.658946</v>
       </c>
       <c r="E31" t="n">
-        <v>0.231263</v>
+        <v>0.228295</v>
       </c>
       <c r="F31" t="n">
-        <v>0.396638</v>
+        <v>0.400037</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249017</v>
+        <v>0.254325</v>
       </c>
       <c r="C32" t="n">
-        <v>0.433123</v>
+        <v>0.436282</v>
       </c>
       <c r="D32" t="n">
-        <v>0.640561</v>
+        <v>0.65359</v>
       </c>
       <c r="E32" t="n">
-        <v>0.226467</v>
+        <v>0.222566</v>
       </c>
       <c r="F32" t="n">
-        <v>0.391024</v>
+        <v>0.394886</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245259</v>
+        <v>0.252592</v>
       </c>
       <c r="C33" t="n">
-        <v>0.427856</v>
+        <v>0.430458</v>
       </c>
       <c r="D33" t="n">
-        <v>0.635297</v>
+        <v>0.648741</v>
       </c>
       <c r="E33" t="n">
-        <v>0.220631</v>
+        <v>0.217406</v>
       </c>
       <c r="F33" t="n">
-        <v>0.386905</v>
+        <v>0.391949</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236486</v>
+        <v>0.243314</v>
       </c>
       <c r="C34" t="n">
-        <v>0.41994</v>
+        <v>0.425608</v>
       </c>
       <c r="D34" t="n">
-        <v>0.630717</v>
+        <v>0.644162</v>
       </c>
       <c r="E34" t="n">
-        <v>0.216366</v>
+        <v>0.213497</v>
       </c>
       <c r="F34" t="n">
-        <v>0.384859</v>
+        <v>0.388195</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234629</v>
+        <v>0.238646</v>
       </c>
       <c r="C35" t="n">
-        <v>0.417936</v>
+        <v>0.419309</v>
       </c>
       <c r="D35" t="n">
-        <v>0.816063</v>
+        <v>0.826983</v>
       </c>
       <c r="E35" t="n">
-        <v>0.215706</v>
+        <v>0.210939</v>
       </c>
       <c r="F35" t="n">
-        <v>0.381276</v>
+        <v>0.385089</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231348</v>
+        <v>0.235117</v>
       </c>
       <c r="C36" t="n">
-        <v>0.415811</v>
+        <v>0.415872</v>
       </c>
       <c r="D36" t="n">
-        <v>0.798146</v>
+        <v>0.809766</v>
       </c>
       <c r="E36" t="n">
-        <v>0.21307</v>
+        <v>0.209647</v>
       </c>
       <c r="F36" t="n">
-        <v>0.380891</v>
+        <v>0.387064</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230785</v>
+        <v>0.232478</v>
       </c>
       <c r="C37" t="n">
-        <v>0.413121</v>
+        <v>0.414804</v>
       </c>
       <c r="D37" t="n">
-        <v>0.781922</v>
+        <v>0.794051</v>
       </c>
       <c r="E37" t="n">
-        <v>0.306141</v>
+        <v>0.303107</v>
       </c>
       <c r="F37" t="n">
-        <v>0.471855</v>
+        <v>0.479433</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319088</v>
+        <v>0.321776</v>
       </c>
       <c r="C38" t="n">
-        <v>0.516323</v>
+        <v>0.520767</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7681750000000001</v>
+        <v>0.779875</v>
       </c>
       <c r="E38" t="n">
-        <v>0.294446</v>
+        <v>0.293232</v>
       </c>
       <c r="F38" t="n">
-        <v>0.461761</v>
+        <v>0.468637</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.309605</v>
+        <v>0.31387</v>
       </c>
       <c r="C39" t="n">
-        <v>0.507223</v>
+        <v>0.511356</v>
       </c>
       <c r="D39" t="n">
-        <v>0.754735</v>
+        <v>0.7659589999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.286918</v>
+        <v>0.283437</v>
       </c>
       <c r="F39" t="n">
-        <v>0.452632</v>
+        <v>0.458791</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.298642</v>
+        <v>0.304669</v>
       </c>
       <c r="C40" t="n">
-        <v>0.496122</v>
+        <v>0.501508</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7413</v>
+        <v>0.753097</v>
       </c>
       <c r="E40" t="n">
-        <v>0.277306</v>
+        <v>0.274817</v>
       </c>
       <c r="F40" t="n">
-        <v>0.445945</v>
+        <v>0.447738</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.292588</v>
+        <v>0.297114</v>
       </c>
       <c r="C41" t="n">
-        <v>0.485752</v>
+        <v>0.492201</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7294850000000001</v>
+        <v>0.74176</v>
       </c>
       <c r="E41" t="n">
-        <v>0.269249</v>
+        <v>0.266156</v>
       </c>
       <c r="F41" t="n">
-        <v>0.435563</v>
+        <v>0.440294</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284071</v>
+        <v>0.291153</v>
       </c>
       <c r="C42" t="n">
-        <v>0.477103</v>
+        <v>0.482978</v>
       </c>
       <c r="D42" t="n">
-        <v>0.719475</v>
+        <v>0.731464</v>
       </c>
       <c r="E42" t="n">
-        <v>0.261235</v>
+        <v>0.258583</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427436</v>
+        <v>0.431237</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.280611</v>
+        <v>0.281472</v>
       </c>
       <c r="C43" t="n">
-        <v>0.468521</v>
+        <v>0.474189</v>
       </c>
       <c r="D43" t="n">
-        <v>0.708938</v>
+        <v>0.721699</v>
       </c>
       <c r="E43" t="n">
-        <v>0.256608</v>
+        <v>0.25054</v>
       </c>
       <c r="F43" t="n">
-        <v>0.419994</v>
+        <v>0.422231</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.270394</v>
+        <v>0.272064</v>
       </c>
       <c r="C44" t="n">
-        <v>0.459951</v>
+        <v>0.462529</v>
       </c>
       <c r="D44" t="n">
-        <v>0.701298</v>
+        <v>0.7122579999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.247164</v>
+        <v>0.241068</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4122</v>
+        <v>0.415256</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261715</v>
+        <v>0.265066</v>
       </c>
       <c r="C45" t="n">
-        <v>0.453737</v>
+        <v>0.458329</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6934129999999999</v>
+        <v>0.706359</v>
       </c>
       <c r="E45" t="n">
-        <v>0.241122</v>
+        <v>0.236713</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405682</v>
+        <v>0.408138</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.266527</v>
+        <v>0.257686</v>
       </c>
       <c r="C46" t="n">
-        <v>0.447569</v>
+        <v>0.449294</v>
       </c>
       <c r="D46" t="n">
-        <v>0.687068</v>
+        <v>0.700006</v>
       </c>
       <c r="E46" t="n">
-        <v>0.235296</v>
+        <v>0.231961</v>
       </c>
       <c r="F46" t="n">
-        <v>0.400673</v>
+        <v>0.40373</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.253087</v>
+        <v>0.260518</v>
       </c>
       <c r="C47" t="n">
-        <v>0.438965</v>
+        <v>0.446014</v>
       </c>
       <c r="D47" t="n">
-        <v>0.681023</v>
+        <v>0.694534</v>
       </c>
       <c r="E47" t="n">
-        <v>0.230481</v>
+        <v>0.226623</v>
       </c>
       <c r="F47" t="n">
-        <v>0.396986</v>
+        <v>0.398963</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.248812</v>
+        <v>0.253254</v>
       </c>
       <c r="C48" t="n">
-        <v>0.43424</v>
+        <v>0.43897</v>
       </c>
       <c r="D48" t="n">
-        <v>0.676353</v>
+        <v>0.687956</v>
       </c>
       <c r="E48" t="n">
-        <v>0.227475</v>
+        <v>0.219711</v>
       </c>
       <c r="F48" t="n">
-        <v>0.393759</v>
+        <v>0.394372</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240139</v>
+        <v>0.248351</v>
       </c>
       <c r="C49" t="n">
-        <v>0.427876</v>
+        <v>0.436081</v>
       </c>
       <c r="D49" t="n">
-        <v>0.671336</v>
+        <v>0.684797</v>
       </c>
       <c r="E49" t="n">
-        <v>0.224104</v>
+        <v>0.218472</v>
       </c>
       <c r="F49" t="n">
-        <v>0.392208</v>
+        <v>0.393893</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238977</v>
+        <v>0.245429</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425112</v>
+        <v>0.431707</v>
       </c>
       <c r="D50" t="n">
-        <v>0.850264</v>
+        <v>0.859313</v>
       </c>
       <c r="E50" t="n">
-        <v>0.220907</v>
+        <v>0.216847</v>
       </c>
       <c r="F50" t="n">
-        <v>0.392183</v>
+        <v>0.393285</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.240707</v>
+        <v>0.240606</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422937</v>
+        <v>0.427539</v>
       </c>
       <c r="D51" t="n">
-        <v>0.832418</v>
+        <v>0.841012</v>
       </c>
       <c r="E51" t="n">
-        <v>0.319134</v>
+        <v>0.315139</v>
       </c>
       <c r="F51" t="n">
-        <v>0.485913</v>
+        <v>0.488219</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.241151</v>
+        <v>0.239751</v>
       </c>
       <c r="C52" t="n">
-        <v>0.423319</v>
+        <v>0.429355</v>
       </c>
       <c r="D52" t="n">
-        <v>0.81517</v>
+        <v>0.8246559999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.311243</v>
+        <v>0.306706</v>
       </c>
       <c r="F52" t="n">
-        <v>0.476018</v>
+        <v>0.479049</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.323968</v>
+        <v>0.328829</v>
       </c>
       <c r="C53" t="n">
-        <v>0.523164</v>
+        <v>0.524516</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799978</v>
+        <v>0.809706</v>
       </c>
       <c r="E53" t="n">
-        <v>0.301179</v>
+        <v>0.296777</v>
       </c>
       <c r="F53" t="n">
-        <v>0.467929</v>
+        <v>0.469166</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.319873</v>
+        <v>0.323949</v>
       </c>
       <c r="C54" t="n">
-        <v>0.510126</v>
+        <v>0.514341</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7847769999999999</v>
+        <v>0.795343</v>
       </c>
       <c r="E54" t="n">
-        <v>0.292474</v>
+        <v>0.288217</v>
       </c>
       <c r="F54" t="n">
-        <v>0.457524</v>
+        <v>0.460438</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.30757</v>
+        <v>0.310021</v>
       </c>
       <c r="C55" t="n">
-        <v>0.500376</v>
+        <v>0.505927</v>
       </c>
       <c r="D55" t="n">
-        <v>0.772531</v>
+        <v>0.782806</v>
       </c>
       <c r="E55" t="n">
-        <v>0.285609</v>
+        <v>0.281514</v>
       </c>
       <c r="F55" t="n">
-        <v>0.447608</v>
+        <v>0.451809</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.295707</v>
+        <v>0.304011</v>
       </c>
       <c r="C56" t="n">
-        <v>0.49268</v>
+        <v>0.498666</v>
       </c>
       <c r="D56" t="n">
-        <v>0.760581</v>
+        <v>0.771157</v>
       </c>
       <c r="E56" t="n">
-        <v>0.277267</v>
+        <v>0.271593</v>
       </c>
       <c r="F56" t="n">
-        <v>0.440173</v>
+        <v>0.44465</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287858</v>
+        <v>0.290984</v>
       </c>
       <c r="C57" t="n">
-        <v>0.483452</v>
+        <v>0.48977</v>
       </c>
       <c r="D57" t="n">
-        <v>0.750173</v>
+        <v>0.759707</v>
       </c>
       <c r="E57" t="n">
-        <v>0.269951</v>
+        <v>0.263908</v>
       </c>
       <c r="F57" t="n">
-        <v>0.433097</v>
+        <v>0.437028</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.286103</v>
+        <v>0.286842</v>
       </c>
       <c r="C58" t="n">
-        <v>0.47616</v>
+        <v>0.482555</v>
       </c>
       <c r="D58" t="n">
-        <v>0.740495</v>
+        <v>0.750373</v>
       </c>
       <c r="E58" t="n">
-        <v>0.264207</v>
+        <v>0.257658</v>
       </c>
       <c r="F58" t="n">
-        <v>0.426504</v>
+        <v>0.430676</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273322</v>
+        <v>0.280545</v>
       </c>
       <c r="C59" t="n">
-        <v>0.469863</v>
+        <v>0.473135</v>
       </c>
       <c r="D59" t="n">
-        <v>0.731702</v>
+        <v>0.741833</v>
       </c>
       <c r="E59" t="n">
-        <v>0.258787</v>
+        <v>0.25122</v>
       </c>
       <c r="F59" t="n">
-        <v>0.421264</v>
+        <v>0.424382</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.269413</v>
+        <v>0.270331</v>
       </c>
       <c r="C60" t="n">
-        <v>0.464452</v>
+        <v>0.467911</v>
       </c>
       <c r="D60" t="n">
-        <v>0.724029</v>
+        <v>0.7343499999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.251396</v>
+        <v>0.245537</v>
       </c>
       <c r="F60" t="n">
-        <v>0.415258</v>
+        <v>0.418938</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260708</v>
+        <v>0.263464</v>
       </c>
       <c r="C61" t="n">
-        <v>0.457086</v>
+        <v>0.461315</v>
       </c>
       <c r="D61" t="n">
-        <v>0.717153</v>
+        <v>0.7277400000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.246986</v>
+        <v>0.239157</v>
       </c>
       <c r="F61" t="n">
-        <v>0.411306</v>
+        <v>0.414082</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.258353</v>
+        <v>0.260945</v>
       </c>
       <c r="C62" t="n">
-        <v>0.454363</v>
+        <v>0.454808</v>
       </c>
       <c r="D62" t="n">
-        <v>0.711012</v>
+        <v>0.7213310000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.243179</v>
+        <v>0.234794</v>
       </c>
       <c r="F62" t="n">
-        <v>0.408152</v>
+        <v>0.411831</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.252329</v>
+        <v>0.255185</v>
       </c>
       <c r="C63" t="n">
-        <v>0.449367</v>
+        <v>0.453619</v>
       </c>
       <c r="D63" t="n">
-        <v>0.705967</v>
+        <v>0.715901</v>
       </c>
       <c r="E63" t="n">
-        <v>0.238914</v>
+        <v>0.23224</v>
       </c>
       <c r="F63" t="n">
-        <v>0.406862</v>
+        <v>0.408768</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247375</v>
+        <v>0.25416</v>
       </c>
       <c r="C64" t="n">
-        <v>0.446195</v>
+        <v>0.447411</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9146879999999999</v>
+        <v>0.9226490000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.237927</v>
+        <v>